--- a/mementos/mementos-v2.xlsx
+++ b/mementos/mementos-v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kklau\OneDrive\Tagatame\Repo\mementos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C99B5B3-121D-4233-BD29-4DE4E55091D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9D0450-261B-44A4-BEC1-E77BCD33F98E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{28EF47FE-C34C-4192-A973-EF1E71DA4EC0}"/>
   </bookViews>
@@ -1842,13 +1842,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -25762,22 +25762,22 @@
   <sheetProtection algorithmName="SHA-512" hashValue="6wQU7aximtdq1ZZAAqvCxfsf5BZxrTvkXm4Foenw9xKBAjA0/r/Vay7gl9MeqYaaUHEMcmQBZ4F7j32Wkwyftg==" saltValue="UZFpYwEtlBK1o75/eK6rNQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <autoFilter ref="B2:AD187" xr:uid="{12F5E3EA-4FDA-471C-839A-02A68F2CB4ED}"/>
   <conditionalFormatting sqref="D1:F1 AE93:AF122 AE149:AF187 A1:B122 A124:B1048576 C155:G187 C188:AF1048576 H1:AF1 A123:G123 I94:AD122 I149:AD153 C124:G153 C94:G122 C2:AF69 C70:G92 I70:AF92 I123:AF148 I155:AD187 H70:H187 AG1:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F154">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F93">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25838,15 +25838,15 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41" t="s">
         <v>399</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="42" t="s">
         <v>400</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="40" t="s">
         <v>42</v>
       </c>
       <c r="F2" s="11"/>
@@ -25858,11 +25858,11 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11" t="s">
         <v>402</v>
@@ -25872,11 +25872,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11" t="s">
         <v>404</v>
@@ -25886,11 +25886,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="42"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11" t="s">
         <v>405</v>
@@ -25900,11 +25900,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11" t="s">
         <v>406</v>
@@ -25916,13 +25916,13 @@
     <row r="7" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
       <c r="B7" s="43"/>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="41" t="s">
         <v>408</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="40" t="s">
         <v>361</v>
       </c>
       <c r="F7" s="11"/>
@@ -25936,9 +25936,9 @@
     <row r="8" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" s="43"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11" t="s">
         <v>411</v>
@@ -26000,15 +26000,15 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41" t="s">
         <v>419</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="42" t="s">
         <v>420</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="40" t="s">
         <v>162</v>
       </c>
       <c r="F12" s="11"/>
@@ -26020,11 +26020,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11" t="s">
         <v>422</v>
@@ -26130,15 +26130,15 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="41" t="s">
         <v>438</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41" t="s">
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42" t="s">
         <v>439</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="40" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="11"/>
@@ -26150,11 +26150,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="40"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="41"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11" t="s">
         <v>441</v>
@@ -26164,11 +26164,11 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="40"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="41"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11" t="s">
         <v>442</v>
@@ -26178,11 +26178,11 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="40"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="41"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11" t="s">
         <v>443</v>
@@ -26220,26 +26220,26 @@
   </sheetData>
   <autoFilter ref="C1:H1" xr:uid="{D34E5BD1-5186-4F28-B32E-C9CFC7F001D0}"/>
   <mergeCells count="20">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
     <mergeCell ref="E19:E22"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26255,7 +26255,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26291,7 +26291,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
-        <v>43869</v>
+        <v>43876</v>
       </c>
     </row>
   </sheetData>

--- a/mementos/mementos-v2.xlsx
+++ b/mementos/mementos-v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kklau\OneDrive\Tagatame\Repo\mementos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9D0450-261B-44A4-BEC1-E77BCD33F98E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0C9D0450-261B-44A4-BEC1-E77BCD33F98E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E41D13F9-C780-4A05-8C33-F5EB2E720484}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{28EF47FE-C34C-4192-A973-EF1E71DA4EC0}"/>
   </bookViews>
@@ -1842,13 +1842,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -13692,10 +13692,10 @@
   <dimension ref="A1:AK188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AG1" sqref="AG1:AJ1048576"/>
+      <selection pane="bottomRight" activeCell="AG3" sqref="AG3:AG187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.3984375" defaultRowHeight="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13714,9 +13714,9 @@
     <col min="22" max="22" width="12.19921875" style="8" bestFit="1" customWidth="1"/>
     <col min="23" max="31" width="6.3984375" style="8"/>
     <col min="32" max="32" width="6.3984375" style="24" customWidth="1"/>
-    <col min="33" max="34" width="6.3984375" style="33" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="6.3984375" style="36" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="6.3984375" style="38" hidden="1" customWidth="1"/>
+    <col min="33" max="34" width="6.3984375" style="33" customWidth="1"/>
+    <col min="35" max="35" width="6.3984375" style="36" customWidth="1"/>
+    <col min="36" max="36" width="6.3984375" style="38" customWidth="1"/>
     <col min="37" max="37" width="6.3984375" style="24"/>
     <col min="38" max="16384" width="6.3984375" style="8"/>
   </cols>
@@ -13904,9 +13904,9 @@
       </c>
       <c r="AF3" s="23"/>
       <c r="AG3" s="31" t="str">
-        <f>"&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/"&amp;A3&amp;"&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C3&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D3&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E3="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E3="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F3&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G3&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI3&amp;"'&gt;"&amp;H3&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I3&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J3&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K3&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M3&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N3&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O3&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P3&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q3&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R3&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S3&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T3&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U3&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V3&amp;"&lt;/td&gt;&lt;td headers='嫉妬'&gt;"&amp;W3&amp;"&lt;/td&gt;&lt;td headers='怠惰'&gt;"&amp;X3&amp;"&lt;/td&gt;&lt;td headers='色欲'&gt;"&amp;Y3&amp;"&lt;/td&gt;&lt;td headers='暴食'&gt;"&amp;Z3&amp;"&lt;/td&gt;&lt;td headers='憤怒'&gt;"&amp;AA3&amp;"&lt;/td&gt;&lt;td headers='強欲'&gt;"&amp;AB3&amp;"&lt;/td&gt;&lt;td headers='傲慢'&gt;"&amp;AC3&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_AOT_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;勝利への紅き一矢&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m001'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/"&amp;A3&amp;" alt='"&amp;C3&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C3&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D3&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E3="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E3="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F3&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G3&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI3&amp;"'&gt;"&amp;H3&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I3&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J3&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K3&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M3&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N3&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O3&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P3&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q3&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R3&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S3&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T3&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U3&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V3&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W3&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X3&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y3&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z3&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA3&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB3&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC3&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_AOT_01.png alt='勝利への紅き一矢'&gt;&lt;/td&gt;&lt;td headers='name'&gt;勝利への紅き一矢&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m001'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH3" s="31" t="str">
         <f>"document.getElementById('"&amp;AI3&amp;"').innerHTML = (b1*"&amp;TEXT(J3,0)&amp;"+b2*"&amp;TEXT(K3,0)&amp;"+b0*"&amp;TEXT(L3,0)&amp;") + (s1*"&amp;TEXT(W3,0)&amp;"+s2*"&amp;TEXT(X3,0)&amp;"+s3*"&amp;TEXT(Y3,0)&amp;"+s4*"&amp;TEXT(Z3,0)&amp;"+s5*"&amp;TEXT(AA3,0)&amp;"+s6*"&amp;TEXT(AB3,0)&amp;"+s7*"&amp;TEXT(AC3,0)&amp;"+s0*"&amp;TEXT(AD3,0)&amp;") + (e01*"&amp;IF(R3="斬撃",S3,0)&amp;"+e02*"&amp;IF(R3="刺突",S3,0)&amp;"+e03*"&amp;IF(R3="打撃",S3,0)&amp;"+e04*"&amp;IF(R3="射撃",S3,0)&amp;"+e05*"&amp;IF(R3="魔法",S3,0)&amp;"+e06*"&amp;IF(R3="無区分",S3,0)&amp;"+e07*"&amp;IF(T3="反撃",U3,0)&amp;"+e08*"&amp;IF(T3="風属性",U3,0)&amp;"+e09*"&amp;IF(T3="闇属性",U3,0)&amp;"+e10*"&amp;IF(T3="単体",U3,0)&amp;"+e11*"&amp;IF(T3="範囲",U3,0)&amp;"+e12*"&amp;IF(T3="人",U3,0)&amp;"+e13*"&amp;IF(T3="異族",U3,0)&amp;"+e14*"&amp;IF(T3="バジュラ",U3,0)&amp;"+e15*"&amp;IF(T3="魔動人形",U3,0)&amp;");"</f>
@@ -13962,9 +13962,9 @@
       </c>
       <c r="AF4" s="23"/>
       <c r="AG4" s="31" t="str">
-        <f t="shared" ref="AG4:AG67" si="3">"&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/"&amp;A4&amp;"&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C4&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D4&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E4="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E4="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F4&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G4&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI4&amp;"'&gt;"&amp;H4&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I4&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J4&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K4&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M4&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N4&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O4&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P4&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q4&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R4&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S4&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T4&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U4&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V4&amp;"&lt;/td&gt;&lt;td headers='嫉妬'&gt;"&amp;W4&amp;"&lt;/td&gt;&lt;td headers='怠惰'&gt;"&amp;X4&amp;"&lt;/td&gt;&lt;td headers='色欲'&gt;"&amp;Y4&amp;"&lt;/td&gt;&lt;td headers='暴食'&gt;"&amp;Z4&amp;"&lt;/td&gt;&lt;td headers='憤怒'&gt;"&amp;AA4&amp;"&lt;/td&gt;&lt;td headers='強欲'&gt;"&amp;AB4&amp;"&lt;/td&gt;&lt;td headers='傲慢'&gt;"&amp;AC4&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_AOT_02.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;反攻の炎に捧げん&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m002'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" ref="AG4:AG67" si="3">"&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/"&amp;A4&amp;" alt='"&amp;C4&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C4&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D4&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E4="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E4="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F4&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G4&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI4&amp;"'&gt;"&amp;H4&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I4&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J4&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K4&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M4&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N4&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O4&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P4&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q4&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R4&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S4&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T4&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U4&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V4&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W4&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X4&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y4&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z4&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA4&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB4&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC4&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_AOT_02.png alt='反攻の炎に捧げん'&gt;&lt;/td&gt;&lt;td headers='name'&gt;反攻の炎に捧げん&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m002'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH4" s="31" t="str">
         <f t="shared" ref="AH4:AH67" si="4">"document.getElementById('"&amp;AI4&amp;"').innerHTML = (b1*"&amp;TEXT(J4,0)&amp;"+b2*"&amp;TEXT(K4,0)&amp;"+b0*"&amp;TEXT(L4,0)&amp;") + (s1*"&amp;TEXT(W4,0)&amp;"+s2*"&amp;TEXT(X4,0)&amp;"+s3*"&amp;TEXT(Y4,0)&amp;"+s4*"&amp;TEXT(Z4,0)&amp;"+s5*"&amp;TEXT(AA4,0)&amp;"+s6*"&amp;TEXT(AB4,0)&amp;"+s7*"&amp;TEXT(AC4,0)&amp;"+s0*"&amp;TEXT(AD4,0)&amp;") + (e01*"&amp;IF(R4="斬撃",S4,0)&amp;"+e02*"&amp;IF(R4="刺突",S4,0)&amp;"+e03*"&amp;IF(R4="打撃",S4,0)&amp;"+e04*"&amp;IF(R4="射撃",S4,0)&amp;"+e05*"&amp;IF(R4="魔法",S4,0)&amp;"+e06*"&amp;IF(R4="無区分",S4,0)&amp;"+e07*"&amp;IF(T4="反撃",U4,0)&amp;"+e08*"&amp;IF(T4="風属性",U4,0)&amp;"+e09*"&amp;IF(T4="闇属性",U4,0)&amp;"+e10*"&amp;IF(T4="単体",U4,0)&amp;"+e11*"&amp;IF(T4="範囲",U4,0)&amp;"+e12*"&amp;IF(T4="人",U4,0)&amp;"+e13*"&amp;IF(T4="異族",U4,0)&amp;"+e14*"&amp;IF(T4="バジュラ",U4,0)&amp;"+e15*"&amp;IF(T4="魔動人形",U4,0)&amp;");"</f>
@@ -14037,8 +14037,8 @@
       <c r="AF5" s="23"/>
       <c r="AG5" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_APRILFOOL_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;その夢。ぬくもりの中に&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;蒼炎騎士団&lt;/td&gt;&lt;td headers='score' id='m003'&gt;45&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;15&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;15&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_APRILFOOL_01.png alt='その夢。ぬくもりの中に'&gt;&lt;/td&gt;&lt;td headers='name'&gt;その夢。ぬくもりの中に&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;蒼炎騎士団&lt;/td&gt;&lt;td headers='score' id='m003'&gt;45&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;15&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;15&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH5" s="31" t="str">
         <f t="shared" si="4"/>
@@ -14095,8 +14095,8 @@
       <c r="AF6" s="23"/>
       <c r="AG6" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_BF_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;フロンティアレジェンズ&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m004'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_BF_01.png alt='フロンティアレジェンズ'&gt;&lt;/td&gt;&lt;td headers='name'&gt;フロンティアレジェンズ&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m004'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH6" s="31" t="str">
         <f t="shared" si="4"/>
@@ -14150,8 +14150,8 @@
       <c r="AF7" s="23"/>
       <c r="AG7" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_CARAMEL_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;キャラメルイェーガー&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
-Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m005'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_CARAMEL_01.png alt='キャラメルイェーガー'&gt;&lt;/td&gt;&lt;td headers='name'&gt;キャラメルイェーガー&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
+Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m005'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH7" s="31" t="str">
         <f t="shared" si="4"/>
@@ -14208,8 +14208,8 @@
       <c r="AF8" s="23"/>
       <c r="AG8" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_COMIKE_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;クノイチの青春&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m006'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_COMIKE_01.png alt='クノイチの青春'&gt;&lt;/td&gt;&lt;td headers='name'&gt;クノイチの青春&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m006'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH8" s="31" t="str">
         <f t="shared" si="4"/>
@@ -14266,8 +14266,8 @@
       <c r="AF9" s="23"/>
       <c r="AG9" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_CRY_ARTH_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;猛き者の本懐&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m007'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_CRY_ARTH_01.png alt='猛き者の本懐'&gt;&lt;/td&gt;&lt;td headers='name'&gt;猛き者の本懐&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m007'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH9" s="31" t="str">
         <f t="shared" si="4"/>
@@ -14324,8 +14324,8 @@
       <c r="AF10" s="23"/>
       <c r="AG10" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_CRY_MERL_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;尊き者の名は&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m008'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_CRY_MERL_01.png alt='尊き者の名は'&gt;&lt;/td&gt;&lt;td headers='name'&gt;尊き者の名は&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m008'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH10" s="31" t="str">
         <f t="shared" si="4"/>
@@ -14385,8 +14385,8 @@
       <c r="AF11" s="23"/>
       <c r="AG11" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_DESERT_ANK_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;敏腕参謀の多忙な一日&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;砂漠地帯
-Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m009'&gt;30&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_DESERT_ANK_01.png alt='敏腕参謀の多忙な一日'&gt;&lt;/td&gt;&lt;td headers='name'&gt;敏腕参謀の多忙な一日&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;砂漠地帯
+Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m009'&gt;30&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH11" s="31" t="str">
         <f t="shared" si="4"/>
@@ -14458,8 +14458,8 @@
       <c r="AF12" s="23"/>
       <c r="AG12" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_DESERT_ANK_02.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;折れることなき翼&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;砂漠地帯
-Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m010'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;刺突&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;30&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;30&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_DESERT_ANK_02.png alt='折れることなき翼'&gt;&lt;/td&gt;&lt;td headers='name'&gt;折れることなき翼&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;砂漠地帯
+Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m010'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;刺突&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;30&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH12" s="31" t="str">
         <f t="shared" si="4"/>
@@ -14526,8 +14526,8 @@
       <c r="AF13" s="23"/>
       <c r="AG13" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_DESERT_ARKILL_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;テイクリワード&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;砂漠地帯
-Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m011'&gt;10&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;10&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;沈黙+20&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_DESERT_ARKILL_01.png alt='テイクリワード'&gt;&lt;/td&gt;&lt;td headers='name'&gt;テイクリワード&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;砂漠地帯
+Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m011'&gt;10&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;10&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;沈黙+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH13" s="31" t="str">
         <f t="shared" si="4"/>
@@ -14591,8 +14591,8 @@
       <c r="AF14" s="23"/>
       <c r="AG14" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_DESERT_ASUWADO_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;闇と雲に潜みし刃&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;砂漠地帯
-Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m012'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;魔法回避+20&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;30&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_DESERT_ASUWADO_01.png alt='闇と雲に潜みし刃'&gt;&lt;/td&gt;&lt;td headers='name'&gt;闇と雲に潜みし刃&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;砂漠地帯
+Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m012'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;魔法回避+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;30&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH14" s="31" t="str">
         <f t="shared" si="4"/>
@@ -14661,8 +14661,8 @@
       <c r="AF15" s="23"/>
       <c r="AG15" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_DESERT_BALT_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;砂上での熱き誓い&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;砂漠地帯
-Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m013'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;50&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+10&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;30&lt;/td&gt;&lt;td headers='憤怒'&gt;30&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_DESERT_BALT_01.png alt='砂上での熱き誓い'&gt;&lt;/td&gt;&lt;td headers='name'&gt;砂上での熱き誓い&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;砂漠地帯
+Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m013'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;50&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;30&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH15" s="31" t="str">
         <f t="shared" si="4"/>
@@ -14730,8 +14730,8 @@
       <c r="AF16" s="23"/>
       <c r="AG16" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_DESERT_BASINI_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;次代の大陸の正義&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;砂漠地帯
-Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m014'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;5&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;闇属性耐性+20&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;60&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_DESERT_BASINI_01.png alt='次代の大陸の正義'&gt;&lt;/td&gt;&lt;td headers='name'&gt;次代の大陸の正義&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;砂漠地帯
+Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m014'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;5&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;闇属性耐性+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;60&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH16" s="31" t="str">
         <f t="shared" si="4"/>
@@ -14808,8 +14808,8 @@
       <c r="AF17" s="23"/>
       <c r="AG17" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_DESERT_BASINI_02.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;春来たりなば&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;砂漠地帯
-Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m015'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;単体&lt;/td&gt;&lt;td headers='sp.bonus'&gt;20&lt;/td&gt;&lt;td headers='others'&gt;回避+10&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;40&lt;/td&gt;&lt;td headers='暴食'&gt;20&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_DESERT_BASINI_02.png alt='春来たりなば'&gt;&lt;/td&gt;&lt;td headers='name'&gt;春来たりなば&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;砂漠地帯
+Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m015'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;単体&lt;/td&gt;&lt;td headers='sp.bonus'&gt;20&lt;/td&gt;&lt;td headers='others'&gt;回避+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;40&lt;/td&gt;&lt;td headers='sinD'&gt;20&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH17" s="31" t="str">
         <f t="shared" si="4"/>
@@ -14883,8 +14883,8 @@
       <c r="AF18" s="23"/>
       <c r="AG18" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_DESERT_MASHULI_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;近くて遠いふれあい&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;砂漠地帯
-Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m016'&gt;45&lt;/td&gt;&lt;td headers='HP'&gt;60&lt;/td&gt;&lt;td headers='patk'&gt;15&lt;/td&gt;&lt;td headers='matk'&gt;15&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;治癒力+20&lt;/td&gt;&lt;td headers='嫉妬'&gt;30&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;30&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_DESERT_MASHULI_01.png alt='近くて遠いふれあい'&gt;&lt;/td&gt;&lt;td headers='name'&gt;近くて遠いふれあい&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;砂漠地帯
+Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m016'&gt;45&lt;/td&gt;&lt;td headers='HP'&gt;60&lt;/td&gt;&lt;td headers='patk'&gt;15&lt;/td&gt;&lt;td headers='matk'&gt;15&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;治癒力+20&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;30&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH18" s="31" t="str">
         <f t="shared" si="4"/>
@@ -14959,8 +14959,8 @@
       <c r="AF19" s="23"/>
       <c r="AG19" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_DESERT_NEFERTY_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;風に舞う時の砂&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;砂漠地帯
-Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m017'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;60&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;20&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;魔法&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;20&lt;/td&gt;&lt;td headers='暴食'&gt;20&lt;/td&gt;&lt;td headers='憤怒'&gt;20&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_DESERT_NEFERTY_01.png alt='風に舞う時の砂'&gt;&lt;/td&gt;&lt;td headers='name'&gt;風に舞う時の砂&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;砂漠地帯
+Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m017'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;60&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;20&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;魔法&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;20&lt;/td&gt;&lt;td headers='sinD'&gt;20&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH19" s="31" t="str">
         <f t="shared" si="4"/>
@@ -15024,8 +15024,8 @@
       <c r="AF20" s="23"/>
       <c r="AG20" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_DESERT_RAMESES_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;愛しき家族&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;砂漠地帯
-Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m018'&gt;20&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;10&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;20&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_DESERT_RAMESES_01.png alt='愛しき家族'&gt;&lt;/td&gt;&lt;td headers='name'&gt;愛しき家族&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;砂漠地帯
+Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m018'&gt;20&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;10&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;20&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH20" s="31" t="str">
         <f t="shared" si="4"/>
@@ -15093,8 +15093,8 @@
       <c r="AF21" s="23"/>
       <c r="AG21" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_DESERT_RETZIUS_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;憧れと目標&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;砂漠地帯
-Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m019'&gt;50&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;5&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;MP上限+5, MP回復+5&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;30&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_DESERT_RETZIUS_01.png alt='憧れと目標'&gt;&lt;/td&gt;&lt;td headers='name'&gt;憧れと目標&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;砂漠地帯
+Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m019'&gt;50&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;5&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;MP上限+5, MP回復+5&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;30&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH21" s="31" t="str">
         <f t="shared" si="4"/>
@@ -15168,8 +15168,8 @@
       <c r="AF22" s="23"/>
       <c r="AG22" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_DESERT_RYLE_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;この白砂は俺の領域だ&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;砂漠地帯
-Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m020'&gt;70&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;50&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;30&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+5&lt;/td&gt;&lt;td headers='嫉妬'&gt;20&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;20&lt;/td&gt;&lt;td headers='憤怒'&gt;20&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_DESERT_RYLE_01.png alt='この白砂は俺の領域だ'&gt;&lt;/td&gt;&lt;td headers='name'&gt;この白砂は俺の領域だ&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;砂漠地帯
+Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m020'&gt;70&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;50&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;30&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+5&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;20&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH22" s="31" t="str">
         <f t="shared" si="4"/>
@@ -15235,8 +15235,8 @@
       <c r="AF23" s="23"/>
       <c r="AG23" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_DESERT_SUTORIE_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;特別な日&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;砂漠地帯
-Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m021'&gt;40&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;人&lt;/td&gt;&lt;td headers='sp.bonus'&gt;20&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;20&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_DESERT_SUTORIE_01.png alt='特別な日'&gt;&lt;/td&gt;&lt;td headers='name'&gt;特別な日&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;砂漠地帯
+Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m021'&gt;40&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;人&lt;/td&gt;&lt;td headers='sp.bonus'&gt;20&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;20&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH23" s="31" t="str">
         <f t="shared" si="4"/>
@@ -15307,8 +15307,8 @@
       <c r="AF24" s="23"/>
       <c r="AG24" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_DESERT_UZUMA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;絵から出てきたみたい&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;砂漠地帯
-Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m022'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;40&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;20&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;20&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;20&lt;/td&gt;&lt;td headers='暴食'&gt;20&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_DESERT_UZUMA_01.png alt='絵から出てきたみたい'&gt;&lt;/td&gt;&lt;td headers='name'&gt;絵から出てきたみたい&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;砂漠地帯
+Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m022'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;40&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;20&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;20&lt;/td&gt;&lt;td headers='sinD'&gt;20&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH24" s="31" t="str">
         <f t="shared" si="4"/>
@@ -15362,8 +15362,8 @@
       <c r="AF25" s="23"/>
       <c r="AG25" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_AGATHA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;「甘き追想」&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m023'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_AGATHA_01.png alt='「甘き追想」'&gt;&lt;/td&gt;&lt;td headers='name'&gt;「甘き追想」&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m023'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH25" s="31" t="str">
         <f t="shared" si="4"/>
@@ -15417,8 +15417,8 @@
       <c r="AF26" s="23"/>
       <c r="AG26" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_ALAIA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;積み重ね、結晶&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m024'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_ALAIA_01.png alt='積み重ね、結晶'&gt;&lt;/td&gt;&lt;td headers='name'&gt;積み重ね、結晶&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m024'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH26" s="31" t="str">
         <f t="shared" si="4"/>
@@ -15483,8 +15483,8 @@
       <c r="AF27" s="23"/>
       <c r="AG27" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_ALFRED_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;シェイナファンの証明&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m025'&gt;40&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;20&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;20&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_ALFRED_01.png alt='シェイナファンの証明'&gt;&lt;/td&gt;&lt;td headers='name'&gt;シェイナファンの証明&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m025'&gt;40&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;20&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH27" s="31" t="str">
         <f t="shared" si="4"/>
@@ -15538,8 +15538,8 @@
       <c r="AF28" s="23"/>
       <c r="AG28" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_AYLLU_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;「ある日の大発見」&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
-Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m026'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_AYLLU_01.png alt='「ある日の大発見」'&gt;&lt;/td&gt;&lt;td headers='name'&gt;「ある日の大発見」&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
+Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m026'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH28" s="31" t="str">
         <f t="shared" si="4"/>
@@ -15593,8 +15593,8 @@
       <c r="AF29" s="23"/>
       <c r="AG29" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_BELTA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;特式お手入れの成果は&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m027'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_BELTA_01.png alt='特式お手入れの成果は'&gt;&lt;/td&gt;&lt;td headers='name'&gt;特式お手入れの成果は&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m027'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH29" s="31" t="str">
         <f t="shared" si="4"/>
@@ -15648,8 +15648,8 @@
       <c r="AF30" s="23"/>
       <c r="AG30" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_BELTA_02.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;打ち上げる夏の思い出&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m028'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_BELTA_02.png alt='打ち上げる夏の思い出'&gt;&lt;/td&gt;&lt;td headers='name'&gt;打ち上げる夏の思い出&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m028'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH30" s="31" t="str">
         <f t="shared" si="4"/>
@@ -15718,8 +15718,8 @@
       <c r="AF31" s="23"/>
       <c r="AG31" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_CANON_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;継承されし大陸の正義&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m029'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;闇属性&lt;/td&gt;&lt;td headers='sp.bonus'&gt;30&lt;/td&gt;&lt;td headers='others'&gt;闇属性耐性+20&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;60&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_CANON_01.png alt='継承されし大陸の正義'&gt;&lt;/td&gt;&lt;td headers='name'&gt;継承されし大陸の正義&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m029'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;闇属性&lt;/td&gt;&lt;td headers='sp.bonus'&gt;30&lt;/td&gt;&lt;td headers='others'&gt;闇属性耐性+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;60&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH31" s="31" t="str">
         <f t="shared" si="4"/>
@@ -15785,8 +15785,8 @@
       <c r="AF32" s="23"/>
       <c r="AG32" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_CLOE_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;圧倒的敗北&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;緋炎騎士団&lt;/td&gt;&lt;td headers='score' id='m030'&gt;40&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;60&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;40&lt;/td&gt;&lt;td headers='強欲'&gt;20&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_CLOE_01.png alt='圧倒的敗北'&gt;&lt;/td&gt;&lt;td headers='name'&gt;圧倒的敗北&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;緋炎騎士団&lt;/td&gt;&lt;td headers='score' id='m030'&gt;40&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;60&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;40&lt;/td&gt;&lt;td headers='sinF'&gt;20&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH32" s="31" t="str">
         <f t="shared" si="4"/>
@@ -15842,8 +15842,8 @@
       <c r="AF33" s="23"/>
       <c r="AG33" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_DARTAGNAN_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;肉は完全食！&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;緋炎騎士団&lt;/td&gt;&lt;td headers='score' id='m031'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_DARTAGNAN_01.png alt='肉は完全食！'&gt;&lt;/td&gt;&lt;td headers='name'&gt;肉は完全食！&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;緋炎騎士団&lt;/td&gt;&lt;td headers='score' id='m031'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH33" s="31" t="str">
         <f t="shared" si="4"/>
@@ -15897,8 +15897,8 @@
       <c r="AF34" s="23"/>
       <c r="AG34" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_DECEL_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;ささやかな休息&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m032'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_DECEL_01.png alt='ささやかな休息'&gt;&lt;/td&gt;&lt;td headers='name'&gt;ささやかな休息&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m032'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH34" s="31" t="str">
         <f t="shared" si="4"/>
@@ -15959,8 +15959,8 @@
       <c r="AF35" s="23"/>
       <c r="AG35" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_DILGA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;戦士の休息&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;エンヴィリア王国騎士団&lt;/td&gt;&lt;td headers='score' id='m033'&gt;20&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;50&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;20&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_DILGA_01.png alt='戦士の休息'&gt;&lt;/td&gt;&lt;td headers='name'&gt;戦士の休息&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;エンヴィリア王国騎士団&lt;/td&gt;&lt;td headers='score' id='m033'&gt;20&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;50&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH35" s="31" t="str">
         <f t="shared" si="4"/>
@@ -16014,8 +16014,8 @@
       <c r="AF36" s="23"/>
       <c r="AG36" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_ELAINE_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;お気に入りの帽子&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m034'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_ELAINE_01.png alt='お気に入りの帽子'&gt;&lt;/td&gt;&lt;td headers='name'&gt;お気に入りの帽子&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m034'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH36" s="31" t="str">
         <f t="shared" si="4"/>
@@ -16069,8 +16069,8 @@
       <c r="AF37" s="23"/>
       <c r="AG37" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_ELIZABETH_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;お姉様の為ならば&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m035'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_ELIZABETH_01.png alt='お姉様の為ならば'&gt;&lt;/td&gt;&lt;td headers='name'&gt;お姉様の為ならば&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m035'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH37" s="31" t="str">
         <f t="shared" si="4"/>
@@ -16124,8 +16124,8 @@
       <c r="AF38" s="23"/>
       <c r="AG38" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_FAIRLILY_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;ようこそ我らが植物園&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m036'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_FAIRLILY_01.png alt='ようこそ我らが植物園'&gt;&lt;/td&gt;&lt;td headers='name'&gt;ようこそ我らが植物園&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m036'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH38" s="31" t="str">
         <f t="shared" si="4"/>
@@ -16179,8 +16179,8 @@
       <c r="AF39" s="23"/>
       <c r="AG39" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_FOUNTAIN_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;未来への展望&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m037'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_FOUNTAIN_01.png alt='未来への展望'&gt;&lt;/td&gt;&lt;td headers='name'&gt;未来への展望&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m037'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH39" s="31" t="str">
         <f t="shared" si="4"/>
@@ -16253,8 +16253,8 @@
       <c r="AF40" s="23"/>
       <c r="AG40" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_GERALD_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;受け継がれた鋼の意志&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;緋炎騎士団&lt;/td&gt;&lt;td headers='score' id='m038'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;30&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;範囲&lt;/td&gt;&lt;td headers='sp.bonus'&gt;20&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;20&lt;/td&gt;&lt;td headers='憤怒'&gt;40&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_GERALD_01.png alt='受け継がれた鋼の意志'&gt;&lt;/td&gt;&lt;td headers='name'&gt;受け継がれた鋼の意志&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;緋炎騎士団&lt;/td&gt;&lt;td headers='score' id='m038'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;30&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;範囲&lt;/td&gt;&lt;td headers='sp.bonus'&gt;20&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;20&lt;/td&gt;&lt;td headers='sinE'&gt;40&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH40" s="31" t="str">
         <f t="shared" si="4"/>
@@ -16326,8 +16326,8 @@
       <c r="AF41" s="23"/>
       <c r="AG41" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_GINO_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;優しき反抗期&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;エンヴィリア王国騎士団&lt;/td&gt;&lt;td headers='score' id='m039'&gt;40&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;10&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;10&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;10&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_GINO_01.png alt='優しき反抗期'&gt;&lt;/td&gt;&lt;td headers='name'&gt;優しき反抗期&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;エンヴィリア王国騎士団&lt;/td&gt;&lt;td headers='score' id='m039'&gt;40&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;10&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;10&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;10&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH41" s="31" t="str">
         <f t="shared" si="4"/>
@@ -16405,8 +16405,8 @@
       <c r="AF42" s="23"/>
       <c r="AG42" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_LEONIA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;嗚呼、麗しき純白の獅子&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m040'&gt;70&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;刺突&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;暴擊率+20&lt;/td&gt;&lt;td headers='嫉妬'&gt;30&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;30&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_LEONIA_01.png alt='嗚呼、麗しき純白の獅子'&gt;&lt;/td&gt;&lt;td headers='name'&gt;嗚呼、麗しき純白の獅子&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m040'&gt;70&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;刺突&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;暴擊率+20&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH42" s="31" t="str">
         <f t="shared" si="4"/>
@@ -16467,8 +16467,8 @@
       <c r="AF43" s="23"/>
       <c r="AG43" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_LGDSAG_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;胸を焦がす輝き&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;蒼炎騎士団&lt;/td&gt;&lt;td headers='score' id='m041'&gt;30&lt;/td&gt;&lt;td headers='HP'&gt;60&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;30&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_LGDSAG_01.png alt='胸を焦がす輝き'&gt;&lt;/td&gt;&lt;td headers='name'&gt;胸を焦がす輝き&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;蒼炎騎士団&lt;/td&gt;&lt;td headers='score' id='m041'&gt;30&lt;/td&gt;&lt;td headers='HP'&gt;60&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH43" s="31" t="str">
         <f t="shared" si="4"/>
@@ -16524,8 +16524,8 @@
       <c r="AF44" s="23"/>
       <c r="AG44" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_LUCRETIA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;姫騎士という高嶺の花&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;エンヴィリア王国騎士団&lt;/td&gt;&lt;td headers='score' id='m042'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_LUCRETIA_01.png alt='姫騎士という高嶺の花'&gt;&lt;/td&gt;&lt;td headers='name'&gt;姫騎士という高嶺の花&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;エンヴィリア王国騎士団&lt;/td&gt;&lt;td headers='score' id='m042'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH44" s="31" t="str">
         <f t="shared" si="4"/>
@@ -16591,8 +16591,8 @@
       <c r="AF45" s="23"/>
       <c r="AG45" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_LUCRETIA_02.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;幸せってこと♪&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;エンヴィリア王国騎士団&lt;/td&gt;&lt;td headers='score' id='m043'&gt;50&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;30&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_LUCRETIA_02.png alt='幸せってこと♪'&gt;&lt;/td&gt;&lt;td headers='name'&gt;幸せってこと♪&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;エンヴィリア王国騎士団&lt;/td&gt;&lt;td headers='score' id='m043'&gt;50&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH45" s="31" t="str">
         <f t="shared" si="4"/>
@@ -16646,8 +16646,8 @@
       <c r="AF46" s="23"/>
       <c r="AG46" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_MARGARET_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;お姉様の為ならば&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m044'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_MARGARET_01.png alt='お姉様の為ならば'&gt;&lt;/td&gt;&lt;td headers='name'&gt;お姉様の為ならば&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m044'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH46" s="31" t="str">
         <f t="shared" si="4"/>
@@ -16703,8 +16703,8 @@
       <c r="AF47" s="23"/>
       <c r="AG47" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_MONZOTM_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;いつかまた昼食を&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m045'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_MONZOTM_01.png alt='いつかまた昼食を'&gt;&lt;/td&gt;&lt;td headers='name'&gt;いつかまた昼食を&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m045'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH47" s="31" t="str">
         <f t="shared" si="4"/>
@@ -16775,8 +16775,8 @@
       <c r="AF48" s="23"/>
       <c r="AG48" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_MONZOTM_02.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;正義を賭して&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m046'&gt;35&lt;/td&gt;&lt;td headers='HP'&gt;70&lt;/td&gt;&lt;td headers='patk'&gt;15&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;15&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;20&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;20&lt;/td&gt;&lt;td headers='強欲'&gt;20&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_MONZOTM_02.png alt='正義を賭して'&gt;&lt;/td&gt;&lt;td headers='name'&gt;正義を賭して&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m046'&gt;35&lt;/td&gt;&lt;td headers='HP'&gt;70&lt;/td&gt;&lt;td headers='patk'&gt;15&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;15&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;20&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH48" s="31" t="str">
         <f t="shared" si="4"/>
@@ -16844,8 +16844,8 @@
       <c r="AF49" s="23"/>
       <c r="AG49" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_NATALIE_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;淡い想い、紅鏡に照らして&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;緋炎騎士団&lt;/td&gt;&lt;td headers='score' id='m047'&gt;55&lt;/td&gt;&lt;td headers='HP'&gt;70&lt;/td&gt;&lt;td headers='patk'&gt;15&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;15&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;20&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;40&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_NATALIE_01.png alt='淡い想い、紅鏡に照らして'&gt;&lt;/td&gt;&lt;td headers='name'&gt;淡い想い、紅鏡に照らして&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;緋炎騎士団&lt;/td&gt;&lt;td headers='score' id='m047'&gt;55&lt;/td&gt;&lt;td headers='HP'&gt;70&lt;/td&gt;&lt;td headers='patk'&gt;15&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;15&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;40&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH49" s="31" t="str">
         <f t="shared" si="4"/>
@@ -16901,8 +16901,8 @@
       <c r="AF50" s="23"/>
       <c r="AG50" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_PRISCILA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;戦場の手向けの花&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;エンヴィリア王国騎士団&lt;/td&gt;&lt;td headers='score' id='m048'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_PRISCILA_01.png alt='戦場の手向けの花'&gt;&lt;/td&gt;&lt;td headers='name'&gt;戦場の手向けの花&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;エンヴィリア王国騎士団&lt;/td&gt;&lt;td headers='score' id='m048'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH50" s="31" t="str">
         <f t="shared" si="4"/>
@@ -16956,8 +16956,8 @@
       <c r="AF51" s="23"/>
       <c r="AG51" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_ROTEN_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;「買い物のススメ」&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m049'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_ROTEN_01.png alt='「買い物のススメ」'&gt;&lt;/td&gt;&lt;td headers='name'&gt;「買い物のススメ」&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m049'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH51" s="31" t="str">
         <f t="shared" si="4"/>
@@ -17011,8 +17011,8 @@
       <c r="AF52" s="23"/>
       <c r="AG52" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_RUNBELL_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;「自由な傭兵の背中」&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m050'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_RUNBELL_01.png alt='「自由な傭兵の背中」'&gt;&lt;/td&gt;&lt;td headers='name'&gt;「自由な傭兵の背中」&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m050'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH52" s="31" t="str">
         <f t="shared" si="4"/>
@@ -17079,8 +17079,8 @@
       <c r="AF53" s="23"/>
       <c r="AG53" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_SHAYNA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;女子力の探求&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m051'&gt;40&lt;/td&gt;&lt;td headers='HP'&gt;10&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;打撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;魅了+10&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_SHAYNA_01.png alt='女子力の探求'&gt;&lt;/td&gt;&lt;td headers='name'&gt;女子力の探求&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m051'&gt;40&lt;/td&gt;&lt;td headers='HP'&gt;10&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;打撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;魅了+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH53" s="31" t="str">
         <f t="shared" si="4"/>
@@ -17137,8 +17137,8 @@
       <c r="AF54" s="23"/>
       <c r="AG54" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_SYARON_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;溢れる夏の音色&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m052'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_SYARON_01.png alt='溢れる夏の音色'&gt;&lt;/td&gt;&lt;td headers='name'&gt;溢れる夏の音色&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m052'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH54" s="31" t="str">
         <f t="shared" si="4"/>
@@ -17203,8 +17203,8 @@
       <c r="AF55" s="23"/>
       <c r="AG55" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_VETTEL_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;在りし日の緋炎&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;緋炎騎士団&lt;/td&gt;&lt;td headers='score' id='m053'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;60&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_VETTEL_01.png alt='在りし日の緋炎'&gt;&lt;/td&gt;&lt;td headers='name'&gt;在りし日の緋炎&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;緋炎騎士団&lt;/td&gt;&lt;td headers='score' id='m053'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;60&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH55" s="31" t="str">
         <f t="shared" si="4"/>
@@ -17275,8 +17275,8 @@
       <c r="AF56" s="23"/>
       <c r="AG56" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_VICTOR_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;スタディオーダー&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;緋炎騎士団&lt;/td&gt;&lt;td headers='score' id='m054'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;20&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+10&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;30&lt;/td&gt;&lt;td headers='強欲'&gt;30&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_VICTOR_01.png alt='スタディオーダー'&gt;&lt;/td&gt;&lt;td headers='name'&gt;スタディオーダー&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;緋炎騎士団&lt;/td&gt;&lt;td headers='score' id='m054'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;20&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH56" s="31" t="str">
         <f t="shared" si="4"/>
@@ -17341,8 +17341,8 @@
       <c r="AF57" s="23"/>
       <c r="AG57" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_ZAYIN_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;大陸の正義、ここに在り&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m055'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;60&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_ZAYIN_01.png alt='大陸の正義、ここに在り'&gt;&lt;/td&gt;&lt;td headers='name'&gt;大陸の正義、ここに在り&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m055'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;60&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH57" s="31" t="str">
         <f t="shared" si="4"/>
@@ -17415,8 +17415,8 @@
       <c r="AF58" s="23"/>
       <c r="AG58" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_ZAYIN_02.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;笑顔の先に望む世界&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m056'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;50&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;25&lt;/td&gt;&lt;td headers='mdef'&gt;25&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;30&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;30&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ENVYRIA_ZAYIN_02.png alt='笑顔の先に望む世界'&gt;&lt;/td&gt;&lt;td headers='name'&gt;笑顔の先に望む世界&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m056'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;50&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;25&lt;/td&gt;&lt;td headers='mdef'&gt;25&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH58" s="31" t="str">
         <f t="shared" si="4"/>
@@ -17473,8 +17473,8 @@
       <c r="AF59" s="23"/>
       <c r="AG59" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_FA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;迫り来る約束の日&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m057'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_FA_01.png alt='迫り来る約束の日'&gt;&lt;/td&gt;&lt;td headers='name'&gt;迫り来る約束の日&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m057'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH59" s="31" t="str">
         <f t="shared" si="4"/>
@@ -17531,8 +17531,8 @@
       <c r="AF60" s="23"/>
       <c r="AG60" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_FA_02.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;真理を追い求めて&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m058'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_FA_02.png alt='真理を追い求めて'&gt;&lt;/td&gt;&lt;td headers='name'&gt;真理を追い求めて&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m058'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH60" s="31" t="str">
         <f t="shared" si="4"/>
@@ -17589,8 +17589,8 @@
       <c r="AF61" s="23"/>
       <c r="AG61" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_GLUTTONY_JUURIA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;手向け、願いを乗せて&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;グラトニー＝フォス
-Glttony Foss&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m059'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_GLUTTONY_JUURIA_01.png alt='手向け、願いを乗せて'&gt;&lt;/td&gt;&lt;td headers='name'&gt;手向け、願いを乗せて&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;グラトニー＝フォス
+Glttony Foss&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m059'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH61" s="31" t="str">
         <f t="shared" si="4"/>
@@ -17647,8 +17647,8 @@
       <c r="AF62" s="23"/>
       <c r="AG62" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_GLUTTONY_LOTIA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;甘い宝石たち&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;グラトニー＝フォス
-Glttony Foss&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m060'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_GLUTTONY_LOTIA_01.png alt='甘い宝石たち'&gt;&lt;/td&gt;&lt;td headers='name'&gt;甘い宝石たち&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;グラトニー＝フォス
+Glttony Foss&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m060'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH62" s="31" t="str">
         <f t="shared" si="4"/>
@@ -17705,8 +17705,8 @@
       <c r="AF63" s="23"/>
       <c r="AG63" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_GLUTTONY_NEICA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;パニックイースター&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;グラトニー＝フォス
-Glttony Foss&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m061'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_GLUTTONY_NEICA_01.png alt='パニックイースター'&gt;&lt;/td&gt;&lt;td headers='name'&gt;パニックイースター&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;グラトニー＝フォス
+Glttony Foss&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m061'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH63" s="31" t="str">
         <f t="shared" si="4"/>
@@ -17780,8 +17780,8 @@
       <c r="AF64" s="23"/>
       <c r="AG64" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_GLUTTONY_RAURA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;雷光よりも鮮烈な&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;グラトニー＝フォス
-Glttony Foss&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m062'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;打撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;30&lt;/td&gt;&lt;td headers='怠惰'&gt;30&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_GLUTTONY_RAURA_01.png alt='雷光よりも鮮烈な'&gt;&lt;/td&gt;&lt;td headers='name'&gt;雷光よりも鮮烈な&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;グラトニー＝フォス
+Glttony Foss&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m062'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;打撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;30&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH64" s="31" t="str">
         <f t="shared" si="4"/>
@@ -17835,8 +17835,8 @@
       <c r="AF65" s="23"/>
       <c r="AG65" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_GLUTTONY_TEONA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;栄光の欠片、煌めき&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;グラトニー＝フォス
-Glttony Foss&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m063'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_GLUTTONY_TEONA_01.png alt='栄光の欠片、煌めき'&gt;&lt;/td&gt;&lt;td headers='name'&gt;栄光の欠片、煌めき&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;グラトニー＝フォス
+Glttony Foss&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m063'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH65" s="31" t="str">
         <f t="shared" si="4"/>
@@ -17893,8 +17893,8 @@
       <c r="AF66" s="23"/>
       <c r="AG66" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_GREED_EMMEL_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;慈しむ愛、ゆえに&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;グラトニー＝フォス
-Glttony Foss&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m064'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_GREED_EMMEL_01.png alt='慈しむ愛、ゆえに'&gt;&lt;/td&gt;&lt;td headers='name'&gt;慈しむ愛、ゆえに&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;グラトニー＝フォス
+Glttony Foss&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m064'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH66" s="31" t="str">
         <f t="shared" si="4"/>
@@ -17945,8 +17945,8 @@
       <c r="AF67" s="23"/>
       <c r="AG67" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_GREED_EMMEL_02.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;願い、光の風に吹かれて&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;グラトニー＝フォス
-Glttony Foss&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m065'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_GREED_EMMEL_02.png alt='願い、光の風に吹かれて'&gt;&lt;/td&gt;&lt;td headers='name'&gt;願い、光の風に吹かれて&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;グラトニー＝フォス
+Glttony Foss&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m065'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH67" s="31" t="str">
         <f t="shared" si="4"/>
@@ -18002,9 +18002,9 @@
       </c>
       <c r="AF68" s="23"/>
       <c r="AG68" s="31" t="str">
-        <f t="shared" ref="AG68:AG133" si="11">"&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/"&amp;A68&amp;"&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C68&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D68&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E68="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E68="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F68&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G68&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI68&amp;"'&gt;"&amp;H68&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I68&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J68&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K68&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M68&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N68&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O68&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P68&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q68&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R68&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S68&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T68&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U68&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V68&amp;"&lt;/td&gt;&lt;td headers='嫉妬'&gt;"&amp;W68&amp;"&lt;/td&gt;&lt;td headers='怠惰'&gt;"&amp;X68&amp;"&lt;/td&gt;&lt;td headers='色欲'&gt;"&amp;Y68&amp;"&lt;/td&gt;&lt;td headers='暴食'&gt;"&amp;Z68&amp;"&lt;/td&gt;&lt;td headers='憤怒'&gt;"&amp;AA68&amp;"&lt;/td&gt;&lt;td headers='強欲'&gt;"&amp;AB68&amp;"&lt;/td&gt;&lt;td headers='傲慢'&gt;"&amp;AC68&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_GREED_KU_IENA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;練磨、創造、その果て&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;グリードダイク
-Greed Dike&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m066'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" ref="AG68:AG131" si="11">"&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/"&amp;A68&amp;" alt='"&amp;C68&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C68&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D68&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E68="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E68="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F68&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G68&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI68&amp;"'&gt;"&amp;H68&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I68&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J68&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K68&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M68&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N68&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O68&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P68&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q68&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R68&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S68&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T68&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U68&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V68&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W68&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X68&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y68&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z68&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA68&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB68&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC68&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_GREED_KU_IENA_01.png alt='練磨、創造、その果て'&gt;&lt;/td&gt;&lt;td headers='name'&gt;練磨、創造、その果て&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;グリードダイク
+Greed Dike&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m066'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH68" s="31" t="str">
         <f t="shared" ref="AH68:AH133" si="12">"document.getElementById('"&amp;AI68&amp;"').innerHTML = (b1*"&amp;TEXT(J68,0)&amp;"+b2*"&amp;TEXT(K68,0)&amp;"+b0*"&amp;TEXT(L68,0)&amp;") + (s1*"&amp;TEXT(W68,0)&amp;"+s2*"&amp;TEXT(X68,0)&amp;"+s3*"&amp;TEXT(Y68,0)&amp;"+s4*"&amp;TEXT(Z68,0)&amp;"+s5*"&amp;TEXT(AA68,0)&amp;"+s6*"&amp;TEXT(AB68,0)&amp;"+s7*"&amp;TEXT(AC68,0)&amp;"+s0*"&amp;TEXT(AD68,0)&amp;") + (e01*"&amp;IF(R68="斬撃",S68,0)&amp;"+e02*"&amp;IF(R68="刺突",S68,0)&amp;"+e03*"&amp;IF(R68="打撃",S68,0)&amp;"+e04*"&amp;IF(R68="射撃",S68,0)&amp;"+e05*"&amp;IF(R68="魔法",S68,0)&amp;"+e06*"&amp;IF(R68="無区分",S68,0)&amp;"+e07*"&amp;IF(T68="反撃",U68,0)&amp;"+e08*"&amp;IF(T68="風属性",U68,0)&amp;"+e09*"&amp;IF(T68="闇属性",U68,0)&amp;"+e10*"&amp;IF(T68="単体",U68,0)&amp;"+e11*"&amp;IF(T68="範囲",U68,0)&amp;"+e12*"&amp;IF(T68="人",U68,0)&amp;"+e13*"&amp;IF(T68="異族",U68,0)&amp;"+e14*"&amp;IF(T68="バジュラ",U68,0)&amp;"+e15*"&amp;IF(T68="魔動人形",U68,0)&amp;");"</f>
@@ -18054,12 +18054,12 @@
       <c r="AD69" s="4"/>
       <c r="AF69" s="23"/>
       <c r="AG69" s="31" t="str">
-        <f t="shared" ref="AG69" si="15">"&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/"&amp;A69&amp;"&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C69&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D69&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E69="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E69="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F69&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G69&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI69&amp;"'&gt;"&amp;H69&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I69&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J69&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K69&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M69&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N69&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O69&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P69&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q69&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R69&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S69&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T69&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U69&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V69&amp;"&lt;/td&gt;&lt;td headers='嫉妬'&gt;"&amp;W69&amp;"&lt;/td&gt;&lt;td headers='怠惰'&gt;"&amp;X69&amp;"&lt;/td&gt;&lt;td headers='色欲'&gt;"&amp;Y69&amp;"&lt;/td&gt;&lt;td headers='暴食'&gt;"&amp;Z69&amp;"&lt;/td&gt;&lt;td headers='憤怒'&gt;"&amp;AA69&amp;"&lt;/td&gt;&lt;td headers='強欲'&gt;"&amp;AB69&amp;"&lt;/td&gt;&lt;td headers='傲慢'&gt;"&amp;AC69&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_GREED_LEAFA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;将軍の誇りチョコ&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;グリードダイク
-Greed Dike&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m067'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="11"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_GREED_LEAFA_01.png alt='将軍の誇りチョコ'&gt;&lt;/td&gt;&lt;td headers='name'&gt;将軍の誇りチョコ&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;グリードダイク
+Greed Dike&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m067'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH69" s="31" t="str">
-        <f t="shared" ref="AH69" si="16">"document.getElementById('"&amp;AI69&amp;"').innerHTML = (b1*"&amp;TEXT(J69,0)&amp;"+b2*"&amp;TEXT(K69,0)&amp;"+b0*"&amp;TEXT(L69,0)&amp;") + (s1*"&amp;TEXT(W69,0)&amp;"+s2*"&amp;TEXT(X69,0)&amp;"+s3*"&amp;TEXT(Y69,0)&amp;"+s4*"&amp;TEXT(Z69,0)&amp;"+s5*"&amp;TEXT(AA69,0)&amp;"+s6*"&amp;TEXT(AB69,0)&amp;"+s7*"&amp;TEXT(AC69,0)&amp;"+s0*"&amp;TEXT(AD69,0)&amp;") + (e01*"&amp;IF(R69="斬撃",S69,0)&amp;"+e02*"&amp;IF(R69="刺突",S69,0)&amp;"+e03*"&amp;IF(R69="打撃",S69,0)&amp;"+e04*"&amp;IF(R69="射撃",S69,0)&amp;"+e05*"&amp;IF(R69="魔法",S69,0)&amp;"+e06*"&amp;IF(R69="無区分",S69,0)&amp;"+e07*"&amp;IF(T69="反撃",U69,0)&amp;"+e08*"&amp;IF(T69="風属性",U69,0)&amp;"+e09*"&amp;IF(T69="闇属性",U69,0)&amp;"+e10*"&amp;IF(T69="単体",U69,0)&amp;"+e11*"&amp;IF(T69="範囲",U69,0)&amp;"+e12*"&amp;IF(T69="人",U69,0)&amp;"+e13*"&amp;IF(T69="異族",U69,0)&amp;"+e14*"&amp;IF(T69="バジュラ",U69,0)&amp;"+e15*"&amp;IF(T69="魔動人形",U69,0)&amp;");"</f>
+        <f t="shared" ref="AH69" si="15">"document.getElementById('"&amp;AI69&amp;"').innerHTML = (b1*"&amp;TEXT(J69,0)&amp;"+b2*"&amp;TEXT(K69,0)&amp;"+b0*"&amp;TEXT(L69,0)&amp;") + (s1*"&amp;TEXT(W69,0)&amp;"+s2*"&amp;TEXT(X69,0)&amp;"+s3*"&amp;TEXT(Y69,0)&amp;"+s4*"&amp;TEXT(Z69,0)&amp;"+s5*"&amp;TEXT(AA69,0)&amp;"+s6*"&amp;TEXT(AB69,0)&amp;"+s7*"&amp;TEXT(AC69,0)&amp;"+s0*"&amp;TEXT(AD69,0)&amp;") + (e01*"&amp;IF(R69="斬撃",S69,0)&amp;"+e02*"&amp;IF(R69="刺突",S69,0)&amp;"+e03*"&amp;IF(R69="打撃",S69,0)&amp;"+e04*"&amp;IF(R69="射撃",S69,0)&amp;"+e05*"&amp;IF(R69="魔法",S69,0)&amp;"+e06*"&amp;IF(R69="無区分",S69,0)&amp;"+e07*"&amp;IF(T69="反撃",U69,0)&amp;"+e08*"&amp;IF(T69="風属性",U69,0)&amp;"+e09*"&amp;IF(T69="闇属性",U69,0)&amp;"+e10*"&amp;IF(T69="単体",U69,0)&amp;"+e11*"&amp;IF(T69="範囲",U69,0)&amp;"+e12*"&amp;IF(T69="人",U69,0)&amp;"+e13*"&amp;IF(T69="異族",U69,0)&amp;"+e14*"&amp;IF(T69="バジュラ",U69,0)&amp;"+e15*"&amp;IF(T69="魔動人形",U69,0)&amp;");"</f>
         <v>document.getElementById('m067').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
       </c>
       <c r="AI69" s="35" t="str">
@@ -18107,8 +18107,8 @@
       <c r="AF70" s="23"/>
       <c r="AG70" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_GREED_LUCILLE_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;尽きる、その日まで&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;グリードダイク
-Greed Dike&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m068'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_GREED_LUCILLE_01.png alt='尽きる、その日まで'&gt;&lt;/td&gt;&lt;td headers='name'&gt;尽きる、その日まで&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;グリードダイク
+Greed Dike&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m068'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH70" s="31" t="str">
         <f t="shared" si="12"/>
@@ -18142,7 +18142,7 @@
       </c>
       <c r="G71" s="8"/>
       <c r="H71" s="4">
-        <f t="shared" ref="H71:H134" si="17">SUMPRODUCT(I$1:AD$1,I71:AD71)</f>
+        <f t="shared" ref="H71:H134" si="16">SUMPRODUCT(I$1:AD$1,I71:AD71)</f>
         <v>0</v>
       </c>
       <c r="I71" s="2"/>
@@ -18165,8 +18165,8 @@
       <c r="AF71" s="23"/>
       <c r="AG71" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_GREED_MEIFAN_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;パニックハロウィン&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;グリードダイク
-Greed Dike&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m069'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_GREED_MEIFAN_01.png alt='パニックハロウィン'&gt;&lt;/td&gt;&lt;td headers='name'&gt;パニックハロウィン&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;グリードダイク
+Greed Dike&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m069'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH71" s="31" t="str">
         <f t="shared" si="12"/>
@@ -18197,7 +18197,7 @@
       </c>
       <c r="G72" s="8"/>
       <c r="H72" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I72" s="2"/>
@@ -18220,8 +18220,8 @@
       <c r="AF72" s="23"/>
       <c r="AG72" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_GREED_ORION_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;覇道を征く者&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;グリードダイク
-Greed Dike&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m070'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_GREED_ORION_01.png alt='覇道を征く者'&gt;&lt;/td&gt;&lt;td headers='name'&gt;覇道を征く者&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;グリードダイク
+Greed Dike&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m070'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH72" s="31" t="str">
         <f t="shared" si="12"/>
@@ -18257,7 +18257,7 @@
         <v>168</v>
       </c>
       <c r="H73" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="I73" s="2">
@@ -18290,8 +18290,8 @@
       <c r="AF73" s="23"/>
       <c r="AG73" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_GREED_RISHEN_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;船上の厄膳料理&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;グリードダイク
-Greed Dike&lt;/td&gt;&lt;td headers='group'&gt;海賊団&lt;/td&gt;&lt;td headers='score' id='m071'&gt;50&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;範囲耐性+10&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;30&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_GREED_RISHEN_01.png alt='船上の厄膳料理'&gt;&lt;/td&gt;&lt;td headers='name'&gt;船上の厄膳料理&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;グリードダイク
+Greed Dike&lt;/td&gt;&lt;td headers='group'&gt;海賊団&lt;/td&gt;&lt;td headers='score' id='m071'&gt;50&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;範囲耐性+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;30&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH73" s="31" t="str">
         <f t="shared" si="12"/>
@@ -18324,7 +18324,7 @@
         <v>168</v>
       </c>
       <c r="H74" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>110</v>
       </c>
       <c r="I74" s="2"/>
@@ -18365,8 +18365,8 @@
       <c r="AF74" s="23"/>
       <c r="AG74" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_GREED_SHENMEI_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;お宝は海図のその先に&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;グリードダイク
-Greed Dike&lt;/td&gt;&lt;td headers='group'&gt;海賊団&lt;/td&gt;&lt;td headers='score' id='m072'&gt;110&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;40&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;30&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;無区分&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;40&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;20&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_GREED_SHENMEI_01.png alt='お宝は海図のその先に'&gt;&lt;/td&gt;&lt;td headers='name'&gt;お宝は海図のその先に&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;グリードダイク
+Greed Dike&lt;/td&gt;&lt;td headers='group'&gt;海賊団&lt;/td&gt;&lt;td headers='score' id='m072'&gt;110&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;40&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;30&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;無区分&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;40&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;20&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH74" s="31" t="str">
         <f t="shared" si="12"/>
@@ -18397,7 +18397,7 @@
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I75" s="2"/>
@@ -18420,8 +18420,8 @@
       <c r="AF75" s="23"/>
       <c r="AG75" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LIESBET_EDGAR_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;雪上に刻まれた希望&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
-Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m073'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LIESBET_EDGAR_01.png alt='雪上に刻まれた希望'&gt;&lt;/td&gt;&lt;td headers='name'&gt;雪上に刻まれた希望&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
+Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m073'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH75" s="31" t="str">
         <f t="shared" si="12"/>
@@ -18454,7 +18454,7 @@
         <v>175</v>
       </c>
       <c r="H76" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="I76" s="2">
@@ -18493,8 +18493,8 @@
       <c r="AF76" s="23"/>
       <c r="AG76" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LOST_ACHAD_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;私が見つけた太陽&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ロストブルー
-Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m074'&gt;50&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;50&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;打撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;30&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;30&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LOST_ACHAD_01.png alt='私が見つけた太陽'&gt;&lt;/td&gt;&lt;td headers='name'&gt;私が見つけた太陽&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ロストブルー
+Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m074'&gt;50&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;50&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;打撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;30&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;30&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH76" s="31" t="str">
         <f t="shared" si="12"/>
@@ -18530,7 +18530,7 @@
         <v>175</v>
       </c>
       <c r="H77" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>90</v>
       </c>
       <c r="I77" s="2">
@@ -18566,8 +18566,8 @@
       <c r="AF77" s="23"/>
       <c r="AG77" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LOST_ACHAD_02.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;戒めなき青に包まれて&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ロストブルー
-Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m075'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;50&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;MP上限+10, 範囲耐性+10&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;20&lt;/td&gt;&lt;td headers='傲慢'&gt;40&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LOST_ACHAD_02.png alt='戒めなき青に包まれて'&gt;&lt;/td&gt;&lt;td headers='name'&gt;戒めなき青に包まれて&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ロストブルー
+Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m075'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;50&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;MP上限+10, 範囲耐性+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;20&lt;/td&gt;&lt;td headers='sinG'&gt;40&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH77" s="31" t="str">
         <f t="shared" si="12"/>
@@ -18603,7 +18603,7 @@
         <v>175</v>
       </c>
       <c r="H78" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>70</v>
       </c>
       <c r="I78" s="2">
@@ -18642,8 +18642,8 @@
       <c r="AF78" s="23"/>
       <c r="AG78" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LOST_ACHAD_03.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;ひとり、じゃなくて&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ロストブルー
-Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m076'&gt;70&lt;/td&gt;&lt;td headers='HP'&gt;60&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;打撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;30&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;30&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LOST_ACHAD_03.png alt='ひとり、じゃなくて'&gt;&lt;/td&gt;&lt;td headers='name'&gt;ひとり、じゃなくて&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ロストブルー
+Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m076'&gt;70&lt;/td&gt;&lt;td headers='HP'&gt;60&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;打撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;30&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;30&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH78" s="31" t="str">
         <f t="shared" si="12"/>
@@ -18676,7 +18676,7 @@
         <v>175</v>
       </c>
       <c r="H79" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>90</v>
       </c>
       <c r="I79" s="2">
@@ -18715,8 +18715,8 @@
       <c r="AF79" s="23"/>
       <c r="AG79" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LOST_DREI_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;剪定、収穫、その開花&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ロストブルー
-Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m077'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;20&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;20&lt;/td&gt;&lt;td headers='傲慢'&gt;40&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LOST_DREI_01.png alt='剪定、収穫、その開花'&gt;&lt;/td&gt;&lt;td headers='name'&gt;剪定、収穫、その開花&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ロストブルー
+Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m077'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;20&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;20&lt;/td&gt;&lt;td headers='sinG'&gt;40&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH79" s="31" t="str">
         <f t="shared" si="12"/>
@@ -18752,7 +18752,7 @@
         <v>175</v>
       </c>
       <c r="H80" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="I80" s="2">
@@ -18794,8 +18794,8 @@
       <c r="AF80" s="23"/>
       <c r="AG80" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LOST_EINZ_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;世界を壊す、先駆けに&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ロストブルー
-Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m078'&gt;100&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;単体&lt;/td&gt;&lt;td headers='sp.bonus'&gt;20&lt;/td&gt;&lt;td headers='others'&gt;暴擊率+10&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;20&lt;/td&gt;&lt;td headers='傲慢'&gt;40&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LOST_EINZ_01.png alt='世界を壊す、先駆けに'&gt;&lt;/td&gt;&lt;td headers='name'&gt;世界を壊す、先駆けに&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ロストブルー
+Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m078'&gt;100&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;単体&lt;/td&gt;&lt;td headers='sp.bonus'&gt;20&lt;/td&gt;&lt;td headers='others'&gt;暴擊率+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;20&lt;/td&gt;&lt;td headers='sinG'&gt;40&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH80" s="31" t="str">
         <f t="shared" si="12"/>
@@ -18828,7 +18828,7 @@
         <v>175</v>
       </c>
       <c r="H81" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>90</v>
       </c>
       <c r="I81" s="2">
@@ -18870,8 +18870,8 @@
       <c r="AF81" s="23"/>
       <c r="AG81" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LOST_FURY_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;理想の行き着いた果て&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ロストブルー
-Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m079'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;魔法&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;射撃耐性+20&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;20&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;40&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LOST_FURY_01.png alt='理想の行き着いた果て'&gt;&lt;/td&gt;&lt;td headers='name'&gt;理想の行き着いた果て&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ロストブルー
+Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m079'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;魔法&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;射撃耐性+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;20&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;40&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH81" s="31" t="str">
         <f t="shared" si="12"/>
@@ -18904,7 +18904,7 @@
         <v>175</v>
       </c>
       <c r="H82" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>60</v>
       </c>
       <c r="I82" s="2">
@@ -18943,8 +18943,8 @@
       <c r="AF82" s="23"/>
       <c r="AG82" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LOST_NOIN_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;一夜の生き血を喰らい&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ロストブルー
-Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m080'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;70&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;5&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;打撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;20&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;40&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LOST_NOIN_01.png alt='一夜の生き血を喰らい'&gt;&lt;/td&gt;&lt;td headers='name'&gt;一夜の生き血を喰らい&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ロストブルー
+Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m080'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;70&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;5&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;打撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;20&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;40&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH82" s="31" t="str">
         <f t="shared" si="12"/>
@@ -18980,7 +18980,7 @@
         <v>175</v>
       </c>
       <c r="H83" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>90</v>
       </c>
       <c r="I83" s="2">
@@ -19012,8 +19012,8 @@
       <c r="AF83" s="23"/>
       <c r="AG83" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LOST_THOL_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;真理への戒めと記録&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ロストブルー
-Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m081'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;60&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LOST_THOL_01.png alt='真理への戒めと記録'&gt;&lt;/td&gt;&lt;td headers='name'&gt;真理への戒めと記録&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ロストブルー
+Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m081'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;60&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH83" s="31" t="str">
         <f t="shared" si="12"/>
@@ -19049,7 +19049,7 @@
         <v>175</v>
       </c>
       <c r="H84" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>110</v>
       </c>
       <c r="I84" s="2"/>
@@ -19088,8 +19088,8 @@
       <c r="AF84" s="23"/>
       <c r="AG84" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LOST_THOL_02.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;追いかけるは好奇心&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ロストブルー
-Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m082'&gt;110&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;射撃&amp;魔法&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;人&lt;/td&gt;&lt;td headers='sp.bonus'&gt;10&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;60&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LOST_THOL_02.png alt='追いかけるは好奇心'&gt;&lt;/td&gt;&lt;td headers='name'&gt;追いかけるは好奇心&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ロストブルー
+Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m082'&gt;110&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;射撃&amp;魔法&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;人&lt;/td&gt;&lt;td headers='sp.bonus'&gt;10&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;60&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH84" s="31" t="str">
         <f>"document.getElementById('"&amp;AI84&amp;"').innerHTML = (b1*"&amp;TEXT(J84,0)&amp;"+b2*"&amp;TEXT(K84,0)&amp;"+b0*"&amp;TEXT(L84,0)&amp;") + (s1*"&amp;TEXT(W84,0)&amp;"+s2*"&amp;TEXT(X84,0)&amp;"+s3*"&amp;TEXT(Y84,0)&amp;"+s4*"&amp;TEXT(Z84,0)&amp;"+s5*"&amp;TEXT(AA84,0)&amp;"+s6*"&amp;TEXT(AB84,0)&amp;"+s7*"&amp;TEXT(AC84,0)&amp;"+s0*"&amp;TEXT(AD84,0)&amp;") + (e01*"&amp;IF(R84="斬撃",S84,0)&amp;"+e02*"&amp;IF(R84="刺突",S84,0)&amp;"+e03*"&amp;IF(R84="打撃",S84,0)&amp;"+e04*"&amp;IF(R84="射撃",S84,40)&amp;"+e05*"&amp;IF(R84="魔法",S84,40)&amp;"+e06*"&amp;IF(R84="無区分",S84,0)&amp;"+e07*"&amp;IF(T84="反撃",U84,0)&amp;"+e08*"&amp;IF(T84="風属性",U84,0)&amp;"+e09*"&amp;IF(T84="闇属性",U84,0)&amp;"+e10*"&amp;IF(T84="単体",U84,0)&amp;"+e11*"&amp;IF(T84="範囲",U84,0)&amp;"+e12*"&amp;IF(T84="人",U84,0)&amp;"+e13*"&amp;IF(T84="異族",U84,0)&amp;"+e14*"&amp;IF(T84="バジュラ",U84,0)&amp;"+e15*"&amp;IF(T84="魔動人形",U84,0)&amp;");"</f>
@@ -19122,7 +19122,7 @@
         <v>175</v>
       </c>
       <c r="H85" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>90</v>
       </c>
       <c r="I85" s="2">
@@ -19160,8 +19160,8 @@
       <c r="AF85" s="23"/>
       <c r="AG85" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LOST_VIER_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;空腹アンサンブル&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ロストブルー
-Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m083'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;50&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;5&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;水属性耐性+10&lt;/td&gt;&lt;td headers='嫉妬'&gt;20&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;40&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LOST_VIER_01.png alt='空腹アンサンブル'&gt;&lt;/td&gt;&lt;td headers='name'&gt;空腹アンサンブル&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ロストブルー
+Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m083'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;50&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;5&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;水属性耐性+10&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;40&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH85" s="31" t="str">
         <f t="shared" si="12"/>
@@ -19172,7 +19172,7 @@
         <v>m083</v>
       </c>
       <c r="AJ85" s="37" t="str">
-        <f t="shared" ref="AJ85:AJ149" si="18">IF(LEN(R85)&gt;3,"Special","")</f>
+        <f t="shared" ref="AJ85:AJ149" si="17">IF(LEN(R85)&gt;3,"Special","")</f>
         <v/>
       </c>
       <c r="AK85" s="23"/>
@@ -19194,7 +19194,7 @@
         <v>175</v>
       </c>
       <c r="H86" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>70</v>
       </c>
       <c r="I86" s="2">
@@ -19236,8 +19236,8 @@
       <c r="AF86" s="23"/>
       <c r="AG86" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LOST_ZENN_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;鏡に映る隔絶の灯火&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ロストブルー
-Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m084'&gt;70&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+10&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;30&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;30&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LOST_ZENN_01.png alt='鏡に映る隔絶の灯火'&gt;&lt;/td&gt;&lt;td headers='name'&gt;鏡に映る隔絶の灯火&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ロストブルー
+Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m084'&gt;70&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;30&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH86" s="31" t="str">
         <f t="shared" si="12"/>
@@ -19248,7 +19248,7 @@
         <v>m084</v>
       </c>
       <c r="AJ86" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK86" s="23"/>
@@ -19270,7 +19270,7 @@
         <v>175</v>
       </c>
       <c r="H87" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>80</v>
       </c>
       <c r="I87" s="2">
@@ -19306,8 +19306,8 @@
       <c r="AF87" s="23"/>
       <c r="AG87" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LOST_ZWEI_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;九杯分の命&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ロストブルー
-Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m085'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;40&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;MP上限+20, 回避+10&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;20&lt;/td&gt;&lt;td headers='傲慢'&gt;40&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LOST_ZWEI_01.png alt='九杯分の命'&gt;&lt;/td&gt;&lt;td headers='name'&gt;九杯分の命&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ロストブルー
+Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m085'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;40&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;MP上限+20, 回避+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;20&lt;/td&gt;&lt;td headers='sinG'&gt;40&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH87" s="31" t="str">
         <f t="shared" si="12"/>
@@ -19318,7 +19318,7 @@
         <v>m085</v>
       </c>
       <c r="AJ87" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK87" s="23"/>
@@ -19340,7 +19340,7 @@
         <v>175</v>
       </c>
       <c r="H88" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>90</v>
       </c>
       <c r="I88" s="2"/>
@@ -19385,8 +19385,8 @@
       <c r="AF88" s="23"/>
       <c r="AG88" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LOST_ZYVA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;白き花、黒き花&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ロストブルー
-Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m086'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+10&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;20&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;20&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;20&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LOST_ZYVA_01.png alt='白き花、黒き花'&gt;&lt;/td&gt;&lt;td headers='name'&gt;白き花、黒き花&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ロストブルー
+Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m086'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;20&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;20&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH88" s="31" t="str">
         <f t="shared" si="12"/>
@@ -19397,7 +19397,7 @@
         <v>m086</v>
       </c>
       <c r="AJ88" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK88" s="23"/>
@@ -19420,7 +19420,7 @@
       </c>
       <c r="G89" s="8"/>
       <c r="H89" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I89" s="2"/>
@@ -19443,8 +19443,8 @@
       <c r="AF89" s="23"/>
       <c r="AG89" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_ALMA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;アルマは楽しそう、でも…&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
-Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m087'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_ALMA_01.png alt='アルマは楽しそう、でも…'&gt;&lt;/td&gt;&lt;td headers='name'&gt;アルマは楽しそう、でも…&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
+Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m087'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH89" s="31" t="str">
         <f t="shared" si="12"/>
@@ -19455,7 +19455,7 @@
         <v>m087</v>
       </c>
       <c r="AJ89" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK89" s="23"/>
@@ -19478,7 +19478,7 @@
       </c>
       <c r="G90" s="8"/>
       <c r="H90" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I90" s="2"/>
@@ -19501,8 +19501,8 @@
       <c r="AF90" s="23"/>
       <c r="AG90" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_ALMA_02.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;特訓サマービーチ&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
-Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m088'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_ALMA_02.png alt='特訓サマービーチ'&gt;&lt;/td&gt;&lt;td headers='name'&gt;特訓サマービーチ&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
+Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m088'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH90" s="31" t="str">
         <f t="shared" si="12"/>
@@ -19513,7 +19513,7 @@
         <v>m088</v>
       </c>
       <c r="AJ90" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK90" s="23"/>
@@ -19536,7 +19536,7 @@
       </c>
       <c r="G91" s="8"/>
       <c r="H91" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I91" s="2"/>
@@ -19559,8 +19559,8 @@
       <c r="AF91" s="23"/>
       <c r="AG91" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_AMBROSIA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;罪、その地に積もりて&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
-Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m089'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_AMBROSIA_01.png alt='罪、その地に積もりて'&gt;&lt;/td&gt;&lt;td headers='name'&gt;罪、その地に積もりて&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
+Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m089'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH91" s="31" t="str">
         <f t="shared" si="12"/>
@@ -19571,7 +19571,7 @@
         <v>m089</v>
       </c>
       <c r="AJ91" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK91" s="23"/>
@@ -19591,7 +19591,7 @@
       </c>
       <c r="G92" s="8"/>
       <c r="H92" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I92" s="2"/>
@@ -19614,8 +19614,8 @@
       <c r="AF92" s="23"/>
       <c r="AG92" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_EMA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;魔法少女のランチタイム&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
-Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m090'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_EMA_01.png alt='魔法少女のランチタイム'&gt;&lt;/td&gt;&lt;td headers='name'&gt;魔法少女のランチタイム&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
+Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m090'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH92" s="31" t="str">
         <f t="shared" si="12"/>
@@ -19626,7 +19626,7 @@
         <v>m090</v>
       </c>
       <c r="AJ92" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK92" s="23"/>
@@ -19649,7 +19649,7 @@
       </c>
       <c r="G93" s="8"/>
       <c r="H93" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I93" s="2"/>
@@ -19666,8 +19666,8 @@
       <c r="AF93" s="23"/>
       <c r="AG93" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_EMA_02.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;幸運な春の一片&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
-Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m091'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_EMA_02.png alt='幸運な春の一片'&gt;&lt;/td&gt;&lt;td headers='name'&gt;幸運な春の一片&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
+Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m091'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH93" s="31" t="str">
         <f t="shared" si="12"/>
@@ -19678,7 +19678,7 @@
         <v>m091</v>
       </c>
       <c r="AJ93" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK93" s="23"/>
@@ -19698,14 +19698,14 @@
       </c>
       <c r="G94" s="8"/>
       <c r="H94" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2">
-        <f t="shared" ref="L94:L129" si="19">MAX(J94:K94)</f>
+        <f t="shared" ref="L94:L129" si="18">MAX(J94:K94)</f>
         <v>0</v>
       </c>
       <c r="M94" s="2"/>
@@ -19715,14 +19715,14 @@
       <c r="Q94" s="7"/>
       <c r="U94" s="4"/>
       <c r="AD94" s="4">
-        <f t="shared" ref="AD94:AD129" si="20">MAX(W94:AC94)</f>
+        <f t="shared" ref="AD94:AD129" si="19">MAX(W94:AC94)</f>
         <v>0</v>
       </c>
       <c r="AF94" s="23"/>
       <c r="AG94" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_LAVINA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;甘くて、あたたかくて。&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
-Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m092'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_LAVINA_01.png alt='甘くて、あたたかくて。'&gt;&lt;/td&gt;&lt;td headers='name'&gt;甘くて、あたたかくて。&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
+Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m092'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH94" s="31" t="str">
         <f t="shared" si="12"/>
@@ -19733,7 +19733,7 @@
         <v>m092</v>
       </c>
       <c r="AJ94" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK94" s="23"/>
@@ -19756,14 +19756,14 @@
       </c>
       <c r="G95" s="8"/>
       <c r="H95" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M95" s="2"/>
@@ -19773,14 +19773,14 @@
       <c r="Q95" s="7"/>
       <c r="U95" s="4"/>
       <c r="AD95" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AF95" s="23"/>
       <c r="AG95" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_LAVINA_02.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;パーティは雪解けの後に&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
-Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m093'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_LAVINA_02.png alt='パーティは雪解けの後に'&gt;&lt;/td&gt;&lt;td headers='name'&gt;パーティは雪解けの後に&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
+Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m093'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH95" s="31" t="str">
         <f t="shared" si="12"/>
@@ -19791,7 +19791,7 @@
         <v>m093</v>
       </c>
       <c r="AJ95" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK95" s="23"/>
@@ -19814,14 +19814,14 @@
       </c>
       <c r="G96" s="8"/>
       <c r="H96" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M96" s="2"/>
@@ -19831,14 +19831,14 @@
       <c r="Q96" s="7"/>
       <c r="U96" s="4"/>
       <c r="AD96" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AF96" s="23"/>
       <c r="AG96" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_MORE_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;出撃、狂気のキューピッド&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
-Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m094'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_MORE_01.png alt='出撃、狂気のキューピッド'&gt;&lt;/td&gt;&lt;td headers='name'&gt;出撃、狂気のキューピッド&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
+Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m094'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH96" s="31" t="str">
         <f t="shared" si="12"/>
@@ -19849,7 +19849,7 @@
         <v>m094</v>
       </c>
       <c r="AJ96" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK96" s="23"/>
@@ -19872,14 +19872,14 @@
       </c>
       <c r="G97" s="8"/>
       <c r="H97" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M97" s="2"/>
@@ -19889,14 +19889,14 @@
       <c r="Q97" s="7"/>
       <c r="U97" s="4"/>
       <c r="AD97" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AF97" s="23"/>
       <c r="AG97" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_NIKUSU_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;雪上に刻まれた希望&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
-Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m095'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_NIKUSU_01.png alt='雪上に刻まれた希望'&gt;&lt;/td&gt;&lt;td headers='name'&gt;雪上に刻まれた希望&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
+Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m095'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH97" s="31" t="str">
         <f t="shared" si="12"/>
@@ -19907,7 +19907,7 @@
         <v>m095</v>
       </c>
       <c r="AJ97" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK97" s="23"/>
@@ -19932,7 +19932,7 @@
         <v>68</v>
       </c>
       <c r="H98" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>60</v>
       </c>
       <c r="I98" s="2">
@@ -19943,7 +19943,7 @@
         <v>30</v>
       </c>
       <c r="L98" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="M98" s="2"/>
@@ -19962,14 +19962,14 @@
         <v>30</v>
       </c>
       <c r="AD98" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
       <c r="AF98" s="23"/>
       <c r="AG98" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_OTHIMA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;終わりない宴&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
-Lustburg&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m096'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;60&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+5&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;30&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;30&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_OTHIMA_01.png alt='終わりない宴'&gt;&lt;/td&gt;&lt;td headers='name'&gt;終わりない宴&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
+Lustburg&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m096'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;60&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+5&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;30&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH98" s="31" t="str">
         <f t="shared" si="12"/>
@@ -19980,7 +19980,7 @@
         <v>m096</v>
       </c>
       <c r="AJ98" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK98" s="23"/>
@@ -20003,14 +20003,14 @@
       </c>
       <c r="G99" s="8"/>
       <c r="H99" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
       <c r="L99" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M99" s="2"/>
@@ -20020,14 +20020,14 @@
       <c r="Q99" s="7"/>
       <c r="U99" s="4"/>
       <c r="AD99" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AF99" s="23"/>
       <c r="AG99" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_REBECCA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;レベッカは完璧、でも…&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
-Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m097'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_REBECCA_01.png alt='レベッカは完璧、でも…'&gt;&lt;/td&gt;&lt;td headers='name'&gt;レベッカは完璧、でも…&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
+Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m097'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH99" s="31" t="str">
         <f t="shared" si="12"/>
@@ -20038,7 +20038,7 @@
         <v>m097</v>
       </c>
       <c r="AJ99" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK99" s="23"/>
@@ -20061,14 +20061,14 @@
       </c>
       <c r="G100" s="8"/>
       <c r="H100" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M100" s="2"/>
@@ -20078,14 +20078,14 @@
       <c r="Q100" s="7"/>
       <c r="U100" s="4"/>
       <c r="AD100" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AF100" s="23"/>
       <c r="AG100" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_REBECCA_02.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;特訓サマーシュート&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
-Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m098'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_REBECCA_02.png alt='特訓サマーシュート'&gt;&lt;/td&gt;&lt;td headers='name'&gt;特訓サマーシュート&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
+Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m098'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH100" s="31" t="str">
         <f t="shared" si="12"/>
@@ -20096,7 +20096,7 @@
         <v>m098</v>
       </c>
       <c r="AJ100" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK100" s="23"/>
@@ -20116,14 +20116,14 @@
       </c>
       <c r="G101" s="8"/>
       <c r="H101" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M101" s="2"/>
@@ -20133,14 +20133,14 @@
       <c r="Q101" s="7"/>
       <c r="U101" s="4"/>
       <c r="AD101" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AF101" s="23"/>
       <c r="AG101" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_ROFIA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;凍れる決意で手を伸ばし&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
-Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m099'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_ROFIA_01.png alt='凍れる決意で手を伸ばし'&gt;&lt;/td&gt;&lt;td headers='name'&gt;凍れる決意で手を伸ばし&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
+Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m099'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH101" s="31" t="str">
         <f t="shared" si="12"/>
@@ -20151,7 +20151,7 @@
         <v>m099</v>
       </c>
       <c r="AJ101" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK101" s="23"/>
@@ -20171,14 +20171,14 @@
       </c>
       <c r="G102" s="8"/>
       <c r="H102" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M102" s="2"/>
@@ -20188,14 +20188,14 @@
       <c r="Q102" s="7"/>
       <c r="U102" s="4"/>
       <c r="AD102" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AF102" s="23"/>
       <c r="AG102" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_SOPHIA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;とあるエルフの素顔&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
-Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m100'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_SOPHIA_01.png alt='とあるエルフの素顔'&gt;&lt;/td&gt;&lt;td headers='name'&gt;とあるエルフの素顔&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
+Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m100'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH102" s="31" t="str">
         <f t="shared" si="12"/>
@@ -20206,7 +20206,7 @@
         <v>m100</v>
       </c>
       <c r="AJ102" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK102" s="23"/>
@@ -20229,14 +20229,14 @@
       </c>
       <c r="G103" s="8"/>
       <c r="H103" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M103" s="2"/>
@@ -20246,14 +20246,14 @@
       <c r="Q103" s="7"/>
       <c r="U103" s="4"/>
       <c r="AD103" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AF103" s="23"/>
       <c r="AG103" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_ST_MELA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;刻の架け橋&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
-Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m101'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_ST_MELA_01.png alt='刻の架け橋'&gt;&lt;/td&gt;&lt;td headers='name'&gt;刻の架け橋&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
+Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m101'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH103" s="31" t="str">
         <f t="shared" si="12"/>
@@ -20264,7 +20264,7 @@
         <v>m101</v>
       </c>
       <c r="AJ103" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK103" s="23"/>
@@ -20287,14 +20287,14 @@
       </c>
       <c r="G104" s="8"/>
       <c r="H104" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
       <c r="L104" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M104" s="2"/>
@@ -20304,14 +20304,14 @@
       <c r="Q104" s="7"/>
       <c r="U104" s="4"/>
       <c r="AD104" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AF104" s="23"/>
       <c r="AG104" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_ST_MELA_DARK_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;無限の罪、その身に&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
-Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m102'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_ST_MELA_DARK_01.png alt='無限の罪、その身に'&gt;&lt;/td&gt;&lt;td headers='name'&gt;無限の罪、その身に&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
+Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m102'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH104" s="31" t="str">
         <f t="shared" si="12"/>
@@ -20322,7 +20322,7 @@
         <v>m102</v>
       </c>
       <c r="AJ104" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK104" s="23"/>
@@ -20345,14 +20345,14 @@
       </c>
       <c r="G105" s="8"/>
       <c r="H105" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
       <c r="L105" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M105" s="2"/>
@@ -20362,14 +20362,14 @@
       <c r="Q105" s="7"/>
       <c r="U105" s="4"/>
       <c r="AD105" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AF105" s="23"/>
       <c r="AG105" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_ST_NIKUSU_DARK_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;歪な刻は氷の檻に沈んで&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
-Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m103'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_ST_NIKUSU_DARK_01.png alt='歪な刻は氷の檻に沈んで'&gt;&lt;/td&gt;&lt;td headers='name'&gt;歪な刻は氷の檻に沈んで&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
+Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m103'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH105" s="31" t="str">
         <f t="shared" si="12"/>
@@ -20380,7 +20380,7 @@
         <v>m103</v>
       </c>
       <c r="AJ105" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK105" s="23"/>
@@ -20402,7 +20402,7 @@
         <v>68</v>
       </c>
       <c r="H106" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>90</v>
       </c>
       <c r="I106" s="2"/>
@@ -20411,7 +20411,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="M106" s="2"/>
@@ -20441,14 +20441,14 @@
         <v>20</v>
       </c>
       <c r="AD106" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="AF106" s="23"/>
       <c r="AG106" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_YAULAS_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;華麗じゃない剣&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
-Lustburg&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m104'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+10&lt;/td&gt;&lt;td headers='嫉妬'&gt;20&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;20&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;20&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_LUST_YAULAS_01.png alt='華麗じゃない剣'&gt;&lt;/td&gt;&lt;td headers='name'&gt;華麗じゃない剣&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
+Lustburg&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m104'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+10&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;20&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;20&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH106" s="31" t="str">
         <f t="shared" si="12"/>
@@ -20459,7 +20459,7 @@
         <v>m104</v>
       </c>
       <c r="AJ106" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK106" s="23"/>
@@ -20484,7 +20484,7 @@
         <v>232</v>
       </c>
       <c r="H107" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="I107" s="2">
@@ -20495,7 +20495,7 @@
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="M107" s="2"/>
@@ -20511,14 +20511,14 @@
         <v>20</v>
       </c>
       <c r="AD107" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="AF107" s="23"/>
       <c r="AG107" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_MCF_ALTO_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;トライアングラー&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;マクロスフロンティア&lt;/td&gt;&lt;td headers='score' id='m105'&gt;50&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;10&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;20&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_MCF_ALTO_01.png alt='トライアングラー'&gt;&lt;/td&gt;&lt;td headers='name'&gt;トライアングラー&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;マクロスフロンティア&lt;/td&gt;&lt;td headers='score' id='m105'&gt;50&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;10&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH107" s="31" t="str">
         <f t="shared" si="12"/>
@@ -20529,7 +20529,7 @@
         <v>m105</v>
       </c>
       <c r="AJ107" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK107" s="23"/>
@@ -20554,7 +20554,7 @@
         <v>232</v>
       </c>
       <c r="H108" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>130</v>
       </c>
       <c r="I108" s="2"/>
@@ -20565,7 +20565,7 @@
         <v>30</v>
       </c>
       <c r="L108" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="M108" s="2"/>
@@ -20583,14 +20583,14 @@
         <v>60</v>
       </c>
       <c r="AD108" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>60</v>
       </c>
       <c r="AF108" s="23"/>
       <c r="AG108" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_MCF_RANKA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;夢追う歌姫&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;マクロスフロンティア&lt;/td&gt;&lt;td headers='score' id='m106'&gt;130&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;バジュラ&lt;/td&gt;&lt;td headers='sp.bonus'&gt;40&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;60&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_MCF_RANKA_01.png alt='夢追う歌姫'&gt;&lt;/td&gt;&lt;td headers='name'&gt;夢追う歌姫&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;マクロスフロンティア&lt;/td&gt;&lt;td headers='score' id='m106'&gt;130&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;バジュラ&lt;/td&gt;&lt;td headers='sp.bonus'&gt;40&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;60&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH108" s="31" t="str">
         <f t="shared" si="12"/>
@@ -20601,7 +20601,7 @@
         <v>m106</v>
       </c>
       <c r="AJ108" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK108" s="23"/>
@@ -20626,7 +20626,7 @@
         <v>232</v>
       </c>
       <c r="H109" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>140</v>
       </c>
       <c r="I109" s="2">
@@ -20637,7 +20637,7 @@
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>40</v>
       </c>
       <c r="M109" s="2"/>
@@ -20655,14 +20655,14 @@
         <v>60</v>
       </c>
       <c r="AD109" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>60</v>
       </c>
       <c r="AF109" s="23"/>
       <c r="AG109" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_MCF_SHERYL_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;銀河舞う妖精&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;マクロスフロンティア&lt;/td&gt;&lt;td headers='score' id='m107'&gt;140&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;40&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;バジュラ&lt;/td&gt;&lt;td headers='sp.bonus'&gt;40&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;60&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_MCF_SHERYL_01.png alt='銀河舞う妖精'&gt;&lt;/td&gt;&lt;td headers='name'&gt;銀河舞う妖精&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;マクロスフロンティア&lt;/td&gt;&lt;td headers='score' id='m107'&gt;140&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;40&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;バジュラ&lt;/td&gt;&lt;td headers='sp.bonus'&gt;40&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;60&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH109" s="31" t="str">
         <f t="shared" si="12"/>
@@ -20673,7 +20673,7 @@
         <v>m107</v>
       </c>
       <c r="AJ109" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK109" s="23"/>
@@ -20695,7 +20695,7 @@
         <v>68</v>
       </c>
       <c r="H110" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>80</v>
       </c>
       <c r="I110" s="2">
@@ -20706,7 +20706,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>40</v>
       </c>
       <c r="M110" s="2"/>
@@ -20727,14 +20727,14 @@
         <v>40</v>
       </c>
       <c r="AD110" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>40</v>
       </c>
       <c r="AF110" s="23"/>
       <c r="AG110" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_NORTH_CADANOVA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;在りし日の二人と憧れと&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ノーザンブライドレリーフ
-Northern Pride&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m108'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;40&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;5&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;範囲耐性+10&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;20&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;40&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_NORTH_CADANOVA_01.png alt='在りし日の二人と憧れと'&gt;&lt;/td&gt;&lt;td headers='name'&gt;在りし日の二人と憧れと&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ノーザンブライドレリーフ
+Northern Pride&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m108'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;40&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;5&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;範囲耐性+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;20&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;40&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH110" s="31" t="str">
         <f t="shared" si="12"/>
@@ -20745,7 +20745,7 @@
         <v>m108</v>
       </c>
       <c r="AJ110" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK110" s="23"/>
@@ -20770,7 +20770,7 @@
         <v>68</v>
       </c>
       <c r="H111" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>110</v>
       </c>
       <c r="I111" s="2">
@@ -20781,7 +20781,7 @@
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="2">
-        <f t="shared" ref="L111" si="21">MAX(J111:K111)</f>
+        <f t="shared" ref="L111" si="20">MAX(J111:K111)</f>
         <v>50</v>
       </c>
       <c r="M111" s="2"/>
@@ -20804,14 +20804,14 @@
         <v>20</v>
       </c>
       <c r="AD111" s="4">
-        <f t="shared" ref="AD111" si="22">MAX(W111:AC111)</f>
+        <f t="shared" ref="AD111" si="21">MAX(W111:AC111)</f>
         <v>40</v>
       </c>
       <c r="AF111" s="23"/>
       <c r="AG111" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_NORTH_CADANOVA_02.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;落涙なき慟哭&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ノーザンブライドレリーフ
-Northern Pride&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m109'&gt;110&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;50&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;5&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;風属性&lt;/td&gt;&lt;td headers='sp.bonus'&gt;20&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;40&lt;/td&gt;&lt;td headers='傲慢'&gt;20&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_NORTH_CADANOVA_02.png alt='落涙なき慟哭'&gt;&lt;/td&gt;&lt;td headers='name'&gt;落涙なき慟哭&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ノーザンブライドレリーフ
+Northern Pride&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m109'&gt;110&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;50&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;5&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;風属性&lt;/td&gt;&lt;td headers='sp.bonus'&gt;20&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;40&lt;/td&gt;&lt;td headers='sinG'&gt;20&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH111" s="31" t="str">
         <f t="shared" si="12"/>
@@ -20822,7 +20822,7 @@
         <v>m109</v>
       </c>
       <c r="AJ111" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK111" s="23"/>
@@ -20845,14 +20845,14 @@
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
       <c r="L112" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M112" s="2"/>
@@ -20862,14 +20862,14 @@
       <c r="Q112" s="7"/>
       <c r="U112" s="4"/>
       <c r="AD112" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AF112" s="23"/>
       <c r="AG112" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_NORTH_GUILDFORD_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;異端なき秩序の徒&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ノーザンブライドレリーフ
-Northern Pride&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m110'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_NORTH_GUILDFORD_01.png alt='異端なき秩序の徒'&gt;&lt;/td&gt;&lt;td headers='name'&gt;異端なき秩序の徒&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ノーザンブライドレリーフ
+Northern Pride&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m110'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH112" s="31" t="str">
         <f t="shared" si="12"/>
@@ -20880,7 +20880,7 @@
         <v>m110</v>
       </c>
       <c r="AJ112" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK112" s="23"/>
@@ -20902,7 +20902,7 @@
         <v>68</v>
       </c>
       <c r="H113" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>80</v>
       </c>
       <c r="I113" s="2">
@@ -20915,7 +20915,7 @@
         <v>20</v>
       </c>
       <c r="L113" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="M113" s="2"/>
@@ -20928,14 +20928,14 @@
         <v>60</v>
       </c>
       <c r="AD113" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>60</v>
       </c>
       <c r="AF113" s="23"/>
       <c r="AG113" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_NORTH_RAKINA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;“傲慢”への祈り&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ノーザンブライドレリーフ
-Northern Pride&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m111'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;20&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;60&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_NORTH_RAKINA_01.png alt='“傲慢”への祈り'&gt;&lt;/td&gt;&lt;td headers='name'&gt;“傲慢”への祈り&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ノーザンブライドレリーフ
+Northern Pride&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m111'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;20&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;60&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH113" s="31" t="str">
         <f t="shared" si="12"/>
@@ -20946,7 +20946,7 @@
         <v>m111</v>
       </c>
       <c r="AJ113" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK113" s="23"/>
@@ -20966,14 +20966,14 @@
       </c>
       <c r="G114" s="8"/>
       <c r="H114" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
       <c r="L114" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M114" s="2"/>
@@ -20983,14 +20983,14 @@
       <c r="Q114" s="7"/>
       <c r="U114" s="4"/>
       <c r="AD114" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AF114" s="23"/>
       <c r="AG114" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_NORTH_TORITOH_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;叶わぬ過去、叶える未来&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ノーザンブライドレリーフ
-Northern Pride&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m112'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_NORTH_TORITOH_01.png alt='叶わぬ過去、叶える未来'&gt;&lt;/td&gt;&lt;td headers='name'&gt;叶わぬ過去、叶える未来&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ノーザンブライドレリーフ
+Northern Pride&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m112'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH114" s="31" t="str">
         <f t="shared" si="12"/>
@@ -21001,7 +21001,7 @@
         <v>m112</v>
       </c>
       <c r="AJ114" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK114" s="23"/>
@@ -21021,14 +21021,14 @@
       </c>
       <c r="G115" s="8"/>
       <c r="H115" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
       <c r="L115" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M115" s="2"/>
@@ -21038,14 +21038,14 @@
       <c r="Q115" s="7"/>
       <c r="U115" s="4"/>
       <c r="AD115" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AF115" s="23"/>
       <c r="AG115" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_OTHER_WAGINAO_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;隔たりを破る純心&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m113'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_OTHER_WAGINAO_01.png alt='隔たりを破る純心'&gt;&lt;/td&gt;&lt;td headers='name'&gt;隔たりを破る純心&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m113'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH115" s="31" t="str">
         <f t="shared" si="12"/>
@@ -21056,7 +21056,7 @@
         <v>m113</v>
       </c>
       <c r="AJ115" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK115" s="23"/>
@@ -21081,7 +21081,7 @@
         <v>250</v>
       </c>
       <c r="H116" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>90</v>
       </c>
       <c r="I116" s="2">
@@ -21092,7 +21092,7 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="M116" s="2"/>
@@ -21116,14 +21116,14 @@
         <v>20</v>
       </c>
       <c r="AD116" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="AF116" s="23"/>
       <c r="AG116" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_POK_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;理を破る者たちの休息&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;FgG&lt;/td&gt;&lt;td headers='score' id='m114'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;異族&lt;/td&gt;&lt;td headers='sp.bonus'&gt;50&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;20&lt;/td&gt;&lt;td headers='怠惰'&gt;20&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;20&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_POK_01.png alt='理を破る者たちの休息'&gt;&lt;/td&gt;&lt;td headers='name'&gt;理を破る者たちの休息&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;FgG&lt;/td&gt;&lt;td headers='score' id='m114'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;異族&lt;/td&gt;&lt;td headers='sp.bonus'&gt;50&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;20&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;20&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH116" s="31" t="str">
         <f t="shared" si="12"/>
@@ -21134,7 +21134,7 @@
         <v>m114</v>
       </c>
       <c r="AJ116" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK116" s="23"/>
@@ -21159,7 +21159,7 @@
         <v>250</v>
       </c>
       <c r="H117" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="I117" s="2">
@@ -21170,7 +21170,7 @@
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="M117" s="2"/>
@@ -21186,14 +21186,14 @@
         <v>20</v>
       </c>
       <c r="AD117" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="AF117" s="23"/>
       <c r="AG117" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_POK_ARUMASU_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;決して折れない不屈の剣&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;FgG&lt;/td&gt;&lt;td headers='score' id='m115'&gt;50&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;10&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;20&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_POK_ARUMASU_01.png alt='決して折れない不屈の剣'&gt;&lt;/td&gt;&lt;td headers='name'&gt;決して折れない不屈の剣&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;FgG&lt;/td&gt;&lt;td headers='score' id='m115'&gt;50&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;10&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;20&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH117" s="31" t="str">
         <f t="shared" si="12"/>
@@ -21204,7 +21204,7 @@
         <v>m115</v>
       </c>
       <c r="AJ117" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK117" s="23"/>
@@ -21229,7 +21229,7 @@
         <v>250</v>
       </c>
       <c r="H118" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>60</v>
       </c>
       <c r="I118" s="2"/>
@@ -21238,7 +21238,7 @@
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>60</v>
       </c>
       <c r="M118" s="2"/>
@@ -21259,13 +21259,13 @@
       <c r="AD118" s="4"/>
       <c r="AF118" s="23"/>
       <c r="AG118" s="31" t="str">
-        <f t="shared" ref="AG118" si="23">"&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/"&amp;A118&amp;"&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C118&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D118&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E118="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E118="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F118&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G118&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI118&amp;"'&gt;"&amp;H118&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I118&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J118&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K118&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M118&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N118&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O118&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P118&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q118&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R118&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S118&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T118&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U118&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V118&amp;"&lt;/td&gt;&lt;td headers='嫉妬'&gt;"&amp;W118&amp;"&lt;/td&gt;&lt;td headers='怠惰'&gt;"&amp;X118&amp;"&lt;/td&gt;&lt;td headers='色欲'&gt;"&amp;Y118&amp;"&lt;/td&gt;&lt;td headers='暴食'&gt;"&amp;Z118&amp;"&lt;/td&gt;&lt;td headers='憤怒'&gt;"&amp;AA118&amp;"&lt;/td&gt;&lt;td headers='強欲'&gt;"&amp;AB118&amp;"&lt;/td&gt;&lt;td headers='傲慢'&gt;"&amp;AC118&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_POK_CASSIUS_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;円環の瞳&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+        <f t="shared" si="11"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_POK_CASSIUS_01.png alt='円環の瞳'&gt;&lt;/td&gt;&lt;td headers='name'&gt;円環の瞳&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
 Other&lt;/td&gt;&lt;td headers='group'&gt;FgG&lt;/td&gt;&lt;td headers='score' id='m116'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;60&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;暴擊率+20, 
-命中率+10&lt;/td&gt;&lt;td headers='嫉妬'&gt;30&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;30&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+命中率+10&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH118" s="31" t="str">
-        <f t="shared" ref="AH118" si="24">"document.getElementById('"&amp;AI118&amp;"').innerHTML = (b1*"&amp;TEXT(J118,0)&amp;"+b2*"&amp;TEXT(K118,0)&amp;"+b0*"&amp;TEXT(L118,0)&amp;") + (s1*"&amp;TEXT(W118,0)&amp;"+s2*"&amp;TEXT(X118,0)&amp;"+s3*"&amp;TEXT(Y118,0)&amp;"+s4*"&amp;TEXT(Z118,0)&amp;"+s5*"&amp;TEXT(AA118,0)&amp;"+s6*"&amp;TEXT(AB118,0)&amp;"+s7*"&amp;TEXT(AC118,0)&amp;"+s0*"&amp;TEXT(AD118,0)&amp;") + (e01*"&amp;IF(R118="斬撃",S118,0)&amp;"+e02*"&amp;IF(R118="刺突",S118,0)&amp;"+e03*"&amp;IF(R118="打撃",S118,0)&amp;"+e04*"&amp;IF(R118="射撃",S118,0)&amp;"+e05*"&amp;IF(R118="魔法",S118,0)&amp;"+e06*"&amp;IF(R118="無区分",S118,0)&amp;"+e07*"&amp;IF(T118="反撃",U118,0)&amp;"+e08*"&amp;IF(T118="風属性",U118,0)&amp;"+e09*"&amp;IF(T118="闇属性",U118,0)&amp;"+e10*"&amp;IF(T118="単体",U118,0)&amp;"+e11*"&amp;IF(T118="範囲",U118,0)&amp;"+e12*"&amp;IF(T118="人",U118,0)&amp;"+e13*"&amp;IF(T118="異族",U118,0)&amp;"+e14*"&amp;IF(T118="バジュラ",U118,0)&amp;"+e15*"&amp;IF(T118="魔動人形",U118,0)&amp;");"</f>
+        <f t="shared" ref="AH118" si="22">"document.getElementById('"&amp;AI118&amp;"').innerHTML = (b1*"&amp;TEXT(J118,0)&amp;"+b2*"&amp;TEXT(K118,0)&amp;"+b0*"&amp;TEXT(L118,0)&amp;") + (s1*"&amp;TEXT(W118,0)&amp;"+s2*"&amp;TEXT(X118,0)&amp;"+s3*"&amp;TEXT(Y118,0)&amp;"+s4*"&amp;TEXT(Z118,0)&amp;"+s5*"&amp;TEXT(AA118,0)&amp;"+s6*"&amp;TEXT(AB118,0)&amp;"+s7*"&amp;TEXT(AC118,0)&amp;"+s0*"&amp;TEXT(AD118,0)&amp;") + (e01*"&amp;IF(R118="斬撃",S118,0)&amp;"+e02*"&amp;IF(R118="刺突",S118,0)&amp;"+e03*"&amp;IF(R118="打撃",S118,0)&amp;"+e04*"&amp;IF(R118="射撃",S118,0)&amp;"+e05*"&amp;IF(R118="魔法",S118,0)&amp;"+e06*"&amp;IF(R118="無区分",S118,0)&amp;"+e07*"&amp;IF(T118="反撃",U118,0)&amp;"+e08*"&amp;IF(T118="風属性",U118,0)&amp;"+e09*"&amp;IF(T118="闇属性",U118,0)&amp;"+e10*"&amp;IF(T118="単体",U118,0)&amp;"+e11*"&amp;IF(T118="範囲",U118,0)&amp;"+e12*"&amp;IF(T118="人",U118,0)&amp;"+e13*"&amp;IF(T118="異族",U118,0)&amp;"+e14*"&amp;IF(T118="バジュラ",U118,0)&amp;"+e15*"&amp;IF(T118="魔動人形",U118,0)&amp;");"</f>
         <v>document.getElementById('m116').innerHTML = (b1*60+b2*0+b0*60) + (s1*30+s2*0+s3*0+s4*0+s5*0+s6*30+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
       </c>
       <c r="AI118" s="35" t="str">
@@ -21295,7 +21295,7 @@
         <v>250</v>
       </c>
       <c r="H119" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>60</v>
       </c>
       <c r="I119" s="2">
@@ -21306,7 +21306,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="M119" s="2"/>
@@ -21326,14 +21326,14 @@
         <v>30</v>
       </c>
       <c r="AD119" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
       <c r="AF119" s="23"/>
       <c r="AG119" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_POK_FAILNAUGHT_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;闇に浮かぶ優しき笑み&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;FgG&lt;/td&gt;&lt;td headers='score' id='m117'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;20&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;30&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;30&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_POK_FAILNAUGHT_01.png alt='闇に浮かぶ優しき笑み'&gt;&lt;/td&gt;&lt;td headers='name'&gt;闇に浮かぶ優しき笑み&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;FgG&lt;/td&gt;&lt;td headers='score' id='m117'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;20&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;30&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH119" s="31" t="str">
         <f t="shared" si="12"/>
@@ -21344,7 +21344,7 @@
         <v>m117</v>
       </c>
       <c r="AJ119" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK119" s="23"/>
@@ -21369,7 +21369,7 @@
         <v>250</v>
       </c>
       <c r="H120" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>110</v>
       </c>
       <c r="I120" s="2">
@@ -21380,7 +21380,7 @@
       </c>
       <c r="K120" s="2"/>
       <c r="L120" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="M120" s="2"/>
@@ -21404,14 +21404,14 @@
         <v>10</v>
       </c>
       <c r="AD120" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
       <c r="AF120" s="23"/>
       <c r="AG120" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_POK_MASAMUNE_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;主君に捧げし刃&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;FgG&lt;/td&gt;&lt;td headers='score' id='m118'&gt;110&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;50&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;異族&lt;/td&gt;&lt;td headers='sp.bonus'&gt;30&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;20&lt;/td&gt;&lt;td headers='憤怒'&gt;30&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;10&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_POK_MASAMUNE_01.png alt='主君に捧げし刃'&gt;&lt;/td&gt;&lt;td headers='name'&gt;主君に捧げし刃&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;FgG&lt;/td&gt;&lt;td headers='score' id='m118'&gt;110&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;50&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;異族&lt;/td&gt;&lt;td headers='sp.bonus'&gt;30&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;20&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;10&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH120" s="31" t="str">
         <f t="shared" si="12"/>
@@ -21422,7 +21422,7 @@
         <v>m118</v>
       </c>
       <c r="AJ120" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK120" s="23"/>
@@ -21447,7 +21447,7 @@
         <v>250</v>
       </c>
       <c r="H121" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="I121" s="2">
@@ -21456,7 +21456,7 @@
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M121" s="2"/>
@@ -21478,14 +21478,14 @@
         <v>60</v>
       </c>
       <c r="AD121" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>60</v>
       </c>
       <c r="AF121" s="23"/>
       <c r="AG121" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_POK_TIFARET_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;導き、その光とともに&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;FgG&lt;/td&gt;&lt;td headers='score' id='m119'&gt;100&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;射撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;MP上限+20&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;60&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_POK_TIFARET_01.png alt='導き、その光とともに'&gt;&lt;/td&gt;&lt;td headers='name'&gt;導き、その光とともに&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;FgG&lt;/td&gt;&lt;td headers='score' id='m119'&gt;100&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;射撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;MP上限+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;60&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH121" s="31" t="str">
         <f t="shared" si="12"/>
@@ -21496,7 +21496,7 @@
         <v>m119</v>
       </c>
       <c r="AJ121" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK121" s="23"/>
@@ -21519,14 +21519,14 @@
       </c>
       <c r="G122" s="8"/>
       <c r="H122" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
       <c r="L122" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M122" s="2"/>
@@ -21536,14 +21536,14 @@
       <c r="Q122" s="7"/>
       <c r="U122" s="4"/>
       <c r="AD122" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AF122" s="23"/>
       <c r="AG122" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_REALEVENT_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;タガタメは次の次元へ&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m120'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_REALEVENT_01.png alt='タガタメは次の次元へ'&gt;&lt;/td&gt;&lt;td headers='name'&gt;タガタメは次の次元へ&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m120'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH122" s="31" t="str">
         <f t="shared" si="12"/>
@@ -21554,7 +21554,7 @@
         <v>m120</v>
       </c>
       <c r="AJ122" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK122" s="23"/>
@@ -21579,7 +21579,7 @@
         <v>250</v>
       </c>
       <c r="H123" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>90</v>
       </c>
       <c r="I123" s="2"/>
@@ -21588,7 +21588,7 @@
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>40</v>
       </c>
       <c r="M123" s="2"/>
@@ -21617,14 +21617,14 @@
         <v>30</v>
       </c>
       <c r="AD123" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
       <c r="AF123" s="23"/>
       <c r="AG123" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_S_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;穢れなき乙女たち&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;FgG&lt;/td&gt;&lt;td headers='score' id='m121'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;40&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;20&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;MP上限+10&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;30&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;30&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_S_01.png alt='穢れなき乙女たち'&gt;&lt;/td&gt;&lt;td headers='name'&gt;穢れなき乙女たち&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;FgG&lt;/td&gt;&lt;td headers='score' id='m121'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;40&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;20&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;MP上限+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;30&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH123" s="31" t="str">
         <f t="shared" si="12"/>
@@ -21635,7 +21635,7 @@
         <v>m121</v>
       </c>
       <c r="AJ123" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK123" s="23"/>
@@ -21658,14 +21658,14 @@
       </c>
       <c r="G124" s="8"/>
       <c r="H124" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
       <c r="L124" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M124" s="2"/>
@@ -21675,14 +21675,14 @@
       <c r="Q124" s="7"/>
       <c r="U124" s="4"/>
       <c r="AD124" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AF124" s="23"/>
       <c r="AG124" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SAGA_BIRGITTA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;ファーストクリスマス&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;サガ地方
-Saga Region&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m122'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SAGA_BIRGITTA_01.png alt='ファーストクリスマス'&gt;&lt;/td&gt;&lt;td headers='name'&gt;ファーストクリスマス&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;サガ地方
+Saga Region&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m122'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH124" s="31" t="str">
         <f t="shared" si="12"/>
@@ -21693,7 +21693,7 @@
         <v>m122</v>
       </c>
       <c r="AJ124" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK124" s="23"/>
@@ -21715,7 +21715,7 @@
         <v>168</v>
       </c>
       <c r="H125" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>80</v>
       </c>
       <c r="I125" s="2">
@@ -21724,7 +21724,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
       <c r="L125" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M125" s="2"/>
@@ -21746,14 +21746,14 @@
         <v>60</v>
       </c>
       <c r="AD125" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>60</v>
       </c>
       <c r="AF125" s="23"/>
       <c r="AG125" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SAGA_GORMALAS_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;降臨ブラックキールズ&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;サガ地方
-Saga Region&lt;/td&gt;&lt;td headers='group'&gt;海賊団&lt;/td&gt;&lt;td headers='score' id='m123'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;70&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;無区分&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;命中率+10&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;60&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SAGA_GORMALAS_01.png alt='降臨ブラックキールズ'&gt;&lt;/td&gt;&lt;td headers='name'&gt;降臨ブラックキールズ&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;サガ地方
+Saga Region&lt;/td&gt;&lt;td headers='group'&gt;海賊団&lt;/td&gt;&lt;td headers='score' id='m123'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;70&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;無区分&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;命中率+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;60&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH125" s="31" t="str">
         <f t="shared" si="12"/>
@@ -21764,7 +21764,7 @@
         <v>m123</v>
       </c>
       <c r="AJ125" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK125" s="23"/>
@@ -21787,14 +21787,14 @@
       </c>
       <c r="G126" s="8"/>
       <c r="H126" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
       <c r="L126" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M126" s="2"/>
@@ -21804,14 +21804,14 @@
       <c r="Q126" s="7"/>
       <c r="U126" s="4"/>
       <c r="AD126" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AF126" s="23"/>
       <c r="AG126" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SAGA_MERDA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;仕事終わりのもふもふ&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;サガ地方
-Saga Region&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m124'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SAGA_MERDA_01.png alt='仕事終わりのもふもふ'&gt;&lt;/td&gt;&lt;td headers='name'&gt;仕事終わりのもふもふ&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;サガ地方
+Saga Region&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m124'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH126" s="31" t="str">
         <f t="shared" si="12"/>
@@ -21822,7 +21822,7 @@
         <v>m124</v>
       </c>
       <c r="AJ126" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK126" s="23"/>
@@ -21842,14 +21842,14 @@
       </c>
       <c r="G127" s="8"/>
       <c r="H127" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
       <c r="L127" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M127" s="2"/>
@@ -21859,14 +21859,14 @@
       <c r="Q127" s="7"/>
       <c r="U127" s="4"/>
       <c r="AD127" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AF127" s="23"/>
       <c r="AG127" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SAGA_MOCA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;優しき風を纏いて&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;サガ地方
-Saga Region&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m125'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SAGA_MOCA_01.png alt='優しき風を纏いて'&gt;&lt;/td&gt;&lt;td headers='name'&gt;優しき風を纏いて&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;サガ地方
+Saga Region&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m125'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH127" s="31" t="str">
         <f t="shared" si="12"/>
@@ -21877,7 +21877,7 @@
         <v>m125</v>
       </c>
       <c r="AJ127" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK127" s="23"/>
@@ -21899,7 +21899,7 @@
         <v>100</v>
       </c>
       <c r="H128" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>90</v>
       </c>
       <c r="I128" s="2">
@@ -21910,7 +21910,7 @@
         <v>30</v>
       </c>
       <c r="L128" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="M128" s="2"/>
@@ -21932,14 +21932,14 @@
         <v>40</v>
       </c>
       <c r="AD128" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>40</v>
       </c>
       <c r="AF128" s="23"/>
       <c r="AG128" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SAGA_NINA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;スタディアニマルズ&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;サガ地方
-Saga Region&lt;/td&gt;&lt;td headers='group'&gt;緋炎騎士団&lt;/td&gt;&lt;td headers='score' id='m126'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;魔法&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;20&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;40&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SAGA_NINA_01.png alt='スタディアニマルズ'&gt;&lt;/td&gt;&lt;td headers='name'&gt;スタディアニマルズ&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;サガ地方
+Saga Region&lt;/td&gt;&lt;td headers='group'&gt;緋炎騎士団&lt;/td&gt;&lt;td headers='score' id='m126'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;魔法&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;40&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH128" s="31" t="str">
         <f t="shared" si="12"/>
@@ -21950,7 +21950,7 @@
         <v>m126</v>
       </c>
       <c r="AJ128" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK128" s="23"/>
@@ -21975,7 +21975,7 @@
         <v>100</v>
       </c>
       <c r="H129" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>120</v>
       </c>
       <c r="I129" s="2"/>
@@ -21984,7 +21984,7 @@
         <v>30</v>
       </c>
       <c r="L129" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="M129" s="2"/>
@@ -22014,14 +22014,14 @@
         <v>20</v>
       </c>
       <c r="AD129" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>40</v>
       </c>
       <c r="AF129" s="23"/>
       <c r="AG129" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SAGA_NINA_02.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;手作りクリスマス&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;サガ地方
-Saga Region&lt;/td&gt;&lt;td headers='group'&gt;緋炎騎士団&lt;/td&gt;&lt;td headers='score' id='m127'&gt;120&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;魔法&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;範囲&lt;/td&gt;&lt;td headers='sp.bonus'&gt;20&lt;/td&gt;&lt;td headers='others'&gt;MP上限+20&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;40&lt;/td&gt;&lt;td headers='憤怒'&gt;20&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SAGA_NINA_02.png alt='手作りクリスマス'&gt;&lt;/td&gt;&lt;td headers='name'&gt;手作りクリスマス&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;サガ地方
+Saga Region&lt;/td&gt;&lt;td headers='group'&gt;緋炎騎士団&lt;/td&gt;&lt;td headers='score' id='m127'&gt;120&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;魔法&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;範囲&lt;/td&gt;&lt;td headers='sp.bonus'&gt;20&lt;/td&gt;&lt;td headers='others'&gt;MP上限+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;40&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH129" s="31" t="str">
         <f t="shared" si="12"/>
@@ -22032,7 +22032,7 @@
         <v>m127</v>
       </c>
       <c r="AJ129" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK129" s="23"/>
@@ -22055,7 +22055,7 @@
       </c>
       <c r="G130" s="8"/>
       <c r="H130" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I130" s="2"/>
@@ -22072,8 +22072,8 @@
       <c r="AF130" s="23"/>
       <c r="AG130" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SAGA_SANDAISEI_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;雪解けを告げた風&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;サガ地方
-Saga Region&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m128'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SAGA_SANDAISEI_01.png alt='雪解けを告げた風'&gt;&lt;/td&gt;&lt;td headers='name'&gt;雪解けを告げた風&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;サガ地方
+Saga Region&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m128'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH130" s="31" t="str">
         <f t="shared" si="12"/>
@@ -22084,7 +22084,7 @@
         <v>m128</v>
       </c>
       <c r="AJ130" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK130" s="23"/>
@@ -22106,7 +22106,7 @@
         <v>68</v>
       </c>
       <c r="H131" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>60</v>
       </c>
       <c r="I131" s="2">
@@ -22143,8 +22143,8 @@
       <c r="AF131" s="23"/>
       <c r="AG131" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SAGA_SEIDA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;熱き魂を乗せて&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;サガ地方
-Saga Region&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m129'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;30&lt;/td&gt;&lt;td headers='agi'&gt;5&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;30&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;30&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SAGA_SEIDA_01.png alt='熱き魂を乗せて'&gt;&lt;/td&gt;&lt;td headers='name'&gt;熱き魂を乗せて&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;サガ地方
+Saga Region&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m129'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;30&lt;/td&gt;&lt;td headers='agi'&gt;5&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;30&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH131" s="31" t="str">
         <f t="shared" si="12"/>
@@ -22155,7 +22155,7 @@
         <v>m129</v>
       </c>
       <c r="AJ131" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK131" s="23"/>
@@ -22178,7 +22178,7 @@
       </c>
       <c r="G132" s="8"/>
       <c r="H132" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I132" s="2"/>
@@ -22194,9 +22194,9 @@
       <c r="AD132" s="4"/>
       <c r="AF132" s="23"/>
       <c r="AG132" s="31" t="str">
-        <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SAGA_TAMISU_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;緑は奇跡の色となりて&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;サガ地方
-Saga Region&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m130'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" ref="AG132:AG187" si="23">"&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/"&amp;A132&amp;" alt='"&amp;C132&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C132&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D132&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E132="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E132="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F132&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G132&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI132&amp;"'&gt;"&amp;H132&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I132&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J132&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K132&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M132&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N132&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O132&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P132&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q132&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R132&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S132&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T132&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U132&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V132&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W132&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X132&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y132&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z132&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA132&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB132&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC132&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SAGA_TAMISU_01.png alt='緑は奇跡の色となりて'&gt;&lt;/td&gt;&lt;td headers='name'&gt;緑は奇跡の色となりて&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;サガ地方
+Saga Region&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m130'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH132" s="31" t="str">
         <f t="shared" si="12"/>
@@ -22207,7 +22207,7 @@
         <v>m130</v>
       </c>
       <c r="AJ132" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK132" s="23"/>
@@ -22230,14 +22230,14 @@
       </c>
       <c r="G133" s="8"/>
       <c r="H133" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
       <c r="L133" s="2">
-        <f t="shared" ref="L133:L153" si="25">MAX(J133:K133)</f>
+        <f t="shared" ref="L133:L153" si="24">MAX(J133:K133)</f>
         <v>0</v>
       </c>
       <c r="M133" s="2"/>
@@ -22247,14 +22247,14 @@
       <c r="Q133" s="7"/>
       <c r="U133" s="4"/>
       <c r="AD133" s="4">
-        <f t="shared" ref="AD133:AD153" si="26">MAX(W133:AC133)</f>
+        <f t="shared" ref="AD133:AD153" si="25">MAX(W133:AC133)</f>
         <v>0</v>
       </c>
       <c r="AF133" s="23"/>
       <c r="AG133" s="31" t="str">
-        <f t="shared" si="11"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SEKAIJU_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;運命の交差&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m131'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SEKAIJU_01.png alt='運命の交差'&gt;&lt;/td&gt;&lt;td headers='name'&gt;運命の交差&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m131'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH133" s="31" t="str">
         <f t="shared" si="12"/>
@@ -22265,7 +22265,7 @@
         <v>m131</v>
       </c>
       <c r="AJ133" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK133" s="23"/>
@@ -22288,14 +22288,14 @@
       </c>
       <c r="G134" s="8"/>
       <c r="H134" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
       <c r="L134" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M134" s="2"/>
@@ -22305,25 +22305,25 @@
       <c r="Q134" s="7"/>
       <c r="U134" s="4"/>
       <c r="AD134" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AF134" s="23"/>
       <c r="AG134" s="31" t="str">
-        <f t="shared" ref="AG134:AG187" si="27">"&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/"&amp;A134&amp;"&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C134&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D134&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E134="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E134="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F134&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G134&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI134&amp;"'&gt;"&amp;H134&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I134&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J134&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K134&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M134&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N134&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O134&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P134&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q134&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R134&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S134&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T134&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U134&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V134&amp;"&lt;/td&gt;&lt;td headers='嫉妬'&gt;"&amp;W134&amp;"&lt;/td&gt;&lt;td headers='怠惰'&gt;"&amp;X134&amp;"&lt;/td&gt;&lt;td headers='色欲'&gt;"&amp;Y134&amp;"&lt;/td&gt;&lt;td headers='暴食'&gt;"&amp;Z134&amp;"&lt;/td&gt;&lt;td headers='憤怒'&gt;"&amp;AA134&amp;"&lt;/td&gt;&lt;td headers='強欲'&gt;"&amp;AB134&amp;"&lt;/td&gt;&lt;td headers='傲慢'&gt;"&amp;AC134&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SLOTH_ADOREI_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;伸ばした指先に&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
-Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m132'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SLOTH_ADOREI_01.png alt='伸ばした指先に'&gt;&lt;/td&gt;&lt;td headers='name'&gt;伸ばした指先に&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
+Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m132'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH134" s="31" t="str">
-        <f t="shared" ref="AH134:AH187" si="28">"document.getElementById('"&amp;AI134&amp;"').innerHTML = (b1*"&amp;TEXT(J134,0)&amp;"+b2*"&amp;TEXT(K134,0)&amp;"+b0*"&amp;TEXT(L134,0)&amp;") + (s1*"&amp;TEXT(W134,0)&amp;"+s2*"&amp;TEXT(X134,0)&amp;"+s3*"&amp;TEXT(Y134,0)&amp;"+s4*"&amp;TEXT(Z134,0)&amp;"+s5*"&amp;TEXT(AA134,0)&amp;"+s6*"&amp;TEXT(AB134,0)&amp;"+s7*"&amp;TEXT(AC134,0)&amp;"+s0*"&amp;TEXT(AD134,0)&amp;") + (e01*"&amp;IF(R134="斬撃",S134,0)&amp;"+e02*"&amp;IF(R134="刺突",S134,0)&amp;"+e03*"&amp;IF(R134="打撃",S134,0)&amp;"+e04*"&amp;IF(R134="射撃",S134,0)&amp;"+e05*"&amp;IF(R134="魔法",S134,0)&amp;"+e06*"&amp;IF(R134="無区分",S134,0)&amp;"+e07*"&amp;IF(T134="反撃",U134,0)&amp;"+e08*"&amp;IF(T134="風属性",U134,0)&amp;"+e09*"&amp;IF(T134="闇属性",U134,0)&amp;"+e10*"&amp;IF(T134="単体",U134,0)&amp;"+e11*"&amp;IF(T134="範囲",U134,0)&amp;"+e12*"&amp;IF(T134="人",U134,0)&amp;"+e13*"&amp;IF(T134="異族",U134,0)&amp;"+e14*"&amp;IF(T134="バジュラ",U134,0)&amp;"+e15*"&amp;IF(T134="魔動人形",U134,0)&amp;");"</f>
+        <f t="shared" ref="AH134:AH187" si="26">"document.getElementById('"&amp;AI134&amp;"').innerHTML = (b1*"&amp;TEXT(J134,0)&amp;"+b2*"&amp;TEXT(K134,0)&amp;"+b0*"&amp;TEXT(L134,0)&amp;") + (s1*"&amp;TEXT(W134,0)&amp;"+s2*"&amp;TEXT(X134,0)&amp;"+s3*"&amp;TEXT(Y134,0)&amp;"+s4*"&amp;TEXT(Z134,0)&amp;"+s5*"&amp;TEXT(AA134,0)&amp;"+s6*"&amp;TEXT(AB134,0)&amp;"+s7*"&amp;TEXT(AC134,0)&amp;"+s0*"&amp;TEXT(AD134,0)&amp;") + (e01*"&amp;IF(R134="斬撃",S134,0)&amp;"+e02*"&amp;IF(R134="刺突",S134,0)&amp;"+e03*"&amp;IF(R134="打撃",S134,0)&amp;"+e04*"&amp;IF(R134="射撃",S134,0)&amp;"+e05*"&amp;IF(R134="魔法",S134,0)&amp;"+e06*"&amp;IF(R134="無区分",S134,0)&amp;"+e07*"&amp;IF(T134="反撃",U134,0)&amp;"+e08*"&amp;IF(T134="風属性",U134,0)&amp;"+e09*"&amp;IF(T134="闇属性",U134,0)&amp;"+e10*"&amp;IF(T134="単体",U134,0)&amp;"+e11*"&amp;IF(T134="範囲",U134,0)&amp;"+e12*"&amp;IF(T134="人",U134,0)&amp;"+e13*"&amp;IF(T134="異族",U134,0)&amp;"+e14*"&amp;IF(T134="バジュラ",U134,0)&amp;"+e15*"&amp;IF(T134="魔動人形",U134,0)&amp;");"</f>
         <v>document.getElementById('m132').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
       </c>
       <c r="AI134" s="35" t="str">
-        <f t="shared" ref="AI134:AI187" si="29">"m"&amp;TEXT(ROW()-2,"000")</f>
+        <f t="shared" ref="AI134:AI187" si="27">"m"&amp;TEXT(ROW()-2,"000")</f>
         <v>m132</v>
       </c>
       <c r="AJ134" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK134" s="23"/>
@@ -22346,14 +22346,14 @@
       </c>
       <c r="G135" s="8"/>
       <c r="H135" s="4">
-        <f t="shared" ref="H135:H187" si="30">SUMPRODUCT(I$1:AD$1,I135:AD135)</f>
+        <f t="shared" ref="H135:H187" si="28">SUMPRODUCT(I$1:AD$1,I135:AD135)</f>
         <v>0</v>
       </c>
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
       <c r="L135" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M135" s="2"/>
@@ -22363,25 +22363,25 @@
       <c r="Q135" s="7"/>
       <c r="U135" s="4"/>
       <c r="AD135" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AF135" s="23"/>
       <c r="AG135" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SLOTH_AISHA_01.png alt='悩殺パフォーマンス'&gt;&lt;/td&gt;&lt;td headers='name'&gt;悩殺パフォーマンス&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
+Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m133'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH135" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m133').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI135" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SLOTH_AISHA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;悩殺パフォーマンス&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
-Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m133'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH135" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m133').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI135" s="35" t="str">
-        <f t="shared" si="29"/>
         <v>m133</v>
       </c>
       <c r="AJ135" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK135" s="23"/>
@@ -22401,14 +22401,14 @@
       </c>
       <c r="G136" s="8"/>
       <c r="H136" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
       <c r="L136" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M136" s="2"/>
@@ -22418,25 +22418,25 @@
       <c r="Q136" s="7"/>
       <c r="U136" s="4"/>
       <c r="AD136" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AF136" s="23"/>
       <c r="AG136" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SLOTH_ALBELL_01.png alt='追えない背中を抱いて'&gt;&lt;/td&gt;&lt;td headers='name'&gt;追えない背中を抱いて&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
+Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m134'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH136" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m134').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI136" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SLOTH_ALBELL_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;追えない背中を抱いて&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
-Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m134'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH136" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m134').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI136" s="35" t="str">
-        <f t="shared" si="29"/>
         <v>m134</v>
       </c>
       <c r="AJ136" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK136" s="23"/>
@@ -22456,14 +22456,14 @@
       </c>
       <c r="G137" s="8"/>
       <c r="H137" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
       <c r="L137" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M137" s="2"/>
@@ -22473,25 +22473,25 @@
       <c r="Q137" s="7"/>
       <c r="U137" s="4"/>
       <c r="AD137" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AF137" s="23"/>
       <c r="AG137" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SLOTH_CHERYL_01.png alt='悪戯の祭典、その裏に'&gt;&lt;/td&gt;&lt;td headers='name'&gt;悪戯の祭典、その裏に&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
+Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m135'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH137" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m135').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI137" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SLOTH_CHERYL_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;悪戯の祭典、その裏に&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
-Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m135'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH137" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m135').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI137" s="35" t="str">
-        <f t="shared" si="29"/>
         <v>m135</v>
       </c>
       <c r="AJ137" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK137" s="23"/>
@@ -22511,14 +22511,14 @@
       </c>
       <c r="G138" s="8"/>
       <c r="H138" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
       <c r="L138" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M138" s="2"/>
@@ -22528,25 +22528,25 @@
       <c r="Q138" s="7"/>
       <c r="U138" s="4"/>
       <c r="AD138" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AF138" s="23"/>
       <c r="AG138" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SLOTH_DAISY_01.png alt='期待の新星、現る！'&gt;&lt;/td&gt;&lt;td headers='name'&gt;期待の新星、現る！&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
+Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m136'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH138" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m136').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI138" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SLOTH_DAISY_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;期待の新星、現る！&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
-Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m136'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH138" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m136').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI138" s="35" t="str">
-        <f t="shared" si="29"/>
         <v>m136</v>
       </c>
       <c r="AJ138" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK138" s="23"/>
@@ -22566,14 +22566,14 @@
       </c>
       <c r="G139" s="8"/>
       <c r="H139" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
       <c r="L139" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M139" s="2"/>
@@ -22583,25 +22583,25 @@
       <c r="Q139" s="7"/>
       <c r="U139" s="4"/>
       <c r="AD139" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AF139" s="23"/>
       <c r="AG139" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SLOTH_EVERICA_01.png alt='ライトトラック'&gt;&lt;/td&gt;&lt;td headers='name'&gt;ライトトラック&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
+Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m137'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH139" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m137').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI139" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SLOTH_EVERICA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;ライトトラック&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
-Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m137'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH139" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m137').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI139" s="35" t="str">
-        <f t="shared" si="29"/>
         <v>m137</v>
       </c>
       <c r="AJ139" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK139" s="23"/>
@@ -22624,14 +22624,14 @@
       </c>
       <c r="G140" s="8"/>
       <c r="H140" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
       <c r="L140" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M140" s="2"/>
@@ -22641,25 +22641,25 @@
       <c r="Q140" s="7"/>
       <c r="U140" s="4"/>
       <c r="AD140" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AF140" s="23"/>
       <c r="AG140" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SLOTH_FIONA_01.png alt='二人の未来'&gt;&lt;/td&gt;&lt;td headers='name'&gt;二人の未来&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
+Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m138'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH140" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m138').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI140" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SLOTH_FIONA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;二人の未来&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
-Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m138'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH140" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m138').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI140" s="35" t="str">
-        <f t="shared" si="29"/>
         <v>m138</v>
       </c>
       <c r="AJ140" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK140" s="23"/>
@@ -22682,14 +22682,14 @@
       </c>
       <c r="G141" s="8"/>
       <c r="H141" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
       <c r="L141" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M141" s="2"/>
@@ -22699,25 +22699,25 @@
       <c r="Q141" s="7"/>
       <c r="U141" s="4"/>
       <c r="AD141" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AF141" s="23"/>
       <c r="AG141" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SLOTH_FIONA_02.png alt='花嫁に涙は似合わない'&gt;&lt;/td&gt;&lt;td headers='name'&gt;花嫁に涙は似合わない&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
+Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m139'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH141" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m139').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI141" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SLOTH_FIONA_02.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;花嫁に涙は似合わない&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
-Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m139'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH141" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m139').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI141" s="35" t="str">
-        <f t="shared" si="29"/>
         <v>m139</v>
       </c>
       <c r="AJ141" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK141" s="23"/>
@@ -22740,14 +22740,14 @@
       </c>
       <c r="G142" s="8"/>
       <c r="H142" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
       <c r="L142" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M142" s="2"/>
@@ -22757,25 +22757,25 @@
       <c r="Q142" s="7"/>
       <c r="U142" s="4"/>
       <c r="AD142" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AF142" s="23"/>
       <c r="AG142" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SLOTH_HAZEL_01.png alt='想いを映す銀の月'&gt;&lt;/td&gt;&lt;td headers='name'&gt;想いを映す銀の月&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
+Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m140'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH142" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m140').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI142" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SLOTH_HAZEL_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;想いを映す銀の月&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
-Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m140'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH142" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m140').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI142" s="35" t="str">
-        <f t="shared" si="29"/>
         <v>m140</v>
       </c>
       <c r="AJ142" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK142" s="23"/>
@@ -22798,14 +22798,14 @@
       </c>
       <c r="G143" s="8"/>
       <c r="H143" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
       <c r="L143" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M143" s="2"/>
@@ -22815,25 +22815,25 @@
       <c r="Q143" s="7"/>
       <c r="U143" s="4"/>
       <c r="AD143" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AF143" s="23"/>
       <c r="AG143" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SLOTH_IKONA_01.png alt='色違いの涙'&gt;&lt;/td&gt;&lt;td headers='name'&gt;色違いの涙&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
+Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m141'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH143" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m141').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI143" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SLOTH_IKONA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;色違いの涙&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
-Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m141'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH143" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m141').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI143" s="35" t="str">
-        <f t="shared" si="29"/>
         <v>m141</v>
       </c>
       <c r="AJ143" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK143" s="23"/>
@@ -22858,7 +22858,7 @@
         <v>68</v>
       </c>
       <c r="H144" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>80</v>
       </c>
       <c r="I144" s="2">
@@ -22869,7 +22869,7 @@
         <v>40</v>
       </c>
       <c r="L144" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>40</v>
       </c>
       <c r="M144" s="2"/>
@@ -22890,25 +22890,25 @@
         <v>30</v>
       </c>
       <c r="AD144" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>30</v>
       </c>
       <c r="AF144" s="23"/>
       <c r="AG144" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SLOTH_KAYA_01.png alt='シーサイドライブラリー'&gt;&lt;/td&gt;&lt;td headers='name'&gt;シーサイドライブラリー&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
+Slothstein&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m142'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;40&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;範囲&lt;/td&gt;&lt;td headers='sp.bonus'&gt;10&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;30&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH144" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m142').innerHTML = (b1*0+b2*40+b0*40) + (s1*0+s2*30+s3*0+s4*0+s5*0+s6*30+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*10+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI144" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SLOTH_KAYA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;シーサイドライブラリー&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
-Slothstein&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m142'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;40&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;範囲&lt;/td&gt;&lt;td headers='sp.bonus'&gt;10&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;30&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;30&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH144" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m142').innerHTML = (b1*0+b2*40+b0*40) + (s1*0+s2*30+s3*0+s4*0+s5*0+s6*30+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*10+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI144" s="35" t="str">
-        <f t="shared" si="29"/>
         <v>m142</v>
       </c>
       <c r="AJ144" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK144" s="23"/>
@@ -22928,14 +22928,14 @@
       </c>
       <c r="G145" s="8"/>
       <c r="H145" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
       <c r="L145" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M145" s="2"/>
@@ -22945,25 +22945,25 @@
       <c r="Q145" s="7"/>
       <c r="U145" s="4"/>
       <c r="AD145" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AF145" s="23"/>
       <c r="AG145" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SLOTH_KURAJU_01.png alt='憧れの射撃手'&gt;&lt;/td&gt;&lt;td headers='name'&gt;憧れの射撃手&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
+Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m143'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH145" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m143').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI145" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SLOTH_KURAJU_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;憧れの射撃手&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
-Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m143'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH145" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m143').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI145" s="35" t="str">
-        <f t="shared" si="29"/>
         <v>m143</v>
       </c>
       <c r="AJ145" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK145" s="23"/>
@@ -22986,14 +22986,14 @@
       </c>
       <c r="G146" s="8"/>
       <c r="H146" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
       <c r="L146" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M146" s="2"/>
@@ -23003,25 +23003,25 @@
       <c r="Q146" s="7"/>
       <c r="U146" s="4"/>
       <c r="AD146" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AF146" s="23"/>
       <c r="AG146" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SLOTH_MINARIO_01.png alt='交差する覚悟の銃身'&gt;&lt;/td&gt;&lt;td headers='name'&gt;交差する覚悟の銃身&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
+Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m144'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH146" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m144').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI146" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SLOTH_MINARIO_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;交差する覚悟の銃身&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
-Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m144'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH146" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m144').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI146" s="35" t="str">
-        <f t="shared" si="29"/>
         <v>m144</v>
       </c>
       <c r="AJ146" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK146" s="23"/>
@@ -23044,14 +23044,14 @@
       </c>
       <c r="G147" s="8"/>
       <c r="H147" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
       <c r="L147" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M147" s="2"/>
@@ -23061,25 +23061,25 @@
       <c r="Q147" s="7"/>
       <c r="U147" s="4"/>
       <c r="AD147" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AF147" s="23"/>
       <c r="AG147" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SLOTH_TARAS_01.png alt='スモーキングブルース'&gt;&lt;/td&gt;&lt;td headers='name'&gt;スモーキングブルース&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
+Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m145'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH147" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m145').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI147" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_SLOTH_TARAS_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;スモーキングブルース&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
-Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m145'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH147" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m145').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI147" s="35" t="str">
-        <f t="shared" si="29"/>
         <v>m145</v>
       </c>
       <c r="AJ147" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK147" s="23"/>
@@ -23102,14 +23102,14 @@
       </c>
       <c r="G148" s="8"/>
       <c r="H148" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
       <c r="L148" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M148" s="2"/>
@@ -23119,25 +23119,25 @@
       <c r="Q148" s="7"/>
       <c r="U148" s="4"/>
       <c r="AD148" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AF148" s="23"/>
       <c r="AG148" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ST_KASUMI_01.png alt='弱さもみんな抱きしめて'&gt;&lt;/td&gt;&lt;td headers='name'&gt;弱さもみんな抱きしめて&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m146'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH148" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m146').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI148" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_ST_KASUMI_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;弱さもみんな抱きしめて&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m146'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH148" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m146').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI148" s="35" t="str">
-        <f t="shared" si="29"/>
         <v>m146</v>
       </c>
       <c r="AJ148" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK148" s="23"/>
@@ -23159,7 +23159,7 @@
         <v>313</v>
       </c>
       <c r="H149" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>30</v>
       </c>
       <c r="I149" s="2">
@@ -23168,7 +23168,7 @@
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
       <c r="L149" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M149" s="2"/>
@@ -23186,25 +23186,25 @@
         <v>30</v>
       </c>
       <c r="AD149" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>30</v>
       </c>
       <c r="AF149" s="23"/>
       <c r="AG149" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_TS_01.png alt='伝説の騎士団'&gt;&lt;/td&gt;&lt;td headers='name'&gt;伝説の騎士団&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;〈七つの大罪〉&lt;/td&gt;&lt;td headers='score' id='m147'&gt;30&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;MP上限+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;30&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH149" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m147').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*30+s4*0+s5*0+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI149" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_TS_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;伝説の騎士団&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;〈七つの大罪〉&lt;/td&gt;&lt;td headers='score' id='m147'&gt;30&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;MP上限+10&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;30&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH149" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m147').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*30+s4*0+s5*0+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI149" s="35" t="str">
-        <f t="shared" si="29"/>
         <v>m147</v>
       </c>
       <c r="AJ149" s="37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK149" s="23"/>
@@ -23229,7 +23229,7 @@
         <v>313</v>
       </c>
       <c r="H150" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I150" s="2">
@@ -23242,7 +23242,7 @@
         <v>20</v>
       </c>
       <c r="L150" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>20</v>
       </c>
       <c r="M150" s="2"/>
@@ -23261,25 +23261,25 @@
         <v>30</v>
       </c>
       <c r="AD150" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>30</v>
       </c>
       <c r="AF150" s="23"/>
       <c r="AG150" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_TS_02.png alt='大罪人の聖戦'&gt;&lt;/td&gt;&lt;td headers='name'&gt;大罪人の聖戦&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;〈七つの大罪〉&lt;/td&gt;&lt;td headers='score' id='m148'&gt;50&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;20&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+5&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH150" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m148').innerHTML = (b1*20+b2*20+b0*20) + (s1*30+s2*0+s3*0+s4*0+s5*30+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI150" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_TS_02.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;大罪人の聖戦&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;〈七つの大罪〉&lt;/td&gt;&lt;td headers='score' id='m148'&gt;50&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;20&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+5&lt;/td&gt;&lt;td headers='嫉妬'&gt;30&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;30&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH150" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m148').innerHTML = (b1*20+b2*20+b0*20) + (s1*30+s2*0+s3*0+s4*0+s5*30+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI150" s="35" t="str">
-        <f t="shared" si="29"/>
         <v>m148</v>
       </c>
       <c r="AJ150" s="37" t="str">
-        <f t="shared" ref="AJ150:AJ187" si="31">IF(LEN(R150)&gt;3,"Special","")</f>
+        <f t="shared" ref="AJ150:AJ187" si="29">IF(LEN(R150)&gt;3,"Special","")</f>
         <v/>
       </c>
       <c r="AK150" s="23"/>
@@ -23304,7 +23304,7 @@
         <v>313</v>
       </c>
       <c r="H151" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I151" s="2"/>
@@ -23315,7 +23315,7 @@
         <v>30</v>
       </c>
       <c r="L151" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>30</v>
       </c>
       <c r="M151" s="2"/>
@@ -23336,25 +23336,25 @@
         <v>30</v>
       </c>
       <c r="AD151" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>30</v>
       </c>
       <c r="AF151" s="23"/>
       <c r="AG151" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_TS_03.png alt='リオネスの英雄、久遠に'&gt;&lt;/td&gt;&lt;td headers='name'&gt;リオネスの英雄、久遠に&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;〈七つの大罪〉&lt;/td&gt;&lt;td headers='score' id='m149'&gt;100&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;魔動人形&lt;/td&gt;&lt;td headers='sp.bonus'&gt;40&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;30&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;30&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH151" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m149').innerHTML = (b1*30+b2*30+b0*30) + (s1*0+s2*0+s3*0+s4*30+s5*0+s6*0+s7*30+s0*30) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*40);</v>
+      </c>
+      <c r="AI151" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_TS_03.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;リオネスの英雄、久遠に&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;〈七つの大罪〉&lt;/td&gt;&lt;td headers='score' id='m149'&gt;100&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;魔動人形&lt;/td&gt;&lt;td headers='sp.bonus'&gt;40&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;30&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;30&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH151" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m149').innerHTML = (b1*30+b2*30+b0*30) + (s1*0+s2*0+s3*0+s4*30+s5*0+s6*0+s7*30+s0*30) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*40);</v>
-      </c>
-      <c r="AI151" s="35" t="str">
+        <v>m149</v>
+      </c>
+      <c r="AJ151" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m149</v>
-      </c>
-      <c r="AJ151" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK151" s="23"/>
@@ -23379,7 +23379,7 @@
         <v>320</v>
       </c>
       <c r="H152" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>60</v>
       </c>
       <c r="I152" s="2">
@@ -23390,7 +23390,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>20</v>
       </c>
       <c r="M152" s="2"/>
@@ -23409,25 +23409,25 @@
         <v>20</v>
       </c>
       <c r="AD152" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>40</v>
       </c>
       <c r="AF152" s="23"/>
       <c r="AG152" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_TSP_01.png alt='異世界ピクニックの衝撃'&gt;&lt;/td&gt;&lt;td headers='name'&gt;異世界ピクニックの衝撃&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;転スラ&lt;/td&gt;&lt;td headers='score' id='m150'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;60&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;MP上限+10, MP回復+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;40&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH152" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m150').innerHTML = (b1*20+b2*0+b0*20) + (s1*0+s2*0+s3*0+s4*40+s5*20+s6*0+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI152" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_TSP_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;異世界ピクニックの衝撃&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;転スラ&lt;/td&gt;&lt;td headers='score' id='m150'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;60&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;MP上限+10, MP回復+10&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;40&lt;/td&gt;&lt;td headers='憤怒'&gt;20&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH152" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m150').innerHTML = (b1*20+b2*0+b0*20) + (s1*0+s2*0+s3*0+s4*40+s5*20+s6*0+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI152" s="35" t="str">
+        <v>m150</v>
+      </c>
+      <c r="AJ152" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m150</v>
-      </c>
-      <c r="AJ152" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK152" s="23"/>
@@ -23452,7 +23452,7 @@
         <v>320</v>
       </c>
       <c r="H153" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>70</v>
       </c>
       <c r="I153" s="2">
@@ -23463,7 +23463,7 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>30</v>
       </c>
       <c r="M153" s="2"/>
@@ -23481,25 +23481,25 @@
         <v>40</v>
       </c>
       <c r="AD153" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>40</v>
       </c>
       <c r="AF153" s="23"/>
       <c r="AG153" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_TSP_02.png alt='斬り開く、仲間とともに'&gt;&lt;/td&gt;&lt;td headers='name'&gt;斬り開く、仲間とともに&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;転スラ&lt;/td&gt;&lt;td headers='score' id='m151'&gt;70&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;30&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;20&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;40&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH153" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m151').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*20+s3*0+s4*0+s5*40+s6*0+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI153" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_TSP_02.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;斬り開く、仲間とともに&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;転スラ&lt;/td&gt;&lt;td headers='score' id='m151'&gt;70&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;30&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;20&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;40&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH153" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m151').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*20+s3*0+s4*0+s5*40+s6*0+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI153" s="35" t="str">
+        <v>m151</v>
+      </c>
+      <c r="AJ153" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m151</v>
-      </c>
-      <c r="AJ153" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK153" s="23"/>
@@ -23522,7 +23522,7 @@
       </c>
       <c r="G154" s="8"/>
       <c r="H154" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I154" s="2"/>
@@ -23538,20 +23538,20 @@
       <c r="AD154" s="4"/>
       <c r="AF154" s="23"/>
       <c r="AG154" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_UNDOKAI_2018_01.png alt='一番眩しい笑顔'&gt;&lt;/td&gt;&lt;td headers='name'&gt;一番眩しい笑顔&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
+Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m152'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH154" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m152').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI154" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_UNDOKAI_2018_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;一番眩しい笑顔&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
-Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m152'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH154" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m152').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI154" s="35" t="str">
+        <v>m152</v>
+      </c>
+      <c r="AJ154" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m152</v>
-      </c>
-      <c r="AJ154" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK154" s="23"/>
@@ -23571,14 +23571,14 @@
       </c>
       <c r="G155" s="8"/>
       <c r="H155" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
       <c r="L155" s="2">
-        <f t="shared" ref="L155:L187" si="32">MAX(J155:K155)</f>
+        <f t="shared" ref="L155:L187" si="30">MAX(J155:K155)</f>
         <v>0</v>
       </c>
       <c r="M155" s="2"/>
@@ -23588,25 +23588,25 @@
       <c r="Q155" s="7"/>
       <c r="U155" s="4"/>
       <c r="AD155" s="4">
-        <f t="shared" ref="AD155:AD187" si="33">MAX(W155:AC155)</f>
+        <f t="shared" ref="AD155:AD187" si="31">MAX(W155:AC155)</f>
         <v>0</v>
       </c>
       <c r="AF155" s="23"/>
       <c r="AG155" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WADA_FUJICA_01.png alt='神童と呼ばれた友'&gt;&lt;/td&gt;&lt;td headers='name'&gt;神童と呼ばれた友&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m153'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH155" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m153').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI155" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WADA_FUJICA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;神童と呼ばれた友&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m153'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH155" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m153').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI155" s="35" t="str">
+        <v>m153</v>
+      </c>
+      <c r="AJ155" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m153</v>
-      </c>
-      <c r="AJ155" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK155" s="23"/>
@@ -23628,7 +23628,7 @@
         <v>68</v>
       </c>
       <c r="H156" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>60</v>
       </c>
       <c r="I156" s="2">
@@ -23637,7 +23637,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
       <c r="L156" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M156" s="2"/>
@@ -23662,25 +23662,25 @@
         <v>20</v>
       </c>
       <c r="AD156" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>40</v>
       </c>
       <c r="AF156" s="23"/>
       <c r="AG156" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WADA_IKASA_01.png alt='未来は両の手の中に'&gt;&lt;/td&gt;&lt;td headers='name'&gt;未来は両の手の中に&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m154'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;70&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;治癒力+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;40&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;20&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH156" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m154').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*40+s4*0+s5*0+s6*0+s7*20+s0*40) + (e01*20+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI156" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WADA_IKASA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;未来は両の手の中に&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m154'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;70&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;治癒力+20&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;40&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;20&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH156" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m154').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*40+s4*0+s5*0+s6*0+s7*20+s0*40) + (e01*20+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI156" s="35" t="str">
+        <v>m154</v>
+      </c>
+      <c r="AJ156" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m154</v>
-      </c>
-      <c r="AJ156" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK156" s="23"/>
@@ -23703,14 +23703,14 @@
       </c>
       <c r="G157" s="8"/>
       <c r="H157" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
       <c r="L157" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M157" s="2"/>
@@ -23720,25 +23720,25 @@
       <c r="Q157" s="7"/>
       <c r="U157" s="4"/>
       <c r="AD157" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AF157" s="23"/>
       <c r="AG157" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WADA_ITSUKI_01.png alt='甘くない、それも個性'&gt;&lt;/td&gt;&lt;td headers='name'&gt;甘くない、それも個性&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m155'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH157" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m155').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI157" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WADA_ITSUKI_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;甘くない、それも個性&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m155'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH157" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m155').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI157" s="35" t="str">
+        <v>m155</v>
+      </c>
+      <c r="AJ157" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m155</v>
-      </c>
-      <c r="AJ157" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK157" s="23"/>
@@ -23758,14 +23758,14 @@
       </c>
       <c r="G158" s="8"/>
       <c r="H158" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
       <c r="L158" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M158" s="2"/>
@@ -23775,25 +23775,25 @@
       <c r="Q158" s="7"/>
       <c r="U158" s="4"/>
       <c r="AD158" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AF158" s="23"/>
       <c r="AG158" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WADA_IZAYOI_01.png alt='空駆ける夜狐'&gt;&lt;/td&gt;&lt;td headers='name'&gt;空駆ける夜狐&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m156'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH158" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m156').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI158" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WADA_IZAYOI_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;空駆ける夜狐&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m156'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH158" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m156').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI158" s="35" t="str">
+        <v>m156</v>
+      </c>
+      <c r="AJ158" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m156</v>
-      </c>
-      <c r="AJ158" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK158" s="23"/>
@@ -23818,7 +23818,7 @@
         <v>68</v>
       </c>
       <c r="H159" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="I159" s="2">
@@ -23827,7 +23827,7 @@
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
       <c r="L159" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M159" s="2"/>
@@ -23851,25 +23851,25 @@
         <v>20</v>
       </c>
       <c r="AD159" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>20</v>
       </c>
       <c r="AF159" s="23"/>
       <c r="AG159" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WADA_KAGURA_01.png alt='雪解け。故郷にて'&gt;&lt;/td&gt;&lt;td headers='name'&gt;雪解け。故郷にて&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m157'&gt;20&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;20&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;単体耐性+30&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;20&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH159" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m157').innerHTML = (b1*0+b2*0+b0*0) + (s1*20+s2*0+s3*0+s4*0+s5*20+s6*20+s7*0+s0*20) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI159" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WADA_KAGURA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;雪解け。故郷にて&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m157'&gt;20&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;20&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;単体耐性+30&lt;/td&gt;&lt;td headers='嫉妬'&gt;20&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;20&lt;/td&gt;&lt;td headers='強欲'&gt;20&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH159" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m157').innerHTML = (b1*0+b2*0+b0*0) + (s1*20+s2*0+s3*0+s4*0+s5*20+s6*20+s7*0+s0*20) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI159" s="35" t="str">
+        <v>m157</v>
+      </c>
+      <c r="AJ159" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m157</v>
-      </c>
-      <c r="AJ159" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK159" s="23"/>
@@ -23891,7 +23891,7 @@
         <v>338</v>
       </c>
       <c r="H160" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>60</v>
       </c>
       <c r="I160" s="2">
@@ -23902,7 +23902,7 @@
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>40</v>
       </c>
       <c r="M160" s="2">
@@ -23926,25 +23926,25 @@
         <v>20</v>
       </c>
       <c r="AD160" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>20</v>
       </c>
       <c r="AF160" s="23"/>
       <c r="AG160" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WADA_KURT.png alt='閃光、交わりし瞬間'&gt;&lt;/td&gt;&lt;td headers='name'&gt;閃光、交わりし瞬間&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m158'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;40&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;10&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+5&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;20&lt;/td&gt;&lt;td headers='sinD'&gt;20&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH160" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m158').innerHTML = (b1*40+b2*0+b0*40) + (s1*0+s2*0+s3*20+s4*20+s5*20+s6*0+s7*0+s0*20) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI160" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WADA_KURT.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;閃光、交わりし瞬間&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m158'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;40&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;10&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+5&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;20&lt;/td&gt;&lt;td headers='暴食'&gt;20&lt;/td&gt;&lt;td headers='憤怒'&gt;20&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH160" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m158').innerHTML = (b1*40+b2*0+b0*40) + (s1*0+s2*0+s3*20+s4*20+s5*20+s6*0+s7*0+s0*20) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI160" s="35" t="str">
+        <v>m158</v>
+      </c>
+      <c r="AJ160" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m158</v>
-      </c>
-      <c r="AJ160" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK160" s="23"/>
@@ -23966,7 +23966,7 @@
         <v>338</v>
       </c>
       <c r="H161" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>80</v>
       </c>
       <c r="I161" s="2">
@@ -23979,7 +23979,7 @@
         <v>20</v>
       </c>
       <c r="L161" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="M161" s="2"/>
@@ -23994,25 +23994,25 @@
         <v>60</v>
       </c>
       <c r="AD161" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>60</v>
       </c>
       <c r="AF161" s="23"/>
       <c r="AG161" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WADA_KUZA_01.png alt='誓いの刃'&gt;&lt;/td&gt;&lt;td headers='name'&gt;誓いの刃&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m159'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;20&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;60&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH161" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m159').innerHTML = (b1*20+b2*20+b0*20) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*60+s7*0+s0*60) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI161" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WADA_KUZA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;誓いの刃&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m159'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;20&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;60&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH161" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m159').innerHTML = (b1*20+b2*20+b0*20) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*60+s7*0+s0*60) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI161" s="35" t="str">
+        <v>m159</v>
+      </c>
+      <c r="AJ161" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m159</v>
-      </c>
-      <c r="AJ161" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK161" s="23"/>
@@ -24037,7 +24037,7 @@
         <v>338</v>
       </c>
       <c r="H162" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I162" s="2"/>
@@ -24046,7 +24046,7 @@
         <v>40</v>
       </c>
       <c r="L162" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>40</v>
       </c>
       <c r="M162" s="2"/>
@@ -24068,21 +24068,21 @@
         <v>30</v>
       </c>
       <c r="AD162" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>30</v>
       </c>
       <c r="AF162" s="23"/>
       <c r="AG162" s="31" t="str">
-        <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WADA_LEYDOW_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;古の装い&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m160'&gt;100&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;40&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;射撃&amp;魔法&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;30&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;30&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WADA_LEYDOW_01.png alt='古の装い'&gt;&lt;/td&gt;&lt;td headers='name'&gt;古の装い&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m160'&gt;100&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;40&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;射撃&amp;魔法&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;30&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH162" s="31" t="str">
         <f>"document.getElementById('"&amp;AI162&amp;"').innerHTML = (b1*"&amp;TEXT(J162,0)&amp;"+b2*"&amp;TEXT(K162,0)&amp;"+b0*"&amp;TEXT(L162,0)&amp;") + (s1*"&amp;TEXT(W162,0)&amp;"+s2*"&amp;TEXT(X162,0)&amp;"+s3*"&amp;TEXT(Y162,0)&amp;"+s4*"&amp;TEXT(Z162,0)&amp;"+s5*"&amp;TEXT(AA162,0)&amp;"+s6*"&amp;TEXT(AB162,0)&amp;"+s7*"&amp;TEXT(AC162,0)&amp;"+s0*"&amp;TEXT(AD162,0)&amp;") + (e01*"&amp;IF(R162="斬撃",S162,0)&amp;"+e02*"&amp;IF(R162="刺突",S162,0)&amp;"+e03*"&amp;IF(R162="打撃",S162,0)&amp;"+e04*"&amp;IF(R162="射撃",S162,30)&amp;"+e05*"&amp;IF(R162="魔法",S162,30)&amp;"+e06*"&amp;IF(R162="無区分",S162,0)&amp;"+e07*"&amp;IF(T162="反撃",U162,0)&amp;"+e08*"&amp;IF(T162="風属性",U162,0)&amp;"+e09*"&amp;IF(T162="闇属性",U162,0)&amp;"+e10*"&amp;IF(T162="単体",U162,0)&amp;"+e11*"&amp;IF(T162="範囲",U162,0)&amp;"+e12*"&amp;IF(T162="人",U162,0)&amp;"+e13*"&amp;IF(T162="異族",U162,0)&amp;"+e14*"&amp;IF(T162="バジュラ",U162,0)&amp;"+e15*"&amp;IF(T162="魔動人形",U162,0)&amp;");"</f>
         <v>document.getElementById('m160').innerHTML = (b1*0+b2*40+b0*40) + (s1*0+s2*0+s3*30+s4*0+s5*0+s6*30+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*30+e05*30+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
       </c>
       <c r="AI162" s="35" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>m160</v>
       </c>
       <c r="AJ162" s="37" t="str">
@@ -24108,7 +24108,7 @@
         <v>338</v>
       </c>
       <c r="H163" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>130</v>
       </c>
       <c r="I163" s="2"/>
@@ -24117,7 +24117,7 @@
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>30</v>
       </c>
       <c r="M163" s="2"/>
@@ -24139,25 +24139,25 @@
         <v>60</v>
       </c>
       <c r="AD163" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>60</v>
       </c>
       <c r="AF163" s="23"/>
       <c r="AG163" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WADA_SETSUNA_01.png alt='私のすべて、灰に還る'&gt;&lt;/td&gt;&lt;td headers='name'&gt;私のすべて、灰に還る&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m161'&gt;130&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;暴擊率+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;60&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH163" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m161').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*60+s7*0+s0*60) + (e01*40+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI163" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WADA_SETSUNA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;私のすべて、灰に還る&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m161'&gt;130&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;暴擊率+20&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;60&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH163" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m161').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*60+s7*0+s0*60) + (e01*40+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI163" s="35" t="str">
+        <v>m161</v>
+      </c>
+      <c r="AJ163" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m161</v>
-      </c>
-      <c r="AJ163" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK163" s="23"/>
@@ -24182,7 +24182,7 @@
         <v>338</v>
       </c>
       <c r="H164" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>90</v>
       </c>
       <c r="I164" s="2">
@@ -24193,7 +24193,7 @@
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="M164" s="2"/>
@@ -24220,25 +24220,25 @@
         <v>30</v>
       </c>
       <c r="AD164" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>30</v>
       </c>
       <c r="AF164" s="23"/>
       <c r="AG164" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WADA_SETSUNA_02.png alt='懐旧は、あたたかく'&gt;&lt;/td&gt;&lt;td headers='name'&gt;懐旧は、あたたかく&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m162'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;範囲&lt;/td&gt;&lt;td headers='sp.bonus'&gt;10&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH164" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m162').innerHTML = (b1*20+b2*0+b0*20) + (s1*30+s2*0+s3*0+s4*0+s5*0+s6*30+s7*0+s0*30) + (e01*30+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*10+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI164" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WADA_SETSUNA_02.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;懐旧は、あたたかく&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m162'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;範囲&lt;/td&gt;&lt;td headers='sp.bonus'&gt;10&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;30&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;30&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH164" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m162').innerHTML = (b1*20+b2*0+b0*20) + (s1*30+s2*0+s3*0+s4*0+s5*0+s6*30+s7*0+s0*30) + (e01*30+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*10+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI164" s="35" t="str">
+        <v>m162</v>
+      </c>
+      <c r="AJ164" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m162</v>
-      </c>
-      <c r="AJ164" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK164" s="23"/>
@@ -24263,7 +24263,7 @@
         <v>338</v>
       </c>
       <c r="H165" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>60</v>
       </c>
       <c r="I165" s="2">
@@ -24272,7 +24272,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
       <c r="L165" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M165" s="2"/>
@@ -24291,25 +24291,25 @@
         <v>30</v>
       </c>
       <c r="AD165" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>30</v>
       </c>
       <c r="AF165" s="23"/>
       <c r="AG165" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WADA_SETSUNA_03.png alt='砂塵、ひと雫の笑み'&gt;&lt;/td&gt;&lt;td headers='name'&gt;砂塵、ひと雫の笑み&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m163'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH165" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m163').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*30+s7*0+s0*30) + (e01*30+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI165" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WADA_SETSUNA_03.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;砂塵、ひと雫の笑み&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m163'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;30&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH165" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m163').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*30+s7*0+s0*30) + (e01*30+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI165" s="35" t="str">
+        <v>m163</v>
+      </c>
+      <c r="AJ165" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m163</v>
-      </c>
-      <c r="AJ165" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK165" s="23"/>
@@ -24334,7 +24334,7 @@
         <v>91</v>
       </c>
       <c r="H166" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>60</v>
       </c>
       <c r="I166" s="2">
@@ -24345,7 +24345,7 @@
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>30</v>
       </c>
       <c r="M166" s="2"/>
@@ -24370,25 +24370,25 @@
         <v>10</v>
       </c>
       <c r="AD166" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="AF166" s="23"/>
       <c r="AG166" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WADA_SUZUKA_01.png alt='調理場、その初陣は'&gt;&lt;/td&gt;&lt;td headers='name'&gt;調理場、その初陣は&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m164'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;10&lt;/td&gt;&lt;td headers='sinB'&gt;10&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;10&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH166" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m164').innerHTML = (b1*30+b2*0+b0*30) + (s1*10+s2*10+s3*0+s4*0+s5*0+s6*10+s7*0+s0*10) + (e01*20+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI166" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WADA_SUZUKA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;調理場、その初陣は&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m164'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;10&lt;/td&gt;&lt;td headers='怠惰'&gt;10&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;10&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH166" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m164').innerHTML = (b1*30+b2*0+b0*30) + (s1*10+s2*10+s3*0+s4*0+s5*0+s6*10+s7*0+s0*10) + (e01*20+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI166" s="35" t="str">
+        <v>m164</v>
+      </c>
+      <c r="AJ166" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m164</v>
-      </c>
-      <c r="AJ166" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK166" s="23"/>
@@ -24408,14 +24408,14 @@
       </c>
       <c r="G167" s="8"/>
       <c r="H167" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
       <c r="L167" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M167" s="2"/>
@@ -24425,25 +24425,25 @@
       <c r="Q167" s="7"/>
       <c r="U167" s="4"/>
       <c r="AD167" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AF167" s="23"/>
       <c r="AG167" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WADA_TAMAMO_01.png alt='咲いて散るは憧憬の花'&gt;&lt;/td&gt;&lt;td headers='name'&gt;咲いて散るは憧憬の花&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m165'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH167" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m165').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI167" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WADA_TAMAMO_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;咲いて散るは憧憬の花&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m165'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH167" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m165').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI167" s="35" t="str">
+        <v>m165</v>
+      </c>
+      <c r="AJ167" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m165</v>
-      </c>
-      <c r="AJ167" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK167" s="23"/>
@@ -24466,14 +24466,14 @@
       </c>
       <c r="G168" s="8"/>
       <c r="H168" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
       <c r="L168" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M168" s="2"/>
@@ -24483,25 +24483,25 @@
       <c r="Q168" s="7"/>
       <c r="U168" s="4"/>
       <c r="AD168" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AF168" s="23"/>
       <c r="AG168" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WADA_TAMAMO_02.png alt='約束の時、幸福の味'&gt;&lt;/td&gt;&lt;td headers='name'&gt;約束の時、幸福の味&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m166'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH168" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m166').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI168" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WADA_TAMAMO_02.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;約束の時、幸福の味&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m166'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH168" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m166').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI168" s="35" t="str">
+        <v>m166</v>
+      </c>
+      <c r="AJ168" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m166</v>
-      </c>
-      <c r="AJ168" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK168" s="23"/>
@@ -24523,7 +24523,7 @@
         <v>338</v>
       </c>
       <c r="H169" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>70</v>
       </c>
       <c r="I169" s="2">
@@ -24534,7 +24534,7 @@
         <v>30</v>
       </c>
       <c r="L169" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>30</v>
       </c>
       <c r="M169" s="2"/>
@@ -24554,25 +24554,25 @@
         <v>40</v>
       </c>
       <c r="AD169" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>40</v>
       </c>
       <c r="AF169" s="23"/>
       <c r="AG169" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WADA_YOMI_01.png alt='誓い、彼岸の花に'&gt;&lt;/td&gt;&lt;td headers='name'&gt;誓い、彼岸の花に&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m167'&gt;70&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;20&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;20&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;40&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH169" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m167').innerHTML = (b1*0+b2*30+b0*30) + (s1*0+s2*0+s3*0+s4*20+s5*0+s6*40+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI169" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WADA_YOMI_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;誓い、彼岸の花に&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m167'&gt;70&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;20&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;20&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;40&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH169" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m167').innerHTML = (b1*0+b2*30+b0*30) + (s1*0+s2*0+s3*0+s4*20+s5*0+s6*40+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI169" s="35" t="str">
+        <v>m167</v>
+      </c>
+      <c r="AJ169" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m167</v>
-      </c>
-      <c r="AJ169" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK169" s="23"/>
@@ -24594,7 +24594,7 @@
         <v>338</v>
       </c>
       <c r="H170" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>80</v>
       </c>
       <c r="I170" s="2">
@@ -24605,7 +24605,7 @@
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>30</v>
       </c>
       <c r="M170" s="2"/>
@@ -24629,25 +24629,25 @@
         <v>30</v>
       </c>
       <c r="AD170" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>30</v>
       </c>
       <c r="AF170" s="23"/>
       <c r="AG170" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WADA_ZIN_01.png alt='流星に願った頃'&gt;&lt;/td&gt;&lt;td headers='name'&gt;流星に願った頃&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m168'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;反撃&lt;/td&gt;&lt;td headers='sp.bonus'&gt;20&lt;/td&gt;&lt;td headers='others'&gt;詠唱時間-20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;30&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH170" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m168').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*0+s3*0+s4*30+s5*0+s6*30+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*20+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI170" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WADA_ZIN_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;流星に願った頃&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m168'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;反撃&lt;/td&gt;&lt;td headers='sp.bonus'&gt;20&lt;/td&gt;&lt;td headers='others'&gt;詠唱時間-20&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;30&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;30&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH170" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m168').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*0+s3*0+s4*30+s5*0+s6*30+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*20+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI170" s="35" t="str">
+        <v>m168</v>
+      </c>
+      <c r="AJ170" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m168</v>
-      </c>
-      <c r="AJ170" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK170" s="23"/>
@@ -24669,7 +24669,7 @@
         <v>362</v>
       </c>
       <c r="H171" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>90</v>
       </c>
       <c r="I171" s="2">
@@ -24680,7 +24680,7 @@
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>30</v>
       </c>
       <c r="M171" s="2"/>
@@ -24705,25 +24705,25 @@
         <v>30</v>
       </c>
       <c r="AD171" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>30</v>
       </c>
       <c r="AF171" s="23"/>
       <c r="AG171" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_ANASTASIA_01.png alt='薔薇はただ赤く'&gt;&lt;/td&gt;&lt;td headers='name'&gt;薔薇はただ赤く&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;ラーストリス騎士団&lt;/td&gt;&lt;td headers='score' id='m169'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+5&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH171" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m169').innerHTML = (b1*30+b2*0+b0*30) + (s1*30+s2*0+s3*0+s4*0+s5*30+s6*0+s7*0+s0*30) + (e01*30+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI171" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_ANASTASIA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;薔薇はただ赤く&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;ラーストリス騎士団&lt;/td&gt;&lt;td headers='score' id='m169'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+5&lt;/td&gt;&lt;td headers='嫉妬'&gt;30&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;30&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH171" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m169').innerHTML = (b1*30+b2*0+b0*30) + (s1*30+s2*0+s3*0+s4*0+s5*30+s6*0+s7*0+s0*30) + (e01*30+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI171" s="35" t="str">
+        <v>m169</v>
+      </c>
+      <c r="AJ171" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m169</v>
-      </c>
-      <c r="AJ171" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK171" s="23"/>
@@ -24746,14 +24746,14 @@
       </c>
       <c r="G172" s="8"/>
       <c r="H172" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
       <c r="L172" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M172" s="2"/>
@@ -24763,25 +24763,25 @@
       <c r="Q172" s="7"/>
       <c r="U172" s="4"/>
       <c r="AD172" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AF172" s="23"/>
       <c r="AG172" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_DOROTHEA_01.png alt='断崖ディスティニー'&gt;&lt;/td&gt;&lt;td headers='name'&gt;断崖ディスティニー&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m170'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH172" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m170').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI172" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_DOROTHEA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;断崖ディスティニー&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m170'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH172" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m170').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI172" s="35" t="str">
+        <v>m170</v>
+      </c>
+      <c r="AJ172" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m170</v>
-      </c>
-      <c r="AJ172" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK172" s="23"/>
@@ -24801,14 +24801,14 @@
       </c>
       <c r="G173" s="8"/>
       <c r="H173" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
       <c r="L173" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M173" s="2"/>
@@ -24818,25 +24818,25 @@
       <c r="Q173" s="7"/>
       <c r="U173" s="4"/>
       <c r="AD173" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AF173" s="23"/>
       <c r="AG173" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_GLANZ_01.png alt='シークレットヒーロー'&gt;&lt;/td&gt;&lt;td headers='name'&gt;シークレットヒーロー&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m171'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH173" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m171').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI173" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_GLANZ_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;シークレットヒーロー&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m171'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH173" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m171').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI173" s="35" t="str">
+        <v>m171</v>
+      </c>
+      <c r="AJ173" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m171</v>
-      </c>
-      <c r="AJ173" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK173" s="23"/>
@@ -24859,14 +24859,14 @@
       </c>
       <c r="G174" s="8"/>
       <c r="H174" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
       <c r="L174" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M174" s="2"/>
@@ -24876,25 +24876,25 @@
       <c r="Q174" s="7"/>
       <c r="U174" s="4"/>
       <c r="AD174" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AF174" s="23"/>
       <c r="AG174" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_KEVIN_01.png alt='感謝を込めた花束を'&gt;&lt;/td&gt;&lt;td headers='name'&gt;感謝を込めた花束を&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m172'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH174" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m172').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI174" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_KEVIN_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;感謝を込めた花束を&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m172'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH174" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m172').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI174" s="35" t="str">
+        <v>m172</v>
+      </c>
+      <c r="AJ174" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m172</v>
-      </c>
-      <c r="AJ174" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK174" s="23"/>
@@ -24917,14 +24917,14 @@
       </c>
       <c r="G175" s="8"/>
       <c r="H175" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
       <c r="L175" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M175" s="2"/>
@@ -24934,25 +24934,25 @@
       <c r="Q175" s="7"/>
       <c r="U175" s="4"/>
       <c r="AD175" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AF175" s="23"/>
       <c r="AG175" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_KLIMA_01.png alt='雪あそびより'&gt;&lt;/td&gt;&lt;td headers='name'&gt;雪あそびより&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m173'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH175" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m173').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI175" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_KLIMA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;雪あそびより&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m173'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH175" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m173').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI175" s="35" t="str">
+        <v>m173</v>
+      </c>
+      <c r="AJ175" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m173</v>
-      </c>
-      <c r="AJ175" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK175" s="23"/>
@@ -24974,7 +24974,7 @@
         <v>68</v>
       </c>
       <c r="H176" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I176" s="2"/>
@@ -24983,7 +24983,7 @@
       </c>
       <c r="K176" s="2"/>
       <c r="L176" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>60</v>
       </c>
       <c r="M176" s="2"/>
@@ -25002,25 +25002,25 @@
         <v>40</v>
       </c>
       <c r="AD176" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>40</v>
       </c>
       <c r="AF176" s="23"/>
       <c r="AG176" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_KUDHANSTEIN_01.png alt='漆黒に揺蕩いしは'&gt;&lt;/td&gt;&lt;td headers='name'&gt;漆黒に揺蕩いしは&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m174'&gt;100&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;60&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;光属性耐性+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;40&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH176" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m174').innerHTML = (b1*60+b2*0+b0*60) + (s1*0+s2*0+s3*0+s4*0+s5*20+s6*40+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI176" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_KUDHANSTEIN_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;漆黒に揺蕩いしは&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m174'&gt;100&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;60&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;光属性耐性+20&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;20&lt;/td&gt;&lt;td headers='強欲'&gt;40&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH176" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m174').innerHTML = (b1*60+b2*0+b0*60) + (s1*0+s2*0+s3*0+s4*0+s5*20+s6*40+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI176" s="35" t="str">
+        <v>m174</v>
+      </c>
+      <c r="AJ176" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m174</v>
-      </c>
-      <c r="AJ176" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK176" s="23"/>
@@ -25042,7 +25042,7 @@
         <v>362</v>
       </c>
       <c r="H177" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>15</v>
       </c>
       <c r="I177" s="2">
@@ -25051,7 +25051,7 @@
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
       <c r="L177" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M177" s="2">
@@ -25069,25 +25069,25 @@
         <v>15</v>
       </c>
       <c r="AD177" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>15</v>
       </c>
       <c r="AF177" s="23"/>
       <c r="AG177" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_LAMIA_01.png alt='花は優しく揺れて'&gt;&lt;/td&gt;&lt;td headers='name'&gt;花は優しく揺れて&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;ラーストリス騎士団&lt;/td&gt;&lt;td headers='score' id='m175'&gt;15&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;20&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;15&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;15&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH177" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m175').innerHTML = (b1*0+b2*0+b0*0) + (s1*15+s2*0+s3*0+s4*0+s5*15+s6*0+s7*0+s0*15) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI177" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_LAMIA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;花は優しく揺れて&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;ラーストリス騎士団&lt;/td&gt;&lt;td headers='score' id='m175'&gt;15&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;20&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;15&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;15&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH177" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m175').innerHTML = (b1*0+b2*0+b0*0) + (s1*15+s2*0+s3*0+s4*0+s5*15+s6*0+s7*0+s0*15) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI177" s="35" t="str">
+        <v>m175</v>
+      </c>
+      <c r="AJ177" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m175</v>
-      </c>
-      <c r="AJ177" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK177" s="23"/>
@@ -25109,7 +25109,7 @@
         <v>362</v>
       </c>
       <c r="H178" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>80</v>
       </c>
       <c r="I178" s="2">
@@ -25120,7 +25120,7 @@
       </c>
       <c r="K178" s="2"/>
       <c r="L178" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="M178" s="2"/>
@@ -25145,25 +25145,25 @@
         <v>20</v>
       </c>
       <c r="AD178" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>40</v>
       </c>
       <c r="AF178" s="23"/>
       <c r="AG178" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_LAMIA_02.png alt='千日の雛芥子'&gt;&lt;/td&gt;&lt;td headers='name'&gt;千日の雛芥子&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;ラーストリス騎士団&lt;/td&gt;&lt;td headers='score' id='m176'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;刺突&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;範囲耐性+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;40&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH178" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m176').innerHTML = (b1*20+b2*0+b0*20) + (s1*0+s2*0+s3*0+s4*40+s5*20+s6*0+s7*0+s0*40) + (e01*0+e02*20+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI178" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_LAMIA_02.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;千日の雛芥子&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;ラーストリス騎士団&lt;/td&gt;&lt;td headers='score' id='m176'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;刺突&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;範囲耐性+10&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;40&lt;/td&gt;&lt;td headers='憤怒'&gt;20&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH178" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m176').innerHTML = (b1*20+b2*0+b0*20) + (s1*0+s2*0+s3*0+s4*40+s5*20+s6*0+s7*0+s0*40) + (e01*0+e02*20+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI178" s="35" t="str">
+        <v>m176</v>
+      </c>
+      <c r="AJ178" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m176</v>
-      </c>
-      <c r="AJ178" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK178" s="23"/>
@@ -25183,14 +25183,14 @@
       </c>
       <c r="G179" s="8"/>
       <c r="H179" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
       <c r="L179" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M179" s="2"/>
@@ -25200,25 +25200,25 @@
       <c r="Q179" s="7"/>
       <c r="U179" s="4"/>
       <c r="AD179" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AF179" s="23"/>
       <c r="AG179" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_MAGNUS_01.png alt='アンフェア・ルール'&gt;&lt;/td&gt;&lt;td headers='name'&gt;アンフェア・ルール&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m177'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH179" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m177').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI179" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_MAGNUS_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;アンフェア・ルール&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m177'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH179" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m177').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI179" s="35" t="str">
+        <v>m177</v>
+      </c>
+      <c r="AJ179" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m177</v>
-      </c>
-      <c r="AJ179" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK179" s="23"/>
@@ -25238,14 +25238,14 @@
       </c>
       <c r="G180" s="8"/>
       <c r="H180" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
       <c r="L180" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M180" s="2"/>
@@ -25255,25 +25255,25 @@
       <c r="Q180" s="7"/>
       <c r="U180" s="4"/>
       <c r="AD180" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AF180" s="23"/>
       <c r="AG180" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_MAGNUS_02.png alt='二人のジョーカー'&gt;&lt;/td&gt;&lt;td headers='name'&gt;二人のジョーカー&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m178'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH180" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m178').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI180" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_MAGNUS_02.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;二人のジョーカー&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m178'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH180" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m178').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI180" s="35" t="str">
+        <v>m178</v>
+      </c>
+      <c r="AJ180" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m178</v>
-      </c>
-      <c r="AJ180" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK180" s="23"/>
@@ -25295,7 +25295,7 @@
         <v>91</v>
       </c>
       <c r="H181" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>60</v>
       </c>
       <c r="I181" s="2">
@@ -25306,7 +25306,7 @@
         <v>30</v>
       </c>
       <c r="L181" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>30</v>
       </c>
       <c r="M181" s="2"/>
@@ -25327,25 +25327,25 @@
         <v>30</v>
       </c>
       <c r="AD181" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>30</v>
       </c>
       <c r="AF181" s="23"/>
       <c r="AG181" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_MARE_01.png alt='私だって守れる！'&gt;&lt;/td&gt;&lt;td headers='name'&gt;私だって守れる！&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m179'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;射撃回避+20&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH181" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m179').innerHTML = (b1*0+b2*30+b0*30) + (s1*30+s2*0+s3*0+s4*0+s5*30+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI181" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_MARE_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;私だって守れる！&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m179'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;射撃回避+20&lt;/td&gt;&lt;td headers='嫉妬'&gt;30&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;30&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH181" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m179').innerHTML = (b1*0+b2*30+b0*30) + (s1*30+s2*0+s3*0+s4*0+s5*30+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI181" s="35" t="str">
+        <v>m179</v>
+      </c>
+      <c r="AJ181" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m179</v>
-      </c>
-      <c r="AJ181" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK181" s="23"/>
@@ -25365,14 +25365,14 @@
       </c>
       <c r="G182" s="8"/>
       <c r="H182" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
       <c r="L182" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M182" s="2"/>
@@ -25382,25 +25382,25 @@
       <c r="Q182" s="7"/>
       <c r="U182" s="4"/>
       <c r="AD182" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AF182" s="23"/>
       <c r="AG182" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_ROSA_01.png alt='魂に刻まれし本能'&gt;&lt;/td&gt;&lt;td headers='name'&gt;魂に刻まれし本能&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m180'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH182" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m180').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI182" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_ROSA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;魂に刻まれし本能&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m180'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH182" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m180').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI182" s="35" t="str">
+        <v>m180</v>
+      </c>
+      <c r="AJ182" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m180</v>
-      </c>
-      <c r="AJ182" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK182" s="23"/>
@@ -25423,14 +25423,14 @@
       </c>
       <c r="G183" s="8"/>
       <c r="H183" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
       <c r="L183" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M183" s="2"/>
@@ -25440,25 +25440,25 @@
       <c r="Q183" s="7"/>
       <c r="U183" s="4"/>
       <c r="AD183" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AF183" s="23"/>
       <c r="AG183" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_ROSA_02.png alt='あの日見た堕天使'&gt;&lt;/td&gt;&lt;td headers='name'&gt;あの日見た堕天使&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m181'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH183" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m181').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI183" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_ROSA_02.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;あの日見た堕天使&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m181'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH183" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m181').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI183" s="35" t="str">
+        <v>m181</v>
+      </c>
+      <c r="AJ183" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m181</v>
-      </c>
-      <c r="AJ183" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK183" s="23"/>
@@ -25478,14 +25478,14 @@
       </c>
       <c r="G184" s="8"/>
       <c r="H184" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
       <c r="L184" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M184" s="2"/>
@@ -25495,25 +25495,25 @@
       <c r="Q184" s="7"/>
       <c r="U184" s="4"/>
       <c r="AD184" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AF184" s="23"/>
       <c r="AG184" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_SABALETA_01.png alt='いずれ燃え尽きるほど'&gt;&lt;/td&gt;&lt;td headers='name'&gt;いずれ燃え尽きるほど&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m182'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH184" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m182').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI184" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_SABALETA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;いずれ燃え尽きるほど&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m182'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH184" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m182').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI184" s="35" t="str">
+        <v>m182</v>
+      </c>
+      <c r="AJ184" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m182</v>
-      </c>
-      <c r="AJ184" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK184" s="23"/>
@@ -25535,7 +25535,7 @@
         <v>91</v>
       </c>
       <c r="H185" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>55</v>
       </c>
       <c r="I185" s="2">
@@ -25546,7 +25546,7 @@
       </c>
       <c r="K185" s="2"/>
       <c r="L185" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>15</v>
       </c>
       <c r="M185" s="2">
@@ -25564,25 +25564,25 @@
         <v>20</v>
       </c>
       <c r="AD185" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>40</v>
       </c>
       <c r="AF185" s="23"/>
       <c r="AG185" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_SPICA_01.png alt='双星の想いは募り'&gt;&lt;/td&gt;&lt;td headers='name'&gt;双星の想いは募り&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m183'&gt;55&lt;/td&gt;&lt;td headers='HP'&gt;70&lt;/td&gt;&lt;td headers='patk'&gt;15&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;15&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;40&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;20&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH185" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m183').innerHTML = (b1*15+b2*0+b0*15) + (s1*40+s2*0+s3*0+s4*0+s5*0+s6*20+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI185" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_SPICA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;双星の想いは募り&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m183'&gt;55&lt;/td&gt;&lt;td headers='HP'&gt;70&lt;/td&gt;&lt;td headers='patk'&gt;15&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;15&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;40&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;20&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH185" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m183').innerHTML = (b1*15+b2*0+b0*15) + (s1*40+s2*0+s3*0+s4*0+s5*0+s6*20+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI185" s="35" t="str">
+        <v>m183</v>
+      </c>
+      <c r="AJ185" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m183</v>
-      </c>
-      <c r="AJ185" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK185" s="23"/>
@@ -25607,7 +25607,7 @@
         <v>362</v>
       </c>
       <c r="H186" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>80</v>
       </c>
       <c r="I186" s="2">
@@ -25618,7 +25618,7 @@
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>30</v>
       </c>
       <c r="M186" s="2"/>
@@ -25639,25 +25639,25 @@
         <v>40</v>
       </c>
       <c r="AD186" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>40</v>
       </c>
       <c r="AF186" s="23"/>
       <c r="AG186" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_TERESA_01.png alt='可能性は広き海の如く'&gt;&lt;/td&gt;&lt;td headers='name'&gt;可能性は広き海の如く&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;ラーストリス騎士団&lt;/td&gt;&lt;td headers='score' id='m184'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;60&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;範囲&lt;/td&gt;&lt;td headers='sp.bonus'&gt;10&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;40&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH186" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m184').innerHTML = (b1*30+b2*0+b0*30) + (s1*20+s2*0+s3*0+s4*0+s5*40+s6*0+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*10+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI186" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_TERESA_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;可能性は広き海の如く&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;ラーストリス騎士団&lt;/td&gt;&lt;td headers='score' id='m184'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;60&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;範囲&lt;/td&gt;&lt;td headers='sp.bonus'&gt;10&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='嫉妬'&gt;20&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;40&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH186" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m184').innerHTML = (b1*30+b2*0+b0*30) + (s1*20+s2*0+s3*0+s4*0+s5*40+s6*0+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*10+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI186" s="35" t="str">
+        <v>m184</v>
+      </c>
+      <c r="AJ186" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m184</v>
-      </c>
-      <c r="AJ186" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK186" s="23"/>
@@ -25679,7 +25679,7 @@
         <v>91</v>
       </c>
       <c r="H187" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I187" s="2">
@@ -25690,7 +25690,7 @@
       </c>
       <c r="K187" s="2"/>
       <c r="L187" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="M187" s="2"/>
@@ -25712,25 +25712,25 @@
         <v>60</v>
       </c>
       <c r="AD187" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>60</v>
       </c>
       <c r="AF187" s="23"/>
       <c r="AG187" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_ZAHAR_01.png alt='漆黒の野望、未だ叶わず'&gt;&lt;/td&gt;&lt;td headers='name'&gt;漆黒の野望、未だ叶わず&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m185'&gt;100&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;光属性耐性+20&lt;/td&gt;&lt;td headers='sinA'&gt;60&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH187" s="31" t="str">
+        <f t="shared" si="26"/>
+        <v>document.getElementById('m185').innerHTML = (b1*20+b2*0+b0*20) + (s1*60+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*60) + (e01*20+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+      </c>
+      <c r="AI187" s="35" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;tr&gt;&lt;td headers='icon'&gt;&lt;img src=resources/TS_WRATH_ZAHAR_01.png&gt;&lt;/td&gt;&lt;td headers='name'&gt;漆黒の野望、未だ叶わず&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m185'&gt;100&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;光属性耐性+20&lt;/td&gt;&lt;td headers='嫉妬'&gt;60&lt;/td&gt;&lt;td headers='怠惰'&gt;&lt;/td&gt;&lt;td headers='色欲'&gt;&lt;/td&gt;&lt;td headers='暴食'&gt;&lt;/td&gt;&lt;td headers='憤怒'&gt;&lt;/td&gt;&lt;td headers='強欲'&gt;&lt;/td&gt;&lt;td headers='傲慢'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="AH187" s="31" t="str">
-        <f t="shared" si="28"/>
-        <v>document.getElementById('m185').innerHTML = (b1*20+b2*0+b0*20) + (s1*60+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*60) + (e01*20+e02*0+e03*0+e04*0+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
-      </c>
-      <c r="AI187" s="35" t="str">
+        <v>m185</v>
+      </c>
+      <c r="AJ187" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>m185</v>
-      </c>
-      <c r="AJ187" s="37" t="str">
-        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK187" s="23"/>
@@ -25759,7 +25759,7 @@
       <c r="AK188" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6wQU7aximtdq1ZZAAqvCxfsf5BZxrTvkXm4Foenw9xKBAjA0/r/Vay7gl9MeqYaaUHEMcmQBZ4F7j32Wkwyftg==" saltValue="UZFpYwEtlBK1o75/eK6rNQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <autoFilter ref="B2:AD187" xr:uid="{12F5E3EA-4FDA-471C-839A-02A68F2CB4ED}"/>
   <conditionalFormatting sqref="D1:F1 AE93:AF122 AE149:AF187 A1:B122 A124:B1048576 C155:G187 C188:AF1048576 H1:AF1 A123:G123 I94:AD122 I149:AD153 C124:G153 C94:G122 C2:AF69 C70:G92 I70:AF92 I123:AF148 I155:AD187 H70:H187 AG1:XFD1048576">
     <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
@@ -25838,15 +25838,15 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40" t="s">
         <v>399</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="41" t="s">
         <v>400</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="42" t="s">
         <v>42</v>
       </c>
       <c r="F2" s="11"/>
@@ -25858,11 +25858,11 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="40"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11" t="s">
         <v>402</v>
@@ -25872,11 +25872,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="40"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11" t="s">
         <v>404</v>
@@ -25886,11 +25886,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="40"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11" t="s">
         <v>405</v>
@@ -25900,11 +25900,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="40"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11" t="s">
         <v>406</v>
@@ -25916,13 +25916,13 @@
     <row r="7" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
       <c r="B7" s="43"/>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="40" t="s">
         <v>408</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="41" t="s">
         <v>409</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="42" t="s">
         <v>361</v>
       </c>
       <c r="F7" s="11"/>
@@ -25936,9 +25936,9 @@
     <row r="8" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" s="43"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11" t="s">
         <v>411</v>
@@ -26000,15 +26000,15 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41" t="s">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40" t="s">
         <v>419</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="41" t="s">
         <v>420</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="42" t="s">
         <v>162</v>
       </c>
       <c r="F12" s="11"/>
@@ -26020,11 +26020,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="40"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11" t="s">
         <v>422</v>
@@ -26130,15 +26130,15 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="40" t="s">
         <v>438</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42" t="s">
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41" t="s">
         <v>439</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="42" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="11"/>
@@ -26150,11 +26150,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="41"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11" t="s">
         <v>441</v>
@@ -26164,11 +26164,11 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="41"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11" t="s">
         <v>442</v>
@@ -26178,11 +26178,11 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="41"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11" t="s">
         <v>443</v>
@@ -26220,26 +26220,26 @@
   </sheetData>
   <autoFilter ref="C1:H1" xr:uid="{D34E5BD1-5186-4F28-B32E-C9CFC7F001D0}"/>
   <mergeCells count="20">
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A19:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/mementos/mementos-v2.xlsx
+++ b/mementos/mementos-v2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/mementos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kklau\OneDrive\Tagatame\Repo\mementos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="113_{483EAF00-E821-4D87-A425-3DBBFDBEA592}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BF731387-6CB7-4FCE-A440-6770A487BBA9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0635D026-9413-431C-AF88-B2869BF8C0B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{28EF47FE-C34C-4192-A973-EF1E71DA4EC0}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">List!$C$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mementos!$B$2:$AD$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mementos!$B$2:$AD$198</definedName>
     <definedName name="group" localSheetId="1">List!$H:$H</definedName>
     <definedName name="group">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Mementos!$B:$AD</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="555">
   <si>
     <t>Name</t>
   </si>
@@ -1688,9 +1688,6 @@
     <t>皆様に花マルを</t>
   </si>
   <si>
-    <t>HP60%アップ 物攻20%アップ 魔攻20%アップ &lt;傲慢&gt;特効30%アップ &lt;強欲&gt;特効30%アップ</t>
-  </si>
-  <si>
     <t>TS_APRILFOOL_2020.png</t>
   </si>
   <si>
@@ -1713,6 +1710,18 @@
   </si>
   <si>
     <t>Javascript</t>
+  </si>
+  <si>
+    <t>HP20%アップ 下位魔神特効80％アップ &lt;傲慢&gt;特効60%アップ</t>
+  </si>
+  <si>
+    <t>TS_TS_04.png</t>
+  </si>
+  <si>
+    <t>&lt;十戒&gt;に抗いし王女</t>
+  </si>
+  <si>
+    <t>下位魔神</t>
   </si>
 </sst>
 </file>
@@ -1933,19 +1942,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9000,16 +9009,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>459648</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2013831</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>459646</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>464729</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9038,8 +9047,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2013832" y="66494389"/>
-          <a:ext cx="464730" cy="468269"/>
+          <a:off x="2013831" y="73771640"/>
+          <a:ext cx="464731" cy="464729"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9052,14 +9061,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9102,14 +9111,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>459651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>459649</xdr:rowOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>459650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9152,14 +9161,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>463187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>463186</xdr:rowOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>463185</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9202,13 +9211,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>1994</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>463185</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9252,13 +9261,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>463189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>463188</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9302,14 +9311,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>1996</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>1435</xdr:rowOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>1434</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9352,13 +9361,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>1444</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9402,14 +9411,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9452,14 +9461,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>1995</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>464729</xdr:rowOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9502,13 +9511,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>1995</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>1994</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9552,13 +9561,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2013831</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>464171</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9588,7 +9597,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2013831" y="78883674"/>
+          <a:off x="2013831" y="79348405"/>
           <a:ext cx="464731" cy="464171"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9602,13 +9611,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>463294</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9652,14 +9661,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>466726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>464730</xdr:rowOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9702,14 +9711,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>1434</xdr:rowOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>1432</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9752,14 +9761,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>1447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>1446</xdr:rowOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>1447</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9802,14 +9811,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>177</xdr:row>
-      <xdr:rowOff>1436</xdr:rowOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>1435</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9852,13 +9861,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>1447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>464730</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9902,14 +9911,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>3</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>179</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9952,14 +9961,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>180</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10002,14 +10011,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>463187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>180</xdr:row>
-      <xdr:rowOff>463188</xdr:rowOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>463186</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10052,14 +10061,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>463187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>463186</xdr:rowOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>463187</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10102,14 +10111,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>463187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>463187</xdr:rowOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>463186</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10152,14 +10161,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>466725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>184</xdr:row>
-      <xdr:rowOff>1994</xdr:rowOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>1995</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10202,13 +10211,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>466725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10252,14 +10261,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2013831</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>186</xdr:row>
-      <xdr:rowOff>1433</xdr:rowOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>1432</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10288,7 +10297,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2013831" y="85389899"/>
+          <a:off x="2013831" y="85854629"/>
           <a:ext cx="464731" cy="466163"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10302,14 +10311,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>459651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>186</xdr:row>
-      <xdr:rowOff>459651</xdr:rowOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>459650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10352,13 +10361,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>463189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>463189</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10402,14 +10411,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>463189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>463188</xdr:rowOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>463189</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10452,13 +10461,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>466727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>1995</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10502,13 +10511,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>464168</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10552,14 +10561,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>193</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10602,14 +10611,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2013831</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10638,7 +10647,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2013831" y="89107742"/>
+          <a:off x="2013831" y="89572473"/>
           <a:ext cx="464731" cy="464731"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10652,13 +10661,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2013831</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>4</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10688,7 +10697,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2013831" y="89572475"/>
+          <a:off x="2013831" y="90037206"/>
           <a:ext cx="464731" cy="464727"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10702,13 +10711,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10752,14 +10761,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>197</xdr:row>
-      <xdr:rowOff>3535</xdr:rowOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>3536</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11592,14 +11601,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1614</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>1614</xdr:rowOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>1613</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11628,7 +11637,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2013832" y="77954214"/>
+          <a:off x="2013832" y="78883674"/>
           <a:ext cx="466344" cy="466344"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11642,13 +11651,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2012218</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>463116</xdr:rowOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>463117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11678,7 +11687,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2012218" y="87711937"/>
+          <a:off x="2012218" y="88176668"/>
           <a:ext cx="466344" cy="466344"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11829,6 +11838,56 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2013832" y="54252966"/>
+          <a:ext cx="466344" cy="466344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1614</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>1615</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF57B94A-EEBE-4164-AB8F-DBC5812DB5E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId372" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2013832" y="73306911"/>
           <a:ext cx="466344" cy="466344"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14443,13 +14502,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5AB6AB-86C9-4C13-95A3-58796C237C8C}">
-  <dimension ref="A1:AJ198"/>
+  <dimension ref="A1:AJ199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I187" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I188" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AG1" sqref="AG1:AI1048576"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.3984375" defaultRowHeight="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14611,10 +14670,10 @@
       </c>
       <c r="AF2" s="23"/>
       <c r="AG2" s="31" t="s">
+        <v>549</v>
+      </c>
+      <c r="AH2" s="31" t="s">
         <v>550</v>
-      </c>
-      <c r="AH2" s="31" t="s">
-        <v>551</v>
       </c>
       <c r="AI2" s="34"/>
       <c r="AJ2" s="23"/>
@@ -14664,8 +14723,8 @@
 Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m001'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH3" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI3&amp;"').innerHTML = (b1*"&amp;TEXT(J3,0)&amp;"+b2*"&amp;TEXT(K3,0)&amp;"+b0*"&amp;TEXT(L3,0)&amp;") + (s1*"&amp;TEXT(W3,0)&amp;"+s2*"&amp;TEXT(X3,0)&amp;"+s3*"&amp;TEXT(Y3,0)&amp;"+s4*"&amp;TEXT(Z3,0)&amp;"+s5*"&amp;TEXT(AA3,0)&amp;"+s6*"&amp;TEXT(AB3,0)&amp;"+s7*"&amp;TEXT(AC3,0)&amp;"+s0*"&amp;TEXT(AD3,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R3)),S3,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R3)),S3,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R3)),S3,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R3)),S3,S3)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R3)),S3,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R3)),S3,0)&amp;"+e07*"&amp;IF(T3="反撃",U3,0)&amp;"+e08*"&amp;IF(T3="風属性",U3,0)&amp;"+e09*"&amp;IF(T3="闇属性",U3,0)&amp;"+e10*"&amp;IF(T3="単体",U3,0)&amp;"+e11*"&amp;IF(T3="範囲",U3,0)&amp;"+e12*"&amp;IF(T3="人",U3,0)&amp;"+e13*"&amp;IF(T3="異族",U3,0)&amp;"+e14*"&amp;IF(T3="バジュラ",U3,0)&amp;"+e15*"&amp;IF(T3="魔動人形",U3,0)&amp;");"</f>
-        <v>document.getElementById('m001').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI3&amp;"').innerHTML = (b1*"&amp;TEXT(J3,0)&amp;"+b2*"&amp;TEXT(K3,0)&amp;"+b0*"&amp;TEXT(L3,0)&amp;") + (s1*"&amp;TEXT(W3,0)&amp;"+s2*"&amp;TEXT(X3,0)&amp;"+s3*"&amp;TEXT(Y3,0)&amp;"+s4*"&amp;TEXT(Z3,0)&amp;"+s5*"&amp;TEXT(AA3,0)&amp;"+s6*"&amp;TEXT(AB3,0)&amp;"+s7*"&amp;TEXT(AC3,0)&amp;"+s0*"&amp;TEXT(AD3,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R3)),S3,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R3)),S3,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R3)),S3,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R3)),S3,S3)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R3)),S3,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R3)),S3,0)&amp;"+e07*"&amp;IF(T3="反撃",U3,0)&amp;"+e08*"&amp;IF(T3="風属性",U3,0)&amp;"+e09*"&amp;IF(T3="闇属性",U3,0)&amp;"+e10*"&amp;IF(T3="単体",U3,0)&amp;"+e11*"&amp;IF(T3="範囲",U3,0)&amp;"+e12*"&amp;IF(T3="人",U3,0)&amp;"+e13*"&amp;IF(T3="異族",U3,0)&amp;"+e14*"&amp;IF(T3="バジュラ",U3,0)&amp;"+e15*"&amp;IF(T3="魔動人形",U3,0)&amp;"+e16*"&amp;IF(T3="下位魔神",U3,0)&amp;");"</f>
+        <v>document.getElementById('m001').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI3" s="35" t="str">
         <f>"m"&amp;TEXT(ROW()-2,"000")</f>
@@ -14718,8 +14777,8 @@
 Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m002'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH4" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI4&amp;"').innerHTML = (b1*"&amp;TEXT(J4,0)&amp;"+b2*"&amp;TEXT(K4,0)&amp;"+b0*"&amp;TEXT(L4,0)&amp;") + (s1*"&amp;TEXT(W4,0)&amp;"+s2*"&amp;TEXT(X4,0)&amp;"+s3*"&amp;TEXT(Y4,0)&amp;"+s4*"&amp;TEXT(Z4,0)&amp;"+s5*"&amp;TEXT(AA4,0)&amp;"+s6*"&amp;TEXT(AB4,0)&amp;"+s7*"&amp;TEXT(AC4,0)&amp;"+s0*"&amp;TEXT(AD4,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R4)),S4,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R4)),S4,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R4)),S4,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R4)),S4,S4)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R4)),S4,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R4)),S4,0)&amp;"+e07*"&amp;IF(T4="反撃",U4,0)&amp;"+e08*"&amp;IF(T4="風属性",U4,0)&amp;"+e09*"&amp;IF(T4="闇属性",U4,0)&amp;"+e10*"&amp;IF(T4="単体",U4,0)&amp;"+e11*"&amp;IF(T4="範囲",U4,0)&amp;"+e12*"&amp;IF(T4="人",U4,0)&amp;"+e13*"&amp;IF(T4="異族",U4,0)&amp;"+e14*"&amp;IF(T4="バジュラ",U4,0)&amp;"+e15*"&amp;IF(T4="魔動人形",U4,0)&amp;");"</f>
-        <v>document.getElementById('m002').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI4&amp;"').innerHTML = (b1*"&amp;TEXT(J4,0)&amp;"+b2*"&amp;TEXT(K4,0)&amp;"+b0*"&amp;TEXT(L4,0)&amp;") + (s1*"&amp;TEXT(W4,0)&amp;"+s2*"&amp;TEXT(X4,0)&amp;"+s3*"&amp;TEXT(Y4,0)&amp;"+s4*"&amp;TEXT(Z4,0)&amp;"+s5*"&amp;TEXT(AA4,0)&amp;"+s6*"&amp;TEXT(AB4,0)&amp;"+s7*"&amp;TEXT(AC4,0)&amp;"+s0*"&amp;TEXT(AD4,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R4)),S4,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R4)),S4,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R4)),S4,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R4)),S4,S4)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R4)),S4,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R4)),S4,0)&amp;"+e07*"&amp;IF(T4="反撃",U4,0)&amp;"+e08*"&amp;IF(T4="風属性",U4,0)&amp;"+e09*"&amp;IF(T4="闇属性",U4,0)&amp;"+e10*"&amp;IF(T4="単体",U4,0)&amp;"+e11*"&amp;IF(T4="範囲",U4,0)&amp;"+e12*"&amp;IF(T4="人",U4,0)&amp;"+e13*"&amp;IF(T4="異族",U4,0)&amp;"+e14*"&amp;IF(T4="バジュラ",U4,0)&amp;"+e15*"&amp;IF(T4="魔動人形",U4,0)&amp;"+e16*"&amp;IF(T4="下位魔神",U4,0)&amp;");"</f>
+        <v>document.getElementById('m002').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI4" s="35" t="str">
         <f t="shared" ref="AI4:AI67" si="4">"m"&amp;TEXT(ROW()-2,"000")</f>
@@ -14788,8 +14847,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;蒼炎騎士団&lt;/td&gt;&lt;td headers='score' id='m003'&gt;45&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;15&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;15&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH5" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI5&amp;"').innerHTML = (b1*"&amp;TEXT(J5,0)&amp;"+b2*"&amp;TEXT(K5,0)&amp;"+b0*"&amp;TEXT(L5,0)&amp;") + (s1*"&amp;TEXT(W5,0)&amp;"+s2*"&amp;TEXT(X5,0)&amp;"+s3*"&amp;TEXT(Y5,0)&amp;"+s4*"&amp;TEXT(Z5,0)&amp;"+s5*"&amp;TEXT(AA5,0)&amp;"+s6*"&amp;TEXT(AB5,0)&amp;"+s7*"&amp;TEXT(AC5,0)&amp;"+s0*"&amp;TEXT(AD5,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R5)),S5,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R5)),S5,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R5)),S5,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R5)),S5,S5)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R5)),S5,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R5)),S5,0)&amp;"+e07*"&amp;IF(T5="反撃",U5,0)&amp;"+e08*"&amp;IF(T5="風属性",U5,0)&amp;"+e09*"&amp;IF(T5="闇属性",U5,0)&amp;"+e10*"&amp;IF(T5="単体",U5,0)&amp;"+e11*"&amp;IF(T5="範囲",U5,0)&amp;"+e12*"&amp;IF(T5="人",U5,0)&amp;"+e13*"&amp;IF(T5="異族",U5,0)&amp;"+e14*"&amp;IF(T5="バジュラ",U5,0)&amp;"+e15*"&amp;IF(T5="魔動人形",U5,0)&amp;");"</f>
-        <v>document.getElementById('m003').innerHTML = (b1*0+b2*0+b0*0) + (s1*15+s2*0+s3*0+s4*0+s5*15+s6*0+s7*0+s0*15) + (e01*30+e02*0+e03*0+e04*30+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI5&amp;"').innerHTML = (b1*"&amp;TEXT(J5,0)&amp;"+b2*"&amp;TEXT(K5,0)&amp;"+b0*"&amp;TEXT(L5,0)&amp;") + (s1*"&amp;TEXT(W5,0)&amp;"+s2*"&amp;TEXT(X5,0)&amp;"+s3*"&amp;TEXT(Y5,0)&amp;"+s4*"&amp;TEXT(Z5,0)&amp;"+s5*"&amp;TEXT(AA5,0)&amp;"+s6*"&amp;TEXT(AB5,0)&amp;"+s7*"&amp;TEXT(AC5,0)&amp;"+s0*"&amp;TEXT(AD5,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R5)),S5,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R5)),S5,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R5)),S5,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R5)),S5,S5)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R5)),S5,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R5)),S5,0)&amp;"+e07*"&amp;IF(T5="反撃",U5,0)&amp;"+e08*"&amp;IF(T5="風属性",U5,0)&amp;"+e09*"&amp;IF(T5="闇属性",U5,0)&amp;"+e10*"&amp;IF(T5="単体",U5,0)&amp;"+e11*"&amp;IF(T5="範囲",U5,0)&amp;"+e12*"&amp;IF(T5="人",U5,0)&amp;"+e13*"&amp;IF(T5="異族",U5,0)&amp;"+e14*"&amp;IF(T5="バジュラ",U5,0)&amp;"+e15*"&amp;IF(T5="魔動人形",U5,0)&amp;"+e16*"&amp;IF(T5="下位魔神",U5,0)&amp;");"</f>
+        <v>document.getElementById('m003').innerHTML = (b1*0+b2*0+b0*0) + (s1*15+s2*0+s3*0+s4*0+s5*15+s6*0+s7*0+s0*15) + (e01*30+e02*0+e03*0+e04*30+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI5" s="35" t="str">
         <f t="shared" si="4"/>
@@ -14799,10 +14858,10 @@
     </row>
     <row r="6" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D6" s="3">
         <v>5</v>
@@ -14839,8 +14898,8 @@
 Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m004'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH6" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI6&amp;"').innerHTML = (b1*"&amp;TEXT(J6,0)&amp;"+b2*"&amp;TEXT(K6,0)&amp;"+b0*"&amp;TEXT(L6,0)&amp;") + (s1*"&amp;TEXT(W6,0)&amp;"+s2*"&amp;TEXT(X6,0)&amp;"+s3*"&amp;TEXT(Y6,0)&amp;"+s4*"&amp;TEXT(Z6,0)&amp;"+s5*"&amp;TEXT(AA6,0)&amp;"+s6*"&amp;TEXT(AB6,0)&amp;"+s7*"&amp;TEXT(AC6,0)&amp;"+s0*"&amp;TEXT(AD6,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R6)),S6,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R6)),S6,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R6)),S6,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R6)),S6,S6)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R6)),S6,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R6)),S6,0)&amp;"+e07*"&amp;IF(T6="反撃",U6,0)&amp;"+e08*"&amp;IF(T6="風属性",U6,0)&amp;"+e09*"&amp;IF(T6="闇属性",U6,0)&amp;"+e10*"&amp;IF(T6="単体",U6,0)&amp;"+e11*"&amp;IF(T6="範囲",U6,0)&amp;"+e12*"&amp;IF(T6="人",U6,0)&amp;"+e13*"&amp;IF(T6="異族",U6,0)&amp;"+e14*"&amp;IF(T6="バジュラ",U6,0)&amp;"+e15*"&amp;IF(T6="魔動人形",U6,0)&amp;");"</f>
-        <v>document.getElementById('m004').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI6&amp;"').innerHTML = (b1*"&amp;TEXT(J6,0)&amp;"+b2*"&amp;TEXT(K6,0)&amp;"+b0*"&amp;TEXT(L6,0)&amp;") + (s1*"&amp;TEXT(W6,0)&amp;"+s2*"&amp;TEXT(X6,0)&amp;"+s3*"&amp;TEXT(Y6,0)&amp;"+s4*"&amp;TEXT(Z6,0)&amp;"+s5*"&amp;TEXT(AA6,0)&amp;"+s6*"&amp;TEXT(AB6,0)&amp;"+s7*"&amp;TEXT(AC6,0)&amp;"+s0*"&amp;TEXT(AD6,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R6)),S6,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R6)),S6,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R6)),S6,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R6)),S6,S6)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R6)),S6,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R6)),S6,0)&amp;"+e07*"&amp;IF(T6="反撃",U6,0)&amp;"+e08*"&amp;IF(T6="風属性",U6,0)&amp;"+e09*"&amp;IF(T6="闇属性",U6,0)&amp;"+e10*"&amp;IF(T6="単体",U6,0)&amp;"+e11*"&amp;IF(T6="範囲",U6,0)&amp;"+e12*"&amp;IF(T6="人",U6,0)&amp;"+e13*"&amp;IF(T6="異族",U6,0)&amp;"+e14*"&amp;IF(T6="バジュラ",U6,0)&amp;"+e15*"&amp;IF(T6="魔動人形",U6,0)&amp;"+e16*"&amp;IF(T6="下位魔神",U6,0)&amp;");"</f>
+        <v>document.getElementById('m004').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI6" s="35" t="str">
         <f t="shared" si="4"/>
@@ -14914,8 +14973,8 @@
 Other&lt;/td&gt;&lt;td headers='group'&gt;ブレフロ&lt;/td&gt;&lt;td headers='score' id='m005'&gt;100&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;刺突&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;単体耐性+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;20&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;40&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH7" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI7&amp;"').innerHTML = (b1*"&amp;TEXT(J7,0)&amp;"+b2*"&amp;TEXT(K7,0)&amp;"+b0*"&amp;TEXT(L7,0)&amp;") + (s1*"&amp;TEXT(W7,0)&amp;"+s2*"&amp;TEXT(X7,0)&amp;"+s3*"&amp;TEXT(Y7,0)&amp;"+s4*"&amp;TEXT(Z7,0)&amp;"+s5*"&amp;TEXT(AA7,0)&amp;"+s6*"&amp;TEXT(AB7,0)&amp;"+s7*"&amp;TEXT(AC7,0)&amp;"+s0*"&amp;TEXT(AD7,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R7)),S7,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R7)),S7,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R7)),S7,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R7)),S7,S7)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R7)),S7,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R7)),S7,0)&amp;"+e07*"&amp;IF(T7="反撃",U7,0)&amp;"+e08*"&amp;IF(T7="風属性",U7,0)&amp;"+e09*"&amp;IF(T7="闇属性",U7,0)&amp;"+e10*"&amp;IF(T7="単体",U7,0)&amp;"+e11*"&amp;IF(T7="範囲",U7,0)&amp;"+e12*"&amp;IF(T7="人",U7,0)&amp;"+e13*"&amp;IF(T7="異族",U7,0)&amp;"+e14*"&amp;IF(T7="バジュラ",U7,0)&amp;"+e15*"&amp;IF(T7="魔動人形",U7,0)&amp;");"</f>
-        <v>document.getElementById('m005').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*20+s3*0+s4*0+s5*40+s6*0+s7*0+s0*40) + (e01*0+e02*30+e03*0+e04*30+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI7&amp;"').innerHTML = (b1*"&amp;TEXT(J7,0)&amp;"+b2*"&amp;TEXT(K7,0)&amp;"+b0*"&amp;TEXT(L7,0)&amp;") + (s1*"&amp;TEXT(W7,0)&amp;"+s2*"&amp;TEXT(X7,0)&amp;"+s3*"&amp;TEXT(Y7,0)&amp;"+s4*"&amp;TEXT(Z7,0)&amp;"+s5*"&amp;TEXT(AA7,0)&amp;"+s6*"&amp;TEXT(AB7,0)&amp;"+s7*"&amp;TEXT(AC7,0)&amp;"+s0*"&amp;TEXT(AD7,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R7)),S7,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R7)),S7,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R7)),S7,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R7)),S7,S7)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R7)),S7,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R7)),S7,0)&amp;"+e07*"&amp;IF(T7="反撃",U7,0)&amp;"+e08*"&amp;IF(T7="風属性",U7,0)&amp;"+e09*"&amp;IF(T7="闇属性",U7,0)&amp;"+e10*"&amp;IF(T7="単体",U7,0)&amp;"+e11*"&amp;IF(T7="範囲",U7,0)&amp;"+e12*"&amp;IF(T7="人",U7,0)&amp;"+e13*"&amp;IF(T7="異族",U7,0)&amp;"+e14*"&amp;IF(T7="バジュラ",U7,0)&amp;"+e15*"&amp;IF(T7="魔動人形",U7,0)&amp;"+e16*"&amp;IF(T7="下位魔神",U7,0)&amp;");"</f>
+        <v>document.getElementById('m005').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*20+s3*0+s4*0+s5*40+s6*0+s7*0+s0*40) + (e01*0+e02*30+e03*0+e04*30+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI7" s="35" t="str">
         <f t="shared" si="4"/>
@@ -14977,8 +15036,8 @@
 Other&lt;/td&gt;&lt;td headers='group'&gt;ブレフロ&lt;/td&gt;&lt;td headers='score' id='m006'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;30&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;30&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH8" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI8&amp;"').innerHTML = (b1*"&amp;TEXT(J8,0)&amp;"+b2*"&amp;TEXT(K8,0)&amp;"+b0*"&amp;TEXT(L8,0)&amp;") + (s1*"&amp;TEXT(W8,0)&amp;"+s2*"&amp;TEXT(X8,0)&amp;"+s3*"&amp;TEXT(Y8,0)&amp;"+s4*"&amp;TEXT(Z8,0)&amp;"+s5*"&amp;TEXT(AA8,0)&amp;"+s6*"&amp;TEXT(AB8,0)&amp;"+s7*"&amp;TEXT(AC8,0)&amp;"+s0*"&amp;TEXT(AD8,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R8)),S8,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R8)),S8,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R8)),S8,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R8)),S8,S8)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R8)),S8,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R8)),S8,0)&amp;"+e07*"&amp;IF(T8="反撃",U8,0)&amp;"+e08*"&amp;IF(T8="風属性",U8,0)&amp;"+e09*"&amp;IF(T8="闇属性",U8,0)&amp;"+e10*"&amp;IF(T8="単体",U8,0)&amp;"+e11*"&amp;IF(T8="範囲",U8,0)&amp;"+e12*"&amp;IF(T8="人",U8,0)&amp;"+e13*"&amp;IF(T8="異族",U8,0)&amp;"+e14*"&amp;IF(T8="バジュラ",U8,0)&amp;"+e15*"&amp;IF(T8="魔動人形",U8,0)&amp;");"</f>
-        <v>document.getElementById('m006').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*30+s3*0+s4*0+s5*0+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI8&amp;"').innerHTML = (b1*"&amp;TEXT(J8,0)&amp;"+b2*"&amp;TEXT(K8,0)&amp;"+b0*"&amp;TEXT(L8,0)&amp;") + (s1*"&amp;TEXT(W8,0)&amp;"+s2*"&amp;TEXT(X8,0)&amp;"+s3*"&amp;TEXT(Y8,0)&amp;"+s4*"&amp;TEXT(Z8,0)&amp;"+s5*"&amp;TEXT(AA8,0)&amp;"+s6*"&amp;TEXT(AB8,0)&amp;"+s7*"&amp;TEXT(AC8,0)&amp;"+s0*"&amp;TEXT(AD8,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R8)),S8,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R8)),S8,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R8)),S8,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R8)),S8,S8)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R8)),S8,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R8)),S8,0)&amp;"+e07*"&amp;IF(T8="反撃",U8,0)&amp;"+e08*"&amp;IF(T8="風属性",U8,0)&amp;"+e09*"&amp;IF(T8="闇属性",U8,0)&amp;"+e10*"&amp;IF(T8="単体",U8,0)&amp;"+e11*"&amp;IF(T8="範囲",U8,0)&amp;"+e12*"&amp;IF(T8="人",U8,0)&amp;"+e13*"&amp;IF(T8="異族",U8,0)&amp;"+e14*"&amp;IF(T8="バジュラ",U8,0)&amp;"+e15*"&amp;IF(T8="魔動人形",U8,0)&amp;"+e16*"&amp;IF(T8="下位魔神",U8,0)&amp;");"</f>
+        <v>document.getElementById('m006').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*30+s3*0+s4*0+s5*0+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI8" s="35" t="str">
         <f t="shared" si="4"/>
@@ -15028,8 +15087,8 @@
 Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m007'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH9" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI9&amp;"').innerHTML = (b1*"&amp;TEXT(J9,0)&amp;"+b2*"&amp;TEXT(K9,0)&amp;"+b0*"&amp;TEXT(L9,0)&amp;") + (s1*"&amp;TEXT(W9,0)&amp;"+s2*"&amp;TEXT(X9,0)&amp;"+s3*"&amp;TEXT(Y9,0)&amp;"+s4*"&amp;TEXT(Z9,0)&amp;"+s5*"&amp;TEXT(AA9,0)&amp;"+s6*"&amp;TEXT(AB9,0)&amp;"+s7*"&amp;TEXT(AC9,0)&amp;"+s0*"&amp;TEXT(AD9,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R9)),S9,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R9)),S9,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R9)),S9,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R9)),S9,S9)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R9)),S9,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R9)),S9,0)&amp;"+e07*"&amp;IF(T9="反撃",U9,0)&amp;"+e08*"&amp;IF(T9="風属性",U9,0)&amp;"+e09*"&amp;IF(T9="闇属性",U9,0)&amp;"+e10*"&amp;IF(T9="単体",U9,0)&amp;"+e11*"&amp;IF(T9="範囲",U9,0)&amp;"+e12*"&amp;IF(T9="人",U9,0)&amp;"+e13*"&amp;IF(T9="異族",U9,0)&amp;"+e14*"&amp;IF(T9="バジュラ",U9,0)&amp;"+e15*"&amp;IF(T9="魔動人形",U9,0)&amp;");"</f>
-        <v>document.getElementById('m007').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI9&amp;"').innerHTML = (b1*"&amp;TEXT(J9,0)&amp;"+b2*"&amp;TEXT(K9,0)&amp;"+b0*"&amp;TEXT(L9,0)&amp;") + (s1*"&amp;TEXT(W9,0)&amp;"+s2*"&amp;TEXT(X9,0)&amp;"+s3*"&amp;TEXT(Y9,0)&amp;"+s4*"&amp;TEXT(Z9,0)&amp;"+s5*"&amp;TEXT(AA9,0)&amp;"+s6*"&amp;TEXT(AB9,0)&amp;"+s7*"&amp;TEXT(AC9,0)&amp;"+s0*"&amp;TEXT(AD9,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R9)),S9,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R9)),S9,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R9)),S9,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R9)),S9,S9)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R9)),S9,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R9)),S9,0)&amp;"+e07*"&amp;IF(T9="反撃",U9,0)&amp;"+e08*"&amp;IF(T9="風属性",U9,0)&amp;"+e09*"&amp;IF(T9="闇属性",U9,0)&amp;"+e10*"&amp;IF(T9="単体",U9,0)&amp;"+e11*"&amp;IF(T9="範囲",U9,0)&amp;"+e12*"&amp;IF(T9="人",U9,0)&amp;"+e13*"&amp;IF(T9="異族",U9,0)&amp;"+e14*"&amp;IF(T9="バジュラ",U9,0)&amp;"+e15*"&amp;IF(T9="魔動人形",U9,0)&amp;"+e16*"&amp;IF(T9="下位魔神",U9,0)&amp;");"</f>
+        <v>document.getElementById('m007').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI9" s="35" t="str">
         <f t="shared" si="4"/>
@@ -15082,8 +15141,8 @@
 Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m008'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH10" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI10&amp;"').innerHTML = (b1*"&amp;TEXT(J10,0)&amp;"+b2*"&amp;TEXT(K10,0)&amp;"+b0*"&amp;TEXT(L10,0)&amp;") + (s1*"&amp;TEXT(W10,0)&amp;"+s2*"&amp;TEXT(X10,0)&amp;"+s3*"&amp;TEXT(Y10,0)&amp;"+s4*"&amp;TEXT(Z10,0)&amp;"+s5*"&amp;TEXT(AA10,0)&amp;"+s6*"&amp;TEXT(AB10,0)&amp;"+s7*"&amp;TEXT(AC10,0)&amp;"+s0*"&amp;TEXT(AD10,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R10)),S10,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R10)),S10,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R10)),S10,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R10)),S10,S10)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R10)),S10,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R10)),S10,0)&amp;"+e07*"&amp;IF(T10="反撃",U10,0)&amp;"+e08*"&amp;IF(T10="風属性",U10,0)&amp;"+e09*"&amp;IF(T10="闇属性",U10,0)&amp;"+e10*"&amp;IF(T10="単体",U10,0)&amp;"+e11*"&amp;IF(T10="範囲",U10,0)&amp;"+e12*"&amp;IF(T10="人",U10,0)&amp;"+e13*"&amp;IF(T10="異族",U10,0)&amp;"+e14*"&amp;IF(T10="バジュラ",U10,0)&amp;"+e15*"&amp;IF(T10="魔動人形",U10,0)&amp;");"</f>
-        <v>document.getElementById('m008').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI10&amp;"').innerHTML = (b1*"&amp;TEXT(J10,0)&amp;"+b2*"&amp;TEXT(K10,0)&amp;"+b0*"&amp;TEXT(L10,0)&amp;") + (s1*"&amp;TEXT(W10,0)&amp;"+s2*"&amp;TEXT(X10,0)&amp;"+s3*"&amp;TEXT(Y10,0)&amp;"+s4*"&amp;TEXT(Z10,0)&amp;"+s5*"&amp;TEXT(AA10,0)&amp;"+s6*"&amp;TEXT(AB10,0)&amp;"+s7*"&amp;TEXT(AC10,0)&amp;"+s0*"&amp;TEXT(AD10,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R10)),S10,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R10)),S10,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R10)),S10,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R10)),S10,S10)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R10)),S10,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R10)),S10,0)&amp;"+e07*"&amp;IF(T10="反撃",U10,0)&amp;"+e08*"&amp;IF(T10="風属性",U10,0)&amp;"+e09*"&amp;IF(T10="闇属性",U10,0)&amp;"+e10*"&amp;IF(T10="単体",U10,0)&amp;"+e11*"&amp;IF(T10="範囲",U10,0)&amp;"+e12*"&amp;IF(T10="人",U10,0)&amp;"+e13*"&amp;IF(T10="異族",U10,0)&amp;"+e14*"&amp;IF(T10="バジュラ",U10,0)&amp;"+e15*"&amp;IF(T10="魔動人形",U10,0)&amp;"+e16*"&amp;IF(T10="下位魔神",U10,0)&amp;");"</f>
+        <v>document.getElementById('m008').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI10" s="35" t="str">
         <f t="shared" si="4"/>
@@ -15157,8 +15216,8 @@
 Other&lt;/td&gt;&lt;td headers='group'&gt;クリユニ&lt;/td&gt;&lt;td headers='score' id='m009'&gt;130&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;50&lt;/td&gt;&lt;td headers='special'&gt;範囲&lt;/td&gt;&lt;td headers='sp.bonus'&gt;20&lt;/td&gt;&lt;td headers='others'&gt;刺突耐性+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;60&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH11" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI11&amp;"').innerHTML = (b1*"&amp;TEXT(J11,0)&amp;"+b2*"&amp;TEXT(K11,0)&amp;"+b0*"&amp;TEXT(L11,0)&amp;") + (s1*"&amp;TEXT(W11,0)&amp;"+s2*"&amp;TEXT(X11,0)&amp;"+s3*"&amp;TEXT(Y11,0)&amp;"+s4*"&amp;TEXT(Z11,0)&amp;"+s5*"&amp;TEXT(AA11,0)&amp;"+s6*"&amp;TEXT(AB11,0)&amp;"+s7*"&amp;TEXT(AC11,0)&amp;"+s0*"&amp;TEXT(AD11,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R11)),S11,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R11)),S11,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R11)),S11,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R11)),S11,S11)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R11)),S11,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R11)),S11,0)&amp;"+e07*"&amp;IF(T11="反撃",U11,0)&amp;"+e08*"&amp;IF(T11="風属性",U11,0)&amp;"+e09*"&amp;IF(T11="闇属性",U11,0)&amp;"+e10*"&amp;IF(T11="単体",U11,0)&amp;"+e11*"&amp;IF(T11="範囲",U11,0)&amp;"+e12*"&amp;IF(T11="人",U11,0)&amp;"+e13*"&amp;IF(T11="異族",U11,0)&amp;"+e14*"&amp;IF(T11="バジュラ",U11,0)&amp;"+e15*"&amp;IF(T11="魔動人形",U11,0)&amp;");"</f>
-        <v>document.getElementById('m009').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*60+s3*0+s4*0+s5*0+s6*0+s7*0+s0*60) + (e01*50+e02*0+e03*0+e04*50+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*20+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI11&amp;"').innerHTML = (b1*"&amp;TEXT(J11,0)&amp;"+b2*"&amp;TEXT(K11,0)&amp;"+b0*"&amp;TEXT(L11,0)&amp;") + (s1*"&amp;TEXT(W11,0)&amp;"+s2*"&amp;TEXT(X11,0)&amp;"+s3*"&amp;TEXT(Y11,0)&amp;"+s4*"&amp;TEXT(Z11,0)&amp;"+s5*"&amp;TEXT(AA11,0)&amp;"+s6*"&amp;TEXT(AB11,0)&amp;"+s7*"&amp;TEXT(AC11,0)&amp;"+s0*"&amp;TEXT(AD11,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R11)),S11,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R11)),S11,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R11)),S11,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R11)),S11,S11)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R11)),S11,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R11)),S11,0)&amp;"+e07*"&amp;IF(T11="反撃",U11,0)&amp;"+e08*"&amp;IF(T11="風属性",U11,0)&amp;"+e09*"&amp;IF(T11="闇属性",U11,0)&amp;"+e10*"&amp;IF(T11="単体",U11,0)&amp;"+e11*"&amp;IF(T11="範囲",U11,0)&amp;"+e12*"&amp;IF(T11="人",U11,0)&amp;"+e13*"&amp;IF(T11="異族",U11,0)&amp;"+e14*"&amp;IF(T11="バジュラ",U11,0)&amp;"+e15*"&amp;IF(T11="魔動人形",U11,0)&amp;"+e16*"&amp;IF(T11="下位魔神",U11,0)&amp;");"</f>
+        <v>document.getElementById('m009').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*60+s3*0+s4*0+s5*0+s6*0+s7*0+s0*60) + (e01*50+e02*0+e03*0+e04*50+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*20+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI11" s="35" t="str">
         <f t="shared" si="4"/>
@@ -15220,8 +15279,8 @@
 Other&lt;/td&gt;&lt;td headers='group'&gt;クリユニ&lt;/td&gt;&lt;td headers='score' id='m010'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;30&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH12" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI12&amp;"').innerHTML = (b1*"&amp;TEXT(J12,0)&amp;"+b2*"&amp;TEXT(K12,0)&amp;"+b0*"&amp;TEXT(L12,0)&amp;") + (s1*"&amp;TEXT(W12,0)&amp;"+s2*"&amp;TEXT(X12,0)&amp;"+s3*"&amp;TEXT(Y12,0)&amp;"+s4*"&amp;TEXT(Z12,0)&amp;"+s5*"&amp;TEXT(AA12,0)&amp;"+s6*"&amp;TEXT(AB12,0)&amp;"+s7*"&amp;TEXT(AC12,0)&amp;"+s0*"&amp;TEXT(AD12,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R12)),S12,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R12)),S12,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R12)),S12,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R12)),S12,S12)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R12)),S12,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R12)),S12,0)&amp;"+e07*"&amp;IF(T12="反撃",U12,0)&amp;"+e08*"&amp;IF(T12="風属性",U12,0)&amp;"+e09*"&amp;IF(T12="闇属性",U12,0)&amp;"+e10*"&amp;IF(T12="単体",U12,0)&amp;"+e11*"&amp;IF(T12="範囲",U12,0)&amp;"+e12*"&amp;IF(T12="人",U12,0)&amp;"+e13*"&amp;IF(T12="異族",U12,0)&amp;"+e14*"&amp;IF(T12="バジュラ",U12,0)&amp;"+e15*"&amp;IF(T12="魔動人形",U12,0)&amp;");"</f>
-        <v>document.getElementById('m010').innerHTML = (b1*0+b2*30+b0*30) + (s1*0+s2*0+s3*30+s4*0+s5*0+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI12&amp;"').innerHTML = (b1*"&amp;TEXT(J12,0)&amp;"+b2*"&amp;TEXT(K12,0)&amp;"+b0*"&amp;TEXT(L12,0)&amp;") + (s1*"&amp;TEXT(W12,0)&amp;"+s2*"&amp;TEXT(X12,0)&amp;"+s3*"&amp;TEXT(Y12,0)&amp;"+s4*"&amp;TEXT(Z12,0)&amp;"+s5*"&amp;TEXT(AA12,0)&amp;"+s6*"&amp;TEXT(AB12,0)&amp;"+s7*"&amp;TEXT(AC12,0)&amp;"+s0*"&amp;TEXT(AD12,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R12)),S12,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R12)),S12,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R12)),S12,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R12)),S12,S12)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R12)),S12,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R12)),S12,0)&amp;"+e07*"&amp;IF(T12="反撃",U12,0)&amp;"+e08*"&amp;IF(T12="風属性",U12,0)&amp;"+e09*"&amp;IF(T12="闇属性",U12,0)&amp;"+e10*"&amp;IF(T12="単体",U12,0)&amp;"+e11*"&amp;IF(T12="範囲",U12,0)&amp;"+e12*"&amp;IF(T12="人",U12,0)&amp;"+e13*"&amp;IF(T12="異族",U12,0)&amp;"+e14*"&amp;IF(T12="バジュラ",U12,0)&amp;"+e15*"&amp;IF(T12="魔動人形",U12,0)&amp;"+e16*"&amp;IF(T12="下位魔神",U12,0)&amp;");"</f>
+        <v>document.getElementById('m010').innerHTML = (b1*0+b2*30+b0*30) + (s1*0+s2*0+s3*30+s4*0+s5*0+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI12" s="35" t="str">
         <f t="shared" si="4"/>
@@ -15277,8 +15336,8 @@
 Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m011'&gt;30&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH13" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI13&amp;"').innerHTML = (b1*"&amp;TEXT(J13,0)&amp;"+b2*"&amp;TEXT(K13,0)&amp;"+b0*"&amp;TEXT(L13,0)&amp;") + (s1*"&amp;TEXT(W13,0)&amp;"+s2*"&amp;TEXT(X13,0)&amp;"+s3*"&amp;TEXT(Y13,0)&amp;"+s4*"&amp;TEXT(Z13,0)&amp;"+s5*"&amp;TEXT(AA13,0)&amp;"+s6*"&amp;TEXT(AB13,0)&amp;"+s7*"&amp;TEXT(AC13,0)&amp;"+s0*"&amp;TEXT(AD13,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R13)),S13,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R13)),S13,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R13)),S13,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R13)),S13,S13)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R13)),S13,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R13)),S13,0)&amp;"+e07*"&amp;IF(T13="反撃",U13,0)&amp;"+e08*"&amp;IF(T13="風属性",U13,0)&amp;"+e09*"&amp;IF(T13="闇属性",U13,0)&amp;"+e10*"&amp;IF(T13="単体",U13,0)&amp;"+e11*"&amp;IF(T13="範囲",U13,0)&amp;"+e12*"&amp;IF(T13="人",U13,0)&amp;"+e13*"&amp;IF(T13="異族",U13,0)&amp;"+e14*"&amp;IF(T13="バジュラ",U13,0)&amp;"+e15*"&amp;IF(T13="魔動人形",U13,0)&amp;");"</f>
-        <v>document.getElementById('m011').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI13&amp;"').innerHTML = (b1*"&amp;TEXT(J13,0)&amp;"+b2*"&amp;TEXT(K13,0)&amp;"+b0*"&amp;TEXT(L13,0)&amp;") + (s1*"&amp;TEXT(W13,0)&amp;"+s2*"&amp;TEXT(X13,0)&amp;"+s3*"&amp;TEXT(Y13,0)&amp;"+s4*"&amp;TEXT(Z13,0)&amp;"+s5*"&amp;TEXT(AA13,0)&amp;"+s6*"&amp;TEXT(AB13,0)&amp;"+s7*"&amp;TEXT(AC13,0)&amp;"+s0*"&amp;TEXT(AD13,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R13)),S13,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R13)),S13,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R13)),S13,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R13)),S13,S13)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R13)),S13,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R13)),S13,0)&amp;"+e07*"&amp;IF(T13="反撃",U13,0)&amp;"+e08*"&amp;IF(T13="風属性",U13,0)&amp;"+e09*"&amp;IF(T13="闇属性",U13,0)&amp;"+e10*"&amp;IF(T13="単体",U13,0)&amp;"+e11*"&amp;IF(T13="範囲",U13,0)&amp;"+e12*"&amp;IF(T13="人",U13,0)&amp;"+e13*"&amp;IF(T13="異族",U13,0)&amp;"+e14*"&amp;IF(T13="バジュラ",U13,0)&amp;"+e15*"&amp;IF(T13="魔動人形",U13,0)&amp;"+e16*"&amp;IF(T13="下位魔神",U13,0)&amp;");"</f>
+        <v>document.getElementById('m011').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI13" s="35" t="str">
         <f t="shared" si="4"/>
@@ -15346,8 +15405,8 @@
 Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m012'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;刺突&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;30&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH14" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI14&amp;"').innerHTML = (b1*"&amp;TEXT(J14,0)&amp;"+b2*"&amp;TEXT(K14,0)&amp;"+b0*"&amp;TEXT(L14,0)&amp;") + (s1*"&amp;TEXT(W14,0)&amp;"+s2*"&amp;TEXT(X14,0)&amp;"+s3*"&amp;TEXT(Y14,0)&amp;"+s4*"&amp;TEXT(Z14,0)&amp;"+s5*"&amp;TEXT(AA14,0)&amp;"+s6*"&amp;TEXT(AB14,0)&amp;"+s7*"&amp;TEXT(AC14,0)&amp;"+s0*"&amp;TEXT(AD14,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R14)),S14,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R14)),S14,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R14)),S14,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R14)),S14,S14)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R14)),S14,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R14)),S14,0)&amp;"+e07*"&amp;IF(T14="反撃",U14,0)&amp;"+e08*"&amp;IF(T14="風属性",U14,0)&amp;"+e09*"&amp;IF(T14="闇属性",U14,0)&amp;"+e10*"&amp;IF(T14="単体",U14,0)&amp;"+e11*"&amp;IF(T14="範囲",U14,0)&amp;"+e12*"&amp;IF(T14="人",U14,0)&amp;"+e13*"&amp;IF(T14="異族",U14,0)&amp;"+e14*"&amp;IF(T14="バジュラ",U14,0)&amp;"+e15*"&amp;IF(T14="魔動人形",U14,0)&amp;");"</f>
-        <v>document.getElementById('m012').innerHTML = (b1*30+b2*0+b0*30) + (s1*30+s2*0+s3*0+s4*30+s5*0+s6*0+s7*0+s0*30) + (e01*0+e02*30+e03*0+e04*30+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI14&amp;"').innerHTML = (b1*"&amp;TEXT(J14,0)&amp;"+b2*"&amp;TEXT(K14,0)&amp;"+b0*"&amp;TEXT(L14,0)&amp;") + (s1*"&amp;TEXT(W14,0)&amp;"+s2*"&amp;TEXT(X14,0)&amp;"+s3*"&amp;TEXT(Y14,0)&amp;"+s4*"&amp;TEXT(Z14,0)&amp;"+s5*"&amp;TEXT(AA14,0)&amp;"+s6*"&amp;TEXT(AB14,0)&amp;"+s7*"&amp;TEXT(AC14,0)&amp;"+s0*"&amp;TEXT(AD14,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R14)),S14,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R14)),S14,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R14)),S14,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R14)),S14,S14)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R14)),S14,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R14)),S14,0)&amp;"+e07*"&amp;IF(T14="反撃",U14,0)&amp;"+e08*"&amp;IF(T14="風属性",U14,0)&amp;"+e09*"&amp;IF(T14="闇属性",U14,0)&amp;"+e10*"&amp;IF(T14="単体",U14,0)&amp;"+e11*"&amp;IF(T14="範囲",U14,0)&amp;"+e12*"&amp;IF(T14="人",U14,0)&amp;"+e13*"&amp;IF(T14="異族",U14,0)&amp;"+e14*"&amp;IF(T14="バジュラ",U14,0)&amp;"+e15*"&amp;IF(T14="魔動人形",U14,0)&amp;"+e16*"&amp;IF(T14="下位魔神",U14,0)&amp;");"</f>
+        <v>document.getElementById('m012').innerHTML = (b1*30+b2*0+b0*30) + (s1*30+s2*0+s3*0+s4*30+s5*0+s6*0+s7*0+s0*30) + (e01*0+e02*30+e03*0+e04*30+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI14" s="35" t="str">
         <f t="shared" si="4"/>
@@ -15423,8 +15482,8 @@
 Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m013'&gt;110&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;20&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;刺突&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;単体&lt;/td&gt;&lt;td headers='sp.bonus'&gt;20&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;30&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH15" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI15&amp;"').innerHTML = (b1*"&amp;TEXT(J15,0)&amp;"+b2*"&amp;TEXT(K15,0)&amp;"+b0*"&amp;TEXT(L15,0)&amp;") + (s1*"&amp;TEXT(W15,0)&amp;"+s2*"&amp;TEXT(X15,0)&amp;"+s3*"&amp;TEXT(Y15,0)&amp;"+s4*"&amp;TEXT(Z15,0)&amp;"+s5*"&amp;TEXT(AA15,0)&amp;"+s6*"&amp;TEXT(AB15,0)&amp;"+s7*"&amp;TEXT(AC15,0)&amp;"+s0*"&amp;TEXT(AD15,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R15)),S15,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R15)),S15,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R15)),S15,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R15)),S15,S15)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R15)),S15,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R15)),S15,0)&amp;"+e07*"&amp;IF(T15="反撃",U15,0)&amp;"+e08*"&amp;IF(T15="風属性",U15,0)&amp;"+e09*"&amp;IF(T15="闇属性",U15,0)&amp;"+e10*"&amp;IF(T15="単体",U15,0)&amp;"+e11*"&amp;IF(T15="範囲",U15,0)&amp;"+e12*"&amp;IF(T15="人",U15,0)&amp;"+e13*"&amp;IF(T15="異族",U15,0)&amp;"+e14*"&amp;IF(T15="バジュラ",U15,0)&amp;"+e15*"&amp;IF(T15="魔動人形",U15,0)&amp;");"</f>
-        <v>document.getElementById('m013').innerHTML = (b1*20+b2*0+b0*20) + (s1*30+s2*0+s3*0+s4*30+s5*0+s6*0+s7*0+s0*30) + (e01*0+e02*40+e03*0+e04*40+e05*0+e06*0+e07*0+e08*0+e09*0+e10*20+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI15&amp;"').innerHTML = (b1*"&amp;TEXT(J15,0)&amp;"+b2*"&amp;TEXT(K15,0)&amp;"+b0*"&amp;TEXT(L15,0)&amp;") + (s1*"&amp;TEXT(W15,0)&amp;"+s2*"&amp;TEXT(X15,0)&amp;"+s3*"&amp;TEXT(Y15,0)&amp;"+s4*"&amp;TEXT(Z15,0)&amp;"+s5*"&amp;TEXT(AA15,0)&amp;"+s6*"&amp;TEXT(AB15,0)&amp;"+s7*"&amp;TEXT(AC15,0)&amp;"+s0*"&amp;TEXT(AD15,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R15)),S15,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R15)),S15,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R15)),S15,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R15)),S15,S15)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R15)),S15,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R15)),S15,0)&amp;"+e07*"&amp;IF(T15="反撃",U15,0)&amp;"+e08*"&amp;IF(T15="風属性",U15,0)&amp;"+e09*"&amp;IF(T15="闇属性",U15,0)&amp;"+e10*"&amp;IF(T15="単体",U15,0)&amp;"+e11*"&amp;IF(T15="範囲",U15,0)&amp;"+e12*"&amp;IF(T15="人",U15,0)&amp;"+e13*"&amp;IF(T15="異族",U15,0)&amp;"+e14*"&amp;IF(T15="バジュラ",U15,0)&amp;"+e15*"&amp;IF(T15="魔動人形",U15,0)&amp;"+e16*"&amp;IF(T15="下位魔神",U15,0)&amp;");"</f>
+        <v>document.getElementById('m013').innerHTML = (b1*20+b2*0+b0*20) + (s1*30+s2*0+s3*0+s4*30+s5*0+s6*0+s7*0+s0*30) + (e01*0+e02*40+e03*0+e04*40+e05*0+e06*0+e07*0+e08*0+e09*0+e10*20+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI15" s="35" t="str">
         <f t="shared" si="4"/>
@@ -15487,8 +15546,8 @@
 Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m014'&gt;10&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;10&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;沈黙+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH16" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI16&amp;"').innerHTML = (b1*"&amp;TEXT(J16,0)&amp;"+b2*"&amp;TEXT(K16,0)&amp;"+b0*"&amp;TEXT(L16,0)&amp;") + (s1*"&amp;TEXT(W16,0)&amp;"+s2*"&amp;TEXT(X16,0)&amp;"+s3*"&amp;TEXT(Y16,0)&amp;"+s4*"&amp;TEXT(Z16,0)&amp;"+s5*"&amp;TEXT(AA16,0)&amp;"+s6*"&amp;TEXT(AB16,0)&amp;"+s7*"&amp;TEXT(AC16,0)&amp;"+s0*"&amp;TEXT(AD16,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R16)),S16,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R16)),S16,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R16)),S16,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R16)),S16,S16)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R16)),S16,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R16)),S16,0)&amp;"+e07*"&amp;IF(T16="反撃",U16,0)&amp;"+e08*"&amp;IF(T16="風属性",U16,0)&amp;"+e09*"&amp;IF(T16="闇属性",U16,0)&amp;"+e10*"&amp;IF(T16="単体",U16,0)&amp;"+e11*"&amp;IF(T16="範囲",U16,0)&amp;"+e12*"&amp;IF(T16="人",U16,0)&amp;"+e13*"&amp;IF(T16="異族",U16,0)&amp;"+e14*"&amp;IF(T16="バジュラ",U16,0)&amp;"+e15*"&amp;IF(T16="魔動人形",U16,0)&amp;");"</f>
-        <v>document.getElementById('m014').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*10+e02*0+e03*0+e04*10+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI16&amp;"').innerHTML = (b1*"&amp;TEXT(J16,0)&amp;"+b2*"&amp;TEXT(K16,0)&amp;"+b0*"&amp;TEXT(L16,0)&amp;") + (s1*"&amp;TEXT(W16,0)&amp;"+s2*"&amp;TEXT(X16,0)&amp;"+s3*"&amp;TEXT(Y16,0)&amp;"+s4*"&amp;TEXT(Z16,0)&amp;"+s5*"&amp;TEXT(AA16,0)&amp;"+s6*"&amp;TEXT(AB16,0)&amp;"+s7*"&amp;TEXT(AC16,0)&amp;"+s0*"&amp;TEXT(AD16,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R16)),S16,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R16)),S16,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R16)),S16,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R16)),S16,S16)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R16)),S16,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R16)),S16,0)&amp;"+e07*"&amp;IF(T16="反撃",U16,0)&amp;"+e08*"&amp;IF(T16="風属性",U16,0)&amp;"+e09*"&amp;IF(T16="闇属性",U16,0)&amp;"+e10*"&amp;IF(T16="単体",U16,0)&amp;"+e11*"&amp;IF(T16="範囲",U16,0)&amp;"+e12*"&amp;IF(T16="人",U16,0)&amp;"+e13*"&amp;IF(T16="異族",U16,0)&amp;"+e14*"&amp;IF(T16="バジュラ",U16,0)&amp;"+e15*"&amp;IF(T16="魔動人形",U16,0)&amp;"+e16*"&amp;IF(T16="下位魔神",U16,0)&amp;");"</f>
+        <v>document.getElementById('m014').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*10+e02*0+e03*0+e04*10+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI16" s="35" t="str">
         <f t="shared" si="4"/>
@@ -15548,8 +15607,8 @@
 Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m015'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;魔法回避+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;30&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH17" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI17&amp;"').innerHTML = (b1*"&amp;TEXT(J17,0)&amp;"+b2*"&amp;TEXT(K17,0)&amp;"+b0*"&amp;TEXT(L17,0)&amp;") + (s1*"&amp;TEXT(W17,0)&amp;"+s2*"&amp;TEXT(X17,0)&amp;"+s3*"&amp;TEXT(Y17,0)&amp;"+s4*"&amp;TEXT(Z17,0)&amp;"+s5*"&amp;TEXT(AA17,0)&amp;"+s6*"&amp;TEXT(AB17,0)&amp;"+s7*"&amp;TEXT(AC17,0)&amp;"+s0*"&amp;TEXT(AD17,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R17)),S17,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R17)),S17,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R17)),S17,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R17)),S17,S17)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R17)),S17,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R17)),S17,0)&amp;"+e07*"&amp;IF(T17="反撃",U17,0)&amp;"+e08*"&amp;IF(T17="風属性",U17,0)&amp;"+e09*"&amp;IF(T17="闇属性",U17,0)&amp;"+e10*"&amp;IF(T17="単体",U17,0)&amp;"+e11*"&amp;IF(T17="範囲",U17,0)&amp;"+e12*"&amp;IF(T17="人",U17,0)&amp;"+e13*"&amp;IF(T17="異族",U17,0)&amp;"+e14*"&amp;IF(T17="バジュラ",U17,0)&amp;"+e15*"&amp;IF(T17="魔動人形",U17,0)&amp;");"</f>
-        <v>document.getElementById('m015').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*0+s3*0+s4*30+s5*0+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI17&amp;"').innerHTML = (b1*"&amp;TEXT(J17,0)&amp;"+b2*"&amp;TEXT(K17,0)&amp;"+b0*"&amp;TEXT(L17,0)&amp;") + (s1*"&amp;TEXT(W17,0)&amp;"+s2*"&amp;TEXT(X17,0)&amp;"+s3*"&amp;TEXT(Y17,0)&amp;"+s4*"&amp;TEXT(Z17,0)&amp;"+s5*"&amp;TEXT(AA17,0)&amp;"+s6*"&amp;TEXT(AB17,0)&amp;"+s7*"&amp;TEXT(AC17,0)&amp;"+s0*"&amp;TEXT(AD17,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R17)),S17,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R17)),S17,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R17)),S17,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R17)),S17,S17)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R17)),S17,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R17)),S17,0)&amp;"+e07*"&amp;IF(T17="反撃",U17,0)&amp;"+e08*"&amp;IF(T17="風属性",U17,0)&amp;"+e09*"&amp;IF(T17="闇属性",U17,0)&amp;"+e10*"&amp;IF(T17="単体",U17,0)&amp;"+e11*"&amp;IF(T17="範囲",U17,0)&amp;"+e12*"&amp;IF(T17="人",U17,0)&amp;"+e13*"&amp;IF(T17="異族",U17,0)&amp;"+e14*"&amp;IF(T17="バジュラ",U17,0)&amp;"+e15*"&amp;IF(T17="魔動人形",U17,0)&amp;"+e16*"&amp;IF(T17="下位魔神",U17,0)&amp;");"</f>
+        <v>document.getElementById('m015').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*0+s3*0+s4*30+s5*0+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI17" s="35" t="str">
         <f t="shared" si="4"/>
@@ -15614,8 +15673,8 @@
 Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m016'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;50&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;30&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH18" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI18&amp;"').innerHTML = (b1*"&amp;TEXT(J18,0)&amp;"+b2*"&amp;TEXT(K18,0)&amp;"+b0*"&amp;TEXT(L18,0)&amp;") + (s1*"&amp;TEXT(W18,0)&amp;"+s2*"&amp;TEXT(X18,0)&amp;"+s3*"&amp;TEXT(Y18,0)&amp;"+s4*"&amp;TEXT(Z18,0)&amp;"+s5*"&amp;TEXT(AA18,0)&amp;"+s6*"&amp;TEXT(AB18,0)&amp;"+s7*"&amp;TEXT(AC18,0)&amp;"+s0*"&amp;TEXT(AD18,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R18)),S18,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R18)),S18,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R18)),S18,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R18)),S18,S18)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R18)),S18,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R18)),S18,0)&amp;"+e07*"&amp;IF(T18="反撃",U18,0)&amp;"+e08*"&amp;IF(T18="風属性",U18,0)&amp;"+e09*"&amp;IF(T18="闇属性",U18,0)&amp;"+e10*"&amp;IF(T18="単体",U18,0)&amp;"+e11*"&amp;IF(T18="範囲",U18,0)&amp;"+e12*"&amp;IF(T18="人",U18,0)&amp;"+e13*"&amp;IF(T18="異族",U18,0)&amp;"+e14*"&amp;IF(T18="バジュラ",U18,0)&amp;"+e15*"&amp;IF(T18="魔動人形",U18,0)&amp;");"</f>
-        <v>document.getElementById('m016').innerHTML = (b1*50+b2*0+b0*50) + (s1*0+s2*0+s3*0+s4*30+s5*30+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI18&amp;"').innerHTML = (b1*"&amp;TEXT(J18,0)&amp;"+b2*"&amp;TEXT(K18,0)&amp;"+b0*"&amp;TEXT(L18,0)&amp;") + (s1*"&amp;TEXT(W18,0)&amp;"+s2*"&amp;TEXT(X18,0)&amp;"+s3*"&amp;TEXT(Y18,0)&amp;"+s4*"&amp;TEXT(Z18,0)&amp;"+s5*"&amp;TEXT(AA18,0)&amp;"+s6*"&amp;TEXT(AB18,0)&amp;"+s7*"&amp;TEXT(AC18,0)&amp;"+s0*"&amp;TEXT(AD18,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R18)),S18,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R18)),S18,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R18)),S18,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R18)),S18,S18)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R18)),S18,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R18)),S18,0)&amp;"+e07*"&amp;IF(T18="反撃",U18,0)&amp;"+e08*"&amp;IF(T18="風属性",U18,0)&amp;"+e09*"&amp;IF(T18="闇属性",U18,0)&amp;"+e10*"&amp;IF(T18="単体",U18,0)&amp;"+e11*"&amp;IF(T18="範囲",U18,0)&amp;"+e12*"&amp;IF(T18="人",U18,0)&amp;"+e13*"&amp;IF(T18="異族",U18,0)&amp;"+e14*"&amp;IF(T18="バジュラ",U18,0)&amp;"+e15*"&amp;IF(T18="魔動人形",U18,0)&amp;"+e16*"&amp;IF(T18="下位魔神",U18,0)&amp;");"</f>
+        <v>document.getElementById('m016').innerHTML = (b1*50+b2*0+b0*50) + (s1*0+s2*0+s3*0+s4*30+s5*30+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI18" s="35" t="str">
         <f t="shared" si="4"/>
@@ -15679,8 +15738,8 @@
 Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m017'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;5&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;闇属性耐性+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;60&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH19" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI19&amp;"').innerHTML = (b1*"&amp;TEXT(J19,0)&amp;"+b2*"&amp;TEXT(K19,0)&amp;"+b0*"&amp;TEXT(L19,0)&amp;") + (s1*"&amp;TEXT(W19,0)&amp;"+s2*"&amp;TEXT(X19,0)&amp;"+s3*"&amp;TEXT(Y19,0)&amp;"+s4*"&amp;TEXT(Z19,0)&amp;"+s5*"&amp;TEXT(AA19,0)&amp;"+s6*"&amp;TEXT(AB19,0)&amp;"+s7*"&amp;TEXT(AC19,0)&amp;"+s0*"&amp;TEXT(AD19,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R19)),S19,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R19)),S19,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R19)),S19,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R19)),S19,S19)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R19)),S19,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R19)),S19,0)&amp;"+e07*"&amp;IF(T19="反撃",U19,0)&amp;"+e08*"&amp;IF(T19="風属性",U19,0)&amp;"+e09*"&amp;IF(T19="闇属性",U19,0)&amp;"+e10*"&amp;IF(T19="単体",U19,0)&amp;"+e11*"&amp;IF(T19="範囲",U19,0)&amp;"+e12*"&amp;IF(T19="人",U19,0)&amp;"+e13*"&amp;IF(T19="異族",U19,0)&amp;"+e14*"&amp;IF(T19="バジュラ",U19,0)&amp;"+e15*"&amp;IF(T19="魔動人形",U19,0)&amp;");"</f>
-        <v>document.getElementById('m017').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*60+s7*0+s0*60) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI19&amp;"').innerHTML = (b1*"&amp;TEXT(J19,0)&amp;"+b2*"&amp;TEXT(K19,0)&amp;"+b0*"&amp;TEXT(L19,0)&amp;") + (s1*"&amp;TEXT(W19,0)&amp;"+s2*"&amp;TEXT(X19,0)&amp;"+s3*"&amp;TEXT(Y19,0)&amp;"+s4*"&amp;TEXT(Z19,0)&amp;"+s5*"&amp;TEXT(AA19,0)&amp;"+s6*"&amp;TEXT(AB19,0)&amp;"+s7*"&amp;TEXT(AC19,0)&amp;"+s0*"&amp;TEXT(AD19,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R19)),S19,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R19)),S19,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R19)),S19,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R19)),S19,S19)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R19)),S19,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R19)),S19,0)&amp;"+e07*"&amp;IF(T19="反撃",U19,0)&amp;"+e08*"&amp;IF(T19="風属性",U19,0)&amp;"+e09*"&amp;IF(T19="闇属性",U19,0)&amp;"+e10*"&amp;IF(T19="単体",U19,0)&amp;"+e11*"&amp;IF(T19="範囲",U19,0)&amp;"+e12*"&amp;IF(T19="人",U19,0)&amp;"+e13*"&amp;IF(T19="異族",U19,0)&amp;"+e14*"&amp;IF(T19="バジュラ",U19,0)&amp;"+e15*"&amp;IF(T19="魔動人形",U19,0)&amp;"+e16*"&amp;IF(T19="下位魔神",U19,0)&amp;");"</f>
+        <v>document.getElementById('m017').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*60+s7*0+s0*60) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI19" s="35" t="str">
         <f t="shared" si="4"/>
@@ -15753,8 +15812,8 @@
 Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m018'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;単体&lt;/td&gt;&lt;td headers='sp.bonus'&gt;20&lt;/td&gt;&lt;td headers='others'&gt;回避+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;40&lt;/td&gt;&lt;td headers='sinD'&gt;20&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH20" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI20&amp;"').innerHTML = (b1*"&amp;TEXT(J20,0)&amp;"+b2*"&amp;TEXT(K20,0)&amp;"+b0*"&amp;TEXT(L20,0)&amp;") + (s1*"&amp;TEXT(W20,0)&amp;"+s2*"&amp;TEXT(X20,0)&amp;"+s3*"&amp;TEXT(Y20,0)&amp;"+s4*"&amp;TEXT(Z20,0)&amp;"+s5*"&amp;TEXT(AA20,0)&amp;"+s6*"&amp;TEXT(AB20,0)&amp;"+s7*"&amp;TEXT(AC20,0)&amp;"+s0*"&amp;TEXT(AD20,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R20)),S20,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R20)),S20,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R20)),S20,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R20)),S20,S20)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R20)),S20,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R20)),S20,0)&amp;"+e07*"&amp;IF(T20="反撃",U20,0)&amp;"+e08*"&amp;IF(T20="風属性",U20,0)&amp;"+e09*"&amp;IF(T20="闇属性",U20,0)&amp;"+e10*"&amp;IF(T20="単体",U20,0)&amp;"+e11*"&amp;IF(T20="範囲",U20,0)&amp;"+e12*"&amp;IF(T20="人",U20,0)&amp;"+e13*"&amp;IF(T20="異族",U20,0)&amp;"+e14*"&amp;IF(T20="バジュラ",U20,0)&amp;"+e15*"&amp;IF(T20="魔動人形",U20,0)&amp;");"</f>
-        <v>document.getElementById('m018').innerHTML = (b1*20+b2*0+b0*20) + (s1*0+s2*0+s3*40+s4*20+s5*0+s6*0+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*20+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI20&amp;"').innerHTML = (b1*"&amp;TEXT(J20,0)&amp;"+b2*"&amp;TEXT(K20,0)&amp;"+b0*"&amp;TEXT(L20,0)&amp;") + (s1*"&amp;TEXT(W20,0)&amp;"+s2*"&amp;TEXT(X20,0)&amp;"+s3*"&amp;TEXT(Y20,0)&amp;"+s4*"&amp;TEXT(Z20,0)&amp;"+s5*"&amp;TEXT(AA20,0)&amp;"+s6*"&amp;TEXT(AB20,0)&amp;"+s7*"&amp;TEXT(AC20,0)&amp;"+s0*"&amp;TEXT(AD20,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R20)),S20,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R20)),S20,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R20)),S20,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R20)),S20,S20)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R20)),S20,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R20)),S20,0)&amp;"+e07*"&amp;IF(T20="反撃",U20,0)&amp;"+e08*"&amp;IF(T20="風属性",U20,0)&amp;"+e09*"&amp;IF(T20="闇属性",U20,0)&amp;"+e10*"&amp;IF(T20="単体",U20,0)&amp;"+e11*"&amp;IF(T20="範囲",U20,0)&amp;"+e12*"&amp;IF(T20="人",U20,0)&amp;"+e13*"&amp;IF(T20="異族",U20,0)&amp;"+e14*"&amp;IF(T20="バジュラ",U20,0)&amp;"+e15*"&amp;IF(T20="魔動人形",U20,0)&amp;"+e16*"&amp;IF(T20="下位魔神",U20,0)&amp;");"</f>
+        <v>document.getElementById('m018').innerHTML = (b1*20+b2*0+b0*20) + (s1*0+s2*0+s3*40+s4*20+s5*0+s6*0+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*20+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI20" s="35" t="str">
         <f t="shared" si="4"/>
@@ -15824,8 +15883,8 @@
 Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m019'&gt;45&lt;/td&gt;&lt;td headers='HP'&gt;60&lt;/td&gt;&lt;td headers='patk'&gt;15&lt;/td&gt;&lt;td headers='matk'&gt;15&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;治癒力+20&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;30&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH21" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI21&amp;"').innerHTML = (b1*"&amp;TEXT(J21,0)&amp;"+b2*"&amp;TEXT(K21,0)&amp;"+b0*"&amp;TEXT(L21,0)&amp;") + (s1*"&amp;TEXT(W21,0)&amp;"+s2*"&amp;TEXT(X21,0)&amp;"+s3*"&amp;TEXT(Y21,0)&amp;"+s4*"&amp;TEXT(Z21,0)&amp;"+s5*"&amp;TEXT(AA21,0)&amp;"+s6*"&amp;TEXT(AB21,0)&amp;"+s7*"&amp;TEXT(AC21,0)&amp;"+s0*"&amp;TEXT(AD21,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R21)),S21,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R21)),S21,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R21)),S21,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R21)),S21,S21)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R21)),S21,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R21)),S21,0)&amp;"+e07*"&amp;IF(T21="反撃",U21,0)&amp;"+e08*"&amp;IF(T21="風属性",U21,0)&amp;"+e09*"&amp;IF(T21="闇属性",U21,0)&amp;"+e10*"&amp;IF(T21="単体",U21,0)&amp;"+e11*"&amp;IF(T21="範囲",U21,0)&amp;"+e12*"&amp;IF(T21="人",U21,0)&amp;"+e13*"&amp;IF(T21="異族",U21,0)&amp;"+e14*"&amp;IF(T21="バジュラ",U21,0)&amp;"+e15*"&amp;IF(T21="魔動人形",U21,0)&amp;");"</f>
-        <v>document.getElementById('m019').innerHTML = (b1*15+b2*15+b0*15) + (s1*30+s2*0+s3*30+s4*0+s5*0+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI21&amp;"').innerHTML = (b1*"&amp;TEXT(J21,0)&amp;"+b2*"&amp;TEXT(K21,0)&amp;"+b0*"&amp;TEXT(L21,0)&amp;") + (s1*"&amp;TEXT(W21,0)&amp;"+s2*"&amp;TEXT(X21,0)&amp;"+s3*"&amp;TEXT(Y21,0)&amp;"+s4*"&amp;TEXT(Z21,0)&amp;"+s5*"&amp;TEXT(AA21,0)&amp;"+s6*"&amp;TEXT(AB21,0)&amp;"+s7*"&amp;TEXT(AC21,0)&amp;"+s0*"&amp;TEXT(AD21,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R21)),S21,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R21)),S21,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R21)),S21,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R21)),S21,S21)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R21)),S21,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R21)),S21,0)&amp;"+e07*"&amp;IF(T21="反撃",U21,0)&amp;"+e08*"&amp;IF(T21="風属性",U21,0)&amp;"+e09*"&amp;IF(T21="闇属性",U21,0)&amp;"+e10*"&amp;IF(T21="単体",U21,0)&amp;"+e11*"&amp;IF(T21="範囲",U21,0)&amp;"+e12*"&amp;IF(T21="人",U21,0)&amp;"+e13*"&amp;IF(T21="異族",U21,0)&amp;"+e14*"&amp;IF(T21="バジュラ",U21,0)&amp;"+e15*"&amp;IF(T21="魔動人形",U21,0)&amp;"+e16*"&amp;IF(T21="下位魔神",U21,0)&amp;");"</f>
+        <v>document.getElementById('m019').innerHTML = (b1*15+b2*15+b0*15) + (s1*30+s2*0+s3*30+s4*0+s5*0+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI21" s="35" t="str">
         <f t="shared" si="4"/>
@@ -15896,8 +15955,8 @@
 Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m020'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;60&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;20&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;魔法&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;20&lt;/td&gt;&lt;td headers='sinD'&gt;20&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH22" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI22&amp;"').innerHTML = (b1*"&amp;TEXT(J22,0)&amp;"+b2*"&amp;TEXT(K22,0)&amp;"+b0*"&amp;TEXT(L22,0)&amp;") + (s1*"&amp;TEXT(W22,0)&amp;"+s2*"&amp;TEXT(X22,0)&amp;"+s3*"&amp;TEXT(Y22,0)&amp;"+s4*"&amp;TEXT(Z22,0)&amp;"+s5*"&amp;TEXT(AA22,0)&amp;"+s6*"&amp;TEXT(AB22,0)&amp;"+s7*"&amp;TEXT(AC22,0)&amp;"+s0*"&amp;TEXT(AD22,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R22)),S22,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R22)),S22,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R22)),S22,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R22)),S22,S22)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R22)),S22,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R22)),S22,0)&amp;"+e07*"&amp;IF(T22="反撃",U22,0)&amp;"+e08*"&amp;IF(T22="風属性",U22,0)&amp;"+e09*"&amp;IF(T22="闇属性",U22,0)&amp;"+e10*"&amp;IF(T22="単体",U22,0)&amp;"+e11*"&amp;IF(T22="範囲",U22,0)&amp;"+e12*"&amp;IF(T22="人",U22,0)&amp;"+e13*"&amp;IF(T22="異族",U22,0)&amp;"+e14*"&amp;IF(T22="バジュラ",U22,0)&amp;"+e15*"&amp;IF(T22="魔動人形",U22,0)&amp;");"</f>
-        <v>document.getElementById('m020').innerHTML = (b1*0+b2*20+b0*20) + (s1*0+s2*0+s3*20+s4*20+s5*20+s6*0+s7*0+s0*20) + (e01*0+e02*0+e03*0+e04*20+e05*20+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI22&amp;"').innerHTML = (b1*"&amp;TEXT(J22,0)&amp;"+b2*"&amp;TEXT(K22,0)&amp;"+b0*"&amp;TEXT(L22,0)&amp;") + (s1*"&amp;TEXT(W22,0)&amp;"+s2*"&amp;TEXT(X22,0)&amp;"+s3*"&amp;TEXT(Y22,0)&amp;"+s4*"&amp;TEXT(Z22,0)&amp;"+s5*"&amp;TEXT(AA22,0)&amp;"+s6*"&amp;TEXT(AB22,0)&amp;"+s7*"&amp;TEXT(AC22,0)&amp;"+s0*"&amp;TEXT(AD22,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R22)),S22,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R22)),S22,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R22)),S22,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R22)),S22,S22)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R22)),S22,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R22)),S22,0)&amp;"+e07*"&amp;IF(T22="反撃",U22,0)&amp;"+e08*"&amp;IF(T22="風属性",U22,0)&amp;"+e09*"&amp;IF(T22="闇属性",U22,0)&amp;"+e10*"&amp;IF(T22="単体",U22,0)&amp;"+e11*"&amp;IF(T22="範囲",U22,0)&amp;"+e12*"&amp;IF(T22="人",U22,0)&amp;"+e13*"&amp;IF(T22="異族",U22,0)&amp;"+e14*"&amp;IF(T22="バジュラ",U22,0)&amp;"+e15*"&amp;IF(T22="魔動人形",U22,0)&amp;"+e16*"&amp;IF(T22="下位魔神",U22,0)&amp;");"</f>
+        <v>document.getElementById('m020').innerHTML = (b1*0+b2*20+b0*20) + (s1*0+s2*0+s3*20+s4*20+s5*20+s6*0+s7*0+s0*20) + (e01*0+e02*0+e03*0+e04*20+e05*20+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI22" s="35" t="str">
         <f t="shared" si="4"/>
@@ -15957,8 +16016,8 @@
 Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m021'&gt;20&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;10&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;20&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH23" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI23&amp;"').innerHTML = (b1*"&amp;TEXT(J23,0)&amp;"+b2*"&amp;TEXT(K23,0)&amp;"+b0*"&amp;TEXT(L23,0)&amp;") + (s1*"&amp;TEXT(W23,0)&amp;"+s2*"&amp;TEXT(X23,0)&amp;"+s3*"&amp;TEXT(Y23,0)&amp;"+s4*"&amp;TEXT(Z23,0)&amp;"+s5*"&amp;TEXT(AA23,0)&amp;"+s6*"&amp;TEXT(AB23,0)&amp;"+s7*"&amp;TEXT(AC23,0)&amp;"+s0*"&amp;TEXT(AD23,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R23)),S23,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R23)),S23,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R23)),S23,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R23)),S23,S23)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R23)),S23,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R23)),S23,0)&amp;"+e07*"&amp;IF(T23="反撃",U23,0)&amp;"+e08*"&amp;IF(T23="風属性",U23,0)&amp;"+e09*"&amp;IF(T23="闇属性",U23,0)&amp;"+e10*"&amp;IF(T23="単体",U23,0)&amp;"+e11*"&amp;IF(T23="範囲",U23,0)&amp;"+e12*"&amp;IF(T23="人",U23,0)&amp;"+e13*"&amp;IF(T23="異族",U23,0)&amp;"+e14*"&amp;IF(T23="バジュラ",U23,0)&amp;"+e15*"&amp;IF(T23="魔動人形",U23,0)&amp;");"</f>
-        <v>document.getElementById('m021').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*10+s5*0+s6*0+s7*20+s0*20) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI23&amp;"').innerHTML = (b1*"&amp;TEXT(J23,0)&amp;"+b2*"&amp;TEXT(K23,0)&amp;"+b0*"&amp;TEXT(L23,0)&amp;") + (s1*"&amp;TEXT(W23,0)&amp;"+s2*"&amp;TEXT(X23,0)&amp;"+s3*"&amp;TEXT(Y23,0)&amp;"+s4*"&amp;TEXT(Z23,0)&amp;"+s5*"&amp;TEXT(AA23,0)&amp;"+s6*"&amp;TEXT(AB23,0)&amp;"+s7*"&amp;TEXT(AC23,0)&amp;"+s0*"&amp;TEXT(AD23,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R23)),S23,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R23)),S23,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R23)),S23,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R23)),S23,S23)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R23)),S23,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R23)),S23,0)&amp;"+e07*"&amp;IF(T23="反撃",U23,0)&amp;"+e08*"&amp;IF(T23="風属性",U23,0)&amp;"+e09*"&amp;IF(T23="闇属性",U23,0)&amp;"+e10*"&amp;IF(T23="単体",U23,0)&amp;"+e11*"&amp;IF(T23="範囲",U23,0)&amp;"+e12*"&amp;IF(T23="人",U23,0)&amp;"+e13*"&amp;IF(T23="異族",U23,0)&amp;"+e14*"&amp;IF(T23="バジュラ",U23,0)&amp;"+e15*"&amp;IF(T23="魔動人形",U23,0)&amp;"+e16*"&amp;IF(T23="下位魔神",U23,0)&amp;");"</f>
+        <v>document.getElementById('m021').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*10+s5*0+s6*0+s7*20+s0*20) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI23" s="35" t="str">
         <f t="shared" si="4"/>
@@ -16022,8 +16081,8 @@
 Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m022'&gt;50&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;5&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;MP上限+5, MP回復+5&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;30&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH24" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI24&amp;"').innerHTML = (b1*"&amp;TEXT(J24,0)&amp;"+b2*"&amp;TEXT(K24,0)&amp;"+b0*"&amp;TEXT(L24,0)&amp;") + (s1*"&amp;TEXT(W24,0)&amp;"+s2*"&amp;TEXT(X24,0)&amp;"+s3*"&amp;TEXT(Y24,0)&amp;"+s4*"&amp;TEXT(Z24,0)&amp;"+s5*"&amp;TEXT(AA24,0)&amp;"+s6*"&amp;TEXT(AB24,0)&amp;"+s7*"&amp;TEXT(AC24,0)&amp;"+s0*"&amp;TEXT(AD24,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R24)),S24,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R24)),S24,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R24)),S24,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R24)),S24,S24)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R24)),S24,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R24)),S24,0)&amp;"+e07*"&amp;IF(T24="反撃",U24,0)&amp;"+e08*"&amp;IF(T24="風属性",U24,0)&amp;"+e09*"&amp;IF(T24="闇属性",U24,0)&amp;"+e10*"&amp;IF(T24="単体",U24,0)&amp;"+e11*"&amp;IF(T24="範囲",U24,0)&amp;"+e12*"&amp;IF(T24="人",U24,0)&amp;"+e13*"&amp;IF(T24="異族",U24,0)&amp;"+e14*"&amp;IF(T24="バジュラ",U24,0)&amp;"+e15*"&amp;IF(T24="魔動人形",U24,0)&amp;");"</f>
-        <v>document.getElementById('m022').innerHTML = (b1*20+b2*0+b0*20) + (s1*0+s2*0+s3*0+s4*30+s5*0+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI24&amp;"').innerHTML = (b1*"&amp;TEXT(J24,0)&amp;"+b2*"&amp;TEXT(K24,0)&amp;"+b0*"&amp;TEXT(L24,0)&amp;") + (s1*"&amp;TEXT(W24,0)&amp;"+s2*"&amp;TEXT(X24,0)&amp;"+s3*"&amp;TEXT(Y24,0)&amp;"+s4*"&amp;TEXT(Z24,0)&amp;"+s5*"&amp;TEXT(AA24,0)&amp;"+s6*"&amp;TEXT(AB24,0)&amp;"+s7*"&amp;TEXT(AC24,0)&amp;"+s0*"&amp;TEXT(AD24,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R24)),S24,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R24)),S24,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R24)),S24,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R24)),S24,S24)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R24)),S24,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R24)),S24,0)&amp;"+e07*"&amp;IF(T24="反撃",U24,0)&amp;"+e08*"&amp;IF(T24="風属性",U24,0)&amp;"+e09*"&amp;IF(T24="闇属性",U24,0)&amp;"+e10*"&amp;IF(T24="単体",U24,0)&amp;"+e11*"&amp;IF(T24="範囲",U24,0)&amp;"+e12*"&amp;IF(T24="人",U24,0)&amp;"+e13*"&amp;IF(T24="異族",U24,0)&amp;"+e14*"&amp;IF(T24="バジュラ",U24,0)&amp;"+e15*"&amp;IF(T24="魔動人形",U24,0)&amp;"+e16*"&amp;IF(T24="下位魔神",U24,0)&amp;");"</f>
+        <v>document.getElementById('m022').innerHTML = (b1*20+b2*0+b0*20) + (s1*0+s2*0+s3*0+s4*30+s5*0+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI24" s="35" t="str">
         <f t="shared" si="4"/>
@@ -16093,8 +16152,8 @@
 Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m023'&gt;70&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;50&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;30&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+5&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;20&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH25" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI25&amp;"').innerHTML = (b1*"&amp;TEXT(J25,0)&amp;"+b2*"&amp;TEXT(K25,0)&amp;"+b0*"&amp;TEXT(L25,0)&amp;") + (s1*"&amp;TEXT(W25,0)&amp;"+s2*"&amp;TEXT(X25,0)&amp;"+s3*"&amp;TEXT(Y25,0)&amp;"+s4*"&amp;TEXT(Z25,0)&amp;"+s5*"&amp;TEXT(AA25,0)&amp;"+s6*"&amp;TEXT(AB25,0)&amp;"+s7*"&amp;TEXT(AC25,0)&amp;"+s0*"&amp;TEXT(AD25,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R25)),S25,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R25)),S25,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R25)),S25,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R25)),S25,S25)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R25)),S25,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R25)),S25,0)&amp;"+e07*"&amp;IF(T25="反撃",U25,0)&amp;"+e08*"&amp;IF(T25="風属性",U25,0)&amp;"+e09*"&amp;IF(T25="闇属性",U25,0)&amp;"+e10*"&amp;IF(T25="単体",U25,0)&amp;"+e11*"&amp;IF(T25="範囲",U25,0)&amp;"+e12*"&amp;IF(T25="人",U25,0)&amp;"+e13*"&amp;IF(T25="異族",U25,0)&amp;"+e14*"&amp;IF(T25="バジュラ",U25,0)&amp;"+e15*"&amp;IF(T25="魔動人形",U25,0)&amp;");"</f>
-        <v>document.getElementById('m023').innerHTML = (b1*50+b2*0+b0*50) + (s1*20+s2*0+s3*0+s4*20+s5*20+s6*0+s7*0+s0*20) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI25&amp;"').innerHTML = (b1*"&amp;TEXT(J25,0)&amp;"+b2*"&amp;TEXT(K25,0)&amp;"+b0*"&amp;TEXT(L25,0)&amp;") + (s1*"&amp;TEXT(W25,0)&amp;"+s2*"&amp;TEXT(X25,0)&amp;"+s3*"&amp;TEXT(Y25,0)&amp;"+s4*"&amp;TEXT(Z25,0)&amp;"+s5*"&amp;TEXT(AA25,0)&amp;"+s6*"&amp;TEXT(AB25,0)&amp;"+s7*"&amp;TEXT(AC25,0)&amp;"+s0*"&amp;TEXT(AD25,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R25)),S25,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R25)),S25,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R25)),S25,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R25)),S25,S25)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R25)),S25,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R25)),S25,0)&amp;"+e07*"&amp;IF(T25="反撃",U25,0)&amp;"+e08*"&amp;IF(T25="風属性",U25,0)&amp;"+e09*"&amp;IF(T25="闇属性",U25,0)&amp;"+e10*"&amp;IF(T25="単体",U25,0)&amp;"+e11*"&amp;IF(T25="範囲",U25,0)&amp;"+e12*"&amp;IF(T25="人",U25,0)&amp;"+e13*"&amp;IF(T25="異族",U25,0)&amp;"+e14*"&amp;IF(T25="バジュラ",U25,0)&amp;"+e15*"&amp;IF(T25="魔動人形",U25,0)&amp;"+e16*"&amp;IF(T25="下位魔神",U25,0)&amp;");"</f>
+        <v>document.getElementById('m023').innerHTML = (b1*50+b2*0+b0*50) + (s1*20+s2*0+s3*0+s4*20+s5*20+s6*0+s7*0+s0*20) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI25" s="35" t="str">
         <f t="shared" si="4"/>
@@ -16156,8 +16215,8 @@
 Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m024'&gt;40&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;人&lt;/td&gt;&lt;td headers='sp.bonus'&gt;20&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;20&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH26" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI26&amp;"').innerHTML = (b1*"&amp;TEXT(J26,0)&amp;"+b2*"&amp;TEXT(K26,0)&amp;"+b0*"&amp;TEXT(L26,0)&amp;") + (s1*"&amp;TEXT(W26,0)&amp;"+s2*"&amp;TEXT(X26,0)&amp;"+s3*"&amp;TEXT(Y26,0)&amp;"+s4*"&amp;TEXT(Z26,0)&amp;"+s5*"&amp;TEXT(AA26,0)&amp;"+s6*"&amp;TEXT(AB26,0)&amp;"+s7*"&amp;TEXT(AC26,0)&amp;"+s0*"&amp;TEXT(AD26,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R26)),S26,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R26)),S26,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R26)),S26,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R26)),S26,S26)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R26)),S26,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R26)),S26,0)&amp;"+e07*"&amp;IF(T26="反撃",U26,0)&amp;"+e08*"&amp;IF(T26="風属性",U26,0)&amp;"+e09*"&amp;IF(T26="闇属性",U26,0)&amp;"+e10*"&amp;IF(T26="単体",U26,0)&amp;"+e11*"&amp;IF(T26="範囲",U26,0)&amp;"+e12*"&amp;IF(T26="人",U26,0)&amp;"+e13*"&amp;IF(T26="異族",U26,0)&amp;"+e14*"&amp;IF(T26="バジュラ",U26,0)&amp;"+e15*"&amp;IF(T26="魔動人形",U26,0)&amp;");"</f>
-        <v>document.getElementById('m024').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*20+s5*0+s6*0+s7*0+s0*20) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*20+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI26&amp;"').innerHTML = (b1*"&amp;TEXT(J26,0)&amp;"+b2*"&amp;TEXT(K26,0)&amp;"+b0*"&amp;TEXT(L26,0)&amp;") + (s1*"&amp;TEXT(W26,0)&amp;"+s2*"&amp;TEXT(X26,0)&amp;"+s3*"&amp;TEXT(Y26,0)&amp;"+s4*"&amp;TEXT(Z26,0)&amp;"+s5*"&amp;TEXT(AA26,0)&amp;"+s6*"&amp;TEXT(AB26,0)&amp;"+s7*"&amp;TEXT(AC26,0)&amp;"+s0*"&amp;TEXT(AD26,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R26)),S26,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R26)),S26,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R26)),S26,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R26)),S26,S26)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R26)),S26,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R26)),S26,0)&amp;"+e07*"&amp;IF(T26="反撃",U26,0)&amp;"+e08*"&amp;IF(T26="風属性",U26,0)&amp;"+e09*"&amp;IF(T26="闇属性",U26,0)&amp;"+e10*"&amp;IF(T26="単体",U26,0)&amp;"+e11*"&amp;IF(T26="範囲",U26,0)&amp;"+e12*"&amp;IF(T26="人",U26,0)&amp;"+e13*"&amp;IF(T26="異族",U26,0)&amp;"+e14*"&amp;IF(T26="バジュラ",U26,0)&amp;"+e15*"&amp;IF(T26="魔動人形",U26,0)&amp;"+e16*"&amp;IF(T26="下位魔神",U26,0)&amp;");"</f>
+        <v>document.getElementById('m024').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*20+s5*0+s6*0+s7*0+s0*20) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*20+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI26" s="35" t="str">
         <f t="shared" si="4"/>
@@ -16224,8 +16283,8 @@
 Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m025'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;40&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;20&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;20&lt;/td&gt;&lt;td headers='sinD'&gt;20&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH27" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI27&amp;"').innerHTML = (b1*"&amp;TEXT(J27,0)&amp;"+b2*"&amp;TEXT(K27,0)&amp;"+b0*"&amp;TEXT(L27,0)&amp;") + (s1*"&amp;TEXT(W27,0)&amp;"+s2*"&amp;TEXT(X27,0)&amp;"+s3*"&amp;TEXT(Y27,0)&amp;"+s4*"&amp;TEXT(Z27,0)&amp;"+s5*"&amp;TEXT(AA27,0)&amp;"+s6*"&amp;TEXT(AB27,0)&amp;"+s7*"&amp;TEXT(AC27,0)&amp;"+s0*"&amp;TEXT(AD27,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R27)),S27,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R27)),S27,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R27)),S27,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R27)),S27,S27)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R27)),S27,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R27)),S27,0)&amp;"+e07*"&amp;IF(T27="反撃",U27,0)&amp;"+e08*"&amp;IF(T27="風属性",U27,0)&amp;"+e09*"&amp;IF(T27="闇属性",U27,0)&amp;"+e10*"&amp;IF(T27="単体",U27,0)&amp;"+e11*"&amp;IF(T27="範囲",U27,0)&amp;"+e12*"&amp;IF(T27="人",U27,0)&amp;"+e13*"&amp;IF(T27="異族",U27,0)&amp;"+e14*"&amp;IF(T27="バジュラ",U27,0)&amp;"+e15*"&amp;IF(T27="魔動人形",U27,0)&amp;");"</f>
-        <v>document.getElementById('m025').innerHTML = (b1*0+b2*40+b0*40) + (s1*20+s2*0+s3*20+s4*20+s5*0+s6*0+s7*0+s0*20) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI27&amp;"').innerHTML = (b1*"&amp;TEXT(J27,0)&amp;"+b2*"&amp;TEXT(K27,0)&amp;"+b0*"&amp;TEXT(L27,0)&amp;") + (s1*"&amp;TEXT(W27,0)&amp;"+s2*"&amp;TEXT(X27,0)&amp;"+s3*"&amp;TEXT(Y27,0)&amp;"+s4*"&amp;TEXT(Z27,0)&amp;"+s5*"&amp;TEXT(AA27,0)&amp;"+s6*"&amp;TEXT(AB27,0)&amp;"+s7*"&amp;TEXT(AC27,0)&amp;"+s0*"&amp;TEXT(AD27,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R27)),S27,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R27)),S27,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R27)),S27,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R27)),S27,S27)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R27)),S27,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R27)),S27,0)&amp;"+e07*"&amp;IF(T27="反撃",U27,0)&amp;"+e08*"&amp;IF(T27="風属性",U27,0)&amp;"+e09*"&amp;IF(T27="闇属性",U27,0)&amp;"+e10*"&amp;IF(T27="単体",U27,0)&amp;"+e11*"&amp;IF(T27="範囲",U27,0)&amp;"+e12*"&amp;IF(T27="人",U27,0)&amp;"+e13*"&amp;IF(T27="異族",U27,0)&amp;"+e14*"&amp;IF(T27="バジュラ",U27,0)&amp;"+e15*"&amp;IF(T27="魔動人形",U27,0)&amp;"+e16*"&amp;IF(T27="下位魔神",U27,0)&amp;");"</f>
+        <v>document.getElementById('m025').innerHTML = (b1*0+b2*40+b0*40) + (s1*20+s2*0+s3*20+s4*20+s5*0+s6*0+s7*0+s0*20) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI27" s="35" t="str">
         <f t="shared" si="4"/>
@@ -16275,8 +16334,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m026'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH28" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI28&amp;"').innerHTML = (b1*"&amp;TEXT(J28,0)&amp;"+b2*"&amp;TEXT(K28,0)&amp;"+b0*"&amp;TEXT(L28,0)&amp;") + (s1*"&amp;TEXT(W28,0)&amp;"+s2*"&amp;TEXT(X28,0)&amp;"+s3*"&amp;TEXT(Y28,0)&amp;"+s4*"&amp;TEXT(Z28,0)&amp;"+s5*"&amp;TEXT(AA28,0)&amp;"+s6*"&amp;TEXT(AB28,0)&amp;"+s7*"&amp;TEXT(AC28,0)&amp;"+s0*"&amp;TEXT(AD28,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R28)),S28,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R28)),S28,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R28)),S28,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R28)),S28,S28)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R28)),S28,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R28)),S28,0)&amp;"+e07*"&amp;IF(T28="反撃",U28,0)&amp;"+e08*"&amp;IF(T28="風属性",U28,0)&amp;"+e09*"&amp;IF(T28="闇属性",U28,0)&amp;"+e10*"&amp;IF(T28="単体",U28,0)&amp;"+e11*"&amp;IF(T28="範囲",U28,0)&amp;"+e12*"&amp;IF(T28="人",U28,0)&amp;"+e13*"&amp;IF(T28="異族",U28,0)&amp;"+e14*"&amp;IF(T28="バジュラ",U28,0)&amp;"+e15*"&amp;IF(T28="魔動人形",U28,0)&amp;");"</f>
-        <v>document.getElementById('m026').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI28&amp;"').innerHTML = (b1*"&amp;TEXT(J28,0)&amp;"+b2*"&amp;TEXT(K28,0)&amp;"+b0*"&amp;TEXT(L28,0)&amp;") + (s1*"&amp;TEXT(W28,0)&amp;"+s2*"&amp;TEXT(X28,0)&amp;"+s3*"&amp;TEXT(Y28,0)&amp;"+s4*"&amp;TEXT(Z28,0)&amp;"+s5*"&amp;TEXT(AA28,0)&amp;"+s6*"&amp;TEXT(AB28,0)&amp;"+s7*"&amp;TEXT(AC28,0)&amp;"+s0*"&amp;TEXT(AD28,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R28)),S28,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R28)),S28,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R28)),S28,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R28)),S28,S28)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R28)),S28,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R28)),S28,0)&amp;"+e07*"&amp;IF(T28="反撃",U28,0)&amp;"+e08*"&amp;IF(T28="風属性",U28,0)&amp;"+e09*"&amp;IF(T28="闇属性",U28,0)&amp;"+e10*"&amp;IF(T28="単体",U28,0)&amp;"+e11*"&amp;IF(T28="範囲",U28,0)&amp;"+e12*"&amp;IF(T28="人",U28,0)&amp;"+e13*"&amp;IF(T28="異族",U28,0)&amp;"+e14*"&amp;IF(T28="バジュラ",U28,0)&amp;"+e15*"&amp;IF(T28="魔動人形",U28,0)&amp;"+e16*"&amp;IF(T28="下位魔神",U28,0)&amp;");"</f>
+        <v>document.getElementById('m026').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI28" s="35" t="str">
         <f t="shared" si="4"/>
@@ -16326,8 +16385,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m027'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH29" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI29&amp;"').innerHTML = (b1*"&amp;TEXT(J29,0)&amp;"+b2*"&amp;TEXT(K29,0)&amp;"+b0*"&amp;TEXT(L29,0)&amp;") + (s1*"&amp;TEXT(W29,0)&amp;"+s2*"&amp;TEXT(X29,0)&amp;"+s3*"&amp;TEXT(Y29,0)&amp;"+s4*"&amp;TEXT(Z29,0)&amp;"+s5*"&amp;TEXT(AA29,0)&amp;"+s6*"&amp;TEXT(AB29,0)&amp;"+s7*"&amp;TEXT(AC29,0)&amp;"+s0*"&amp;TEXT(AD29,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R29)),S29,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R29)),S29,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R29)),S29,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R29)),S29,S29)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R29)),S29,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R29)),S29,0)&amp;"+e07*"&amp;IF(T29="反撃",U29,0)&amp;"+e08*"&amp;IF(T29="風属性",U29,0)&amp;"+e09*"&amp;IF(T29="闇属性",U29,0)&amp;"+e10*"&amp;IF(T29="単体",U29,0)&amp;"+e11*"&amp;IF(T29="範囲",U29,0)&amp;"+e12*"&amp;IF(T29="人",U29,0)&amp;"+e13*"&amp;IF(T29="異族",U29,0)&amp;"+e14*"&amp;IF(T29="バジュラ",U29,0)&amp;"+e15*"&amp;IF(T29="魔動人形",U29,0)&amp;");"</f>
-        <v>document.getElementById('m027').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI29&amp;"').innerHTML = (b1*"&amp;TEXT(J29,0)&amp;"+b2*"&amp;TEXT(K29,0)&amp;"+b0*"&amp;TEXT(L29,0)&amp;") + (s1*"&amp;TEXT(W29,0)&amp;"+s2*"&amp;TEXT(X29,0)&amp;"+s3*"&amp;TEXT(Y29,0)&amp;"+s4*"&amp;TEXT(Z29,0)&amp;"+s5*"&amp;TEXT(AA29,0)&amp;"+s6*"&amp;TEXT(AB29,0)&amp;"+s7*"&amp;TEXT(AC29,0)&amp;"+s0*"&amp;TEXT(AD29,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R29)),S29,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R29)),S29,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R29)),S29,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R29)),S29,S29)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R29)),S29,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R29)),S29,0)&amp;"+e07*"&amp;IF(T29="反撃",U29,0)&amp;"+e08*"&amp;IF(T29="風属性",U29,0)&amp;"+e09*"&amp;IF(T29="闇属性",U29,0)&amp;"+e10*"&amp;IF(T29="単体",U29,0)&amp;"+e11*"&amp;IF(T29="範囲",U29,0)&amp;"+e12*"&amp;IF(T29="人",U29,0)&amp;"+e13*"&amp;IF(T29="異族",U29,0)&amp;"+e14*"&amp;IF(T29="バジュラ",U29,0)&amp;"+e15*"&amp;IF(T29="魔動人形",U29,0)&amp;"+e16*"&amp;IF(T29="下位魔神",U29,0)&amp;");"</f>
+        <v>document.getElementById('m027').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI29" s="35" t="str">
         <f t="shared" si="4"/>
@@ -16388,8 +16447,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m028'&gt;40&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;20&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH30" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI30&amp;"').innerHTML = (b1*"&amp;TEXT(J30,0)&amp;"+b2*"&amp;TEXT(K30,0)&amp;"+b0*"&amp;TEXT(L30,0)&amp;") + (s1*"&amp;TEXT(W30,0)&amp;"+s2*"&amp;TEXT(X30,0)&amp;"+s3*"&amp;TEXT(Y30,0)&amp;"+s4*"&amp;TEXT(Z30,0)&amp;"+s5*"&amp;TEXT(AA30,0)&amp;"+s6*"&amp;TEXT(AB30,0)&amp;"+s7*"&amp;TEXT(AC30,0)&amp;"+s0*"&amp;TEXT(AD30,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R30)),S30,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R30)),S30,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R30)),S30,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R30)),S30,S30)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R30)),S30,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R30)),S30,0)&amp;"+e07*"&amp;IF(T30="反撃",U30,0)&amp;"+e08*"&amp;IF(T30="風属性",U30,0)&amp;"+e09*"&amp;IF(T30="闇属性",U30,0)&amp;"+e10*"&amp;IF(T30="単体",U30,0)&amp;"+e11*"&amp;IF(T30="範囲",U30,0)&amp;"+e12*"&amp;IF(T30="人",U30,0)&amp;"+e13*"&amp;IF(T30="異族",U30,0)&amp;"+e14*"&amp;IF(T30="バジュラ",U30,0)&amp;"+e15*"&amp;IF(T30="魔動人形",U30,0)&amp;");"</f>
-        <v>document.getElementById('m028').innerHTML = (b1*20+b2*0+b0*20) + (s1*20+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*20) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI30&amp;"').innerHTML = (b1*"&amp;TEXT(J30,0)&amp;"+b2*"&amp;TEXT(K30,0)&amp;"+b0*"&amp;TEXT(L30,0)&amp;") + (s1*"&amp;TEXT(W30,0)&amp;"+s2*"&amp;TEXT(X30,0)&amp;"+s3*"&amp;TEXT(Y30,0)&amp;"+s4*"&amp;TEXT(Z30,0)&amp;"+s5*"&amp;TEXT(AA30,0)&amp;"+s6*"&amp;TEXT(AB30,0)&amp;"+s7*"&amp;TEXT(AC30,0)&amp;"+s0*"&amp;TEXT(AD30,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R30)),S30,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R30)),S30,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R30)),S30,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R30)),S30,S30)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R30)),S30,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R30)),S30,0)&amp;"+e07*"&amp;IF(T30="反撃",U30,0)&amp;"+e08*"&amp;IF(T30="風属性",U30,0)&amp;"+e09*"&amp;IF(T30="闇属性",U30,0)&amp;"+e10*"&amp;IF(T30="単体",U30,0)&amp;"+e11*"&amp;IF(T30="範囲",U30,0)&amp;"+e12*"&amp;IF(T30="人",U30,0)&amp;"+e13*"&amp;IF(T30="異族",U30,0)&amp;"+e14*"&amp;IF(T30="バジュラ",U30,0)&amp;"+e15*"&amp;IF(T30="魔動人形",U30,0)&amp;"+e16*"&amp;IF(T30="下位魔神",U30,0)&amp;");"</f>
+        <v>document.getElementById('m028').innerHTML = (b1*20+b2*0+b0*20) + (s1*20+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*20) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI30" s="35" t="str">
         <f t="shared" si="4"/>
@@ -16439,8 +16498,8 @@
 Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m029'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH31" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI31&amp;"').innerHTML = (b1*"&amp;TEXT(J31,0)&amp;"+b2*"&amp;TEXT(K31,0)&amp;"+b0*"&amp;TEXT(L31,0)&amp;") + (s1*"&amp;TEXT(W31,0)&amp;"+s2*"&amp;TEXT(X31,0)&amp;"+s3*"&amp;TEXT(Y31,0)&amp;"+s4*"&amp;TEXT(Z31,0)&amp;"+s5*"&amp;TEXT(AA31,0)&amp;"+s6*"&amp;TEXT(AB31,0)&amp;"+s7*"&amp;TEXT(AC31,0)&amp;"+s0*"&amp;TEXT(AD31,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R31)),S31,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R31)),S31,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R31)),S31,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R31)),S31,S31)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R31)),S31,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R31)),S31,0)&amp;"+e07*"&amp;IF(T31="反撃",U31,0)&amp;"+e08*"&amp;IF(T31="風属性",U31,0)&amp;"+e09*"&amp;IF(T31="闇属性",U31,0)&amp;"+e10*"&amp;IF(T31="単体",U31,0)&amp;"+e11*"&amp;IF(T31="範囲",U31,0)&amp;"+e12*"&amp;IF(T31="人",U31,0)&amp;"+e13*"&amp;IF(T31="異族",U31,0)&amp;"+e14*"&amp;IF(T31="バジュラ",U31,0)&amp;"+e15*"&amp;IF(T31="魔動人形",U31,0)&amp;");"</f>
-        <v>document.getElementById('m029').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI31&amp;"').innerHTML = (b1*"&amp;TEXT(J31,0)&amp;"+b2*"&amp;TEXT(K31,0)&amp;"+b0*"&amp;TEXT(L31,0)&amp;") + (s1*"&amp;TEXT(W31,0)&amp;"+s2*"&amp;TEXT(X31,0)&amp;"+s3*"&amp;TEXT(Y31,0)&amp;"+s4*"&amp;TEXT(Z31,0)&amp;"+s5*"&amp;TEXT(AA31,0)&amp;"+s6*"&amp;TEXT(AB31,0)&amp;"+s7*"&amp;TEXT(AC31,0)&amp;"+s0*"&amp;TEXT(AD31,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R31)),S31,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R31)),S31,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R31)),S31,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R31)),S31,S31)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R31)),S31,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R31)),S31,0)&amp;"+e07*"&amp;IF(T31="反撃",U31,0)&amp;"+e08*"&amp;IF(T31="風属性",U31,0)&amp;"+e09*"&amp;IF(T31="闇属性",U31,0)&amp;"+e10*"&amp;IF(T31="単体",U31,0)&amp;"+e11*"&amp;IF(T31="範囲",U31,0)&amp;"+e12*"&amp;IF(T31="人",U31,0)&amp;"+e13*"&amp;IF(T31="異族",U31,0)&amp;"+e14*"&amp;IF(T31="バジュラ",U31,0)&amp;"+e15*"&amp;IF(T31="魔動人形",U31,0)&amp;"+e16*"&amp;IF(T31="下位魔神",U31,0)&amp;");"</f>
+        <v>document.getElementById('m029').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI31" s="35" t="str">
         <f t="shared" si="4"/>
@@ -16490,8 +16549,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m030'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH32" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI32&amp;"').innerHTML = (b1*"&amp;TEXT(J32,0)&amp;"+b2*"&amp;TEXT(K32,0)&amp;"+b0*"&amp;TEXT(L32,0)&amp;") + (s1*"&amp;TEXT(W32,0)&amp;"+s2*"&amp;TEXT(X32,0)&amp;"+s3*"&amp;TEXT(Y32,0)&amp;"+s4*"&amp;TEXT(Z32,0)&amp;"+s5*"&amp;TEXT(AA32,0)&amp;"+s6*"&amp;TEXT(AB32,0)&amp;"+s7*"&amp;TEXT(AC32,0)&amp;"+s0*"&amp;TEXT(AD32,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R32)),S32,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R32)),S32,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R32)),S32,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R32)),S32,S32)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R32)),S32,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R32)),S32,0)&amp;"+e07*"&amp;IF(T32="反撃",U32,0)&amp;"+e08*"&amp;IF(T32="風属性",U32,0)&amp;"+e09*"&amp;IF(T32="闇属性",U32,0)&amp;"+e10*"&amp;IF(T32="単体",U32,0)&amp;"+e11*"&amp;IF(T32="範囲",U32,0)&amp;"+e12*"&amp;IF(T32="人",U32,0)&amp;"+e13*"&amp;IF(T32="異族",U32,0)&amp;"+e14*"&amp;IF(T32="バジュラ",U32,0)&amp;"+e15*"&amp;IF(T32="魔動人形",U32,0)&amp;");"</f>
-        <v>document.getElementById('m030').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI32&amp;"').innerHTML = (b1*"&amp;TEXT(J32,0)&amp;"+b2*"&amp;TEXT(K32,0)&amp;"+b0*"&amp;TEXT(L32,0)&amp;") + (s1*"&amp;TEXT(W32,0)&amp;"+s2*"&amp;TEXT(X32,0)&amp;"+s3*"&amp;TEXT(Y32,0)&amp;"+s4*"&amp;TEXT(Z32,0)&amp;"+s5*"&amp;TEXT(AA32,0)&amp;"+s6*"&amp;TEXT(AB32,0)&amp;"+s7*"&amp;TEXT(AC32,0)&amp;"+s0*"&amp;TEXT(AD32,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R32)),S32,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R32)),S32,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R32)),S32,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R32)),S32,S32)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R32)),S32,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R32)),S32,0)&amp;"+e07*"&amp;IF(T32="反撃",U32,0)&amp;"+e08*"&amp;IF(T32="風属性",U32,0)&amp;"+e09*"&amp;IF(T32="闇属性",U32,0)&amp;"+e10*"&amp;IF(T32="単体",U32,0)&amp;"+e11*"&amp;IF(T32="範囲",U32,0)&amp;"+e12*"&amp;IF(T32="人",U32,0)&amp;"+e13*"&amp;IF(T32="異族",U32,0)&amp;"+e14*"&amp;IF(T32="バジュラ",U32,0)&amp;"+e15*"&amp;IF(T32="魔動人形",U32,0)&amp;"+e16*"&amp;IF(T32="下位魔神",U32,0)&amp;");"</f>
+        <v>document.getElementById('m030').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI32" s="35" t="str">
         <f t="shared" si="4"/>
@@ -16541,8 +16600,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m031'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH33" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI33&amp;"').innerHTML = (b1*"&amp;TEXT(J33,0)&amp;"+b2*"&amp;TEXT(K33,0)&amp;"+b0*"&amp;TEXT(L33,0)&amp;") + (s1*"&amp;TEXT(W33,0)&amp;"+s2*"&amp;TEXT(X33,0)&amp;"+s3*"&amp;TEXT(Y33,0)&amp;"+s4*"&amp;TEXT(Z33,0)&amp;"+s5*"&amp;TEXT(AA33,0)&amp;"+s6*"&amp;TEXT(AB33,0)&amp;"+s7*"&amp;TEXT(AC33,0)&amp;"+s0*"&amp;TEXT(AD33,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R33)),S33,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R33)),S33,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R33)),S33,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R33)),S33,S33)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R33)),S33,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R33)),S33,0)&amp;"+e07*"&amp;IF(T33="反撃",U33,0)&amp;"+e08*"&amp;IF(T33="風属性",U33,0)&amp;"+e09*"&amp;IF(T33="闇属性",U33,0)&amp;"+e10*"&amp;IF(T33="単体",U33,0)&amp;"+e11*"&amp;IF(T33="範囲",U33,0)&amp;"+e12*"&amp;IF(T33="人",U33,0)&amp;"+e13*"&amp;IF(T33="異族",U33,0)&amp;"+e14*"&amp;IF(T33="バジュラ",U33,0)&amp;"+e15*"&amp;IF(T33="魔動人形",U33,0)&amp;");"</f>
-        <v>document.getElementById('m031').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI33&amp;"').innerHTML = (b1*"&amp;TEXT(J33,0)&amp;"+b2*"&amp;TEXT(K33,0)&amp;"+b0*"&amp;TEXT(L33,0)&amp;") + (s1*"&amp;TEXT(W33,0)&amp;"+s2*"&amp;TEXT(X33,0)&amp;"+s3*"&amp;TEXT(Y33,0)&amp;"+s4*"&amp;TEXT(Z33,0)&amp;"+s5*"&amp;TEXT(AA33,0)&amp;"+s6*"&amp;TEXT(AB33,0)&amp;"+s7*"&amp;TEXT(AC33,0)&amp;"+s0*"&amp;TEXT(AD33,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R33)),S33,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R33)),S33,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R33)),S33,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R33)),S33,S33)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R33)),S33,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R33)),S33,0)&amp;"+e07*"&amp;IF(T33="反撃",U33,0)&amp;"+e08*"&amp;IF(T33="風属性",U33,0)&amp;"+e09*"&amp;IF(T33="闇属性",U33,0)&amp;"+e10*"&amp;IF(T33="単体",U33,0)&amp;"+e11*"&amp;IF(T33="範囲",U33,0)&amp;"+e12*"&amp;IF(T33="人",U33,0)&amp;"+e13*"&amp;IF(T33="異族",U33,0)&amp;"+e14*"&amp;IF(T33="バジュラ",U33,0)&amp;"+e15*"&amp;IF(T33="魔動人形",U33,0)&amp;"+e16*"&amp;IF(T33="下位魔神",U33,0)&amp;");"</f>
+        <v>document.getElementById('m031').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI33" s="35" t="str">
         <f t="shared" si="4"/>
@@ -16607,8 +16666,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m032'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;闇属性&lt;/td&gt;&lt;td headers='sp.bonus'&gt;30&lt;/td&gt;&lt;td headers='others'&gt;闇属性耐性+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;60&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH34" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI34&amp;"').innerHTML = (b1*"&amp;TEXT(J34,0)&amp;"+b2*"&amp;TEXT(K34,0)&amp;"+b0*"&amp;TEXT(L34,0)&amp;") + (s1*"&amp;TEXT(W34,0)&amp;"+s2*"&amp;TEXT(X34,0)&amp;"+s3*"&amp;TEXT(Y34,0)&amp;"+s4*"&amp;TEXT(Z34,0)&amp;"+s5*"&amp;TEXT(AA34,0)&amp;"+s6*"&amp;TEXT(AB34,0)&amp;"+s7*"&amp;TEXT(AC34,0)&amp;"+s0*"&amp;TEXT(AD34,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R34)),S34,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R34)),S34,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R34)),S34,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R34)),S34,S34)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R34)),S34,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R34)),S34,0)&amp;"+e07*"&amp;IF(T34="反撃",U34,0)&amp;"+e08*"&amp;IF(T34="風属性",U34,0)&amp;"+e09*"&amp;IF(T34="闇属性",U34,0)&amp;"+e10*"&amp;IF(T34="単体",U34,0)&amp;"+e11*"&amp;IF(T34="範囲",U34,0)&amp;"+e12*"&amp;IF(T34="人",U34,0)&amp;"+e13*"&amp;IF(T34="異族",U34,0)&amp;"+e14*"&amp;IF(T34="バジュラ",U34,0)&amp;"+e15*"&amp;IF(T34="魔動人形",U34,0)&amp;");"</f>
-        <v>document.getElementById('m032').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*60+s7*0+s0*60) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*30+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI34&amp;"').innerHTML = (b1*"&amp;TEXT(J34,0)&amp;"+b2*"&amp;TEXT(K34,0)&amp;"+b0*"&amp;TEXT(L34,0)&amp;") + (s1*"&amp;TEXT(W34,0)&amp;"+s2*"&amp;TEXT(X34,0)&amp;"+s3*"&amp;TEXT(Y34,0)&amp;"+s4*"&amp;TEXT(Z34,0)&amp;"+s5*"&amp;TEXT(AA34,0)&amp;"+s6*"&amp;TEXT(AB34,0)&amp;"+s7*"&amp;TEXT(AC34,0)&amp;"+s0*"&amp;TEXT(AD34,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R34)),S34,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R34)),S34,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R34)),S34,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R34)),S34,S34)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R34)),S34,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R34)),S34,0)&amp;"+e07*"&amp;IF(T34="反撃",U34,0)&amp;"+e08*"&amp;IF(T34="風属性",U34,0)&amp;"+e09*"&amp;IF(T34="闇属性",U34,0)&amp;"+e10*"&amp;IF(T34="単体",U34,0)&amp;"+e11*"&amp;IF(T34="範囲",U34,0)&amp;"+e12*"&amp;IF(T34="人",U34,0)&amp;"+e13*"&amp;IF(T34="異族",U34,0)&amp;"+e14*"&amp;IF(T34="バジュラ",U34,0)&amp;"+e15*"&amp;IF(T34="魔動人形",U34,0)&amp;"+e16*"&amp;IF(T34="下位魔神",U34,0)&amp;");"</f>
+        <v>document.getElementById('m032').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*60+s7*0+s0*60) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*30+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI34" s="35" t="str">
         <f t="shared" si="4"/>
@@ -16670,8 +16729,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;緋炎騎士団&lt;/td&gt;&lt;td headers='score' id='m033'&gt;40&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;60&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;40&lt;/td&gt;&lt;td headers='sinF'&gt;20&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH35" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI35&amp;"').innerHTML = (b1*"&amp;TEXT(J35,0)&amp;"+b2*"&amp;TEXT(K35,0)&amp;"+b0*"&amp;TEXT(L35,0)&amp;") + (s1*"&amp;TEXT(W35,0)&amp;"+s2*"&amp;TEXT(X35,0)&amp;"+s3*"&amp;TEXT(Y35,0)&amp;"+s4*"&amp;TEXT(Z35,0)&amp;"+s5*"&amp;TEXT(AA35,0)&amp;"+s6*"&amp;TEXT(AB35,0)&amp;"+s7*"&amp;TEXT(AC35,0)&amp;"+s0*"&amp;TEXT(AD35,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R35)),S35,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R35)),S35,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R35)),S35,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R35)),S35,S35)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R35)),S35,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R35)),S35,0)&amp;"+e07*"&amp;IF(T35="反撃",U35,0)&amp;"+e08*"&amp;IF(T35="風属性",U35,0)&amp;"+e09*"&amp;IF(T35="闇属性",U35,0)&amp;"+e10*"&amp;IF(T35="単体",U35,0)&amp;"+e11*"&amp;IF(T35="範囲",U35,0)&amp;"+e12*"&amp;IF(T35="人",U35,0)&amp;"+e13*"&amp;IF(T35="異族",U35,0)&amp;"+e14*"&amp;IF(T35="バジュラ",U35,0)&amp;"+e15*"&amp;IF(T35="魔動人形",U35,0)&amp;");"</f>
-        <v>document.getElementById('m033').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*40+s6*20+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI35&amp;"').innerHTML = (b1*"&amp;TEXT(J35,0)&amp;"+b2*"&amp;TEXT(K35,0)&amp;"+b0*"&amp;TEXT(L35,0)&amp;") + (s1*"&amp;TEXT(W35,0)&amp;"+s2*"&amp;TEXT(X35,0)&amp;"+s3*"&amp;TEXT(Y35,0)&amp;"+s4*"&amp;TEXT(Z35,0)&amp;"+s5*"&amp;TEXT(AA35,0)&amp;"+s6*"&amp;TEXT(AB35,0)&amp;"+s7*"&amp;TEXT(AC35,0)&amp;"+s0*"&amp;TEXT(AD35,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R35)),S35,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R35)),S35,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R35)),S35,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R35)),S35,S35)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R35)),S35,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R35)),S35,0)&amp;"+e07*"&amp;IF(T35="反撃",U35,0)&amp;"+e08*"&amp;IF(T35="風属性",U35,0)&amp;"+e09*"&amp;IF(T35="闇属性",U35,0)&amp;"+e10*"&amp;IF(T35="単体",U35,0)&amp;"+e11*"&amp;IF(T35="範囲",U35,0)&amp;"+e12*"&amp;IF(T35="人",U35,0)&amp;"+e13*"&amp;IF(T35="異族",U35,0)&amp;"+e14*"&amp;IF(T35="バジュラ",U35,0)&amp;"+e15*"&amp;IF(T35="魔動人形",U35,0)&amp;"+e16*"&amp;IF(T35="下位魔神",U35,0)&amp;");"</f>
+        <v>document.getElementById('m033').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*40+s6*20+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI35" s="35" t="str">
         <f t="shared" si="4"/>
@@ -16723,8 +16782,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;緋炎騎士団&lt;/td&gt;&lt;td headers='score' id='m034'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH36" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI36&amp;"').innerHTML = (b1*"&amp;TEXT(J36,0)&amp;"+b2*"&amp;TEXT(K36,0)&amp;"+b0*"&amp;TEXT(L36,0)&amp;") + (s1*"&amp;TEXT(W36,0)&amp;"+s2*"&amp;TEXT(X36,0)&amp;"+s3*"&amp;TEXT(Y36,0)&amp;"+s4*"&amp;TEXT(Z36,0)&amp;"+s5*"&amp;TEXT(AA36,0)&amp;"+s6*"&amp;TEXT(AB36,0)&amp;"+s7*"&amp;TEXT(AC36,0)&amp;"+s0*"&amp;TEXT(AD36,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R36)),S36,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R36)),S36,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R36)),S36,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R36)),S36,S36)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R36)),S36,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R36)),S36,0)&amp;"+e07*"&amp;IF(T36="反撃",U36,0)&amp;"+e08*"&amp;IF(T36="風属性",U36,0)&amp;"+e09*"&amp;IF(T36="闇属性",U36,0)&amp;"+e10*"&amp;IF(T36="単体",U36,0)&amp;"+e11*"&amp;IF(T36="範囲",U36,0)&amp;"+e12*"&amp;IF(T36="人",U36,0)&amp;"+e13*"&amp;IF(T36="異族",U36,0)&amp;"+e14*"&amp;IF(T36="バジュラ",U36,0)&amp;"+e15*"&amp;IF(T36="魔動人形",U36,0)&amp;");"</f>
-        <v>document.getElementById('m034').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI36&amp;"').innerHTML = (b1*"&amp;TEXT(J36,0)&amp;"+b2*"&amp;TEXT(K36,0)&amp;"+b0*"&amp;TEXT(L36,0)&amp;") + (s1*"&amp;TEXT(W36,0)&amp;"+s2*"&amp;TEXT(X36,0)&amp;"+s3*"&amp;TEXT(Y36,0)&amp;"+s4*"&amp;TEXT(Z36,0)&amp;"+s5*"&amp;TEXT(AA36,0)&amp;"+s6*"&amp;TEXT(AB36,0)&amp;"+s7*"&amp;TEXT(AC36,0)&amp;"+s0*"&amp;TEXT(AD36,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R36)),S36,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R36)),S36,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R36)),S36,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R36)),S36,S36)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R36)),S36,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R36)),S36,0)&amp;"+e07*"&amp;IF(T36="反撃",U36,0)&amp;"+e08*"&amp;IF(T36="風属性",U36,0)&amp;"+e09*"&amp;IF(T36="闇属性",U36,0)&amp;"+e10*"&amp;IF(T36="単体",U36,0)&amp;"+e11*"&amp;IF(T36="範囲",U36,0)&amp;"+e12*"&amp;IF(T36="人",U36,0)&amp;"+e13*"&amp;IF(T36="異族",U36,0)&amp;"+e14*"&amp;IF(T36="バジュラ",U36,0)&amp;"+e15*"&amp;IF(T36="魔動人形",U36,0)&amp;"+e16*"&amp;IF(T36="下位魔神",U36,0)&amp;");"</f>
+        <v>document.getElementById('m034').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI36" s="35" t="str">
         <f t="shared" si="4"/>
@@ -16774,8 +16833,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m035'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH37" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI37&amp;"').innerHTML = (b1*"&amp;TEXT(J37,0)&amp;"+b2*"&amp;TEXT(K37,0)&amp;"+b0*"&amp;TEXT(L37,0)&amp;") + (s1*"&amp;TEXT(W37,0)&amp;"+s2*"&amp;TEXT(X37,0)&amp;"+s3*"&amp;TEXT(Y37,0)&amp;"+s4*"&amp;TEXT(Z37,0)&amp;"+s5*"&amp;TEXT(AA37,0)&amp;"+s6*"&amp;TEXT(AB37,0)&amp;"+s7*"&amp;TEXT(AC37,0)&amp;"+s0*"&amp;TEXT(AD37,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R37)),S37,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R37)),S37,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R37)),S37,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R37)),S37,S37)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R37)),S37,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R37)),S37,0)&amp;"+e07*"&amp;IF(T37="反撃",U37,0)&amp;"+e08*"&amp;IF(T37="風属性",U37,0)&amp;"+e09*"&amp;IF(T37="闇属性",U37,0)&amp;"+e10*"&amp;IF(T37="単体",U37,0)&amp;"+e11*"&amp;IF(T37="範囲",U37,0)&amp;"+e12*"&amp;IF(T37="人",U37,0)&amp;"+e13*"&amp;IF(T37="異族",U37,0)&amp;"+e14*"&amp;IF(T37="バジュラ",U37,0)&amp;"+e15*"&amp;IF(T37="魔動人形",U37,0)&amp;");"</f>
-        <v>document.getElementById('m035').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI37&amp;"').innerHTML = (b1*"&amp;TEXT(J37,0)&amp;"+b2*"&amp;TEXT(K37,0)&amp;"+b0*"&amp;TEXT(L37,0)&amp;") + (s1*"&amp;TEXT(W37,0)&amp;"+s2*"&amp;TEXT(X37,0)&amp;"+s3*"&amp;TEXT(Y37,0)&amp;"+s4*"&amp;TEXT(Z37,0)&amp;"+s5*"&amp;TEXT(AA37,0)&amp;"+s6*"&amp;TEXT(AB37,0)&amp;"+s7*"&amp;TEXT(AC37,0)&amp;"+s0*"&amp;TEXT(AD37,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R37)),S37,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R37)),S37,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R37)),S37,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R37)),S37,S37)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R37)),S37,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R37)),S37,0)&amp;"+e07*"&amp;IF(T37="反撃",U37,0)&amp;"+e08*"&amp;IF(T37="風属性",U37,0)&amp;"+e09*"&amp;IF(T37="闇属性",U37,0)&amp;"+e10*"&amp;IF(T37="単体",U37,0)&amp;"+e11*"&amp;IF(T37="範囲",U37,0)&amp;"+e12*"&amp;IF(T37="人",U37,0)&amp;"+e13*"&amp;IF(T37="異族",U37,0)&amp;"+e14*"&amp;IF(T37="バジュラ",U37,0)&amp;"+e15*"&amp;IF(T37="魔動人形",U37,0)&amp;"+e16*"&amp;IF(T37="下位魔神",U37,0)&amp;");"</f>
+        <v>document.getElementById('m035').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI37" s="35" t="str">
         <f t="shared" si="4"/>
@@ -16832,8 +16891,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;エンヴィリア王国騎士団&lt;/td&gt;&lt;td headers='score' id='m036'&gt;20&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;50&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH38" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI38&amp;"').innerHTML = (b1*"&amp;TEXT(J38,0)&amp;"+b2*"&amp;TEXT(K38,0)&amp;"+b0*"&amp;TEXT(L38,0)&amp;") + (s1*"&amp;TEXT(W38,0)&amp;"+s2*"&amp;TEXT(X38,0)&amp;"+s3*"&amp;TEXT(Y38,0)&amp;"+s4*"&amp;TEXT(Z38,0)&amp;"+s5*"&amp;TEXT(AA38,0)&amp;"+s6*"&amp;TEXT(AB38,0)&amp;"+s7*"&amp;TEXT(AC38,0)&amp;"+s0*"&amp;TEXT(AD38,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R38)),S38,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R38)),S38,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R38)),S38,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R38)),S38,S38)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R38)),S38,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R38)),S38,0)&amp;"+e07*"&amp;IF(T38="反撃",U38,0)&amp;"+e08*"&amp;IF(T38="風属性",U38,0)&amp;"+e09*"&amp;IF(T38="闇属性",U38,0)&amp;"+e10*"&amp;IF(T38="単体",U38,0)&amp;"+e11*"&amp;IF(T38="範囲",U38,0)&amp;"+e12*"&amp;IF(T38="人",U38,0)&amp;"+e13*"&amp;IF(T38="異族",U38,0)&amp;"+e14*"&amp;IF(T38="バジュラ",U38,0)&amp;"+e15*"&amp;IF(T38="魔動人形",U38,0)&amp;");"</f>
-        <v>document.getElementById('m036').innerHTML = (b1*0+b2*0+b0*0) + (s1*20+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*20) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI38&amp;"').innerHTML = (b1*"&amp;TEXT(J38,0)&amp;"+b2*"&amp;TEXT(K38,0)&amp;"+b0*"&amp;TEXT(L38,0)&amp;") + (s1*"&amp;TEXT(W38,0)&amp;"+s2*"&amp;TEXT(X38,0)&amp;"+s3*"&amp;TEXT(Y38,0)&amp;"+s4*"&amp;TEXT(Z38,0)&amp;"+s5*"&amp;TEXT(AA38,0)&amp;"+s6*"&amp;TEXT(AB38,0)&amp;"+s7*"&amp;TEXT(AC38,0)&amp;"+s0*"&amp;TEXT(AD38,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R38)),S38,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R38)),S38,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R38)),S38,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R38)),S38,S38)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R38)),S38,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R38)),S38,0)&amp;"+e07*"&amp;IF(T38="反撃",U38,0)&amp;"+e08*"&amp;IF(T38="風属性",U38,0)&amp;"+e09*"&amp;IF(T38="闇属性",U38,0)&amp;"+e10*"&amp;IF(T38="単体",U38,0)&amp;"+e11*"&amp;IF(T38="範囲",U38,0)&amp;"+e12*"&amp;IF(T38="人",U38,0)&amp;"+e13*"&amp;IF(T38="異族",U38,0)&amp;"+e14*"&amp;IF(T38="バジュラ",U38,0)&amp;"+e15*"&amp;IF(T38="魔動人形",U38,0)&amp;"+e16*"&amp;IF(T38="下位魔神",U38,0)&amp;");"</f>
+        <v>document.getElementById('m036').innerHTML = (b1*0+b2*0+b0*0) + (s1*20+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*20) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI38" s="35" t="str">
         <f t="shared" si="4"/>
@@ -16883,8 +16942,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m037'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH39" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI39&amp;"').innerHTML = (b1*"&amp;TEXT(J39,0)&amp;"+b2*"&amp;TEXT(K39,0)&amp;"+b0*"&amp;TEXT(L39,0)&amp;") + (s1*"&amp;TEXT(W39,0)&amp;"+s2*"&amp;TEXT(X39,0)&amp;"+s3*"&amp;TEXT(Y39,0)&amp;"+s4*"&amp;TEXT(Z39,0)&amp;"+s5*"&amp;TEXT(AA39,0)&amp;"+s6*"&amp;TEXT(AB39,0)&amp;"+s7*"&amp;TEXT(AC39,0)&amp;"+s0*"&amp;TEXT(AD39,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R39)),S39,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R39)),S39,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R39)),S39,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R39)),S39,S39)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R39)),S39,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R39)),S39,0)&amp;"+e07*"&amp;IF(T39="反撃",U39,0)&amp;"+e08*"&amp;IF(T39="風属性",U39,0)&amp;"+e09*"&amp;IF(T39="闇属性",U39,0)&amp;"+e10*"&amp;IF(T39="単体",U39,0)&amp;"+e11*"&amp;IF(T39="範囲",U39,0)&amp;"+e12*"&amp;IF(T39="人",U39,0)&amp;"+e13*"&amp;IF(T39="異族",U39,0)&amp;"+e14*"&amp;IF(T39="バジュラ",U39,0)&amp;"+e15*"&amp;IF(T39="魔動人形",U39,0)&amp;");"</f>
-        <v>document.getElementById('m037').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI39&amp;"').innerHTML = (b1*"&amp;TEXT(J39,0)&amp;"+b2*"&amp;TEXT(K39,0)&amp;"+b0*"&amp;TEXT(L39,0)&amp;") + (s1*"&amp;TEXT(W39,0)&amp;"+s2*"&amp;TEXT(X39,0)&amp;"+s3*"&amp;TEXT(Y39,0)&amp;"+s4*"&amp;TEXT(Z39,0)&amp;"+s5*"&amp;TEXT(AA39,0)&amp;"+s6*"&amp;TEXT(AB39,0)&amp;"+s7*"&amp;TEXT(AC39,0)&amp;"+s0*"&amp;TEXT(AD39,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R39)),S39,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R39)),S39,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R39)),S39,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R39)),S39,S39)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R39)),S39,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R39)),S39,0)&amp;"+e07*"&amp;IF(T39="反撃",U39,0)&amp;"+e08*"&amp;IF(T39="風属性",U39,0)&amp;"+e09*"&amp;IF(T39="闇属性",U39,0)&amp;"+e10*"&amp;IF(T39="単体",U39,0)&amp;"+e11*"&amp;IF(T39="範囲",U39,0)&amp;"+e12*"&amp;IF(T39="人",U39,0)&amp;"+e13*"&amp;IF(T39="異族",U39,0)&amp;"+e14*"&amp;IF(T39="バジュラ",U39,0)&amp;"+e15*"&amp;IF(T39="魔動人形",U39,0)&amp;"+e16*"&amp;IF(T39="下位魔神",U39,0)&amp;");"</f>
+        <v>document.getElementById('m037').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI39" s="35" t="str">
         <f t="shared" si="4"/>
@@ -16934,8 +16993,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m038'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH40" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI40&amp;"').innerHTML = (b1*"&amp;TEXT(J40,0)&amp;"+b2*"&amp;TEXT(K40,0)&amp;"+b0*"&amp;TEXT(L40,0)&amp;") + (s1*"&amp;TEXT(W40,0)&amp;"+s2*"&amp;TEXT(X40,0)&amp;"+s3*"&amp;TEXT(Y40,0)&amp;"+s4*"&amp;TEXT(Z40,0)&amp;"+s5*"&amp;TEXT(AA40,0)&amp;"+s6*"&amp;TEXT(AB40,0)&amp;"+s7*"&amp;TEXT(AC40,0)&amp;"+s0*"&amp;TEXT(AD40,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R40)),S40,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R40)),S40,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R40)),S40,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R40)),S40,S40)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R40)),S40,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R40)),S40,0)&amp;"+e07*"&amp;IF(T40="反撃",U40,0)&amp;"+e08*"&amp;IF(T40="風属性",U40,0)&amp;"+e09*"&amp;IF(T40="闇属性",U40,0)&amp;"+e10*"&amp;IF(T40="単体",U40,0)&amp;"+e11*"&amp;IF(T40="範囲",U40,0)&amp;"+e12*"&amp;IF(T40="人",U40,0)&amp;"+e13*"&amp;IF(T40="異族",U40,0)&amp;"+e14*"&amp;IF(T40="バジュラ",U40,0)&amp;"+e15*"&amp;IF(T40="魔動人形",U40,0)&amp;");"</f>
-        <v>document.getElementById('m038').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI40&amp;"').innerHTML = (b1*"&amp;TEXT(J40,0)&amp;"+b2*"&amp;TEXT(K40,0)&amp;"+b0*"&amp;TEXT(L40,0)&amp;") + (s1*"&amp;TEXT(W40,0)&amp;"+s2*"&amp;TEXT(X40,0)&amp;"+s3*"&amp;TEXT(Y40,0)&amp;"+s4*"&amp;TEXT(Z40,0)&amp;"+s5*"&amp;TEXT(AA40,0)&amp;"+s6*"&amp;TEXT(AB40,0)&amp;"+s7*"&amp;TEXT(AC40,0)&amp;"+s0*"&amp;TEXT(AD40,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R40)),S40,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R40)),S40,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R40)),S40,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R40)),S40,S40)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R40)),S40,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R40)),S40,0)&amp;"+e07*"&amp;IF(T40="反撃",U40,0)&amp;"+e08*"&amp;IF(T40="風属性",U40,0)&amp;"+e09*"&amp;IF(T40="闇属性",U40,0)&amp;"+e10*"&amp;IF(T40="単体",U40,0)&amp;"+e11*"&amp;IF(T40="範囲",U40,0)&amp;"+e12*"&amp;IF(T40="人",U40,0)&amp;"+e13*"&amp;IF(T40="異族",U40,0)&amp;"+e14*"&amp;IF(T40="バジュラ",U40,0)&amp;"+e15*"&amp;IF(T40="魔動人形",U40,0)&amp;"+e16*"&amp;IF(T40="下位魔神",U40,0)&amp;");"</f>
+        <v>document.getElementById('m038').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI40" s="35" t="str">
         <f t="shared" si="4"/>
@@ -16985,8 +17044,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m039'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH41" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI41&amp;"').innerHTML = (b1*"&amp;TEXT(J41,0)&amp;"+b2*"&amp;TEXT(K41,0)&amp;"+b0*"&amp;TEXT(L41,0)&amp;") + (s1*"&amp;TEXT(W41,0)&amp;"+s2*"&amp;TEXT(X41,0)&amp;"+s3*"&amp;TEXT(Y41,0)&amp;"+s4*"&amp;TEXT(Z41,0)&amp;"+s5*"&amp;TEXT(AA41,0)&amp;"+s6*"&amp;TEXT(AB41,0)&amp;"+s7*"&amp;TEXT(AC41,0)&amp;"+s0*"&amp;TEXT(AD41,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R41)),S41,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R41)),S41,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R41)),S41,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R41)),S41,S41)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R41)),S41,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R41)),S41,0)&amp;"+e07*"&amp;IF(T41="反撃",U41,0)&amp;"+e08*"&amp;IF(T41="風属性",U41,0)&amp;"+e09*"&amp;IF(T41="闇属性",U41,0)&amp;"+e10*"&amp;IF(T41="単体",U41,0)&amp;"+e11*"&amp;IF(T41="範囲",U41,0)&amp;"+e12*"&amp;IF(T41="人",U41,0)&amp;"+e13*"&amp;IF(T41="異族",U41,0)&amp;"+e14*"&amp;IF(T41="バジュラ",U41,0)&amp;"+e15*"&amp;IF(T41="魔動人形",U41,0)&amp;");"</f>
-        <v>document.getElementById('m039').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI41&amp;"').innerHTML = (b1*"&amp;TEXT(J41,0)&amp;"+b2*"&amp;TEXT(K41,0)&amp;"+b0*"&amp;TEXT(L41,0)&amp;") + (s1*"&amp;TEXT(W41,0)&amp;"+s2*"&amp;TEXT(X41,0)&amp;"+s3*"&amp;TEXT(Y41,0)&amp;"+s4*"&amp;TEXT(Z41,0)&amp;"+s5*"&amp;TEXT(AA41,0)&amp;"+s6*"&amp;TEXT(AB41,0)&amp;"+s7*"&amp;TEXT(AC41,0)&amp;"+s0*"&amp;TEXT(AD41,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R41)),S41,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R41)),S41,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R41)),S41,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R41)),S41,S41)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R41)),S41,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R41)),S41,0)&amp;"+e07*"&amp;IF(T41="反撃",U41,0)&amp;"+e08*"&amp;IF(T41="風属性",U41,0)&amp;"+e09*"&amp;IF(T41="闇属性",U41,0)&amp;"+e10*"&amp;IF(T41="単体",U41,0)&amp;"+e11*"&amp;IF(T41="範囲",U41,0)&amp;"+e12*"&amp;IF(T41="人",U41,0)&amp;"+e13*"&amp;IF(T41="異族",U41,0)&amp;"+e14*"&amp;IF(T41="バジュラ",U41,0)&amp;"+e15*"&amp;IF(T41="魔動人形",U41,0)&amp;"+e16*"&amp;IF(T41="下位魔神",U41,0)&amp;");"</f>
+        <v>document.getElementById('m039').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI41" s="35" t="str">
         <f t="shared" si="4"/>
@@ -17036,8 +17095,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m040'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH42" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI42&amp;"').innerHTML = (b1*"&amp;TEXT(J42,0)&amp;"+b2*"&amp;TEXT(K42,0)&amp;"+b0*"&amp;TEXT(L42,0)&amp;") + (s1*"&amp;TEXT(W42,0)&amp;"+s2*"&amp;TEXT(X42,0)&amp;"+s3*"&amp;TEXT(Y42,0)&amp;"+s4*"&amp;TEXT(Z42,0)&amp;"+s5*"&amp;TEXT(AA42,0)&amp;"+s6*"&amp;TEXT(AB42,0)&amp;"+s7*"&amp;TEXT(AC42,0)&amp;"+s0*"&amp;TEXT(AD42,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R42)),S42,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R42)),S42,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R42)),S42,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R42)),S42,S42)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R42)),S42,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R42)),S42,0)&amp;"+e07*"&amp;IF(T42="反撃",U42,0)&amp;"+e08*"&amp;IF(T42="風属性",U42,0)&amp;"+e09*"&amp;IF(T42="闇属性",U42,0)&amp;"+e10*"&amp;IF(T42="単体",U42,0)&amp;"+e11*"&amp;IF(T42="範囲",U42,0)&amp;"+e12*"&amp;IF(T42="人",U42,0)&amp;"+e13*"&amp;IF(T42="異族",U42,0)&amp;"+e14*"&amp;IF(T42="バジュラ",U42,0)&amp;"+e15*"&amp;IF(T42="魔動人形",U42,0)&amp;");"</f>
-        <v>document.getElementById('m040').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI42&amp;"').innerHTML = (b1*"&amp;TEXT(J42,0)&amp;"+b2*"&amp;TEXT(K42,0)&amp;"+b0*"&amp;TEXT(L42,0)&amp;") + (s1*"&amp;TEXT(W42,0)&amp;"+s2*"&amp;TEXT(X42,0)&amp;"+s3*"&amp;TEXT(Y42,0)&amp;"+s4*"&amp;TEXT(Z42,0)&amp;"+s5*"&amp;TEXT(AA42,0)&amp;"+s6*"&amp;TEXT(AB42,0)&amp;"+s7*"&amp;TEXT(AC42,0)&amp;"+s0*"&amp;TEXT(AD42,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R42)),S42,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R42)),S42,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R42)),S42,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R42)),S42,S42)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R42)),S42,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R42)),S42,0)&amp;"+e07*"&amp;IF(T42="反撃",U42,0)&amp;"+e08*"&amp;IF(T42="風属性",U42,0)&amp;"+e09*"&amp;IF(T42="闇属性",U42,0)&amp;"+e10*"&amp;IF(T42="単体",U42,0)&amp;"+e11*"&amp;IF(T42="範囲",U42,0)&amp;"+e12*"&amp;IF(T42="人",U42,0)&amp;"+e13*"&amp;IF(T42="異族",U42,0)&amp;"+e14*"&amp;IF(T42="バジュラ",U42,0)&amp;"+e15*"&amp;IF(T42="魔動人形",U42,0)&amp;"+e16*"&amp;IF(T42="下位魔神",U42,0)&amp;");"</f>
+        <v>document.getElementById('m040').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI42" s="35" t="str">
         <f t="shared" si="4"/>
@@ -17106,8 +17165,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;緋炎騎士団&lt;/td&gt;&lt;td headers='score' id='m041'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;30&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;範囲&lt;/td&gt;&lt;td headers='sp.bonus'&gt;20&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;20&lt;/td&gt;&lt;td headers='sinE'&gt;40&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH43" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI43&amp;"').innerHTML = (b1*"&amp;TEXT(J43,0)&amp;"+b2*"&amp;TEXT(K43,0)&amp;"+b0*"&amp;TEXT(L43,0)&amp;") + (s1*"&amp;TEXT(W43,0)&amp;"+s2*"&amp;TEXT(X43,0)&amp;"+s3*"&amp;TEXT(Y43,0)&amp;"+s4*"&amp;TEXT(Z43,0)&amp;"+s5*"&amp;TEXT(AA43,0)&amp;"+s6*"&amp;TEXT(AB43,0)&amp;"+s7*"&amp;TEXT(AC43,0)&amp;"+s0*"&amp;TEXT(AD43,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R43)),S43,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R43)),S43,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R43)),S43,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R43)),S43,S43)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R43)),S43,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R43)),S43,0)&amp;"+e07*"&amp;IF(T43="反撃",U43,0)&amp;"+e08*"&amp;IF(T43="風属性",U43,0)&amp;"+e09*"&amp;IF(T43="闇属性",U43,0)&amp;"+e10*"&amp;IF(T43="単体",U43,0)&amp;"+e11*"&amp;IF(T43="範囲",U43,0)&amp;"+e12*"&amp;IF(T43="人",U43,0)&amp;"+e13*"&amp;IF(T43="異族",U43,0)&amp;"+e14*"&amp;IF(T43="バジュラ",U43,0)&amp;"+e15*"&amp;IF(T43="魔動人形",U43,0)&amp;");"</f>
-        <v>document.getElementById('m041').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*20+s5*40+s6*0+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*20+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI43&amp;"').innerHTML = (b1*"&amp;TEXT(J43,0)&amp;"+b2*"&amp;TEXT(K43,0)&amp;"+b0*"&amp;TEXT(L43,0)&amp;") + (s1*"&amp;TEXT(W43,0)&amp;"+s2*"&amp;TEXT(X43,0)&amp;"+s3*"&amp;TEXT(Y43,0)&amp;"+s4*"&amp;TEXT(Z43,0)&amp;"+s5*"&amp;TEXT(AA43,0)&amp;"+s6*"&amp;TEXT(AB43,0)&amp;"+s7*"&amp;TEXT(AC43,0)&amp;"+s0*"&amp;TEXT(AD43,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R43)),S43,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R43)),S43,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R43)),S43,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R43)),S43,S43)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R43)),S43,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R43)),S43,0)&amp;"+e07*"&amp;IF(T43="反撃",U43,0)&amp;"+e08*"&amp;IF(T43="風属性",U43,0)&amp;"+e09*"&amp;IF(T43="闇属性",U43,0)&amp;"+e10*"&amp;IF(T43="単体",U43,0)&amp;"+e11*"&amp;IF(T43="範囲",U43,0)&amp;"+e12*"&amp;IF(T43="人",U43,0)&amp;"+e13*"&amp;IF(T43="異族",U43,0)&amp;"+e14*"&amp;IF(T43="バジュラ",U43,0)&amp;"+e15*"&amp;IF(T43="魔動人形",U43,0)&amp;"+e16*"&amp;IF(T43="下位魔神",U43,0)&amp;");"</f>
+        <v>document.getElementById('m041').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*20+s5*40+s6*0+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*20+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI43" s="35" t="str">
         <f t="shared" si="4"/>
@@ -17175,8 +17234,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;エンヴィリア王国騎士団&lt;/td&gt;&lt;td headers='score' id='m042'&gt;40&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;10&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;10&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;10&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH44" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI44&amp;"').innerHTML = (b1*"&amp;TEXT(J44,0)&amp;"+b2*"&amp;TEXT(K44,0)&amp;"+b0*"&amp;TEXT(L44,0)&amp;") + (s1*"&amp;TEXT(W44,0)&amp;"+s2*"&amp;TEXT(X44,0)&amp;"+s3*"&amp;TEXT(Y44,0)&amp;"+s4*"&amp;TEXT(Z44,0)&amp;"+s5*"&amp;TEXT(AA44,0)&amp;"+s6*"&amp;TEXT(AB44,0)&amp;"+s7*"&amp;TEXT(AC44,0)&amp;"+s0*"&amp;TEXT(AD44,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R44)),S44,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R44)),S44,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R44)),S44,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R44)),S44,S44)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R44)),S44,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R44)),S44,0)&amp;"+e07*"&amp;IF(T44="反撃",U44,0)&amp;"+e08*"&amp;IF(T44="風属性",U44,0)&amp;"+e09*"&amp;IF(T44="闇属性",U44,0)&amp;"+e10*"&amp;IF(T44="単体",U44,0)&amp;"+e11*"&amp;IF(T44="範囲",U44,0)&amp;"+e12*"&amp;IF(T44="人",U44,0)&amp;"+e13*"&amp;IF(T44="異族",U44,0)&amp;"+e14*"&amp;IF(T44="バジュラ",U44,0)&amp;"+e15*"&amp;IF(T44="魔動人形",U44,0)&amp;");"</f>
-        <v>document.getElementById('m042').innerHTML = (b1*30+b2*0+b0*30) + (s1*10+s2*0+s3*10+s4*0+s5*10+s6*0+s7*0+s0*10) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI44&amp;"').innerHTML = (b1*"&amp;TEXT(J44,0)&amp;"+b2*"&amp;TEXT(K44,0)&amp;"+b0*"&amp;TEXT(L44,0)&amp;") + (s1*"&amp;TEXT(W44,0)&amp;"+s2*"&amp;TEXT(X44,0)&amp;"+s3*"&amp;TEXT(Y44,0)&amp;"+s4*"&amp;TEXT(Z44,0)&amp;"+s5*"&amp;TEXT(AA44,0)&amp;"+s6*"&amp;TEXT(AB44,0)&amp;"+s7*"&amp;TEXT(AC44,0)&amp;"+s0*"&amp;TEXT(AD44,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R44)),S44,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R44)),S44,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R44)),S44,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R44)),S44,S44)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R44)),S44,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R44)),S44,0)&amp;"+e07*"&amp;IF(T44="反撃",U44,0)&amp;"+e08*"&amp;IF(T44="風属性",U44,0)&amp;"+e09*"&amp;IF(T44="闇属性",U44,0)&amp;"+e10*"&amp;IF(T44="単体",U44,0)&amp;"+e11*"&amp;IF(T44="範囲",U44,0)&amp;"+e12*"&amp;IF(T44="人",U44,0)&amp;"+e13*"&amp;IF(T44="異族",U44,0)&amp;"+e14*"&amp;IF(T44="バジュラ",U44,0)&amp;"+e15*"&amp;IF(T44="魔動人形",U44,0)&amp;"+e16*"&amp;IF(T44="下位魔神",U44,0)&amp;");"</f>
+        <v>document.getElementById('m042').innerHTML = (b1*30+b2*0+b0*30) + (s1*10+s2*0+s3*10+s4*0+s5*10+s6*0+s7*0+s0*10) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI44" s="35" t="str">
         <f t="shared" si="4"/>
@@ -17250,8 +17309,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m043'&gt;70&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;刺突&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;暴擊率+20&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH45" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI45&amp;"').innerHTML = (b1*"&amp;TEXT(J45,0)&amp;"+b2*"&amp;TEXT(K45,0)&amp;"+b0*"&amp;TEXT(L45,0)&amp;") + (s1*"&amp;TEXT(W45,0)&amp;"+s2*"&amp;TEXT(X45,0)&amp;"+s3*"&amp;TEXT(Y45,0)&amp;"+s4*"&amp;TEXT(Z45,0)&amp;"+s5*"&amp;TEXT(AA45,0)&amp;"+s6*"&amp;TEXT(AB45,0)&amp;"+s7*"&amp;TEXT(AC45,0)&amp;"+s0*"&amp;TEXT(AD45,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R45)),S45,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R45)),S45,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R45)),S45,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R45)),S45,S45)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R45)),S45,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R45)),S45,0)&amp;"+e07*"&amp;IF(T45="反撃",U45,0)&amp;"+e08*"&amp;IF(T45="風属性",U45,0)&amp;"+e09*"&amp;IF(T45="闇属性",U45,0)&amp;"+e10*"&amp;IF(T45="単体",U45,0)&amp;"+e11*"&amp;IF(T45="範囲",U45,0)&amp;"+e12*"&amp;IF(T45="人",U45,0)&amp;"+e13*"&amp;IF(T45="異族",U45,0)&amp;"+e14*"&amp;IF(T45="バジュラ",U45,0)&amp;"+e15*"&amp;IF(T45="魔動人形",U45,0)&amp;");"</f>
-        <v>document.getElementById('m043').innerHTML = (b1*20+b2*0+b0*20) + (s1*30+s2*0+s3*0+s4*0+s5*30+s6*0+s7*0+s0*30) + (e01*0+e02*20+e03*0+e04*20+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI45&amp;"').innerHTML = (b1*"&amp;TEXT(J45,0)&amp;"+b2*"&amp;TEXT(K45,0)&amp;"+b0*"&amp;TEXT(L45,0)&amp;") + (s1*"&amp;TEXT(W45,0)&amp;"+s2*"&amp;TEXT(X45,0)&amp;"+s3*"&amp;TEXT(Y45,0)&amp;"+s4*"&amp;TEXT(Z45,0)&amp;"+s5*"&amp;TEXT(AA45,0)&amp;"+s6*"&amp;TEXT(AB45,0)&amp;"+s7*"&amp;TEXT(AC45,0)&amp;"+s0*"&amp;TEXT(AD45,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R45)),S45,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R45)),S45,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R45)),S45,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R45)),S45,S45)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R45)),S45,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R45)),S45,0)&amp;"+e07*"&amp;IF(T45="反撃",U45,0)&amp;"+e08*"&amp;IF(T45="風属性",U45,0)&amp;"+e09*"&amp;IF(T45="闇属性",U45,0)&amp;"+e10*"&amp;IF(T45="単体",U45,0)&amp;"+e11*"&amp;IF(T45="範囲",U45,0)&amp;"+e12*"&amp;IF(T45="人",U45,0)&amp;"+e13*"&amp;IF(T45="異族",U45,0)&amp;"+e14*"&amp;IF(T45="バジュラ",U45,0)&amp;"+e15*"&amp;IF(T45="魔動人形",U45,0)&amp;"+e16*"&amp;IF(T45="下位魔神",U45,0)&amp;");"</f>
+        <v>document.getElementById('m043').innerHTML = (b1*20+b2*0+b0*20) + (s1*30+s2*0+s3*0+s4*0+s5*30+s6*0+s7*0+s0*30) + (e01*0+e02*20+e03*0+e04*20+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI45" s="35" t="str">
         <f t="shared" si="4"/>
@@ -17308,8 +17367,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;蒼炎騎士団&lt;/td&gt;&lt;td headers='score' id='m044'&gt;30&lt;/td&gt;&lt;td headers='HP'&gt;60&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH46" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI46&amp;"').innerHTML = (b1*"&amp;TEXT(J46,0)&amp;"+b2*"&amp;TEXT(K46,0)&amp;"+b0*"&amp;TEXT(L46,0)&amp;") + (s1*"&amp;TEXT(W46,0)&amp;"+s2*"&amp;TEXT(X46,0)&amp;"+s3*"&amp;TEXT(Y46,0)&amp;"+s4*"&amp;TEXT(Z46,0)&amp;"+s5*"&amp;TEXT(AA46,0)&amp;"+s6*"&amp;TEXT(AB46,0)&amp;"+s7*"&amp;TEXT(AC46,0)&amp;"+s0*"&amp;TEXT(AD46,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R46)),S46,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R46)),S46,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R46)),S46,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R46)),S46,S46)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R46)),S46,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R46)),S46,0)&amp;"+e07*"&amp;IF(T46="反撃",U46,0)&amp;"+e08*"&amp;IF(T46="風属性",U46,0)&amp;"+e09*"&amp;IF(T46="闇属性",U46,0)&amp;"+e10*"&amp;IF(T46="単体",U46,0)&amp;"+e11*"&amp;IF(T46="範囲",U46,0)&amp;"+e12*"&amp;IF(T46="人",U46,0)&amp;"+e13*"&amp;IF(T46="異族",U46,0)&amp;"+e14*"&amp;IF(T46="バジュラ",U46,0)&amp;"+e15*"&amp;IF(T46="魔動人形",U46,0)&amp;");"</f>
-        <v>document.getElementById('m044').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*30+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI46&amp;"').innerHTML = (b1*"&amp;TEXT(J46,0)&amp;"+b2*"&amp;TEXT(K46,0)&amp;"+b0*"&amp;TEXT(L46,0)&amp;") + (s1*"&amp;TEXT(W46,0)&amp;"+s2*"&amp;TEXT(X46,0)&amp;"+s3*"&amp;TEXT(Y46,0)&amp;"+s4*"&amp;TEXT(Z46,0)&amp;"+s5*"&amp;TEXT(AA46,0)&amp;"+s6*"&amp;TEXT(AB46,0)&amp;"+s7*"&amp;TEXT(AC46,0)&amp;"+s0*"&amp;TEXT(AD46,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R46)),S46,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R46)),S46,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R46)),S46,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R46)),S46,S46)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R46)),S46,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R46)),S46,0)&amp;"+e07*"&amp;IF(T46="反撃",U46,0)&amp;"+e08*"&amp;IF(T46="風属性",U46,0)&amp;"+e09*"&amp;IF(T46="闇属性",U46,0)&amp;"+e10*"&amp;IF(T46="単体",U46,0)&amp;"+e11*"&amp;IF(T46="範囲",U46,0)&amp;"+e12*"&amp;IF(T46="人",U46,0)&amp;"+e13*"&amp;IF(T46="異族",U46,0)&amp;"+e14*"&amp;IF(T46="バジュラ",U46,0)&amp;"+e15*"&amp;IF(T46="魔動人形",U46,0)&amp;"+e16*"&amp;IF(T46="下位魔神",U46,0)&amp;");"</f>
+        <v>document.getElementById('m044').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*30+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI46" s="35" t="str">
         <f t="shared" si="4"/>
@@ -17361,8 +17420,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;エンヴィリア王国騎士団&lt;/td&gt;&lt;td headers='score' id='m045'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH47" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI47&amp;"').innerHTML = (b1*"&amp;TEXT(J47,0)&amp;"+b2*"&amp;TEXT(K47,0)&amp;"+b0*"&amp;TEXT(L47,0)&amp;") + (s1*"&amp;TEXT(W47,0)&amp;"+s2*"&amp;TEXT(X47,0)&amp;"+s3*"&amp;TEXT(Y47,0)&amp;"+s4*"&amp;TEXT(Z47,0)&amp;"+s5*"&amp;TEXT(AA47,0)&amp;"+s6*"&amp;TEXT(AB47,0)&amp;"+s7*"&amp;TEXT(AC47,0)&amp;"+s0*"&amp;TEXT(AD47,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R47)),S47,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R47)),S47,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R47)),S47,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R47)),S47,S47)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R47)),S47,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R47)),S47,0)&amp;"+e07*"&amp;IF(T47="反撃",U47,0)&amp;"+e08*"&amp;IF(T47="風属性",U47,0)&amp;"+e09*"&amp;IF(T47="闇属性",U47,0)&amp;"+e10*"&amp;IF(T47="単体",U47,0)&amp;"+e11*"&amp;IF(T47="範囲",U47,0)&amp;"+e12*"&amp;IF(T47="人",U47,0)&amp;"+e13*"&amp;IF(T47="異族",U47,0)&amp;"+e14*"&amp;IF(T47="バジュラ",U47,0)&amp;"+e15*"&amp;IF(T47="魔動人形",U47,0)&amp;");"</f>
-        <v>document.getElementById('m045').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI47&amp;"').innerHTML = (b1*"&amp;TEXT(J47,0)&amp;"+b2*"&amp;TEXT(K47,0)&amp;"+b0*"&amp;TEXT(L47,0)&amp;") + (s1*"&amp;TEXT(W47,0)&amp;"+s2*"&amp;TEXT(X47,0)&amp;"+s3*"&amp;TEXT(Y47,0)&amp;"+s4*"&amp;TEXT(Z47,0)&amp;"+s5*"&amp;TEXT(AA47,0)&amp;"+s6*"&amp;TEXT(AB47,0)&amp;"+s7*"&amp;TEXT(AC47,0)&amp;"+s0*"&amp;TEXT(AD47,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R47)),S47,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R47)),S47,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R47)),S47,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R47)),S47,S47)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R47)),S47,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R47)),S47,0)&amp;"+e07*"&amp;IF(T47="反撃",U47,0)&amp;"+e08*"&amp;IF(T47="風属性",U47,0)&amp;"+e09*"&amp;IF(T47="闇属性",U47,0)&amp;"+e10*"&amp;IF(T47="単体",U47,0)&amp;"+e11*"&amp;IF(T47="範囲",U47,0)&amp;"+e12*"&amp;IF(T47="人",U47,0)&amp;"+e13*"&amp;IF(T47="異族",U47,0)&amp;"+e14*"&amp;IF(T47="バジュラ",U47,0)&amp;"+e15*"&amp;IF(T47="魔動人形",U47,0)&amp;"+e16*"&amp;IF(T47="下位魔神",U47,0)&amp;");"</f>
+        <v>document.getElementById('m045').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI47" s="35" t="str">
         <f t="shared" si="4"/>
@@ -17424,8 +17483,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;エンヴィリア王国騎士団&lt;/td&gt;&lt;td headers='score' id='m046'&gt;50&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH48" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI48&amp;"').innerHTML = (b1*"&amp;TEXT(J48,0)&amp;"+b2*"&amp;TEXT(K48,0)&amp;"+b0*"&amp;TEXT(L48,0)&amp;") + (s1*"&amp;TEXT(W48,0)&amp;"+s2*"&amp;TEXT(X48,0)&amp;"+s3*"&amp;TEXT(Y48,0)&amp;"+s4*"&amp;TEXT(Z48,0)&amp;"+s5*"&amp;TEXT(AA48,0)&amp;"+s6*"&amp;TEXT(AB48,0)&amp;"+s7*"&amp;TEXT(AC48,0)&amp;"+s0*"&amp;TEXT(AD48,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R48)),S48,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R48)),S48,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R48)),S48,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R48)),S48,S48)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R48)),S48,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R48)),S48,0)&amp;"+e07*"&amp;IF(T48="反撃",U48,0)&amp;"+e08*"&amp;IF(T48="風属性",U48,0)&amp;"+e09*"&amp;IF(T48="闇属性",U48,0)&amp;"+e10*"&amp;IF(T48="単体",U48,0)&amp;"+e11*"&amp;IF(T48="範囲",U48,0)&amp;"+e12*"&amp;IF(T48="人",U48,0)&amp;"+e13*"&amp;IF(T48="異族",U48,0)&amp;"+e14*"&amp;IF(T48="バジュラ",U48,0)&amp;"+e15*"&amp;IF(T48="魔動人形",U48,0)&amp;");"</f>
-        <v>document.getElementById('m046').innerHTML = (b1*20+b2*0+b0*20) + (s1*30+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI48&amp;"').innerHTML = (b1*"&amp;TEXT(J48,0)&amp;"+b2*"&amp;TEXT(K48,0)&amp;"+b0*"&amp;TEXT(L48,0)&amp;") + (s1*"&amp;TEXT(W48,0)&amp;"+s2*"&amp;TEXT(X48,0)&amp;"+s3*"&amp;TEXT(Y48,0)&amp;"+s4*"&amp;TEXT(Z48,0)&amp;"+s5*"&amp;TEXT(AA48,0)&amp;"+s6*"&amp;TEXT(AB48,0)&amp;"+s7*"&amp;TEXT(AC48,0)&amp;"+s0*"&amp;TEXT(AD48,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R48)),S48,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R48)),S48,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R48)),S48,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R48)),S48,S48)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R48)),S48,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R48)),S48,0)&amp;"+e07*"&amp;IF(T48="反撃",U48,0)&amp;"+e08*"&amp;IF(T48="風属性",U48,0)&amp;"+e09*"&amp;IF(T48="闇属性",U48,0)&amp;"+e10*"&amp;IF(T48="単体",U48,0)&amp;"+e11*"&amp;IF(T48="範囲",U48,0)&amp;"+e12*"&amp;IF(T48="人",U48,0)&amp;"+e13*"&amp;IF(T48="異族",U48,0)&amp;"+e14*"&amp;IF(T48="バジュラ",U48,0)&amp;"+e15*"&amp;IF(T48="魔動人形",U48,0)&amp;"+e16*"&amp;IF(T48="下位魔神",U48,0)&amp;");"</f>
+        <v>document.getElementById('m046').innerHTML = (b1*20+b2*0+b0*20) + (s1*30+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI48" s="35" t="str">
         <f t="shared" si="4"/>
@@ -17475,8 +17534,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m047'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH49" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI49&amp;"').innerHTML = (b1*"&amp;TEXT(J49,0)&amp;"+b2*"&amp;TEXT(K49,0)&amp;"+b0*"&amp;TEXT(L49,0)&amp;") + (s1*"&amp;TEXT(W49,0)&amp;"+s2*"&amp;TEXT(X49,0)&amp;"+s3*"&amp;TEXT(Y49,0)&amp;"+s4*"&amp;TEXT(Z49,0)&amp;"+s5*"&amp;TEXT(AA49,0)&amp;"+s6*"&amp;TEXT(AB49,0)&amp;"+s7*"&amp;TEXT(AC49,0)&amp;"+s0*"&amp;TEXT(AD49,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R49)),S49,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R49)),S49,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R49)),S49,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R49)),S49,S49)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R49)),S49,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R49)),S49,0)&amp;"+e07*"&amp;IF(T49="反撃",U49,0)&amp;"+e08*"&amp;IF(T49="風属性",U49,0)&amp;"+e09*"&amp;IF(T49="闇属性",U49,0)&amp;"+e10*"&amp;IF(T49="単体",U49,0)&amp;"+e11*"&amp;IF(T49="範囲",U49,0)&amp;"+e12*"&amp;IF(T49="人",U49,0)&amp;"+e13*"&amp;IF(T49="異族",U49,0)&amp;"+e14*"&amp;IF(T49="バジュラ",U49,0)&amp;"+e15*"&amp;IF(T49="魔動人形",U49,0)&amp;");"</f>
-        <v>document.getElementById('m047').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI49&amp;"').innerHTML = (b1*"&amp;TEXT(J49,0)&amp;"+b2*"&amp;TEXT(K49,0)&amp;"+b0*"&amp;TEXT(L49,0)&amp;") + (s1*"&amp;TEXT(W49,0)&amp;"+s2*"&amp;TEXT(X49,0)&amp;"+s3*"&amp;TEXT(Y49,0)&amp;"+s4*"&amp;TEXT(Z49,0)&amp;"+s5*"&amp;TEXT(AA49,0)&amp;"+s6*"&amp;TEXT(AB49,0)&amp;"+s7*"&amp;TEXT(AC49,0)&amp;"+s0*"&amp;TEXT(AD49,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R49)),S49,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R49)),S49,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R49)),S49,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R49)),S49,S49)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R49)),S49,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R49)),S49,0)&amp;"+e07*"&amp;IF(T49="反撃",U49,0)&amp;"+e08*"&amp;IF(T49="風属性",U49,0)&amp;"+e09*"&amp;IF(T49="闇属性",U49,0)&amp;"+e10*"&amp;IF(T49="単体",U49,0)&amp;"+e11*"&amp;IF(T49="範囲",U49,0)&amp;"+e12*"&amp;IF(T49="人",U49,0)&amp;"+e13*"&amp;IF(T49="異族",U49,0)&amp;"+e14*"&amp;IF(T49="バジュラ",U49,0)&amp;"+e15*"&amp;IF(T49="魔動人形",U49,0)&amp;"+e16*"&amp;IF(T49="下位魔神",U49,0)&amp;");"</f>
+        <v>document.getElementById('m047').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI49" s="35" t="str">
         <f t="shared" si="4"/>
@@ -17528,8 +17587,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m048'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH50" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI50&amp;"').innerHTML = (b1*"&amp;TEXT(J50,0)&amp;"+b2*"&amp;TEXT(K50,0)&amp;"+b0*"&amp;TEXT(L50,0)&amp;") + (s1*"&amp;TEXT(W50,0)&amp;"+s2*"&amp;TEXT(X50,0)&amp;"+s3*"&amp;TEXT(Y50,0)&amp;"+s4*"&amp;TEXT(Z50,0)&amp;"+s5*"&amp;TEXT(AA50,0)&amp;"+s6*"&amp;TEXT(AB50,0)&amp;"+s7*"&amp;TEXT(AC50,0)&amp;"+s0*"&amp;TEXT(AD50,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R50)),S50,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R50)),S50,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R50)),S50,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R50)),S50,S50)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R50)),S50,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R50)),S50,0)&amp;"+e07*"&amp;IF(T50="反撃",U50,0)&amp;"+e08*"&amp;IF(T50="風属性",U50,0)&amp;"+e09*"&amp;IF(T50="闇属性",U50,0)&amp;"+e10*"&amp;IF(T50="単体",U50,0)&amp;"+e11*"&amp;IF(T50="範囲",U50,0)&amp;"+e12*"&amp;IF(T50="人",U50,0)&amp;"+e13*"&amp;IF(T50="異族",U50,0)&amp;"+e14*"&amp;IF(T50="バジュラ",U50,0)&amp;"+e15*"&amp;IF(T50="魔動人形",U50,0)&amp;");"</f>
-        <v>document.getElementById('m048').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI50&amp;"').innerHTML = (b1*"&amp;TEXT(J50,0)&amp;"+b2*"&amp;TEXT(K50,0)&amp;"+b0*"&amp;TEXT(L50,0)&amp;") + (s1*"&amp;TEXT(W50,0)&amp;"+s2*"&amp;TEXT(X50,0)&amp;"+s3*"&amp;TEXT(Y50,0)&amp;"+s4*"&amp;TEXT(Z50,0)&amp;"+s5*"&amp;TEXT(AA50,0)&amp;"+s6*"&amp;TEXT(AB50,0)&amp;"+s7*"&amp;TEXT(AC50,0)&amp;"+s0*"&amp;TEXT(AD50,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R50)),S50,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R50)),S50,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R50)),S50,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R50)),S50,S50)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R50)),S50,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R50)),S50,0)&amp;"+e07*"&amp;IF(T50="反撃",U50,0)&amp;"+e08*"&amp;IF(T50="風属性",U50,0)&amp;"+e09*"&amp;IF(T50="闇属性",U50,0)&amp;"+e10*"&amp;IF(T50="単体",U50,0)&amp;"+e11*"&amp;IF(T50="範囲",U50,0)&amp;"+e12*"&amp;IF(T50="人",U50,0)&amp;"+e13*"&amp;IF(T50="異族",U50,0)&amp;"+e14*"&amp;IF(T50="バジュラ",U50,0)&amp;"+e15*"&amp;IF(T50="魔動人形",U50,0)&amp;"+e16*"&amp;IF(T50="下位魔神",U50,0)&amp;");"</f>
+        <v>document.getElementById('m048').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI50" s="35" t="str">
         <f t="shared" si="4"/>
@@ -17596,8 +17655,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m049'&gt;35&lt;/td&gt;&lt;td headers='HP'&gt;70&lt;/td&gt;&lt;td headers='patk'&gt;15&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;15&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;20&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH51" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI51&amp;"').innerHTML = (b1*"&amp;TEXT(J51,0)&amp;"+b2*"&amp;TEXT(K51,0)&amp;"+b0*"&amp;TEXT(L51,0)&amp;") + (s1*"&amp;TEXT(W51,0)&amp;"+s2*"&amp;TEXT(X51,0)&amp;"+s3*"&amp;TEXT(Y51,0)&amp;"+s4*"&amp;TEXT(Z51,0)&amp;"+s5*"&amp;TEXT(AA51,0)&amp;"+s6*"&amp;TEXT(AB51,0)&amp;"+s7*"&amp;TEXT(AC51,0)&amp;"+s0*"&amp;TEXT(AD51,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R51)),S51,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R51)),S51,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R51)),S51,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R51)),S51,S51)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R51)),S51,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R51)),S51,0)&amp;"+e07*"&amp;IF(T51="反撃",U51,0)&amp;"+e08*"&amp;IF(T51="風属性",U51,0)&amp;"+e09*"&amp;IF(T51="闇属性",U51,0)&amp;"+e10*"&amp;IF(T51="単体",U51,0)&amp;"+e11*"&amp;IF(T51="範囲",U51,0)&amp;"+e12*"&amp;IF(T51="人",U51,0)&amp;"+e13*"&amp;IF(T51="異族",U51,0)&amp;"+e14*"&amp;IF(T51="バジュラ",U51,0)&amp;"+e15*"&amp;IF(T51="魔動人形",U51,0)&amp;");"</f>
-        <v>document.getElementById('m049').innerHTML = (b1*15+b2*0+b0*15) + (s1*20+s2*0+s3*0+s4*0+s5*20+s6*20+s7*0+s0*20) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI51&amp;"').innerHTML = (b1*"&amp;TEXT(J51,0)&amp;"+b2*"&amp;TEXT(K51,0)&amp;"+b0*"&amp;TEXT(L51,0)&amp;") + (s1*"&amp;TEXT(W51,0)&amp;"+s2*"&amp;TEXT(X51,0)&amp;"+s3*"&amp;TEXT(Y51,0)&amp;"+s4*"&amp;TEXT(Z51,0)&amp;"+s5*"&amp;TEXT(AA51,0)&amp;"+s6*"&amp;TEXT(AB51,0)&amp;"+s7*"&amp;TEXT(AC51,0)&amp;"+s0*"&amp;TEXT(AD51,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R51)),S51,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R51)),S51,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R51)),S51,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R51)),S51,S51)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R51)),S51,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R51)),S51,0)&amp;"+e07*"&amp;IF(T51="反撃",U51,0)&amp;"+e08*"&amp;IF(T51="風属性",U51,0)&amp;"+e09*"&amp;IF(T51="闇属性",U51,0)&amp;"+e10*"&amp;IF(T51="単体",U51,0)&amp;"+e11*"&amp;IF(T51="範囲",U51,0)&amp;"+e12*"&amp;IF(T51="人",U51,0)&amp;"+e13*"&amp;IF(T51="異族",U51,0)&amp;"+e14*"&amp;IF(T51="バジュラ",U51,0)&amp;"+e15*"&amp;IF(T51="魔動人形",U51,0)&amp;"+e16*"&amp;IF(T51="下位魔神",U51,0)&amp;");"</f>
+        <v>document.getElementById('m049').innerHTML = (b1*15+b2*0+b0*15) + (s1*20+s2*0+s3*0+s4*0+s5*20+s6*20+s7*0+s0*20) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI51" s="35" t="str">
         <f t="shared" si="4"/>
@@ -17661,8 +17720,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;緋炎騎士団&lt;/td&gt;&lt;td headers='score' id='m050'&gt;55&lt;/td&gt;&lt;td headers='HP'&gt;70&lt;/td&gt;&lt;td headers='patk'&gt;15&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;15&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;40&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH52" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI52&amp;"').innerHTML = (b1*"&amp;TEXT(J52,0)&amp;"+b2*"&amp;TEXT(K52,0)&amp;"+b0*"&amp;TEXT(L52,0)&amp;") + (s1*"&amp;TEXT(W52,0)&amp;"+s2*"&amp;TEXT(X52,0)&amp;"+s3*"&amp;TEXT(Y52,0)&amp;"+s4*"&amp;TEXT(Z52,0)&amp;"+s5*"&amp;TEXT(AA52,0)&amp;"+s6*"&amp;TEXT(AB52,0)&amp;"+s7*"&amp;TEXT(AC52,0)&amp;"+s0*"&amp;TEXT(AD52,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R52)),S52,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R52)),S52,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R52)),S52,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R52)),S52,S52)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R52)),S52,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R52)),S52,0)&amp;"+e07*"&amp;IF(T52="反撃",U52,0)&amp;"+e08*"&amp;IF(T52="風属性",U52,0)&amp;"+e09*"&amp;IF(T52="闇属性",U52,0)&amp;"+e10*"&amp;IF(T52="単体",U52,0)&amp;"+e11*"&amp;IF(T52="範囲",U52,0)&amp;"+e12*"&amp;IF(T52="人",U52,0)&amp;"+e13*"&amp;IF(T52="異族",U52,0)&amp;"+e14*"&amp;IF(T52="バジュラ",U52,0)&amp;"+e15*"&amp;IF(T52="魔動人形",U52,0)&amp;");"</f>
-        <v>document.getElementById('m050').innerHTML = (b1*15+b2*0+b0*15) + (s1*20+s2*0+s3*0+s4*0+s5*40+s6*0+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI52&amp;"').innerHTML = (b1*"&amp;TEXT(J52,0)&amp;"+b2*"&amp;TEXT(K52,0)&amp;"+b0*"&amp;TEXT(L52,0)&amp;") + (s1*"&amp;TEXT(W52,0)&amp;"+s2*"&amp;TEXT(X52,0)&amp;"+s3*"&amp;TEXT(Y52,0)&amp;"+s4*"&amp;TEXT(Z52,0)&amp;"+s5*"&amp;TEXT(AA52,0)&amp;"+s6*"&amp;TEXT(AB52,0)&amp;"+s7*"&amp;TEXT(AC52,0)&amp;"+s0*"&amp;TEXT(AD52,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R52)),S52,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R52)),S52,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R52)),S52,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R52)),S52,S52)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R52)),S52,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R52)),S52,0)&amp;"+e07*"&amp;IF(T52="反撃",U52,0)&amp;"+e08*"&amp;IF(T52="風属性",U52,0)&amp;"+e09*"&amp;IF(T52="闇属性",U52,0)&amp;"+e10*"&amp;IF(T52="単体",U52,0)&amp;"+e11*"&amp;IF(T52="範囲",U52,0)&amp;"+e12*"&amp;IF(T52="人",U52,0)&amp;"+e13*"&amp;IF(T52="異族",U52,0)&amp;"+e14*"&amp;IF(T52="バジュラ",U52,0)&amp;"+e15*"&amp;IF(T52="魔動人形",U52,0)&amp;"+e16*"&amp;IF(T52="下位魔神",U52,0)&amp;");"</f>
+        <v>document.getElementById('m050').innerHTML = (b1*15+b2*0+b0*15) + (s1*20+s2*0+s3*0+s4*0+s5*40+s6*0+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI52" s="35" t="str">
         <f t="shared" si="4"/>
@@ -17714,8 +17773,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;エンヴィリア王国騎士団&lt;/td&gt;&lt;td headers='score' id='m051'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH53" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI53&amp;"').innerHTML = (b1*"&amp;TEXT(J53,0)&amp;"+b2*"&amp;TEXT(K53,0)&amp;"+b0*"&amp;TEXT(L53,0)&amp;") + (s1*"&amp;TEXT(W53,0)&amp;"+s2*"&amp;TEXT(X53,0)&amp;"+s3*"&amp;TEXT(Y53,0)&amp;"+s4*"&amp;TEXT(Z53,0)&amp;"+s5*"&amp;TEXT(AA53,0)&amp;"+s6*"&amp;TEXT(AB53,0)&amp;"+s7*"&amp;TEXT(AC53,0)&amp;"+s0*"&amp;TEXT(AD53,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R53)),S53,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R53)),S53,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R53)),S53,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R53)),S53,S53)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R53)),S53,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R53)),S53,0)&amp;"+e07*"&amp;IF(T53="反撃",U53,0)&amp;"+e08*"&amp;IF(T53="風属性",U53,0)&amp;"+e09*"&amp;IF(T53="闇属性",U53,0)&amp;"+e10*"&amp;IF(T53="単体",U53,0)&amp;"+e11*"&amp;IF(T53="範囲",U53,0)&amp;"+e12*"&amp;IF(T53="人",U53,0)&amp;"+e13*"&amp;IF(T53="異族",U53,0)&amp;"+e14*"&amp;IF(T53="バジュラ",U53,0)&amp;"+e15*"&amp;IF(T53="魔動人形",U53,0)&amp;");"</f>
-        <v>document.getElementById('m051').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI53&amp;"').innerHTML = (b1*"&amp;TEXT(J53,0)&amp;"+b2*"&amp;TEXT(K53,0)&amp;"+b0*"&amp;TEXT(L53,0)&amp;") + (s1*"&amp;TEXT(W53,0)&amp;"+s2*"&amp;TEXT(X53,0)&amp;"+s3*"&amp;TEXT(Y53,0)&amp;"+s4*"&amp;TEXT(Z53,0)&amp;"+s5*"&amp;TEXT(AA53,0)&amp;"+s6*"&amp;TEXT(AB53,0)&amp;"+s7*"&amp;TEXT(AC53,0)&amp;"+s0*"&amp;TEXT(AD53,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R53)),S53,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R53)),S53,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R53)),S53,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R53)),S53,S53)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R53)),S53,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R53)),S53,0)&amp;"+e07*"&amp;IF(T53="反撃",U53,0)&amp;"+e08*"&amp;IF(T53="風属性",U53,0)&amp;"+e09*"&amp;IF(T53="闇属性",U53,0)&amp;"+e10*"&amp;IF(T53="単体",U53,0)&amp;"+e11*"&amp;IF(T53="範囲",U53,0)&amp;"+e12*"&amp;IF(T53="人",U53,0)&amp;"+e13*"&amp;IF(T53="異族",U53,0)&amp;"+e14*"&amp;IF(T53="バジュラ",U53,0)&amp;"+e15*"&amp;IF(T53="魔動人形",U53,0)&amp;"+e16*"&amp;IF(T53="下位魔神",U53,0)&amp;");"</f>
+        <v>document.getElementById('m051').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI53" s="35" t="str">
         <f t="shared" si="4"/>
@@ -17765,8 +17824,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m052'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH54" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI54&amp;"').innerHTML = (b1*"&amp;TEXT(J54,0)&amp;"+b2*"&amp;TEXT(K54,0)&amp;"+b0*"&amp;TEXT(L54,0)&amp;") + (s1*"&amp;TEXT(W54,0)&amp;"+s2*"&amp;TEXT(X54,0)&amp;"+s3*"&amp;TEXT(Y54,0)&amp;"+s4*"&amp;TEXT(Z54,0)&amp;"+s5*"&amp;TEXT(AA54,0)&amp;"+s6*"&amp;TEXT(AB54,0)&amp;"+s7*"&amp;TEXT(AC54,0)&amp;"+s0*"&amp;TEXT(AD54,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R54)),S54,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R54)),S54,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R54)),S54,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R54)),S54,S54)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R54)),S54,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R54)),S54,0)&amp;"+e07*"&amp;IF(T54="反撃",U54,0)&amp;"+e08*"&amp;IF(T54="風属性",U54,0)&amp;"+e09*"&amp;IF(T54="闇属性",U54,0)&amp;"+e10*"&amp;IF(T54="単体",U54,0)&amp;"+e11*"&amp;IF(T54="範囲",U54,0)&amp;"+e12*"&amp;IF(T54="人",U54,0)&amp;"+e13*"&amp;IF(T54="異族",U54,0)&amp;"+e14*"&amp;IF(T54="バジュラ",U54,0)&amp;"+e15*"&amp;IF(T54="魔動人形",U54,0)&amp;");"</f>
-        <v>document.getElementById('m052').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI54&amp;"').innerHTML = (b1*"&amp;TEXT(J54,0)&amp;"+b2*"&amp;TEXT(K54,0)&amp;"+b0*"&amp;TEXT(L54,0)&amp;") + (s1*"&amp;TEXT(W54,0)&amp;"+s2*"&amp;TEXT(X54,0)&amp;"+s3*"&amp;TEXT(Y54,0)&amp;"+s4*"&amp;TEXT(Z54,0)&amp;"+s5*"&amp;TEXT(AA54,0)&amp;"+s6*"&amp;TEXT(AB54,0)&amp;"+s7*"&amp;TEXT(AC54,0)&amp;"+s0*"&amp;TEXT(AD54,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R54)),S54,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R54)),S54,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R54)),S54,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R54)),S54,S54)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R54)),S54,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R54)),S54,0)&amp;"+e07*"&amp;IF(T54="反撃",U54,0)&amp;"+e08*"&amp;IF(T54="風属性",U54,0)&amp;"+e09*"&amp;IF(T54="闇属性",U54,0)&amp;"+e10*"&amp;IF(T54="単体",U54,0)&amp;"+e11*"&amp;IF(T54="範囲",U54,0)&amp;"+e12*"&amp;IF(T54="人",U54,0)&amp;"+e13*"&amp;IF(T54="異族",U54,0)&amp;"+e14*"&amp;IF(T54="バジュラ",U54,0)&amp;"+e15*"&amp;IF(T54="魔動人形",U54,0)&amp;"+e16*"&amp;IF(T54="下位魔神",U54,0)&amp;");"</f>
+        <v>document.getElementById('m052').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI54" s="35" t="str">
         <f t="shared" si="4"/>
@@ -17816,8 +17875,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m053'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH55" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI55&amp;"').innerHTML = (b1*"&amp;TEXT(J55,0)&amp;"+b2*"&amp;TEXT(K55,0)&amp;"+b0*"&amp;TEXT(L55,0)&amp;") + (s1*"&amp;TEXT(W55,0)&amp;"+s2*"&amp;TEXT(X55,0)&amp;"+s3*"&amp;TEXT(Y55,0)&amp;"+s4*"&amp;TEXT(Z55,0)&amp;"+s5*"&amp;TEXT(AA55,0)&amp;"+s6*"&amp;TEXT(AB55,0)&amp;"+s7*"&amp;TEXT(AC55,0)&amp;"+s0*"&amp;TEXT(AD55,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R55)),S55,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R55)),S55,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R55)),S55,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R55)),S55,S55)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R55)),S55,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R55)),S55,0)&amp;"+e07*"&amp;IF(T55="反撃",U55,0)&amp;"+e08*"&amp;IF(T55="風属性",U55,0)&amp;"+e09*"&amp;IF(T55="闇属性",U55,0)&amp;"+e10*"&amp;IF(T55="単体",U55,0)&amp;"+e11*"&amp;IF(T55="範囲",U55,0)&amp;"+e12*"&amp;IF(T55="人",U55,0)&amp;"+e13*"&amp;IF(T55="異族",U55,0)&amp;"+e14*"&amp;IF(T55="バジュラ",U55,0)&amp;"+e15*"&amp;IF(T55="魔動人形",U55,0)&amp;");"</f>
-        <v>document.getElementById('m053').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI55&amp;"').innerHTML = (b1*"&amp;TEXT(J55,0)&amp;"+b2*"&amp;TEXT(K55,0)&amp;"+b0*"&amp;TEXT(L55,0)&amp;") + (s1*"&amp;TEXT(W55,0)&amp;"+s2*"&amp;TEXT(X55,0)&amp;"+s3*"&amp;TEXT(Y55,0)&amp;"+s4*"&amp;TEXT(Z55,0)&amp;"+s5*"&amp;TEXT(AA55,0)&amp;"+s6*"&amp;TEXT(AB55,0)&amp;"+s7*"&amp;TEXT(AC55,0)&amp;"+s0*"&amp;TEXT(AD55,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R55)),S55,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R55)),S55,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R55)),S55,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R55)),S55,S55)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R55)),S55,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R55)),S55,0)&amp;"+e07*"&amp;IF(T55="反撃",U55,0)&amp;"+e08*"&amp;IF(T55="風属性",U55,0)&amp;"+e09*"&amp;IF(T55="闇属性",U55,0)&amp;"+e10*"&amp;IF(T55="単体",U55,0)&amp;"+e11*"&amp;IF(T55="範囲",U55,0)&amp;"+e12*"&amp;IF(T55="人",U55,0)&amp;"+e13*"&amp;IF(T55="異族",U55,0)&amp;"+e14*"&amp;IF(T55="バジュラ",U55,0)&amp;"+e15*"&amp;IF(T55="魔動人形",U55,0)&amp;"+e16*"&amp;IF(T55="下位魔神",U55,0)&amp;");"</f>
+        <v>document.getElementById('m053').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI55" s="35" t="str">
         <f t="shared" si="4"/>
@@ -17880,8 +17939,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m054'&gt;40&lt;/td&gt;&lt;td headers='HP'&gt;10&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;打撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;魅了+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH56" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI56&amp;"').innerHTML = (b1*"&amp;TEXT(J56,0)&amp;"+b2*"&amp;TEXT(K56,0)&amp;"+b0*"&amp;TEXT(L56,0)&amp;") + (s1*"&amp;TEXT(W56,0)&amp;"+s2*"&amp;TEXT(X56,0)&amp;"+s3*"&amp;TEXT(Y56,0)&amp;"+s4*"&amp;TEXT(Z56,0)&amp;"+s5*"&amp;TEXT(AA56,0)&amp;"+s6*"&amp;TEXT(AB56,0)&amp;"+s7*"&amp;TEXT(AC56,0)&amp;"+s0*"&amp;TEXT(AD56,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R56)),S56,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R56)),S56,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R56)),S56,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R56)),S56,S56)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R56)),S56,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R56)),S56,0)&amp;"+e07*"&amp;IF(T56="反撃",U56,0)&amp;"+e08*"&amp;IF(T56="風属性",U56,0)&amp;"+e09*"&amp;IF(T56="闇属性",U56,0)&amp;"+e10*"&amp;IF(T56="単体",U56,0)&amp;"+e11*"&amp;IF(T56="範囲",U56,0)&amp;"+e12*"&amp;IF(T56="人",U56,0)&amp;"+e13*"&amp;IF(T56="異族",U56,0)&amp;"+e14*"&amp;IF(T56="バジュラ",U56,0)&amp;"+e15*"&amp;IF(T56="魔動人形",U56,0)&amp;");"</f>
-        <v>document.getElementById('m054').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*40+e04*40+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI56&amp;"').innerHTML = (b1*"&amp;TEXT(J56,0)&amp;"+b2*"&amp;TEXT(K56,0)&amp;"+b0*"&amp;TEXT(L56,0)&amp;") + (s1*"&amp;TEXT(W56,0)&amp;"+s2*"&amp;TEXT(X56,0)&amp;"+s3*"&amp;TEXT(Y56,0)&amp;"+s4*"&amp;TEXT(Z56,0)&amp;"+s5*"&amp;TEXT(AA56,0)&amp;"+s6*"&amp;TEXT(AB56,0)&amp;"+s7*"&amp;TEXT(AC56,0)&amp;"+s0*"&amp;TEXT(AD56,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R56)),S56,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R56)),S56,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R56)),S56,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R56)),S56,S56)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R56)),S56,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R56)),S56,0)&amp;"+e07*"&amp;IF(T56="反撃",U56,0)&amp;"+e08*"&amp;IF(T56="風属性",U56,0)&amp;"+e09*"&amp;IF(T56="闇属性",U56,0)&amp;"+e10*"&amp;IF(T56="単体",U56,0)&amp;"+e11*"&amp;IF(T56="範囲",U56,0)&amp;"+e12*"&amp;IF(T56="人",U56,0)&amp;"+e13*"&amp;IF(T56="異族",U56,0)&amp;"+e14*"&amp;IF(T56="バジュラ",U56,0)&amp;"+e15*"&amp;IF(T56="魔動人形",U56,0)&amp;"+e16*"&amp;IF(T56="下位魔神",U56,0)&amp;");"</f>
+        <v>document.getElementById('m054').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*40+e04*40+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI56" s="35" t="str">
         <f t="shared" si="4"/>
@@ -17934,8 +17993,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m055'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH57" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI57&amp;"').innerHTML = (b1*"&amp;TEXT(J57,0)&amp;"+b2*"&amp;TEXT(K57,0)&amp;"+b0*"&amp;TEXT(L57,0)&amp;") + (s1*"&amp;TEXT(W57,0)&amp;"+s2*"&amp;TEXT(X57,0)&amp;"+s3*"&amp;TEXT(Y57,0)&amp;"+s4*"&amp;TEXT(Z57,0)&amp;"+s5*"&amp;TEXT(AA57,0)&amp;"+s6*"&amp;TEXT(AB57,0)&amp;"+s7*"&amp;TEXT(AC57,0)&amp;"+s0*"&amp;TEXT(AD57,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R57)),S57,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R57)),S57,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R57)),S57,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R57)),S57,S57)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R57)),S57,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R57)),S57,0)&amp;"+e07*"&amp;IF(T57="反撃",U57,0)&amp;"+e08*"&amp;IF(T57="風属性",U57,0)&amp;"+e09*"&amp;IF(T57="闇属性",U57,0)&amp;"+e10*"&amp;IF(T57="単体",U57,0)&amp;"+e11*"&amp;IF(T57="範囲",U57,0)&amp;"+e12*"&amp;IF(T57="人",U57,0)&amp;"+e13*"&amp;IF(T57="異族",U57,0)&amp;"+e14*"&amp;IF(T57="バジュラ",U57,0)&amp;"+e15*"&amp;IF(T57="魔動人形",U57,0)&amp;");"</f>
-        <v>document.getElementById('m055').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI57&amp;"').innerHTML = (b1*"&amp;TEXT(J57,0)&amp;"+b2*"&amp;TEXT(K57,0)&amp;"+b0*"&amp;TEXT(L57,0)&amp;") + (s1*"&amp;TEXT(W57,0)&amp;"+s2*"&amp;TEXT(X57,0)&amp;"+s3*"&amp;TEXT(Y57,0)&amp;"+s4*"&amp;TEXT(Z57,0)&amp;"+s5*"&amp;TEXT(AA57,0)&amp;"+s6*"&amp;TEXT(AB57,0)&amp;"+s7*"&amp;TEXT(AC57,0)&amp;"+s0*"&amp;TEXT(AD57,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R57)),S57,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R57)),S57,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R57)),S57,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R57)),S57,S57)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R57)),S57,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R57)),S57,0)&amp;"+e07*"&amp;IF(T57="反撃",U57,0)&amp;"+e08*"&amp;IF(T57="風属性",U57,0)&amp;"+e09*"&amp;IF(T57="闇属性",U57,0)&amp;"+e10*"&amp;IF(T57="単体",U57,0)&amp;"+e11*"&amp;IF(T57="範囲",U57,0)&amp;"+e12*"&amp;IF(T57="人",U57,0)&amp;"+e13*"&amp;IF(T57="異族",U57,0)&amp;"+e14*"&amp;IF(T57="バジュラ",U57,0)&amp;"+e15*"&amp;IF(T57="魔動人形",U57,0)&amp;"+e16*"&amp;IF(T57="下位魔神",U57,0)&amp;");"</f>
+        <v>document.getElementById('m055').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI57" s="35" t="str">
         <f t="shared" si="4"/>
@@ -17996,8 +18055,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;緋炎騎士団&lt;/td&gt;&lt;td headers='score' id='m056'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;60&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH58" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI58&amp;"').innerHTML = (b1*"&amp;TEXT(J58,0)&amp;"+b2*"&amp;TEXT(K58,0)&amp;"+b0*"&amp;TEXT(L58,0)&amp;") + (s1*"&amp;TEXT(W58,0)&amp;"+s2*"&amp;TEXT(X58,0)&amp;"+s3*"&amp;TEXT(Y58,0)&amp;"+s4*"&amp;TEXT(Z58,0)&amp;"+s5*"&amp;TEXT(AA58,0)&amp;"+s6*"&amp;TEXT(AB58,0)&amp;"+s7*"&amp;TEXT(AC58,0)&amp;"+s0*"&amp;TEXT(AD58,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R58)),S58,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R58)),S58,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R58)),S58,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R58)),S58,S58)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R58)),S58,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R58)),S58,0)&amp;"+e07*"&amp;IF(T58="反撃",U58,0)&amp;"+e08*"&amp;IF(T58="風属性",U58,0)&amp;"+e09*"&amp;IF(T58="闇属性",U58,0)&amp;"+e10*"&amp;IF(T58="単体",U58,0)&amp;"+e11*"&amp;IF(T58="範囲",U58,0)&amp;"+e12*"&amp;IF(T58="人",U58,0)&amp;"+e13*"&amp;IF(T58="異族",U58,0)&amp;"+e14*"&amp;IF(T58="バジュラ",U58,0)&amp;"+e15*"&amp;IF(T58="魔動人形",U58,0)&amp;");"</f>
-        <v>document.getElementById('m056').innerHTML = (b1*30+b2*30+b0*30) + (s1*0+s2*0+s3*0+s4*0+s5*60+s6*0+s7*0+s0*60) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI58&amp;"').innerHTML = (b1*"&amp;TEXT(J58,0)&amp;"+b2*"&amp;TEXT(K58,0)&amp;"+b0*"&amp;TEXT(L58,0)&amp;") + (s1*"&amp;TEXT(W58,0)&amp;"+s2*"&amp;TEXT(X58,0)&amp;"+s3*"&amp;TEXT(Y58,0)&amp;"+s4*"&amp;TEXT(Z58,0)&amp;"+s5*"&amp;TEXT(AA58,0)&amp;"+s6*"&amp;TEXT(AB58,0)&amp;"+s7*"&amp;TEXT(AC58,0)&amp;"+s0*"&amp;TEXT(AD58,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R58)),S58,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R58)),S58,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R58)),S58,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R58)),S58,S58)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R58)),S58,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R58)),S58,0)&amp;"+e07*"&amp;IF(T58="反撃",U58,0)&amp;"+e08*"&amp;IF(T58="風属性",U58,0)&amp;"+e09*"&amp;IF(T58="闇属性",U58,0)&amp;"+e10*"&amp;IF(T58="単体",U58,0)&amp;"+e11*"&amp;IF(T58="範囲",U58,0)&amp;"+e12*"&amp;IF(T58="人",U58,0)&amp;"+e13*"&amp;IF(T58="異族",U58,0)&amp;"+e14*"&amp;IF(T58="バジュラ",U58,0)&amp;"+e15*"&amp;IF(T58="魔動人形",U58,0)&amp;"+e16*"&amp;IF(T58="下位魔神",U58,0)&amp;");"</f>
+        <v>document.getElementById('m056').innerHTML = (b1*30+b2*30+b0*30) + (s1*0+s2*0+s3*0+s4*0+s5*60+s6*0+s7*0+s0*60) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI58" s="35" t="str">
         <f t="shared" si="4"/>
@@ -18064,8 +18123,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;緋炎騎士団&lt;/td&gt;&lt;td headers='score' id='m057'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;20&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH59" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI59&amp;"').innerHTML = (b1*"&amp;TEXT(J59,0)&amp;"+b2*"&amp;TEXT(K59,0)&amp;"+b0*"&amp;TEXT(L59,0)&amp;") + (s1*"&amp;TEXT(W59,0)&amp;"+s2*"&amp;TEXT(X59,0)&amp;"+s3*"&amp;TEXT(Y59,0)&amp;"+s4*"&amp;TEXT(Z59,0)&amp;"+s5*"&amp;TEXT(AA59,0)&amp;"+s6*"&amp;TEXT(AB59,0)&amp;"+s7*"&amp;TEXT(AC59,0)&amp;"+s0*"&amp;TEXT(AD59,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R59)),S59,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R59)),S59,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R59)),S59,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R59)),S59,S59)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R59)),S59,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R59)),S59,0)&amp;"+e07*"&amp;IF(T59="反撃",U59,0)&amp;"+e08*"&amp;IF(T59="風属性",U59,0)&amp;"+e09*"&amp;IF(T59="闇属性",U59,0)&amp;"+e10*"&amp;IF(T59="単体",U59,0)&amp;"+e11*"&amp;IF(T59="範囲",U59,0)&amp;"+e12*"&amp;IF(T59="人",U59,0)&amp;"+e13*"&amp;IF(T59="異族",U59,0)&amp;"+e14*"&amp;IF(T59="バジュラ",U59,0)&amp;"+e15*"&amp;IF(T59="魔動人形",U59,0)&amp;");"</f>
-        <v>document.getElementById('m057').innerHTML = (b1*30+b2*20+b0*30) + (s1*0+s2*0+s3*0+s4*0+s5*30+s6*30+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI59&amp;"').innerHTML = (b1*"&amp;TEXT(J59,0)&amp;"+b2*"&amp;TEXT(K59,0)&amp;"+b0*"&amp;TEXT(L59,0)&amp;") + (s1*"&amp;TEXT(W59,0)&amp;"+s2*"&amp;TEXT(X59,0)&amp;"+s3*"&amp;TEXT(Y59,0)&amp;"+s4*"&amp;TEXT(Z59,0)&amp;"+s5*"&amp;TEXT(AA59,0)&amp;"+s6*"&amp;TEXT(AB59,0)&amp;"+s7*"&amp;TEXT(AC59,0)&amp;"+s0*"&amp;TEXT(AD59,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R59)),S59,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R59)),S59,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R59)),S59,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R59)),S59,S59)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R59)),S59,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R59)),S59,0)&amp;"+e07*"&amp;IF(T59="反撃",U59,0)&amp;"+e08*"&amp;IF(T59="風属性",U59,0)&amp;"+e09*"&amp;IF(T59="闇属性",U59,0)&amp;"+e10*"&amp;IF(T59="単体",U59,0)&amp;"+e11*"&amp;IF(T59="範囲",U59,0)&amp;"+e12*"&amp;IF(T59="人",U59,0)&amp;"+e13*"&amp;IF(T59="異族",U59,0)&amp;"+e14*"&amp;IF(T59="バジュラ",U59,0)&amp;"+e15*"&amp;IF(T59="魔動人形",U59,0)&amp;"+e16*"&amp;IF(T59="下位魔神",U59,0)&amp;");"</f>
+        <v>document.getElementById('m057').innerHTML = (b1*30+b2*20+b0*30) + (s1*0+s2*0+s3*0+s4*0+s5*30+s6*30+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI59" s="35" t="str">
         <f t="shared" si="4"/>
@@ -18126,8 +18185,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m058'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;60&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH60" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI60&amp;"').innerHTML = (b1*"&amp;TEXT(J60,0)&amp;"+b2*"&amp;TEXT(K60,0)&amp;"+b0*"&amp;TEXT(L60,0)&amp;") + (s1*"&amp;TEXT(W60,0)&amp;"+s2*"&amp;TEXT(X60,0)&amp;"+s3*"&amp;TEXT(Y60,0)&amp;"+s4*"&amp;TEXT(Z60,0)&amp;"+s5*"&amp;TEXT(AA60,0)&amp;"+s6*"&amp;TEXT(AB60,0)&amp;"+s7*"&amp;TEXT(AC60,0)&amp;"+s0*"&amp;TEXT(AD60,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R60)),S60,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R60)),S60,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R60)),S60,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R60)),S60,S60)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R60)),S60,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R60)),S60,0)&amp;"+e07*"&amp;IF(T60="反撃",U60,0)&amp;"+e08*"&amp;IF(T60="風属性",U60,0)&amp;"+e09*"&amp;IF(T60="闇属性",U60,0)&amp;"+e10*"&amp;IF(T60="単体",U60,0)&amp;"+e11*"&amp;IF(T60="範囲",U60,0)&amp;"+e12*"&amp;IF(T60="人",U60,0)&amp;"+e13*"&amp;IF(T60="異族",U60,0)&amp;"+e14*"&amp;IF(T60="バジュラ",U60,0)&amp;"+e15*"&amp;IF(T60="魔動人形",U60,0)&amp;");"</f>
-        <v>document.getElementById('m058').innerHTML = (b1*30+b2*30+b0*30) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*60+s7*0+s0*60) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI60&amp;"').innerHTML = (b1*"&amp;TEXT(J60,0)&amp;"+b2*"&amp;TEXT(K60,0)&amp;"+b0*"&amp;TEXT(L60,0)&amp;") + (s1*"&amp;TEXT(W60,0)&amp;"+s2*"&amp;TEXT(X60,0)&amp;"+s3*"&amp;TEXT(Y60,0)&amp;"+s4*"&amp;TEXT(Z60,0)&amp;"+s5*"&amp;TEXT(AA60,0)&amp;"+s6*"&amp;TEXT(AB60,0)&amp;"+s7*"&amp;TEXT(AC60,0)&amp;"+s0*"&amp;TEXT(AD60,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R60)),S60,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R60)),S60,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R60)),S60,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R60)),S60,S60)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R60)),S60,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R60)),S60,0)&amp;"+e07*"&amp;IF(T60="反撃",U60,0)&amp;"+e08*"&amp;IF(T60="風属性",U60,0)&amp;"+e09*"&amp;IF(T60="闇属性",U60,0)&amp;"+e10*"&amp;IF(T60="単体",U60,0)&amp;"+e11*"&amp;IF(T60="範囲",U60,0)&amp;"+e12*"&amp;IF(T60="人",U60,0)&amp;"+e13*"&amp;IF(T60="異族",U60,0)&amp;"+e14*"&amp;IF(T60="バジュラ",U60,0)&amp;"+e15*"&amp;IF(T60="魔動人形",U60,0)&amp;"+e16*"&amp;IF(T60="下位魔神",U60,0)&amp;");"</f>
+        <v>document.getElementById('m058').innerHTML = (b1*30+b2*30+b0*30) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*60+s7*0+s0*60) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI60" s="35" t="str">
         <f t="shared" si="4"/>
@@ -18196,8 +18255,8 @@
 Envylia&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m059'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;50&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;25&lt;/td&gt;&lt;td headers='mdef'&gt;25&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH61" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI61&amp;"').innerHTML = (b1*"&amp;TEXT(J61,0)&amp;"+b2*"&amp;TEXT(K61,0)&amp;"+b0*"&amp;TEXT(L61,0)&amp;") + (s1*"&amp;TEXT(W61,0)&amp;"+s2*"&amp;TEXT(X61,0)&amp;"+s3*"&amp;TEXT(Y61,0)&amp;"+s4*"&amp;TEXT(Z61,0)&amp;"+s5*"&amp;TEXT(AA61,0)&amp;"+s6*"&amp;TEXT(AB61,0)&amp;"+s7*"&amp;TEXT(AC61,0)&amp;"+s0*"&amp;TEXT(AD61,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R61)),S61,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R61)),S61,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R61)),S61,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R61)),S61,S61)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R61)),S61,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R61)),S61,0)&amp;"+e07*"&amp;IF(T61="反撃",U61,0)&amp;"+e08*"&amp;IF(T61="風属性",U61,0)&amp;"+e09*"&amp;IF(T61="闇属性",U61,0)&amp;"+e10*"&amp;IF(T61="単体",U61,0)&amp;"+e11*"&amp;IF(T61="範囲",U61,0)&amp;"+e12*"&amp;IF(T61="人",U61,0)&amp;"+e13*"&amp;IF(T61="異族",U61,0)&amp;"+e14*"&amp;IF(T61="バジュラ",U61,0)&amp;"+e15*"&amp;IF(T61="魔動人形",U61,0)&amp;");"</f>
-        <v>document.getElementById('m059').innerHTML = (b1*50+b2*0+b0*50) + (s1*30+s2*0+s3*0+s4*0+s5*0+s6*30+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI61&amp;"').innerHTML = (b1*"&amp;TEXT(J61,0)&amp;"+b2*"&amp;TEXT(K61,0)&amp;"+b0*"&amp;TEXT(L61,0)&amp;") + (s1*"&amp;TEXT(W61,0)&amp;"+s2*"&amp;TEXT(X61,0)&amp;"+s3*"&amp;TEXT(Y61,0)&amp;"+s4*"&amp;TEXT(Z61,0)&amp;"+s5*"&amp;TEXT(AA61,0)&amp;"+s6*"&amp;TEXT(AB61,0)&amp;"+s7*"&amp;TEXT(AC61,0)&amp;"+s0*"&amp;TEXT(AD61,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R61)),S61,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R61)),S61,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R61)),S61,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R61)),S61,S61)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R61)),S61,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R61)),S61,0)&amp;"+e07*"&amp;IF(T61="反撃",U61,0)&amp;"+e08*"&amp;IF(T61="風属性",U61,0)&amp;"+e09*"&amp;IF(T61="闇属性",U61,0)&amp;"+e10*"&amp;IF(T61="単体",U61,0)&amp;"+e11*"&amp;IF(T61="範囲",U61,0)&amp;"+e12*"&amp;IF(T61="人",U61,0)&amp;"+e13*"&amp;IF(T61="異族",U61,0)&amp;"+e14*"&amp;IF(T61="バジュラ",U61,0)&amp;"+e15*"&amp;IF(T61="魔動人形",U61,0)&amp;"+e16*"&amp;IF(T61="下位魔神",U61,0)&amp;");"</f>
+        <v>document.getElementById('m059').innerHTML = (b1*50+b2*0+b0*50) + (s1*30+s2*0+s3*0+s4*0+s5*0+s6*30+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI61" s="35" t="str">
         <f t="shared" si="4"/>
@@ -18250,8 +18309,8 @@
 Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m060'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH62" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI62&amp;"').innerHTML = (b1*"&amp;TEXT(J62,0)&amp;"+b2*"&amp;TEXT(K62,0)&amp;"+b0*"&amp;TEXT(L62,0)&amp;") + (s1*"&amp;TEXT(W62,0)&amp;"+s2*"&amp;TEXT(X62,0)&amp;"+s3*"&amp;TEXT(Y62,0)&amp;"+s4*"&amp;TEXT(Z62,0)&amp;"+s5*"&amp;TEXT(AA62,0)&amp;"+s6*"&amp;TEXT(AB62,0)&amp;"+s7*"&amp;TEXT(AC62,0)&amp;"+s0*"&amp;TEXT(AD62,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R62)),S62,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R62)),S62,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R62)),S62,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R62)),S62,S62)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R62)),S62,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R62)),S62,0)&amp;"+e07*"&amp;IF(T62="反撃",U62,0)&amp;"+e08*"&amp;IF(T62="風属性",U62,0)&amp;"+e09*"&amp;IF(T62="闇属性",U62,0)&amp;"+e10*"&amp;IF(T62="単体",U62,0)&amp;"+e11*"&amp;IF(T62="範囲",U62,0)&amp;"+e12*"&amp;IF(T62="人",U62,0)&amp;"+e13*"&amp;IF(T62="異族",U62,0)&amp;"+e14*"&amp;IF(T62="バジュラ",U62,0)&amp;"+e15*"&amp;IF(T62="魔動人形",U62,0)&amp;");"</f>
-        <v>document.getElementById('m060').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI62&amp;"').innerHTML = (b1*"&amp;TEXT(J62,0)&amp;"+b2*"&amp;TEXT(K62,0)&amp;"+b0*"&amp;TEXT(L62,0)&amp;") + (s1*"&amp;TEXT(W62,0)&amp;"+s2*"&amp;TEXT(X62,0)&amp;"+s3*"&amp;TEXT(Y62,0)&amp;"+s4*"&amp;TEXT(Z62,0)&amp;"+s5*"&amp;TEXT(AA62,0)&amp;"+s6*"&amp;TEXT(AB62,0)&amp;"+s7*"&amp;TEXT(AC62,0)&amp;"+s0*"&amp;TEXT(AD62,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R62)),S62,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R62)),S62,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R62)),S62,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R62)),S62,S62)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R62)),S62,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R62)),S62,0)&amp;"+e07*"&amp;IF(T62="反撃",U62,0)&amp;"+e08*"&amp;IF(T62="風属性",U62,0)&amp;"+e09*"&amp;IF(T62="闇属性",U62,0)&amp;"+e10*"&amp;IF(T62="単体",U62,0)&amp;"+e11*"&amp;IF(T62="範囲",U62,0)&amp;"+e12*"&amp;IF(T62="人",U62,0)&amp;"+e13*"&amp;IF(T62="異族",U62,0)&amp;"+e14*"&amp;IF(T62="バジュラ",U62,0)&amp;"+e15*"&amp;IF(T62="魔動人形",U62,0)&amp;"+e16*"&amp;IF(T62="下位魔神",U62,0)&amp;");"</f>
+        <v>document.getElementById('m060').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI62" s="35" t="str">
         <f t="shared" si="4"/>
@@ -18304,8 +18363,8 @@
 Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m061'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH63" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI63&amp;"').innerHTML = (b1*"&amp;TEXT(J63,0)&amp;"+b2*"&amp;TEXT(K63,0)&amp;"+b0*"&amp;TEXT(L63,0)&amp;") + (s1*"&amp;TEXT(W63,0)&amp;"+s2*"&amp;TEXT(X63,0)&amp;"+s3*"&amp;TEXT(Y63,0)&amp;"+s4*"&amp;TEXT(Z63,0)&amp;"+s5*"&amp;TEXT(AA63,0)&amp;"+s6*"&amp;TEXT(AB63,0)&amp;"+s7*"&amp;TEXT(AC63,0)&amp;"+s0*"&amp;TEXT(AD63,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R63)),S63,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R63)),S63,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R63)),S63,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R63)),S63,S63)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R63)),S63,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R63)),S63,0)&amp;"+e07*"&amp;IF(T63="反撃",U63,0)&amp;"+e08*"&amp;IF(T63="風属性",U63,0)&amp;"+e09*"&amp;IF(T63="闇属性",U63,0)&amp;"+e10*"&amp;IF(T63="単体",U63,0)&amp;"+e11*"&amp;IF(T63="範囲",U63,0)&amp;"+e12*"&amp;IF(T63="人",U63,0)&amp;"+e13*"&amp;IF(T63="異族",U63,0)&amp;"+e14*"&amp;IF(T63="バジュラ",U63,0)&amp;"+e15*"&amp;IF(T63="魔動人形",U63,0)&amp;");"</f>
-        <v>document.getElementById('m061').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI63&amp;"').innerHTML = (b1*"&amp;TEXT(J63,0)&amp;"+b2*"&amp;TEXT(K63,0)&amp;"+b0*"&amp;TEXT(L63,0)&amp;") + (s1*"&amp;TEXT(W63,0)&amp;"+s2*"&amp;TEXT(X63,0)&amp;"+s3*"&amp;TEXT(Y63,0)&amp;"+s4*"&amp;TEXT(Z63,0)&amp;"+s5*"&amp;TEXT(AA63,0)&amp;"+s6*"&amp;TEXT(AB63,0)&amp;"+s7*"&amp;TEXT(AC63,0)&amp;"+s0*"&amp;TEXT(AD63,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R63)),S63,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R63)),S63,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R63)),S63,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R63)),S63,S63)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R63)),S63,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R63)),S63,0)&amp;"+e07*"&amp;IF(T63="反撃",U63,0)&amp;"+e08*"&amp;IF(T63="風属性",U63,0)&amp;"+e09*"&amp;IF(T63="闇属性",U63,0)&amp;"+e10*"&amp;IF(T63="単体",U63,0)&amp;"+e11*"&amp;IF(T63="範囲",U63,0)&amp;"+e12*"&amp;IF(T63="人",U63,0)&amp;"+e13*"&amp;IF(T63="異族",U63,0)&amp;"+e14*"&amp;IF(T63="バジュラ",U63,0)&amp;"+e15*"&amp;IF(T63="魔動人形",U63,0)&amp;"+e16*"&amp;IF(T63="下位魔神",U63,0)&amp;");"</f>
+        <v>document.getElementById('m061').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI63" s="35" t="str">
         <f t="shared" si="4"/>
@@ -18358,8 +18417,8 @@
 Glttony Foss&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m062'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH64" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI64&amp;"').innerHTML = (b1*"&amp;TEXT(J64,0)&amp;"+b2*"&amp;TEXT(K64,0)&amp;"+b0*"&amp;TEXT(L64,0)&amp;") + (s1*"&amp;TEXT(W64,0)&amp;"+s2*"&amp;TEXT(X64,0)&amp;"+s3*"&amp;TEXT(Y64,0)&amp;"+s4*"&amp;TEXT(Z64,0)&amp;"+s5*"&amp;TEXT(AA64,0)&amp;"+s6*"&amp;TEXT(AB64,0)&amp;"+s7*"&amp;TEXT(AC64,0)&amp;"+s0*"&amp;TEXT(AD64,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R64)),S64,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R64)),S64,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R64)),S64,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R64)),S64,S64)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R64)),S64,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R64)),S64,0)&amp;"+e07*"&amp;IF(T64="反撃",U64,0)&amp;"+e08*"&amp;IF(T64="風属性",U64,0)&amp;"+e09*"&amp;IF(T64="闇属性",U64,0)&amp;"+e10*"&amp;IF(T64="単体",U64,0)&amp;"+e11*"&amp;IF(T64="範囲",U64,0)&amp;"+e12*"&amp;IF(T64="人",U64,0)&amp;"+e13*"&amp;IF(T64="異族",U64,0)&amp;"+e14*"&amp;IF(T64="バジュラ",U64,0)&amp;"+e15*"&amp;IF(T64="魔動人形",U64,0)&amp;");"</f>
-        <v>document.getElementById('m062').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI64&amp;"').innerHTML = (b1*"&amp;TEXT(J64,0)&amp;"+b2*"&amp;TEXT(K64,0)&amp;"+b0*"&amp;TEXT(L64,0)&amp;") + (s1*"&amp;TEXT(W64,0)&amp;"+s2*"&amp;TEXT(X64,0)&amp;"+s3*"&amp;TEXT(Y64,0)&amp;"+s4*"&amp;TEXT(Z64,0)&amp;"+s5*"&amp;TEXT(AA64,0)&amp;"+s6*"&amp;TEXT(AB64,0)&amp;"+s7*"&amp;TEXT(AC64,0)&amp;"+s0*"&amp;TEXT(AD64,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R64)),S64,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R64)),S64,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R64)),S64,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R64)),S64,S64)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R64)),S64,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R64)),S64,0)&amp;"+e07*"&amp;IF(T64="反撃",U64,0)&amp;"+e08*"&amp;IF(T64="風属性",U64,0)&amp;"+e09*"&amp;IF(T64="闇属性",U64,0)&amp;"+e10*"&amp;IF(T64="単体",U64,0)&amp;"+e11*"&amp;IF(T64="範囲",U64,0)&amp;"+e12*"&amp;IF(T64="人",U64,0)&amp;"+e13*"&amp;IF(T64="異族",U64,0)&amp;"+e14*"&amp;IF(T64="バジュラ",U64,0)&amp;"+e15*"&amp;IF(T64="魔動人形",U64,0)&amp;"+e16*"&amp;IF(T64="下位魔神",U64,0)&amp;");"</f>
+        <v>document.getElementById('m062').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI64" s="35" t="str">
         <f t="shared" si="4"/>
@@ -18369,10 +18428,10 @@
     </row>
     <row r="65" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D65" s="3">
         <v>5</v>
@@ -18412,8 +18471,8 @@
 Glttony Foss&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m063'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH65" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI65&amp;"').innerHTML = (b1*"&amp;TEXT(J65,0)&amp;"+b2*"&amp;TEXT(K65,0)&amp;"+b0*"&amp;TEXT(L65,0)&amp;") + (s1*"&amp;TEXT(W65,0)&amp;"+s2*"&amp;TEXT(X65,0)&amp;"+s3*"&amp;TEXT(Y65,0)&amp;"+s4*"&amp;TEXT(Z65,0)&amp;"+s5*"&amp;TEXT(AA65,0)&amp;"+s6*"&amp;TEXT(AB65,0)&amp;"+s7*"&amp;TEXT(AC65,0)&amp;"+s0*"&amp;TEXT(AD65,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R65)),S65,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R65)),S65,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R65)),S65,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R65)),S65,S65)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R65)),S65,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R65)),S65,0)&amp;"+e07*"&amp;IF(T65="反撃",U65,0)&amp;"+e08*"&amp;IF(T65="風属性",U65,0)&amp;"+e09*"&amp;IF(T65="闇属性",U65,0)&amp;"+e10*"&amp;IF(T65="単体",U65,0)&amp;"+e11*"&amp;IF(T65="範囲",U65,0)&amp;"+e12*"&amp;IF(T65="人",U65,0)&amp;"+e13*"&amp;IF(T65="異族",U65,0)&amp;"+e14*"&amp;IF(T65="バジュラ",U65,0)&amp;"+e15*"&amp;IF(T65="魔動人形",U65,0)&amp;");"</f>
-        <v>document.getElementById('m063').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI65&amp;"').innerHTML = (b1*"&amp;TEXT(J65,0)&amp;"+b2*"&amp;TEXT(K65,0)&amp;"+b0*"&amp;TEXT(L65,0)&amp;") + (s1*"&amp;TEXT(W65,0)&amp;"+s2*"&amp;TEXT(X65,0)&amp;"+s3*"&amp;TEXT(Y65,0)&amp;"+s4*"&amp;TEXT(Z65,0)&amp;"+s5*"&amp;TEXT(AA65,0)&amp;"+s6*"&amp;TEXT(AB65,0)&amp;"+s7*"&amp;TEXT(AC65,0)&amp;"+s0*"&amp;TEXT(AD65,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R65)),S65,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R65)),S65,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R65)),S65,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R65)),S65,S65)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R65)),S65,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R65)),S65,0)&amp;"+e07*"&amp;IF(T65="反撃",U65,0)&amp;"+e08*"&amp;IF(T65="風属性",U65,0)&amp;"+e09*"&amp;IF(T65="闇属性",U65,0)&amp;"+e10*"&amp;IF(T65="単体",U65,0)&amp;"+e11*"&amp;IF(T65="範囲",U65,0)&amp;"+e12*"&amp;IF(T65="人",U65,0)&amp;"+e13*"&amp;IF(T65="異族",U65,0)&amp;"+e14*"&amp;IF(T65="バジュラ",U65,0)&amp;"+e15*"&amp;IF(T65="魔動人形",U65,0)&amp;"+e16*"&amp;IF(T65="下位魔神",U65,0)&amp;");"</f>
+        <v>document.getElementById('m063').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI65" s="35" t="str">
         <f t="shared" si="4"/>
@@ -18466,8 +18525,8 @@
 Glttony Foss&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m064'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH66" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI66&amp;"').innerHTML = (b1*"&amp;TEXT(J66,0)&amp;"+b2*"&amp;TEXT(K66,0)&amp;"+b0*"&amp;TEXT(L66,0)&amp;") + (s1*"&amp;TEXT(W66,0)&amp;"+s2*"&amp;TEXT(X66,0)&amp;"+s3*"&amp;TEXT(Y66,0)&amp;"+s4*"&amp;TEXT(Z66,0)&amp;"+s5*"&amp;TEXT(AA66,0)&amp;"+s6*"&amp;TEXT(AB66,0)&amp;"+s7*"&amp;TEXT(AC66,0)&amp;"+s0*"&amp;TEXT(AD66,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R66)),S66,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R66)),S66,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R66)),S66,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R66)),S66,S66)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R66)),S66,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R66)),S66,0)&amp;"+e07*"&amp;IF(T66="反撃",U66,0)&amp;"+e08*"&amp;IF(T66="風属性",U66,0)&amp;"+e09*"&amp;IF(T66="闇属性",U66,0)&amp;"+e10*"&amp;IF(T66="単体",U66,0)&amp;"+e11*"&amp;IF(T66="範囲",U66,0)&amp;"+e12*"&amp;IF(T66="人",U66,0)&amp;"+e13*"&amp;IF(T66="異族",U66,0)&amp;"+e14*"&amp;IF(T66="バジュラ",U66,0)&amp;"+e15*"&amp;IF(T66="魔動人形",U66,0)&amp;");"</f>
-        <v>document.getElementById('m064').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI66&amp;"').innerHTML = (b1*"&amp;TEXT(J66,0)&amp;"+b2*"&amp;TEXT(K66,0)&amp;"+b0*"&amp;TEXT(L66,0)&amp;") + (s1*"&amp;TEXT(W66,0)&amp;"+s2*"&amp;TEXT(X66,0)&amp;"+s3*"&amp;TEXT(Y66,0)&amp;"+s4*"&amp;TEXT(Z66,0)&amp;"+s5*"&amp;TEXT(AA66,0)&amp;"+s6*"&amp;TEXT(AB66,0)&amp;"+s7*"&amp;TEXT(AC66,0)&amp;"+s0*"&amp;TEXT(AD66,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R66)),S66,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R66)),S66,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R66)),S66,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R66)),S66,S66)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R66)),S66,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R66)),S66,0)&amp;"+e07*"&amp;IF(T66="反撃",U66,0)&amp;"+e08*"&amp;IF(T66="風属性",U66,0)&amp;"+e09*"&amp;IF(T66="闇属性",U66,0)&amp;"+e10*"&amp;IF(T66="単体",U66,0)&amp;"+e11*"&amp;IF(T66="範囲",U66,0)&amp;"+e12*"&amp;IF(T66="人",U66,0)&amp;"+e13*"&amp;IF(T66="異族",U66,0)&amp;"+e14*"&amp;IF(T66="バジュラ",U66,0)&amp;"+e15*"&amp;IF(T66="魔動人形",U66,0)&amp;"+e16*"&amp;IF(T66="下位魔神",U66,0)&amp;");"</f>
+        <v>document.getElementById('m064').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI66" s="35" t="str">
         <f t="shared" si="4"/>
@@ -18520,8 +18579,8 @@
 Glttony Foss&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m065'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH67" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI67&amp;"').innerHTML = (b1*"&amp;TEXT(J67,0)&amp;"+b2*"&amp;TEXT(K67,0)&amp;"+b0*"&amp;TEXT(L67,0)&amp;") + (s1*"&amp;TEXT(W67,0)&amp;"+s2*"&amp;TEXT(X67,0)&amp;"+s3*"&amp;TEXT(Y67,0)&amp;"+s4*"&amp;TEXT(Z67,0)&amp;"+s5*"&amp;TEXT(AA67,0)&amp;"+s6*"&amp;TEXT(AB67,0)&amp;"+s7*"&amp;TEXT(AC67,0)&amp;"+s0*"&amp;TEXT(AD67,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R67)),S67,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R67)),S67,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R67)),S67,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R67)),S67,S67)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R67)),S67,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R67)),S67,0)&amp;"+e07*"&amp;IF(T67="反撃",U67,0)&amp;"+e08*"&amp;IF(T67="風属性",U67,0)&amp;"+e09*"&amp;IF(T67="闇属性",U67,0)&amp;"+e10*"&amp;IF(T67="単体",U67,0)&amp;"+e11*"&amp;IF(T67="範囲",U67,0)&amp;"+e12*"&amp;IF(T67="人",U67,0)&amp;"+e13*"&amp;IF(T67="異族",U67,0)&amp;"+e14*"&amp;IF(T67="バジュラ",U67,0)&amp;"+e15*"&amp;IF(T67="魔動人形",U67,0)&amp;");"</f>
-        <v>document.getElementById('m065').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI67&amp;"').innerHTML = (b1*"&amp;TEXT(J67,0)&amp;"+b2*"&amp;TEXT(K67,0)&amp;"+b0*"&amp;TEXT(L67,0)&amp;") + (s1*"&amp;TEXT(W67,0)&amp;"+s2*"&amp;TEXT(X67,0)&amp;"+s3*"&amp;TEXT(Y67,0)&amp;"+s4*"&amp;TEXT(Z67,0)&amp;"+s5*"&amp;TEXT(AA67,0)&amp;"+s6*"&amp;TEXT(AB67,0)&amp;"+s7*"&amp;TEXT(AC67,0)&amp;"+s0*"&amp;TEXT(AD67,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R67)),S67,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R67)),S67,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R67)),S67,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R67)),S67,S67)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R67)),S67,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R67)),S67,0)&amp;"+e07*"&amp;IF(T67="反撃",U67,0)&amp;"+e08*"&amp;IF(T67="風属性",U67,0)&amp;"+e09*"&amp;IF(T67="闇属性",U67,0)&amp;"+e10*"&amp;IF(T67="単体",U67,0)&amp;"+e11*"&amp;IF(T67="範囲",U67,0)&amp;"+e12*"&amp;IF(T67="人",U67,0)&amp;"+e13*"&amp;IF(T67="異族",U67,0)&amp;"+e14*"&amp;IF(T67="バジュラ",U67,0)&amp;"+e15*"&amp;IF(T67="魔動人形",U67,0)&amp;"+e16*"&amp;IF(T67="下位魔神",U67,0)&amp;");"</f>
+        <v>document.getElementById('m065').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI67" s="35" t="str">
         <f t="shared" si="4"/>
@@ -18591,8 +18650,8 @@
 Glttony Foss&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m066'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;打撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;30&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH68" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI68&amp;"').innerHTML = (b1*"&amp;TEXT(J68,0)&amp;"+b2*"&amp;TEXT(K68,0)&amp;"+b0*"&amp;TEXT(L68,0)&amp;") + (s1*"&amp;TEXT(W68,0)&amp;"+s2*"&amp;TEXT(X68,0)&amp;"+s3*"&amp;TEXT(Y68,0)&amp;"+s4*"&amp;TEXT(Z68,0)&amp;"+s5*"&amp;TEXT(AA68,0)&amp;"+s6*"&amp;TEXT(AB68,0)&amp;"+s7*"&amp;TEXT(AC68,0)&amp;"+s0*"&amp;TEXT(AD68,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R68)),S68,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R68)),S68,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R68)),S68,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R68)),S68,S68)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R68)),S68,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R68)),S68,0)&amp;"+e07*"&amp;IF(T68="反撃",U68,0)&amp;"+e08*"&amp;IF(T68="風属性",U68,0)&amp;"+e09*"&amp;IF(T68="闇属性",U68,0)&amp;"+e10*"&amp;IF(T68="単体",U68,0)&amp;"+e11*"&amp;IF(T68="範囲",U68,0)&amp;"+e12*"&amp;IF(T68="人",U68,0)&amp;"+e13*"&amp;IF(T68="異族",U68,0)&amp;"+e14*"&amp;IF(T68="バジュラ",U68,0)&amp;"+e15*"&amp;IF(T68="魔動人形",U68,0)&amp;");"</f>
-        <v>document.getElementById('m066').innerHTML = (b1*30+b2*30+b0*30) + (s1*30+s2*30+s3*0+s4*0+s5*0+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*30+e04*30+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI68&amp;"').innerHTML = (b1*"&amp;TEXT(J68,0)&amp;"+b2*"&amp;TEXT(K68,0)&amp;"+b0*"&amp;TEXT(L68,0)&amp;") + (s1*"&amp;TEXT(W68,0)&amp;"+s2*"&amp;TEXT(X68,0)&amp;"+s3*"&amp;TEXT(Y68,0)&amp;"+s4*"&amp;TEXT(Z68,0)&amp;"+s5*"&amp;TEXT(AA68,0)&amp;"+s6*"&amp;TEXT(AB68,0)&amp;"+s7*"&amp;TEXT(AC68,0)&amp;"+s0*"&amp;TEXT(AD68,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R68)),S68,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R68)),S68,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R68)),S68,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R68)),S68,S68)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R68)),S68,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R68)),S68,0)&amp;"+e07*"&amp;IF(T68="反撃",U68,0)&amp;"+e08*"&amp;IF(T68="風属性",U68,0)&amp;"+e09*"&amp;IF(T68="闇属性",U68,0)&amp;"+e10*"&amp;IF(T68="単体",U68,0)&amp;"+e11*"&amp;IF(T68="範囲",U68,0)&amp;"+e12*"&amp;IF(T68="人",U68,0)&amp;"+e13*"&amp;IF(T68="異族",U68,0)&amp;"+e14*"&amp;IF(T68="バジュラ",U68,0)&amp;"+e15*"&amp;IF(T68="魔動人形",U68,0)&amp;"+e16*"&amp;IF(T68="下位魔神",U68,0)&amp;");"</f>
+        <v>document.getElementById('m066').innerHTML = (b1*30+b2*30+b0*30) + (s1*30+s2*30+s3*0+s4*0+s5*0+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*30+e04*30+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI68" s="35" t="str">
         <f t="shared" ref="AI68:AI131" si="9">"m"&amp;TEXT(ROW()-2,"000")</f>
@@ -18642,8 +18701,8 @@
 Glttony Foss&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m067'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH69" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI69&amp;"').innerHTML = (b1*"&amp;TEXT(J69,0)&amp;"+b2*"&amp;TEXT(K69,0)&amp;"+b0*"&amp;TEXT(L69,0)&amp;") + (s1*"&amp;TEXT(W69,0)&amp;"+s2*"&amp;TEXT(X69,0)&amp;"+s3*"&amp;TEXT(Y69,0)&amp;"+s4*"&amp;TEXT(Z69,0)&amp;"+s5*"&amp;TEXT(AA69,0)&amp;"+s6*"&amp;TEXT(AB69,0)&amp;"+s7*"&amp;TEXT(AC69,0)&amp;"+s0*"&amp;TEXT(AD69,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R69)),S69,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R69)),S69,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R69)),S69,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R69)),S69,S69)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R69)),S69,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R69)),S69,0)&amp;"+e07*"&amp;IF(T69="反撃",U69,0)&amp;"+e08*"&amp;IF(T69="風属性",U69,0)&amp;"+e09*"&amp;IF(T69="闇属性",U69,0)&amp;"+e10*"&amp;IF(T69="単体",U69,0)&amp;"+e11*"&amp;IF(T69="範囲",U69,0)&amp;"+e12*"&amp;IF(T69="人",U69,0)&amp;"+e13*"&amp;IF(T69="異族",U69,0)&amp;"+e14*"&amp;IF(T69="バジュラ",U69,0)&amp;"+e15*"&amp;IF(T69="魔動人形",U69,0)&amp;");"</f>
-        <v>document.getElementById('m067').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI69&amp;"').innerHTML = (b1*"&amp;TEXT(J69,0)&amp;"+b2*"&amp;TEXT(K69,0)&amp;"+b0*"&amp;TEXT(L69,0)&amp;") + (s1*"&amp;TEXT(W69,0)&amp;"+s2*"&amp;TEXT(X69,0)&amp;"+s3*"&amp;TEXT(Y69,0)&amp;"+s4*"&amp;TEXT(Z69,0)&amp;"+s5*"&amp;TEXT(AA69,0)&amp;"+s6*"&amp;TEXT(AB69,0)&amp;"+s7*"&amp;TEXT(AC69,0)&amp;"+s0*"&amp;TEXT(AD69,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R69)),S69,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R69)),S69,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R69)),S69,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R69)),S69,S69)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R69)),S69,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R69)),S69,0)&amp;"+e07*"&amp;IF(T69="反撃",U69,0)&amp;"+e08*"&amp;IF(T69="風属性",U69,0)&amp;"+e09*"&amp;IF(T69="闇属性",U69,0)&amp;"+e10*"&amp;IF(T69="単体",U69,0)&amp;"+e11*"&amp;IF(T69="範囲",U69,0)&amp;"+e12*"&amp;IF(T69="人",U69,0)&amp;"+e13*"&amp;IF(T69="異族",U69,0)&amp;"+e14*"&amp;IF(T69="バジュラ",U69,0)&amp;"+e15*"&amp;IF(T69="魔動人形",U69,0)&amp;"+e16*"&amp;IF(T69="下位魔神",U69,0)&amp;");"</f>
+        <v>document.getElementById('m067').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI69" s="35" t="str">
         <f t="shared" si="9"/>
@@ -18696,8 +18755,8 @@
 Glttony Foss&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m068'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH70" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI70&amp;"').innerHTML = (b1*"&amp;TEXT(J70,0)&amp;"+b2*"&amp;TEXT(K70,0)&amp;"+b0*"&amp;TEXT(L70,0)&amp;") + (s1*"&amp;TEXT(W70,0)&amp;"+s2*"&amp;TEXT(X70,0)&amp;"+s3*"&amp;TEXT(Y70,0)&amp;"+s4*"&amp;TEXT(Z70,0)&amp;"+s5*"&amp;TEXT(AA70,0)&amp;"+s6*"&amp;TEXT(AB70,0)&amp;"+s7*"&amp;TEXT(AC70,0)&amp;"+s0*"&amp;TEXT(AD70,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R70)),S70,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R70)),S70,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R70)),S70,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R70)),S70,S70)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R70)),S70,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R70)),S70,0)&amp;"+e07*"&amp;IF(T70="反撃",U70,0)&amp;"+e08*"&amp;IF(T70="風属性",U70,0)&amp;"+e09*"&amp;IF(T70="闇属性",U70,0)&amp;"+e10*"&amp;IF(T70="単体",U70,0)&amp;"+e11*"&amp;IF(T70="範囲",U70,0)&amp;"+e12*"&amp;IF(T70="人",U70,0)&amp;"+e13*"&amp;IF(T70="異族",U70,0)&amp;"+e14*"&amp;IF(T70="バジュラ",U70,0)&amp;"+e15*"&amp;IF(T70="魔動人形",U70,0)&amp;");"</f>
-        <v>document.getElementById('m068').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI70&amp;"').innerHTML = (b1*"&amp;TEXT(J70,0)&amp;"+b2*"&amp;TEXT(K70,0)&amp;"+b0*"&amp;TEXT(L70,0)&amp;") + (s1*"&amp;TEXT(W70,0)&amp;"+s2*"&amp;TEXT(X70,0)&amp;"+s3*"&amp;TEXT(Y70,0)&amp;"+s4*"&amp;TEXT(Z70,0)&amp;"+s5*"&amp;TEXT(AA70,0)&amp;"+s6*"&amp;TEXT(AB70,0)&amp;"+s7*"&amp;TEXT(AC70,0)&amp;"+s0*"&amp;TEXT(AD70,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R70)),S70,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R70)),S70,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R70)),S70,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R70)),S70,S70)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R70)),S70,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R70)),S70,0)&amp;"+e07*"&amp;IF(T70="反撃",U70,0)&amp;"+e08*"&amp;IF(T70="風属性",U70,0)&amp;"+e09*"&amp;IF(T70="闇属性",U70,0)&amp;"+e10*"&amp;IF(T70="単体",U70,0)&amp;"+e11*"&amp;IF(T70="範囲",U70,0)&amp;"+e12*"&amp;IF(T70="人",U70,0)&amp;"+e13*"&amp;IF(T70="異族",U70,0)&amp;"+e14*"&amp;IF(T70="バジュラ",U70,0)&amp;"+e15*"&amp;IF(T70="魔動人形",U70,0)&amp;"+e16*"&amp;IF(T70="下位魔神",U70,0)&amp;");"</f>
+        <v>document.getElementById('m068').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI70" s="35" t="str">
         <f t="shared" si="9"/>
@@ -18750,8 +18809,8 @@
 Glttony Foss&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m069'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH71" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI71&amp;"').innerHTML = (b1*"&amp;TEXT(J71,0)&amp;"+b2*"&amp;TEXT(K71,0)&amp;"+b0*"&amp;TEXT(L71,0)&amp;") + (s1*"&amp;TEXT(W71,0)&amp;"+s2*"&amp;TEXT(X71,0)&amp;"+s3*"&amp;TEXT(Y71,0)&amp;"+s4*"&amp;TEXT(Z71,0)&amp;"+s5*"&amp;TEXT(AA71,0)&amp;"+s6*"&amp;TEXT(AB71,0)&amp;"+s7*"&amp;TEXT(AC71,0)&amp;"+s0*"&amp;TEXT(AD71,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R71)),S71,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R71)),S71,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R71)),S71,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R71)),S71,S71)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R71)),S71,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R71)),S71,0)&amp;"+e07*"&amp;IF(T71="反撃",U71,0)&amp;"+e08*"&amp;IF(T71="風属性",U71,0)&amp;"+e09*"&amp;IF(T71="闇属性",U71,0)&amp;"+e10*"&amp;IF(T71="単体",U71,0)&amp;"+e11*"&amp;IF(T71="範囲",U71,0)&amp;"+e12*"&amp;IF(T71="人",U71,0)&amp;"+e13*"&amp;IF(T71="異族",U71,0)&amp;"+e14*"&amp;IF(T71="バジュラ",U71,0)&amp;"+e15*"&amp;IF(T71="魔動人形",U71,0)&amp;");"</f>
-        <v>document.getElementById('m069').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI71&amp;"').innerHTML = (b1*"&amp;TEXT(J71,0)&amp;"+b2*"&amp;TEXT(K71,0)&amp;"+b0*"&amp;TEXT(L71,0)&amp;") + (s1*"&amp;TEXT(W71,0)&amp;"+s2*"&amp;TEXT(X71,0)&amp;"+s3*"&amp;TEXT(Y71,0)&amp;"+s4*"&amp;TEXT(Z71,0)&amp;"+s5*"&amp;TEXT(AA71,0)&amp;"+s6*"&amp;TEXT(AB71,0)&amp;"+s7*"&amp;TEXT(AC71,0)&amp;"+s0*"&amp;TEXT(AD71,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R71)),S71,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R71)),S71,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R71)),S71,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R71)),S71,S71)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R71)),S71,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R71)),S71,0)&amp;"+e07*"&amp;IF(T71="反撃",U71,0)&amp;"+e08*"&amp;IF(T71="風属性",U71,0)&amp;"+e09*"&amp;IF(T71="闇属性",U71,0)&amp;"+e10*"&amp;IF(T71="単体",U71,0)&amp;"+e11*"&amp;IF(T71="範囲",U71,0)&amp;"+e12*"&amp;IF(T71="人",U71,0)&amp;"+e13*"&amp;IF(T71="異族",U71,0)&amp;"+e14*"&amp;IF(T71="バジュラ",U71,0)&amp;"+e15*"&amp;IF(T71="魔動人形",U71,0)&amp;"+e16*"&amp;IF(T71="下位魔神",U71,0)&amp;");"</f>
+        <v>document.getElementById('m069').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI71" s="35" t="str">
         <f t="shared" si="9"/>
@@ -18804,8 +18863,8 @@
 Greed Dike&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m070'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH72" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI72&amp;"').innerHTML = (b1*"&amp;TEXT(J72,0)&amp;"+b2*"&amp;TEXT(K72,0)&amp;"+b0*"&amp;TEXT(L72,0)&amp;") + (s1*"&amp;TEXT(W72,0)&amp;"+s2*"&amp;TEXT(X72,0)&amp;"+s3*"&amp;TEXT(Y72,0)&amp;"+s4*"&amp;TEXT(Z72,0)&amp;"+s5*"&amp;TEXT(AA72,0)&amp;"+s6*"&amp;TEXT(AB72,0)&amp;"+s7*"&amp;TEXT(AC72,0)&amp;"+s0*"&amp;TEXT(AD72,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R72)),S72,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R72)),S72,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R72)),S72,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R72)),S72,S72)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R72)),S72,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R72)),S72,0)&amp;"+e07*"&amp;IF(T72="反撃",U72,0)&amp;"+e08*"&amp;IF(T72="風属性",U72,0)&amp;"+e09*"&amp;IF(T72="闇属性",U72,0)&amp;"+e10*"&amp;IF(T72="単体",U72,0)&amp;"+e11*"&amp;IF(T72="範囲",U72,0)&amp;"+e12*"&amp;IF(T72="人",U72,0)&amp;"+e13*"&amp;IF(T72="異族",U72,0)&amp;"+e14*"&amp;IF(T72="バジュラ",U72,0)&amp;"+e15*"&amp;IF(T72="魔動人形",U72,0)&amp;");"</f>
-        <v>document.getElementById('m070').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI72&amp;"').innerHTML = (b1*"&amp;TEXT(J72,0)&amp;"+b2*"&amp;TEXT(K72,0)&amp;"+b0*"&amp;TEXT(L72,0)&amp;") + (s1*"&amp;TEXT(W72,0)&amp;"+s2*"&amp;TEXT(X72,0)&amp;"+s3*"&amp;TEXT(Y72,0)&amp;"+s4*"&amp;TEXT(Z72,0)&amp;"+s5*"&amp;TEXT(AA72,0)&amp;"+s6*"&amp;TEXT(AB72,0)&amp;"+s7*"&amp;TEXT(AC72,0)&amp;"+s0*"&amp;TEXT(AD72,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R72)),S72,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R72)),S72,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R72)),S72,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R72)),S72,S72)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R72)),S72,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R72)),S72,0)&amp;"+e07*"&amp;IF(T72="反撃",U72,0)&amp;"+e08*"&amp;IF(T72="風属性",U72,0)&amp;"+e09*"&amp;IF(T72="闇属性",U72,0)&amp;"+e10*"&amp;IF(T72="単体",U72,0)&amp;"+e11*"&amp;IF(T72="範囲",U72,0)&amp;"+e12*"&amp;IF(T72="人",U72,0)&amp;"+e13*"&amp;IF(T72="異族",U72,0)&amp;"+e14*"&amp;IF(T72="バジュラ",U72,0)&amp;"+e15*"&amp;IF(T72="魔動人形",U72,0)&amp;"+e16*"&amp;IF(T72="下位魔神",U72,0)&amp;");"</f>
+        <v>document.getElementById('m070').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI72" s="35" t="str">
         <f t="shared" si="9"/>
@@ -18858,8 +18917,8 @@
 Greed Dike&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m071'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH73" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI73&amp;"').innerHTML = (b1*"&amp;TEXT(J73,0)&amp;"+b2*"&amp;TEXT(K73,0)&amp;"+b0*"&amp;TEXT(L73,0)&amp;") + (s1*"&amp;TEXT(W73,0)&amp;"+s2*"&amp;TEXT(X73,0)&amp;"+s3*"&amp;TEXT(Y73,0)&amp;"+s4*"&amp;TEXT(Z73,0)&amp;"+s5*"&amp;TEXT(AA73,0)&amp;"+s6*"&amp;TEXT(AB73,0)&amp;"+s7*"&amp;TEXT(AC73,0)&amp;"+s0*"&amp;TEXT(AD73,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R73)),S73,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R73)),S73,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R73)),S73,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R73)),S73,S73)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R73)),S73,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R73)),S73,0)&amp;"+e07*"&amp;IF(T73="反撃",U73,0)&amp;"+e08*"&amp;IF(T73="風属性",U73,0)&amp;"+e09*"&amp;IF(T73="闇属性",U73,0)&amp;"+e10*"&amp;IF(T73="単体",U73,0)&amp;"+e11*"&amp;IF(T73="範囲",U73,0)&amp;"+e12*"&amp;IF(T73="人",U73,0)&amp;"+e13*"&amp;IF(T73="異族",U73,0)&amp;"+e14*"&amp;IF(T73="バジュラ",U73,0)&amp;"+e15*"&amp;IF(T73="魔動人形",U73,0)&amp;");"</f>
-        <v>document.getElementById('m071').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI73&amp;"').innerHTML = (b1*"&amp;TEXT(J73,0)&amp;"+b2*"&amp;TEXT(K73,0)&amp;"+b0*"&amp;TEXT(L73,0)&amp;") + (s1*"&amp;TEXT(W73,0)&amp;"+s2*"&amp;TEXT(X73,0)&amp;"+s3*"&amp;TEXT(Y73,0)&amp;"+s4*"&amp;TEXT(Z73,0)&amp;"+s5*"&amp;TEXT(AA73,0)&amp;"+s6*"&amp;TEXT(AB73,0)&amp;"+s7*"&amp;TEXT(AC73,0)&amp;"+s0*"&amp;TEXT(AD73,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R73)),S73,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R73)),S73,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R73)),S73,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R73)),S73,S73)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R73)),S73,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R73)),S73,0)&amp;"+e07*"&amp;IF(T73="反撃",U73,0)&amp;"+e08*"&amp;IF(T73="風属性",U73,0)&amp;"+e09*"&amp;IF(T73="闇属性",U73,0)&amp;"+e10*"&amp;IF(T73="単体",U73,0)&amp;"+e11*"&amp;IF(T73="範囲",U73,0)&amp;"+e12*"&amp;IF(T73="人",U73,0)&amp;"+e13*"&amp;IF(T73="異族",U73,0)&amp;"+e14*"&amp;IF(T73="バジュラ",U73,0)&amp;"+e15*"&amp;IF(T73="魔動人形",U73,0)&amp;"+e16*"&amp;IF(T73="下位魔神",U73,0)&amp;");"</f>
+        <v>document.getElementById('m071').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI73" s="35" t="str">
         <f t="shared" si="9"/>
@@ -18909,8 +18968,8 @@
 Greed Dike&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m072'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH74" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI74&amp;"').innerHTML = (b1*"&amp;TEXT(J74,0)&amp;"+b2*"&amp;TEXT(K74,0)&amp;"+b0*"&amp;TEXT(L74,0)&amp;") + (s1*"&amp;TEXT(W74,0)&amp;"+s2*"&amp;TEXT(X74,0)&amp;"+s3*"&amp;TEXT(Y74,0)&amp;"+s4*"&amp;TEXT(Z74,0)&amp;"+s5*"&amp;TEXT(AA74,0)&amp;"+s6*"&amp;TEXT(AB74,0)&amp;"+s7*"&amp;TEXT(AC74,0)&amp;"+s0*"&amp;TEXT(AD74,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R74)),S74,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R74)),S74,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R74)),S74,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R74)),S74,S74)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R74)),S74,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R74)),S74,0)&amp;"+e07*"&amp;IF(T74="反撃",U74,0)&amp;"+e08*"&amp;IF(T74="風属性",U74,0)&amp;"+e09*"&amp;IF(T74="闇属性",U74,0)&amp;"+e10*"&amp;IF(T74="単体",U74,0)&amp;"+e11*"&amp;IF(T74="範囲",U74,0)&amp;"+e12*"&amp;IF(T74="人",U74,0)&amp;"+e13*"&amp;IF(T74="異族",U74,0)&amp;"+e14*"&amp;IF(T74="バジュラ",U74,0)&amp;"+e15*"&amp;IF(T74="魔動人形",U74,0)&amp;");"</f>
-        <v>document.getElementById('m072').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI74&amp;"').innerHTML = (b1*"&amp;TEXT(J74,0)&amp;"+b2*"&amp;TEXT(K74,0)&amp;"+b0*"&amp;TEXT(L74,0)&amp;") + (s1*"&amp;TEXT(W74,0)&amp;"+s2*"&amp;TEXT(X74,0)&amp;"+s3*"&amp;TEXT(Y74,0)&amp;"+s4*"&amp;TEXT(Z74,0)&amp;"+s5*"&amp;TEXT(AA74,0)&amp;"+s6*"&amp;TEXT(AB74,0)&amp;"+s7*"&amp;TEXT(AC74,0)&amp;"+s0*"&amp;TEXT(AD74,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R74)),S74,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R74)),S74,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R74)),S74,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R74)),S74,S74)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R74)),S74,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R74)),S74,0)&amp;"+e07*"&amp;IF(T74="反撃",U74,0)&amp;"+e08*"&amp;IF(T74="風属性",U74,0)&amp;"+e09*"&amp;IF(T74="闇属性",U74,0)&amp;"+e10*"&amp;IF(T74="単体",U74,0)&amp;"+e11*"&amp;IF(T74="範囲",U74,0)&amp;"+e12*"&amp;IF(T74="人",U74,0)&amp;"+e13*"&amp;IF(T74="異族",U74,0)&amp;"+e14*"&amp;IF(T74="バジュラ",U74,0)&amp;"+e15*"&amp;IF(T74="魔動人形",U74,0)&amp;"+e16*"&amp;IF(T74="下位魔神",U74,0)&amp;");"</f>
+        <v>document.getElementById('m072').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI74" s="35" t="str">
         <f t="shared" si="9"/>
@@ -18963,8 +19022,8 @@
 Greed Dike&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m073'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH75" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI75&amp;"').innerHTML = (b1*"&amp;TEXT(J75,0)&amp;"+b2*"&amp;TEXT(K75,0)&amp;"+b0*"&amp;TEXT(L75,0)&amp;") + (s1*"&amp;TEXT(W75,0)&amp;"+s2*"&amp;TEXT(X75,0)&amp;"+s3*"&amp;TEXT(Y75,0)&amp;"+s4*"&amp;TEXT(Z75,0)&amp;"+s5*"&amp;TEXT(AA75,0)&amp;"+s6*"&amp;TEXT(AB75,0)&amp;"+s7*"&amp;TEXT(AC75,0)&amp;"+s0*"&amp;TEXT(AD75,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R75)),S75,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R75)),S75,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R75)),S75,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R75)),S75,S75)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R75)),S75,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R75)),S75,0)&amp;"+e07*"&amp;IF(T75="反撃",U75,0)&amp;"+e08*"&amp;IF(T75="風属性",U75,0)&amp;"+e09*"&amp;IF(T75="闇属性",U75,0)&amp;"+e10*"&amp;IF(T75="単体",U75,0)&amp;"+e11*"&amp;IF(T75="範囲",U75,0)&amp;"+e12*"&amp;IF(T75="人",U75,0)&amp;"+e13*"&amp;IF(T75="異族",U75,0)&amp;"+e14*"&amp;IF(T75="バジュラ",U75,0)&amp;"+e15*"&amp;IF(T75="魔動人形",U75,0)&amp;");"</f>
-        <v>document.getElementById('m073').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI75&amp;"').innerHTML = (b1*"&amp;TEXT(J75,0)&amp;"+b2*"&amp;TEXT(K75,0)&amp;"+b0*"&amp;TEXT(L75,0)&amp;") + (s1*"&amp;TEXT(W75,0)&amp;"+s2*"&amp;TEXT(X75,0)&amp;"+s3*"&amp;TEXT(Y75,0)&amp;"+s4*"&amp;TEXT(Z75,0)&amp;"+s5*"&amp;TEXT(AA75,0)&amp;"+s6*"&amp;TEXT(AB75,0)&amp;"+s7*"&amp;TEXT(AC75,0)&amp;"+s0*"&amp;TEXT(AD75,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R75)),S75,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R75)),S75,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R75)),S75,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R75)),S75,S75)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R75)),S75,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R75)),S75,0)&amp;"+e07*"&amp;IF(T75="反撃",U75,0)&amp;"+e08*"&amp;IF(T75="風属性",U75,0)&amp;"+e09*"&amp;IF(T75="闇属性",U75,0)&amp;"+e10*"&amp;IF(T75="単体",U75,0)&amp;"+e11*"&amp;IF(T75="範囲",U75,0)&amp;"+e12*"&amp;IF(T75="人",U75,0)&amp;"+e13*"&amp;IF(T75="異族",U75,0)&amp;"+e14*"&amp;IF(T75="バジュラ",U75,0)&amp;"+e15*"&amp;IF(T75="魔動人形",U75,0)&amp;"+e16*"&amp;IF(T75="下位魔神",U75,0)&amp;");"</f>
+        <v>document.getElementById('m073').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI75" s="35" t="str">
         <f t="shared" si="9"/>
@@ -19014,8 +19073,8 @@
 Greed Dike&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m074'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH76" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI76&amp;"').innerHTML = (b1*"&amp;TEXT(J76,0)&amp;"+b2*"&amp;TEXT(K76,0)&amp;"+b0*"&amp;TEXT(L76,0)&amp;") + (s1*"&amp;TEXT(W76,0)&amp;"+s2*"&amp;TEXT(X76,0)&amp;"+s3*"&amp;TEXT(Y76,0)&amp;"+s4*"&amp;TEXT(Z76,0)&amp;"+s5*"&amp;TEXT(AA76,0)&amp;"+s6*"&amp;TEXT(AB76,0)&amp;"+s7*"&amp;TEXT(AC76,0)&amp;"+s0*"&amp;TEXT(AD76,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R76)),S76,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R76)),S76,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R76)),S76,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R76)),S76,S76)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R76)),S76,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R76)),S76,0)&amp;"+e07*"&amp;IF(T76="反撃",U76,0)&amp;"+e08*"&amp;IF(T76="風属性",U76,0)&amp;"+e09*"&amp;IF(T76="闇属性",U76,0)&amp;"+e10*"&amp;IF(T76="単体",U76,0)&amp;"+e11*"&amp;IF(T76="範囲",U76,0)&amp;"+e12*"&amp;IF(T76="人",U76,0)&amp;"+e13*"&amp;IF(T76="異族",U76,0)&amp;"+e14*"&amp;IF(T76="バジュラ",U76,0)&amp;"+e15*"&amp;IF(T76="魔動人形",U76,0)&amp;");"</f>
-        <v>document.getElementById('m074').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI76&amp;"').innerHTML = (b1*"&amp;TEXT(J76,0)&amp;"+b2*"&amp;TEXT(K76,0)&amp;"+b0*"&amp;TEXT(L76,0)&amp;") + (s1*"&amp;TEXT(W76,0)&amp;"+s2*"&amp;TEXT(X76,0)&amp;"+s3*"&amp;TEXT(Y76,0)&amp;"+s4*"&amp;TEXT(Z76,0)&amp;"+s5*"&amp;TEXT(AA76,0)&amp;"+s6*"&amp;TEXT(AB76,0)&amp;"+s7*"&amp;TEXT(AC76,0)&amp;"+s0*"&amp;TEXT(AD76,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R76)),S76,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R76)),S76,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R76)),S76,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R76)),S76,S76)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R76)),S76,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R76)),S76,0)&amp;"+e07*"&amp;IF(T76="反撃",U76,0)&amp;"+e08*"&amp;IF(T76="風属性",U76,0)&amp;"+e09*"&amp;IF(T76="闇属性",U76,0)&amp;"+e10*"&amp;IF(T76="単体",U76,0)&amp;"+e11*"&amp;IF(T76="範囲",U76,0)&amp;"+e12*"&amp;IF(T76="人",U76,0)&amp;"+e13*"&amp;IF(T76="異族",U76,0)&amp;"+e14*"&amp;IF(T76="バジュラ",U76,0)&amp;"+e15*"&amp;IF(T76="魔動人形",U76,0)&amp;"+e16*"&amp;IF(T76="下位魔神",U76,0)&amp;");"</f>
+        <v>document.getElementById('m074').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI76" s="35" t="str">
         <f t="shared" si="9"/>
@@ -19080,8 +19139,8 @@
 Greed Dike&lt;/td&gt;&lt;td headers='group'&gt;海賊団&lt;/td&gt;&lt;td headers='score' id='m075'&gt;50&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;範囲耐性+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;30&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH77" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI77&amp;"').innerHTML = (b1*"&amp;TEXT(J77,0)&amp;"+b2*"&amp;TEXT(K77,0)&amp;"+b0*"&amp;TEXT(L77,0)&amp;") + (s1*"&amp;TEXT(W77,0)&amp;"+s2*"&amp;TEXT(X77,0)&amp;"+s3*"&amp;TEXT(Y77,0)&amp;"+s4*"&amp;TEXT(Z77,0)&amp;"+s5*"&amp;TEXT(AA77,0)&amp;"+s6*"&amp;TEXT(AB77,0)&amp;"+s7*"&amp;TEXT(AC77,0)&amp;"+s0*"&amp;TEXT(AD77,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R77)),S77,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R77)),S77,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R77)),S77,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R77)),S77,S77)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R77)),S77,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R77)),S77,0)&amp;"+e07*"&amp;IF(T77="反撃",U77,0)&amp;"+e08*"&amp;IF(T77="風属性",U77,0)&amp;"+e09*"&amp;IF(T77="闇属性",U77,0)&amp;"+e10*"&amp;IF(T77="単体",U77,0)&amp;"+e11*"&amp;IF(T77="範囲",U77,0)&amp;"+e12*"&amp;IF(T77="人",U77,0)&amp;"+e13*"&amp;IF(T77="異族",U77,0)&amp;"+e14*"&amp;IF(T77="バジュラ",U77,0)&amp;"+e15*"&amp;IF(T77="魔動人形",U77,0)&amp;");"</f>
-        <v>document.getElementById('m075').innerHTML = (b1*20+b2*0+b0*20) + (s1*0+s2*30+s3*0+s4*0+s5*0+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI77&amp;"').innerHTML = (b1*"&amp;TEXT(J77,0)&amp;"+b2*"&amp;TEXT(K77,0)&amp;"+b0*"&amp;TEXT(L77,0)&amp;") + (s1*"&amp;TEXT(W77,0)&amp;"+s2*"&amp;TEXT(X77,0)&amp;"+s3*"&amp;TEXT(Y77,0)&amp;"+s4*"&amp;TEXT(Z77,0)&amp;"+s5*"&amp;TEXT(AA77,0)&amp;"+s6*"&amp;TEXT(AB77,0)&amp;"+s7*"&amp;TEXT(AC77,0)&amp;"+s0*"&amp;TEXT(AD77,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R77)),S77,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R77)),S77,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R77)),S77,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R77)),S77,S77)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R77)),S77,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R77)),S77,0)&amp;"+e07*"&amp;IF(T77="反撃",U77,0)&amp;"+e08*"&amp;IF(T77="風属性",U77,0)&amp;"+e09*"&amp;IF(T77="闇属性",U77,0)&amp;"+e10*"&amp;IF(T77="単体",U77,0)&amp;"+e11*"&amp;IF(T77="範囲",U77,0)&amp;"+e12*"&amp;IF(T77="人",U77,0)&amp;"+e13*"&amp;IF(T77="異族",U77,0)&amp;"+e14*"&amp;IF(T77="バジュラ",U77,0)&amp;"+e15*"&amp;IF(T77="魔動人形",U77,0)&amp;"+e16*"&amp;IF(T77="下位魔神",U77,0)&amp;");"</f>
+        <v>document.getElementById('m075').innerHTML = (b1*20+b2*0+b0*20) + (s1*0+s2*30+s3*0+s4*0+s5*0+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI77" s="35" t="str">
         <f t="shared" si="9"/>
@@ -19151,8 +19210,8 @@
 Greed Dike&lt;/td&gt;&lt;td headers='group'&gt;海賊団&lt;/td&gt;&lt;td headers='score' id='m076'&gt;110&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;40&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;30&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;無区分&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;40&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;20&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH78" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI78&amp;"').innerHTML = (b1*"&amp;TEXT(J78,0)&amp;"+b2*"&amp;TEXT(K78,0)&amp;"+b0*"&amp;TEXT(L78,0)&amp;") + (s1*"&amp;TEXT(W78,0)&amp;"+s2*"&amp;TEXT(X78,0)&amp;"+s3*"&amp;TEXT(Y78,0)&amp;"+s4*"&amp;TEXT(Z78,0)&amp;"+s5*"&amp;TEXT(AA78,0)&amp;"+s6*"&amp;TEXT(AB78,0)&amp;"+s7*"&amp;TEXT(AC78,0)&amp;"+s0*"&amp;TEXT(AD78,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R78)),S78,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R78)),S78,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R78)),S78,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R78)),S78,S78)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R78)),S78,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R78)),S78,0)&amp;"+e07*"&amp;IF(T78="反撃",U78,0)&amp;"+e08*"&amp;IF(T78="風属性",U78,0)&amp;"+e09*"&amp;IF(T78="闇属性",U78,0)&amp;"+e10*"&amp;IF(T78="単体",U78,0)&amp;"+e11*"&amp;IF(T78="範囲",U78,0)&amp;"+e12*"&amp;IF(T78="人",U78,0)&amp;"+e13*"&amp;IF(T78="異族",U78,0)&amp;"+e14*"&amp;IF(T78="バジュラ",U78,0)&amp;"+e15*"&amp;IF(T78="魔動人形",U78,0)&amp;");"</f>
-        <v>document.getElementById('m076').innerHTML = (b1*40+b2*0+b0*40) + (s1*0+s2*40+s3*0+s4*0+s5*0+s6*20+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*30+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI78&amp;"').innerHTML = (b1*"&amp;TEXT(J78,0)&amp;"+b2*"&amp;TEXT(K78,0)&amp;"+b0*"&amp;TEXT(L78,0)&amp;") + (s1*"&amp;TEXT(W78,0)&amp;"+s2*"&amp;TEXT(X78,0)&amp;"+s3*"&amp;TEXT(Y78,0)&amp;"+s4*"&amp;TEXT(Z78,0)&amp;"+s5*"&amp;TEXT(AA78,0)&amp;"+s6*"&amp;TEXT(AB78,0)&amp;"+s7*"&amp;TEXT(AC78,0)&amp;"+s0*"&amp;TEXT(AD78,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R78)),S78,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R78)),S78,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R78)),S78,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R78)),S78,S78)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R78)),S78,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R78)),S78,0)&amp;"+e07*"&amp;IF(T78="反撃",U78,0)&amp;"+e08*"&amp;IF(T78="風属性",U78,0)&amp;"+e09*"&amp;IF(T78="闇属性",U78,0)&amp;"+e10*"&amp;IF(T78="単体",U78,0)&amp;"+e11*"&amp;IF(T78="範囲",U78,0)&amp;"+e12*"&amp;IF(T78="人",U78,0)&amp;"+e13*"&amp;IF(T78="異族",U78,0)&amp;"+e14*"&amp;IF(T78="バジュラ",U78,0)&amp;"+e15*"&amp;IF(T78="魔動人形",U78,0)&amp;"+e16*"&amp;IF(T78="下位魔神",U78,0)&amp;");"</f>
+        <v>document.getElementById('m076').innerHTML = (b1*40+b2*0+b0*40) + (s1*0+s2*40+s3*0+s4*0+s5*0+s6*20+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*30+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI78" s="35" t="str">
         <f t="shared" si="9"/>
@@ -19202,8 +19261,8 @@
 Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m077'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH79" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI79&amp;"').innerHTML = (b1*"&amp;TEXT(J79,0)&amp;"+b2*"&amp;TEXT(K79,0)&amp;"+b0*"&amp;TEXT(L79,0)&amp;") + (s1*"&amp;TEXT(W79,0)&amp;"+s2*"&amp;TEXT(X79,0)&amp;"+s3*"&amp;TEXT(Y79,0)&amp;"+s4*"&amp;TEXT(Z79,0)&amp;"+s5*"&amp;TEXT(AA79,0)&amp;"+s6*"&amp;TEXT(AB79,0)&amp;"+s7*"&amp;TEXT(AC79,0)&amp;"+s0*"&amp;TEXT(AD79,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R79)),S79,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R79)),S79,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R79)),S79,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R79)),S79,S79)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R79)),S79,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R79)),S79,0)&amp;"+e07*"&amp;IF(T79="反撃",U79,0)&amp;"+e08*"&amp;IF(T79="風属性",U79,0)&amp;"+e09*"&amp;IF(T79="闇属性",U79,0)&amp;"+e10*"&amp;IF(T79="単体",U79,0)&amp;"+e11*"&amp;IF(T79="範囲",U79,0)&amp;"+e12*"&amp;IF(T79="人",U79,0)&amp;"+e13*"&amp;IF(T79="異族",U79,0)&amp;"+e14*"&amp;IF(T79="バジュラ",U79,0)&amp;"+e15*"&amp;IF(T79="魔動人形",U79,0)&amp;");"</f>
-        <v>document.getElementById('m077').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI79&amp;"').innerHTML = (b1*"&amp;TEXT(J79,0)&amp;"+b2*"&amp;TEXT(K79,0)&amp;"+b0*"&amp;TEXT(L79,0)&amp;") + (s1*"&amp;TEXT(W79,0)&amp;"+s2*"&amp;TEXT(X79,0)&amp;"+s3*"&amp;TEXT(Y79,0)&amp;"+s4*"&amp;TEXT(Z79,0)&amp;"+s5*"&amp;TEXT(AA79,0)&amp;"+s6*"&amp;TEXT(AB79,0)&amp;"+s7*"&amp;TEXT(AC79,0)&amp;"+s0*"&amp;TEXT(AD79,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R79)),S79,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R79)),S79,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R79)),S79,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R79)),S79,S79)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R79)),S79,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R79)),S79,0)&amp;"+e07*"&amp;IF(T79="反撃",U79,0)&amp;"+e08*"&amp;IF(T79="風属性",U79,0)&amp;"+e09*"&amp;IF(T79="闇属性",U79,0)&amp;"+e10*"&amp;IF(T79="単体",U79,0)&amp;"+e11*"&amp;IF(T79="範囲",U79,0)&amp;"+e12*"&amp;IF(T79="人",U79,0)&amp;"+e13*"&amp;IF(T79="異族",U79,0)&amp;"+e14*"&amp;IF(T79="バジュラ",U79,0)&amp;"+e15*"&amp;IF(T79="魔動人形",U79,0)&amp;"+e16*"&amp;IF(T79="下位魔神",U79,0)&amp;");"</f>
+        <v>document.getElementById('m077').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI79" s="35" t="str">
         <f t="shared" si="9"/>
@@ -19271,8 +19330,8 @@
 Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m078'&gt;50&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;50&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;打撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;30&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;30&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH80" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI80&amp;"').innerHTML = (b1*"&amp;TEXT(J80,0)&amp;"+b2*"&amp;TEXT(K80,0)&amp;"+b0*"&amp;TEXT(L80,0)&amp;") + (s1*"&amp;TEXT(W80,0)&amp;"+s2*"&amp;TEXT(X80,0)&amp;"+s3*"&amp;TEXT(Y80,0)&amp;"+s4*"&amp;TEXT(Z80,0)&amp;"+s5*"&amp;TEXT(AA80,0)&amp;"+s6*"&amp;TEXT(AB80,0)&amp;"+s7*"&amp;TEXT(AC80,0)&amp;"+s0*"&amp;TEXT(AD80,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R80)),S80,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R80)),S80,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R80)),S80,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R80)),S80,S80)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R80)),S80,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R80)),S80,0)&amp;"+e07*"&amp;IF(T80="反撃",U80,0)&amp;"+e08*"&amp;IF(T80="風属性",U80,0)&amp;"+e09*"&amp;IF(T80="闇属性",U80,0)&amp;"+e10*"&amp;IF(T80="単体",U80,0)&amp;"+e11*"&amp;IF(T80="範囲",U80,0)&amp;"+e12*"&amp;IF(T80="人",U80,0)&amp;"+e13*"&amp;IF(T80="異族",U80,0)&amp;"+e14*"&amp;IF(T80="バジュラ",U80,0)&amp;"+e15*"&amp;IF(T80="魔動人形",U80,0)&amp;");"</f>
-        <v>document.getElementById('m078').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*30+s4*0+s5*0+s6*0+s7*30+s0*30) + (e01*0+e02*0+e03*20+e04*20+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI80&amp;"').innerHTML = (b1*"&amp;TEXT(J80,0)&amp;"+b2*"&amp;TEXT(K80,0)&amp;"+b0*"&amp;TEXT(L80,0)&amp;") + (s1*"&amp;TEXT(W80,0)&amp;"+s2*"&amp;TEXT(X80,0)&amp;"+s3*"&amp;TEXT(Y80,0)&amp;"+s4*"&amp;TEXT(Z80,0)&amp;"+s5*"&amp;TEXT(AA80,0)&amp;"+s6*"&amp;TEXT(AB80,0)&amp;"+s7*"&amp;TEXT(AC80,0)&amp;"+s0*"&amp;TEXT(AD80,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R80)),S80,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R80)),S80,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R80)),S80,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R80)),S80,S80)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R80)),S80,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R80)),S80,0)&amp;"+e07*"&amp;IF(T80="反撃",U80,0)&amp;"+e08*"&amp;IF(T80="風属性",U80,0)&amp;"+e09*"&amp;IF(T80="闇属性",U80,0)&amp;"+e10*"&amp;IF(T80="単体",U80,0)&amp;"+e11*"&amp;IF(T80="範囲",U80,0)&amp;"+e12*"&amp;IF(T80="人",U80,0)&amp;"+e13*"&amp;IF(T80="異族",U80,0)&amp;"+e14*"&amp;IF(T80="バジュラ",U80,0)&amp;"+e15*"&amp;IF(T80="魔動人形",U80,0)&amp;"+e16*"&amp;IF(T80="下位魔神",U80,0)&amp;");"</f>
+        <v>document.getElementById('m078').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*30+s4*0+s5*0+s6*0+s7*30+s0*30) + (e01*0+e02*0+e03*20+e04*20+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI80" s="35" t="str">
         <f t="shared" si="9"/>
@@ -19340,8 +19399,8 @@
 Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m079'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;50&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;MP上限+10, 範囲耐性+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;20&lt;/td&gt;&lt;td headers='sinG'&gt;40&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH81" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI81&amp;"').innerHTML = (b1*"&amp;TEXT(J81,0)&amp;"+b2*"&amp;TEXT(K81,0)&amp;"+b0*"&amp;TEXT(L81,0)&amp;") + (s1*"&amp;TEXT(W81,0)&amp;"+s2*"&amp;TEXT(X81,0)&amp;"+s3*"&amp;TEXT(Y81,0)&amp;"+s4*"&amp;TEXT(Z81,0)&amp;"+s5*"&amp;TEXT(AA81,0)&amp;"+s6*"&amp;TEXT(AB81,0)&amp;"+s7*"&amp;TEXT(AC81,0)&amp;"+s0*"&amp;TEXT(AD81,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R81)),S81,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R81)),S81,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R81)),S81,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R81)),S81,S81)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R81)),S81,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R81)),S81,0)&amp;"+e07*"&amp;IF(T81="反撃",U81,0)&amp;"+e08*"&amp;IF(T81="風属性",U81,0)&amp;"+e09*"&amp;IF(T81="闇属性",U81,0)&amp;"+e10*"&amp;IF(T81="単体",U81,0)&amp;"+e11*"&amp;IF(T81="範囲",U81,0)&amp;"+e12*"&amp;IF(T81="人",U81,0)&amp;"+e13*"&amp;IF(T81="異族",U81,0)&amp;"+e14*"&amp;IF(T81="バジュラ",U81,0)&amp;"+e15*"&amp;IF(T81="魔動人形",U81,0)&amp;");"</f>
-        <v>document.getElementById('m079').innerHTML = (b1*50+b2*0+b0*50) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*20+s7*40+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI81&amp;"').innerHTML = (b1*"&amp;TEXT(J81,0)&amp;"+b2*"&amp;TEXT(K81,0)&amp;"+b0*"&amp;TEXT(L81,0)&amp;") + (s1*"&amp;TEXT(W81,0)&amp;"+s2*"&amp;TEXT(X81,0)&amp;"+s3*"&amp;TEXT(Y81,0)&amp;"+s4*"&amp;TEXT(Z81,0)&amp;"+s5*"&amp;TEXT(AA81,0)&amp;"+s6*"&amp;TEXT(AB81,0)&amp;"+s7*"&amp;TEXT(AC81,0)&amp;"+s0*"&amp;TEXT(AD81,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R81)),S81,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R81)),S81,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R81)),S81,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R81)),S81,S81)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R81)),S81,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R81)),S81,0)&amp;"+e07*"&amp;IF(T81="反撃",U81,0)&amp;"+e08*"&amp;IF(T81="風属性",U81,0)&amp;"+e09*"&amp;IF(T81="闇属性",U81,0)&amp;"+e10*"&amp;IF(T81="単体",U81,0)&amp;"+e11*"&amp;IF(T81="範囲",U81,0)&amp;"+e12*"&amp;IF(T81="人",U81,0)&amp;"+e13*"&amp;IF(T81="異族",U81,0)&amp;"+e14*"&amp;IF(T81="バジュラ",U81,0)&amp;"+e15*"&amp;IF(T81="魔動人形",U81,0)&amp;"+e16*"&amp;IF(T81="下位魔神",U81,0)&amp;");"</f>
+        <v>document.getElementById('m079').innerHTML = (b1*50+b2*0+b0*50) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*20+s7*40+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI81" s="35" t="str">
         <f t="shared" si="9"/>
@@ -19412,8 +19471,8 @@
 Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m080'&gt;70&lt;/td&gt;&lt;td headers='HP'&gt;60&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;打撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;30&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;30&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH82" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI82&amp;"').innerHTML = (b1*"&amp;TEXT(J82,0)&amp;"+b2*"&amp;TEXT(K82,0)&amp;"+b0*"&amp;TEXT(L82,0)&amp;") + (s1*"&amp;TEXT(W82,0)&amp;"+s2*"&amp;TEXT(X82,0)&amp;"+s3*"&amp;TEXT(Y82,0)&amp;"+s4*"&amp;TEXT(Z82,0)&amp;"+s5*"&amp;TEXT(AA82,0)&amp;"+s6*"&amp;TEXT(AB82,0)&amp;"+s7*"&amp;TEXT(AC82,0)&amp;"+s0*"&amp;TEXT(AD82,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R82)),S82,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R82)),S82,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R82)),S82,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R82)),S82,S82)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R82)),S82,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R82)),S82,0)&amp;"+e07*"&amp;IF(T82="反撃",U82,0)&amp;"+e08*"&amp;IF(T82="風属性",U82,0)&amp;"+e09*"&amp;IF(T82="闇属性",U82,0)&amp;"+e10*"&amp;IF(T82="単体",U82,0)&amp;"+e11*"&amp;IF(T82="範囲",U82,0)&amp;"+e12*"&amp;IF(T82="人",U82,0)&amp;"+e13*"&amp;IF(T82="異族",U82,0)&amp;"+e14*"&amp;IF(T82="バジュラ",U82,0)&amp;"+e15*"&amp;IF(T82="魔動人形",U82,0)&amp;");"</f>
-        <v>document.getElementById('m080').innerHTML = (b1*20+b2*0+b0*20) + (s1*0+s2*0+s3*30+s4*0+s5*0+s6*0+s7*30+s0*30) + (e01*0+e02*0+e03*20+e04*20+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI82&amp;"').innerHTML = (b1*"&amp;TEXT(J82,0)&amp;"+b2*"&amp;TEXT(K82,0)&amp;"+b0*"&amp;TEXT(L82,0)&amp;") + (s1*"&amp;TEXT(W82,0)&amp;"+s2*"&amp;TEXT(X82,0)&amp;"+s3*"&amp;TEXT(Y82,0)&amp;"+s4*"&amp;TEXT(Z82,0)&amp;"+s5*"&amp;TEXT(AA82,0)&amp;"+s6*"&amp;TEXT(AB82,0)&amp;"+s7*"&amp;TEXT(AC82,0)&amp;"+s0*"&amp;TEXT(AD82,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R82)),S82,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R82)),S82,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R82)),S82,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R82)),S82,S82)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R82)),S82,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R82)),S82,0)&amp;"+e07*"&amp;IF(T82="反撃",U82,0)&amp;"+e08*"&amp;IF(T82="風属性",U82,0)&amp;"+e09*"&amp;IF(T82="闇属性",U82,0)&amp;"+e10*"&amp;IF(T82="単体",U82,0)&amp;"+e11*"&amp;IF(T82="範囲",U82,0)&amp;"+e12*"&amp;IF(T82="人",U82,0)&amp;"+e13*"&amp;IF(T82="異族",U82,0)&amp;"+e14*"&amp;IF(T82="バジュラ",U82,0)&amp;"+e15*"&amp;IF(T82="魔動人形",U82,0)&amp;"+e16*"&amp;IF(T82="下位魔神",U82,0)&amp;");"</f>
+        <v>document.getElementById('m080').innerHTML = (b1*20+b2*0+b0*20) + (s1*0+s2*0+s3*30+s4*0+s5*0+s6*0+s7*30+s0*30) + (e01*0+e02*0+e03*20+e04*20+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI82" s="35" t="str">
         <f t="shared" si="9"/>
@@ -19481,8 +19540,8 @@
 Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m081'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;20&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;20&lt;/td&gt;&lt;td headers='sinG'&gt;40&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH83" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI83&amp;"').innerHTML = (b1*"&amp;TEXT(J83,0)&amp;"+b2*"&amp;TEXT(K83,0)&amp;"+b0*"&amp;TEXT(L83,0)&amp;") + (s1*"&amp;TEXT(W83,0)&amp;"+s2*"&amp;TEXT(X83,0)&amp;"+s3*"&amp;TEXT(Y83,0)&amp;"+s4*"&amp;TEXT(Z83,0)&amp;"+s5*"&amp;TEXT(AA83,0)&amp;"+s6*"&amp;TEXT(AB83,0)&amp;"+s7*"&amp;TEXT(AC83,0)&amp;"+s0*"&amp;TEXT(AD83,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R83)),S83,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R83)),S83,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R83)),S83,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R83)),S83,S83)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R83)),S83,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R83)),S83,0)&amp;"+e07*"&amp;IF(T83="反撃",U83,0)&amp;"+e08*"&amp;IF(T83="風属性",U83,0)&amp;"+e09*"&amp;IF(T83="闇属性",U83,0)&amp;"+e10*"&amp;IF(T83="単体",U83,0)&amp;"+e11*"&amp;IF(T83="範囲",U83,0)&amp;"+e12*"&amp;IF(T83="人",U83,0)&amp;"+e13*"&amp;IF(T83="異族",U83,0)&amp;"+e14*"&amp;IF(T83="バジュラ",U83,0)&amp;"+e15*"&amp;IF(T83="魔動人形",U83,0)&amp;");"</f>
-        <v>document.getElementById('m081').innerHTML = (b1*0+b2*20+b0*20) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*20+s7*40+s0*40) + (e01*30+e02*0+e03*0+e04*30+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI83&amp;"').innerHTML = (b1*"&amp;TEXT(J83,0)&amp;"+b2*"&amp;TEXT(K83,0)&amp;"+b0*"&amp;TEXT(L83,0)&amp;") + (s1*"&amp;TEXT(W83,0)&amp;"+s2*"&amp;TEXT(X83,0)&amp;"+s3*"&amp;TEXT(Y83,0)&amp;"+s4*"&amp;TEXT(Z83,0)&amp;"+s5*"&amp;TEXT(AA83,0)&amp;"+s6*"&amp;TEXT(AB83,0)&amp;"+s7*"&amp;TEXT(AC83,0)&amp;"+s0*"&amp;TEXT(AD83,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R83)),S83,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R83)),S83,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R83)),S83,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R83)),S83,S83)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R83)),S83,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R83)),S83,0)&amp;"+e07*"&amp;IF(T83="反撃",U83,0)&amp;"+e08*"&amp;IF(T83="風属性",U83,0)&amp;"+e09*"&amp;IF(T83="闇属性",U83,0)&amp;"+e10*"&amp;IF(T83="単体",U83,0)&amp;"+e11*"&amp;IF(T83="範囲",U83,0)&amp;"+e12*"&amp;IF(T83="人",U83,0)&amp;"+e13*"&amp;IF(T83="異族",U83,0)&amp;"+e14*"&amp;IF(T83="バジュラ",U83,0)&amp;"+e15*"&amp;IF(T83="魔動人形",U83,0)&amp;"+e16*"&amp;IF(T83="下位魔神",U83,0)&amp;");"</f>
+        <v>document.getElementById('m081').innerHTML = (b1*0+b2*20+b0*20) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*20+s7*40+s0*40) + (e01*30+e02*0+e03*0+e04*30+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI83" s="35" t="str">
         <f t="shared" si="9"/>
@@ -19559,8 +19618,8 @@
 Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m082'&gt;100&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;単体&lt;/td&gt;&lt;td headers='sp.bonus'&gt;20&lt;/td&gt;&lt;td headers='others'&gt;暴擊率+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;20&lt;/td&gt;&lt;td headers='sinG'&gt;40&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH84" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI84&amp;"').innerHTML = (b1*"&amp;TEXT(J84,0)&amp;"+b2*"&amp;TEXT(K84,0)&amp;"+b0*"&amp;TEXT(L84,0)&amp;") + (s1*"&amp;TEXT(W84,0)&amp;"+s2*"&amp;TEXT(X84,0)&amp;"+s3*"&amp;TEXT(Y84,0)&amp;"+s4*"&amp;TEXT(Z84,0)&amp;"+s5*"&amp;TEXT(AA84,0)&amp;"+s6*"&amp;TEXT(AB84,0)&amp;"+s7*"&amp;TEXT(AC84,0)&amp;"+s0*"&amp;TEXT(AD84,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R84)),S84,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R84)),S84,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R84)),S84,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R84)),S84,S84)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R84)),S84,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R84)),S84,0)&amp;"+e07*"&amp;IF(T84="反撃",U84,0)&amp;"+e08*"&amp;IF(T84="風属性",U84,0)&amp;"+e09*"&amp;IF(T84="闇属性",U84,0)&amp;"+e10*"&amp;IF(T84="単体",U84,0)&amp;"+e11*"&amp;IF(T84="範囲",U84,0)&amp;"+e12*"&amp;IF(T84="人",U84,0)&amp;"+e13*"&amp;IF(T84="異族",U84,0)&amp;"+e14*"&amp;IF(T84="バジュラ",U84,0)&amp;"+e15*"&amp;IF(T84="魔動人形",U84,0)&amp;");"</f>
-        <v>document.getElementById('m082').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*20+s7*40+s0*40) + (e01*40+e02*0+e03*0+e04*40+e05*0+e06*0+e07*0+e08*0+e09*0+e10*20+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI84&amp;"').innerHTML = (b1*"&amp;TEXT(J84,0)&amp;"+b2*"&amp;TEXT(K84,0)&amp;"+b0*"&amp;TEXT(L84,0)&amp;") + (s1*"&amp;TEXT(W84,0)&amp;"+s2*"&amp;TEXT(X84,0)&amp;"+s3*"&amp;TEXT(Y84,0)&amp;"+s4*"&amp;TEXT(Z84,0)&amp;"+s5*"&amp;TEXT(AA84,0)&amp;"+s6*"&amp;TEXT(AB84,0)&amp;"+s7*"&amp;TEXT(AC84,0)&amp;"+s0*"&amp;TEXT(AD84,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R84)),S84,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R84)),S84,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R84)),S84,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R84)),S84,S84)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R84)),S84,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R84)),S84,0)&amp;"+e07*"&amp;IF(T84="反撃",U84,0)&amp;"+e08*"&amp;IF(T84="風属性",U84,0)&amp;"+e09*"&amp;IF(T84="闇属性",U84,0)&amp;"+e10*"&amp;IF(T84="単体",U84,0)&amp;"+e11*"&amp;IF(T84="範囲",U84,0)&amp;"+e12*"&amp;IF(T84="人",U84,0)&amp;"+e13*"&amp;IF(T84="異族",U84,0)&amp;"+e14*"&amp;IF(T84="バジュラ",U84,0)&amp;"+e15*"&amp;IF(T84="魔動人形",U84,0)&amp;"+e16*"&amp;IF(T84="下位魔神",U84,0)&amp;");"</f>
+        <v>document.getElementById('m082').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*20+s7*40+s0*40) + (e01*40+e02*0+e03*0+e04*40+e05*0+e06*0+e07*0+e08*0+e09*0+e10*20+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI84" s="35" t="str">
         <f t="shared" si="9"/>
@@ -19631,8 +19690,8 @@
 Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m083'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;魔法&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;射撃耐性+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;20&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;40&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH85" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI85&amp;"').innerHTML = (b1*"&amp;TEXT(J85,0)&amp;"+b2*"&amp;TEXT(K85,0)&amp;"+b0*"&amp;TEXT(L85,0)&amp;") + (s1*"&amp;TEXT(W85,0)&amp;"+s2*"&amp;TEXT(X85,0)&amp;"+s3*"&amp;TEXT(Y85,0)&amp;"+s4*"&amp;TEXT(Z85,0)&amp;"+s5*"&amp;TEXT(AA85,0)&amp;"+s6*"&amp;TEXT(AB85,0)&amp;"+s7*"&amp;TEXT(AC85,0)&amp;"+s0*"&amp;TEXT(AD85,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R85)),S85,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R85)),S85,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R85)),S85,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R85)),S85,S85)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R85)),S85,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R85)),S85,0)&amp;"+e07*"&amp;IF(T85="反撃",U85,0)&amp;"+e08*"&amp;IF(T85="風属性",U85,0)&amp;"+e09*"&amp;IF(T85="闇属性",U85,0)&amp;"+e10*"&amp;IF(T85="単体",U85,0)&amp;"+e11*"&amp;IF(T85="範囲",U85,0)&amp;"+e12*"&amp;IF(T85="人",U85,0)&amp;"+e13*"&amp;IF(T85="異族",U85,0)&amp;"+e14*"&amp;IF(T85="バジュラ",U85,0)&amp;"+e15*"&amp;IF(T85="魔動人形",U85,0)&amp;");"</f>
-        <v>document.getElementById('m083').innerHTML = (b1*0+b2*30+b0*30) + (s1*0+s2*0+s3*20+s4*0+s5*0+s6*0+s7*40+s0*40) + (e01*0+e02*0+e03*0+e04*20+e05*20+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI85&amp;"').innerHTML = (b1*"&amp;TEXT(J85,0)&amp;"+b2*"&amp;TEXT(K85,0)&amp;"+b0*"&amp;TEXT(L85,0)&amp;") + (s1*"&amp;TEXT(W85,0)&amp;"+s2*"&amp;TEXT(X85,0)&amp;"+s3*"&amp;TEXT(Y85,0)&amp;"+s4*"&amp;TEXT(Z85,0)&amp;"+s5*"&amp;TEXT(AA85,0)&amp;"+s6*"&amp;TEXT(AB85,0)&amp;"+s7*"&amp;TEXT(AC85,0)&amp;"+s0*"&amp;TEXT(AD85,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R85)),S85,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R85)),S85,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R85)),S85,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R85)),S85,S85)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R85)),S85,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R85)),S85,0)&amp;"+e07*"&amp;IF(T85="反撃",U85,0)&amp;"+e08*"&amp;IF(T85="風属性",U85,0)&amp;"+e09*"&amp;IF(T85="闇属性",U85,0)&amp;"+e10*"&amp;IF(T85="単体",U85,0)&amp;"+e11*"&amp;IF(T85="範囲",U85,0)&amp;"+e12*"&amp;IF(T85="人",U85,0)&amp;"+e13*"&amp;IF(T85="異族",U85,0)&amp;"+e14*"&amp;IF(T85="バジュラ",U85,0)&amp;"+e15*"&amp;IF(T85="魔動人形",U85,0)&amp;"+e16*"&amp;IF(T85="下位魔神",U85,0)&amp;");"</f>
+        <v>document.getElementById('m083').innerHTML = (b1*0+b2*30+b0*30) + (s1*0+s2*0+s3*20+s4*0+s5*0+s6*0+s7*40+s0*40) + (e01*0+e02*0+e03*0+e04*20+e05*20+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI85" s="35" t="str">
         <f t="shared" si="9"/>
@@ -19700,8 +19759,8 @@
 Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m084'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;70&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;5&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;打撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;20&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;40&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH86" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI86&amp;"').innerHTML = (b1*"&amp;TEXT(J86,0)&amp;"+b2*"&amp;TEXT(K86,0)&amp;"+b0*"&amp;TEXT(L86,0)&amp;") + (s1*"&amp;TEXT(W86,0)&amp;"+s2*"&amp;TEXT(X86,0)&amp;"+s3*"&amp;TEXT(Y86,0)&amp;"+s4*"&amp;TEXT(Z86,0)&amp;"+s5*"&amp;TEXT(AA86,0)&amp;"+s6*"&amp;TEXT(AB86,0)&amp;"+s7*"&amp;TEXT(AC86,0)&amp;"+s0*"&amp;TEXT(AD86,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R86)),S86,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R86)),S86,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R86)),S86,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R86)),S86,S86)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R86)),S86,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R86)),S86,0)&amp;"+e07*"&amp;IF(T86="反撃",U86,0)&amp;"+e08*"&amp;IF(T86="風属性",U86,0)&amp;"+e09*"&amp;IF(T86="闇属性",U86,0)&amp;"+e10*"&amp;IF(T86="単体",U86,0)&amp;"+e11*"&amp;IF(T86="範囲",U86,0)&amp;"+e12*"&amp;IF(T86="人",U86,0)&amp;"+e13*"&amp;IF(T86="異族",U86,0)&amp;"+e14*"&amp;IF(T86="バジュラ",U86,0)&amp;"+e15*"&amp;IF(T86="魔動人形",U86,0)&amp;");"</f>
-        <v>document.getElementById('m084').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*20+s5*0+s6*0+s7*40+s0*40) + (e01*0+e02*0+e03*20+e04*20+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI86&amp;"').innerHTML = (b1*"&amp;TEXT(J86,0)&amp;"+b2*"&amp;TEXT(K86,0)&amp;"+b0*"&amp;TEXT(L86,0)&amp;") + (s1*"&amp;TEXT(W86,0)&amp;"+s2*"&amp;TEXT(X86,0)&amp;"+s3*"&amp;TEXT(Y86,0)&amp;"+s4*"&amp;TEXT(Z86,0)&amp;"+s5*"&amp;TEXT(AA86,0)&amp;"+s6*"&amp;TEXT(AB86,0)&amp;"+s7*"&amp;TEXT(AC86,0)&amp;"+s0*"&amp;TEXT(AD86,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R86)),S86,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R86)),S86,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R86)),S86,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R86)),S86,S86)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R86)),S86,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R86)),S86,0)&amp;"+e07*"&amp;IF(T86="反撃",U86,0)&amp;"+e08*"&amp;IF(T86="風属性",U86,0)&amp;"+e09*"&amp;IF(T86="闇属性",U86,0)&amp;"+e10*"&amp;IF(T86="単体",U86,0)&amp;"+e11*"&amp;IF(T86="範囲",U86,0)&amp;"+e12*"&amp;IF(T86="人",U86,0)&amp;"+e13*"&amp;IF(T86="異族",U86,0)&amp;"+e14*"&amp;IF(T86="バジュラ",U86,0)&amp;"+e15*"&amp;IF(T86="魔動人形",U86,0)&amp;"+e16*"&amp;IF(T86="下位魔神",U86,0)&amp;");"</f>
+        <v>document.getElementById('m084').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*20+s5*0+s6*0+s7*40+s0*40) + (e01*0+e02*0+e03*20+e04*20+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI86" s="35" t="str">
         <f t="shared" si="9"/>
@@ -19765,8 +19824,8 @@
 Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m085'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;60&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH87" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI87&amp;"').innerHTML = (b1*"&amp;TEXT(J87,0)&amp;"+b2*"&amp;TEXT(K87,0)&amp;"+b0*"&amp;TEXT(L87,0)&amp;") + (s1*"&amp;TEXT(W87,0)&amp;"+s2*"&amp;TEXT(X87,0)&amp;"+s3*"&amp;TEXT(Y87,0)&amp;"+s4*"&amp;TEXT(Z87,0)&amp;"+s5*"&amp;TEXT(AA87,0)&amp;"+s6*"&amp;TEXT(AB87,0)&amp;"+s7*"&amp;TEXT(AC87,0)&amp;"+s0*"&amp;TEXT(AD87,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R87)),S87,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R87)),S87,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R87)),S87,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R87)),S87,S87)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R87)),S87,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R87)),S87,0)&amp;"+e07*"&amp;IF(T87="反撃",U87,0)&amp;"+e08*"&amp;IF(T87="風属性",U87,0)&amp;"+e09*"&amp;IF(T87="闇属性",U87,0)&amp;"+e10*"&amp;IF(T87="単体",U87,0)&amp;"+e11*"&amp;IF(T87="範囲",U87,0)&amp;"+e12*"&amp;IF(T87="人",U87,0)&amp;"+e13*"&amp;IF(T87="異族",U87,0)&amp;"+e14*"&amp;IF(T87="バジュラ",U87,0)&amp;"+e15*"&amp;IF(T87="魔動人形",U87,0)&amp;");"</f>
-        <v>document.getElementById('m085').innerHTML = (b1*30+b2*30+b0*30) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*60+s0*60) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI87&amp;"').innerHTML = (b1*"&amp;TEXT(J87,0)&amp;"+b2*"&amp;TEXT(K87,0)&amp;"+b0*"&amp;TEXT(L87,0)&amp;") + (s1*"&amp;TEXT(W87,0)&amp;"+s2*"&amp;TEXT(X87,0)&amp;"+s3*"&amp;TEXT(Y87,0)&amp;"+s4*"&amp;TEXT(Z87,0)&amp;"+s5*"&amp;TEXT(AA87,0)&amp;"+s6*"&amp;TEXT(AB87,0)&amp;"+s7*"&amp;TEXT(AC87,0)&amp;"+s0*"&amp;TEXT(AD87,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R87)),S87,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R87)),S87,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R87)),S87,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R87)),S87,S87)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R87)),S87,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R87)),S87,0)&amp;"+e07*"&amp;IF(T87="反撃",U87,0)&amp;"+e08*"&amp;IF(T87="風属性",U87,0)&amp;"+e09*"&amp;IF(T87="闇属性",U87,0)&amp;"+e10*"&amp;IF(T87="単体",U87,0)&amp;"+e11*"&amp;IF(T87="範囲",U87,0)&amp;"+e12*"&amp;IF(T87="人",U87,0)&amp;"+e13*"&amp;IF(T87="異族",U87,0)&amp;"+e14*"&amp;IF(T87="バジュラ",U87,0)&amp;"+e15*"&amp;IF(T87="魔動人形",U87,0)&amp;"+e16*"&amp;IF(T87="下位魔神",U87,0)&amp;");"</f>
+        <v>document.getElementById('m085').innerHTML = (b1*30+b2*30+b0*30) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*60+s0*60) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI87" s="35" t="str">
         <f t="shared" si="9"/>
@@ -19837,8 +19896,8 @@
 Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m086'&gt;110&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;射撃&amp;魔法&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;人&lt;/td&gt;&lt;td headers='sp.bonus'&gt;10&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;60&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH88" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI88&amp;"').innerHTML = (b1*"&amp;TEXT(J88,0)&amp;"+b2*"&amp;TEXT(K88,0)&amp;"+b0*"&amp;TEXT(L88,0)&amp;") + (s1*"&amp;TEXT(W88,0)&amp;"+s2*"&amp;TEXT(X88,0)&amp;"+s3*"&amp;TEXT(Y88,0)&amp;"+s4*"&amp;TEXT(Z88,0)&amp;"+s5*"&amp;TEXT(AA88,0)&amp;"+s6*"&amp;TEXT(AB88,0)&amp;"+s7*"&amp;TEXT(AC88,0)&amp;"+s0*"&amp;TEXT(AD88,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R88)),S88,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R88)),S88,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R88)),S88,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R88)),S88,S88)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R88)),S88,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R88)),S88,0)&amp;"+e07*"&amp;IF(T88="反撃",U88,0)&amp;"+e08*"&amp;IF(T88="風属性",U88,0)&amp;"+e09*"&amp;IF(T88="闇属性",U88,0)&amp;"+e10*"&amp;IF(T88="単体",U88,0)&amp;"+e11*"&amp;IF(T88="範囲",U88,0)&amp;"+e12*"&amp;IF(T88="人",U88,0)&amp;"+e13*"&amp;IF(T88="異族",U88,0)&amp;"+e14*"&amp;IF(T88="バジュラ",U88,0)&amp;"+e15*"&amp;IF(T88="魔動人形",U88,0)&amp;");"</f>
-        <v>document.getElementById('m086').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*60+s0*60) + (e01*0+e02*0+e03*0+e04*40+e05*40+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*10+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI88&amp;"').innerHTML = (b1*"&amp;TEXT(J88,0)&amp;"+b2*"&amp;TEXT(K88,0)&amp;"+b0*"&amp;TEXT(L88,0)&amp;") + (s1*"&amp;TEXT(W88,0)&amp;"+s2*"&amp;TEXT(X88,0)&amp;"+s3*"&amp;TEXT(Y88,0)&amp;"+s4*"&amp;TEXT(Z88,0)&amp;"+s5*"&amp;TEXT(AA88,0)&amp;"+s6*"&amp;TEXT(AB88,0)&amp;"+s7*"&amp;TEXT(AC88,0)&amp;"+s0*"&amp;TEXT(AD88,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R88)),S88,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R88)),S88,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R88)),S88,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R88)),S88,S88)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R88)),S88,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R88)),S88,0)&amp;"+e07*"&amp;IF(T88="反撃",U88,0)&amp;"+e08*"&amp;IF(T88="風属性",U88,0)&amp;"+e09*"&amp;IF(T88="闇属性",U88,0)&amp;"+e10*"&amp;IF(T88="単体",U88,0)&amp;"+e11*"&amp;IF(T88="範囲",U88,0)&amp;"+e12*"&amp;IF(T88="人",U88,0)&amp;"+e13*"&amp;IF(T88="異族",U88,0)&amp;"+e14*"&amp;IF(T88="バジュラ",U88,0)&amp;"+e15*"&amp;IF(T88="魔動人形",U88,0)&amp;"+e16*"&amp;IF(T88="下位魔神",U88,0)&amp;");"</f>
+        <v>document.getElementById('m086').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*60+s0*60) + (e01*0+e02*0+e03*0+e04*40+e05*40+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*10+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI88" s="35" t="str">
         <f t="shared" si="9"/>
@@ -19905,8 +19964,8 @@
 Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m087'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;50&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;5&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;水属性耐性+10&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;40&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH89" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI89&amp;"').innerHTML = (b1*"&amp;TEXT(J89,0)&amp;"+b2*"&amp;TEXT(K89,0)&amp;"+b0*"&amp;TEXT(L89,0)&amp;") + (s1*"&amp;TEXT(W89,0)&amp;"+s2*"&amp;TEXT(X89,0)&amp;"+s3*"&amp;TEXT(Y89,0)&amp;"+s4*"&amp;TEXT(Z89,0)&amp;"+s5*"&amp;TEXT(AA89,0)&amp;"+s6*"&amp;TEXT(AB89,0)&amp;"+s7*"&amp;TEXT(AC89,0)&amp;"+s0*"&amp;TEXT(AD89,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R89)),S89,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R89)),S89,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R89)),S89,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R89)),S89,S89)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R89)),S89,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R89)),S89,0)&amp;"+e07*"&amp;IF(T89="反撃",U89,0)&amp;"+e08*"&amp;IF(T89="風属性",U89,0)&amp;"+e09*"&amp;IF(T89="闇属性",U89,0)&amp;"+e10*"&amp;IF(T89="単体",U89,0)&amp;"+e11*"&amp;IF(T89="範囲",U89,0)&amp;"+e12*"&amp;IF(T89="人",U89,0)&amp;"+e13*"&amp;IF(T89="異族",U89,0)&amp;"+e14*"&amp;IF(T89="バジュラ",U89,0)&amp;"+e15*"&amp;IF(T89="魔動人形",U89,0)&amp;");"</f>
-        <v>document.getElementById('m087').innerHTML = (b1*0+b2*50+b0*50) + (s1*20+s2*0+s3*0+s4*0+s5*0+s6*0+s7*40+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI89&amp;"').innerHTML = (b1*"&amp;TEXT(J89,0)&amp;"+b2*"&amp;TEXT(K89,0)&amp;"+b0*"&amp;TEXT(L89,0)&amp;") + (s1*"&amp;TEXT(W89,0)&amp;"+s2*"&amp;TEXT(X89,0)&amp;"+s3*"&amp;TEXT(Y89,0)&amp;"+s4*"&amp;TEXT(Z89,0)&amp;"+s5*"&amp;TEXT(AA89,0)&amp;"+s6*"&amp;TEXT(AB89,0)&amp;"+s7*"&amp;TEXT(AC89,0)&amp;"+s0*"&amp;TEXT(AD89,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R89)),S89,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R89)),S89,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R89)),S89,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R89)),S89,S89)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R89)),S89,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R89)),S89,0)&amp;"+e07*"&amp;IF(T89="反撃",U89,0)&amp;"+e08*"&amp;IF(T89="風属性",U89,0)&amp;"+e09*"&amp;IF(T89="闇属性",U89,0)&amp;"+e10*"&amp;IF(T89="単体",U89,0)&amp;"+e11*"&amp;IF(T89="範囲",U89,0)&amp;"+e12*"&amp;IF(T89="人",U89,0)&amp;"+e13*"&amp;IF(T89="異族",U89,0)&amp;"+e14*"&amp;IF(T89="バジュラ",U89,0)&amp;"+e15*"&amp;IF(T89="魔動人形",U89,0)&amp;"+e16*"&amp;IF(T89="下位魔神",U89,0)&amp;");"</f>
+        <v>document.getElementById('m087').innerHTML = (b1*0+b2*50+b0*50) + (s1*20+s2*0+s3*0+s4*0+s5*0+s6*0+s7*40+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI89" s="35" t="str">
         <f t="shared" si="9"/>
@@ -19977,8 +20036,8 @@
 Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m088'&gt;70&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;30&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH90" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI90&amp;"').innerHTML = (b1*"&amp;TEXT(J90,0)&amp;"+b2*"&amp;TEXT(K90,0)&amp;"+b0*"&amp;TEXT(L90,0)&amp;") + (s1*"&amp;TEXT(W90,0)&amp;"+s2*"&amp;TEXT(X90,0)&amp;"+s3*"&amp;TEXT(Y90,0)&amp;"+s4*"&amp;TEXT(Z90,0)&amp;"+s5*"&amp;TEXT(AA90,0)&amp;"+s6*"&amp;TEXT(AB90,0)&amp;"+s7*"&amp;TEXT(AC90,0)&amp;"+s0*"&amp;TEXT(AD90,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R90)),S90,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R90)),S90,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R90)),S90,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R90)),S90,S90)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R90)),S90,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R90)),S90,0)&amp;"+e07*"&amp;IF(T90="反撃",U90,0)&amp;"+e08*"&amp;IF(T90="風属性",U90,0)&amp;"+e09*"&amp;IF(T90="闇属性",U90,0)&amp;"+e10*"&amp;IF(T90="単体",U90,0)&amp;"+e11*"&amp;IF(T90="範囲",U90,0)&amp;"+e12*"&amp;IF(T90="人",U90,0)&amp;"+e13*"&amp;IF(T90="異族",U90,0)&amp;"+e14*"&amp;IF(T90="バジュラ",U90,0)&amp;"+e15*"&amp;IF(T90="魔動人形",U90,0)&amp;");"</f>
-        <v>document.getElementById('m088').innerHTML = (b1*20+b2*0+b0*20) + (s1*0+s2*0+s3*0+s4*0+s5*30+s6*0+s7*30+s0*30) + (e01*20+e02*0+e03*0+e04*20+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI90&amp;"').innerHTML = (b1*"&amp;TEXT(J90,0)&amp;"+b2*"&amp;TEXT(K90,0)&amp;"+b0*"&amp;TEXT(L90,0)&amp;") + (s1*"&amp;TEXT(W90,0)&amp;"+s2*"&amp;TEXT(X90,0)&amp;"+s3*"&amp;TEXT(Y90,0)&amp;"+s4*"&amp;TEXT(Z90,0)&amp;"+s5*"&amp;TEXT(AA90,0)&amp;"+s6*"&amp;TEXT(AB90,0)&amp;"+s7*"&amp;TEXT(AC90,0)&amp;"+s0*"&amp;TEXT(AD90,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R90)),S90,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R90)),S90,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R90)),S90,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R90)),S90,S90)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R90)),S90,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R90)),S90,0)&amp;"+e07*"&amp;IF(T90="反撃",U90,0)&amp;"+e08*"&amp;IF(T90="風属性",U90,0)&amp;"+e09*"&amp;IF(T90="闇属性",U90,0)&amp;"+e10*"&amp;IF(T90="単体",U90,0)&amp;"+e11*"&amp;IF(T90="範囲",U90,0)&amp;"+e12*"&amp;IF(T90="人",U90,0)&amp;"+e13*"&amp;IF(T90="異族",U90,0)&amp;"+e14*"&amp;IF(T90="バジュラ",U90,0)&amp;"+e15*"&amp;IF(T90="魔動人形",U90,0)&amp;"+e16*"&amp;IF(T90="下位魔神",U90,0)&amp;");"</f>
+        <v>document.getElementById('m088').innerHTML = (b1*20+b2*0+b0*20) + (s1*0+s2*0+s3*0+s4*0+s5*30+s6*0+s7*30+s0*30) + (e01*20+e02*0+e03*0+e04*20+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI90" s="35" t="str">
         <f t="shared" si="9"/>
@@ -20043,8 +20102,8 @@
 Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m089'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;40&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;MP上限+20, 回避+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;20&lt;/td&gt;&lt;td headers='sinG'&gt;40&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH91" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI91&amp;"').innerHTML = (b1*"&amp;TEXT(J91,0)&amp;"+b2*"&amp;TEXT(K91,0)&amp;"+b0*"&amp;TEXT(L91,0)&amp;") + (s1*"&amp;TEXT(W91,0)&amp;"+s2*"&amp;TEXT(X91,0)&amp;"+s3*"&amp;TEXT(Y91,0)&amp;"+s4*"&amp;TEXT(Z91,0)&amp;"+s5*"&amp;TEXT(AA91,0)&amp;"+s6*"&amp;TEXT(AB91,0)&amp;"+s7*"&amp;TEXT(AC91,0)&amp;"+s0*"&amp;TEXT(AD91,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R91)),S91,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R91)),S91,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R91)),S91,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R91)),S91,S91)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R91)),S91,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R91)),S91,0)&amp;"+e07*"&amp;IF(T91="反撃",U91,0)&amp;"+e08*"&amp;IF(T91="風属性",U91,0)&amp;"+e09*"&amp;IF(T91="闇属性",U91,0)&amp;"+e10*"&amp;IF(T91="単体",U91,0)&amp;"+e11*"&amp;IF(T91="範囲",U91,0)&amp;"+e12*"&amp;IF(T91="人",U91,0)&amp;"+e13*"&amp;IF(T91="異族",U91,0)&amp;"+e14*"&amp;IF(T91="バジュラ",U91,0)&amp;"+e15*"&amp;IF(T91="魔動人形",U91,0)&amp;");"</f>
-        <v>document.getElementById('m089').innerHTML = (b1*0+b2*40+b0*40) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*20+s7*40+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI91&amp;"').innerHTML = (b1*"&amp;TEXT(J91,0)&amp;"+b2*"&amp;TEXT(K91,0)&amp;"+b0*"&amp;TEXT(L91,0)&amp;") + (s1*"&amp;TEXT(W91,0)&amp;"+s2*"&amp;TEXT(X91,0)&amp;"+s3*"&amp;TEXT(Y91,0)&amp;"+s4*"&amp;TEXT(Z91,0)&amp;"+s5*"&amp;TEXT(AA91,0)&amp;"+s6*"&amp;TEXT(AB91,0)&amp;"+s7*"&amp;TEXT(AC91,0)&amp;"+s0*"&amp;TEXT(AD91,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R91)),S91,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R91)),S91,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R91)),S91,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R91)),S91,S91)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R91)),S91,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R91)),S91,0)&amp;"+e07*"&amp;IF(T91="反撃",U91,0)&amp;"+e08*"&amp;IF(T91="風属性",U91,0)&amp;"+e09*"&amp;IF(T91="闇属性",U91,0)&amp;"+e10*"&amp;IF(T91="単体",U91,0)&amp;"+e11*"&amp;IF(T91="範囲",U91,0)&amp;"+e12*"&amp;IF(T91="人",U91,0)&amp;"+e13*"&amp;IF(T91="異族",U91,0)&amp;"+e14*"&amp;IF(T91="バジュラ",U91,0)&amp;"+e15*"&amp;IF(T91="魔動人形",U91,0)&amp;"+e16*"&amp;IF(T91="下位魔神",U91,0)&amp;");"</f>
+        <v>document.getElementById('m089').innerHTML = (b1*0+b2*40+b0*40) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*20+s7*40+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI91" s="35" t="str">
         <f t="shared" si="9"/>
@@ -20118,8 +20177,8 @@
 Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m090'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;20&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;20&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH92" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI92&amp;"').innerHTML = (b1*"&amp;TEXT(J92,0)&amp;"+b2*"&amp;TEXT(K92,0)&amp;"+b0*"&amp;TEXT(L92,0)&amp;") + (s1*"&amp;TEXT(W92,0)&amp;"+s2*"&amp;TEXT(X92,0)&amp;"+s3*"&amp;TEXT(Y92,0)&amp;"+s4*"&amp;TEXT(Z92,0)&amp;"+s5*"&amp;TEXT(AA92,0)&amp;"+s6*"&amp;TEXT(AB92,0)&amp;"+s7*"&amp;TEXT(AC92,0)&amp;"+s0*"&amp;TEXT(AD92,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R92)),S92,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R92)),S92,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R92)),S92,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R92)),S92,S92)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R92)),S92,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R92)),S92,0)&amp;"+e07*"&amp;IF(T92="反撃",U92,0)&amp;"+e08*"&amp;IF(T92="風属性",U92,0)&amp;"+e09*"&amp;IF(T92="闇属性",U92,0)&amp;"+e10*"&amp;IF(T92="単体",U92,0)&amp;"+e11*"&amp;IF(T92="範囲",U92,0)&amp;"+e12*"&amp;IF(T92="人",U92,0)&amp;"+e13*"&amp;IF(T92="異族",U92,0)&amp;"+e14*"&amp;IF(T92="バジュラ",U92,0)&amp;"+e15*"&amp;IF(T92="魔動人形",U92,0)&amp;");"</f>
-        <v>document.getElementById('m090').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*0+s3*20+s4*0+s5*20+s6*0+s7*20+s0*20) + (e01*40+e02*0+e03*0+e04*40+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI92&amp;"').innerHTML = (b1*"&amp;TEXT(J92,0)&amp;"+b2*"&amp;TEXT(K92,0)&amp;"+b0*"&amp;TEXT(L92,0)&amp;") + (s1*"&amp;TEXT(W92,0)&amp;"+s2*"&amp;TEXT(X92,0)&amp;"+s3*"&amp;TEXT(Y92,0)&amp;"+s4*"&amp;TEXT(Z92,0)&amp;"+s5*"&amp;TEXT(AA92,0)&amp;"+s6*"&amp;TEXT(AB92,0)&amp;"+s7*"&amp;TEXT(AC92,0)&amp;"+s0*"&amp;TEXT(AD92,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R92)),S92,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R92)),S92,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R92)),S92,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R92)),S92,S92)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R92)),S92,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R92)),S92,0)&amp;"+e07*"&amp;IF(T92="反撃",U92,0)&amp;"+e08*"&amp;IF(T92="風属性",U92,0)&amp;"+e09*"&amp;IF(T92="闇属性",U92,0)&amp;"+e10*"&amp;IF(T92="単体",U92,0)&amp;"+e11*"&amp;IF(T92="範囲",U92,0)&amp;"+e12*"&amp;IF(T92="人",U92,0)&amp;"+e13*"&amp;IF(T92="異族",U92,0)&amp;"+e14*"&amp;IF(T92="バジュラ",U92,0)&amp;"+e15*"&amp;IF(T92="魔動人形",U92,0)&amp;"+e16*"&amp;IF(T92="下位魔神",U92,0)&amp;");"</f>
+        <v>document.getElementById('m090').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*0+s3*20+s4*0+s5*20+s6*0+s7*20+s0*20) + (e01*40+e02*0+e03*0+e04*40+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI92" s="35" t="str">
         <f t="shared" si="9"/>
@@ -20172,8 +20231,8 @@
 Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m091'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH93" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI93&amp;"').innerHTML = (b1*"&amp;TEXT(J93,0)&amp;"+b2*"&amp;TEXT(K93,0)&amp;"+b0*"&amp;TEXT(L93,0)&amp;") + (s1*"&amp;TEXT(W93,0)&amp;"+s2*"&amp;TEXT(X93,0)&amp;"+s3*"&amp;TEXT(Y93,0)&amp;"+s4*"&amp;TEXT(Z93,0)&amp;"+s5*"&amp;TEXT(AA93,0)&amp;"+s6*"&amp;TEXT(AB93,0)&amp;"+s7*"&amp;TEXT(AC93,0)&amp;"+s0*"&amp;TEXT(AD93,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R93)),S93,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R93)),S93,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R93)),S93,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R93)),S93,S93)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R93)),S93,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R93)),S93,0)&amp;"+e07*"&amp;IF(T93="反撃",U93,0)&amp;"+e08*"&amp;IF(T93="風属性",U93,0)&amp;"+e09*"&amp;IF(T93="闇属性",U93,0)&amp;"+e10*"&amp;IF(T93="単体",U93,0)&amp;"+e11*"&amp;IF(T93="範囲",U93,0)&amp;"+e12*"&amp;IF(T93="人",U93,0)&amp;"+e13*"&amp;IF(T93="異族",U93,0)&amp;"+e14*"&amp;IF(T93="バジュラ",U93,0)&amp;"+e15*"&amp;IF(T93="魔動人形",U93,0)&amp;");"</f>
-        <v>document.getElementById('m091').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI93&amp;"').innerHTML = (b1*"&amp;TEXT(J93,0)&amp;"+b2*"&amp;TEXT(K93,0)&amp;"+b0*"&amp;TEXT(L93,0)&amp;") + (s1*"&amp;TEXT(W93,0)&amp;"+s2*"&amp;TEXT(X93,0)&amp;"+s3*"&amp;TEXT(Y93,0)&amp;"+s4*"&amp;TEXT(Z93,0)&amp;"+s5*"&amp;TEXT(AA93,0)&amp;"+s6*"&amp;TEXT(AB93,0)&amp;"+s7*"&amp;TEXT(AC93,0)&amp;"+s0*"&amp;TEXT(AD93,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R93)),S93,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R93)),S93,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R93)),S93,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R93)),S93,S93)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R93)),S93,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R93)),S93,0)&amp;"+e07*"&amp;IF(T93="反撃",U93,0)&amp;"+e08*"&amp;IF(T93="風属性",U93,0)&amp;"+e09*"&amp;IF(T93="闇属性",U93,0)&amp;"+e10*"&amp;IF(T93="単体",U93,0)&amp;"+e11*"&amp;IF(T93="範囲",U93,0)&amp;"+e12*"&amp;IF(T93="人",U93,0)&amp;"+e13*"&amp;IF(T93="異族",U93,0)&amp;"+e14*"&amp;IF(T93="バジュラ",U93,0)&amp;"+e15*"&amp;IF(T93="魔動人形",U93,0)&amp;"+e16*"&amp;IF(T93="下位魔神",U93,0)&amp;");"</f>
+        <v>document.getElementById('m091').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI93" s="35" t="str">
         <f t="shared" si="9"/>
@@ -20226,8 +20285,8 @@
 Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m092'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH94" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI94&amp;"').innerHTML = (b1*"&amp;TEXT(J94,0)&amp;"+b2*"&amp;TEXT(K94,0)&amp;"+b0*"&amp;TEXT(L94,0)&amp;") + (s1*"&amp;TEXT(W94,0)&amp;"+s2*"&amp;TEXT(X94,0)&amp;"+s3*"&amp;TEXT(Y94,0)&amp;"+s4*"&amp;TEXT(Z94,0)&amp;"+s5*"&amp;TEXT(AA94,0)&amp;"+s6*"&amp;TEXT(AB94,0)&amp;"+s7*"&amp;TEXT(AC94,0)&amp;"+s0*"&amp;TEXT(AD94,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R94)),S94,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R94)),S94,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R94)),S94,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R94)),S94,S94)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R94)),S94,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R94)),S94,0)&amp;"+e07*"&amp;IF(T94="反撃",U94,0)&amp;"+e08*"&amp;IF(T94="風属性",U94,0)&amp;"+e09*"&amp;IF(T94="闇属性",U94,0)&amp;"+e10*"&amp;IF(T94="単体",U94,0)&amp;"+e11*"&amp;IF(T94="範囲",U94,0)&amp;"+e12*"&amp;IF(T94="人",U94,0)&amp;"+e13*"&amp;IF(T94="異族",U94,0)&amp;"+e14*"&amp;IF(T94="バジュラ",U94,0)&amp;"+e15*"&amp;IF(T94="魔動人形",U94,0)&amp;");"</f>
-        <v>document.getElementById('m092').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI94&amp;"').innerHTML = (b1*"&amp;TEXT(J94,0)&amp;"+b2*"&amp;TEXT(K94,0)&amp;"+b0*"&amp;TEXT(L94,0)&amp;") + (s1*"&amp;TEXT(W94,0)&amp;"+s2*"&amp;TEXT(X94,0)&amp;"+s3*"&amp;TEXT(Y94,0)&amp;"+s4*"&amp;TEXT(Z94,0)&amp;"+s5*"&amp;TEXT(AA94,0)&amp;"+s6*"&amp;TEXT(AB94,0)&amp;"+s7*"&amp;TEXT(AC94,0)&amp;"+s0*"&amp;TEXT(AD94,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R94)),S94,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R94)),S94,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R94)),S94,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R94)),S94,S94)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R94)),S94,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R94)),S94,0)&amp;"+e07*"&amp;IF(T94="反撃",U94,0)&amp;"+e08*"&amp;IF(T94="風属性",U94,0)&amp;"+e09*"&amp;IF(T94="闇属性",U94,0)&amp;"+e10*"&amp;IF(T94="単体",U94,0)&amp;"+e11*"&amp;IF(T94="範囲",U94,0)&amp;"+e12*"&amp;IF(T94="人",U94,0)&amp;"+e13*"&amp;IF(T94="異族",U94,0)&amp;"+e14*"&amp;IF(T94="バジュラ",U94,0)&amp;"+e15*"&amp;IF(T94="魔動人形",U94,0)&amp;"+e16*"&amp;IF(T94="下位魔神",U94,0)&amp;");"</f>
+        <v>document.getElementById('m092').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI94" s="35" t="str">
         <f t="shared" si="9"/>
@@ -20280,8 +20339,8 @@
 Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m093'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH95" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI95&amp;"').innerHTML = (b1*"&amp;TEXT(J95,0)&amp;"+b2*"&amp;TEXT(K95,0)&amp;"+b0*"&amp;TEXT(L95,0)&amp;") + (s1*"&amp;TEXT(W95,0)&amp;"+s2*"&amp;TEXT(X95,0)&amp;"+s3*"&amp;TEXT(Y95,0)&amp;"+s4*"&amp;TEXT(Z95,0)&amp;"+s5*"&amp;TEXT(AA95,0)&amp;"+s6*"&amp;TEXT(AB95,0)&amp;"+s7*"&amp;TEXT(AC95,0)&amp;"+s0*"&amp;TEXT(AD95,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R95)),S95,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R95)),S95,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R95)),S95,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R95)),S95,S95)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R95)),S95,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R95)),S95,0)&amp;"+e07*"&amp;IF(T95="反撃",U95,0)&amp;"+e08*"&amp;IF(T95="風属性",U95,0)&amp;"+e09*"&amp;IF(T95="闇属性",U95,0)&amp;"+e10*"&amp;IF(T95="単体",U95,0)&amp;"+e11*"&amp;IF(T95="範囲",U95,0)&amp;"+e12*"&amp;IF(T95="人",U95,0)&amp;"+e13*"&amp;IF(T95="異族",U95,0)&amp;"+e14*"&amp;IF(T95="バジュラ",U95,0)&amp;"+e15*"&amp;IF(T95="魔動人形",U95,0)&amp;");"</f>
-        <v>document.getElementById('m093').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI95&amp;"').innerHTML = (b1*"&amp;TEXT(J95,0)&amp;"+b2*"&amp;TEXT(K95,0)&amp;"+b0*"&amp;TEXT(L95,0)&amp;") + (s1*"&amp;TEXT(W95,0)&amp;"+s2*"&amp;TEXT(X95,0)&amp;"+s3*"&amp;TEXT(Y95,0)&amp;"+s4*"&amp;TEXT(Z95,0)&amp;"+s5*"&amp;TEXT(AA95,0)&amp;"+s6*"&amp;TEXT(AB95,0)&amp;"+s7*"&amp;TEXT(AC95,0)&amp;"+s0*"&amp;TEXT(AD95,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R95)),S95,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R95)),S95,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R95)),S95,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R95)),S95,S95)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R95)),S95,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R95)),S95,0)&amp;"+e07*"&amp;IF(T95="反撃",U95,0)&amp;"+e08*"&amp;IF(T95="風属性",U95,0)&amp;"+e09*"&amp;IF(T95="闇属性",U95,0)&amp;"+e10*"&amp;IF(T95="単体",U95,0)&amp;"+e11*"&amp;IF(T95="範囲",U95,0)&amp;"+e12*"&amp;IF(T95="人",U95,0)&amp;"+e13*"&amp;IF(T95="異族",U95,0)&amp;"+e14*"&amp;IF(T95="バジュラ",U95,0)&amp;"+e15*"&amp;IF(T95="魔動人形",U95,0)&amp;"+e16*"&amp;IF(T95="下位魔神",U95,0)&amp;");"</f>
+        <v>document.getElementById('m093').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI95" s="35" t="str">
         <f t="shared" si="9"/>
@@ -20331,8 +20390,8 @@
 Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m094'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH96" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI96&amp;"').innerHTML = (b1*"&amp;TEXT(J96,0)&amp;"+b2*"&amp;TEXT(K96,0)&amp;"+b0*"&amp;TEXT(L96,0)&amp;") + (s1*"&amp;TEXT(W96,0)&amp;"+s2*"&amp;TEXT(X96,0)&amp;"+s3*"&amp;TEXT(Y96,0)&amp;"+s4*"&amp;TEXT(Z96,0)&amp;"+s5*"&amp;TEXT(AA96,0)&amp;"+s6*"&amp;TEXT(AB96,0)&amp;"+s7*"&amp;TEXT(AC96,0)&amp;"+s0*"&amp;TEXT(AD96,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R96)),S96,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R96)),S96,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R96)),S96,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R96)),S96,S96)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R96)),S96,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R96)),S96,0)&amp;"+e07*"&amp;IF(T96="反撃",U96,0)&amp;"+e08*"&amp;IF(T96="風属性",U96,0)&amp;"+e09*"&amp;IF(T96="闇属性",U96,0)&amp;"+e10*"&amp;IF(T96="単体",U96,0)&amp;"+e11*"&amp;IF(T96="範囲",U96,0)&amp;"+e12*"&amp;IF(T96="人",U96,0)&amp;"+e13*"&amp;IF(T96="異族",U96,0)&amp;"+e14*"&amp;IF(T96="バジュラ",U96,0)&amp;"+e15*"&amp;IF(T96="魔動人形",U96,0)&amp;");"</f>
-        <v>document.getElementById('m094').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI96&amp;"').innerHTML = (b1*"&amp;TEXT(J96,0)&amp;"+b2*"&amp;TEXT(K96,0)&amp;"+b0*"&amp;TEXT(L96,0)&amp;") + (s1*"&amp;TEXT(W96,0)&amp;"+s2*"&amp;TEXT(X96,0)&amp;"+s3*"&amp;TEXT(Y96,0)&amp;"+s4*"&amp;TEXT(Z96,0)&amp;"+s5*"&amp;TEXT(AA96,0)&amp;"+s6*"&amp;TEXT(AB96,0)&amp;"+s7*"&amp;TEXT(AC96,0)&amp;"+s0*"&amp;TEXT(AD96,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R96)),S96,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R96)),S96,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R96)),S96,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R96)),S96,S96)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R96)),S96,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R96)),S96,0)&amp;"+e07*"&amp;IF(T96="反撃",U96,0)&amp;"+e08*"&amp;IF(T96="風属性",U96,0)&amp;"+e09*"&amp;IF(T96="闇属性",U96,0)&amp;"+e10*"&amp;IF(T96="単体",U96,0)&amp;"+e11*"&amp;IF(T96="範囲",U96,0)&amp;"+e12*"&amp;IF(T96="人",U96,0)&amp;"+e13*"&amp;IF(T96="異族",U96,0)&amp;"+e14*"&amp;IF(T96="バジュラ",U96,0)&amp;"+e15*"&amp;IF(T96="魔動人形",U96,0)&amp;"+e16*"&amp;IF(T96="下位魔神",U96,0)&amp;");"</f>
+        <v>document.getElementById('m094').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI96" s="35" t="str">
         <f t="shared" si="9"/>
@@ -20385,8 +20444,8 @@
 Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m095'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH97" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI97&amp;"').innerHTML = (b1*"&amp;TEXT(J97,0)&amp;"+b2*"&amp;TEXT(K97,0)&amp;"+b0*"&amp;TEXT(L97,0)&amp;") + (s1*"&amp;TEXT(W97,0)&amp;"+s2*"&amp;TEXT(X97,0)&amp;"+s3*"&amp;TEXT(Y97,0)&amp;"+s4*"&amp;TEXT(Z97,0)&amp;"+s5*"&amp;TEXT(AA97,0)&amp;"+s6*"&amp;TEXT(AB97,0)&amp;"+s7*"&amp;TEXT(AC97,0)&amp;"+s0*"&amp;TEXT(AD97,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R97)),S97,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R97)),S97,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R97)),S97,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R97)),S97,S97)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R97)),S97,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R97)),S97,0)&amp;"+e07*"&amp;IF(T97="反撃",U97,0)&amp;"+e08*"&amp;IF(T97="風属性",U97,0)&amp;"+e09*"&amp;IF(T97="闇属性",U97,0)&amp;"+e10*"&amp;IF(T97="単体",U97,0)&amp;"+e11*"&amp;IF(T97="範囲",U97,0)&amp;"+e12*"&amp;IF(T97="人",U97,0)&amp;"+e13*"&amp;IF(T97="異族",U97,0)&amp;"+e14*"&amp;IF(T97="バジュラ",U97,0)&amp;"+e15*"&amp;IF(T97="魔動人形",U97,0)&amp;");"</f>
-        <v>document.getElementById('m095').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI97&amp;"').innerHTML = (b1*"&amp;TEXT(J97,0)&amp;"+b2*"&amp;TEXT(K97,0)&amp;"+b0*"&amp;TEXT(L97,0)&amp;") + (s1*"&amp;TEXT(W97,0)&amp;"+s2*"&amp;TEXT(X97,0)&amp;"+s3*"&amp;TEXT(Y97,0)&amp;"+s4*"&amp;TEXT(Z97,0)&amp;"+s5*"&amp;TEXT(AA97,0)&amp;"+s6*"&amp;TEXT(AB97,0)&amp;"+s7*"&amp;TEXT(AC97,0)&amp;"+s0*"&amp;TEXT(AD97,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R97)),S97,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R97)),S97,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R97)),S97,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R97)),S97,S97)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R97)),S97,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R97)),S97,0)&amp;"+e07*"&amp;IF(T97="反撃",U97,0)&amp;"+e08*"&amp;IF(T97="風属性",U97,0)&amp;"+e09*"&amp;IF(T97="闇属性",U97,0)&amp;"+e10*"&amp;IF(T97="単体",U97,0)&amp;"+e11*"&amp;IF(T97="範囲",U97,0)&amp;"+e12*"&amp;IF(T97="人",U97,0)&amp;"+e13*"&amp;IF(T97="異族",U97,0)&amp;"+e14*"&amp;IF(T97="バジュラ",U97,0)&amp;"+e15*"&amp;IF(T97="魔動人形",U97,0)&amp;"+e16*"&amp;IF(T97="下位魔神",U97,0)&amp;");"</f>
+        <v>document.getElementById('m095').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI97" s="35" t="str">
         <f t="shared" si="9"/>
@@ -20436,8 +20495,8 @@
 Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m096'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH98" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI98&amp;"').innerHTML = (b1*"&amp;TEXT(J98,0)&amp;"+b2*"&amp;TEXT(K98,0)&amp;"+b0*"&amp;TEXT(L98,0)&amp;") + (s1*"&amp;TEXT(W98,0)&amp;"+s2*"&amp;TEXT(X98,0)&amp;"+s3*"&amp;TEXT(Y98,0)&amp;"+s4*"&amp;TEXT(Z98,0)&amp;"+s5*"&amp;TEXT(AA98,0)&amp;"+s6*"&amp;TEXT(AB98,0)&amp;"+s7*"&amp;TEXT(AC98,0)&amp;"+s0*"&amp;TEXT(AD98,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R98)),S98,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R98)),S98,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R98)),S98,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R98)),S98,S98)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R98)),S98,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R98)),S98,0)&amp;"+e07*"&amp;IF(T98="反撃",U98,0)&amp;"+e08*"&amp;IF(T98="風属性",U98,0)&amp;"+e09*"&amp;IF(T98="闇属性",U98,0)&amp;"+e10*"&amp;IF(T98="単体",U98,0)&amp;"+e11*"&amp;IF(T98="範囲",U98,0)&amp;"+e12*"&amp;IF(T98="人",U98,0)&amp;"+e13*"&amp;IF(T98="異族",U98,0)&amp;"+e14*"&amp;IF(T98="バジュラ",U98,0)&amp;"+e15*"&amp;IF(T98="魔動人形",U98,0)&amp;");"</f>
-        <v>document.getElementById('m096').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI98&amp;"').innerHTML = (b1*"&amp;TEXT(J98,0)&amp;"+b2*"&amp;TEXT(K98,0)&amp;"+b0*"&amp;TEXT(L98,0)&amp;") + (s1*"&amp;TEXT(W98,0)&amp;"+s2*"&amp;TEXT(X98,0)&amp;"+s3*"&amp;TEXT(Y98,0)&amp;"+s4*"&amp;TEXT(Z98,0)&amp;"+s5*"&amp;TEXT(AA98,0)&amp;"+s6*"&amp;TEXT(AB98,0)&amp;"+s7*"&amp;TEXT(AC98,0)&amp;"+s0*"&amp;TEXT(AD98,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R98)),S98,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R98)),S98,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R98)),S98,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R98)),S98,S98)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R98)),S98,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R98)),S98,0)&amp;"+e07*"&amp;IF(T98="反撃",U98,0)&amp;"+e08*"&amp;IF(T98="風属性",U98,0)&amp;"+e09*"&amp;IF(T98="闇属性",U98,0)&amp;"+e10*"&amp;IF(T98="単体",U98,0)&amp;"+e11*"&amp;IF(T98="範囲",U98,0)&amp;"+e12*"&amp;IF(T98="人",U98,0)&amp;"+e13*"&amp;IF(T98="異族",U98,0)&amp;"+e14*"&amp;IF(T98="バジュラ",U98,0)&amp;"+e15*"&amp;IF(T98="魔動人形",U98,0)&amp;"+e16*"&amp;IF(T98="下位魔神",U98,0)&amp;");"</f>
+        <v>document.getElementById('m096').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI98" s="35" t="str">
         <f t="shared" si="9"/>
@@ -20490,8 +20549,8 @@
 Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m097'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH99" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI99&amp;"').innerHTML = (b1*"&amp;TEXT(J99,0)&amp;"+b2*"&amp;TEXT(K99,0)&amp;"+b0*"&amp;TEXT(L99,0)&amp;") + (s1*"&amp;TEXT(W99,0)&amp;"+s2*"&amp;TEXT(X99,0)&amp;"+s3*"&amp;TEXT(Y99,0)&amp;"+s4*"&amp;TEXT(Z99,0)&amp;"+s5*"&amp;TEXT(AA99,0)&amp;"+s6*"&amp;TEXT(AB99,0)&amp;"+s7*"&amp;TEXT(AC99,0)&amp;"+s0*"&amp;TEXT(AD99,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R99)),S99,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R99)),S99,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R99)),S99,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R99)),S99,S99)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R99)),S99,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R99)),S99,0)&amp;"+e07*"&amp;IF(T99="反撃",U99,0)&amp;"+e08*"&amp;IF(T99="風属性",U99,0)&amp;"+e09*"&amp;IF(T99="闇属性",U99,0)&amp;"+e10*"&amp;IF(T99="単体",U99,0)&amp;"+e11*"&amp;IF(T99="範囲",U99,0)&amp;"+e12*"&amp;IF(T99="人",U99,0)&amp;"+e13*"&amp;IF(T99="異族",U99,0)&amp;"+e14*"&amp;IF(T99="バジュラ",U99,0)&amp;"+e15*"&amp;IF(T99="魔動人形",U99,0)&amp;");"</f>
-        <v>document.getElementById('m097').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI99&amp;"').innerHTML = (b1*"&amp;TEXT(J99,0)&amp;"+b2*"&amp;TEXT(K99,0)&amp;"+b0*"&amp;TEXT(L99,0)&amp;") + (s1*"&amp;TEXT(W99,0)&amp;"+s2*"&amp;TEXT(X99,0)&amp;"+s3*"&amp;TEXT(Y99,0)&amp;"+s4*"&amp;TEXT(Z99,0)&amp;"+s5*"&amp;TEXT(AA99,0)&amp;"+s6*"&amp;TEXT(AB99,0)&amp;"+s7*"&amp;TEXT(AC99,0)&amp;"+s0*"&amp;TEXT(AD99,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R99)),S99,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R99)),S99,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R99)),S99,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R99)),S99,S99)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R99)),S99,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R99)),S99,0)&amp;"+e07*"&amp;IF(T99="反撃",U99,0)&amp;"+e08*"&amp;IF(T99="風属性",U99,0)&amp;"+e09*"&amp;IF(T99="闇属性",U99,0)&amp;"+e10*"&amp;IF(T99="単体",U99,0)&amp;"+e11*"&amp;IF(T99="範囲",U99,0)&amp;"+e12*"&amp;IF(T99="人",U99,0)&amp;"+e13*"&amp;IF(T99="異族",U99,0)&amp;"+e14*"&amp;IF(T99="バジュラ",U99,0)&amp;"+e15*"&amp;IF(T99="魔動人形",U99,0)&amp;"+e16*"&amp;IF(T99="下位魔神",U99,0)&amp;");"</f>
+        <v>document.getElementById('m097').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI99" s="35" t="str">
         <f t="shared" si="9"/>
@@ -20544,8 +20603,8 @@
 Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m098'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH100" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI100&amp;"').innerHTML = (b1*"&amp;TEXT(J100,0)&amp;"+b2*"&amp;TEXT(K100,0)&amp;"+b0*"&amp;TEXT(L100,0)&amp;") + (s1*"&amp;TEXT(W100,0)&amp;"+s2*"&amp;TEXT(X100,0)&amp;"+s3*"&amp;TEXT(Y100,0)&amp;"+s4*"&amp;TEXT(Z100,0)&amp;"+s5*"&amp;TEXT(AA100,0)&amp;"+s6*"&amp;TEXT(AB100,0)&amp;"+s7*"&amp;TEXT(AC100,0)&amp;"+s0*"&amp;TEXT(AD100,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R100)),S100,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R100)),S100,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R100)),S100,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R100)),S100,S100)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R100)),S100,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R100)),S100,0)&amp;"+e07*"&amp;IF(T100="反撃",U100,0)&amp;"+e08*"&amp;IF(T100="風属性",U100,0)&amp;"+e09*"&amp;IF(T100="闇属性",U100,0)&amp;"+e10*"&amp;IF(T100="単体",U100,0)&amp;"+e11*"&amp;IF(T100="範囲",U100,0)&amp;"+e12*"&amp;IF(T100="人",U100,0)&amp;"+e13*"&amp;IF(T100="異族",U100,0)&amp;"+e14*"&amp;IF(T100="バジュラ",U100,0)&amp;"+e15*"&amp;IF(T100="魔動人形",U100,0)&amp;");"</f>
-        <v>document.getElementById('m098').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI100&amp;"').innerHTML = (b1*"&amp;TEXT(J100,0)&amp;"+b2*"&amp;TEXT(K100,0)&amp;"+b0*"&amp;TEXT(L100,0)&amp;") + (s1*"&amp;TEXT(W100,0)&amp;"+s2*"&amp;TEXT(X100,0)&amp;"+s3*"&amp;TEXT(Y100,0)&amp;"+s4*"&amp;TEXT(Z100,0)&amp;"+s5*"&amp;TEXT(AA100,0)&amp;"+s6*"&amp;TEXT(AB100,0)&amp;"+s7*"&amp;TEXT(AC100,0)&amp;"+s0*"&amp;TEXT(AD100,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R100)),S100,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R100)),S100,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R100)),S100,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R100)),S100,S100)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R100)),S100,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R100)),S100,0)&amp;"+e07*"&amp;IF(T100="反撃",U100,0)&amp;"+e08*"&amp;IF(T100="風属性",U100,0)&amp;"+e09*"&amp;IF(T100="闇属性",U100,0)&amp;"+e10*"&amp;IF(T100="単体",U100,0)&amp;"+e11*"&amp;IF(T100="範囲",U100,0)&amp;"+e12*"&amp;IF(T100="人",U100,0)&amp;"+e13*"&amp;IF(T100="異族",U100,0)&amp;"+e14*"&amp;IF(T100="バジュラ",U100,0)&amp;"+e15*"&amp;IF(T100="魔動人形",U100,0)&amp;"+e16*"&amp;IF(T100="下位魔神",U100,0)&amp;");"</f>
+        <v>document.getElementById('m098').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI100" s="35" t="str">
         <f t="shared" si="9"/>
@@ -20598,8 +20657,8 @@
 Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m099'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH101" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI101&amp;"').innerHTML = (b1*"&amp;TEXT(J101,0)&amp;"+b2*"&amp;TEXT(K101,0)&amp;"+b0*"&amp;TEXT(L101,0)&amp;") + (s1*"&amp;TEXT(W101,0)&amp;"+s2*"&amp;TEXT(X101,0)&amp;"+s3*"&amp;TEXT(Y101,0)&amp;"+s4*"&amp;TEXT(Z101,0)&amp;"+s5*"&amp;TEXT(AA101,0)&amp;"+s6*"&amp;TEXT(AB101,0)&amp;"+s7*"&amp;TEXT(AC101,0)&amp;"+s0*"&amp;TEXT(AD101,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R101)),S101,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R101)),S101,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R101)),S101,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R101)),S101,S101)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R101)),S101,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R101)),S101,0)&amp;"+e07*"&amp;IF(T101="反撃",U101,0)&amp;"+e08*"&amp;IF(T101="風属性",U101,0)&amp;"+e09*"&amp;IF(T101="闇属性",U101,0)&amp;"+e10*"&amp;IF(T101="単体",U101,0)&amp;"+e11*"&amp;IF(T101="範囲",U101,0)&amp;"+e12*"&amp;IF(T101="人",U101,0)&amp;"+e13*"&amp;IF(T101="異族",U101,0)&amp;"+e14*"&amp;IF(T101="バジュラ",U101,0)&amp;"+e15*"&amp;IF(T101="魔動人形",U101,0)&amp;");"</f>
-        <v>document.getElementById('m099').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI101&amp;"').innerHTML = (b1*"&amp;TEXT(J101,0)&amp;"+b2*"&amp;TEXT(K101,0)&amp;"+b0*"&amp;TEXT(L101,0)&amp;") + (s1*"&amp;TEXT(W101,0)&amp;"+s2*"&amp;TEXT(X101,0)&amp;"+s3*"&amp;TEXT(Y101,0)&amp;"+s4*"&amp;TEXT(Z101,0)&amp;"+s5*"&amp;TEXT(AA101,0)&amp;"+s6*"&amp;TEXT(AB101,0)&amp;"+s7*"&amp;TEXT(AC101,0)&amp;"+s0*"&amp;TEXT(AD101,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R101)),S101,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R101)),S101,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R101)),S101,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R101)),S101,S101)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R101)),S101,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R101)),S101,0)&amp;"+e07*"&amp;IF(T101="反撃",U101,0)&amp;"+e08*"&amp;IF(T101="風属性",U101,0)&amp;"+e09*"&amp;IF(T101="闇属性",U101,0)&amp;"+e10*"&amp;IF(T101="単体",U101,0)&amp;"+e11*"&amp;IF(T101="範囲",U101,0)&amp;"+e12*"&amp;IF(T101="人",U101,0)&amp;"+e13*"&amp;IF(T101="異族",U101,0)&amp;"+e14*"&amp;IF(T101="バジュラ",U101,0)&amp;"+e15*"&amp;IF(T101="魔動人形",U101,0)&amp;"+e16*"&amp;IF(T101="下位魔神",U101,0)&amp;");"</f>
+        <v>document.getElementById('m099').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI101" s="35" t="str">
         <f t="shared" si="9"/>
@@ -20667,8 +20726,8 @@
 Lustburg&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m100'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;60&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+5&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;30&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH102" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI102&amp;"').innerHTML = (b1*"&amp;TEXT(J102,0)&amp;"+b2*"&amp;TEXT(K102,0)&amp;"+b0*"&amp;TEXT(L102,0)&amp;") + (s1*"&amp;TEXT(W102,0)&amp;"+s2*"&amp;TEXT(X102,0)&amp;"+s3*"&amp;TEXT(Y102,0)&amp;"+s4*"&amp;TEXT(Z102,0)&amp;"+s5*"&amp;TEXT(AA102,0)&amp;"+s6*"&amp;TEXT(AB102,0)&amp;"+s7*"&amp;TEXT(AC102,0)&amp;"+s0*"&amp;TEXT(AD102,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R102)),S102,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R102)),S102,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R102)),S102,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R102)),S102,S102)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R102)),S102,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R102)),S102,0)&amp;"+e07*"&amp;IF(T102="反撃",U102,0)&amp;"+e08*"&amp;IF(T102="風属性",U102,0)&amp;"+e09*"&amp;IF(T102="闇属性",U102,0)&amp;"+e10*"&amp;IF(T102="単体",U102,0)&amp;"+e11*"&amp;IF(T102="範囲",U102,0)&amp;"+e12*"&amp;IF(T102="人",U102,0)&amp;"+e13*"&amp;IF(T102="異族",U102,0)&amp;"+e14*"&amp;IF(T102="バジュラ",U102,0)&amp;"+e15*"&amp;IF(T102="魔動人形",U102,0)&amp;");"</f>
-        <v>document.getElementById('m100').innerHTML = (b1*0+b2*30+b0*30) + (s1*0+s2*0+s3*30+s4*0+s5*0+s6*30+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI102&amp;"').innerHTML = (b1*"&amp;TEXT(J102,0)&amp;"+b2*"&amp;TEXT(K102,0)&amp;"+b0*"&amp;TEXT(L102,0)&amp;") + (s1*"&amp;TEXT(W102,0)&amp;"+s2*"&amp;TEXT(X102,0)&amp;"+s3*"&amp;TEXT(Y102,0)&amp;"+s4*"&amp;TEXT(Z102,0)&amp;"+s5*"&amp;TEXT(AA102,0)&amp;"+s6*"&amp;TEXT(AB102,0)&amp;"+s7*"&amp;TEXT(AC102,0)&amp;"+s0*"&amp;TEXT(AD102,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R102)),S102,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R102)),S102,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R102)),S102,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R102)),S102,S102)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R102)),S102,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R102)),S102,0)&amp;"+e07*"&amp;IF(T102="反撃",U102,0)&amp;"+e08*"&amp;IF(T102="風属性",U102,0)&amp;"+e09*"&amp;IF(T102="闇属性",U102,0)&amp;"+e10*"&amp;IF(T102="単体",U102,0)&amp;"+e11*"&amp;IF(T102="範囲",U102,0)&amp;"+e12*"&amp;IF(T102="人",U102,0)&amp;"+e13*"&amp;IF(T102="異族",U102,0)&amp;"+e14*"&amp;IF(T102="バジュラ",U102,0)&amp;"+e15*"&amp;IF(T102="魔動人形",U102,0)&amp;"+e16*"&amp;IF(T102="下位魔神",U102,0)&amp;");"</f>
+        <v>document.getElementById('m100').innerHTML = (b1*0+b2*30+b0*30) + (s1*0+s2*0+s3*30+s4*0+s5*0+s6*30+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI102" s="35" t="str">
         <f t="shared" si="9"/>
@@ -20721,8 +20780,8 @@
 Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m101'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH103" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI103&amp;"').innerHTML = (b1*"&amp;TEXT(J103,0)&amp;"+b2*"&amp;TEXT(K103,0)&amp;"+b0*"&amp;TEXT(L103,0)&amp;") + (s1*"&amp;TEXT(W103,0)&amp;"+s2*"&amp;TEXT(X103,0)&amp;"+s3*"&amp;TEXT(Y103,0)&amp;"+s4*"&amp;TEXT(Z103,0)&amp;"+s5*"&amp;TEXT(AA103,0)&amp;"+s6*"&amp;TEXT(AB103,0)&amp;"+s7*"&amp;TEXT(AC103,0)&amp;"+s0*"&amp;TEXT(AD103,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R103)),S103,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R103)),S103,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R103)),S103,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R103)),S103,S103)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R103)),S103,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R103)),S103,0)&amp;"+e07*"&amp;IF(T103="反撃",U103,0)&amp;"+e08*"&amp;IF(T103="風属性",U103,0)&amp;"+e09*"&amp;IF(T103="闇属性",U103,0)&amp;"+e10*"&amp;IF(T103="単体",U103,0)&amp;"+e11*"&amp;IF(T103="範囲",U103,0)&amp;"+e12*"&amp;IF(T103="人",U103,0)&amp;"+e13*"&amp;IF(T103="異族",U103,0)&amp;"+e14*"&amp;IF(T103="バジュラ",U103,0)&amp;"+e15*"&amp;IF(T103="魔動人形",U103,0)&amp;");"</f>
-        <v>document.getElementById('m101').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI103&amp;"').innerHTML = (b1*"&amp;TEXT(J103,0)&amp;"+b2*"&amp;TEXT(K103,0)&amp;"+b0*"&amp;TEXT(L103,0)&amp;") + (s1*"&amp;TEXT(W103,0)&amp;"+s2*"&amp;TEXT(X103,0)&amp;"+s3*"&amp;TEXT(Y103,0)&amp;"+s4*"&amp;TEXT(Z103,0)&amp;"+s5*"&amp;TEXT(AA103,0)&amp;"+s6*"&amp;TEXT(AB103,0)&amp;"+s7*"&amp;TEXT(AC103,0)&amp;"+s0*"&amp;TEXT(AD103,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R103)),S103,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R103)),S103,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R103)),S103,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R103)),S103,S103)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R103)),S103,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R103)),S103,0)&amp;"+e07*"&amp;IF(T103="反撃",U103,0)&amp;"+e08*"&amp;IF(T103="風属性",U103,0)&amp;"+e09*"&amp;IF(T103="闇属性",U103,0)&amp;"+e10*"&amp;IF(T103="単体",U103,0)&amp;"+e11*"&amp;IF(T103="範囲",U103,0)&amp;"+e12*"&amp;IF(T103="人",U103,0)&amp;"+e13*"&amp;IF(T103="異族",U103,0)&amp;"+e14*"&amp;IF(T103="バジュラ",U103,0)&amp;"+e15*"&amp;IF(T103="魔動人形",U103,0)&amp;"+e16*"&amp;IF(T103="下位魔神",U103,0)&amp;");"</f>
+        <v>document.getElementById('m101').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI103" s="35" t="str">
         <f t="shared" si="9"/>
@@ -20775,8 +20834,8 @@
 Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m102'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH104" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI104&amp;"').innerHTML = (b1*"&amp;TEXT(J104,0)&amp;"+b2*"&amp;TEXT(K104,0)&amp;"+b0*"&amp;TEXT(L104,0)&amp;") + (s1*"&amp;TEXT(W104,0)&amp;"+s2*"&amp;TEXT(X104,0)&amp;"+s3*"&amp;TEXT(Y104,0)&amp;"+s4*"&amp;TEXT(Z104,0)&amp;"+s5*"&amp;TEXT(AA104,0)&amp;"+s6*"&amp;TEXT(AB104,0)&amp;"+s7*"&amp;TEXT(AC104,0)&amp;"+s0*"&amp;TEXT(AD104,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R104)),S104,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R104)),S104,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R104)),S104,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R104)),S104,S104)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R104)),S104,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R104)),S104,0)&amp;"+e07*"&amp;IF(T104="反撃",U104,0)&amp;"+e08*"&amp;IF(T104="風属性",U104,0)&amp;"+e09*"&amp;IF(T104="闇属性",U104,0)&amp;"+e10*"&amp;IF(T104="単体",U104,0)&amp;"+e11*"&amp;IF(T104="範囲",U104,0)&amp;"+e12*"&amp;IF(T104="人",U104,0)&amp;"+e13*"&amp;IF(T104="異族",U104,0)&amp;"+e14*"&amp;IF(T104="バジュラ",U104,0)&amp;"+e15*"&amp;IF(T104="魔動人形",U104,0)&amp;");"</f>
-        <v>document.getElementById('m102').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI104&amp;"').innerHTML = (b1*"&amp;TEXT(J104,0)&amp;"+b2*"&amp;TEXT(K104,0)&amp;"+b0*"&amp;TEXT(L104,0)&amp;") + (s1*"&amp;TEXT(W104,0)&amp;"+s2*"&amp;TEXT(X104,0)&amp;"+s3*"&amp;TEXT(Y104,0)&amp;"+s4*"&amp;TEXT(Z104,0)&amp;"+s5*"&amp;TEXT(AA104,0)&amp;"+s6*"&amp;TEXT(AB104,0)&amp;"+s7*"&amp;TEXT(AC104,0)&amp;"+s0*"&amp;TEXT(AD104,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R104)),S104,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R104)),S104,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R104)),S104,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R104)),S104,S104)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R104)),S104,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R104)),S104,0)&amp;"+e07*"&amp;IF(T104="反撃",U104,0)&amp;"+e08*"&amp;IF(T104="風属性",U104,0)&amp;"+e09*"&amp;IF(T104="闇属性",U104,0)&amp;"+e10*"&amp;IF(T104="単体",U104,0)&amp;"+e11*"&amp;IF(T104="範囲",U104,0)&amp;"+e12*"&amp;IF(T104="人",U104,0)&amp;"+e13*"&amp;IF(T104="異族",U104,0)&amp;"+e14*"&amp;IF(T104="バジュラ",U104,0)&amp;"+e15*"&amp;IF(T104="魔動人形",U104,0)&amp;"+e16*"&amp;IF(T104="下位魔神",U104,0)&amp;");"</f>
+        <v>document.getElementById('m102').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI104" s="35" t="str">
         <f t="shared" si="9"/>
@@ -20826,8 +20885,8 @@
 Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m103'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH105" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI105&amp;"').innerHTML = (b1*"&amp;TEXT(J105,0)&amp;"+b2*"&amp;TEXT(K105,0)&amp;"+b0*"&amp;TEXT(L105,0)&amp;") + (s1*"&amp;TEXT(W105,0)&amp;"+s2*"&amp;TEXT(X105,0)&amp;"+s3*"&amp;TEXT(Y105,0)&amp;"+s4*"&amp;TEXT(Z105,0)&amp;"+s5*"&amp;TEXT(AA105,0)&amp;"+s6*"&amp;TEXT(AB105,0)&amp;"+s7*"&amp;TEXT(AC105,0)&amp;"+s0*"&amp;TEXT(AD105,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R105)),S105,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R105)),S105,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R105)),S105,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R105)),S105,S105)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R105)),S105,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R105)),S105,0)&amp;"+e07*"&amp;IF(T105="反撃",U105,0)&amp;"+e08*"&amp;IF(T105="風属性",U105,0)&amp;"+e09*"&amp;IF(T105="闇属性",U105,0)&amp;"+e10*"&amp;IF(T105="単体",U105,0)&amp;"+e11*"&amp;IF(T105="範囲",U105,0)&amp;"+e12*"&amp;IF(T105="人",U105,0)&amp;"+e13*"&amp;IF(T105="異族",U105,0)&amp;"+e14*"&amp;IF(T105="バジュラ",U105,0)&amp;"+e15*"&amp;IF(T105="魔動人形",U105,0)&amp;");"</f>
-        <v>document.getElementById('m103').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI105&amp;"').innerHTML = (b1*"&amp;TEXT(J105,0)&amp;"+b2*"&amp;TEXT(K105,0)&amp;"+b0*"&amp;TEXT(L105,0)&amp;") + (s1*"&amp;TEXT(W105,0)&amp;"+s2*"&amp;TEXT(X105,0)&amp;"+s3*"&amp;TEXT(Y105,0)&amp;"+s4*"&amp;TEXT(Z105,0)&amp;"+s5*"&amp;TEXT(AA105,0)&amp;"+s6*"&amp;TEXT(AB105,0)&amp;"+s7*"&amp;TEXT(AC105,0)&amp;"+s0*"&amp;TEXT(AD105,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R105)),S105,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R105)),S105,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R105)),S105,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R105)),S105,S105)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R105)),S105,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R105)),S105,0)&amp;"+e07*"&amp;IF(T105="反撃",U105,0)&amp;"+e08*"&amp;IF(T105="風属性",U105,0)&amp;"+e09*"&amp;IF(T105="闇属性",U105,0)&amp;"+e10*"&amp;IF(T105="単体",U105,0)&amp;"+e11*"&amp;IF(T105="範囲",U105,0)&amp;"+e12*"&amp;IF(T105="人",U105,0)&amp;"+e13*"&amp;IF(T105="異族",U105,0)&amp;"+e14*"&amp;IF(T105="バジュラ",U105,0)&amp;"+e15*"&amp;IF(T105="魔動人形",U105,0)&amp;"+e16*"&amp;IF(T105="下位魔神",U105,0)&amp;");"</f>
+        <v>document.getElementById('m103').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI105" s="35" t="str">
         <f t="shared" si="9"/>
@@ -20877,8 +20936,8 @@
 Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m104'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH106" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI106&amp;"').innerHTML = (b1*"&amp;TEXT(J106,0)&amp;"+b2*"&amp;TEXT(K106,0)&amp;"+b0*"&amp;TEXT(L106,0)&amp;") + (s1*"&amp;TEXT(W106,0)&amp;"+s2*"&amp;TEXT(X106,0)&amp;"+s3*"&amp;TEXT(Y106,0)&amp;"+s4*"&amp;TEXT(Z106,0)&amp;"+s5*"&amp;TEXT(AA106,0)&amp;"+s6*"&amp;TEXT(AB106,0)&amp;"+s7*"&amp;TEXT(AC106,0)&amp;"+s0*"&amp;TEXT(AD106,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R106)),S106,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R106)),S106,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R106)),S106,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R106)),S106,S106)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R106)),S106,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R106)),S106,0)&amp;"+e07*"&amp;IF(T106="反撃",U106,0)&amp;"+e08*"&amp;IF(T106="風属性",U106,0)&amp;"+e09*"&amp;IF(T106="闇属性",U106,0)&amp;"+e10*"&amp;IF(T106="単体",U106,0)&amp;"+e11*"&amp;IF(T106="範囲",U106,0)&amp;"+e12*"&amp;IF(T106="人",U106,0)&amp;"+e13*"&amp;IF(T106="異族",U106,0)&amp;"+e14*"&amp;IF(T106="バジュラ",U106,0)&amp;"+e15*"&amp;IF(T106="魔動人形",U106,0)&amp;");"</f>
-        <v>document.getElementById('m104').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI106&amp;"').innerHTML = (b1*"&amp;TEXT(J106,0)&amp;"+b2*"&amp;TEXT(K106,0)&amp;"+b0*"&amp;TEXT(L106,0)&amp;") + (s1*"&amp;TEXT(W106,0)&amp;"+s2*"&amp;TEXT(X106,0)&amp;"+s3*"&amp;TEXT(Y106,0)&amp;"+s4*"&amp;TEXT(Z106,0)&amp;"+s5*"&amp;TEXT(AA106,0)&amp;"+s6*"&amp;TEXT(AB106,0)&amp;"+s7*"&amp;TEXT(AC106,0)&amp;"+s0*"&amp;TEXT(AD106,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R106)),S106,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R106)),S106,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R106)),S106,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R106)),S106,S106)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R106)),S106,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R106)),S106,0)&amp;"+e07*"&amp;IF(T106="反撃",U106,0)&amp;"+e08*"&amp;IF(T106="風属性",U106,0)&amp;"+e09*"&amp;IF(T106="闇属性",U106,0)&amp;"+e10*"&amp;IF(T106="単体",U106,0)&amp;"+e11*"&amp;IF(T106="範囲",U106,0)&amp;"+e12*"&amp;IF(T106="人",U106,0)&amp;"+e13*"&amp;IF(T106="異族",U106,0)&amp;"+e14*"&amp;IF(T106="バジュラ",U106,0)&amp;"+e15*"&amp;IF(T106="魔動人形",U106,0)&amp;"+e16*"&amp;IF(T106="下位魔神",U106,0)&amp;");"</f>
+        <v>document.getElementById('m104').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI106" s="35" t="str">
         <f t="shared" si="9"/>
@@ -20931,8 +20990,8 @@
 Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m105'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH107" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI107&amp;"').innerHTML = (b1*"&amp;TEXT(J107,0)&amp;"+b2*"&amp;TEXT(K107,0)&amp;"+b0*"&amp;TEXT(L107,0)&amp;") + (s1*"&amp;TEXT(W107,0)&amp;"+s2*"&amp;TEXT(X107,0)&amp;"+s3*"&amp;TEXT(Y107,0)&amp;"+s4*"&amp;TEXT(Z107,0)&amp;"+s5*"&amp;TEXT(AA107,0)&amp;"+s6*"&amp;TEXT(AB107,0)&amp;"+s7*"&amp;TEXT(AC107,0)&amp;"+s0*"&amp;TEXT(AD107,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R107)),S107,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R107)),S107,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R107)),S107,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R107)),S107,S107)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R107)),S107,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R107)),S107,0)&amp;"+e07*"&amp;IF(T107="反撃",U107,0)&amp;"+e08*"&amp;IF(T107="風属性",U107,0)&amp;"+e09*"&amp;IF(T107="闇属性",U107,0)&amp;"+e10*"&amp;IF(T107="単体",U107,0)&amp;"+e11*"&amp;IF(T107="範囲",U107,0)&amp;"+e12*"&amp;IF(T107="人",U107,0)&amp;"+e13*"&amp;IF(T107="異族",U107,0)&amp;"+e14*"&amp;IF(T107="バジュラ",U107,0)&amp;"+e15*"&amp;IF(T107="魔動人形",U107,0)&amp;");"</f>
-        <v>document.getElementById('m105').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI107&amp;"').innerHTML = (b1*"&amp;TEXT(J107,0)&amp;"+b2*"&amp;TEXT(K107,0)&amp;"+b0*"&amp;TEXT(L107,0)&amp;") + (s1*"&amp;TEXT(W107,0)&amp;"+s2*"&amp;TEXT(X107,0)&amp;"+s3*"&amp;TEXT(Y107,0)&amp;"+s4*"&amp;TEXT(Z107,0)&amp;"+s5*"&amp;TEXT(AA107,0)&amp;"+s6*"&amp;TEXT(AB107,0)&amp;"+s7*"&amp;TEXT(AC107,0)&amp;"+s0*"&amp;TEXT(AD107,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R107)),S107,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R107)),S107,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R107)),S107,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R107)),S107,S107)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R107)),S107,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R107)),S107,0)&amp;"+e07*"&amp;IF(T107="反撃",U107,0)&amp;"+e08*"&amp;IF(T107="風属性",U107,0)&amp;"+e09*"&amp;IF(T107="闇属性",U107,0)&amp;"+e10*"&amp;IF(T107="単体",U107,0)&amp;"+e11*"&amp;IF(T107="範囲",U107,0)&amp;"+e12*"&amp;IF(T107="人",U107,0)&amp;"+e13*"&amp;IF(T107="異族",U107,0)&amp;"+e14*"&amp;IF(T107="バジュラ",U107,0)&amp;"+e15*"&amp;IF(T107="魔動人形",U107,0)&amp;"+e16*"&amp;IF(T107="下位魔神",U107,0)&amp;");"</f>
+        <v>document.getElementById('m105').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI107" s="35" t="str">
         <f t="shared" si="9"/>
@@ -20985,8 +21044,8 @@
 Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m106'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH108" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI108&amp;"').innerHTML = (b1*"&amp;TEXT(J108,0)&amp;"+b2*"&amp;TEXT(K108,0)&amp;"+b0*"&amp;TEXT(L108,0)&amp;") + (s1*"&amp;TEXT(W108,0)&amp;"+s2*"&amp;TEXT(X108,0)&amp;"+s3*"&amp;TEXT(Y108,0)&amp;"+s4*"&amp;TEXT(Z108,0)&amp;"+s5*"&amp;TEXT(AA108,0)&amp;"+s6*"&amp;TEXT(AB108,0)&amp;"+s7*"&amp;TEXT(AC108,0)&amp;"+s0*"&amp;TEXT(AD108,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R108)),S108,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R108)),S108,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R108)),S108,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R108)),S108,S108)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R108)),S108,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R108)),S108,0)&amp;"+e07*"&amp;IF(T108="反撃",U108,0)&amp;"+e08*"&amp;IF(T108="風属性",U108,0)&amp;"+e09*"&amp;IF(T108="闇属性",U108,0)&amp;"+e10*"&amp;IF(T108="単体",U108,0)&amp;"+e11*"&amp;IF(T108="範囲",U108,0)&amp;"+e12*"&amp;IF(T108="人",U108,0)&amp;"+e13*"&amp;IF(T108="異族",U108,0)&amp;"+e14*"&amp;IF(T108="バジュラ",U108,0)&amp;"+e15*"&amp;IF(T108="魔動人形",U108,0)&amp;");"</f>
-        <v>document.getElementById('m106').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI108&amp;"').innerHTML = (b1*"&amp;TEXT(J108,0)&amp;"+b2*"&amp;TEXT(K108,0)&amp;"+b0*"&amp;TEXT(L108,0)&amp;") + (s1*"&amp;TEXT(W108,0)&amp;"+s2*"&amp;TEXT(X108,0)&amp;"+s3*"&amp;TEXT(Y108,0)&amp;"+s4*"&amp;TEXT(Z108,0)&amp;"+s5*"&amp;TEXT(AA108,0)&amp;"+s6*"&amp;TEXT(AB108,0)&amp;"+s7*"&amp;TEXT(AC108,0)&amp;"+s0*"&amp;TEXT(AD108,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R108)),S108,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R108)),S108,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R108)),S108,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R108)),S108,S108)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R108)),S108,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R108)),S108,0)&amp;"+e07*"&amp;IF(T108="反撃",U108,0)&amp;"+e08*"&amp;IF(T108="風属性",U108,0)&amp;"+e09*"&amp;IF(T108="闇属性",U108,0)&amp;"+e10*"&amp;IF(T108="単体",U108,0)&amp;"+e11*"&amp;IF(T108="範囲",U108,0)&amp;"+e12*"&amp;IF(T108="人",U108,0)&amp;"+e13*"&amp;IF(T108="異族",U108,0)&amp;"+e14*"&amp;IF(T108="バジュラ",U108,0)&amp;"+e15*"&amp;IF(T108="魔動人形",U108,0)&amp;"+e16*"&amp;IF(T108="下位魔神",U108,0)&amp;");"</f>
+        <v>document.getElementById('m106').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI108" s="35" t="str">
         <f t="shared" si="9"/>
@@ -21039,8 +21098,8 @@
 Lustburg&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m107'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH109" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI109&amp;"').innerHTML = (b1*"&amp;TEXT(J109,0)&amp;"+b2*"&amp;TEXT(K109,0)&amp;"+b0*"&amp;TEXT(L109,0)&amp;") + (s1*"&amp;TEXT(W109,0)&amp;"+s2*"&amp;TEXT(X109,0)&amp;"+s3*"&amp;TEXT(Y109,0)&amp;"+s4*"&amp;TEXT(Z109,0)&amp;"+s5*"&amp;TEXT(AA109,0)&amp;"+s6*"&amp;TEXT(AB109,0)&amp;"+s7*"&amp;TEXT(AC109,0)&amp;"+s0*"&amp;TEXT(AD109,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R109)),S109,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R109)),S109,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R109)),S109,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R109)),S109,S109)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R109)),S109,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R109)),S109,0)&amp;"+e07*"&amp;IF(T109="反撃",U109,0)&amp;"+e08*"&amp;IF(T109="風属性",U109,0)&amp;"+e09*"&amp;IF(T109="闇属性",U109,0)&amp;"+e10*"&amp;IF(T109="単体",U109,0)&amp;"+e11*"&amp;IF(T109="範囲",U109,0)&amp;"+e12*"&amp;IF(T109="人",U109,0)&amp;"+e13*"&amp;IF(T109="異族",U109,0)&amp;"+e14*"&amp;IF(T109="バジュラ",U109,0)&amp;"+e15*"&amp;IF(T109="魔動人形",U109,0)&amp;");"</f>
-        <v>document.getElementById('m107').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI109&amp;"').innerHTML = (b1*"&amp;TEXT(J109,0)&amp;"+b2*"&amp;TEXT(K109,0)&amp;"+b0*"&amp;TEXT(L109,0)&amp;") + (s1*"&amp;TEXT(W109,0)&amp;"+s2*"&amp;TEXT(X109,0)&amp;"+s3*"&amp;TEXT(Y109,0)&amp;"+s4*"&amp;TEXT(Z109,0)&amp;"+s5*"&amp;TEXT(AA109,0)&amp;"+s6*"&amp;TEXT(AB109,0)&amp;"+s7*"&amp;TEXT(AC109,0)&amp;"+s0*"&amp;TEXT(AD109,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R109)),S109,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R109)),S109,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R109)),S109,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R109)),S109,S109)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R109)),S109,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R109)),S109,0)&amp;"+e07*"&amp;IF(T109="反撃",U109,0)&amp;"+e08*"&amp;IF(T109="風属性",U109,0)&amp;"+e09*"&amp;IF(T109="闇属性",U109,0)&amp;"+e10*"&amp;IF(T109="単体",U109,0)&amp;"+e11*"&amp;IF(T109="範囲",U109,0)&amp;"+e12*"&amp;IF(T109="人",U109,0)&amp;"+e13*"&amp;IF(T109="異族",U109,0)&amp;"+e14*"&amp;IF(T109="バジュラ",U109,0)&amp;"+e15*"&amp;IF(T109="魔動人形",U109,0)&amp;"+e16*"&amp;IF(T109="下位魔神",U109,0)&amp;");"</f>
+        <v>document.getElementById('m107').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI109" s="35" t="str">
         <f t="shared" si="9"/>
@@ -21114,8 +21173,8 @@
 Lustburg&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m108'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+10&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;20&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;20&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH110" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI110&amp;"').innerHTML = (b1*"&amp;TEXT(J110,0)&amp;"+b2*"&amp;TEXT(K110,0)&amp;"+b0*"&amp;TEXT(L110,0)&amp;") + (s1*"&amp;TEXT(W110,0)&amp;"+s2*"&amp;TEXT(X110,0)&amp;"+s3*"&amp;TEXT(Y110,0)&amp;"+s4*"&amp;TEXT(Z110,0)&amp;"+s5*"&amp;TEXT(AA110,0)&amp;"+s6*"&amp;TEXT(AB110,0)&amp;"+s7*"&amp;TEXT(AC110,0)&amp;"+s0*"&amp;TEXT(AD110,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R110)),S110,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R110)),S110,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R110)),S110,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R110)),S110,S110)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R110)),S110,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R110)),S110,0)&amp;"+e07*"&amp;IF(T110="反撃",U110,0)&amp;"+e08*"&amp;IF(T110="風属性",U110,0)&amp;"+e09*"&amp;IF(T110="闇属性",U110,0)&amp;"+e10*"&amp;IF(T110="単体",U110,0)&amp;"+e11*"&amp;IF(T110="範囲",U110,0)&amp;"+e12*"&amp;IF(T110="人",U110,0)&amp;"+e13*"&amp;IF(T110="異族",U110,0)&amp;"+e14*"&amp;IF(T110="バジュラ",U110,0)&amp;"+e15*"&amp;IF(T110="魔動人形",U110,0)&amp;");"</f>
-        <v>document.getElementById('m108').innerHTML = (b1*30+b2*0+b0*30) + (s1*20+s2*0+s3*20+s4*0+s5*0+s6*20+s7*0+s0*20) + (e01*40+e02*0+e03*0+e04*40+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI110&amp;"').innerHTML = (b1*"&amp;TEXT(J110,0)&amp;"+b2*"&amp;TEXT(K110,0)&amp;"+b0*"&amp;TEXT(L110,0)&amp;") + (s1*"&amp;TEXT(W110,0)&amp;"+s2*"&amp;TEXT(X110,0)&amp;"+s3*"&amp;TEXT(Y110,0)&amp;"+s4*"&amp;TEXT(Z110,0)&amp;"+s5*"&amp;TEXT(AA110,0)&amp;"+s6*"&amp;TEXT(AB110,0)&amp;"+s7*"&amp;TEXT(AC110,0)&amp;"+s0*"&amp;TEXT(AD110,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R110)),S110,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R110)),S110,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R110)),S110,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R110)),S110,S110)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R110)),S110,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R110)),S110,0)&amp;"+e07*"&amp;IF(T110="反撃",U110,0)&amp;"+e08*"&amp;IF(T110="風属性",U110,0)&amp;"+e09*"&amp;IF(T110="闇属性",U110,0)&amp;"+e10*"&amp;IF(T110="単体",U110,0)&amp;"+e11*"&amp;IF(T110="範囲",U110,0)&amp;"+e12*"&amp;IF(T110="人",U110,0)&amp;"+e13*"&amp;IF(T110="異族",U110,0)&amp;"+e14*"&amp;IF(T110="バジュラ",U110,0)&amp;"+e15*"&amp;IF(T110="魔動人形",U110,0)&amp;"+e16*"&amp;IF(T110="下位魔神",U110,0)&amp;");"</f>
+        <v>document.getElementById('m108').innerHTML = (b1*30+b2*0+b0*30) + (s1*20+s2*0+s3*20+s4*0+s5*0+s6*20+s7*0+s0*20) + (e01*40+e02*0+e03*0+e04*40+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI110" s="35" t="str">
         <f t="shared" si="9"/>
@@ -21180,8 +21239,8 @@
 Other&lt;/td&gt;&lt;td headers='group'&gt;マクロスフロンティア&lt;/td&gt;&lt;td headers='score' id='m109'&gt;50&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;10&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH111" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI111&amp;"').innerHTML = (b1*"&amp;TEXT(J111,0)&amp;"+b2*"&amp;TEXT(K111,0)&amp;"+b0*"&amp;TEXT(L111,0)&amp;") + (s1*"&amp;TEXT(W111,0)&amp;"+s2*"&amp;TEXT(X111,0)&amp;"+s3*"&amp;TEXT(Y111,0)&amp;"+s4*"&amp;TEXT(Z111,0)&amp;"+s5*"&amp;TEXT(AA111,0)&amp;"+s6*"&amp;TEXT(AB111,0)&amp;"+s7*"&amp;TEXT(AC111,0)&amp;"+s0*"&amp;TEXT(AD111,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R111)),S111,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R111)),S111,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R111)),S111,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R111)),S111,S111)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R111)),S111,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R111)),S111,0)&amp;"+e07*"&amp;IF(T111="反撃",U111,0)&amp;"+e08*"&amp;IF(T111="風属性",U111,0)&amp;"+e09*"&amp;IF(T111="闇属性",U111,0)&amp;"+e10*"&amp;IF(T111="単体",U111,0)&amp;"+e11*"&amp;IF(T111="範囲",U111,0)&amp;"+e12*"&amp;IF(T111="人",U111,0)&amp;"+e13*"&amp;IF(T111="異族",U111,0)&amp;"+e14*"&amp;IF(T111="バジュラ",U111,0)&amp;"+e15*"&amp;IF(T111="魔動人形",U111,0)&amp;");"</f>
-        <v>document.getElementById('m109').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*0+s3*10+s4*0+s5*20+s6*0+s7*0+s0*20) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI111&amp;"').innerHTML = (b1*"&amp;TEXT(J111,0)&amp;"+b2*"&amp;TEXT(K111,0)&amp;"+b0*"&amp;TEXT(L111,0)&amp;") + (s1*"&amp;TEXT(W111,0)&amp;"+s2*"&amp;TEXT(X111,0)&amp;"+s3*"&amp;TEXT(Y111,0)&amp;"+s4*"&amp;TEXT(Z111,0)&amp;"+s5*"&amp;TEXT(AA111,0)&amp;"+s6*"&amp;TEXT(AB111,0)&amp;"+s7*"&amp;TEXT(AC111,0)&amp;"+s0*"&amp;TEXT(AD111,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R111)),S111,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R111)),S111,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R111)),S111,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R111)),S111,S111)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R111)),S111,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R111)),S111,0)&amp;"+e07*"&amp;IF(T111="反撃",U111,0)&amp;"+e08*"&amp;IF(T111="風属性",U111,0)&amp;"+e09*"&amp;IF(T111="闇属性",U111,0)&amp;"+e10*"&amp;IF(T111="単体",U111,0)&amp;"+e11*"&amp;IF(T111="範囲",U111,0)&amp;"+e12*"&amp;IF(T111="人",U111,0)&amp;"+e13*"&amp;IF(T111="異族",U111,0)&amp;"+e14*"&amp;IF(T111="バジュラ",U111,0)&amp;"+e15*"&amp;IF(T111="魔動人形",U111,0)&amp;"+e16*"&amp;IF(T111="下位魔神",U111,0)&amp;");"</f>
+        <v>document.getElementById('m109').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*0+s3*10+s4*0+s5*20+s6*0+s7*0+s0*20) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI111" s="35" t="str">
         <f t="shared" si="9"/>
@@ -21248,8 +21307,8 @@
 Other&lt;/td&gt;&lt;td headers='group'&gt;マクロスフロンティア&lt;/td&gt;&lt;td headers='score' id='m110'&gt;130&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;バジュラ&lt;/td&gt;&lt;td headers='sp.bonus'&gt;40&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;60&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH112" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI112&amp;"').innerHTML = (b1*"&amp;TEXT(J112,0)&amp;"+b2*"&amp;TEXT(K112,0)&amp;"+b0*"&amp;TEXT(L112,0)&amp;") + (s1*"&amp;TEXT(W112,0)&amp;"+s2*"&amp;TEXT(X112,0)&amp;"+s3*"&amp;TEXT(Y112,0)&amp;"+s4*"&amp;TEXT(Z112,0)&amp;"+s5*"&amp;TEXT(AA112,0)&amp;"+s6*"&amp;TEXT(AB112,0)&amp;"+s7*"&amp;TEXT(AC112,0)&amp;"+s0*"&amp;TEXT(AD112,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R112)),S112,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R112)),S112,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R112)),S112,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R112)),S112,S112)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R112)),S112,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R112)),S112,0)&amp;"+e07*"&amp;IF(T112="反撃",U112,0)&amp;"+e08*"&amp;IF(T112="風属性",U112,0)&amp;"+e09*"&amp;IF(T112="闇属性",U112,0)&amp;"+e10*"&amp;IF(T112="単体",U112,0)&amp;"+e11*"&amp;IF(T112="範囲",U112,0)&amp;"+e12*"&amp;IF(T112="人",U112,0)&amp;"+e13*"&amp;IF(T112="異族",U112,0)&amp;"+e14*"&amp;IF(T112="バジュラ",U112,0)&amp;"+e15*"&amp;IF(T112="魔動人形",U112,0)&amp;");"</f>
-        <v>document.getElementById('m110').innerHTML = (b1*30+b2*30+b0*30) + (s1*0+s2*0+s3*60+s4*0+s5*0+s6*0+s7*0+s0*60) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*40+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI112&amp;"').innerHTML = (b1*"&amp;TEXT(J112,0)&amp;"+b2*"&amp;TEXT(K112,0)&amp;"+b0*"&amp;TEXT(L112,0)&amp;") + (s1*"&amp;TEXT(W112,0)&amp;"+s2*"&amp;TEXT(X112,0)&amp;"+s3*"&amp;TEXT(Y112,0)&amp;"+s4*"&amp;TEXT(Z112,0)&amp;"+s5*"&amp;TEXT(AA112,0)&amp;"+s6*"&amp;TEXT(AB112,0)&amp;"+s7*"&amp;TEXT(AC112,0)&amp;"+s0*"&amp;TEXT(AD112,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R112)),S112,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R112)),S112,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R112)),S112,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R112)),S112,S112)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R112)),S112,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R112)),S112,0)&amp;"+e07*"&amp;IF(T112="反撃",U112,0)&amp;"+e08*"&amp;IF(T112="風属性",U112,0)&amp;"+e09*"&amp;IF(T112="闇属性",U112,0)&amp;"+e10*"&amp;IF(T112="単体",U112,0)&amp;"+e11*"&amp;IF(T112="範囲",U112,0)&amp;"+e12*"&amp;IF(T112="人",U112,0)&amp;"+e13*"&amp;IF(T112="異族",U112,0)&amp;"+e14*"&amp;IF(T112="バジュラ",U112,0)&amp;"+e15*"&amp;IF(T112="魔動人形",U112,0)&amp;"+e16*"&amp;IF(T112="下位魔神",U112,0)&amp;");"</f>
+        <v>document.getElementById('m110').innerHTML = (b1*30+b2*30+b0*30) + (s1*0+s2*0+s3*60+s4*0+s5*0+s6*0+s7*0+s0*60) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*40+e15*0+e16*0);</v>
       </c>
       <c r="AI112" s="35" t="str">
         <f t="shared" si="9"/>
@@ -21316,8 +21375,8 @@
 Other&lt;/td&gt;&lt;td headers='group'&gt;マクロスフロンティア&lt;/td&gt;&lt;td headers='score' id='m111'&gt;140&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;40&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;バジュラ&lt;/td&gt;&lt;td headers='sp.bonus'&gt;40&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;60&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH113" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI113&amp;"').innerHTML = (b1*"&amp;TEXT(J113,0)&amp;"+b2*"&amp;TEXT(K113,0)&amp;"+b0*"&amp;TEXT(L113,0)&amp;") + (s1*"&amp;TEXT(W113,0)&amp;"+s2*"&amp;TEXT(X113,0)&amp;"+s3*"&amp;TEXT(Y113,0)&amp;"+s4*"&amp;TEXT(Z113,0)&amp;"+s5*"&amp;TEXT(AA113,0)&amp;"+s6*"&amp;TEXT(AB113,0)&amp;"+s7*"&amp;TEXT(AC113,0)&amp;"+s0*"&amp;TEXT(AD113,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R113)),S113,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R113)),S113,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R113)),S113,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R113)),S113,S113)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R113)),S113,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R113)),S113,0)&amp;"+e07*"&amp;IF(T113="反撃",U113,0)&amp;"+e08*"&amp;IF(T113="風属性",U113,0)&amp;"+e09*"&amp;IF(T113="闇属性",U113,0)&amp;"+e10*"&amp;IF(T113="単体",U113,0)&amp;"+e11*"&amp;IF(T113="範囲",U113,0)&amp;"+e12*"&amp;IF(T113="人",U113,0)&amp;"+e13*"&amp;IF(T113="異族",U113,0)&amp;"+e14*"&amp;IF(T113="バジュラ",U113,0)&amp;"+e15*"&amp;IF(T113="魔動人形",U113,0)&amp;");"</f>
-        <v>document.getElementById('m111').innerHTML = (b1*40+b2*0+b0*40) + (s1*0+s2*0+s3*0+s4*0+s5*60+s6*0+s7*0+s0*60) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*40+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI113&amp;"').innerHTML = (b1*"&amp;TEXT(J113,0)&amp;"+b2*"&amp;TEXT(K113,0)&amp;"+b0*"&amp;TEXT(L113,0)&amp;") + (s1*"&amp;TEXT(W113,0)&amp;"+s2*"&amp;TEXT(X113,0)&amp;"+s3*"&amp;TEXT(Y113,0)&amp;"+s4*"&amp;TEXT(Z113,0)&amp;"+s5*"&amp;TEXT(AA113,0)&amp;"+s6*"&amp;TEXT(AB113,0)&amp;"+s7*"&amp;TEXT(AC113,0)&amp;"+s0*"&amp;TEXT(AD113,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R113)),S113,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R113)),S113,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R113)),S113,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R113)),S113,S113)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R113)),S113,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R113)),S113,0)&amp;"+e07*"&amp;IF(T113="反撃",U113,0)&amp;"+e08*"&amp;IF(T113="風属性",U113,0)&amp;"+e09*"&amp;IF(T113="闇属性",U113,0)&amp;"+e10*"&amp;IF(T113="単体",U113,0)&amp;"+e11*"&amp;IF(T113="範囲",U113,0)&amp;"+e12*"&amp;IF(T113="人",U113,0)&amp;"+e13*"&amp;IF(T113="異族",U113,0)&amp;"+e14*"&amp;IF(T113="バジュラ",U113,0)&amp;"+e15*"&amp;IF(T113="魔動人形",U113,0)&amp;"+e16*"&amp;IF(T113="下位魔神",U113,0)&amp;");"</f>
+        <v>document.getElementById('m111').innerHTML = (b1*40+b2*0+b0*40) + (s1*0+s2*0+s3*0+s4*0+s5*60+s6*0+s7*0+s0*60) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*40+e15*0+e16*0);</v>
       </c>
       <c r="AI113" s="35" t="str">
         <f t="shared" si="9"/>
@@ -21384,8 +21443,8 @@
 Northern Pride&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m112'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;40&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;5&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;範囲耐性+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;20&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;40&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH114" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI114&amp;"').innerHTML = (b1*"&amp;TEXT(J114,0)&amp;"+b2*"&amp;TEXT(K114,0)&amp;"+b0*"&amp;TEXT(L114,0)&amp;") + (s1*"&amp;TEXT(W114,0)&amp;"+s2*"&amp;TEXT(X114,0)&amp;"+s3*"&amp;TEXT(Y114,0)&amp;"+s4*"&amp;TEXT(Z114,0)&amp;"+s5*"&amp;TEXT(AA114,0)&amp;"+s6*"&amp;TEXT(AB114,0)&amp;"+s7*"&amp;TEXT(AC114,0)&amp;"+s0*"&amp;TEXT(AD114,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R114)),S114,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R114)),S114,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R114)),S114,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R114)),S114,S114)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R114)),S114,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R114)),S114,0)&amp;"+e07*"&amp;IF(T114="反撃",U114,0)&amp;"+e08*"&amp;IF(T114="風属性",U114,0)&amp;"+e09*"&amp;IF(T114="闇属性",U114,0)&amp;"+e10*"&amp;IF(T114="単体",U114,0)&amp;"+e11*"&amp;IF(T114="範囲",U114,0)&amp;"+e12*"&amp;IF(T114="人",U114,0)&amp;"+e13*"&amp;IF(T114="異族",U114,0)&amp;"+e14*"&amp;IF(T114="バジュラ",U114,0)&amp;"+e15*"&amp;IF(T114="魔動人形",U114,0)&amp;");"</f>
-        <v>document.getElementById('m112').innerHTML = (b1*40+b2*0+b0*40) + (s1*0+s2*0+s3*20+s4*0+s5*0+s6*0+s7*40+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI114&amp;"').innerHTML = (b1*"&amp;TEXT(J114,0)&amp;"+b2*"&amp;TEXT(K114,0)&amp;"+b0*"&amp;TEXT(L114,0)&amp;") + (s1*"&amp;TEXT(W114,0)&amp;"+s2*"&amp;TEXT(X114,0)&amp;"+s3*"&amp;TEXT(Y114,0)&amp;"+s4*"&amp;TEXT(Z114,0)&amp;"+s5*"&amp;TEXT(AA114,0)&amp;"+s6*"&amp;TEXT(AB114,0)&amp;"+s7*"&amp;TEXT(AC114,0)&amp;"+s0*"&amp;TEXT(AD114,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R114)),S114,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R114)),S114,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R114)),S114,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R114)),S114,S114)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R114)),S114,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R114)),S114,0)&amp;"+e07*"&amp;IF(T114="反撃",U114,0)&amp;"+e08*"&amp;IF(T114="風属性",U114,0)&amp;"+e09*"&amp;IF(T114="闇属性",U114,0)&amp;"+e10*"&amp;IF(T114="単体",U114,0)&amp;"+e11*"&amp;IF(T114="範囲",U114,0)&amp;"+e12*"&amp;IF(T114="人",U114,0)&amp;"+e13*"&amp;IF(T114="異族",U114,0)&amp;"+e14*"&amp;IF(T114="バジュラ",U114,0)&amp;"+e15*"&amp;IF(T114="魔動人形",U114,0)&amp;"+e16*"&amp;IF(T114="下位魔神",U114,0)&amp;");"</f>
+        <v>document.getElementById('m112').innerHTML = (b1*40+b2*0+b0*40) + (s1*0+s2*0+s3*20+s4*0+s5*0+s6*0+s7*40+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI114" s="35" t="str">
         <f t="shared" si="9"/>
@@ -21457,8 +21516,8 @@
 Northern Pride&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m113'&gt;110&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;50&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;5&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;風属性&lt;/td&gt;&lt;td headers='sp.bonus'&gt;20&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;40&lt;/td&gt;&lt;td headers='sinG'&gt;20&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH115" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI115&amp;"').innerHTML = (b1*"&amp;TEXT(J115,0)&amp;"+b2*"&amp;TEXT(K115,0)&amp;"+b0*"&amp;TEXT(L115,0)&amp;") + (s1*"&amp;TEXT(W115,0)&amp;"+s2*"&amp;TEXT(X115,0)&amp;"+s3*"&amp;TEXT(Y115,0)&amp;"+s4*"&amp;TEXT(Z115,0)&amp;"+s5*"&amp;TEXT(AA115,0)&amp;"+s6*"&amp;TEXT(AB115,0)&amp;"+s7*"&amp;TEXT(AC115,0)&amp;"+s0*"&amp;TEXT(AD115,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R115)),S115,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R115)),S115,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R115)),S115,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R115)),S115,S115)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R115)),S115,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R115)),S115,0)&amp;"+e07*"&amp;IF(T115="反撃",U115,0)&amp;"+e08*"&amp;IF(T115="風属性",U115,0)&amp;"+e09*"&amp;IF(T115="闇属性",U115,0)&amp;"+e10*"&amp;IF(T115="単体",U115,0)&amp;"+e11*"&amp;IF(T115="範囲",U115,0)&amp;"+e12*"&amp;IF(T115="人",U115,0)&amp;"+e13*"&amp;IF(T115="異族",U115,0)&amp;"+e14*"&amp;IF(T115="バジュラ",U115,0)&amp;"+e15*"&amp;IF(T115="魔動人形",U115,0)&amp;");"</f>
-        <v>document.getElementById('m113').innerHTML = (b1*50+b2*0+b0*50) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*40+s7*20+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*20+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI115&amp;"').innerHTML = (b1*"&amp;TEXT(J115,0)&amp;"+b2*"&amp;TEXT(K115,0)&amp;"+b0*"&amp;TEXT(L115,0)&amp;") + (s1*"&amp;TEXT(W115,0)&amp;"+s2*"&amp;TEXT(X115,0)&amp;"+s3*"&amp;TEXT(Y115,0)&amp;"+s4*"&amp;TEXT(Z115,0)&amp;"+s5*"&amp;TEXT(AA115,0)&amp;"+s6*"&amp;TEXT(AB115,0)&amp;"+s7*"&amp;TEXT(AC115,0)&amp;"+s0*"&amp;TEXT(AD115,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R115)),S115,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R115)),S115,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R115)),S115,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R115)),S115,S115)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R115)),S115,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R115)),S115,0)&amp;"+e07*"&amp;IF(T115="反撃",U115,0)&amp;"+e08*"&amp;IF(T115="風属性",U115,0)&amp;"+e09*"&amp;IF(T115="闇属性",U115,0)&amp;"+e10*"&amp;IF(T115="単体",U115,0)&amp;"+e11*"&amp;IF(T115="範囲",U115,0)&amp;"+e12*"&amp;IF(T115="人",U115,0)&amp;"+e13*"&amp;IF(T115="異族",U115,0)&amp;"+e14*"&amp;IF(T115="バジュラ",U115,0)&amp;"+e15*"&amp;IF(T115="魔動人形",U115,0)&amp;"+e16*"&amp;IF(T115="下位魔神",U115,0)&amp;");"</f>
+        <v>document.getElementById('m113').innerHTML = (b1*50+b2*0+b0*50) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*40+s7*20+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*20+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI115" s="35" t="str">
         <f t="shared" si="9"/>
@@ -21511,8 +21570,8 @@
 Northern Pride&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m114'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH116" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI116&amp;"').innerHTML = (b1*"&amp;TEXT(J116,0)&amp;"+b2*"&amp;TEXT(K116,0)&amp;"+b0*"&amp;TEXT(L116,0)&amp;") + (s1*"&amp;TEXT(W116,0)&amp;"+s2*"&amp;TEXT(X116,0)&amp;"+s3*"&amp;TEXT(Y116,0)&amp;"+s4*"&amp;TEXT(Z116,0)&amp;"+s5*"&amp;TEXT(AA116,0)&amp;"+s6*"&amp;TEXT(AB116,0)&amp;"+s7*"&amp;TEXT(AC116,0)&amp;"+s0*"&amp;TEXT(AD116,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R116)),S116,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R116)),S116,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R116)),S116,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R116)),S116,S116)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R116)),S116,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R116)),S116,0)&amp;"+e07*"&amp;IF(T116="反撃",U116,0)&amp;"+e08*"&amp;IF(T116="風属性",U116,0)&amp;"+e09*"&amp;IF(T116="闇属性",U116,0)&amp;"+e10*"&amp;IF(T116="単体",U116,0)&amp;"+e11*"&amp;IF(T116="範囲",U116,0)&amp;"+e12*"&amp;IF(T116="人",U116,0)&amp;"+e13*"&amp;IF(T116="異族",U116,0)&amp;"+e14*"&amp;IF(T116="バジュラ",U116,0)&amp;"+e15*"&amp;IF(T116="魔動人形",U116,0)&amp;");"</f>
-        <v>document.getElementById('m114').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI116&amp;"').innerHTML = (b1*"&amp;TEXT(J116,0)&amp;"+b2*"&amp;TEXT(K116,0)&amp;"+b0*"&amp;TEXT(L116,0)&amp;") + (s1*"&amp;TEXT(W116,0)&amp;"+s2*"&amp;TEXT(X116,0)&amp;"+s3*"&amp;TEXT(Y116,0)&amp;"+s4*"&amp;TEXT(Z116,0)&amp;"+s5*"&amp;TEXT(AA116,0)&amp;"+s6*"&amp;TEXT(AB116,0)&amp;"+s7*"&amp;TEXT(AC116,0)&amp;"+s0*"&amp;TEXT(AD116,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R116)),S116,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R116)),S116,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R116)),S116,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R116)),S116,S116)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R116)),S116,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R116)),S116,0)&amp;"+e07*"&amp;IF(T116="反撃",U116,0)&amp;"+e08*"&amp;IF(T116="風属性",U116,0)&amp;"+e09*"&amp;IF(T116="闇属性",U116,0)&amp;"+e10*"&amp;IF(T116="単体",U116,0)&amp;"+e11*"&amp;IF(T116="範囲",U116,0)&amp;"+e12*"&amp;IF(T116="人",U116,0)&amp;"+e13*"&amp;IF(T116="異族",U116,0)&amp;"+e14*"&amp;IF(T116="バジュラ",U116,0)&amp;"+e15*"&amp;IF(T116="魔動人形",U116,0)&amp;"+e16*"&amp;IF(T116="下位魔神",U116,0)&amp;");"</f>
+        <v>document.getElementById('m114').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI116" s="35" t="str">
         <f t="shared" si="9"/>
@@ -21573,8 +21632,8 @@
 Northern Pride&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m115'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;20&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;60&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH117" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI117&amp;"').innerHTML = (b1*"&amp;TEXT(J117,0)&amp;"+b2*"&amp;TEXT(K117,0)&amp;"+b0*"&amp;TEXT(L117,0)&amp;") + (s1*"&amp;TEXT(W117,0)&amp;"+s2*"&amp;TEXT(X117,0)&amp;"+s3*"&amp;TEXT(Y117,0)&amp;"+s4*"&amp;TEXT(Z117,0)&amp;"+s5*"&amp;TEXT(AA117,0)&amp;"+s6*"&amp;TEXT(AB117,0)&amp;"+s7*"&amp;TEXT(AC117,0)&amp;"+s0*"&amp;TEXT(AD117,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R117)),S117,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R117)),S117,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R117)),S117,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R117)),S117,S117)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R117)),S117,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R117)),S117,0)&amp;"+e07*"&amp;IF(T117="反撃",U117,0)&amp;"+e08*"&amp;IF(T117="風属性",U117,0)&amp;"+e09*"&amp;IF(T117="闇属性",U117,0)&amp;"+e10*"&amp;IF(T117="単体",U117,0)&amp;"+e11*"&amp;IF(T117="範囲",U117,0)&amp;"+e12*"&amp;IF(T117="人",U117,0)&amp;"+e13*"&amp;IF(T117="異族",U117,0)&amp;"+e14*"&amp;IF(T117="バジュラ",U117,0)&amp;"+e15*"&amp;IF(T117="魔動人形",U117,0)&amp;");"</f>
-        <v>document.getElementById('m115').innerHTML = (b1*20+b2*20+b0*20) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*60+s0*60) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI117&amp;"').innerHTML = (b1*"&amp;TEXT(J117,0)&amp;"+b2*"&amp;TEXT(K117,0)&amp;"+b0*"&amp;TEXT(L117,0)&amp;") + (s1*"&amp;TEXT(W117,0)&amp;"+s2*"&amp;TEXT(X117,0)&amp;"+s3*"&amp;TEXT(Y117,0)&amp;"+s4*"&amp;TEXT(Z117,0)&amp;"+s5*"&amp;TEXT(AA117,0)&amp;"+s6*"&amp;TEXT(AB117,0)&amp;"+s7*"&amp;TEXT(AC117,0)&amp;"+s0*"&amp;TEXT(AD117,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R117)),S117,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R117)),S117,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R117)),S117,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R117)),S117,S117)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R117)),S117,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R117)),S117,0)&amp;"+e07*"&amp;IF(T117="反撃",U117,0)&amp;"+e08*"&amp;IF(T117="風属性",U117,0)&amp;"+e09*"&amp;IF(T117="闇属性",U117,0)&amp;"+e10*"&amp;IF(T117="単体",U117,0)&amp;"+e11*"&amp;IF(T117="範囲",U117,0)&amp;"+e12*"&amp;IF(T117="人",U117,0)&amp;"+e13*"&amp;IF(T117="異族",U117,0)&amp;"+e14*"&amp;IF(T117="バジュラ",U117,0)&amp;"+e15*"&amp;IF(T117="魔動人形",U117,0)&amp;"+e16*"&amp;IF(T117="下位魔神",U117,0)&amp;");"</f>
+        <v>document.getElementById('m115').innerHTML = (b1*20+b2*20+b0*20) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*60+s0*60) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI117" s="35" t="str">
         <f t="shared" si="9"/>
@@ -21624,8 +21683,8 @@
 Northern Pride&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m116'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH118" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI118&amp;"').innerHTML = (b1*"&amp;TEXT(J118,0)&amp;"+b2*"&amp;TEXT(K118,0)&amp;"+b0*"&amp;TEXT(L118,0)&amp;") + (s1*"&amp;TEXT(W118,0)&amp;"+s2*"&amp;TEXT(X118,0)&amp;"+s3*"&amp;TEXT(Y118,0)&amp;"+s4*"&amp;TEXT(Z118,0)&amp;"+s5*"&amp;TEXT(AA118,0)&amp;"+s6*"&amp;TEXT(AB118,0)&amp;"+s7*"&amp;TEXT(AC118,0)&amp;"+s0*"&amp;TEXT(AD118,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R118)),S118,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R118)),S118,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R118)),S118,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R118)),S118,S118)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R118)),S118,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R118)),S118,0)&amp;"+e07*"&amp;IF(T118="反撃",U118,0)&amp;"+e08*"&amp;IF(T118="風属性",U118,0)&amp;"+e09*"&amp;IF(T118="闇属性",U118,0)&amp;"+e10*"&amp;IF(T118="単体",U118,0)&amp;"+e11*"&amp;IF(T118="範囲",U118,0)&amp;"+e12*"&amp;IF(T118="人",U118,0)&amp;"+e13*"&amp;IF(T118="異族",U118,0)&amp;"+e14*"&amp;IF(T118="バジュラ",U118,0)&amp;"+e15*"&amp;IF(T118="魔動人形",U118,0)&amp;");"</f>
-        <v>document.getElementById('m116').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI118&amp;"').innerHTML = (b1*"&amp;TEXT(J118,0)&amp;"+b2*"&amp;TEXT(K118,0)&amp;"+b0*"&amp;TEXT(L118,0)&amp;") + (s1*"&amp;TEXT(W118,0)&amp;"+s2*"&amp;TEXT(X118,0)&amp;"+s3*"&amp;TEXT(Y118,0)&amp;"+s4*"&amp;TEXT(Z118,0)&amp;"+s5*"&amp;TEXT(AA118,0)&amp;"+s6*"&amp;TEXT(AB118,0)&amp;"+s7*"&amp;TEXT(AC118,0)&amp;"+s0*"&amp;TEXT(AD118,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R118)),S118,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R118)),S118,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R118)),S118,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R118)),S118,S118)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R118)),S118,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R118)),S118,0)&amp;"+e07*"&amp;IF(T118="反撃",U118,0)&amp;"+e08*"&amp;IF(T118="風属性",U118,0)&amp;"+e09*"&amp;IF(T118="闇属性",U118,0)&amp;"+e10*"&amp;IF(T118="単体",U118,0)&amp;"+e11*"&amp;IF(T118="範囲",U118,0)&amp;"+e12*"&amp;IF(T118="人",U118,0)&amp;"+e13*"&amp;IF(T118="異族",U118,0)&amp;"+e14*"&amp;IF(T118="バジュラ",U118,0)&amp;"+e15*"&amp;IF(T118="魔動人形",U118,0)&amp;"+e16*"&amp;IF(T118="下位魔神",U118,0)&amp;");"</f>
+        <v>document.getElementById('m116').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI118" s="35" t="str">
         <f t="shared" si="9"/>
@@ -21635,10 +21694,10 @@
     </row>
     <row r="119" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D119" s="3">
         <v>5</v>
@@ -21692,8 +21751,8 @@
 Other&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m117'&gt;50&lt;/td&gt;&lt;td headers='HP'&gt;60&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;20&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;30&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH119" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI119&amp;"').innerHTML = (b1*"&amp;TEXT(J119,0)&amp;"+b2*"&amp;TEXT(K119,0)&amp;"+b0*"&amp;TEXT(L119,0)&amp;") + (s1*"&amp;TEXT(W119,0)&amp;"+s2*"&amp;TEXT(X119,0)&amp;"+s3*"&amp;TEXT(Y119,0)&amp;"+s4*"&amp;TEXT(Z119,0)&amp;"+s5*"&amp;TEXT(AA119,0)&amp;"+s6*"&amp;TEXT(AB119,0)&amp;"+s7*"&amp;TEXT(AC119,0)&amp;"+s0*"&amp;TEXT(AD119,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R119)),S119,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R119)),S119,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R119)),S119,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R119)),S119,S119)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R119)),S119,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R119)),S119,0)&amp;"+e07*"&amp;IF(T119="反撃",U119,0)&amp;"+e08*"&amp;IF(T119="風属性",U119,0)&amp;"+e09*"&amp;IF(T119="闇属性",U119,0)&amp;"+e10*"&amp;IF(T119="単体",U119,0)&amp;"+e11*"&amp;IF(T119="範囲",U119,0)&amp;"+e12*"&amp;IF(T119="人",U119,0)&amp;"+e13*"&amp;IF(T119="異族",U119,0)&amp;"+e14*"&amp;IF(T119="バジュラ",U119,0)&amp;"+e15*"&amp;IF(T119="魔動人形",U119,0)&amp;");"</f>
-        <v>document.getElementById('m117').innerHTML = (b1*20+b2*20+b0*20) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*30+s7*30+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI119&amp;"').innerHTML = (b1*"&amp;TEXT(J119,0)&amp;"+b2*"&amp;TEXT(K119,0)&amp;"+b0*"&amp;TEXT(L119,0)&amp;") + (s1*"&amp;TEXT(W119,0)&amp;"+s2*"&amp;TEXT(X119,0)&amp;"+s3*"&amp;TEXT(Y119,0)&amp;"+s4*"&amp;TEXT(Z119,0)&amp;"+s5*"&amp;TEXT(AA119,0)&amp;"+s6*"&amp;TEXT(AB119,0)&amp;"+s7*"&amp;TEXT(AC119,0)&amp;"+s0*"&amp;TEXT(AD119,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R119)),S119,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R119)),S119,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R119)),S119,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R119)),S119,S119)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R119)),S119,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R119)),S119,0)&amp;"+e07*"&amp;IF(T119="反撃",U119,0)&amp;"+e08*"&amp;IF(T119="風属性",U119,0)&amp;"+e09*"&amp;IF(T119="闇属性",U119,0)&amp;"+e10*"&amp;IF(T119="単体",U119,0)&amp;"+e11*"&amp;IF(T119="範囲",U119,0)&amp;"+e12*"&amp;IF(T119="人",U119,0)&amp;"+e13*"&amp;IF(T119="異族",U119,0)&amp;"+e14*"&amp;IF(T119="バジュラ",U119,0)&amp;"+e15*"&amp;IF(T119="魔動人形",U119,0)&amp;"+e16*"&amp;IF(T119="下位魔神",U119,0)&amp;");"</f>
+        <v>document.getElementById('m117').innerHTML = (b1*20+b2*20+b0*20) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*30+s7*30+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI119" s="35" t="str">
         <f t="shared" si="9"/>
@@ -21743,8 +21802,8 @@
 Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m118'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH120" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI120&amp;"').innerHTML = (b1*"&amp;TEXT(J120,0)&amp;"+b2*"&amp;TEXT(K120,0)&amp;"+b0*"&amp;TEXT(L120,0)&amp;") + (s1*"&amp;TEXT(W120,0)&amp;"+s2*"&amp;TEXT(X120,0)&amp;"+s3*"&amp;TEXT(Y120,0)&amp;"+s4*"&amp;TEXT(Z120,0)&amp;"+s5*"&amp;TEXT(AA120,0)&amp;"+s6*"&amp;TEXT(AB120,0)&amp;"+s7*"&amp;TEXT(AC120,0)&amp;"+s0*"&amp;TEXT(AD120,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R120)),S120,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R120)),S120,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R120)),S120,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R120)),S120,S120)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R120)),S120,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R120)),S120,0)&amp;"+e07*"&amp;IF(T120="反撃",U120,0)&amp;"+e08*"&amp;IF(T120="風属性",U120,0)&amp;"+e09*"&amp;IF(T120="闇属性",U120,0)&amp;"+e10*"&amp;IF(T120="単体",U120,0)&amp;"+e11*"&amp;IF(T120="範囲",U120,0)&amp;"+e12*"&amp;IF(T120="人",U120,0)&amp;"+e13*"&amp;IF(T120="異族",U120,0)&amp;"+e14*"&amp;IF(T120="バジュラ",U120,0)&amp;"+e15*"&amp;IF(T120="魔動人形",U120,0)&amp;");"</f>
-        <v>document.getElementById('m118').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI120&amp;"').innerHTML = (b1*"&amp;TEXT(J120,0)&amp;"+b2*"&amp;TEXT(K120,0)&amp;"+b0*"&amp;TEXT(L120,0)&amp;") + (s1*"&amp;TEXT(W120,0)&amp;"+s2*"&amp;TEXT(X120,0)&amp;"+s3*"&amp;TEXT(Y120,0)&amp;"+s4*"&amp;TEXT(Z120,0)&amp;"+s5*"&amp;TEXT(AA120,0)&amp;"+s6*"&amp;TEXT(AB120,0)&amp;"+s7*"&amp;TEXT(AC120,0)&amp;"+s0*"&amp;TEXT(AD120,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R120)),S120,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R120)),S120,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R120)),S120,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R120)),S120,S120)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R120)),S120,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R120)),S120,0)&amp;"+e07*"&amp;IF(T120="反撃",U120,0)&amp;"+e08*"&amp;IF(T120="風属性",U120,0)&amp;"+e09*"&amp;IF(T120="闇属性",U120,0)&amp;"+e10*"&amp;IF(T120="単体",U120,0)&amp;"+e11*"&amp;IF(T120="範囲",U120,0)&amp;"+e12*"&amp;IF(T120="人",U120,0)&amp;"+e13*"&amp;IF(T120="異族",U120,0)&amp;"+e14*"&amp;IF(T120="バジュラ",U120,0)&amp;"+e15*"&amp;IF(T120="魔動人形",U120,0)&amp;"+e16*"&amp;IF(T120="下位魔神",U120,0)&amp;");"</f>
+        <v>document.getElementById('m118').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI120" s="35" t="str">
         <f t="shared" si="9"/>
@@ -21817,8 +21876,8 @@
 Other&lt;/td&gt;&lt;td headers='group'&gt;FgG&lt;/td&gt;&lt;td headers='score' id='m119'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;異族&lt;/td&gt;&lt;td headers='sp.bonus'&gt;50&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;20&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;20&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH121" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI121&amp;"').innerHTML = (b1*"&amp;TEXT(J121,0)&amp;"+b2*"&amp;TEXT(K121,0)&amp;"+b0*"&amp;TEXT(L121,0)&amp;") + (s1*"&amp;TEXT(W121,0)&amp;"+s2*"&amp;TEXT(X121,0)&amp;"+s3*"&amp;TEXT(Y121,0)&amp;"+s4*"&amp;TEXT(Z121,0)&amp;"+s5*"&amp;TEXT(AA121,0)&amp;"+s6*"&amp;TEXT(AB121,0)&amp;"+s7*"&amp;TEXT(AC121,0)&amp;"+s0*"&amp;TEXT(AD121,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R121)),S121,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R121)),S121,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R121)),S121,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R121)),S121,S121)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R121)),S121,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R121)),S121,0)&amp;"+e07*"&amp;IF(T121="反撃",U121,0)&amp;"+e08*"&amp;IF(T121="風属性",U121,0)&amp;"+e09*"&amp;IF(T121="闇属性",U121,0)&amp;"+e10*"&amp;IF(T121="単体",U121,0)&amp;"+e11*"&amp;IF(T121="範囲",U121,0)&amp;"+e12*"&amp;IF(T121="人",U121,0)&amp;"+e13*"&amp;IF(T121="異族",U121,0)&amp;"+e14*"&amp;IF(T121="バジュラ",U121,0)&amp;"+e15*"&amp;IF(T121="魔動人形",U121,0)&amp;");"</f>
-        <v>document.getElementById('m119').innerHTML = (b1*20+b2*0+b0*20) + (s1*20+s2*20+s3*0+s4*0+s5*0+s6*20+s7*0+s0*20) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*50+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI121&amp;"').innerHTML = (b1*"&amp;TEXT(J121,0)&amp;"+b2*"&amp;TEXT(K121,0)&amp;"+b0*"&amp;TEXT(L121,0)&amp;") + (s1*"&amp;TEXT(W121,0)&amp;"+s2*"&amp;TEXT(X121,0)&amp;"+s3*"&amp;TEXT(Y121,0)&amp;"+s4*"&amp;TEXT(Z121,0)&amp;"+s5*"&amp;TEXT(AA121,0)&amp;"+s6*"&amp;TEXT(AB121,0)&amp;"+s7*"&amp;TEXT(AC121,0)&amp;"+s0*"&amp;TEXT(AD121,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R121)),S121,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R121)),S121,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R121)),S121,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R121)),S121,S121)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R121)),S121,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R121)),S121,0)&amp;"+e07*"&amp;IF(T121="反撃",U121,0)&amp;"+e08*"&amp;IF(T121="風属性",U121,0)&amp;"+e09*"&amp;IF(T121="闇属性",U121,0)&amp;"+e10*"&amp;IF(T121="単体",U121,0)&amp;"+e11*"&amp;IF(T121="範囲",U121,0)&amp;"+e12*"&amp;IF(T121="人",U121,0)&amp;"+e13*"&amp;IF(T121="異族",U121,0)&amp;"+e14*"&amp;IF(T121="バジュラ",U121,0)&amp;"+e15*"&amp;IF(T121="魔動人形",U121,0)&amp;"+e16*"&amp;IF(T121="下位魔神",U121,0)&amp;");"</f>
+        <v>document.getElementById('m119').innerHTML = (b1*20+b2*0+b0*20) + (s1*20+s2*20+s3*0+s4*0+s5*0+s6*20+s7*0+s0*20) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*50+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI121" s="35" t="str">
         <f t="shared" si="9"/>
@@ -21883,8 +21942,8 @@
 Other&lt;/td&gt;&lt;td headers='group'&gt;FgG&lt;/td&gt;&lt;td headers='score' id='m120'&gt;50&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;10&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;20&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH122" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI122&amp;"').innerHTML = (b1*"&amp;TEXT(J122,0)&amp;"+b2*"&amp;TEXT(K122,0)&amp;"+b0*"&amp;TEXT(L122,0)&amp;") + (s1*"&amp;TEXT(W122,0)&amp;"+s2*"&amp;TEXT(X122,0)&amp;"+s3*"&amp;TEXT(Y122,0)&amp;"+s4*"&amp;TEXT(Z122,0)&amp;"+s5*"&amp;TEXT(AA122,0)&amp;"+s6*"&amp;TEXT(AB122,0)&amp;"+s7*"&amp;TEXT(AC122,0)&amp;"+s0*"&amp;TEXT(AD122,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R122)),S122,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R122)),S122,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R122)),S122,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R122)),S122,S122)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R122)),S122,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R122)),S122,0)&amp;"+e07*"&amp;IF(T122="反撃",U122,0)&amp;"+e08*"&amp;IF(T122="風属性",U122,0)&amp;"+e09*"&amp;IF(T122="闇属性",U122,0)&amp;"+e10*"&amp;IF(T122="単体",U122,0)&amp;"+e11*"&amp;IF(T122="範囲",U122,0)&amp;"+e12*"&amp;IF(T122="人",U122,0)&amp;"+e13*"&amp;IF(T122="異族",U122,0)&amp;"+e14*"&amp;IF(T122="バジュラ",U122,0)&amp;"+e15*"&amp;IF(T122="魔動人形",U122,0)&amp;");"</f>
-        <v>document.getElementById('m120').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*0+s3*0+s4*0+s5*10+s6*0+s7*20+s0*20) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI122&amp;"').innerHTML = (b1*"&amp;TEXT(J122,0)&amp;"+b2*"&amp;TEXT(K122,0)&amp;"+b0*"&amp;TEXT(L122,0)&amp;") + (s1*"&amp;TEXT(W122,0)&amp;"+s2*"&amp;TEXT(X122,0)&amp;"+s3*"&amp;TEXT(Y122,0)&amp;"+s4*"&amp;TEXT(Z122,0)&amp;"+s5*"&amp;TEXT(AA122,0)&amp;"+s6*"&amp;TEXT(AB122,0)&amp;"+s7*"&amp;TEXT(AC122,0)&amp;"+s0*"&amp;TEXT(AD122,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R122)),S122,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R122)),S122,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R122)),S122,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R122)),S122,S122)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R122)),S122,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R122)),S122,0)&amp;"+e07*"&amp;IF(T122="反撃",U122,0)&amp;"+e08*"&amp;IF(T122="風属性",U122,0)&amp;"+e09*"&amp;IF(T122="闇属性",U122,0)&amp;"+e10*"&amp;IF(T122="単体",U122,0)&amp;"+e11*"&amp;IF(T122="範囲",U122,0)&amp;"+e12*"&amp;IF(T122="人",U122,0)&amp;"+e13*"&amp;IF(T122="異族",U122,0)&amp;"+e14*"&amp;IF(T122="バジュラ",U122,0)&amp;"+e15*"&amp;IF(T122="魔動人形",U122,0)&amp;"+e16*"&amp;IF(T122="下位魔神",U122,0)&amp;");"</f>
+        <v>document.getElementById('m120').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*0+s3*0+s4*0+s5*10+s6*0+s7*20+s0*20) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI122" s="35" t="str">
         <f t="shared" si="9"/>
@@ -21951,8 +22010,8 @@
 命中率+10&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH123" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI123&amp;"').innerHTML = (b1*"&amp;TEXT(J123,0)&amp;"+b2*"&amp;TEXT(K123,0)&amp;"+b0*"&amp;TEXT(L123,0)&amp;") + (s1*"&amp;TEXT(W123,0)&amp;"+s2*"&amp;TEXT(X123,0)&amp;"+s3*"&amp;TEXT(Y123,0)&amp;"+s4*"&amp;TEXT(Z123,0)&amp;"+s5*"&amp;TEXT(AA123,0)&amp;"+s6*"&amp;TEXT(AB123,0)&amp;"+s7*"&amp;TEXT(AC123,0)&amp;"+s0*"&amp;TEXT(AD123,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R123)),S123,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R123)),S123,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R123)),S123,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R123)),S123,S123)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R123)),S123,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R123)),S123,0)&amp;"+e07*"&amp;IF(T123="反撃",U123,0)&amp;"+e08*"&amp;IF(T123="風属性",U123,0)&amp;"+e09*"&amp;IF(T123="闇属性",U123,0)&amp;"+e10*"&amp;IF(T123="単体",U123,0)&amp;"+e11*"&amp;IF(T123="範囲",U123,0)&amp;"+e12*"&amp;IF(T123="人",U123,0)&amp;"+e13*"&amp;IF(T123="異族",U123,0)&amp;"+e14*"&amp;IF(T123="バジュラ",U123,0)&amp;"+e15*"&amp;IF(T123="魔動人形",U123,0)&amp;");"</f>
-        <v>document.getElementById('m121').innerHTML = (b1*60+b2*0+b0*60) + (s1*30+s2*0+s3*0+s4*0+s5*0+s6*30+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI123&amp;"').innerHTML = (b1*"&amp;TEXT(J123,0)&amp;"+b2*"&amp;TEXT(K123,0)&amp;"+b0*"&amp;TEXT(L123,0)&amp;") + (s1*"&amp;TEXT(W123,0)&amp;"+s2*"&amp;TEXT(X123,0)&amp;"+s3*"&amp;TEXT(Y123,0)&amp;"+s4*"&amp;TEXT(Z123,0)&amp;"+s5*"&amp;TEXT(AA123,0)&amp;"+s6*"&amp;TEXT(AB123,0)&amp;"+s7*"&amp;TEXT(AC123,0)&amp;"+s0*"&amp;TEXT(AD123,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R123)),S123,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R123)),S123,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R123)),S123,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R123)),S123,S123)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R123)),S123,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R123)),S123,0)&amp;"+e07*"&amp;IF(T123="反撃",U123,0)&amp;"+e08*"&amp;IF(T123="風属性",U123,0)&amp;"+e09*"&amp;IF(T123="闇属性",U123,0)&amp;"+e10*"&amp;IF(T123="単体",U123,0)&amp;"+e11*"&amp;IF(T123="範囲",U123,0)&amp;"+e12*"&amp;IF(T123="人",U123,0)&amp;"+e13*"&amp;IF(T123="異族",U123,0)&amp;"+e14*"&amp;IF(T123="バジュラ",U123,0)&amp;"+e15*"&amp;IF(T123="魔動人形",U123,0)&amp;"+e16*"&amp;IF(T123="下位魔神",U123,0)&amp;");"</f>
+        <v>document.getElementById('m121').innerHTML = (b1*60+b2*0+b0*60) + (s1*30+s2*0+s3*0+s4*0+s5*0+s6*30+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI123" s="35" t="str">
         <f t="shared" si="9"/>
@@ -22021,8 +22080,8 @@
 Other&lt;/td&gt;&lt;td headers='group'&gt;FgG&lt;/td&gt;&lt;td headers='score' id='m122'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;20&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;30&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH124" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI124&amp;"').innerHTML = (b1*"&amp;TEXT(J124,0)&amp;"+b2*"&amp;TEXT(K124,0)&amp;"+b0*"&amp;TEXT(L124,0)&amp;") + (s1*"&amp;TEXT(W124,0)&amp;"+s2*"&amp;TEXT(X124,0)&amp;"+s3*"&amp;TEXT(Y124,0)&amp;"+s4*"&amp;TEXT(Z124,0)&amp;"+s5*"&amp;TEXT(AA124,0)&amp;"+s6*"&amp;TEXT(AB124,0)&amp;"+s7*"&amp;TEXT(AC124,0)&amp;"+s0*"&amp;TEXT(AD124,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R124)),S124,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R124)),S124,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R124)),S124,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R124)),S124,S124)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R124)),S124,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R124)),S124,0)&amp;"+e07*"&amp;IF(T124="反撃",U124,0)&amp;"+e08*"&amp;IF(T124="風属性",U124,0)&amp;"+e09*"&amp;IF(T124="闇属性",U124,0)&amp;"+e10*"&amp;IF(T124="単体",U124,0)&amp;"+e11*"&amp;IF(T124="範囲",U124,0)&amp;"+e12*"&amp;IF(T124="人",U124,0)&amp;"+e13*"&amp;IF(T124="異族",U124,0)&amp;"+e14*"&amp;IF(T124="バジュラ",U124,0)&amp;"+e15*"&amp;IF(T124="魔動人形",U124,0)&amp;");"</f>
-        <v>document.getElementById('m122').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*0+s3*30+s4*0+s5*0+s6*30+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI124&amp;"').innerHTML = (b1*"&amp;TEXT(J124,0)&amp;"+b2*"&amp;TEXT(K124,0)&amp;"+b0*"&amp;TEXT(L124,0)&amp;") + (s1*"&amp;TEXT(W124,0)&amp;"+s2*"&amp;TEXT(X124,0)&amp;"+s3*"&amp;TEXT(Y124,0)&amp;"+s4*"&amp;TEXT(Z124,0)&amp;"+s5*"&amp;TEXT(AA124,0)&amp;"+s6*"&amp;TEXT(AB124,0)&amp;"+s7*"&amp;TEXT(AC124,0)&amp;"+s0*"&amp;TEXT(AD124,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R124)),S124,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R124)),S124,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R124)),S124,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R124)),S124,S124)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R124)),S124,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R124)),S124,0)&amp;"+e07*"&amp;IF(T124="反撃",U124,0)&amp;"+e08*"&amp;IF(T124="風属性",U124,0)&amp;"+e09*"&amp;IF(T124="闇属性",U124,0)&amp;"+e10*"&amp;IF(T124="単体",U124,0)&amp;"+e11*"&amp;IF(T124="範囲",U124,0)&amp;"+e12*"&amp;IF(T124="人",U124,0)&amp;"+e13*"&amp;IF(T124="異族",U124,0)&amp;"+e14*"&amp;IF(T124="バジュラ",U124,0)&amp;"+e15*"&amp;IF(T124="魔動人形",U124,0)&amp;"+e16*"&amp;IF(T124="下位魔神",U124,0)&amp;");"</f>
+        <v>document.getElementById('m122').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*0+s3*30+s4*0+s5*0+s6*30+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI124" s="35" t="str">
         <f t="shared" si="9"/>
@@ -22095,8 +22154,8 @@
 Other&lt;/td&gt;&lt;td headers='group'&gt;FgG&lt;/td&gt;&lt;td headers='score' id='m123'&gt;110&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;50&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;異族&lt;/td&gt;&lt;td headers='sp.bonus'&gt;30&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;20&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;10&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH125" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI125&amp;"').innerHTML = (b1*"&amp;TEXT(J125,0)&amp;"+b2*"&amp;TEXT(K125,0)&amp;"+b0*"&amp;TEXT(L125,0)&amp;") + (s1*"&amp;TEXT(W125,0)&amp;"+s2*"&amp;TEXT(X125,0)&amp;"+s3*"&amp;TEXT(Y125,0)&amp;"+s4*"&amp;TEXT(Z125,0)&amp;"+s5*"&amp;TEXT(AA125,0)&amp;"+s6*"&amp;TEXT(AB125,0)&amp;"+s7*"&amp;TEXT(AC125,0)&amp;"+s0*"&amp;TEXT(AD125,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R125)),S125,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R125)),S125,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R125)),S125,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R125)),S125,S125)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R125)),S125,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R125)),S125,0)&amp;"+e07*"&amp;IF(T125="反撃",U125,0)&amp;"+e08*"&amp;IF(T125="風属性",U125,0)&amp;"+e09*"&amp;IF(T125="闇属性",U125,0)&amp;"+e10*"&amp;IF(T125="単体",U125,0)&amp;"+e11*"&amp;IF(T125="範囲",U125,0)&amp;"+e12*"&amp;IF(T125="人",U125,0)&amp;"+e13*"&amp;IF(T125="異族",U125,0)&amp;"+e14*"&amp;IF(T125="バジュラ",U125,0)&amp;"+e15*"&amp;IF(T125="魔動人形",U125,0)&amp;");"</f>
-        <v>document.getElementById('m123').innerHTML = (b1*50+b2*0+b0*50) + (s1*0+s2*0+s3*0+s4*20+s5*30+s6*0+s7*10+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*30+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI125&amp;"').innerHTML = (b1*"&amp;TEXT(J125,0)&amp;"+b2*"&amp;TEXT(K125,0)&amp;"+b0*"&amp;TEXT(L125,0)&amp;") + (s1*"&amp;TEXT(W125,0)&amp;"+s2*"&amp;TEXT(X125,0)&amp;"+s3*"&amp;TEXT(Y125,0)&amp;"+s4*"&amp;TEXT(Z125,0)&amp;"+s5*"&amp;TEXT(AA125,0)&amp;"+s6*"&amp;TEXT(AB125,0)&amp;"+s7*"&amp;TEXT(AC125,0)&amp;"+s0*"&amp;TEXT(AD125,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R125)),S125,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R125)),S125,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R125)),S125,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R125)),S125,S125)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R125)),S125,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R125)),S125,0)&amp;"+e07*"&amp;IF(T125="反撃",U125,0)&amp;"+e08*"&amp;IF(T125="風属性",U125,0)&amp;"+e09*"&amp;IF(T125="闇属性",U125,0)&amp;"+e10*"&amp;IF(T125="単体",U125,0)&amp;"+e11*"&amp;IF(T125="範囲",U125,0)&amp;"+e12*"&amp;IF(T125="人",U125,0)&amp;"+e13*"&amp;IF(T125="異族",U125,0)&amp;"+e14*"&amp;IF(T125="バジュラ",U125,0)&amp;"+e15*"&amp;IF(T125="魔動人形",U125,0)&amp;"+e16*"&amp;IF(T125="下位魔神",U125,0)&amp;");"</f>
+        <v>document.getElementById('m123').innerHTML = (b1*50+b2*0+b0*50) + (s1*0+s2*0+s3*0+s4*20+s5*30+s6*0+s7*10+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*30+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI125" s="35" t="str">
         <f t="shared" si="9"/>
@@ -22164,8 +22223,8 @@
 Other&lt;/td&gt;&lt;td headers='group'&gt;FgG&lt;/td&gt;&lt;td headers='score' id='m124'&gt;30&lt;/td&gt;&lt;td headers='HP'&gt;70&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;単体耐性+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;30&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH126" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI126&amp;"').innerHTML = (b1*"&amp;TEXT(J126,0)&amp;"+b2*"&amp;TEXT(K126,0)&amp;"+b0*"&amp;TEXT(L126,0)&amp;") + (s1*"&amp;TEXT(W126,0)&amp;"+s2*"&amp;TEXT(X126,0)&amp;"+s3*"&amp;TEXT(Y126,0)&amp;"+s4*"&amp;TEXT(Z126,0)&amp;"+s5*"&amp;TEXT(AA126,0)&amp;"+s6*"&amp;TEXT(AB126,0)&amp;"+s7*"&amp;TEXT(AC126,0)&amp;"+s0*"&amp;TEXT(AD126,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R126)),S126,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R126)),S126,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R126)),S126,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R126)),S126,S126)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R126)),S126,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R126)),S126,0)&amp;"+e07*"&amp;IF(T126="反撃",U126,0)&amp;"+e08*"&amp;IF(T126="風属性",U126,0)&amp;"+e09*"&amp;IF(T126="闇属性",U126,0)&amp;"+e10*"&amp;IF(T126="単体",U126,0)&amp;"+e11*"&amp;IF(T126="範囲",U126,0)&amp;"+e12*"&amp;IF(T126="人",U126,0)&amp;"+e13*"&amp;IF(T126="異族",U126,0)&amp;"+e14*"&amp;IF(T126="バジュラ",U126,0)&amp;"+e15*"&amp;IF(T126="魔動人形",U126,0)&amp;");"</f>
-        <v>document.getElementById('m124').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*30+s6*0+s7*30+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI126&amp;"').innerHTML = (b1*"&amp;TEXT(J126,0)&amp;"+b2*"&amp;TEXT(K126,0)&amp;"+b0*"&amp;TEXT(L126,0)&amp;") + (s1*"&amp;TEXT(W126,0)&amp;"+s2*"&amp;TEXT(X126,0)&amp;"+s3*"&amp;TEXT(Y126,0)&amp;"+s4*"&amp;TEXT(Z126,0)&amp;"+s5*"&amp;TEXT(AA126,0)&amp;"+s6*"&amp;TEXT(AB126,0)&amp;"+s7*"&amp;TEXT(AC126,0)&amp;"+s0*"&amp;TEXT(AD126,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R126)),S126,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R126)),S126,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R126)),S126,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R126)),S126,S126)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R126)),S126,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R126)),S126,0)&amp;"+e07*"&amp;IF(T126="反撃",U126,0)&amp;"+e08*"&amp;IF(T126="風属性",U126,0)&amp;"+e09*"&amp;IF(T126="闇属性",U126,0)&amp;"+e10*"&amp;IF(T126="単体",U126,0)&amp;"+e11*"&amp;IF(T126="範囲",U126,0)&amp;"+e12*"&amp;IF(T126="人",U126,0)&amp;"+e13*"&amp;IF(T126="異族",U126,0)&amp;"+e14*"&amp;IF(T126="バジュラ",U126,0)&amp;"+e15*"&amp;IF(T126="魔動人形",U126,0)&amp;"+e16*"&amp;IF(T126="下位魔神",U126,0)&amp;");"</f>
+        <v>document.getElementById('m124').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*30+s6*0+s7*30+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI126" s="35" t="str">
         <f t="shared" si="9"/>
@@ -22234,8 +22293,8 @@
 Other&lt;/td&gt;&lt;td headers='group'&gt;FgG&lt;/td&gt;&lt;td headers='score' id='m125'&gt;100&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;射撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;MP上限+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;60&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH127" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI127&amp;"').innerHTML = (b1*"&amp;TEXT(J127,0)&amp;"+b2*"&amp;TEXT(K127,0)&amp;"+b0*"&amp;TEXT(L127,0)&amp;") + (s1*"&amp;TEXT(W127,0)&amp;"+s2*"&amp;TEXT(X127,0)&amp;"+s3*"&amp;TEXT(Y127,0)&amp;"+s4*"&amp;TEXT(Z127,0)&amp;"+s5*"&amp;TEXT(AA127,0)&amp;"+s6*"&amp;TEXT(AB127,0)&amp;"+s7*"&amp;TEXT(AC127,0)&amp;"+s0*"&amp;TEXT(AD127,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R127)),S127,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R127)),S127,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R127)),S127,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R127)),S127,S127)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R127)),S127,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R127)),S127,0)&amp;"+e07*"&amp;IF(T127="反撃",U127,0)&amp;"+e08*"&amp;IF(T127="風属性",U127,0)&amp;"+e09*"&amp;IF(T127="闇属性",U127,0)&amp;"+e10*"&amp;IF(T127="単体",U127,0)&amp;"+e11*"&amp;IF(T127="範囲",U127,0)&amp;"+e12*"&amp;IF(T127="人",U127,0)&amp;"+e13*"&amp;IF(T127="異族",U127,0)&amp;"+e14*"&amp;IF(T127="バジュラ",U127,0)&amp;"+e15*"&amp;IF(T127="魔動人形",U127,0)&amp;");"</f>
-        <v>document.getElementById('m125').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*60+s0*60) + (e01*0+e02*0+e03*0+e04*40+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI127&amp;"').innerHTML = (b1*"&amp;TEXT(J127,0)&amp;"+b2*"&amp;TEXT(K127,0)&amp;"+b0*"&amp;TEXT(L127,0)&amp;") + (s1*"&amp;TEXT(W127,0)&amp;"+s2*"&amp;TEXT(X127,0)&amp;"+s3*"&amp;TEXT(Y127,0)&amp;"+s4*"&amp;TEXT(Z127,0)&amp;"+s5*"&amp;TEXT(AA127,0)&amp;"+s6*"&amp;TEXT(AB127,0)&amp;"+s7*"&amp;TEXT(AC127,0)&amp;"+s0*"&amp;TEXT(AD127,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R127)),S127,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R127)),S127,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R127)),S127,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R127)),S127,S127)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R127)),S127,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R127)),S127,0)&amp;"+e07*"&amp;IF(T127="反撃",U127,0)&amp;"+e08*"&amp;IF(T127="風属性",U127,0)&amp;"+e09*"&amp;IF(T127="闇属性",U127,0)&amp;"+e10*"&amp;IF(T127="単体",U127,0)&amp;"+e11*"&amp;IF(T127="範囲",U127,0)&amp;"+e12*"&amp;IF(T127="人",U127,0)&amp;"+e13*"&amp;IF(T127="異族",U127,0)&amp;"+e14*"&amp;IF(T127="バジュラ",U127,0)&amp;"+e15*"&amp;IF(T127="魔動人形",U127,0)&amp;"+e16*"&amp;IF(T127="下位魔神",U127,0)&amp;");"</f>
+        <v>document.getElementById('m125').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*60+s0*60) + (e01*0+e02*0+e03*0+e04*40+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI127" s="35" t="str">
         <f t="shared" si="9"/>
@@ -22288,8 +22347,8 @@
 Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m126'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH128" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI128&amp;"').innerHTML = (b1*"&amp;TEXT(J128,0)&amp;"+b2*"&amp;TEXT(K128,0)&amp;"+b0*"&amp;TEXT(L128,0)&amp;") + (s1*"&amp;TEXT(W128,0)&amp;"+s2*"&amp;TEXT(X128,0)&amp;"+s3*"&amp;TEXT(Y128,0)&amp;"+s4*"&amp;TEXT(Z128,0)&amp;"+s5*"&amp;TEXT(AA128,0)&amp;"+s6*"&amp;TEXT(AB128,0)&amp;"+s7*"&amp;TEXT(AC128,0)&amp;"+s0*"&amp;TEXT(AD128,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R128)),S128,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R128)),S128,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R128)),S128,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R128)),S128,S128)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R128)),S128,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R128)),S128,0)&amp;"+e07*"&amp;IF(T128="反撃",U128,0)&amp;"+e08*"&amp;IF(T128="風属性",U128,0)&amp;"+e09*"&amp;IF(T128="闇属性",U128,0)&amp;"+e10*"&amp;IF(T128="単体",U128,0)&amp;"+e11*"&amp;IF(T128="範囲",U128,0)&amp;"+e12*"&amp;IF(T128="人",U128,0)&amp;"+e13*"&amp;IF(T128="異族",U128,0)&amp;"+e14*"&amp;IF(T128="バジュラ",U128,0)&amp;"+e15*"&amp;IF(T128="魔動人形",U128,0)&amp;");"</f>
-        <v>document.getElementById('m126').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI128&amp;"').innerHTML = (b1*"&amp;TEXT(J128,0)&amp;"+b2*"&amp;TEXT(K128,0)&amp;"+b0*"&amp;TEXT(L128,0)&amp;") + (s1*"&amp;TEXT(W128,0)&amp;"+s2*"&amp;TEXT(X128,0)&amp;"+s3*"&amp;TEXT(Y128,0)&amp;"+s4*"&amp;TEXT(Z128,0)&amp;"+s5*"&amp;TEXT(AA128,0)&amp;"+s6*"&amp;TEXT(AB128,0)&amp;"+s7*"&amp;TEXT(AC128,0)&amp;"+s0*"&amp;TEXT(AD128,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R128)),S128,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R128)),S128,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R128)),S128,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R128)),S128,S128)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R128)),S128,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R128)),S128,0)&amp;"+e07*"&amp;IF(T128="反撃",U128,0)&amp;"+e08*"&amp;IF(T128="風属性",U128,0)&amp;"+e09*"&amp;IF(T128="闇属性",U128,0)&amp;"+e10*"&amp;IF(T128="単体",U128,0)&amp;"+e11*"&amp;IF(T128="範囲",U128,0)&amp;"+e12*"&amp;IF(T128="人",U128,0)&amp;"+e13*"&amp;IF(T128="異族",U128,0)&amp;"+e14*"&amp;IF(T128="バジュラ",U128,0)&amp;"+e15*"&amp;IF(T128="魔動人形",U128,0)&amp;"+e16*"&amp;IF(T128="下位魔神",U128,0)&amp;");"</f>
+        <v>document.getElementById('m126').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI128" s="35" t="str">
         <f t="shared" si="9"/>
@@ -22365,8 +22424,8 @@
 Other&lt;/td&gt;&lt;td headers='group'&gt;FgG&lt;/td&gt;&lt;td headers='score' id='m127'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;40&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;20&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;MP上限+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;30&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH129" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI129&amp;"').innerHTML = (b1*"&amp;TEXT(J129,0)&amp;"+b2*"&amp;TEXT(K129,0)&amp;"+b0*"&amp;TEXT(L129,0)&amp;") + (s1*"&amp;TEXT(W129,0)&amp;"+s2*"&amp;TEXT(X129,0)&amp;"+s3*"&amp;TEXT(Y129,0)&amp;"+s4*"&amp;TEXT(Z129,0)&amp;"+s5*"&amp;TEXT(AA129,0)&amp;"+s6*"&amp;TEXT(AB129,0)&amp;"+s7*"&amp;TEXT(AC129,0)&amp;"+s0*"&amp;TEXT(AD129,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R129)),S129,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R129)),S129,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R129)),S129,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R129)),S129,S129)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R129)),S129,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R129)),S129,0)&amp;"+e07*"&amp;IF(T129="反撃",U129,0)&amp;"+e08*"&amp;IF(T129="風属性",U129,0)&amp;"+e09*"&amp;IF(T129="闇属性",U129,0)&amp;"+e10*"&amp;IF(T129="単体",U129,0)&amp;"+e11*"&amp;IF(T129="範囲",U129,0)&amp;"+e12*"&amp;IF(T129="人",U129,0)&amp;"+e13*"&amp;IF(T129="異族",U129,0)&amp;"+e14*"&amp;IF(T129="バジュラ",U129,0)&amp;"+e15*"&amp;IF(T129="魔動人形",U129,0)&amp;");"</f>
-        <v>document.getElementById('m127').innerHTML = (b1*40+b2*0+b0*40) + (s1*0+s2*0+s3*30+s4*0+s5*30+s6*0+s7*0+s0*30) + (e01*20+e02*0+e03*0+e04*20+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI129&amp;"').innerHTML = (b1*"&amp;TEXT(J129,0)&amp;"+b2*"&amp;TEXT(K129,0)&amp;"+b0*"&amp;TEXT(L129,0)&amp;") + (s1*"&amp;TEXT(W129,0)&amp;"+s2*"&amp;TEXT(X129,0)&amp;"+s3*"&amp;TEXT(Y129,0)&amp;"+s4*"&amp;TEXT(Z129,0)&amp;"+s5*"&amp;TEXT(AA129,0)&amp;"+s6*"&amp;TEXT(AB129,0)&amp;"+s7*"&amp;TEXT(AC129,0)&amp;"+s0*"&amp;TEXT(AD129,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R129)),S129,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R129)),S129,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R129)),S129,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R129)),S129,S129)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R129)),S129,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R129)),S129,0)&amp;"+e07*"&amp;IF(T129="反撃",U129,0)&amp;"+e08*"&amp;IF(T129="風属性",U129,0)&amp;"+e09*"&amp;IF(T129="闇属性",U129,0)&amp;"+e10*"&amp;IF(T129="単体",U129,0)&amp;"+e11*"&amp;IF(T129="範囲",U129,0)&amp;"+e12*"&amp;IF(T129="人",U129,0)&amp;"+e13*"&amp;IF(T129="異族",U129,0)&amp;"+e14*"&amp;IF(T129="バジュラ",U129,0)&amp;"+e15*"&amp;IF(T129="魔動人形",U129,0)&amp;"+e16*"&amp;IF(T129="下位魔神",U129,0)&amp;");"</f>
+        <v>document.getElementById('m127').innerHTML = (b1*40+b2*0+b0*40) + (s1*0+s2*0+s3*30+s4*0+s5*30+s6*0+s7*0+s0*30) + (e01*20+e02*0+e03*0+e04*20+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI129" s="35" t="str">
         <f t="shared" si="9"/>
@@ -22433,8 +22492,8 @@
 Other&lt;/td&gt;&lt;td headers='group'&gt;FgG&lt;/td&gt;&lt;td headers='score' id='m128'&gt;70&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;40&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH130" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI130&amp;"').innerHTML = (b1*"&amp;TEXT(J130,0)&amp;"+b2*"&amp;TEXT(K130,0)&amp;"+b0*"&amp;TEXT(L130,0)&amp;") + (s1*"&amp;TEXT(W130,0)&amp;"+s2*"&amp;TEXT(X130,0)&amp;"+s3*"&amp;TEXT(Y130,0)&amp;"+s4*"&amp;TEXT(Z130,0)&amp;"+s5*"&amp;TEXT(AA130,0)&amp;"+s6*"&amp;TEXT(AB130,0)&amp;"+s7*"&amp;TEXT(AC130,0)&amp;"+s0*"&amp;TEXT(AD130,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R130)),S130,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R130)),S130,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R130)),S130,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R130)),S130,S130)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R130)),S130,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R130)),S130,0)&amp;"+e07*"&amp;IF(T130="反撃",U130,0)&amp;"+e08*"&amp;IF(T130="風属性",U130,0)&amp;"+e09*"&amp;IF(T130="闇属性",U130,0)&amp;"+e10*"&amp;IF(T130="単体",U130,0)&amp;"+e11*"&amp;IF(T130="範囲",U130,0)&amp;"+e12*"&amp;IF(T130="人",U130,0)&amp;"+e13*"&amp;IF(T130="異族",U130,0)&amp;"+e14*"&amp;IF(T130="バジュラ",U130,0)&amp;"+e15*"&amp;IF(T130="魔動人形",U130,0)&amp;");"</f>
-        <v>document.getElementById('m128').innerHTML = (b1*30+b2*30+b0*30) + (s1*0+s2*0+s3*40+s4*0+s5*20+s6*0+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI130&amp;"').innerHTML = (b1*"&amp;TEXT(J130,0)&amp;"+b2*"&amp;TEXT(K130,0)&amp;"+b0*"&amp;TEXT(L130,0)&amp;") + (s1*"&amp;TEXT(W130,0)&amp;"+s2*"&amp;TEXT(X130,0)&amp;"+s3*"&amp;TEXT(Y130,0)&amp;"+s4*"&amp;TEXT(Z130,0)&amp;"+s5*"&amp;TEXT(AA130,0)&amp;"+s6*"&amp;TEXT(AB130,0)&amp;"+s7*"&amp;TEXT(AC130,0)&amp;"+s0*"&amp;TEXT(AD130,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R130)),S130,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R130)),S130,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R130)),S130,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R130)),S130,S130)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R130)),S130,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R130)),S130,0)&amp;"+e07*"&amp;IF(T130="反撃",U130,0)&amp;"+e08*"&amp;IF(T130="風属性",U130,0)&amp;"+e09*"&amp;IF(T130="闇属性",U130,0)&amp;"+e10*"&amp;IF(T130="単体",U130,0)&amp;"+e11*"&amp;IF(T130="範囲",U130,0)&amp;"+e12*"&amp;IF(T130="人",U130,0)&amp;"+e13*"&amp;IF(T130="異族",U130,0)&amp;"+e14*"&amp;IF(T130="バジュラ",U130,0)&amp;"+e15*"&amp;IF(T130="魔動人形",U130,0)&amp;"+e16*"&amp;IF(T130="下位魔神",U130,0)&amp;");"</f>
+        <v>document.getElementById('m128').innerHTML = (b1*30+b2*30+b0*30) + (s1*0+s2*0+s3*40+s4*0+s5*20+s6*0+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI130" s="35" t="str">
         <f t="shared" si="9"/>
@@ -22487,8 +22546,8 @@
 Saga Region&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m129'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH131" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI131&amp;"').innerHTML = (b1*"&amp;TEXT(J131,0)&amp;"+b2*"&amp;TEXT(K131,0)&amp;"+b0*"&amp;TEXT(L131,0)&amp;") + (s1*"&amp;TEXT(W131,0)&amp;"+s2*"&amp;TEXT(X131,0)&amp;"+s3*"&amp;TEXT(Y131,0)&amp;"+s4*"&amp;TEXT(Z131,0)&amp;"+s5*"&amp;TEXT(AA131,0)&amp;"+s6*"&amp;TEXT(AB131,0)&amp;"+s7*"&amp;TEXT(AC131,0)&amp;"+s0*"&amp;TEXT(AD131,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R131)),S131,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R131)),S131,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R131)),S131,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R131)),S131,S131)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R131)),S131,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R131)),S131,0)&amp;"+e07*"&amp;IF(T131="反撃",U131,0)&amp;"+e08*"&amp;IF(T131="風属性",U131,0)&amp;"+e09*"&amp;IF(T131="闇属性",U131,0)&amp;"+e10*"&amp;IF(T131="単体",U131,0)&amp;"+e11*"&amp;IF(T131="範囲",U131,0)&amp;"+e12*"&amp;IF(T131="人",U131,0)&amp;"+e13*"&amp;IF(T131="異族",U131,0)&amp;"+e14*"&amp;IF(T131="バジュラ",U131,0)&amp;"+e15*"&amp;IF(T131="魔動人形",U131,0)&amp;");"</f>
-        <v>document.getElementById('m129').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI131&amp;"').innerHTML = (b1*"&amp;TEXT(J131,0)&amp;"+b2*"&amp;TEXT(K131,0)&amp;"+b0*"&amp;TEXT(L131,0)&amp;") + (s1*"&amp;TEXT(W131,0)&amp;"+s2*"&amp;TEXT(X131,0)&amp;"+s3*"&amp;TEXT(Y131,0)&amp;"+s4*"&amp;TEXT(Z131,0)&amp;"+s5*"&amp;TEXT(AA131,0)&amp;"+s6*"&amp;TEXT(AB131,0)&amp;"+s7*"&amp;TEXT(AC131,0)&amp;"+s0*"&amp;TEXT(AD131,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R131)),S131,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R131)),S131,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R131)),S131,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R131)),S131,S131)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R131)),S131,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R131)),S131,0)&amp;"+e07*"&amp;IF(T131="反撃",U131,0)&amp;"+e08*"&amp;IF(T131="風属性",U131,0)&amp;"+e09*"&amp;IF(T131="闇属性",U131,0)&amp;"+e10*"&amp;IF(T131="単体",U131,0)&amp;"+e11*"&amp;IF(T131="範囲",U131,0)&amp;"+e12*"&amp;IF(T131="人",U131,0)&amp;"+e13*"&amp;IF(T131="異族",U131,0)&amp;"+e14*"&amp;IF(T131="バジュラ",U131,0)&amp;"+e15*"&amp;IF(T131="魔動人形",U131,0)&amp;"+e16*"&amp;IF(T131="下位魔神",U131,0)&amp;");"</f>
+        <v>document.getElementById('m129').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI131" s="35" t="str">
         <f t="shared" si="9"/>
@@ -22541,8 +22600,8 @@
 Saga Region&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m130'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH132" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI132&amp;"').innerHTML = (b1*"&amp;TEXT(J132,0)&amp;"+b2*"&amp;TEXT(K132,0)&amp;"+b0*"&amp;TEXT(L132,0)&amp;") + (s1*"&amp;TEXT(W132,0)&amp;"+s2*"&amp;TEXT(X132,0)&amp;"+s3*"&amp;TEXT(Y132,0)&amp;"+s4*"&amp;TEXT(Z132,0)&amp;"+s5*"&amp;TEXT(AA132,0)&amp;"+s6*"&amp;TEXT(AB132,0)&amp;"+s7*"&amp;TEXT(AC132,0)&amp;"+s0*"&amp;TEXT(AD132,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R132)),S132,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R132)),S132,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R132)),S132,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R132)),S132,S132)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R132)),S132,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R132)),S132,0)&amp;"+e07*"&amp;IF(T132="反撃",U132,0)&amp;"+e08*"&amp;IF(T132="風属性",U132,0)&amp;"+e09*"&amp;IF(T132="闇属性",U132,0)&amp;"+e10*"&amp;IF(T132="単体",U132,0)&amp;"+e11*"&amp;IF(T132="範囲",U132,0)&amp;"+e12*"&amp;IF(T132="人",U132,0)&amp;"+e13*"&amp;IF(T132="異族",U132,0)&amp;"+e14*"&amp;IF(T132="バジュラ",U132,0)&amp;"+e15*"&amp;IF(T132="魔動人形",U132,0)&amp;");"</f>
-        <v>document.getElementById('m130').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI132&amp;"').innerHTML = (b1*"&amp;TEXT(J132,0)&amp;"+b2*"&amp;TEXT(K132,0)&amp;"+b0*"&amp;TEXT(L132,0)&amp;") + (s1*"&amp;TEXT(W132,0)&amp;"+s2*"&amp;TEXT(X132,0)&amp;"+s3*"&amp;TEXT(Y132,0)&amp;"+s4*"&amp;TEXT(Z132,0)&amp;"+s5*"&amp;TEXT(AA132,0)&amp;"+s6*"&amp;TEXT(AB132,0)&amp;"+s7*"&amp;TEXT(AC132,0)&amp;"+s0*"&amp;TEXT(AD132,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R132)),S132,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R132)),S132,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R132)),S132,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R132)),S132,S132)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R132)),S132,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R132)),S132,0)&amp;"+e07*"&amp;IF(T132="反撃",U132,0)&amp;"+e08*"&amp;IF(T132="風属性",U132,0)&amp;"+e09*"&amp;IF(T132="闇属性",U132,0)&amp;"+e10*"&amp;IF(T132="単体",U132,0)&amp;"+e11*"&amp;IF(T132="範囲",U132,0)&amp;"+e12*"&amp;IF(T132="人",U132,0)&amp;"+e13*"&amp;IF(T132="異族",U132,0)&amp;"+e14*"&amp;IF(T132="バジュラ",U132,0)&amp;"+e15*"&amp;IF(T132="魔動人形",U132,0)&amp;"+e16*"&amp;IF(T132="下位魔神",U132,0)&amp;");"</f>
+        <v>document.getElementById('m130').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI132" s="35" t="str">
         <f t="shared" ref="AI132:AI195" si="17">"m"&amp;TEXT(ROW()-2,"000")</f>
@@ -22608,8 +22667,8 @@
 Saga Region&lt;/td&gt;&lt;td headers='group'&gt;海賊団&lt;/td&gt;&lt;td headers='score' id='m131'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;70&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;無区分&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;命中率+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;60&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH133" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI133&amp;"').innerHTML = (b1*"&amp;TEXT(J133,0)&amp;"+b2*"&amp;TEXT(K133,0)&amp;"+b0*"&amp;TEXT(L133,0)&amp;") + (s1*"&amp;TEXT(W133,0)&amp;"+s2*"&amp;TEXT(X133,0)&amp;"+s3*"&amp;TEXT(Y133,0)&amp;"+s4*"&amp;TEXT(Z133,0)&amp;"+s5*"&amp;TEXT(AA133,0)&amp;"+s6*"&amp;TEXT(AB133,0)&amp;"+s7*"&amp;TEXT(AC133,0)&amp;"+s0*"&amp;TEXT(AD133,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R133)),S133,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R133)),S133,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R133)),S133,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R133)),S133,S133)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R133)),S133,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R133)),S133,0)&amp;"+e07*"&amp;IF(T133="反撃",U133,0)&amp;"+e08*"&amp;IF(T133="風属性",U133,0)&amp;"+e09*"&amp;IF(T133="闇属性",U133,0)&amp;"+e10*"&amp;IF(T133="単体",U133,0)&amp;"+e11*"&amp;IF(T133="範囲",U133,0)&amp;"+e12*"&amp;IF(T133="人",U133,0)&amp;"+e13*"&amp;IF(T133="異族",U133,0)&amp;"+e14*"&amp;IF(T133="バジュラ",U133,0)&amp;"+e15*"&amp;IF(T133="魔動人形",U133,0)&amp;");"</f>
-        <v>document.getElementById('m131').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*60+s3*0+s4*0+s5*0+s6*0+s7*0+s0*60) + (e01*0+e02*0+e03*0+e04*20+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI133&amp;"').innerHTML = (b1*"&amp;TEXT(J133,0)&amp;"+b2*"&amp;TEXT(K133,0)&amp;"+b0*"&amp;TEXT(L133,0)&amp;") + (s1*"&amp;TEXT(W133,0)&amp;"+s2*"&amp;TEXT(X133,0)&amp;"+s3*"&amp;TEXT(Y133,0)&amp;"+s4*"&amp;TEXT(Z133,0)&amp;"+s5*"&amp;TEXT(AA133,0)&amp;"+s6*"&amp;TEXT(AB133,0)&amp;"+s7*"&amp;TEXT(AC133,0)&amp;"+s0*"&amp;TEXT(AD133,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R133)),S133,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R133)),S133,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R133)),S133,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R133)),S133,S133)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R133)),S133,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R133)),S133,0)&amp;"+e07*"&amp;IF(T133="反撃",U133,0)&amp;"+e08*"&amp;IF(T133="風属性",U133,0)&amp;"+e09*"&amp;IF(T133="闇属性",U133,0)&amp;"+e10*"&amp;IF(T133="単体",U133,0)&amp;"+e11*"&amp;IF(T133="範囲",U133,0)&amp;"+e12*"&amp;IF(T133="人",U133,0)&amp;"+e13*"&amp;IF(T133="異族",U133,0)&amp;"+e14*"&amp;IF(T133="バジュラ",U133,0)&amp;"+e15*"&amp;IF(T133="魔動人形",U133,0)&amp;"+e16*"&amp;IF(T133="下位魔神",U133,0)&amp;");"</f>
+        <v>document.getElementById('m131').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*60+s3*0+s4*0+s5*0+s6*0+s7*0+s0*60) + (e01*0+e02*0+e03*0+e04*20+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI133" s="35" t="str">
         <f t="shared" si="17"/>
@@ -22642,7 +22701,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
       <c r="L134" s="2">
-        <f t="shared" ref="L134:L197" si="18">MAX(J134:K134)</f>
+        <f t="shared" ref="L134:L198" si="18">MAX(J134:K134)</f>
         <v>0</v>
       </c>
       <c r="M134" s="2"/>
@@ -22652,7 +22711,7 @@
       <c r="Q134" s="7"/>
       <c r="U134" s="4"/>
       <c r="AD134" s="4">
-        <f t="shared" ref="AD134:AD197" si="19">MAX(W134:AC134)</f>
+        <f t="shared" ref="AD134:AD198" si="19">MAX(W134:AC134)</f>
         <v>0</v>
       </c>
       <c r="AF134" s="23"/>
@@ -22662,8 +22721,8 @@
 Saga Region&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m132'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH134" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI134&amp;"').innerHTML = (b1*"&amp;TEXT(J134,0)&amp;"+b2*"&amp;TEXT(K134,0)&amp;"+b0*"&amp;TEXT(L134,0)&amp;") + (s1*"&amp;TEXT(W134,0)&amp;"+s2*"&amp;TEXT(X134,0)&amp;"+s3*"&amp;TEXT(Y134,0)&amp;"+s4*"&amp;TEXT(Z134,0)&amp;"+s5*"&amp;TEXT(AA134,0)&amp;"+s6*"&amp;TEXT(AB134,0)&amp;"+s7*"&amp;TEXT(AC134,0)&amp;"+s0*"&amp;TEXT(AD134,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R134)),S134,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R134)),S134,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R134)),S134,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R134)),S134,S134)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R134)),S134,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R134)),S134,0)&amp;"+e07*"&amp;IF(T134="反撃",U134,0)&amp;"+e08*"&amp;IF(T134="風属性",U134,0)&amp;"+e09*"&amp;IF(T134="闇属性",U134,0)&amp;"+e10*"&amp;IF(T134="単体",U134,0)&amp;"+e11*"&amp;IF(T134="範囲",U134,0)&amp;"+e12*"&amp;IF(T134="人",U134,0)&amp;"+e13*"&amp;IF(T134="異族",U134,0)&amp;"+e14*"&amp;IF(T134="バジュラ",U134,0)&amp;"+e15*"&amp;IF(T134="魔動人形",U134,0)&amp;");"</f>
-        <v>document.getElementById('m132').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI134&amp;"').innerHTML = (b1*"&amp;TEXT(J134,0)&amp;"+b2*"&amp;TEXT(K134,0)&amp;"+b0*"&amp;TEXT(L134,0)&amp;") + (s1*"&amp;TEXT(W134,0)&amp;"+s2*"&amp;TEXT(X134,0)&amp;"+s3*"&amp;TEXT(Y134,0)&amp;"+s4*"&amp;TEXT(Z134,0)&amp;"+s5*"&amp;TEXT(AA134,0)&amp;"+s6*"&amp;TEXT(AB134,0)&amp;"+s7*"&amp;TEXT(AC134,0)&amp;"+s0*"&amp;TEXT(AD134,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R134)),S134,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R134)),S134,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R134)),S134,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R134)),S134,S134)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R134)),S134,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R134)),S134,0)&amp;"+e07*"&amp;IF(T134="反撃",U134,0)&amp;"+e08*"&amp;IF(T134="風属性",U134,0)&amp;"+e09*"&amp;IF(T134="闇属性",U134,0)&amp;"+e10*"&amp;IF(T134="単体",U134,0)&amp;"+e11*"&amp;IF(T134="範囲",U134,0)&amp;"+e12*"&amp;IF(T134="人",U134,0)&amp;"+e13*"&amp;IF(T134="異族",U134,0)&amp;"+e14*"&amp;IF(T134="バジュラ",U134,0)&amp;"+e15*"&amp;IF(T134="魔動人形",U134,0)&amp;"+e16*"&amp;IF(T134="下位魔神",U134,0)&amp;");"</f>
+        <v>document.getElementById('m132').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI134" s="35" t="str">
         <f t="shared" si="17"/>
@@ -22713,8 +22772,8 @@
 Saga Region&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m133'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH135" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI135&amp;"').innerHTML = (b1*"&amp;TEXT(J135,0)&amp;"+b2*"&amp;TEXT(K135,0)&amp;"+b0*"&amp;TEXT(L135,0)&amp;") + (s1*"&amp;TEXT(W135,0)&amp;"+s2*"&amp;TEXT(X135,0)&amp;"+s3*"&amp;TEXT(Y135,0)&amp;"+s4*"&amp;TEXT(Z135,0)&amp;"+s5*"&amp;TEXT(AA135,0)&amp;"+s6*"&amp;TEXT(AB135,0)&amp;"+s7*"&amp;TEXT(AC135,0)&amp;"+s0*"&amp;TEXT(AD135,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R135)),S135,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R135)),S135,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R135)),S135,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R135)),S135,S135)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R135)),S135,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R135)),S135,0)&amp;"+e07*"&amp;IF(T135="反撃",U135,0)&amp;"+e08*"&amp;IF(T135="風属性",U135,0)&amp;"+e09*"&amp;IF(T135="闇属性",U135,0)&amp;"+e10*"&amp;IF(T135="単体",U135,0)&amp;"+e11*"&amp;IF(T135="範囲",U135,0)&amp;"+e12*"&amp;IF(T135="人",U135,0)&amp;"+e13*"&amp;IF(T135="異族",U135,0)&amp;"+e14*"&amp;IF(T135="バジュラ",U135,0)&amp;"+e15*"&amp;IF(T135="魔動人形",U135,0)&amp;");"</f>
-        <v>document.getElementById('m133').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI135&amp;"').innerHTML = (b1*"&amp;TEXT(J135,0)&amp;"+b2*"&amp;TEXT(K135,0)&amp;"+b0*"&amp;TEXT(L135,0)&amp;") + (s1*"&amp;TEXT(W135,0)&amp;"+s2*"&amp;TEXT(X135,0)&amp;"+s3*"&amp;TEXT(Y135,0)&amp;"+s4*"&amp;TEXT(Z135,0)&amp;"+s5*"&amp;TEXT(AA135,0)&amp;"+s6*"&amp;TEXT(AB135,0)&amp;"+s7*"&amp;TEXT(AC135,0)&amp;"+s0*"&amp;TEXT(AD135,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R135)),S135,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R135)),S135,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R135)),S135,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R135)),S135,S135)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R135)),S135,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R135)),S135,0)&amp;"+e07*"&amp;IF(T135="反撃",U135,0)&amp;"+e08*"&amp;IF(T135="風属性",U135,0)&amp;"+e09*"&amp;IF(T135="闇属性",U135,0)&amp;"+e10*"&amp;IF(T135="単体",U135,0)&amp;"+e11*"&amp;IF(T135="範囲",U135,0)&amp;"+e12*"&amp;IF(T135="人",U135,0)&amp;"+e13*"&amp;IF(T135="異族",U135,0)&amp;"+e14*"&amp;IF(T135="バジュラ",U135,0)&amp;"+e15*"&amp;IF(T135="魔動人形",U135,0)&amp;"+e16*"&amp;IF(T135="下位魔神",U135,0)&amp;");"</f>
+        <v>document.getElementById('m133').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI135" s="35" t="str">
         <f t="shared" si="17"/>
@@ -22782,8 +22841,8 @@
 Saga Region&lt;/td&gt;&lt;td headers='group'&gt;緋炎騎士団&lt;/td&gt;&lt;td headers='score' id='m134'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;魔法&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;40&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH136" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI136&amp;"').innerHTML = (b1*"&amp;TEXT(J136,0)&amp;"+b2*"&amp;TEXT(K136,0)&amp;"+b0*"&amp;TEXT(L136,0)&amp;") + (s1*"&amp;TEXT(W136,0)&amp;"+s2*"&amp;TEXT(X136,0)&amp;"+s3*"&amp;TEXT(Y136,0)&amp;"+s4*"&amp;TEXT(Z136,0)&amp;"+s5*"&amp;TEXT(AA136,0)&amp;"+s6*"&amp;TEXT(AB136,0)&amp;"+s7*"&amp;TEXT(AC136,0)&amp;"+s0*"&amp;TEXT(AD136,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R136)),S136,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R136)),S136,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R136)),S136,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R136)),S136,S136)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R136)),S136,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R136)),S136,0)&amp;"+e07*"&amp;IF(T136="反撃",U136,0)&amp;"+e08*"&amp;IF(T136="風属性",U136,0)&amp;"+e09*"&amp;IF(T136="闇属性",U136,0)&amp;"+e10*"&amp;IF(T136="単体",U136,0)&amp;"+e11*"&amp;IF(T136="範囲",U136,0)&amp;"+e12*"&amp;IF(T136="人",U136,0)&amp;"+e13*"&amp;IF(T136="異族",U136,0)&amp;"+e14*"&amp;IF(T136="バジュラ",U136,0)&amp;"+e15*"&amp;IF(T136="魔動人形",U136,0)&amp;");"</f>
-        <v>document.getElementById('m134').innerHTML = (b1*0+b2*30+b0*30) + (s1*20+s2*0+s3*0+s4*0+s5*40+s6*0+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*20+e05*20+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI136&amp;"').innerHTML = (b1*"&amp;TEXT(J136,0)&amp;"+b2*"&amp;TEXT(K136,0)&amp;"+b0*"&amp;TEXT(L136,0)&amp;") + (s1*"&amp;TEXT(W136,0)&amp;"+s2*"&amp;TEXT(X136,0)&amp;"+s3*"&amp;TEXT(Y136,0)&amp;"+s4*"&amp;TEXT(Z136,0)&amp;"+s5*"&amp;TEXT(AA136,0)&amp;"+s6*"&amp;TEXT(AB136,0)&amp;"+s7*"&amp;TEXT(AC136,0)&amp;"+s0*"&amp;TEXT(AD136,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R136)),S136,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R136)),S136,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R136)),S136,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R136)),S136,S136)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R136)),S136,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R136)),S136,0)&amp;"+e07*"&amp;IF(T136="反撃",U136,0)&amp;"+e08*"&amp;IF(T136="風属性",U136,0)&amp;"+e09*"&amp;IF(T136="闇属性",U136,0)&amp;"+e10*"&amp;IF(T136="単体",U136,0)&amp;"+e11*"&amp;IF(T136="範囲",U136,0)&amp;"+e12*"&amp;IF(T136="人",U136,0)&amp;"+e13*"&amp;IF(T136="異族",U136,0)&amp;"+e14*"&amp;IF(T136="バジュラ",U136,0)&amp;"+e15*"&amp;IF(T136="魔動人形",U136,0)&amp;"+e16*"&amp;IF(T136="下位魔神",U136,0)&amp;");"</f>
+        <v>document.getElementById('m134').innerHTML = (b1*0+b2*30+b0*30) + (s1*20+s2*0+s3*0+s4*0+s5*40+s6*0+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*20+e05*20+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI136" s="35" t="str">
         <f t="shared" si="17"/>
@@ -22860,8 +22919,8 @@
 Saga Region&lt;/td&gt;&lt;td headers='group'&gt;緋炎騎士団&lt;/td&gt;&lt;td headers='score' id='m135'&gt;120&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;魔法&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;範囲&lt;/td&gt;&lt;td headers='sp.bonus'&gt;20&lt;/td&gt;&lt;td headers='others'&gt;MP上限+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;40&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH137" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI137&amp;"').innerHTML = (b1*"&amp;TEXT(J137,0)&amp;"+b2*"&amp;TEXT(K137,0)&amp;"+b0*"&amp;TEXT(L137,0)&amp;") + (s1*"&amp;TEXT(W137,0)&amp;"+s2*"&amp;TEXT(X137,0)&amp;"+s3*"&amp;TEXT(Y137,0)&amp;"+s4*"&amp;TEXT(Z137,0)&amp;"+s5*"&amp;TEXT(AA137,0)&amp;"+s6*"&amp;TEXT(AB137,0)&amp;"+s7*"&amp;TEXT(AC137,0)&amp;"+s0*"&amp;TEXT(AD137,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R137)),S137,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R137)),S137,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R137)),S137,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R137)),S137,S137)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R137)),S137,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R137)),S137,0)&amp;"+e07*"&amp;IF(T137="反撃",U137,0)&amp;"+e08*"&amp;IF(T137="風属性",U137,0)&amp;"+e09*"&amp;IF(T137="闇属性",U137,0)&amp;"+e10*"&amp;IF(T137="単体",U137,0)&amp;"+e11*"&amp;IF(T137="範囲",U137,0)&amp;"+e12*"&amp;IF(T137="人",U137,0)&amp;"+e13*"&amp;IF(T137="異族",U137,0)&amp;"+e14*"&amp;IF(T137="バジュラ",U137,0)&amp;"+e15*"&amp;IF(T137="魔動人形",U137,0)&amp;");"</f>
-        <v>document.getElementById('m135').innerHTML = (b1*0+b2*30+b0*30) + (s1*0+s2*0+s3*0+s4*40+s5*20+s6*0+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*30+e05*30+e06*0+e07*0+e08*0+e09*0+e10*0+e11*20+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI137&amp;"').innerHTML = (b1*"&amp;TEXT(J137,0)&amp;"+b2*"&amp;TEXT(K137,0)&amp;"+b0*"&amp;TEXT(L137,0)&amp;") + (s1*"&amp;TEXT(W137,0)&amp;"+s2*"&amp;TEXT(X137,0)&amp;"+s3*"&amp;TEXT(Y137,0)&amp;"+s4*"&amp;TEXT(Z137,0)&amp;"+s5*"&amp;TEXT(AA137,0)&amp;"+s6*"&amp;TEXT(AB137,0)&amp;"+s7*"&amp;TEXT(AC137,0)&amp;"+s0*"&amp;TEXT(AD137,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R137)),S137,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R137)),S137,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R137)),S137,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R137)),S137,S137)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R137)),S137,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R137)),S137,0)&amp;"+e07*"&amp;IF(T137="反撃",U137,0)&amp;"+e08*"&amp;IF(T137="風属性",U137,0)&amp;"+e09*"&amp;IF(T137="闇属性",U137,0)&amp;"+e10*"&amp;IF(T137="単体",U137,0)&amp;"+e11*"&amp;IF(T137="範囲",U137,0)&amp;"+e12*"&amp;IF(T137="人",U137,0)&amp;"+e13*"&amp;IF(T137="異族",U137,0)&amp;"+e14*"&amp;IF(T137="バジュラ",U137,0)&amp;"+e15*"&amp;IF(T137="魔動人形",U137,0)&amp;"+e16*"&amp;IF(T137="下位魔神",U137,0)&amp;");"</f>
+        <v>document.getElementById('m135').innerHTML = (b1*0+b2*30+b0*30) + (s1*0+s2*0+s3*0+s4*40+s5*20+s6*0+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*30+e05*30+e06*0+e07*0+e08*0+e09*0+e10*0+e11*20+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI137" s="35" t="str">
         <f t="shared" si="17"/>
@@ -22914,8 +22973,8 @@
 Saga Region&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m136'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH138" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI138&amp;"').innerHTML = (b1*"&amp;TEXT(J138,0)&amp;"+b2*"&amp;TEXT(K138,0)&amp;"+b0*"&amp;TEXT(L138,0)&amp;") + (s1*"&amp;TEXT(W138,0)&amp;"+s2*"&amp;TEXT(X138,0)&amp;"+s3*"&amp;TEXT(Y138,0)&amp;"+s4*"&amp;TEXT(Z138,0)&amp;"+s5*"&amp;TEXT(AA138,0)&amp;"+s6*"&amp;TEXT(AB138,0)&amp;"+s7*"&amp;TEXT(AC138,0)&amp;"+s0*"&amp;TEXT(AD138,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R138)),S138,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R138)),S138,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R138)),S138,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R138)),S138,S138)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R138)),S138,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R138)),S138,0)&amp;"+e07*"&amp;IF(T138="反撃",U138,0)&amp;"+e08*"&amp;IF(T138="風属性",U138,0)&amp;"+e09*"&amp;IF(T138="闇属性",U138,0)&amp;"+e10*"&amp;IF(T138="単体",U138,0)&amp;"+e11*"&amp;IF(T138="範囲",U138,0)&amp;"+e12*"&amp;IF(T138="人",U138,0)&amp;"+e13*"&amp;IF(T138="異族",U138,0)&amp;"+e14*"&amp;IF(T138="バジュラ",U138,0)&amp;"+e15*"&amp;IF(T138="魔動人形",U138,0)&amp;");"</f>
-        <v>document.getElementById('m136').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI138&amp;"').innerHTML = (b1*"&amp;TEXT(J138,0)&amp;"+b2*"&amp;TEXT(K138,0)&amp;"+b0*"&amp;TEXT(L138,0)&amp;") + (s1*"&amp;TEXT(W138,0)&amp;"+s2*"&amp;TEXT(X138,0)&amp;"+s3*"&amp;TEXT(Y138,0)&amp;"+s4*"&amp;TEXT(Z138,0)&amp;"+s5*"&amp;TEXT(AA138,0)&amp;"+s6*"&amp;TEXT(AB138,0)&amp;"+s7*"&amp;TEXT(AC138,0)&amp;"+s0*"&amp;TEXT(AD138,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R138)),S138,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R138)),S138,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R138)),S138,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R138)),S138,S138)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R138)),S138,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R138)),S138,0)&amp;"+e07*"&amp;IF(T138="反撃",U138,0)&amp;"+e08*"&amp;IF(T138="風属性",U138,0)&amp;"+e09*"&amp;IF(T138="闇属性",U138,0)&amp;"+e10*"&amp;IF(T138="単体",U138,0)&amp;"+e11*"&amp;IF(T138="範囲",U138,0)&amp;"+e12*"&amp;IF(T138="人",U138,0)&amp;"+e13*"&amp;IF(T138="異族",U138,0)&amp;"+e14*"&amp;IF(T138="バジュラ",U138,0)&amp;"+e15*"&amp;IF(T138="魔動人形",U138,0)&amp;"+e16*"&amp;IF(T138="下位魔神",U138,0)&amp;");"</f>
+        <v>document.getElementById('m136').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI138" s="35" t="str">
         <f t="shared" si="17"/>
@@ -22981,8 +23040,8 @@
 Saga Region&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m137'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;30&lt;/td&gt;&lt;td headers='agi'&gt;5&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;30&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH139" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI139&amp;"').innerHTML = (b1*"&amp;TEXT(J139,0)&amp;"+b2*"&amp;TEXT(K139,0)&amp;"+b0*"&amp;TEXT(L139,0)&amp;") + (s1*"&amp;TEXT(W139,0)&amp;"+s2*"&amp;TEXT(X139,0)&amp;"+s3*"&amp;TEXT(Y139,0)&amp;"+s4*"&amp;TEXT(Z139,0)&amp;"+s5*"&amp;TEXT(AA139,0)&amp;"+s6*"&amp;TEXT(AB139,0)&amp;"+s7*"&amp;TEXT(AC139,0)&amp;"+s0*"&amp;TEXT(AD139,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R139)),S139,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R139)),S139,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R139)),S139,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R139)),S139,S139)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R139)),S139,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R139)),S139,0)&amp;"+e07*"&amp;IF(T139="反撃",U139,0)&amp;"+e08*"&amp;IF(T139="風属性",U139,0)&amp;"+e09*"&amp;IF(T139="闇属性",U139,0)&amp;"+e10*"&amp;IF(T139="単体",U139,0)&amp;"+e11*"&amp;IF(T139="範囲",U139,0)&amp;"+e12*"&amp;IF(T139="人",U139,0)&amp;"+e13*"&amp;IF(T139="異族",U139,0)&amp;"+e14*"&amp;IF(T139="バジュラ",U139,0)&amp;"+e15*"&amp;IF(T139="魔動人形",U139,0)&amp;");"</f>
-        <v>document.getElementById('m137').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*0+s3*0+s4*30+s5*0+s6*30+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI139&amp;"').innerHTML = (b1*"&amp;TEXT(J139,0)&amp;"+b2*"&amp;TEXT(K139,0)&amp;"+b0*"&amp;TEXT(L139,0)&amp;") + (s1*"&amp;TEXT(W139,0)&amp;"+s2*"&amp;TEXT(X139,0)&amp;"+s3*"&amp;TEXT(Y139,0)&amp;"+s4*"&amp;TEXT(Z139,0)&amp;"+s5*"&amp;TEXT(AA139,0)&amp;"+s6*"&amp;TEXT(AB139,0)&amp;"+s7*"&amp;TEXT(AC139,0)&amp;"+s0*"&amp;TEXT(AD139,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R139)),S139,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R139)),S139,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R139)),S139,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R139)),S139,S139)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R139)),S139,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R139)),S139,0)&amp;"+e07*"&amp;IF(T139="反撃",U139,0)&amp;"+e08*"&amp;IF(T139="風属性",U139,0)&amp;"+e09*"&amp;IF(T139="闇属性",U139,0)&amp;"+e10*"&amp;IF(T139="単体",U139,0)&amp;"+e11*"&amp;IF(T139="範囲",U139,0)&amp;"+e12*"&amp;IF(T139="人",U139,0)&amp;"+e13*"&amp;IF(T139="異族",U139,0)&amp;"+e14*"&amp;IF(T139="バジュラ",U139,0)&amp;"+e15*"&amp;IF(T139="魔動人形",U139,0)&amp;"+e16*"&amp;IF(T139="下位魔神",U139,0)&amp;");"</f>
+        <v>document.getElementById('m137').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*0+s3*0+s4*30+s5*0+s6*30+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI139" s="35" t="str">
         <f t="shared" si="17"/>
@@ -23008,7 +23067,7 @@
       </c>
       <c r="G140" s="8"/>
       <c r="H140" s="4">
-        <f t="shared" ref="H140:H197" si="20">SUMPRODUCT(I$1:AD$1,I140:AD140)</f>
+        <f t="shared" ref="H140:H198" si="20">SUMPRODUCT(I$1:AD$1,I140:AD140)</f>
         <v>0</v>
       </c>
       <c r="I140" s="2"/>
@@ -23035,8 +23094,8 @@
 Saga Region&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m138'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH140" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI140&amp;"').innerHTML = (b1*"&amp;TEXT(J140,0)&amp;"+b2*"&amp;TEXT(K140,0)&amp;"+b0*"&amp;TEXT(L140,0)&amp;") + (s1*"&amp;TEXT(W140,0)&amp;"+s2*"&amp;TEXT(X140,0)&amp;"+s3*"&amp;TEXT(Y140,0)&amp;"+s4*"&amp;TEXT(Z140,0)&amp;"+s5*"&amp;TEXT(AA140,0)&amp;"+s6*"&amp;TEXT(AB140,0)&amp;"+s7*"&amp;TEXT(AC140,0)&amp;"+s0*"&amp;TEXT(AD140,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R140)),S140,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R140)),S140,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R140)),S140,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R140)),S140,S140)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R140)),S140,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R140)),S140,0)&amp;"+e07*"&amp;IF(T140="反撃",U140,0)&amp;"+e08*"&amp;IF(T140="風属性",U140,0)&amp;"+e09*"&amp;IF(T140="闇属性",U140,0)&amp;"+e10*"&amp;IF(T140="単体",U140,0)&amp;"+e11*"&amp;IF(T140="範囲",U140,0)&amp;"+e12*"&amp;IF(T140="人",U140,0)&amp;"+e13*"&amp;IF(T140="異族",U140,0)&amp;"+e14*"&amp;IF(T140="バジュラ",U140,0)&amp;"+e15*"&amp;IF(T140="魔動人形",U140,0)&amp;");"</f>
-        <v>document.getElementById('m138').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI140&amp;"').innerHTML = (b1*"&amp;TEXT(J140,0)&amp;"+b2*"&amp;TEXT(K140,0)&amp;"+b0*"&amp;TEXT(L140,0)&amp;") + (s1*"&amp;TEXT(W140,0)&amp;"+s2*"&amp;TEXT(X140,0)&amp;"+s3*"&amp;TEXT(Y140,0)&amp;"+s4*"&amp;TEXT(Z140,0)&amp;"+s5*"&amp;TEXT(AA140,0)&amp;"+s6*"&amp;TEXT(AB140,0)&amp;"+s7*"&amp;TEXT(AC140,0)&amp;"+s0*"&amp;TEXT(AD140,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R140)),S140,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R140)),S140,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R140)),S140,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R140)),S140,S140)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R140)),S140,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R140)),S140,0)&amp;"+e07*"&amp;IF(T140="反撃",U140,0)&amp;"+e08*"&amp;IF(T140="風属性",U140,0)&amp;"+e09*"&amp;IF(T140="闇属性",U140,0)&amp;"+e10*"&amp;IF(T140="単体",U140,0)&amp;"+e11*"&amp;IF(T140="範囲",U140,0)&amp;"+e12*"&amp;IF(T140="人",U140,0)&amp;"+e13*"&amp;IF(T140="異族",U140,0)&amp;"+e14*"&amp;IF(T140="バジュラ",U140,0)&amp;"+e15*"&amp;IF(T140="魔動人形",U140,0)&amp;"+e16*"&amp;IF(T140="下位魔神",U140,0)&amp;");"</f>
+        <v>document.getElementById('m138').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI140" s="35" t="str">
         <f t="shared" si="17"/>
@@ -23089,8 +23148,8 @@
 Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m139'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH141" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI141&amp;"').innerHTML = (b1*"&amp;TEXT(J141,0)&amp;"+b2*"&amp;TEXT(K141,0)&amp;"+b0*"&amp;TEXT(L141,0)&amp;") + (s1*"&amp;TEXT(W141,0)&amp;"+s2*"&amp;TEXT(X141,0)&amp;"+s3*"&amp;TEXT(Y141,0)&amp;"+s4*"&amp;TEXT(Z141,0)&amp;"+s5*"&amp;TEXT(AA141,0)&amp;"+s6*"&amp;TEXT(AB141,0)&amp;"+s7*"&amp;TEXT(AC141,0)&amp;"+s0*"&amp;TEXT(AD141,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R141)),S141,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R141)),S141,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R141)),S141,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R141)),S141,S141)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R141)),S141,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R141)),S141,0)&amp;"+e07*"&amp;IF(T141="反撃",U141,0)&amp;"+e08*"&amp;IF(T141="風属性",U141,0)&amp;"+e09*"&amp;IF(T141="闇属性",U141,0)&amp;"+e10*"&amp;IF(T141="単体",U141,0)&amp;"+e11*"&amp;IF(T141="範囲",U141,0)&amp;"+e12*"&amp;IF(T141="人",U141,0)&amp;"+e13*"&amp;IF(T141="異族",U141,0)&amp;"+e14*"&amp;IF(T141="バジュラ",U141,0)&amp;"+e15*"&amp;IF(T141="魔動人形",U141,0)&amp;");"</f>
-        <v>document.getElementById('m139').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI141&amp;"').innerHTML = (b1*"&amp;TEXT(J141,0)&amp;"+b2*"&amp;TEXT(K141,0)&amp;"+b0*"&amp;TEXT(L141,0)&amp;") + (s1*"&amp;TEXT(W141,0)&amp;"+s2*"&amp;TEXT(X141,0)&amp;"+s3*"&amp;TEXT(Y141,0)&amp;"+s4*"&amp;TEXT(Z141,0)&amp;"+s5*"&amp;TEXT(AA141,0)&amp;"+s6*"&amp;TEXT(AB141,0)&amp;"+s7*"&amp;TEXT(AC141,0)&amp;"+s0*"&amp;TEXT(AD141,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R141)),S141,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R141)),S141,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R141)),S141,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R141)),S141,S141)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R141)),S141,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R141)),S141,0)&amp;"+e07*"&amp;IF(T141="反撃",U141,0)&amp;"+e08*"&amp;IF(T141="風属性",U141,0)&amp;"+e09*"&amp;IF(T141="闇属性",U141,0)&amp;"+e10*"&amp;IF(T141="単体",U141,0)&amp;"+e11*"&amp;IF(T141="範囲",U141,0)&amp;"+e12*"&amp;IF(T141="人",U141,0)&amp;"+e13*"&amp;IF(T141="異族",U141,0)&amp;"+e14*"&amp;IF(T141="バジュラ",U141,0)&amp;"+e15*"&amp;IF(T141="魔動人形",U141,0)&amp;"+e16*"&amp;IF(T141="下位魔神",U141,0)&amp;");"</f>
+        <v>document.getElementById('m139').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI141" s="35" t="str">
         <f t="shared" si="17"/>
@@ -23143,8 +23202,8 @@
 Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m140'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH142" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI142&amp;"').innerHTML = (b1*"&amp;TEXT(J142,0)&amp;"+b2*"&amp;TEXT(K142,0)&amp;"+b0*"&amp;TEXT(L142,0)&amp;") + (s1*"&amp;TEXT(W142,0)&amp;"+s2*"&amp;TEXT(X142,0)&amp;"+s3*"&amp;TEXT(Y142,0)&amp;"+s4*"&amp;TEXT(Z142,0)&amp;"+s5*"&amp;TEXT(AA142,0)&amp;"+s6*"&amp;TEXT(AB142,0)&amp;"+s7*"&amp;TEXT(AC142,0)&amp;"+s0*"&amp;TEXT(AD142,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R142)),S142,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R142)),S142,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R142)),S142,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R142)),S142,S142)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R142)),S142,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R142)),S142,0)&amp;"+e07*"&amp;IF(T142="反撃",U142,0)&amp;"+e08*"&amp;IF(T142="風属性",U142,0)&amp;"+e09*"&amp;IF(T142="闇属性",U142,0)&amp;"+e10*"&amp;IF(T142="単体",U142,0)&amp;"+e11*"&amp;IF(T142="範囲",U142,0)&amp;"+e12*"&amp;IF(T142="人",U142,0)&amp;"+e13*"&amp;IF(T142="異族",U142,0)&amp;"+e14*"&amp;IF(T142="バジュラ",U142,0)&amp;"+e15*"&amp;IF(T142="魔動人形",U142,0)&amp;");"</f>
-        <v>document.getElementById('m140').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI142&amp;"').innerHTML = (b1*"&amp;TEXT(J142,0)&amp;"+b2*"&amp;TEXT(K142,0)&amp;"+b0*"&amp;TEXT(L142,0)&amp;") + (s1*"&amp;TEXT(W142,0)&amp;"+s2*"&amp;TEXT(X142,0)&amp;"+s3*"&amp;TEXT(Y142,0)&amp;"+s4*"&amp;TEXT(Z142,0)&amp;"+s5*"&amp;TEXT(AA142,0)&amp;"+s6*"&amp;TEXT(AB142,0)&amp;"+s7*"&amp;TEXT(AC142,0)&amp;"+s0*"&amp;TEXT(AD142,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R142)),S142,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R142)),S142,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R142)),S142,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R142)),S142,S142)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R142)),S142,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R142)),S142,0)&amp;"+e07*"&amp;IF(T142="反撃",U142,0)&amp;"+e08*"&amp;IF(T142="風属性",U142,0)&amp;"+e09*"&amp;IF(T142="闇属性",U142,0)&amp;"+e10*"&amp;IF(T142="単体",U142,0)&amp;"+e11*"&amp;IF(T142="範囲",U142,0)&amp;"+e12*"&amp;IF(T142="人",U142,0)&amp;"+e13*"&amp;IF(T142="異族",U142,0)&amp;"+e14*"&amp;IF(T142="バジュラ",U142,0)&amp;"+e15*"&amp;IF(T142="魔動人形",U142,0)&amp;"+e16*"&amp;IF(T142="下位魔神",U142,0)&amp;");"</f>
+        <v>document.getElementById('m140').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI142" s="35" t="str">
         <f t="shared" si="17"/>
@@ -23197,8 +23256,8 @@
 Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m141'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH143" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI143&amp;"').innerHTML = (b1*"&amp;TEXT(J143,0)&amp;"+b2*"&amp;TEXT(K143,0)&amp;"+b0*"&amp;TEXT(L143,0)&amp;") + (s1*"&amp;TEXT(W143,0)&amp;"+s2*"&amp;TEXT(X143,0)&amp;"+s3*"&amp;TEXT(Y143,0)&amp;"+s4*"&amp;TEXT(Z143,0)&amp;"+s5*"&amp;TEXT(AA143,0)&amp;"+s6*"&amp;TEXT(AB143,0)&amp;"+s7*"&amp;TEXT(AC143,0)&amp;"+s0*"&amp;TEXT(AD143,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R143)),S143,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R143)),S143,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R143)),S143,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R143)),S143,S143)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R143)),S143,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R143)),S143,0)&amp;"+e07*"&amp;IF(T143="反撃",U143,0)&amp;"+e08*"&amp;IF(T143="風属性",U143,0)&amp;"+e09*"&amp;IF(T143="闇属性",U143,0)&amp;"+e10*"&amp;IF(T143="単体",U143,0)&amp;"+e11*"&amp;IF(T143="範囲",U143,0)&amp;"+e12*"&amp;IF(T143="人",U143,0)&amp;"+e13*"&amp;IF(T143="異族",U143,0)&amp;"+e14*"&amp;IF(T143="バジュラ",U143,0)&amp;"+e15*"&amp;IF(T143="魔動人形",U143,0)&amp;");"</f>
-        <v>document.getElementById('m141').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI143&amp;"').innerHTML = (b1*"&amp;TEXT(J143,0)&amp;"+b2*"&amp;TEXT(K143,0)&amp;"+b0*"&amp;TEXT(L143,0)&amp;") + (s1*"&amp;TEXT(W143,0)&amp;"+s2*"&amp;TEXT(X143,0)&amp;"+s3*"&amp;TEXT(Y143,0)&amp;"+s4*"&amp;TEXT(Z143,0)&amp;"+s5*"&amp;TEXT(AA143,0)&amp;"+s6*"&amp;TEXT(AB143,0)&amp;"+s7*"&amp;TEXT(AC143,0)&amp;"+s0*"&amp;TEXT(AD143,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R143)),S143,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R143)),S143,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R143)),S143,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R143)),S143,S143)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R143)),S143,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R143)),S143,0)&amp;"+e07*"&amp;IF(T143="反撃",U143,0)&amp;"+e08*"&amp;IF(T143="風属性",U143,0)&amp;"+e09*"&amp;IF(T143="闇属性",U143,0)&amp;"+e10*"&amp;IF(T143="単体",U143,0)&amp;"+e11*"&amp;IF(T143="範囲",U143,0)&amp;"+e12*"&amp;IF(T143="人",U143,0)&amp;"+e13*"&amp;IF(T143="異族",U143,0)&amp;"+e14*"&amp;IF(T143="バジュラ",U143,0)&amp;"+e15*"&amp;IF(T143="魔動人形",U143,0)&amp;"+e16*"&amp;IF(T143="下位魔神",U143,0)&amp;");"</f>
+        <v>document.getElementById('m141').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI143" s="35" t="str">
         <f t="shared" si="17"/>
@@ -23248,8 +23307,8 @@
 Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m142'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH144" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI144&amp;"').innerHTML = (b1*"&amp;TEXT(J144,0)&amp;"+b2*"&amp;TEXT(K144,0)&amp;"+b0*"&amp;TEXT(L144,0)&amp;") + (s1*"&amp;TEXT(W144,0)&amp;"+s2*"&amp;TEXT(X144,0)&amp;"+s3*"&amp;TEXT(Y144,0)&amp;"+s4*"&amp;TEXT(Z144,0)&amp;"+s5*"&amp;TEXT(AA144,0)&amp;"+s6*"&amp;TEXT(AB144,0)&amp;"+s7*"&amp;TEXT(AC144,0)&amp;"+s0*"&amp;TEXT(AD144,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R144)),S144,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R144)),S144,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R144)),S144,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R144)),S144,S144)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R144)),S144,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R144)),S144,0)&amp;"+e07*"&amp;IF(T144="反撃",U144,0)&amp;"+e08*"&amp;IF(T144="風属性",U144,0)&amp;"+e09*"&amp;IF(T144="闇属性",U144,0)&amp;"+e10*"&amp;IF(T144="単体",U144,0)&amp;"+e11*"&amp;IF(T144="範囲",U144,0)&amp;"+e12*"&amp;IF(T144="人",U144,0)&amp;"+e13*"&amp;IF(T144="異族",U144,0)&amp;"+e14*"&amp;IF(T144="バジュラ",U144,0)&amp;"+e15*"&amp;IF(T144="魔動人形",U144,0)&amp;");"</f>
-        <v>document.getElementById('m142').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI144&amp;"').innerHTML = (b1*"&amp;TEXT(J144,0)&amp;"+b2*"&amp;TEXT(K144,0)&amp;"+b0*"&amp;TEXT(L144,0)&amp;") + (s1*"&amp;TEXT(W144,0)&amp;"+s2*"&amp;TEXT(X144,0)&amp;"+s3*"&amp;TEXT(Y144,0)&amp;"+s4*"&amp;TEXT(Z144,0)&amp;"+s5*"&amp;TEXT(AA144,0)&amp;"+s6*"&amp;TEXT(AB144,0)&amp;"+s7*"&amp;TEXT(AC144,0)&amp;"+s0*"&amp;TEXT(AD144,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R144)),S144,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R144)),S144,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R144)),S144,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R144)),S144,S144)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R144)),S144,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R144)),S144,0)&amp;"+e07*"&amp;IF(T144="反撃",U144,0)&amp;"+e08*"&amp;IF(T144="風属性",U144,0)&amp;"+e09*"&amp;IF(T144="闇属性",U144,0)&amp;"+e10*"&amp;IF(T144="単体",U144,0)&amp;"+e11*"&amp;IF(T144="範囲",U144,0)&amp;"+e12*"&amp;IF(T144="人",U144,0)&amp;"+e13*"&amp;IF(T144="異族",U144,0)&amp;"+e14*"&amp;IF(T144="バジュラ",U144,0)&amp;"+e15*"&amp;IF(T144="魔動人形",U144,0)&amp;"+e16*"&amp;IF(T144="下位魔神",U144,0)&amp;");"</f>
+        <v>document.getElementById('m142').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI144" s="35" t="str">
         <f t="shared" si="17"/>
@@ -23299,8 +23358,8 @@
 Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m143'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH145" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI145&amp;"').innerHTML = (b1*"&amp;TEXT(J145,0)&amp;"+b2*"&amp;TEXT(K145,0)&amp;"+b0*"&amp;TEXT(L145,0)&amp;") + (s1*"&amp;TEXT(W145,0)&amp;"+s2*"&amp;TEXT(X145,0)&amp;"+s3*"&amp;TEXT(Y145,0)&amp;"+s4*"&amp;TEXT(Z145,0)&amp;"+s5*"&amp;TEXT(AA145,0)&amp;"+s6*"&amp;TEXT(AB145,0)&amp;"+s7*"&amp;TEXT(AC145,0)&amp;"+s0*"&amp;TEXT(AD145,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R145)),S145,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R145)),S145,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R145)),S145,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R145)),S145,S145)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R145)),S145,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R145)),S145,0)&amp;"+e07*"&amp;IF(T145="反撃",U145,0)&amp;"+e08*"&amp;IF(T145="風属性",U145,0)&amp;"+e09*"&amp;IF(T145="闇属性",U145,0)&amp;"+e10*"&amp;IF(T145="単体",U145,0)&amp;"+e11*"&amp;IF(T145="範囲",U145,0)&amp;"+e12*"&amp;IF(T145="人",U145,0)&amp;"+e13*"&amp;IF(T145="異族",U145,0)&amp;"+e14*"&amp;IF(T145="バジュラ",U145,0)&amp;"+e15*"&amp;IF(T145="魔動人形",U145,0)&amp;");"</f>
-        <v>document.getElementById('m143').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI145&amp;"').innerHTML = (b1*"&amp;TEXT(J145,0)&amp;"+b2*"&amp;TEXT(K145,0)&amp;"+b0*"&amp;TEXT(L145,0)&amp;") + (s1*"&amp;TEXT(W145,0)&amp;"+s2*"&amp;TEXT(X145,0)&amp;"+s3*"&amp;TEXT(Y145,0)&amp;"+s4*"&amp;TEXT(Z145,0)&amp;"+s5*"&amp;TEXT(AA145,0)&amp;"+s6*"&amp;TEXT(AB145,0)&amp;"+s7*"&amp;TEXT(AC145,0)&amp;"+s0*"&amp;TEXT(AD145,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R145)),S145,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R145)),S145,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R145)),S145,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R145)),S145,S145)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R145)),S145,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R145)),S145,0)&amp;"+e07*"&amp;IF(T145="反撃",U145,0)&amp;"+e08*"&amp;IF(T145="風属性",U145,0)&amp;"+e09*"&amp;IF(T145="闇属性",U145,0)&amp;"+e10*"&amp;IF(T145="単体",U145,0)&amp;"+e11*"&amp;IF(T145="範囲",U145,0)&amp;"+e12*"&amp;IF(T145="人",U145,0)&amp;"+e13*"&amp;IF(T145="異族",U145,0)&amp;"+e14*"&amp;IF(T145="バジュラ",U145,0)&amp;"+e15*"&amp;IF(T145="魔動人形",U145,0)&amp;"+e16*"&amp;IF(T145="下位魔神",U145,0)&amp;");"</f>
+        <v>document.getElementById('m143').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI145" s="35" t="str">
         <f t="shared" si="17"/>
@@ -23350,8 +23409,8 @@
 Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m144'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH146" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI146&amp;"').innerHTML = (b1*"&amp;TEXT(J146,0)&amp;"+b2*"&amp;TEXT(K146,0)&amp;"+b0*"&amp;TEXT(L146,0)&amp;") + (s1*"&amp;TEXT(W146,0)&amp;"+s2*"&amp;TEXT(X146,0)&amp;"+s3*"&amp;TEXT(Y146,0)&amp;"+s4*"&amp;TEXT(Z146,0)&amp;"+s5*"&amp;TEXT(AA146,0)&amp;"+s6*"&amp;TEXT(AB146,0)&amp;"+s7*"&amp;TEXT(AC146,0)&amp;"+s0*"&amp;TEXT(AD146,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R146)),S146,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R146)),S146,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R146)),S146,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R146)),S146,S146)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R146)),S146,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R146)),S146,0)&amp;"+e07*"&amp;IF(T146="反撃",U146,0)&amp;"+e08*"&amp;IF(T146="風属性",U146,0)&amp;"+e09*"&amp;IF(T146="闇属性",U146,0)&amp;"+e10*"&amp;IF(T146="単体",U146,0)&amp;"+e11*"&amp;IF(T146="範囲",U146,0)&amp;"+e12*"&amp;IF(T146="人",U146,0)&amp;"+e13*"&amp;IF(T146="異族",U146,0)&amp;"+e14*"&amp;IF(T146="バジュラ",U146,0)&amp;"+e15*"&amp;IF(T146="魔動人形",U146,0)&amp;");"</f>
-        <v>document.getElementById('m144').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI146&amp;"').innerHTML = (b1*"&amp;TEXT(J146,0)&amp;"+b2*"&amp;TEXT(K146,0)&amp;"+b0*"&amp;TEXT(L146,0)&amp;") + (s1*"&amp;TEXT(W146,0)&amp;"+s2*"&amp;TEXT(X146,0)&amp;"+s3*"&amp;TEXT(Y146,0)&amp;"+s4*"&amp;TEXT(Z146,0)&amp;"+s5*"&amp;TEXT(AA146,0)&amp;"+s6*"&amp;TEXT(AB146,0)&amp;"+s7*"&amp;TEXT(AC146,0)&amp;"+s0*"&amp;TEXT(AD146,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R146)),S146,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R146)),S146,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R146)),S146,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R146)),S146,S146)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R146)),S146,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R146)),S146,0)&amp;"+e07*"&amp;IF(T146="反撃",U146,0)&amp;"+e08*"&amp;IF(T146="風属性",U146,0)&amp;"+e09*"&amp;IF(T146="闇属性",U146,0)&amp;"+e10*"&amp;IF(T146="単体",U146,0)&amp;"+e11*"&amp;IF(T146="範囲",U146,0)&amp;"+e12*"&amp;IF(T146="人",U146,0)&amp;"+e13*"&amp;IF(T146="異族",U146,0)&amp;"+e14*"&amp;IF(T146="バジュラ",U146,0)&amp;"+e15*"&amp;IF(T146="魔動人形",U146,0)&amp;"+e16*"&amp;IF(T146="下位魔神",U146,0)&amp;");"</f>
+        <v>document.getElementById('m144').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI146" s="35" t="str">
         <f t="shared" si="17"/>
@@ -23401,8 +23460,8 @@
 Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m145'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH147" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI147&amp;"').innerHTML = (b1*"&amp;TEXT(J147,0)&amp;"+b2*"&amp;TEXT(K147,0)&amp;"+b0*"&amp;TEXT(L147,0)&amp;") + (s1*"&amp;TEXT(W147,0)&amp;"+s2*"&amp;TEXT(X147,0)&amp;"+s3*"&amp;TEXT(Y147,0)&amp;"+s4*"&amp;TEXT(Z147,0)&amp;"+s5*"&amp;TEXT(AA147,0)&amp;"+s6*"&amp;TEXT(AB147,0)&amp;"+s7*"&amp;TEXT(AC147,0)&amp;"+s0*"&amp;TEXT(AD147,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R147)),S147,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R147)),S147,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R147)),S147,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R147)),S147,S147)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R147)),S147,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R147)),S147,0)&amp;"+e07*"&amp;IF(T147="反撃",U147,0)&amp;"+e08*"&amp;IF(T147="風属性",U147,0)&amp;"+e09*"&amp;IF(T147="闇属性",U147,0)&amp;"+e10*"&amp;IF(T147="単体",U147,0)&amp;"+e11*"&amp;IF(T147="範囲",U147,0)&amp;"+e12*"&amp;IF(T147="人",U147,0)&amp;"+e13*"&amp;IF(T147="異族",U147,0)&amp;"+e14*"&amp;IF(T147="バジュラ",U147,0)&amp;"+e15*"&amp;IF(T147="魔動人形",U147,0)&amp;");"</f>
-        <v>document.getElementById('m145').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI147&amp;"').innerHTML = (b1*"&amp;TEXT(J147,0)&amp;"+b2*"&amp;TEXT(K147,0)&amp;"+b0*"&amp;TEXT(L147,0)&amp;") + (s1*"&amp;TEXT(W147,0)&amp;"+s2*"&amp;TEXT(X147,0)&amp;"+s3*"&amp;TEXT(Y147,0)&amp;"+s4*"&amp;TEXT(Z147,0)&amp;"+s5*"&amp;TEXT(AA147,0)&amp;"+s6*"&amp;TEXT(AB147,0)&amp;"+s7*"&amp;TEXT(AC147,0)&amp;"+s0*"&amp;TEXT(AD147,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R147)),S147,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R147)),S147,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R147)),S147,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R147)),S147,S147)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R147)),S147,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R147)),S147,0)&amp;"+e07*"&amp;IF(T147="反撃",U147,0)&amp;"+e08*"&amp;IF(T147="風属性",U147,0)&amp;"+e09*"&amp;IF(T147="闇属性",U147,0)&amp;"+e10*"&amp;IF(T147="単体",U147,0)&amp;"+e11*"&amp;IF(T147="範囲",U147,0)&amp;"+e12*"&amp;IF(T147="人",U147,0)&amp;"+e13*"&amp;IF(T147="異族",U147,0)&amp;"+e14*"&amp;IF(T147="バジュラ",U147,0)&amp;"+e15*"&amp;IF(T147="魔動人形",U147,0)&amp;"+e16*"&amp;IF(T147="下位魔神",U147,0)&amp;");"</f>
+        <v>document.getElementById('m145').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI147" s="35" t="str">
         <f t="shared" si="17"/>
@@ -23455,8 +23514,8 @@
 Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m146'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH148" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI148&amp;"').innerHTML = (b1*"&amp;TEXT(J148,0)&amp;"+b2*"&amp;TEXT(K148,0)&amp;"+b0*"&amp;TEXT(L148,0)&amp;") + (s1*"&amp;TEXT(W148,0)&amp;"+s2*"&amp;TEXT(X148,0)&amp;"+s3*"&amp;TEXT(Y148,0)&amp;"+s4*"&amp;TEXT(Z148,0)&amp;"+s5*"&amp;TEXT(AA148,0)&amp;"+s6*"&amp;TEXT(AB148,0)&amp;"+s7*"&amp;TEXT(AC148,0)&amp;"+s0*"&amp;TEXT(AD148,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R148)),S148,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R148)),S148,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R148)),S148,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R148)),S148,S148)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R148)),S148,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R148)),S148,0)&amp;"+e07*"&amp;IF(T148="反撃",U148,0)&amp;"+e08*"&amp;IF(T148="風属性",U148,0)&amp;"+e09*"&amp;IF(T148="闇属性",U148,0)&amp;"+e10*"&amp;IF(T148="単体",U148,0)&amp;"+e11*"&amp;IF(T148="範囲",U148,0)&amp;"+e12*"&amp;IF(T148="人",U148,0)&amp;"+e13*"&amp;IF(T148="異族",U148,0)&amp;"+e14*"&amp;IF(T148="バジュラ",U148,0)&amp;"+e15*"&amp;IF(T148="魔動人形",U148,0)&amp;");"</f>
-        <v>document.getElementById('m146').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI148&amp;"').innerHTML = (b1*"&amp;TEXT(J148,0)&amp;"+b2*"&amp;TEXT(K148,0)&amp;"+b0*"&amp;TEXT(L148,0)&amp;") + (s1*"&amp;TEXT(W148,0)&amp;"+s2*"&amp;TEXT(X148,0)&amp;"+s3*"&amp;TEXT(Y148,0)&amp;"+s4*"&amp;TEXT(Z148,0)&amp;"+s5*"&amp;TEXT(AA148,0)&amp;"+s6*"&amp;TEXT(AB148,0)&amp;"+s7*"&amp;TEXT(AC148,0)&amp;"+s0*"&amp;TEXT(AD148,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R148)),S148,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R148)),S148,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R148)),S148,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R148)),S148,S148)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R148)),S148,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R148)),S148,0)&amp;"+e07*"&amp;IF(T148="反撃",U148,0)&amp;"+e08*"&amp;IF(T148="風属性",U148,0)&amp;"+e09*"&amp;IF(T148="闇属性",U148,0)&amp;"+e10*"&amp;IF(T148="単体",U148,0)&amp;"+e11*"&amp;IF(T148="範囲",U148,0)&amp;"+e12*"&amp;IF(T148="人",U148,0)&amp;"+e13*"&amp;IF(T148="異族",U148,0)&amp;"+e14*"&amp;IF(T148="バジュラ",U148,0)&amp;"+e15*"&amp;IF(T148="魔動人形",U148,0)&amp;"+e16*"&amp;IF(T148="下位魔神",U148,0)&amp;");"</f>
+        <v>document.getElementById('m146').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI148" s="35" t="str">
         <f t="shared" si="17"/>
@@ -23509,8 +23568,8 @@
 Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m147'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH149" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI149&amp;"').innerHTML = (b1*"&amp;TEXT(J149,0)&amp;"+b2*"&amp;TEXT(K149,0)&amp;"+b0*"&amp;TEXT(L149,0)&amp;") + (s1*"&amp;TEXT(W149,0)&amp;"+s2*"&amp;TEXT(X149,0)&amp;"+s3*"&amp;TEXT(Y149,0)&amp;"+s4*"&amp;TEXT(Z149,0)&amp;"+s5*"&amp;TEXT(AA149,0)&amp;"+s6*"&amp;TEXT(AB149,0)&amp;"+s7*"&amp;TEXT(AC149,0)&amp;"+s0*"&amp;TEXT(AD149,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R149)),S149,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R149)),S149,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R149)),S149,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R149)),S149,S149)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R149)),S149,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R149)),S149,0)&amp;"+e07*"&amp;IF(T149="反撃",U149,0)&amp;"+e08*"&amp;IF(T149="風属性",U149,0)&amp;"+e09*"&amp;IF(T149="闇属性",U149,0)&amp;"+e10*"&amp;IF(T149="単体",U149,0)&amp;"+e11*"&amp;IF(T149="範囲",U149,0)&amp;"+e12*"&amp;IF(T149="人",U149,0)&amp;"+e13*"&amp;IF(T149="異族",U149,0)&amp;"+e14*"&amp;IF(T149="バジュラ",U149,0)&amp;"+e15*"&amp;IF(T149="魔動人形",U149,0)&amp;");"</f>
-        <v>document.getElementById('m147').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI149&amp;"').innerHTML = (b1*"&amp;TEXT(J149,0)&amp;"+b2*"&amp;TEXT(K149,0)&amp;"+b0*"&amp;TEXT(L149,0)&amp;") + (s1*"&amp;TEXT(W149,0)&amp;"+s2*"&amp;TEXT(X149,0)&amp;"+s3*"&amp;TEXT(Y149,0)&amp;"+s4*"&amp;TEXT(Z149,0)&amp;"+s5*"&amp;TEXT(AA149,0)&amp;"+s6*"&amp;TEXT(AB149,0)&amp;"+s7*"&amp;TEXT(AC149,0)&amp;"+s0*"&amp;TEXT(AD149,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R149)),S149,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R149)),S149,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R149)),S149,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R149)),S149,S149)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R149)),S149,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R149)),S149,0)&amp;"+e07*"&amp;IF(T149="反撃",U149,0)&amp;"+e08*"&amp;IF(T149="風属性",U149,0)&amp;"+e09*"&amp;IF(T149="闇属性",U149,0)&amp;"+e10*"&amp;IF(T149="単体",U149,0)&amp;"+e11*"&amp;IF(T149="範囲",U149,0)&amp;"+e12*"&amp;IF(T149="人",U149,0)&amp;"+e13*"&amp;IF(T149="異族",U149,0)&amp;"+e14*"&amp;IF(T149="バジュラ",U149,0)&amp;"+e15*"&amp;IF(T149="魔動人形",U149,0)&amp;"+e16*"&amp;IF(T149="下位魔神",U149,0)&amp;");"</f>
+        <v>document.getElementById('m147').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI149" s="35" t="str">
         <f t="shared" si="17"/>
@@ -23563,8 +23622,8 @@
 Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m148'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH150" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI150&amp;"').innerHTML = (b1*"&amp;TEXT(J150,0)&amp;"+b2*"&amp;TEXT(K150,0)&amp;"+b0*"&amp;TEXT(L150,0)&amp;") + (s1*"&amp;TEXT(W150,0)&amp;"+s2*"&amp;TEXT(X150,0)&amp;"+s3*"&amp;TEXT(Y150,0)&amp;"+s4*"&amp;TEXT(Z150,0)&amp;"+s5*"&amp;TEXT(AA150,0)&amp;"+s6*"&amp;TEXT(AB150,0)&amp;"+s7*"&amp;TEXT(AC150,0)&amp;"+s0*"&amp;TEXT(AD150,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R150)),S150,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R150)),S150,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R150)),S150,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R150)),S150,S150)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R150)),S150,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R150)),S150,0)&amp;"+e07*"&amp;IF(T150="反撃",U150,0)&amp;"+e08*"&amp;IF(T150="風属性",U150,0)&amp;"+e09*"&amp;IF(T150="闇属性",U150,0)&amp;"+e10*"&amp;IF(T150="単体",U150,0)&amp;"+e11*"&amp;IF(T150="範囲",U150,0)&amp;"+e12*"&amp;IF(T150="人",U150,0)&amp;"+e13*"&amp;IF(T150="異族",U150,0)&amp;"+e14*"&amp;IF(T150="バジュラ",U150,0)&amp;"+e15*"&amp;IF(T150="魔動人形",U150,0)&amp;");"</f>
-        <v>document.getElementById('m148').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI150&amp;"').innerHTML = (b1*"&amp;TEXT(J150,0)&amp;"+b2*"&amp;TEXT(K150,0)&amp;"+b0*"&amp;TEXT(L150,0)&amp;") + (s1*"&amp;TEXT(W150,0)&amp;"+s2*"&amp;TEXT(X150,0)&amp;"+s3*"&amp;TEXT(Y150,0)&amp;"+s4*"&amp;TEXT(Z150,0)&amp;"+s5*"&amp;TEXT(AA150,0)&amp;"+s6*"&amp;TEXT(AB150,0)&amp;"+s7*"&amp;TEXT(AC150,0)&amp;"+s0*"&amp;TEXT(AD150,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R150)),S150,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R150)),S150,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R150)),S150,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R150)),S150,S150)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R150)),S150,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R150)),S150,0)&amp;"+e07*"&amp;IF(T150="反撃",U150,0)&amp;"+e08*"&amp;IF(T150="風属性",U150,0)&amp;"+e09*"&amp;IF(T150="闇属性",U150,0)&amp;"+e10*"&amp;IF(T150="単体",U150,0)&amp;"+e11*"&amp;IF(T150="範囲",U150,0)&amp;"+e12*"&amp;IF(T150="人",U150,0)&amp;"+e13*"&amp;IF(T150="異族",U150,0)&amp;"+e14*"&amp;IF(T150="バジュラ",U150,0)&amp;"+e15*"&amp;IF(T150="魔動人形",U150,0)&amp;"+e16*"&amp;IF(T150="下位魔神",U150,0)&amp;");"</f>
+        <v>document.getElementById('m148').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI150" s="35" t="str">
         <f t="shared" si="17"/>
@@ -23617,8 +23676,8 @@
 Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m149'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH151" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI151&amp;"').innerHTML = (b1*"&amp;TEXT(J151,0)&amp;"+b2*"&amp;TEXT(K151,0)&amp;"+b0*"&amp;TEXT(L151,0)&amp;") + (s1*"&amp;TEXT(W151,0)&amp;"+s2*"&amp;TEXT(X151,0)&amp;"+s3*"&amp;TEXT(Y151,0)&amp;"+s4*"&amp;TEXT(Z151,0)&amp;"+s5*"&amp;TEXT(AA151,0)&amp;"+s6*"&amp;TEXT(AB151,0)&amp;"+s7*"&amp;TEXT(AC151,0)&amp;"+s0*"&amp;TEXT(AD151,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R151)),S151,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R151)),S151,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R151)),S151,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R151)),S151,S151)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R151)),S151,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R151)),S151,0)&amp;"+e07*"&amp;IF(T151="反撃",U151,0)&amp;"+e08*"&amp;IF(T151="風属性",U151,0)&amp;"+e09*"&amp;IF(T151="闇属性",U151,0)&amp;"+e10*"&amp;IF(T151="単体",U151,0)&amp;"+e11*"&amp;IF(T151="範囲",U151,0)&amp;"+e12*"&amp;IF(T151="人",U151,0)&amp;"+e13*"&amp;IF(T151="異族",U151,0)&amp;"+e14*"&amp;IF(T151="バジュラ",U151,0)&amp;"+e15*"&amp;IF(T151="魔動人形",U151,0)&amp;");"</f>
-        <v>document.getElementById('m149').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI151&amp;"').innerHTML = (b1*"&amp;TEXT(J151,0)&amp;"+b2*"&amp;TEXT(K151,0)&amp;"+b0*"&amp;TEXT(L151,0)&amp;") + (s1*"&amp;TEXT(W151,0)&amp;"+s2*"&amp;TEXT(X151,0)&amp;"+s3*"&amp;TEXT(Y151,0)&amp;"+s4*"&amp;TEXT(Z151,0)&amp;"+s5*"&amp;TEXT(AA151,0)&amp;"+s6*"&amp;TEXT(AB151,0)&amp;"+s7*"&amp;TEXT(AC151,0)&amp;"+s0*"&amp;TEXT(AD151,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R151)),S151,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R151)),S151,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R151)),S151,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R151)),S151,S151)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R151)),S151,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R151)),S151,0)&amp;"+e07*"&amp;IF(T151="反撃",U151,0)&amp;"+e08*"&amp;IF(T151="風属性",U151,0)&amp;"+e09*"&amp;IF(T151="闇属性",U151,0)&amp;"+e10*"&amp;IF(T151="単体",U151,0)&amp;"+e11*"&amp;IF(T151="範囲",U151,0)&amp;"+e12*"&amp;IF(T151="人",U151,0)&amp;"+e13*"&amp;IF(T151="異族",U151,0)&amp;"+e14*"&amp;IF(T151="バジュラ",U151,0)&amp;"+e15*"&amp;IF(T151="魔動人形",U151,0)&amp;"+e16*"&amp;IF(T151="下位魔神",U151,0)&amp;");"</f>
+        <v>document.getElementById('m149').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI151" s="35" t="str">
         <f t="shared" si="17"/>
@@ -23688,8 +23747,8 @@
 Slothstein&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m150'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;40&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;範囲&lt;/td&gt;&lt;td headers='sp.bonus'&gt;10&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;30&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH152" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI152&amp;"').innerHTML = (b1*"&amp;TEXT(J152,0)&amp;"+b2*"&amp;TEXT(K152,0)&amp;"+b0*"&amp;TEXT(L152,0)&amp;") + (s1*"&amp;TEXT(W152,0)&amp;"+s2*"&amp;TEXT(X152,0)&amp;"+s3*"&amp;TEXT(Y152,0)&amp;"+s4*"&amp;TEXT(Z152,0)&amp;"+s5*"&amp;TEXT(AA152,0)&amp;"+s6*"&amp;TEXT(AB152,0)&amp;"+s7*"&amp;TEXT(AC152,0)&amp;"+s0*"&amp;TEXT(AD152,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R152)),S152,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R152)),S152,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R152)),S152,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R152)),S152,S152)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R152)),S152,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R152)),S152,0)&amp;"+e07*"&amp;IF(T152="反撃",U152,0)&amp;"+e08*"&amp;IF(T152="風属性",U152,0)&amp;"+e09*"&amp;IF(T152="闇属性",U152,0)&amp;"+e10*"&amp;IF(T152="単体",U152,0)&amp;"+e11*"&amp;IF(T152="範囲",U152,0)&amp;"+e12*"&amp;IF(T152="人",U152,0)&amp;"+e13*"&amp;IF(T152="異族",U152,0)&amp;"+e14*"&amp;IF(T152="バジュラ",U152,0)&amp;"+e15*"&amp;IF(T152="魔動人形",U152,0)&amp;");"</f>
-        <v>document.getElementById('m150').innerHTML = (b1*0+b2*40+b0*40) + (s1*0+s2*30+s3*0+s4*0+s5*0+s6*30+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*10+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI152&amp;"').innerHTML = (b1*"&amp;TEXT(J152,0)&amp;"+b2*"&amp;TEXT(K152,0)&amp;"+b0*"&amp;TEXT(L152,0)&amp;") + (s1*"&amp;TEXT(W152,0)&amp;"+s2*"&amp;TEXT(X152,0)&amp;"+s3*"&amp;TEXT(Y152,0)&amp;"+s4*"&amp;TEXT(Z152,0)&amp;"+s5*"&amp;TEXT(AA152,0)&amp;"+s6*"&amp;TEXT(AB152,0)&amp;"+s7*"&amp;TEXT(AC152,0)&amp;"+s0*"&amp;TEXT(AD152,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R152)),S152,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R152)),S152,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R152)),S152,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R152)),S152,S152)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R152)),S152,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R152)),S152,0)&amp;"+e07*"&amp;IF(T152="反撃",U152,0)&amp;"+e08*"&amp;IF(T152="風属性",U152,0)&amp;"+e09*"&amp;IF(T152="闇属性",U152,0)&amp;"+e10*"&amp;IF(T152="単体",U152,0)&amp;"+e11*"&amp;IF(T152="範囲",U152,0)&amp;"+e12*"&amp;IF(T152="人",U152,0)&amp;"+e13*"&amp;IF(T152="異族",U152,0)&amp;"+e14*"&amp;IF(T152="バジュラ",U152,0)&amp;"+e15*"&amp;IF(T152="魔動人形",U152,0)&amp;"+e16*"&amp;IF(T152="下位魔神",U152,0)&amp;");"</f>
+        <v>document.getElementById('m150').innerHTML = (b1*0+b2*40+b0*40) + (s1*0+s2*30+s3*0+s4*0+s5*0+s6*30+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*10+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI152" s="35" t="str">
         <f t="shared" si="17"/>
@@ -23739,8 +23798,8 @@
 Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m151'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH153" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI153&amp;"').innerHTML = (b1*"&amp;TEXT(J153,0)&amp;"+b2*"&amp;TEXT(K153,0)&amp;"+b0*"&amp;TEXT(L153,0)&amp;") + (s1*"&amp;TEXT(W153,0)&amp;"+s2*"&amp;TEXT(X153,0)&amp;"+s3*"&amp;TEXT(Y153,0)&amp;"+s4*"&amp;TEXT(Z153,0)&amp;"+s5*"&amp;TEXT(AA153,0)&amp;"+s6*"&amp;TEXT(AB153,0)&amp;"+s7*"&amp;TEXT(AC153,0)&amp;"+s0*"&amp;TEXT(AD153,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R153)),S153,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R153)),S153,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R153)),S153,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R153)),S153,S153)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R153)),S153,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R153)),S153,0)&amp;"+e07*"&amp;IF(T153="反撃",U153,0)&amp;"+e08*"&amp;IF(T153="風属性",U153,0)&amp;"+e09*"&amp;IF(T153="闇属性",U153,0)&amp;"+e10*"&amp;IF(T153="単体",U153,0)&amp;"+e11*"&amp;IF(T153="範囲",U153,0)&amp;"+e12*"&amp;IF(T153="人",U153,0)&amp;"+e13*"&amp;IF(T153="異族",U153,0)&amp;"+e14*"&amp;IF(T153="バジュラ",U153,0)&amp;"+e15*"&amp;IF(T153="魔動人形",U153,0)&amp;");"</f>
-        <v>document.getElementById('m151').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI153&amp;"').innerHTML = (b1*"&amp;TEXT(J153,0)&amp;"+b2*"&amp;TEXT(K153,0)&amp;"+b0*"&amp;TEXT(L153,0)&amp;") + (s1*"&amp;TEXT(W153,0)&amp;"+s2*"&amp;TEXT(X153,0)&amp;"+s3*"&amp;TEXT(Y153,0)&amp;"+s4*"&amp;TEXT(Z153,0)&amp;"+s5*"&amp;TEXT(AA153,0)&amp;"+s6*"&amp;TEXT(AB153,0)&amp;"+s7*"&amp;TEXT(AC153,0)&amp;"+s0*"&amp;TEXT(AD153,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R153)),S153,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R153)),S153,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R153)),S153,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R153)),S153,S153)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R153)),S153,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R153)),S153,0)&amp;"+e07*"&amp;IF(T153="反撃",U153,0)&amp;"+e08*"&amp;IF(T153="風属性",U153,0)&amp;"+e09*"&amp;IF(T153="闇属性",U153,0)&amp;"+e10*"&amp;IF(T153="単体",U153,0)&amp;"+e11*"&amp;IF(T153="範囲",U153,0)&amp;"+e12*"&amp;IF(T153="人",U153,0)&amp;"+e13*"&amp;IF(T153="異族",U153,0)&amp;"+e14*"&amp;IF(T153="バジュラ",U153,0)&amp;"+e15*"&amp;IF(T153="魔動人形",U153,0)&amp;"+e16*"&amp;IF(T153="下位魔神",U153,0)&amp;");"</f>
+        <v>document.getElementById('m151').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI153" s="35" t="str">
         <f t="shared" si="17"/>
@@ -23793,8 +23852,8 @@
 Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m152'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH154" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI154&amp;"').innerHTML = (b1*"&amp;TEXT(J154,0)&amp;"+b2*"&amp;TEXT(K154,0)&amp;"+b0*"&amp;TEXT(L154,0)&amp;") + (s1*"&amp;TEXT(W154,0)&amp;"+s2*"&amp;TEXT(X154,0)&amp;"+s3*"&amp;TEXT(Y154,0)&amp;"+s4*"&amp;TEXT(Z154,0)&amp;"+s5*"&amp;TEXT(AA154,0)&amp;"+s6*"&amp;TEXT(AB154,0)&amp;"+s7*"&amp;TEXT(AC154,0)&amp;"+s0*"&amp;TEXT(AD154,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R154)),S154,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R154)),S154,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R154)),S154,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R154)),S154,S154)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R154)),S154,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R154)),S154,0)&amp;"+e07*"&amp;IF(T154="反撃",U154,0)&amp;"+e08*"&amp;IF(T154="風属性",U154,0)&amp;"+e09*"&amp;IF(T154="闇属性",U154,0)&amp;"+e10*"&amp;IF(T154="単体",U154,0)&amp;"+e11*"&amp;IF(T154="範囲",U154,0)&amp;"+e12*"&amp;IF(T154="人",U154,0)&amp;"+e13*"&amp;IF(T154="異族",U154,0)&amp;"+e14*"&amp;IF(T154="バジュラ",U154,0)&amp;"+e15*"&amp;IF(T154="魔動人形",U154,0)&amp;");"</f>
-        <v>document.getElementById('m152').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI154&amp;"').innerHTML = (b1*"&amp;TEXT(J154,0)&amp;"+b2*"&amp;TEXT(K154,0)&amp;"+b0*"&amp;TEXT(L154,0)&amp;") + (s1*"&amp;TEXT(W154,0)&amp;"+s2*"&amp;TEXT(X154,0)&amp;"+s3*"&amp;TEXT(Y154,0)&amp;"+s4*"&amp;TEXT(Z154,0)&amp;"+s5*"&amp;TEXT(AA154,0)&amp;"+s6*"&amp;TEXT(AB154,0)&amp;"+s7*"&amp;TEXT(AC154,0)&amp;"+s0*"&amp;TEXT(AD154,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R154)),S154,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R154)),S154,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R154)),S154,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R154)),S154,S154)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R154)),S154,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R154)),S154,0)&amp;"+e07*"&amp;IF(T154="反撃",U154,0)&amp;"+e08*"&amp;IF(T154="風属性",U154,0)&amp;"+e09*"&amp;IF(T154="闇属性",U154,0)&amp;"+e10*"&amp;IF(T154="単体",U154,0)&amp;"+e11*"&amp;IF(T154="範囲",U154,0)&amp;"+e12*"&amp;IF(T154="人",U154,0)&amp;"+e13*"&amp;IF(T154="異族",U154,0)&amp;"+e14*"&amp;IF(T154="バジュラ",U154,0)&amp;"+e15*"&amp;IF(T154="魔動人形",U154,0)&amp;"+e16*"&amp;IF(T154="下位魔神",U154,0)&amp;");"</f>
+        <v>document.getElementById('m152').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI154" s="35" t="str">
         <f t="shared" si="17"/>
@@ -23847,8 +23906,8 @@
 Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m153'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH155" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI155&amp;"').innerHTML = (b1*"&amp;TEXT(J155,0)&amp;"+b2*"&amp;TEXT(K155,0)&amp;"+b0*"&amp;TEXT(L155,0)&amp;") + (s1*"&amp;TEXT(W155,0)&amp;"+s2*"&amp;TEXT(X155,0)&amp;"+s3*"&amp;TEXT(Y155,0)&amp;"+s4*"&amp;TEXT(Z155,0)&amp;"+s5*"&amp;TEXT(AA155,0)&amp;"+s6*"&amp;TEXT(AB155,0)&amp;"+s7*"&amp;TEXT(AC155,0)&amp;"+s0*"&amp;TEXT(AD155,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R155)),S155,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R155)),S155,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R155)),S155,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R155)),S155,S155)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R155)),S155,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R155)),S155,0)&amp;"+e07*"&amp;IF(T155="反撃",U155,0)&amp;"+e08*"&amp;IF(T155="風属性",U155,0)&amp;"+e09*"&amp;IF(T155="闇属性",U155,0)&amp;"+e10*"&amp;IF(T155="単体",U155,0)&amp;"+e11*"&amp;IF(T155="範囲",U155,0)&amp;"+e12*"&amp;IF(T155="人",U155,0)&amp;"+e13*"&amp;IF(T155="異族",U155,0)&amp;"+e14*"&amp;IF(T155="バジュラ",U155,0)&amp;"+e15*"&amp;IF(T155="魔動人形",U155,0)&amp;");"</f>
-        <v>document.getElementById('m153').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI155&amp;"').innerHTML = (b1*"&amp;TEXT(J155,0)&amp;"+b2*"&amp;TEXT(K155,0)&amp;"+b0*"&amp;TEXT(L155,0)&amp;") + (s1*"&amp;TEXT(W155,0)&amp;"+s2*"&amp;TEXT(X155,0)&amp;"+s3*"&amp;TEXT(Y155,0)&amp;"+s4*"&amp;TEXT(Z155,0)&amp;"+s5*"&amp;TEXT(AA155,0)&amp;"+s6*"&amp;TEXT(AB155,0)&amp;"+s7*"&amp;TEXT(AC155,0)&amp;"+s0*"&amp;TEXT(AD155,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R155)),S155,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R155)),S155,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R155)),S155,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R155)),S155,S155)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R155)),S155,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R155)),S155,0)&amp;"+e07*"&amp;IF(T155="反撃",U155,0)&amp;"+e08*"&amp;IF(T155="風属性",U155,0)&amp;"+e09*"&amp;IF(T155="闇属性",U155,0)&amp;"+e10*"&amp;IF(T155="単体",U155,0)&amp;"+e11*"&amp;IF(T155="範囲",U155,0)&amp;"+e12*"&amp;IF(T155="人",U155,0)&amp;"+e13*"&amp;IF(T155="異族",U155,0)&amp;"+e14*"&amp;IF(T155="バジュラ",U155,0)&amp;"+e15*"&amp;IF(T155="魔動人形",U155,0)&amp;"+e16*"&amp;IF(T155="下位魔神",U155,0)&amp;");"</f>
+        <v>document.getElementById('m153').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI155" s="35" t="str">
         <f t="shared" si="17"/>
@@ -23901,8 +23960,8 @@
 Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m154'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH156" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI156&amp;"').innerHTML = (b1*"&amp;TEXT(J156,0)&amp;"+b2*"&amp;TEXT(K156,0)&amp;"+b0*"&amp;TEXT(L156,0)&amp;") + (s1*"&amp;TEXT(W156,0)&amp;"+s2*"&amp;TEXT(X156,0)&amp;"+s3*"&amp;TEXT(Y156,0)&amp;"+s4*"&amp;TEXT(Z156,0)&amp;"+s5*"&amp;TEXT(AA156,0)&amp;"+s6*"&amp;TEXT(AB156,0)&amp;"+s7*"&amp;TEXT(AC156,0)&amp;"+s0*"&amp;TEXT(AD156,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R156)),S156,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R156)),S156,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R156)),S156,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R156)),S156,S156)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R156)),S156,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R156)),S156,0)&amp;"+e07*"&amp;IF(T156="反撃",U156,0)&amp;"+e08*"&amp;IF(T156="風属性",U156,0)&amp;"+e09*"&amp;IF(T156="闇属性",U156,0)&amp;"+e10*"&amp;IF(T156="単体",U156,0)&amp;"+e11*"&amp;IF(T156="範囲",U156,0)&amp;"+e12*"&amp;IF(T156="人",U156,0)&amp;"+e13*"&amp;IF(T156="異族",U156,0)&amp;"+e14*"&amp;IF(T156="バジュラ",U156,0)&amp;"+e15*"&amp;IF(T156="魔動人形",U156,0)&amp;");"</f>
-        <v>document.getElementById('m154').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI156&amp;"').innerHTML = (b1*"&amp;TEXT(J156,0)&amp;"+b2*"&amp;TEXT(K156,0)&amp;"+b0*"&amp;TEXT(L156,0)&amp;") + (s1*"&amp;TEXT(W156,0)&amp;"+s2*"&amp;TEXT(X156,0)&amp;"+s3*"&amp;TEXT(Y156,0)&amp;"+s4*"&amp;TEXT(Z156,0)&amp;"+s5*"&amp;TEXT(AA156,0)&amp;"+s6*"&amp;TEXT(AB156,0)&amp;"+s7*"&amp;TEXT(AC156,0)&amp;"+s0*"&amp;TEXT(AD156,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R156)),S156,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R156)),S156,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R156)),S156,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R156)),S156,S156)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R156)),S156,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R156)),S156,0)&amp;"+e07*"&amp;IF(T156="反撃",U156,0)&amp;"+e08*"&amp;IF(T156="風属性",U156,0)&amp;"+e09*"&amp;IF(T156="闇属性",U156,0)&amp;"+e10*"&amp;IF(T156="単体",U156,0)&amp;"+e11*"&amp;IF(T156="範囲",U156,0)&amp;"+e12*"&amp;IF(T156="人",U156,0)&amp;"+e13*"&amp;IF(T156="異族",U156,0)&amp;"+e14*"&amp;IF(T156="バジュラ",U156,0)&amp;"+e15*"&amp;IF(T156="魔動人形",U156,0)&amp;"+e16*"&amp;IF(T156="下位魔神",U156,0)&amp;");"</f>
+        <v>document.getElementById('m154').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI156" s="35" t="str">
         <f t="shared" si="17"/>
@@ -23964,8 +24023,8 @@
 Other&lt;/td&gt;&lt;td headers='group'&gt;〈七つの大罪〉&lt;/td&gt;&lt;td headers='score' id='m155'&gt;30&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;MP上限+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;30&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH157" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI157&amp;"').innerHTML = (b1*"&amp;TEXT(J157,0)&amp;"+b2*"&amp;TEXT(K157,0)&amp;"+b0*"&amp;TEXT(L157,0)&amp;") + (s1*"&amp;TEXT(W157,0)&amp;"+s2*"&amp;TEXT(X157,0)&amp;"+s3*"&amp;TEXT(Y157,0)&amp;"+s4*"&amp;TEXT(Z157,0)&amp;"+s5*"&amp;TEXT(AA157,0)&amp;"+s6*"&amp;TEXT(AB157,0)&amp;"+s7*"&amp;TEXT(AC157,0)&amp;"+s0*"&amp;TEXT(AD157,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R157)),S157,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R157)),S157,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R157)),S157,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R157)),S157,S157)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R157)),S157,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R157)),S157,0)&amp;"+e07*"&amp;IF(T157="反撃",U157,0)&amp;"+e08*"&amp;IF(T157="風属性",U157,0)&amp;"+e09*"&amp;IF(T157="闇属性",U157,0)&amp;"+e10*"&amp;IF(T157="単体",U157,0)&amp;"+e11*"&amp;IF(T157="範囲",U157,0)&amp;"+e12*"&amp;IF(T157="人",U157,0)&amp;"+e13*"&amp;IF(T157="異族",U157,0)&amp;"+e14*"&amp;IF(T157="バジュラ",U157,0)&amp;"+e15*"&amp;IF(T157="魔動人形",U157,0)&amp;");"</f>
-        <v>document.getElementById('m155').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*30+s4*0+s5*0+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI157&amp;"').innerHTML = (b1*"&amp;TEXT(J157,0)&amp;"+b2*"&amp;TEXT(K157,0)&amp;"+b0*"&amp;TEXT(L157,0)&amp;") + (s1*"&amp;TEXT(W157,0)&amp;"+s2*"&amp;TEXT(X157,0)&amp;"+s3*"&amp;TEXT(Y157,0)&amp;"+s4*"&amp;TEXT(Z157,0)&amp;"+s5*"&amp;TEXT(AA157,0)&amp;"+s6*"&amp;TEXT(AB157,0)&amp;"+s7*"&amp;TEXT(AC157,0)&amp;"+s0*"&amp;TEXT(AD157,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R157)),S157,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R157)),S157,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R157)),S157,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R157)),S157,S157)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R157)),S157,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R157)),S157,0)&amp;"+e07*"&amp;IF(T157="反撃",U157,0)&amp;"+e08*"&amp;IF(T157="風属性",U157,0)&amp;"+e09*"&amp;IF(T157="闇属性",U157,0)&amp;"+e10*"&amp;IF(T157="単体",U157,0)&amp;"+e11*"&amp;IF(T157="範囲",U157,0)&amp;"+e12*"&amp;IF(T157="人",U157,0)&amp;"+e13*"&amp;IF(T157="異族",U157,0)&amp;"+e14*"&amp;IF(T157="バジュラ",U157,0)&amp;"+e15*"&amp;IF(T157="魔動人形",U157,0)&amp;"+e16*"&amp;IF(T157="下位魔神",U157,0)&amp;");"</f>
+        <v>document.getElementById('m155').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*30+s4*0+s5*0+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI157" s="35" t="str">
         <f t="shared" si="17"/>
@@ -24035,8 +24094,8 @@
 Other&lt;/td&gt;&lt;td headers='group'&gt;〈七つの大罪〉&lt;/td&gt;&lt;td headers='score' id='m156'&gt;50&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;20&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+5&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH158" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI158&amp;"').innerHTML = (b1*"&amp;TEXT(J158,0)&amp;"+b2*"&amp;TEXT(K158,0)&amp;"+b0*"&amp;TEXT(L158,0)&amp;") + (s1*"&amp;TEXT(W158,0)&amp;"+s2*"&amp;TEXT(X158,0)&amp;"+s3*"&amp;TEXT(Y158,0)&amp;"+s4*"&amp;TEXT(Z158,0)&amp;"+s5*"&amp;TEXT(AA158,0)&amp;"+s6*"&amp;TEXT(AB158,0)&amp;"+s7*"&amp;TEXT(AC158,0)&amp;"+s0*"&amp;TEXT(AD158,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R158)),S158,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R158)),S158,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R158)),S158,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R158)),S158,S158)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R158)),S158,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R158)),S158,0)&amp;"+e07*"&amp;IF(T158="反撃",U158,0)&amp;"+e08*"&amp;IF(T158="風属性",U158,0)&amp;"+e09*"&amp;IF(T158="闇属性",U158,0)&amp;"+e10*"&amp;IF(T158="単体",U158,0)&amp;"+e11*"&amp;IF(T158="範囲",U158,0)&amp;"+e12*"&amp;IF(T158="人",U158,0)&amp;"+e13*"&amp;IF(T158="異族",U158,0)&amp;"+e14*"&amp;IF(T158="バジュラ",U158,0)&amp;"+e15*"&amp;IF(T158="魔動人形",U158,0)&amp;");"</f>
-        <v>document.getElementById('m156').innerHTML = (b1*20+b2*20+b0*20) + (s1*30+s2*0+s3*0+s4*0+s5*30+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI158&amp;"').innerHTML = (b1*"&amp;TEXT(J158,0)&amp;"+b2*"&amp;TEXT(K158,0)&amp;"+b0*"&amp;TEXT(L158,0)&amp;") + (s1*"&amp;TEXT(W158,0)&amp;"+s2*"&amp;TEXT(X158,0)&amp;"+s3*"&amp;TEXT(Y158,0)&amp;"+s4*"&amp;TEXT(Z158,0)&amp;"+s5*"&amp;TEXT(AA158,0)&amp;"+s6*"&amp;TEXT(AB158,0)&amp;"+s7*"&amp;TEXT(AC158,0)&amp;"+s0*"&amp;TEXT(AD158,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R158)),S158,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R158)),S158,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R158)),S158,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R158)),S158,S158)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R158)),S158,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R158)),S158,0)&amp;"+e07*"&amp;IF(T158="反撃",U158,0)&amp;"+e08*"&amp;IF(T158="風属性",U158,0)&amp;"+e09*"&amp;IF(T158="闇属性",U158,0)&amp;"+e10*"&amp;IF(T158="単体",U158,0)&amp;"+e11*"&amp;IF(T158="範囲",U158,0)&amp;"+e12*"&amp;IF(T158="人",U158,0)&amp;"+e13*"&amp;IF(T158="異族",U158,0)&amp;"+e14*"&amp;IF(T158="バジュラ",U158,0)&amp;"+e15*"&amp;IF(T158="魔動人形",U158,0)&amp;"+e16*"&amp;IF(T158="下位魔神",U158,0)&amp;");"</f>
+        <v>document.getElementById('m156').innerHTML = (b1*20+b2*20+b0*20) + (s1*30+s2*0+s3*0+s4*0+s5*30+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI158" s="35" t="str">
         <f t="shared" si="17"/>
@@ -24106,8 +24165,8 @@
 Other&lt;/td&gt;&lt;td headers='group'&gt;〈七つの大罪〉&lt;/td&gt;&lt;td headers='score' id='m157'&gt;100&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;魔動人形&lt;/td&gt;&lt;td headers='sp.bonus'&gt;40&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;30&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;30&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH159" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI159&amp;"').innerHTML = (b1*"&amp;TEXT(J159,0)&amp;"+b2*"&amp;TEXT(K159,0)&amp;"+b0*"&amp;TEXT(L159,0)&amp;") + (s1*"&amp;TEXT(W159,0)&amp;"+s2*"&amp;TEXT(X159,0)&amp;"+s3*"&amp;TEXT(Y159,0)&amp;"+s4*"&amp;TEXT(Z159,0)&amp;"+s5*"&amp;TEXT(AA159,0)&amp;"+s6*"&amp;TEXT(AB159,0)&amp;"+s7*"&amp;TEXT(AC159,0)&amp;"+s0*"&amp;TEXT(AD159,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R159)),S159,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R159)),S159,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R159)),S159,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R159)),S159,S159)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R159)),S159,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R159)),S159,0)&amp;"+e07*"&amp;IF(T159="反撃",U159,0)&amp;"+e08*"&amp;IF(T159="風属性",U159,0)&amp;"+e09*"&amp;IF(T159="闇属性",U159,0)&amp;"+e10*"&amp;IF(T159="単体",U159,0)&amp;"+e11*"&amp;IF(T159="範囲",U159,0)&amp;"+e12*"&amp;IF(T159="人",U159,0)&amp;"+e13*"&amp;IF(T159="異族",U159,0)&amp;"+e14*"&amp;IF(T159="バジュラ",U159,0)&amp;"+e15*"&amp;IF(T159="魔動人形",U159,0)&amp;");"</f>
-        <v>document.getElementById('m157').innerHTML = (b1*30+b2*30+b0*30) + (s1*0+s2*0+s3*0+s4*30+s5*0+s6*0+s7*30+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*40);</v>
+        <f ca="1">"document.getElementById('"&amp;AI159&amp;"').innerHTML = (b1*"&amp;TEXT(J159,0)&amp;"+b2*"&amp;TEXT(K159,0)&amp;"+b0*"&amp;TEXT(L159,0)&amp;") + (s1*"&amp;TEXT(W159,0)&amp;"+s2*"&amp;TEXT(X159,0)&amp;"+s3*"&amp;TEXT(Y159,0)&amp;"+s4*"&amp;TEXT(Z159,0)&amp;"+s5*"&amp;TEXT(AA159,0)&amp;"+s6*"&amp;TEXT(AB159,0)&amp;"+s7*"&amp;TEXT(AC159,0)&amp;"+s0*"&amp;TEXT(AD159,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R159)),S159,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R159)),S159,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R159)),S159,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R159)),S159,S159)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R159)),S159,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R159)),S159,0)&amp;"+e07*"&amp;IF(T159="反撃",U159,0)&amp;"+e08*"&amp;IF(T159="風属性",U159,0)&amp;"+e09*"&amp;IF(T159="闇属性",U159,0)&amp;"+e10*"&amp;IF(T159="単体",U159,0)&amp;"+e11*"&amp;IF(T159="範囲",U159,0)&amp;"+e12*"&amp;IF(T159="人",U159,0)&amp;"+e13*"&amp;IF(T159="異族",U159,0)&amp;"+e14*"&amp;IF(T159="バジュラ",U159,0)&amp;"+e15*"&amp;IF(T159="魔動人形",U159,0)&amp;"+e16*"&amp;IF(T159="下位魔神",U159,0)&amp;");"</f>
+        <v>document.getElementById('m157').innerHTML = (b1*30+b2*30+b0*30) + (s1*0+s2*0+s3*0+s4*30+s5*0+s6*0+s7*30+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*40+e16*0);</v>
       </c>
       <c r="AI159" s="35" t="str">
         <f t="shared" si="17"/>
@@ -24117,10 +24176,10 @@
     </row>
     <row r="160" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>311</v>
+        <v>552</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>319</v>
+        <v>553</v>
       </c>
       <c r="D160" s="3">
         <v>5</v>
@@ -24132,51 +24191,48 @@
         <v>36</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="H160" s="4">
         <f t="shared" si="20"/>
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="I160" s="2">
-        <v>60</v>
-      </c>
-      <c r="J160" s="2">
         <v>20</v>
       </c>
+      <c r="J160" s="2"/>
       <c r="K160" s="2"/>
       <c r="L160" s="2">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
       <c r="P160" s="2"/>
       <c r="Q160" s="7"/>
-      <c r="U160" s="4"/>
-      <c r="V160" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="Z160" s="3">
-        <v>40</v>
-      </c>
-      <c r="AA160" s="3">
-        <v>20</v>
+      <c r="T160" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="U160" s="4">
+        <v>80</v>
+      </c>
+      <c r="AC160" s="3">
+        <v>60</v>
       </c>
       <c r="AD160" s="4">
         <f t="shared" si="19"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AF160" s="23"/>
       <c r="AG160" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_TSP_01.png' alt='異世界ピクニックの衝撃'&gt;&lt;/td&gt;&lt;td headers='name'&gt;異世界ピクニックの衝撃&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;転スラ&lt;/td&gt;&lt;td headers='score' id='m158'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;60&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;MP上限+10, MP回復+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;40&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_TS_04.png' alt='&lt;十戒&gt;に抗いし王女'&gt;&lt;/td&gt;&lt;td headers='name'&gt;&lt;十戒&gt;に抗いし王女&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;〈七つの大罪〉&lt;/td&gt;&lt;td headers='score' id='m158'&gt;140&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;下位魔神&lt;/td&gt;&lt;td headers='sp.bonus'&gt;80&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;60&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH160" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI160&amp;"').innerHTML = (b1*"&amp;TEXT(J160,0)&amp;"+b2*"&amp;TEXT(K160,0)&amp;"+b0*"&amp;TEXT(L160,0)&amp;") + (s1*"&amp;TEXT(W160,0)&amp;"+s2*"&amp;TEXT(X160,0)&amp;"+s3*"&amp;TEXT(Y160,0)&amp;"+s4*"&amp;TEXT(Z160,0)&amp;"+s5*"&amp;TEXT(AA160,0)&amp;"+s6*"&amp;TEXT(AB160,0)&amp;"+s7*"&amp;TEXT(AC160,0)&amp;"+s0*"&amp;TEXT(AD160,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R160)),S160,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R160)),S160,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R160)),S160,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R160)),S160,S160)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R160)),S160,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R160)),S160,0)&amp;"+e07*"&amp;IF(T160="反撃",U160,0)&amp;"+e08*"&amp;IF(T160="風属性",U160,0)&amp;"+e09*"&amp;IF(T160="闇属性",U160,0)&amp;"+e10*"&amp;IF(T160="単体",U160,0)&amp;"+e11*"&amp;IF(T160="範囲",U160,0)&amp;"+e12*"&amp;IF(T160="人",U160,0)&amp;"+e13*"&amp;IF(T160="異族",U160,0)&amp;"+e14*"&amp;IF(T160="バジュラ",U160,0)&amp;"+e15*"&amp;IF(T160="魔動人形",U160,0)&amp;");"</f>
-        <v>document.getElementById('m158').innerHTML = (b1*20+b2*0+b0*20) + (s1*0+s2*0+s3*0+s4*40+s5*20+s6*0+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI160&amp;"').innerHTML = (b1*"&amp;TEXT(J160,0)&amp;"+b2*"&amp;TEXT(K160,0)&amp;"+b0*"&amp;TEXT(L160,0)&amp;") + (s1*"&amp;TEXT(W160,0)&amp;"+s2*"&amp;TEXT(X160,0)&amp;"+s3*"&amp;TEXT(Y160,0)&amp;"+s4*"&amp;TEXT(Z160,0)&amp;"+s5*"&amp;TEXT(AA160,0)&amp;"+s6*"&amp;TEXT(AB160,0)&amp;"+s7*"&amp;TEXT(AC160,0)&amp;"+s0*"&amp;TEXT(AD160,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R160)),S160,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R160)),S160,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R160)),S160,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R160)),S160,S160)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R160)),S160,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R160)),S160,0)&amp;"+e07*"&amp;IF(T160="反撃",U160,0)&amp;"+e08*"&amp;IF(T160="風属性",U160,0)&amp;"+e09*"&amp;IF(T160="闇属性",U160,0)&amp;"+e10*"&amp;IF(T160="単体",U160,0)&amp;"+e11*"&amp;IF(T160="範囲",U160,0)&amp;"+e12*"&amp;IF(T160="人",U160,0)&amp;"+e13*"&amp;IF(T160="異族",U160,0)&amp;"+e14*"&amp;IF(T160="バジュラ",U160,0)&amp;"+e15*"&amp;IF(T160="魔動人形",U160,0)&amp;"+e16*"&amp;IF(T160="下位魔神",U160,0)&amp;");"</f>
+        <v>document.getElementById('m158').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*60+s0*60) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*80);</v>
       </c>
       <c r="AI160" s="35" t="str">
         <f t="shared" si="17"/>
@@ -24186,10 +24242,10 @@
     </row>
     <row r="161" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D161" s="3">
         <v>5</v>
@@ -24205,32 +24261,33 @@
       </c>
       <c r="H161" s="4">
         <f t="shared" si="20"/>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I161" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J161" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="2">
         <f t="shared" si="18"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
-      <c r="O161" s="2">
-        <v>30</v>
-      </c>
+      <c r="O161" s="2"/>
       <c r="P161" s="2"/>
       <c r="Q161" s="7"/>
       <c r="U161" s="4"/>
-      <c r="X161" s="3">
+      <c r="V161" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="Z161" s="3">
+        <v>40</v>
+      </c>
+      <c r="AA161" s="3">
         <v>20</v>
-      </c>
-      <c r="AA161" s="3">
-        <v>40</v>
       </c>
       <c r="AD161" s="4">
         <f t="shared" si="19"/>
@@ -24239,12 +24296,12 @@
       <c r="AF161" s="23"/>
       <c r="AG161" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_TSP_02.png' alt='斬り開く、仲間とともに'&gt;&lt;/td&gt;&lt;td headers='name'&gt;斬り開く、仲間とともに&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;転スラ&lt;/td&gt;&lt;td headers='score' id='m159'&gt;70&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;30&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;20&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;40&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_TSP_01.png' alt='異世界ピクニックの衝撃'&gt;&lt;/td&gt;&lt;td headers='name'&gt;異世界ピクニックの衝撃&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;転スラ&lt;/td&gt;&lt;td headers='score' id='m159'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;60&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;MP上限+10, MP回復+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;40&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH161" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI161&amp;"').innerHTML = (b1*"&amp;TEXT(J161,0)&amp;"+b2*"&amp;TEXT(K161,0)&amp;"+b0*"&amp;TEXT(L161,0)&amp;") + (s1*"&amp;TEXT(W161,0)&amp;"+s2*"&amp;TEXT(X161,0)&amp;"+s3*"&amp;TEXT(Y161,0)&amp;"+s4*"&amp;TEXT(Z161,0)&amp;"+s5*"&amp;TEXT(AA161,0)&amp;"+s6*"&amp;TEXT(AB161,0)&amp;"+s7*"&amp;TEXT(AC161,0)&amp;"+s0*"&amp;TEXT(AD161,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R161)),S161,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R161)),S161,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R161)),S161,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R161)),S161,S161)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R161)),S161,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R161)),S161,0)&amp;"+e07*"&amp;IF(T161="反撃",U161,0)&amp;"+e08*"&amp;IF(T161="風属性",U161,0)&amp;"+e09*"&amp;IF(T161="闇属性",U161,0)&amp;"+e10*"&amp;IF(T161="単体",U161,0)&amp;"+e11*"&amp;IF(T161="範囲",U161,0)&amp;"+e12*"&amp;IF(T161="人",U161,0)&amp;"+e13*"&amp;IF(T161="異族",U161,0)&amp;"+e14*"&amp;IF(T161="バジュラ",U161,0)&amp;"+e15*"&amp;IF(T161="魔動人形",U161,0)&amp;");"</f>
-        <v>document.getElementById('m159').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*20+s3*0+s4*0+s5*40+s6*0+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI161&amp;"').innerHTML = (b1*"&amp;TEXT(J161,0)&amp;"+b2*"&amp;TEXT(K161,0)&amp;"+b0*"&amp;TEXT(L161,0)&amp;") + (s1*"&amp;TEXT(W161,0)&amp;"+s2*"&amp;TEXT(X161,0)&amp;"+s3*"&amp;TEXT(Y161,0)&amp;"+s4*"&amp;TEXT(Z161,0)&amp;"+s5*"&amp;TEXT(AA161,0)&amp;"+s6*"&amp;TEXT(AB161,0)&amp;"+s7*"&amp;TEXT(AC161,0)&amp;"+s0*"&amp;TEXT(AD161,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R161)),S161,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R161)),S161,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R161)),S161,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R161)),S161,S161)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R161)),S161,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R161)),S161,0)&amp;"+e07*"&amp;IF(T161="反撃",U161,0)&amp;"+e08*"&amp;IF(T161="風属性",U161,0)&amp;"+e09*"&amp;IF(T161="闇属性",U161,0)&amp;"+e10*"&amp;IF(T161="単体",U161,0)&amp;"+e11*"&amp;IF(T161="範囲",U161,0)&amp;"+e12*"&amp;IF(T161="人",U161,0)&amp;"+e13*"&amp;IF(T161="異族",U161,0)&amp;"+e14*"&amp;IF(T161="バジュラ",U161,0)&amp;"+e15*"&amp;IF(T161="魔動人形",U161,0)&amp;"+e16*"&amp;IF(T161="下位魔神",U161,0)&amp;");"</f>
+        <v>document.getElementById('m159').innerHTML = (b1*20+b2*0+b0*20) + (s1*0+s2*0+s3*0+s4*40+s5*20+s6*0+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI161" s="35" t="str">
         <f t="shared" si="17"/>
@@ -24254,51 +24311,65 @@
     </row>
     <row r="162" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D162" s="3">
         <v>5</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F162" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="G162" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="G162" s="8" t="s">
+        <v>320</v>
+      </c>
       <c r="H162" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I162" s="2"/>
-      <c r="J162" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="I162" s="2">
+        <v>40</v>
+      </c>
+      <c r="J162" s="2">
+        <v>30</v>
+      </c>
       <c r="K162" s="2"/>
       <c r="L162" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
-      <c r="O162" s="2"/>
+      <c r="O162" s="2">
+        <v>30</v>
+      </c>
       <c r="P162" s="2"/>
       <c r="Q162" s="7"/>
       <c r="U162" s="4"/>
+      <c r="X162" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA162" s="3">
+        <v>40</v>
+      </c>
       <c r="AD162" s="4">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF162" s="23"/>
       <c r="AG162" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ev groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_UNDOKAI_2018_01.png' alt='一番眩しい笑顔'&gt;&lt;/td&gt;&lt;td headers='name'&gt;一番眩しい笑顔&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
-Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m160'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_TSP_02.png' alt='斬り開く、仲間とともに'&gt;&lt;/td&gt;&lt;td headers='name'&gt;斬り開く、仲間とともに&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;転スラ&lt;/td&gt;&lt;td headers='score' id='m160'&gt;70&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;30&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;20&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;40&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH162" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI162&amp;"').innerHTML = (b1*"&amp;TEXT(J162,0)&amp;"+b2*"&amp;TEXT(K162,0)&amp;"+b0*"&amp;TEXT(L162,0)&amp;") + (s1*"&amp;TEXT(W162,0)&amp;"+s2*"&amp;TEXT(X162,0)&amp;"+s3*"&amp;TEXT(Y162,0)&amp;"+s4*"&amp;TEXT(Z162,0)&amp;"+s5*"&amp;TEXT(AA162,0)&amp;"+s6*"&amp;TEXT(AB162,0)&amp;"+s7*"&amp;TEXT(AC162,0)&amp;"+s0*"&amp;TEXT(AD162,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R162)),S162,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R162)),S162,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R162)),S162,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R162)),S162,S162)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R162)),S162,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R162)),S162,0)&amp;"+e07*"&amp;IF(T162="反撃",U162,0)&amp;"+e08*"&amp;IF(T162="風属性",U162,0)&amp;"+e09*"&amp;IF(T162="闇属性",U162,0)&amp;"+e10*"&amp;IF(T162="単体",U162,0)&amp;"+e11*"&amp;IF(T162="範囲",U162,0)&amp;"+e12*"&amp;IF(T162="人",U162,0)&amp;"+e13*"&amp;IF(T162="異族",U162,0)&amp;"+e14*"&amp;IF(T162="バジュラ",U162,0)&amp;"+e15*"&amp;IF(T162="魔動人形",U162,0)&amp;");"</f>
-        <v>document.getElementById('m160').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI162&amp;"').innerHTML = (b1*"&amp;TEXT(J162,0)&amp;"+b2*"&amp;TEXT(K162,0)&amp;"+b0*"&amp;TEXT(L162,0)&amp;") + (s1*"&amp;TEXT(W162,0)&amp;"+s2*"&amp;TEXT(X162,0)&amp;"+s3*"&amp;TEXT(Y162,0)&amp;"+s4*"&amp;TEXT(Z162,0)&amp;"+s5*"&amp;TEXT(AA162,0)&amp;"+s6*"&amp;TEXT(AB162,0)&amp;"+s7*"&amp;TEXT(AC162,0)&amp;"+s0*"&amp;TEXT(AD162,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R162)),S162,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R162)),S162,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R162)),S162,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R162)),S162,S162)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R162)),S162,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R162)),S162,0)&amp;"+e07*"&amp;IF(T162="反撃",U162,0)&amp;"+e08*"&amp;IF(T162="風属性",U162,0)&amp;"+e09*"&amp;IF(T162="闇属性",U162,0)&amp;"+e10*"&amp;IF(T162="単体",U162,0)&amp;"+e11*"&amp;IF(T162="範囲",U162,0)&amp;"+e12*"&amp;IF(T162="人",U162,0)&amp;"+e13*"&amp;IF(T162="異族",U162,0)&amp;"+e14*"&amp;IF(T162="バジュラ",U162,0)&amp;"+e15*"&amp;IF(T162="魔動人形",U162,0)&amp;"+e16*"&amp;IF(T162="下位魔神",U162,0)&amp;");"</f>
+        <v>document.getElementById('m160').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*20+s3*0+s4*0+s5*40+s6*0+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI162" s="35" t="str">
         <f t="shared" si="17"/>
@@ -24308,16 +24379,19 @@
     </row>
     <row r="163" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D163" s="3">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="F163" s="15" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="G163" s="8"/>
       <c r="H163" s="4">
@@ -24344,12 +24418,12 @@
       <c r="AF163" s="23"/>
       <c r="AG163" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_FUJICA_01.png' alt='神童と呼ばれた友'&gt;&lt;/td&gt;&lt;td headers='name'&gt;神童と呼ばれた友&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m161'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='mmt ev groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_UNDOKAI_2018_01.png' alt='一番眩しい笑顔'&gt;&lt;/td&gt;&lt;td headers='name'&gt;一番眩しい笑顔&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
+Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m161'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH163" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI163&amp;"').innerHTML = (b1*"&amp;TEXT(J163,0)&amp;"+b2*"&amp;TEXT(K163,0)&amp;"+b0*"&amp;TEXT(L163,0)&amp;") + (s1*"&amp;TEXT(W163,0)&amp;"+s2*"&amp;TEXT(X163,0)&amp;"+s3*"&amp;TEXT(Y163,0)&amp;"+s4*"&amp;TEXT(Z163,0)&amp;"+s5*"&amp;TEXT(AA163,0)&amp;"+s6*"&amp;TEXT(AB163,0)&amp;"+s7*"&amp;TEXT(AC163,0)&amp;"+s0*"&amp;TEXT(AD163,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R163)),S163,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R163)),S163,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R163)),S163,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R163)),S163,S163)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R163)),S163,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R163)),S163,0)&amp;"+e07*"&amp;IF(T163="反撃",U163,0)&amp;"+e08*"&amp;IF(T163="風属性",U163,0)&amp;"+e09*"&amp;IF(T163="闇属性",U163,0)&amp;"+e10*"&amp;IF(T163="単体",U163,0)&amp;"+e11*"&amp;IF(T163="範囲",U163,0)&amp;"+e12*"&amp;IF(T163="人",U163,0)&amp;"+e13*"&amp;IF(T163="異族",U163,0)&amp;"+e14*"&amp;IF(T163="バジュラ",U163,0)&amp;"+e15*"&amp;IF(T163="魔動人形",U163,0)&amp;");"</f>
-        <v>document.getElementById('m161').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI163&amp;"').innerHTML = (b1*"&amp;TEXT(J163,0)&amp;"+b2*"&amp;TEXT(K163,0)&amp;"+b0*"&amp;TEXT(L163,0)&amp;") + (s1*"&amp;TEXT(W163,0)&amp;"+s2*"&amp;TEXT(X163,0)&amp;"+s3*"&amp;TEXT(Y163,0)&amp;"+s4*"&amp;TEXT(Z163,0)&amp;"+s5*"&amp;TEXT(AA163,0)&amp;"+s6*"&amp;TEXT(AB163,0)&amp;"+s7*"&amp;TEXT(AC163,0)&amp;"+s0*"&amp;TEXT(AD163,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R163)),S163,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R163)),S163,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R163)),S163,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R163)),S163,S163)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R163)),S163,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R163)),S163,0)&amp;"+e07*"&amp;IF(T163="反撃",U163,0)&amp;"+e08*"&amp;IF(T163="風属性",U163,0)&amp;"+e09*"&amp;IF(T163="闇属性",U163,0)&amp;"+e10*"&amp;IF(T163="単体",U163,0)&amp;"+e11*"&amp;IF(T163="範囲",U163,0)&amp;"+e12*"&amp;IF(T163="人",U163,0)&amp;"+e13*"&amp;IF(T163="異族",U163,0)&amp;"+e14*"&amp;IF(T163="バジュラ",U163,0)&amp;"+e15*"&amp;IF(T163="魔動人形",U163,0)&amp;"+e16*"&amp;IF(T163="下位魔神",U163,0)&amp;");"</f>
+        <v>document.getElementById('m161').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI163" s="35" t="str">
         <f t="shared" si="17"/>
@@ -24359,27 +24433,23 @@
     </row>
     <row r="164" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D164" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F164" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="G164" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="G164" s="8"/>
       <c r="H164" s="4">
         <f t="shared" si="20"/>
-        <v>60</v>
-      </c>
-      <c r="I164" s="2">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" s="2"/>
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
       <c r="L164" s="2">
@@ -24391,35 +24461,20 @@
       <c r="O164" s="2"/>
       <c r="P164" s="2"/>
       <c r="Q164" s="7"/>
-      <c r="R164" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S164" s="3">
-        <v>20</v>
-      </c>
       <c r="U164" s="4"/>
-      <c r="V164" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y164" s="3">
-        <v>40</v>
-      </c>
-      <c r="AC164" s="3">
-        <v>20</v>
-      </c>
       <c r="AD164" s="4">
         <f t="shared" si="19"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AF164" s="23"/>
       <c r="AG164" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_IKASA_01.png' alt='未来は両の手の中に'&gt;&lt;/td&gt;&lt;td headers='name'&gt;未来は両の手の中に&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m162'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;70&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;治癒力+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;40&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;20&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_FUJICA_01.png' alt='神童と呼ばれた友'&gt;&lt;/td&gt;&lt;td headers='name'&gt;神童と呼ばれた友&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m162'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH164" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI164&amp;"').innerHTML = (b1*"&amp;TEXT(J164,0)&amp;"+b2*"&amp;TEXT(K164,0)&amp;"+b0*"&amp;TEXT(L164,0)&amp;") + (s1*"&amp;TEXT(W164,0)&amp;"+s2*"&amp;TEXT(X164,0)&amp;"+s3*"&amp;TEXT(Y164,0)&amp;"+s4*"&amp;TEXT(Z164,0)&amp;"+s5*"&amp;TEXT(AA164,0)&amp;"+s6*"&amp;TEXT(AB164,0)&amp;"+s7*"&amp;TEXT(AC164,0)&amp;"+s0*"&amp;TEXT(AD164,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R164)),S164,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R164)),S164,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R164)),S164,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R164)),S164,S164)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R164)),S164,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R164)),S164,0)&amp;"+e07*"&amp;IF(T164="反撃",U164,0)&amp;"+e08*"&amp;IF(T164="風属性",U164,0)&amp;"+e09*"&amp;IF(T164="闇属性",U164,0)&amp;"+e10*"&amp;IF(T164="単体",U164,0)&amp;"+e11*"&amp;IF(T164="範囲",U164,0)&amp;"+e12*"&amp;IF(T164="人",U164,0)&amp;"+e13*"&amp;IF(T164="異族",U164,0)&amp;"+e14*"&amp;IF(T164="バジュラ",U164,0)&amp;"+e15*"&amp;IF(T164="魔動人形",U164,0)&amp;");"</f>
-        <v>document.getElementById('m162').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*40+s4*0+s5*0+s6*0+s7*20+s0*40) + (e01*20+e02*0+e03*0+e04*20+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI164&amp;"').innerHTML = (b1*"&amp;TEXT(J164,0)&amp;"+b2*"&amp;TEXT(K164,0)&amp;"+b0*"&amp;TEXT(L164,0)&amp;") + (s1*"&amp;TEXT(W164,0)&amp;"+s2*"&amp;TEXT(X164,0)&amp;"+s3*"&amp;TEXT(Y164,0)&amp;"+s4*"&amp;TEXT(Z164,0)&amp;"+s5*"&amp;TEXT(AA164,0)&amp;"+s6*"&amp;TEXT(AB164,0)&amp;"+s7*"&amp;TEXT(AC164,0)&amp;"+s0*"&amp;TEXT(AD164,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R164)),S164,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R164)),S164,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R164)),S164,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R164)),S164,S164)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R164)),S164,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R164)),S164,0)&amp;"+e07*"&amp;IF(T164="反撃",U164,0)&amp;"+e08*"&amp;IF(T164="風属性",U164,0)&amp;"+e09*"&amp;IF(T164="闇属性",U164,0)&amp;"+e10*"&amp;IF(T164="単体",U164,0)&amp;"+e11*"&amp;IF(T164="範囲",U164,0)&amp;"+e12*"&amp;IF(T164="人",U164,0)&amp;"+e13*"&amp;IF(T164="異族",U164,0)&amp;"+e14*"&amp;IF(T164="バジュラ",U164,0)&amp;"+e15*"&amp;IF(T164="魔動人形",U164,0)&amp;"+e16*"&amp;IF(T164="下位魔神",U164,0)&amp;");"</f>
+        <v>document.getElementById('m162').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI164" s="35" t="str">
         <f t="shared" si="17"/>
@@ -24429,26 +24484,27 @@
     </row>
     <row r="165" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D165" s="3">
         <v>5</v>
       </c>
-      <c r="E165" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="F165" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="G165" s="8"/>
+      <c r="G165" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="H165" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I165" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="I165" s="2">
+        <v>70</v>
+      </c>
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
       <c r="L165" s="2">
@@ -24460,20 +24516,35 @@
       <c r="O165" s="2"/>
       <c r="P165" s="2"/>
       <c r="Q165" s="7"/>
+      <c r="R165" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S165" s="3">
+        <v>20</v>
+      </c>
       <c r="U165" s="4"/>
+      <c r="V165" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y165" s="3">
+        <v>40</v>
+      </c>
+      <c r="AC165" s="3">
+        <v>20</v>
+      </c>
       <c r="AD165" s="4">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF165" s="23"/>
       <c r="AG165" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ltd groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_ITSUKI_01.png' alt='甘くない、それも個性'&gt;&lt;/td&gt;&lt;td headers='name'&gt;甘くない、それも個性&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m163'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_IKASA_01.png' alt='未来は両の手の中に'&gt;&lt;/td&gt;&lt;td headers='name'&gt;未来は両の手の中に&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m163'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;70&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;治癒力+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;40&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;20&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH165" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI165&amp;"').innerHTML = (b1*"&amp;TEXT(J165,0)&amp;"+b2*"&amp;TEXT(K165,0)&amp;"+b0*"&amp;TEXT(L165,0)&amp;") + (s1*"&amp;TEXT(W165,0)&amp;"+s2*"&amp;TEXT(X165,0)&amp;"+s3*"&amp;TEXT(Y165,0)&amp;"+s4*"&amp;TEXT(Z165,0)&amp;"+s5*"&amp;TEXT(AA165,0)&amp;"+s6*"&amp;TEXT(AB165,0)&amp;"+s7*"&amp;TEXT(AC165,0)&amp;"+s0*"&amp;TEXT(AD165,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R165)),S165,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R165)),S165,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R165)),S165,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R165)),S165,S165)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R165)),S165,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R165)),S165,0)&amp;"+e07*"&amp;IF(T165="反撃",U165,0)&amp;"+e08*"&amp;IF(T165="風属性",U165,0)&amp;"+e09*"&amp;IF(T165="闇属性",U165,0)&amp;"+e10*"&amp;IF(T165="単体",U165,0)&amp;"+e11*"&amp;IF(T165="範囲",U165,0)&amp;"+e12*"&amp;IF(T165="人",U165,0)&amp;"+e13*"&amp;IF(T165="異族",U165,0)&amp;"+e14*"&amp;IF(T165="バジュラ",U165,0)&amp;"+e15*"&amp;IF(T165="魔動人形",U165,0)&amp;");"</f>
-        <v>document.getElementById('m163').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI165&amp;"').innerHTML = (b1*"&amp;TEXT(J165,0)&amp;"+b2*"&amp;TEXT(K165,0)&amp;"+b0*"&amp;TEXT(L165,0)&amp;") + (s1*"&amp;TEXT(W165,0)&amp;"+s2*"&amp;TEXT(X165,0)&amp;"+s3*"&amp;TEXT(Y165,0)&amp;"+s4*"&amp;TEXT(Z165,0)&amp;"+s5*"&amp;TEXT(AA165,0)&amp;"+s6*"&amp;TEXT(AB165,0)&amp;"+s7*"&amp;TEXT(AC165,0)&amp;"+s0*"&amp;TEXT(AD165,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R165)),S165,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R165)),S165,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R165)),S165,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R165)),S165,S165)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R165)),S165,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R165)),S165,0)&amp;"+e07*"&amp;IF(T165="反撃",U165,0)&amp;"+e08*"&amp;IF(T165="風属性",U165,0)&amp;"+e09*"&amp;IF(T165="闇属性",U165,0)&amp;"+e10*"&amp;IF(T165="単体",U165,0)&amp;"+e11*"&amp;IF(T165="範囲",U165,0)&amp;"+e12*"&amp;IF(T165="人",U165,0)&amp;"+e13*"&amp;IF(T165="異族",U165,0)&amp;"+e14*"&amp;IF(T165="バジュラ",U165,0)&amp;"+e15*"&amp;IF(T165="魔動人形",U165,0)&amp;"+e16*"&amp;IF(T165="下位魔神",U165,0)&amp;");"</f>
+        <v>document.getElementById('m163').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*40+s4*0+s5*0+s6*0+s7*20+s0*40) + (e01*20+e02*0+e03*0+e04*20+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI165" s="35" t="str">
         <f t="shared" si="17"/>
@@ -24483,13 +24554,16 @@
     </row>
     <row r="166" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D166" s="3">
         <v>5</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="F166" s="15" t="s">
         <v>327</v>
@@ -24519,12 +24593,12 @@
       <c r="AF166" s="23"/>
       <c r="AG166" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_IZAYOI_01.png' alt='空駆ける夜狐'&gt;&lt;/td&gt;&lt;td headers='name'&gt;空駆ける夜狐&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+        <v>&lt;tr class='mmt ltd groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_ITSUKI_01.png' alt='甘くない、それも個性'&gt;&lt;/td&gt;&lt;td headers='name'&gt;甘くない、それも個性&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
 Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m164'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH166" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI166&amp;"').innerHTML = (b1*"&amp;TEXT(J166,0)&amp;"+b2*"&amp;TEXT(K166,0)&amp;"+b0*"&amp;TEXT(L166,0)&amp;") + (s1*"&amp;TEXT(W166,0)&amp;"+s2*"&amp;TEXT(X166,0)&amp;"+s3*"&amp;TEXT(Y166,0)&amp;"+s4*"&amp;TEXT(Z166,0)&amp;"+s5*"&amp;TEXT(AA166,0)&amp;"+s6*"&amp;TEXT(AB166,0)&amp;"+s7*"&amp;TEXT(AC166,0)&amp;"+s0*"&amp;TEXT(AD166,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R166)),S166,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R166)),S166,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R166)),S166,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R166)),S166,S166)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R166)),S166,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R166)),S166,0)&amp;"+e07*"&amp;IF(T166="反撃",U166,0)&amp;"+e08*"&amp;IF(T166="風属性",U166,0)&amp;"+e09*"&amp;IF(T166="闇属性",U166,0)&amp;"+e10*"&amp;IF(T166="単体",U166,0)&amp;"+e11*"&amp;IF(T166="範囲",U166,0)&amp;"+e12*"&amp;IF(T166="人",U166,0)&amp;"+e13*"&amp;IF(T166="異族",U166,0)&amp;"+e14*"&amp;IF(T166="バジュラ",U166,0)&amp;"+e15*"&amp;IF(T166="魔動人形",U166,0)&amp;");"</f>
-        <v>document.getElementById('m164').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI166&amp;"').innerHTML = (b1*"&amp;TEXT(J166,0)&amp;"+b2*"&amp;TEXT(K166,0)&amp;"+b0*"&amp;TEXT(L166,0)&amp;") + (s1*"&amp;TEXT(W166,0)&amp;"+s2*"&amp;TEXT(X166,0)&amp;"+s3*"&amp;TEXT(Y166,0)&amp;"+s4*"&amp;TEXT(Z166,0)&amp;"+s5*"&amp;TEXT(AA166,0)&amp;"+s6*"&amp;TEXT(AB166,0)&amp;"+s7*"&amp;TEXT(AC166,0)&amp;"+s0*"&amp;TEXT(AD166,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R166)),S166,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R166)),S166,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R166)),S166,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R166)),S166,S166)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R166)),S166,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R166)),S166,0)&amp;"+e07*"&amp;IF(T166="反撃",U166,0)&amp;"+e08*"&amp;IF(T166="風属性",U166,0)&amp;"+e09*"&amp;IF(T166="闇属性",U166,0)&amp;"+e10*"&amp;IF(T166="単体",U166,0)&amp;"+e11*"&amp;IF(T166="範囲",U166,0)&amp;"+e12*"&amp;IF(T166="人",U166,0)&amp;"+e13*"&amp;IF(T166="異族",U166,0)&amp;"+e14*"&amp;IF(T166="バジュラ",U166,0)&amp;"+e15*"&amp;IF(T166="魔動人形",U166,0)&amp;"+e16*"&amp;IF(T166="下位魔神",U166,0)&amp;");"</f>
+        <v>document.getElementById('m164').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI166" s="35" t="str">
         <f t="shared" si="17"/>
@@ -24534,30 +24608,23 @@
     </row>
     <row r="167" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D167" s="3">
         <v>5</v>
       </c>
-      <c r="E167" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="F167" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="G167" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="G167" s="8"/>
       <c r="H167" s="4">
         <f t="shared" si="20"/>
-        <v>20</v>
-      </c>
-      <c r="I167" s="2">
-        <v>50</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" s="2"/>
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
       <c r="L167" s="2">
@@ -24565,38 +24632,24 @@
         <v>0</v>
       </c>
       <c r="M167" s="2"/>
-      <c r="N167" s="2">
-        <v>20</v>
-      </c>
+      <c r="N167" s="2"/>
       <c r="O167" s="2"/>
       <c r="P167" s="2"/>
       <c r="Q167" s="7"/>
       <c r="U167" s="4"/>
-      <c r="V167" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="W167" s="3">
-        <v>20</v>
-      </c>
-      <c r="AA167" s="3">
-        <v>20</v>
-      </c>
-      <c r="AB167" s="3">
-        <v>20</v>
-      </c>
       <c r="AD167" s="4">
         <f t="shared" si="19"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AF167" s="23"/>
       <c r="AG167" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_KAGURA_01.png' alt='雪解け。故郷にて'&gt;&lt;/td&gt;&lt;td headers='name'&gt;雪解け。故郷にて&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m165'&gt;20&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;20&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;単体耐性+30&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;20&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_IZAYOI_01.png' alt='空駆ける夜狐'&gt;&lt;/td&gt;&lt;td headers='name'&gt;空駆ける夜狐&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m165'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH167" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI167&amp;"').innerHTML = (b1*"&amp;TEXT(J167,0)&amp;"+b2*"&amp;TEXT(K167,0)&amp;"+b0*"&amp;TEXT(L167,0)&amp;") + (s1*"&amp;TEXT(W167,0)&amp;"+s2*"&amp;TEXT(X167,0)&amp;"+s3*"&amp;TEXT(Y167,0)&amp;"+s4*"&amp;TEXT(Z167,0)&amp;"+s5*"&amp;TEXT(AA167,0)&amp;"+s6*"&amp;TEXT(AB167,0)&amp;"+s7*"&amp;TEXT(AC167,0)&amp;"+s0*"&amp;TEXT(AD167,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R167)),S167,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R167)),S167,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R167)),S167,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R167)),S167,S167)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R167)),S167,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R167)),S167,0)&amp;"+e07*"&amp;IF(T167="反撃",U167,0)&amp;"+e08*"&amp;IF(T167="風属性",U167,0)&amp;"+e09*"&amp;IF(T167="闇属性",U167,0)&amp;"+e10*"&amp;IF(T167="単体",U167,0)&amp;"+e11*"&amp;IF(T167="範囲",U167,0)&amp;"+e12*"&amp;IF(T167="人",U167,0)&amp;"+e13*"&amp;IF(T167="異族",U167,0)&amp;"+e14*"&amp;IF(T167="バジュラ",U167,0)&amp;"+e15*"&amp;IF(T167="魔動人形",U167,0)&amp;");"</f>
-        <v>document.getElementById('m165').innerHTML = (b1*0+b2*0+b0*0) + (s1*20+s2*0+s3*0+s4*0+s5*20+s6*20+s7*0+s0*20) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI167&amp;"').innerHTML = (b1*"&amp;TEXT(J167,0)&amp;"+b2*"&amp;TEXT(K167,0)&amp;"+b0*"&amp;TEXT(L167,0)&amp;") + (s1*"&amp;TEXT(W167,0)&amp;"+s2*"&amp;TEXT(X167,0)&amp;"+s3*"&amp;TEXT(Y167,0)&amp;"+s4*"&amp;TEXT(Z167,0)&amp;"+s5*"&amp;TEXT(AA167,0)&amp;"+s6*"&amp;TEXT(AB167,0)&amp;"+s7*"&amp;TEXT(AC167,0)&amp;"+s0*"&amp;TEXT(AD167,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R167)),S167,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R167)),S167,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R167)),S167,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R167)),S167,S167)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R167)),S167,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R167)),S167,0)&amp;"+e07*"&amp;IF(T167="反撃",U167,0)&amp;"+e08*"&amp;IF(T167="風属性",U167,0)&amp;"+e09*"&amp;IF(T167="闇属性",U167,0)&amp;"+e10*"&amp;IF(T167="単体",U167,0)&amp;"+e11*"&amp;IF(T167="範囲",U167,0)&amp;"+e12*"&amp;IF(T167="人",U167,0)&amp;"+e13*"&amp;IF(T167="異族",U167,0)&amp;"+e14*"&amp;IF(T167="バジュラ",U167,0)&amp;"+e15*"&amp;IF(T167="魔動人形",U167,0)&amp;"+e16*"&amp;IF(T167="下位魔神",U167,0)&amp;");"</f>
+        <v>document.getElementById('m165').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI167" s="35" t="str">
         <f t="shared" si="17"/>
@@ -24606,53 +24659,54 @@
     </row>
     <row r="168" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D168" s="3">
         <v>5</v>
       </c>
+      <c r="E168" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="F168" s="15" t="s">
         <v>327</v>
       </c>
       <c r="G168" s="8" t="s">
-        <v>338</v>
+        <v>68</v>
       </c>
       <c r="H168" s="4">
         <f t="shared" si="20"/>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I168" s="2">
-        <v>40</v>
-      </c>
-      <c r="J168" s="2">
-        <v>40</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="J168" s="2"/>
       <c r="K168" s="2"/>
       <c r="L168" s="2">
         <f t="shared" si="18"/>
-        <v>40</v>
-      </c>
-      <c r="M168" s="2">
-        <v>10</v>
-      </c>
-      <c r="N168" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="M168" s="2"/>
+      <c r="N168" s="2">
+        <v>20</v>
+      </c>
       <c r="O168" s="2"/>
       <c r="P168" s="2"/>
       <c r="Q168" s="7"/>
       <c r="U168" s="4"/>
       <c r="V168" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y168" s="3">
+        <v>487</v>
+      </c>
+      <c r="W168" s="3">
         <v>20</v>
       </c>
-      <c r="Z168" s="3">
+      <c r="AA168" s="3">
         <v>20</v>
       </c>
-      <c r="AA168" s="3">
+      <c r="AB168" s="3">
         <v>20</v>
       </c>
       <c r="AD168" s="4">
@@ -24662,12 +24716,12 @@
       <c r="AF168" s="23"/>
       <c r="AG168" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_KURT.png' alt='閃光、交わりし瞬間'&gt;&lt;/td&gt;&lt;td headers='name'&gt;閃光、交わりし瞬間&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m166'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;40&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;10&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+5&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;20&lt;/td&gt;&lt;td headers='sinD'&gt;20&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_KAGURA_01.png' alt='雪解け。故郷にて'&gt;&lt;/td&gt;&lt;td headers='name'&gt;雪解け。故郷にて&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m166'&gt;20&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;20&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;単体耐性+30&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;20&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH168" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI168&amp;"').innerHTML = (b1*"&amp;TEXT(J168,0)&amp;"+b2*"&amp;TEXT(K168,0)&amp;"+b0*"&amp;TEXT(L168,0)&amp;") + (s1*"&amp;TEXT(W168,0)&amp;"+s2*"&amp;TEXT(X168,0)&amp;"+s3*"&amp;TEXT(Y168,0)&amp;"+s4*"&amp;TEXT(Z168,0)&amp;"+s5*"&amp;TEXT(AA168,0)&amp;"+s6*"&amp;TEXT(AB168,0)&amp;"+s7*"&amp;TEXT(AC168,0)&amp;"+s0*"&amp;TEXT(AD168,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R168)),S168,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R168)),S168,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R168)),S168,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R168)),S168,S168)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R168)),S168,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R168)),S168,0)&amp;"+e07*"&amp;IF(T168="反撃",U168,0)&amp;"+e08*"&amp;IF(T168="風属性",U168,0)&amp;"+e09*"&amp;IF(T168="闇属性",U168,0)&amp;"+e10*"&amp;IF(T168="単体",U168,0)&amp;"+e11*"&amp;IF(T168="範囲",U168,0)&amp;"+e12*"&amp;IF(T168="人",U168,0)&amp;"+e13*"&amp;IF(T168="異族",U168,0)&amp;"+e14*"&amp;IF(T168="バジュラ",U168,0)&amp;"+e15*"&amp;IF(T168="魔動人形",U168,0)&amp;");"</f>
-        <v>document.getElementById('m166').innerHTML = (b1*40+b2*0+b0*40) + (s1*0+s2*0+s3*20+s4*20+s5*20+s6*0+s7*0+s0*20) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI168&amp;"').innerHTML = (b1*"&amp;TEXT(J168,0)&amp;"+b2*"&amp;TEXT(K168,0)&amp;"+b0*"&amp;TEXT(L168,0)&amp;") + (s1*"&amp;TEXT(W168,0)&amp;"+s2*"&amp;TEXT(X168,0)&amp;"+s3*"&amp;TEXT(Y168,0)&amp;"+s4*"&amp;TEXT(Z168,0)&amp;"+s5*"&amp;TEXT(AA168,0)&amp;"+s6*"&amp;TEXT(AB168,0)&amp;"+s7*"&amp;TEXT(AC168,0)&amp;"+s0*"&amp;TEXT(AD168,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R168)),S168,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R168)),S168,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R168)),S168,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R168)),S168,S168)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R168)),S168,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R168)),S168,0)&amp;"+e07*"&amp;IF(T168="反撃",U168,0)&amp;"+e08*"&amp;IF(T168="風属性",U168,0)&amp;"+e09*"&amp;IF(T168="闇属性",U168,0)&amp;"+e10*"&amp;IF(T168="単体",U168,0)&amp;"+e11*"&amp;IF(T168="範囲",U168,0)&amp;"+e12*"&amp;IF(T168="人",U168,0)&amp;"+e13*"&amp;IF(T168="異族",U168,0)&amp;"+e14*"&amp;IF(T168="バジュラ",U168,0)&amp;"+e15*"&amp;IF(T168="魔動人形",U168,0)&amp;"+e16*"&amp;IF(T168="下位魔神",U168,0)&amp;");"</f>
+        <v>document.getElementById('m166').innerHTML = (b1*0+b2*0+b0*0) + (s1*20+s2*0+s3*0+s4*0+s5*20+s6*20+s7*0+s0*20) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI168" s="35" t="str">
         <f t="shared" si="17"/>
@@ -24677,10 +24731,10 @@
     </row>
     <row r="169" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D169" s="3">
         <v>5</v>
@@ -24693,45 +24747,52 @@
       </c>
       <c r="H169" s="4">
         <f t="shared" si="20"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I169" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J169" s="2">
-        <v>20</v>
-      </c>
-      <c r="K169" s="2">
-        <v>20</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K169" s="2"/>
       <c r="L169" s="2">
         <f t="shared" si="18"/>
-        <v>20</v>
-      </c>
-      <c r="M169" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="M169" s="2">
+        <v>10</v>
+      </c>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
-      <c r="P169" s="2">
-        <v>10</v>
-      </c>
+      <c r="P169" s="2"/>
       <c r="Q169" s="7"/>
       <c r="U169" s="4"/>
-      <c r="AB169" s="3">
-        <v>60</v>
+      <c r="V169" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y169" s="3">
+        <v>20</v>
+      </c>
+      <c r="Z169" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA169" s="3">
+        <v>20</v>
       </c>
       <c r="AD169" s="4">
         <f t="shared" si="19"/>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AF169" s="23"/>
       <c r="AG169" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_KUZA_01.png' alt='誓いの刃'&gt;&lt;/td&gt;&lt;td headers='name'&gt;誓いの刃&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m167'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;20&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;60&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_KURT.png' alt='閃光、交わりし瞬間'&gt;&lt;/td&gt;&lt;td headers='name'&gt;閃光、交わりし瞬間&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m167'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;40&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;10&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+5&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;20&lt;/td&gt;&lt;td headers='sinD'&gt;20&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH169" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI169&amp;"').innerHTML = (b1*"&amp;TEXT(J169,0)&amp;"+b2*"&amp;TEXT(K169,0)&amp;"+b0*"&amp;TEXT(L169,0)&amp;") + (s1*"&amp;TEXT(W169,0)&amp;"+s2*"&amp;TEXT(X169,0)&amp;"+s3*"&amp;TEXT(Y169,0)&amp;"+s4*"&amp;TEXT(Z169,0)&amp;"+s5*"&amp;TEXT(AA169,0)&amp;"+s6*"&amp;TEXT(AB169,0)&amp;"+s7*"&amp;TEXT(AC169,0)&amp;"+s0*"&amp;TEXT(AD169,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R169)),S169,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R169)),S169,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R169)),S169,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R169)),S169,S169)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R169)),S169,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R169)),S169,0)&amp;"+e07*"&amp;IF(T169="反撃",U169,0)&amp;"+e08*"&amp;IF(T169="風属性",U169,0)&amp;"+e09*"&amp;IF(T169="闇属性",U169,0)&amp;"+e10*"&amp;IF(T169="単体",U169,0)&amp;"+e11*"&amp;IF(T169="範囲",U169,0)&amp;"+e12*"&amp;IF(T169="人",U169,0)&amp;"+e13*"&amp;IF(T169="異族",U169,0)&amp;"+e14*"&amp;IF(T169="バジュラ",U169,0)&amp;"+e15*"&amp;IF(T169="魔動人形",U169,0)&amp;");"</f>
-        <v>document.getElementById('m167').innerHTML = (b1*20+b2*20+b0*20) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*60+s7*0+s0*60) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI169&amp;"').innerHTML = (b1*"&amp;TEXT(J169,0)&amp;"+b2*"&amp;TEXT(K169,0)&amp;"+b0*"&amp;TEXT(L169,0)&amp;") + (s1*"&amp;TEXT(W169,0)&amp;"+s2*"&amp;TEXT(X169,0)&amp;"+s3*"&amp;TEXT(Y169,0)&amp;"+s4*"&amp;TEXT(Z169,0)&amp;"+s5*"&amp;TEXT(AA169,0)&amp;"+s6*"&amp;TEXT(AB169,0)&amp;"+s7*"&amp;TEXT(AC169,0)&amp;"+s0*"&amp;TEXT(AD169,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R169)),S169,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R169)),S169,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R169)),S169,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R169)),S169,S169)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R169)),S169,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R169)),S169,0)&amp;"+e07*"&amp;IF(T169="反撃",U169,0)&amp;"+e08*"&amp;IF(T169="風属性",U169,0)&amp;"+e09*"&amp;IF(T169="闇属性",U169,0)&amp;"+e10*"&amp;IF(T169="単体",U169,0)&amp;"+e11*"&amp;IF(T169="範囲",U169,0)&amp;"+e12*"&amp;IF(T169="人",U169,0)&amp;"+e13*"&amp;IF(T169="異族",U169,0)&amp;"+e14*"&amp;IF(T169="バジュラ",U169,0)&amp;"+e15*"&amp;IF(T169="魔動人形",U169,0)&amp;"+e16*"&amp;IF(T169="下位魔神",U169,0)&amp;");"</f>
+        <v>document.getElementById('m167').innerHTML = (b1*40+b2*0+b0*40) + (s1*0+s2*0+s3*20+s4*20+s5*20+s6*0+s7*0+s0*20) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI169" s="35" t="str">
         <f t="shared" si="17"/>
@@ -24741,17 +24802,14 @@
     </row>
     <row r="170" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D170" s="3">
         <v>5</v>
       </c>
-      <c r="E170" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="F170" s="15" t="s">
         <v>327</v>
       </c>
@@ -24760,48 +24818,45 @@
       </c>
       <c r="H170" s="4">
         <f t="shared" si="20"/>
-        <v>100</v>
-      </c>
-      <c r="I170" s="2"/>
-      <c r="J170" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="I170" s="2">
+        <v>50</v>
+      </c>
+      <c r="J170" s="2">
+        <v>20</v>
+      </c>
       <c r="K170" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L170" s="2">
         <f t="shared" si="18"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
-      <c r="P170" s="2"/>
+      <c r="P170" s="2">
+        <v>10</v>
+      </c>
       <c r="Q170" s="7"/>
-      <c r="R170" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="S170" s="3">
-        <v>30</v>
-      </c>
       <c r="U170" s="4"/>
-      <c r="Y170" s="3">
-        <v>30</v>
-      </c>
       <c r="AB170" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AD170" s="4">
         <f t="shared" si="19"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AF170" s="23"/>
       <c r="AG170" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_LEYDOW_01.png' alt='古の装い'&gt;&lt;/td&gt;&lt;td headers='name'&gt;古の装い&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m168'&gt;100&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;40&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;射撃&amp;魔法&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;30&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_KUZA_01.png' alt='誓いの刃'&gt;&lt;/td&gt;&lt;td headers='name'&gt;誓いの刃&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m168'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;20&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;60&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH170" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI170&amp;"').innerHTML = (b1*"&amp;TEXT(J170,0)&amp;"+b2*"&amp;TEXT(K170,0)&amp;"+b0*"&amp;TEXT(L170,0)&amp;") + (s1*"&amp;TEXT(W170,0)&amp;"+s2*"&amp;TEXT(X170,0)&amp;"+s3*"&amp;TEXT(Y170,0)&amp;"+s4*"&amp;TEXT(Z170,0)&amp;"+s5*"&amp;TEXT(AA170,0)&amp;"+s6*"&amp;TEXT(AB170,0)&amp;"+s7*"&amp;TEXT(AC170,0)&amp;"+s0*"&amp;TEXT(AD170,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R170)),S170,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R170)),S170,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R170)),S170,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R170)),S170,S170)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R170)),S170,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R170)),S170,0)&amp;"+e07*"&amp;IF(T170="反撃",U170,0)&amp;"+e08*"&amp;IF(T170="風属性",U170,0)&amp;"+e09*"&amp;IF(T170="闇属性",U170,0)&amp;"+e10*"&amp;IF(T170="単体",U170,0)&amp;"+e11*"&amp;IF(T170="範囲",U170,0)&amp;"+e12*"&amp;IF(T170="人",U170,0)&amp;"+e13*"&amp;IF(T170="異族",U170,0)&amp;"+e14*"&amp;IF(T170="バジュラ",U170,0)&amp;"+e15*"&amp;IF(T170="魔動人形",U170,0)&amp;");"</f>
-        <v>document.getElementById('m168').innerHTML = (b1*0+b2*40+b0*40) + (s1*0+s2*0+s3*30+s4*0+s5*0+s6*30+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*30+e05*30+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI170&amp;"').innerHTML = (b1*"&amp;TEXT(J170,0)&amp;"+b2*"&amp;TEXT(K170,0)&amp;"+b0*"&amp;TEXT(L170,0)&amp;") + (s1*"&amp;TEXT(W170,0)&amp;"+s2*"&amp;TEXT(X170,0)&amp;"+s3*"&amp;TEXT(Y170,0)&amp;"+s4*"&amp;TEXT(Z170,0)&amp;"+s5*"&amp;TEXT(AA170,0)&amp;"+s6*"&amp;TEXT(AB170,0)&amp;"+s7*"&amp;TEXT(AC170,0)&amp;"+s0*"&amp;TEXT(AD170,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R170)),S170,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R170)),S170,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R170)),S170,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R170)),S170,S170)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R170)),S170,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R170)),S170,0)&amp;"+e07*"&amp;IF(T170="反撃",U170,0)&amp;"+e08*"&amp;IF(T170="風属性",U170,0)&amp;"+e09*"&amp;IF(T170="闇属性",U170,0)&amp;"+e10*"&amp;IF(T170="単体",U170,0)&amp;"+e11*"&amp;IF(T170="範囲",U170,0)&amp;"+e12*"&amp;IF(T170="人",U170,0)&amp;"+e13*"&amp;IF(T170="異族",U170,0)&amp;"+e14*"&amp;IF(T170="バジュラ",U170,0)&amp;"+e15*"&amp;IF(T170="魔動人形",U170,0)&amp;"+e16*"&amp;IF(T170="下位魔神",U170,0)&amp;");"</f>
+        <v>document.getElementById('m168').innerHTML = (b1*20+b2*20+b0*20) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*60+s7*0+s0*60) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI170" s="35" t="str">
         <f t="shared" si="17"/>
@@ -24811,10 +24866,10 @@
     </row>
     <row r="171" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>534</v>
+        <v>341</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>540</v>
+        <v>342</v>
       </c>
       <c r="D171" s="3">
         <v>5</v>
@@ -24830,52 +24885,48 @@
       </c>
       <c r="H171" s="4">
         <f t="shared" si="20"/>
-        <v>80</v>
-      </c>
-      <c r="I171" s="2">
+        <v>100</v>
+      </c>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2"/>
+      <c r="K171" s="2">
         <v>40</v>
       </c>
-      <c r="J171" s="2"/>
-      <c r="K171" s="2"/>
       <c r="L171" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
       <c r="P171" s="2"/>
       <c r="Q171" s="7"/>
-      <c r="R171" s="3" t="s">
-        <v>14</v>
+      <c r="R171" s="5" t="s">
+        <v>504</v>
       </c>
       <c r="S171" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="U171" s="4"/>
-      <c r="V171" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="AA171" s="3">
-        <v>20</v>
+      <c r="Y171" s="3">
+        <v>30</v>
       </c>
       <c r="AB171" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AD171" s="4">
         <f t="shared" si="19"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AF171" s="23"/>
       <c r="AG171" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_REIMEI_01.png' alt='甘き血刃'&gt;&lt;/td&gt;&lt;td headers='name'&gt;甘き血刃&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m169'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;斬撃耐性+10,
-命中率+5&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;40&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_LEYDOW_01.png' alt='古の装い'&gt;&lt;/td&gt;&lt;td headers='name'&gt;古の装い&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m169'&gt;100&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;40&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;射撃&amp;魔法&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;30&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH171" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI171&amp;"').innerHTML = (b1*"&amp;TEXT(J171,0)&amp;"+b2*"&amp;TEXT(K171,0)&amp;"+b0*"&amp;TEXT(L171,0)&amp;") + (s1*"&amp;TEXT(W171,0)&amp;"+s2*"&amp;TEXT(X171,0)&amp;"+s3*"&amp;TEXT(Y171,0)&amp;"+s4*"&amp;TEXT(Z171,0)&amp;"+s5*"&amp;TEXT(AA171,0)&amp;"+s6*"&amp;TEXT(AB171,0)&amp;"+s7*"&amp;TEXT(AC171,0)&amp;"+s0*"&amp;TEXT(AD171,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R171)),S171,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R171)),S171,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R171)),S171,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R171)),S171,S171)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R171)),S171,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R171)),S171,0)&amp;"+e07*"&amp;IF(T171="反撃",U171,0)&amp;"+e08*"&amp;IF(T171="風属性",U171,0)&amp;"+e09*"&amp;IF(T171="闇属性",U171,0)&amp;"+e10*"&amp;IF(T171="単体",U171,0)&amp;"+e11*"&amp;IF(T171="範囲",U171,0)&amp;"+e12*"&amp;IF(T171="人",U171,0)&amp;"+e13*"&amp;IF(T171="異族",U171,0)&amp;"+e14*"&amp;IF(T171="バジュラ",U171,0)&amp;"+e15*"&amp;IF(T171="魔動人形",U171,0)&amp;");"</f>
-        <v>document.getElementById('m169').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*20+s6*40+s7*0+s0*40) + (e01*40+e02*0+e03*0+e04*40+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI171&amp;"').innerHTML = (b1*"&amp;TEXT(J171,0)&amp;"+b2*"&amp;TEXT(K171,0)&amp;"+b0*"&amp;TEXT(L171,0)&amp;") + (s1*"&amp;TEXT(W171,0)&amp;"+s2*"&amp;TEXT(X171,0)&amp;"+s3*"&amp;TEXT(Y171,0)&amp;"+s4*"&amp;TEXT(Z171,0)&amp;"+s5*"&amp;TEXT(AA171,0)&amp;"+s6*"&amp;TEXT(AB171,0)&amp;"+s7*"&amp;TEXT(AC171,0)&amp;"+s0*"&amp;TEXT(AD171,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R171)),S171,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R171)),S171,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R171)),S171,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R171)),S171,S171)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R171)),S171,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R171)),S171,0)&amp;"+e07*"&amp;IF(T171="反撃",U171,0)&amp;"+e08*"&amp;IF(T171="風属性",U171,0)&amp;"+e09*"&amp;IF(T171="闇属性",U171,0)&amp;"+e10*"&amp;IF(T171="単体",U171,0)&amp;"+e11*"&amp;IF(T171="範囲",U171,0)&amp;"+e12*"&amp;IF(T171="人",U171,0)&amp;"+e13*"&amp;IF(T171="異族",U171,0)&amp;"+e14*"&amp;IF(T171="バジュラ",U171,0)&amp;"+e15*"&amp;IF(T171="魔動人形",U171,0)&amp;"+e16*"&amp;IF(T171="下位魔神",U171,0)&amp;");"</f>
+        <v>document.getElementById('m169').innerHTML = (b1*0+b2*40+b0*40) + (s1*0+s2*0+s3*30+s4*0+s5*0+s6*30+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*30+e05*30+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI171" s="35" t="str">
         <f t="shared" si="17"/>
@@ -24885,14 +24936,17 @@
     </row>
     <row r="172" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>343</v>
+        <v>534</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>344</v>
+        <v>540</v>
       </c>
       <c r="D172" s="3">
         <v>5</v>
       </c>
+      <c r="E172" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="F172" s="15" t="s">
         <v>327</v>
       </c>
@@ -24901,16 +24955,16 @@
       </c>
       <c r="H172" s="4">
         <f t="shared" si="20"/>
-        <v>130</v>
-      </c>
-      <c r="I172" s="2"/>
-      <c r="J172" s="2">
-        <v>30</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="I172" s="2">
+        <v>40</v>
+      </c>
+      <c r="J172" s="2"/>
       <c r="K172" s="2"/>
       <c r="L172" s="2">
         <f t="shared" si="18"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -24924,25 +24978,29 @@
         <v>40</v>
       </c>
       <c r="U172" s="4"/>
-      <c r="V172" s="3" t="s">
-        <v>485</v>
+      <c r="V172" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="AA172" s="3">
+        <v>20</v>
       </c>
       <c r="AB172" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AD172" s="4">
         <f t="shared" si="19"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AF172" s="23"/>
       <c r="AG172" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_SETSUNA_01.png' alt='私のすべて、灰に還る'&gt;&lt;/td&gt;&lt;td headers='name'&gt;私のすべて、灰に還る&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m170'&gt;130&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;暴擊率+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;60&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_REIMEI_01.png' alt='甘き血刃'&gt;&lt;/td&gt;&lt;td headers='name'&gt;甘き血刃&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m170'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;斬撃耐性+10,
+命中率+5&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;40&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH172" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI172&amp;"').innerHTML = (b1*"&amp;TEXT(J172,0)&amp;"+b2*"&amp;TEXT(K172,0)&amp;"+b0*"&amp;TEXT(L172,0)&amp;") + (s1*"&amp;TEXT(W172,0)&amp;"+s2*"&amp;TEXT(X172,0)&amp;"+s3*"&amp;TEXT(Y172,0)&amp;"+s4*"&amp;TEXT(Z172,0)&amp;"+s5*"&amp;TEXT(AA172,0)&amp;"+s6*"&amp;TEXT(AB172,0)&amp;"+s7*"&amp;TEXT(AC172,0)&amp;"+s0*"&amp;TEXT(AD172,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R172)),S172,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R172)),S172,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R172)),S172,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R172)),S172,S172)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R172)),S172,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R172)),S172,0)&amp;"+e07*"&amp;IF(T172="反撃",U172,0)&amp;"+e08*"&amp;IF(T172="風属性",U172,0)&amp;"+e09*"&amp;IF(T172="闇属性",U172,0)&amp;"+e10*"&amp;IF(T172="単体",U172,0)&amp;"+e11*"&amp;IF(T172="範囲",U172,0)&amp;"+e12*"&amp;IF(T172="人",U172,0)&amp;"+e13*"&amp;IF(T172="異族",U172,0)&amp;"+e14*"&amp;IF(T172="バジュラ",U172,0)&amp;"+e15*"&amp;IF(T172="魔動人形",U172,0)&amp;");"</f>
-        <v>document.getElementById('m170').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*60+s7*0+s0*60) + (e01*40+e02*0+e03*0+e04*40+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI172&amp;"').innerHTML = (b1*"&amp;TEXT(J172,0)&amp;"+b2*"&amp;TEXT(K172,0)&amp;"+b0*"&amp;TEXT(L172,0)&amp;") + (s1*"&amp;TEXT(W172,0)&amp;"+s2*"&amp;TEXT(X172,0)&amp;"+s3*"&amp;TEXT(Y172,0)&amp;"+s4*"&amp;TEXT(Z172,0)&amp;"+s5*"&amp;TEXT(AA172,0)&amp;"+s6*"&amp;TEXT(AB172,0)&amp;"+s7*"&amp;TEXT(AC172,0)&amp;"+s0*"&amp;TEXT(AD172,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R172)),S172,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R172)),S172,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R172)),S172,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R172)),S172,S172)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R172)),S172,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R172)),S172,0)&amp;"+e07*"&amp;IF(T172="反撃",U172,0)&amp;"+e08*"&amp;IF(T172="風属性",U172,0)&amp;"+e09*"&amp;IF(T172="闇属性",U172,0)&amp;"+e10*"&amp;IF(T172="単体",U172,0)&amp;"+e11*"&amp;IF(T172="範囲",U172,0)&amp;"+e12*"&amp;IF(T172="人",U172,0)&amp;"+e13*"&amp;IF(T172="異族",U172,0)&amp;"+e14*"&amp;IF(T172="バジュラ",U172,0)&amp;"+e15*"&amp;IF(T172="魔動人形",U172,0)&amp;"+e16*"&amp;IF(T172="下位魔神",U172,0)&amp;");"</f>
+        <v>document.getElementById('m170').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*20+s6*40+s7*0+s0*40) + (e01*40+e02*0+e03*0+e04*40+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI172" s="35" t="str">
         <f t="shared" si="17"/>
@@ -24952,17 +25010,14 @@
     </row>
     <row r="173" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D173" s="3">
         <v>5</v>
       </c>
-      <c r="E173" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="F173" s="15" t="s">
         <v>327</v>
       </c>
@@ -24971,18 +25026,16 @@
       </c>
       <c r="H173" s="4">
         <f t="shared" si="20"/>
-        <v>90</v>
-      </c>
-      <c r="I173" s="2">
-        <v>40</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="I173" s="2"/>
       <c r="J173" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="2">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
@@ -24993,33 +25046,28 @@
         <v>14</v>
       </c>
       <c r="S173" s="3">
-        <v>30</v>
-      </c>
-      <c r="T173" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="U173" s="4">
-        <v>10</v>
-      </c>
-      <c r="W173" s="3">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="U173" s="4"/>
+      <c r="V173" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="AB173" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AD173" s="4">
         <f t="shared" si="19"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AF173" s="23"/>
       <c r="AG173" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_SETSUNA_02.png' alt='懐旧は、あたたかく'&gt;&lt;/td&gt;&lt;td headers='name'&gt;懐旧は、あたたかく&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m171'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;範囲&lt;/td&gt;&lt;td headers='sp.bonus'&gt;10&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_SETSUNA_01.png' alt='私のすべて、灰に還る'&gt;&lt;/td&gt;&lt;td headers='name'&gt;私のすべて、灰に還る&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m171'&gt;130&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;暴擊率+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;60&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH173" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI173&amp;"').innerHTML = (b1*"&amp;TEXT(J173,0)&amp;"+b2*"&amp;TEXT(K173,0)&amp;"+b0*"&amp;TEXT(L173,0)&amp;") + (s1*"&amp;TEXT(W173,0)&amp;"+s2*"&amp;TEXT(X173,0)&amp;"+s3*"&amp;TEXT(Y173,0)&amp;"+s4*"&amp;TEXT(Z173,0)&amp;"+s5*"&amp;TEXT(AA173,0)&amp;"+s6*"&amp;TEXT(AB173,0)&amp;"+s7*"&amp;TEXT(AC173,0)&amp;"+s0*"&amp;TEXT(AD173,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R173)),S173,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R173)),S173,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R173)),S173,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R173)),S173,S173)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R173)),S173,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R173)),S173,0)&amp;"+e07*"&amp;IF(T173="反撃",U173,0)&amp;"+e08*"&amp;IF(T173="風属性",U173,0)&amp;"+e09*"&amp;IF(T173="闇属性",U173,0)&amp;"+e10*"&amp;IF(T173="単体",U173,0)&amp;"+e11*"&amp;IF(T173="範囲",U173,0)&amp;"+e12*"&amp;IF(T173="人",U173,0)&amp;"+e13*"&amp;IF(T173="異族",U173,0)&amp;"+e14*"&amp;IF(T173="バジュラ",U173,0)&amp;"+e15*"&amp;IF(T173="魔動人形",U173,0)&amp;");"</f>
-        <v>document.getElementById('m171').innerHTML = (b1*20+b2*0+b0*20) + (s1*30+s2*0+s3*0+s4*0+s5*0+s6*30+s7*0+s0*30) + (e01*30+e02*0+e03*0+e04*30+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*10+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI173&amp;"').innerHTML = (b1*"&amp;TEXT(J173,0)&amp;"+b2*"&amp;TEXT(K173,0)&amp;"+b0*"&amp;TEXT(L173,0)&amp;") + (s1*"&amp;TEXT(W173,0)&amp;"+s2*"&amp;TEXT(X173,0)&amp;"+s3*"&amp;TEXT(Y173,0)&amp;"+s4*"&amp;TEXT(Z173,0)&amp;"+s5*"&amp;TEXT(AA173,0)&amp;"+s6*"&amp;TEXT(AB173,0)&amp;"+s7*"&amp;TEXT(AC173,0)&amp;"+s0*"&amp;TEXT(AD173,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R173)),S173,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R173)),S173,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R173)),S173,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R173)),S173,S173)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R173)),S173,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R173)),S173,0)&amp;"+e07*"&amp;IF(T173="反撃",U173,0)&amp;"+e08*"&amp;IF(T173="風属性",U173,0)&amp;"+e09*"&amp;IF(T173="闇属性",U173,0)&amp;"+e10*"&amp;IF(T173="単体",U173,0)&amp;"+e11*"&amp;IF(T173="範囲",U173,0)&amp;"+e12*"&amp;IF(T173="人",U173,0)&amp;"+e13*"&amp;IF(T173="異族",U173,0)&amp;"+e14*"&amp;IF(T173="バジュラ",U173,0)&amp;"+e15*"&amp;IF(T173="魔動人形",U173,0)&amp;"+e16*"&amp;IF(T173="下位魔神",U173,0)&amp;");"</f>
+        <v>document.getElementById('m171').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*60+s7*0+s0*60) + (e01*40+e02*0+e03*0+e04*40+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI173" s="35" t="str">
         <f t="shared" si="17"/>
@@ -25029,16 +25077,16 @@
     </row>
     <row r="174" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D174" s="3">
         <v>5</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F174" s="15" t="s">
         <v>327</v>
@@ -25048,16 +25096,18 @@
       </c>
       <c r="H174" s="4">
         <f t="shared" si="20"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="I174" s="2">
-        <v>30</v>
-      </c>
-      <c r="J174" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="J174" s="2">
+        <v>20</v>
+      </c>
       <c r="K174" s="2"/>
       <c r="L174" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
@@ -25070,7 +25120,15 @@
       <c r="S174" s="3">
         <v>30</v>
       </c>
-      <c r="U174" s="4"/>
+      <c r="T174" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U174" s="4">
+        <v>10</v>
+      </c>
+      <c r="W174" s="3">
+        <v>30</v>
+      </c>
       <c r="AB174" s="3">
         <v>30</v>
       </c>
@@ -25081,12 +25139,12 @@
       <c r="AF174" s="23"/>
       <c r="AG174" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ev'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_SETSUNA_03.png' alt='砂塵、ひと雫の笑み'&gt;&lt;/td&gt;&lt;td headers='name'&gt;砂塵、ひと雫の笑み&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m172'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_SETSUNA_02.png' alt='懐旧は、あたたかく'&gt;&lt;/td&gt;&lt;td headers='name'&gt;懐旧は、あたたかく&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m172'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;範囲&lt;/td&gt;&lt;td headers='sp.bonus'&gt;10&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH174" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI174&amp;"').innerHTML = (b1*"&amp;TEXT(J174,0)&amp;"+b2*"&amp;TEXT(K174,0)&amp;"+b0*"&amp;TEXT(L174,0)&amp;") + (s1*"&amp;TEXT(W174,0)&amp;"+s2*"&amp;TEXT(X174,0)&amp;"+s3*"&amp;TEXT(Y174,0)&amp;"+s4*"&amp;TEXT(Z174,0)&amp;"+s5*"&amp;TEXT(AA174,0)&amp;"+s6*"&amp;TEXT(AB174,0)&amp;"+s7*"&amp;TEXT(AC174,0)&amp;"+s0*"&amp;TEXT(AD174,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R174)),S174,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R174)),S174,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R174)),S174,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R174)),S174,S174)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R174)),S174,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R174)),S174,0)&amp;"+e07*"&amp;IF(T174="反撃",U174,0)&amp;"+e08*"&amp;IF(T174="風属性",U174,0)&amp;"+e09*"&amp;IF(T174="闇属性",U174,0)&amp;"+e10*"&amp;IF(T174="単体",U174,0)&amp;"+e11*"&amp;IF(T174="範囲",U174,0)&amp;"+e12*"&amp;IF(T174="人",U174,0)&amp;"+e13*"&amp;IF(T174="異族",U174,0)&amp;"+e14*"&amp;IF(T174="バジュラ",U174,0)&amp;"+e15*"&amp;IF(T174="魔動人形",U174,0)&amp;");"</f>
-        <v>document.getElementById('m172').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*30+s7*0+s0*30) + (e01*30+e02*0+e03*0+e04*30+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI174&amp;"').innerHTML = (b1*"&amp;TEXT(J174,0)&amp;"+b2*"&amp;TEXT(K174,0)&amp;"+b0*"&amp;TEXT(L174,0)&amp;") + (s1*"&amp;TEXT(W174,0)&amp;"+s2*"&amp;TEXT(X174,0)&amp;"+s3*"&amp;TEXT(Y174,0)&amp;"+s4*"&amp;TEXT(Z174,0)&amp;"+s5*"&amp;TEXT(AA174,0)&amp;"+s6*"&amp;TEXT(AB174,0)&amp;"+s7*"&amp;TEXT(AC174,0)&amp;"+s0*"&amp;TEXT(AD174,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R174)),S174,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R174)),S174,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R174)),S174,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R174)),S174,S174)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R174)),S174,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R174)),S174,0)&amp;"+e07*"&amp;IF(T174="反撃",U174,0)&amp;"+e08*"&amp;IF(T174="風属性",U174,0)&amp;"+e09*"&amp;IF(T174="闇属性",U174,0)&amp;"+e10*"&amp;IF(T174="単体",U174,0)&amp;"+e11*"&amp;IF(T174="範囲",U174,0)&amp;"+e12*"&amp;IF(T174="人",U174,0)&amp;"+e13*"&amp;IF(T174="異族",U174,0)&amp;"+e14*"&amp;IF(T174="バジュラ",U174,0)&amp;"+e15*"&amp;IF(T174="魔動人形",U174,0)&amp;"+e16*"&amp;IF(T174="下位魔神",U174,0)&amp;");"</f>
+        <v>document.getElementById('m172').innerHTML = (b1*20+b2*0+b0*20) + (s1*30+s2*0+s3*0+s4*0+s5*0+s6*30+s7*0+s0*30) + (e01*30+e02*0+e03*0+e04*30+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*10+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI174" s="35" t="str">
         <f t="shared" si="17"/>
@@ -25096,10 +25154,10 @@
     </row>
     <row r="175" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D175" s="3">
         <v>5</v>
@@ -25111,22 +25169,20 @@
         <v>327</v>
       </c>
       <c r="G175" s="8" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="H175" s="4">
         <f t="shared" si="20"/>
         <v>60</v>
       </c>
       <c r="I175" s="2">
-        <v>20</v>
-      </c>
-      <c r="J175" s="2">
         <v>30</v>
       </c>
+      <c r="J175" s="2"/>
       <c r="K175" s="2"/>
       <c r="L175" s="2">
         <f t="shared" si="18"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
@@ -25137,31 +25193,25 @@
         <v>14</v>
       </c>
       <c r="S175" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="U175" s="4"/>
-      <c r="W175" s="3">
-        <v>10</v>
-      </c>
-      <c r="X175" s="3">
-        <v>10</v>
-      </c>
       <c r="AB175" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AD175" s="4">
         <f t="shared" si="19"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AF175" s="23"/>
       <c r="AG175" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ev'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_SUZUKA_01.png' alt='調理場、その初陣は'&gt;&lt;/td&gt;&lt;td headers='name'&gt;調理場、その初陣は&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m173'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;10&lt;/td&gt;&lt;td headers='sinB'&gt;10&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;10&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='mmt ev'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_SETSUNA_03.png' alt='砂塵、ひと雫の笑み'&gt;&lt;/td&gt;&lt;td headers='name'&gt;砂塵、ひと雫の笑み&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m173'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH175" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI175&amp;"').innerHTML = (b1*"&amp;TEXT(J175,0)&amp;"+b2*"&amp;TEXT(K175,0)&amp;"+b0*"&amp;TEXT(L175,0)&amp;") + (s1*"&amp;TEXT(W175,0)&amp;"+s2*"&amp;TEXT(X175,0)&amp;"+s3*"&amp;TEXT(Y175,0)&amp;"+s4*"&amp;TEXT(Z175,0)&amp;"+s5*"&amp;TEXT(AA175,0)&amp;"+s6*"&amp;TEXT(AB175,0)&amp;"+s7*"&amp;TEXT(AC175,0)&amp;"+s0*"&amp;TEXT(AD175,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R175)),S175,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R175)),S175,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R175)),S175,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R175)),S175,S175)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R175)),S175,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R175)),S175,0)&amp;"+e07*"&amp;IF(T175="反撃",U175,0)&amp;"+e08*"&amp;IF(T175="風属性",U175,0)&amp;"+e09*"&amp;IF(T175="闇属性",U175,0)&amp;"+e10*"&amp;IF(T175="単体",U175,0)&amp;"+e11*"&amp;IF(T175="範囲",U175,0)&amp;"+e12*"&amp;IF(T175="人",U175,0)&amp;"+e13*"&amp;IF(T175="異族",U175,0)&amp;"+e14*"&amp;IF(T175="バジュラ",U175,0)&amp;"+e15*"&amp;IF(T175="魔動人形",U175,0)&amp;");"</f>
-        <v>document.getElementById('m173').innerHTML = (b1*30+b2*0+b0*30) + (s1*10+s2*10+s3*0+s4*0+s5*0+s6*10+s7*0+s0*10) + (e01*20+e02*0+e03*0+e04*20+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI175&amp;"').innerHTML = (b1*"&amp;TEXT(J175,0)&amp;"+b2*"&amp;TEXT(K175,0)&amp;"+b0*"&amp;TEXT(L175,0)&amp;") + (s1*"&amp;TEXT(W175,0)&amp;"+s2*"&amp;TEXT(X175,0)&amp;"+s3*"&amp;TEXT(Y175,0)&amp;"+s4*"&amp;TEXT(Z175,0)&amp;"+s5*"&amp;TEXT(AA175,0)&amp;"+s6*"&amp;TEXT(AB175,0)&amp;"+s7*"&amp;TEXT(AC175,0)&amp;"+s0*"&amp;TEXT(AD175,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R175)),S175,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R175)),S175,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R175)),S175,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R175)),S175,S175)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R175)),S175,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R175)),S175,0)&amp;"+e07*"&amp;IF(T175="反撃",U175,0)&amp;"+e08*"&amp;IF(T175="風属性",U175,0)&amp;"+e09*"&amp;IF(T175="闇属性",U175,0)&amp;"+e10*"&amp;IF(T175="単体",U175,0)&amp;"+e11*"&amp;IF(T175="範囲",U175,0)&amp;"+e12*"&amp;IF(T175="人",U175,0)&amp;"+e13*"&amp;IF(T175="異族",U175,0)&amp;"+e14*"&amp;IF(T175="バジュラ",U175,0)&amp;"+e15*"&amp;IF(T175="魔動人形",U175,0)&amp;"+e16*"&amp;IF(T175="下位魔神",U175,0)&amp;");"</f>
+        <v>document.getElementById('m173').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*30+s7*0+s0*30) + (e01*30+e02*0+e03*0+e04*30+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI175" s="35" t="str">
         <f t="shared" si="17"/>
@@ -25171,48 +25221,72 @@
     </row>
     <row r="176" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D176" s="3">
         <v>5</v>
       </c>
+      <c r="E176" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="F176" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="G176" s="8"/>
+      <c r="G176" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="H176" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I176" s="2"/>
-      <c r="J176" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="I176" s="2">
+        <v>20</v>
+      </c>
+      <c r="J176" s="2">
+        <v>30</v>
+      </c>
       <c r="K176" s="2"/>
       <c r="L176" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
       <c r="P176" s="2"/>
       <c r="Q176" s="7"/>
+      <c r="R176" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S176" s="3">
+        <v>20</v>
+      </c>
       <c r="U176" s="4"/>
+      <c r="W176" s="3">
+        <v>10</v>
+      </c>
+      <c r="X176" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB176" s="3">
+        <v>10</v>
+      </c>
       <c r="AD176" s="4">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF176" s="23"/>
       <c r="AG176" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_TAMAMO_01.png' alt='咲いて散るは憧憬の花'&gt;&lt;/td&gt;&lt;td headers='name'&gt;咲いて散るは憧憬の花&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m174'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='mmt ev'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_SUZUKA_01.png' alt='調理場、その初陣は'&gt;&lt;/td&gt;&lt;td headers='name'&gt;調理場、その初陣は&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m174'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;10&lt;/td&gt;&lt;td headers='sinB'&gt;10&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;10&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH176" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI176&amp;"').innerHTML = (b1*"&amp;TEXT(J176,0)&amp;"+b2*"&amp;TEXT(K176,0)&amp;"+b0*"&amp;TEXT(L176,0)&amp;") + (s1*"&amp;TEXT(W176,0)&amp;"+s2*"&amp;TEXT(X176,0)&amp;"+s3*"&amp;TEXT(Y176,0)&amp;"+s4*"&amp;TEXT(Z176,0)&amp;"+s5*"&amp;TEXT(AA176,0)&amp;"+s6*"&amp;TEXT(AB176,0)&amp;"+s7*"&amp;TEXT(AC176,0)&amp;"+s0*"&amp;TEXT(AD176,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R176)),S176,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R176)),S176,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R176)),S176,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R176)),S176,S176)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R176)),S176,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R176)),S176,0)&amp;"+e07*"&amp;IF(T176="反撃",U176,0)&amp;"+e08*"&amp;IF(T176="風属性",U176,0)&amp;"+e09*"&amp;IF(T176="闇属性",U176,0)&amp;"+e10*"&amp;IF(T176="単体",U176,0)&amp;"+e11*"&amp;IF(T176="範囲",U176,0)&amp;"+e12*"&amp;IF(T176="人",U176,0)&amp;"+e13*"&amp;IF(T176="異族",U176,0)&amp;"+e14*"&amp;IF(T176="バジュラ",U176,0)&amp;"+e15*"&amp;IF(T176="魔動人形",U176,0)&amp;");"</f>
-        <v>document.getElementById('m174').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI176&amp;"').innerHTML = (b1*"&amp;TEXT(J176,0)&amp;"+b2*"&amp;TEXT(K176,0)&amp;"+b0*"&amp;TEXT(L176,0)&amp;") + (s1*"&amp;TEXT(W176,0)&amp;"+s2*"&amp;TEXT(X176,0)&amp;"+s3*"&amp;TEXT(Y176,0)&amp;"+s4*"&amp;TEXT(Z176,0)&amp;"+s5*"&amp;TEXT(AA176,0)&amp;"+s6*"&amp;TEXT(AB176,0)&amp;"+s7*"&amp;TEXT(AC176,0)&amp;"+s0*"&amp;TEXT(AD176,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R176)),S176,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R176)),S176,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R176)),S176,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R176)),S176,S176)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R176)),S176,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R176)),S176,0)&amp;"+e07*"&amp;IF(T176="反撃",U176,0)&amp;"+e08*"&amp;IF(T176="風属性",U176,0)&amp;"+e09*"&amp;IF(T176="闇属性",U176,0)&amp;"+e10*"&amp;IF(T176="単体",U176,0)&amp;"+e11*"&amp;IF(T176="範囲",U176,0)&amp;"+e12*"&amp;IF(T176="人",U176,0)&amp;"+e13*"&amp;IF(T176="異族",U176,0)&amp;"+e14*"&amp;IF(T176="バジュラ",U176,0)&amp;"+e15*"&amp;IF(T176="魔動人形",U176,0)&amp;"+e16*"&amp;IF(T176="下位魔神",U176,0)&amp;");"</f>
+        <v>document.getElementById('m174').innerHTML = (b1*30+b2*0+b0*30) + (s1*10+s2*10+s3*0+s4*0+s5*0+s6*10+s7*0+s0*10) + (e01*20+e02*0+e03*0+e04*20+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI176" s="35" t="str">
         <f t="shared" si="17"/>
@@ -25222,16 +25296,13 @@
     </row>
     <row r="177" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D177" s="3">
         <v>5</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="F177" s="15" t="s">
         <v>327</v>
@@ -25261,12 +25332,12 @@
       <c r="AF177" s="23"/>
       <c r="AG177" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ev groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_TAMAMO_02.png' alt='約束の時、幸福の味'&gt;&lt;/td&gt;&lt;td headers='name'&gt;約束の時、幸福の味&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_TAMAMO_01.png' alt='咲いて散るは憧憬の花'&gt;&lt;/td&gt;&lt;td headers='name'&gt;咲いて散るは憧憬の花&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
 Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m175'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH177" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI177&amp;"').innerHTML = (b1*"&amp;TEXT(J177,0)&amp;"+b2*"&amp;TEXT(K177,0)&amp;"+b0*"&amp;TEXT(L177,0)&amp;") + (s1*"&amp;TEXT(W177,0)&amp;"+s2*"&amp;TEXT(X177,0)&amp;"+s3*"&amp;TEXT(Y177,0)&amp;"+s4*"&amp;TEXT(Z177,0)&amp;"+s5*"&amp;TEXT(AA177,0)&amp;"+s6*"&amp;TEXT(AB177,0)&amp;"+s7*"&amp;TEXT(AC177,0)&amp;"+s0*"&amp;TEXT(AD177,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R177)),S177,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R177)),S177,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R177)),S177,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R177)),S177,S177)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R177)),S177,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R177)),S177,0)&amp;"+e07*"&amp;IF(T177="反撃",U177,0)&amp;"+e08*"&amp;IF(T177="風属性",U177,0)&amp;"+e09*"&amp;IF(T177="闇属性",U177,0)&amp;"+e10*"&amp;IF(T177="単体",U177,0)&amp;"+e11*"&amp;IF(T177="範囲",U177,0)&amp;"+e12*"&amp;IF(T177="人",U177,0)&amp;"+e13*"&amp;IF(T177="異族",U177,0)&amp;"+e14*"&amp;IF(T177="バジュラ",U177,0)&amp;"+e15*"&amp;IF(T177="魔動人形",U177,0)&amp;");"</f>
-        <v>document.getElementById('m175').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI177&amp;"').innerHTML = (b1*"&amp;TEXT(J177,0)&amp;"+b2*"&amp;TEXT(K177,0)&amp;"+b0*"&amp;TEXT(L177,0)&amp;") + (s1*"&amp;TEXT(W177,0)&amp;"+s2*"&amp;TEXT(X177,0)&amp;"+s3*"&amp;TEXT(Y177,0)&amp;"+s4*"&amp;TEXT(Z177,0)&amp;"+s5*"&amp;TEXT(AA177,0)&amp;"+s6*"&amp;TEXT(AB177,0)&amp;"+s7*"&amp;TEXT(AC177,0)&amp;"+s0*"&amp;TEXT(AD177,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R177)),S177,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R177)),S177,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R177)),S177,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R177)),S177,S177)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R177)),S177,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R177)),S177,0)&amp;"+e07*"&amp;IF(T177="反撃",U177,0)&amp;"+e08*"&amp;IF(T177="風属性",U177,0)&amp;"+e09*"&amp;IF(T177="闇属性",U177,0)&amp;"+e10*"&amp;IF(T177="単体",U177,0)&amp;"+e11*"&amp;IF(T177="範囲",U177,0)&amp;"+e12*"&amp;IF(T177="人",U177,0)&amp;"+e13*"&amp;IF(T177="異族",U177,0)&amp;"+e14*"&amp;IF(T177="バジュラ",U177,0)&amp;"+e15*"&amp;IF(T177="魔動人形",U177,0)&amp;"+e16*"&amp;IF(T177="下位魔神",U177,0)&amp;");"</f>
+        <v>document.getElementById('m175').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI177" s="35" t="str">
         <f t="shared" si="17"/>
@@ -25276,64 +25347,51 @@
     </row>
     <row r="178" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D178" s="3">
         <v>5</v>
       </c>
+      <c r="E178" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="F178" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="G178" s="8" t="s">
-        <v>338</v>
-      </c>
+      <c r="G178" s="8"/>
       <c r="H178" s="4">
         <f t="shared" si="20"/>
-        <v>70</v>
-      </c>
-      <c r="I178" s="2">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" s="2"/>
       <c r="J178" s="2"/>
-      <c r="K178" s="2">
-        <v>30</v>
-      </c>
+      <c r="K178" s="2"/>
       <c r="L178" s="2">
         <f t="shared" si="18"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M178" s="2"/>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
-      <c r="P178" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q178" s="7">
-        <v>20</v>
-      </c>
+      <c r="P178" s="2"/>
+      <c r="Q178" s="7"/>
       <c r="U178" s="4"/>
-      <c r="Z178" s="3">
-        <v>20</v>
-      </c>
-      <c r="AB178" s="3">
-        <v>40</v>
-      </c>
       <c r="AD178" s="4">
         <f t="shared" si="19"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AF178" s="23"/>
       <c r="AG178" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_YOMI_01.png' alt='誓い、彼岸の花に'&gt;&lt;/td&gt;&lt;td headers='name'&gt;誓い、彼岸の花に&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m176'&gt;70&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;20&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;20&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;40&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='mmt ev groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_TAMAMO_02.png' alt='約束の時、幸福の味'&gt;&lt;/td&gt;&lt;td headers='name'&gt;約束の時、幸福の味&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m176'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH178" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI178&amp;"').innerHTML = (b1*"&amp;TEXT(J178,0)&amp;"+b2*"&amp;TEXT(K178,0)&amp;"+b0*"&amp;TEXT(L178,0)&amp;") + (s1*"&amp;TEXT(W178,0)&amp;"+s2*"&amp;TEXT(X178,0)&amp;"+s3*"&amp;TEXT(Y178,0)&amp;"+s4*"&amp;TEXT(Z178,0)&amp;"+s5*"&amp;TEXT(AA178,0)&amp;"+s6*"&amp;TEXT(AB178,0)&amp;"+s7*"&amp;TEXT(AC178,0)&amp;"+s0*"&amp;TEXT(AD178,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R178)),S178,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R178)),S178,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R178)),S178,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R178)),S178,S178)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R178)),S178,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R178)),S178,0)&amp;"+e07*"&amp;IF(T178="反撃",U178,0)&amp;"+e08*"&amp;IF(T178="風属性",U178,0)&amp;"+e09*"&amp;IF(T178="闇属性",U178,0)&amp;"+e10*"&amp;IF(T178="単体",U178,0)&amp;"+e11*"&amp;IF(T178="範囲",U178,0)&amp;"+e12*"&amp;IF(T178="人",U178,0)&amp;"+e13*"&amp;IF(T178="異族",U178,0)&amp;"+e14*"&amp;IF(T178="バジュラ",U178,0)&amp;"+e15*"&amp;IF(T178="魔動人形",U178,0)&amp;");"</f>
-        <v>document.getElementById('m176').innerHTML = (b1*0+b2*30+b0*30) + (s1*0+s2*0+s3*0+s4*20+s5*0+s6*40+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI178&amp;"').innerHTML = (b1*"&amp;TEXT(J178,0)&amp;"+b2*"&amp;TEXT(K178,0)&amp;"+b0*"&amp;TEXT(L178,0)&amp;") + (s1*"&amp;TEXT(W178,0)&amp;"+s2*"&amp;TEXT(X178,0)&amp;"+s3*"&amp;TEXT(Y178,0)&amp;"+s4*"&amp;TEXT(Z178,0)&amp;"+s5*"&amp;TEXT(AA178,0)&amp;"+s6*"&amp;TEXT(AB178,0)&amp;"+s7*"&amp;TEXT(AC178,0)&amp;"+s0*"&amp;TEXT(AD178,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R178)),S178,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R178)),S178,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R178)),S178,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R178)),S178,S178)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R178)),S178,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R178)),S178,0)&amp;"+e07*"&amp;IF(T178="反撃",U178,0)&amp;"+e08*"&amp;IF(T178="風属性",U178,0)&amp;"+e09*"&amp;IF(T178="闇属性",U178,0)&amp;"+e10*"&amp;IF(T178="単体",U178,0)&amp;"+e11*"&amp;IF(T178="範囲",U178,0)&amp;"+e12*"&amp;IF(T178="人",U178,0)&amp;"+e13*"&amp;IF(T178="異族",U178,0)&amp;"+e14*"&amp;IF(T178="バジュラ",U178,0)&amp;"+e15*"&amp;IF(T178="魔動人形",U178,0)&amp;"+e16*"&amp;IF(T178="下位魔神",U178,0)&amp;");"</f>
+        <v>document.getElementById('m176').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI178" s="35" t="str">
         <f t="shared" si="17"/>
@@ -25343,10 +25401,10 @@
     </row>
     <row r="179" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D179" s="3">
         <v>5</v>
@@ -25359,15 +25417,15 @@
       </c>
       <c r="H179" s="4">
         <f t="shared" si="20"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I179" s="2">
         <v>40</v>
       </c>
-      <c r="J179" s="2">
+      <c r="J179" s="2"/>
+      <c r="K179" s="2">
         <v>30</v>
       </c>
-      <c r="K179" s="2"/>
       <c r="L179" s="2">
         <f t="shared" si="18"/>
         <v>30</v>
@@ -25375,36 +25433,32 @@
       <c r="M179" s="2"/>
       <c r="N179" s="2"/>
       <c r="O179" s="2"/>
-      <c r="P179" s="2"/>
-      <c r="Q179" s="7"/>
-      <c r="T179" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="U179" s="4">
+      <c r="P179" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q179" s="7">
         <v>20</v>
       </c>
-      <c r="V179" s="3" t="s">
-        <v>483</v>
-      </c>
+      <c r="U179" s="4"/>
       <c r="Z179" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AB179" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AD179" s="4">
         <f t="shared" si="19"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AF179" s="23"/>
       <c r="AG179" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_ZIN_01.png' alt='流星に願った頃'&gt;&lt;/td&gt;&lt;td headers='name'&gt;流星に願った頃&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m177'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;反撃&lt;/td&gt;&lt;td headers='sp.bonus'&gt;20&lt;/td&gt;&lt;td headers='others'&gt;詠唱時間-20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;30&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_YOMI_01.png' alt='誓い、彼岸の花に'&gt;&lt;/td&gt;&lt;td headers='name'&gt;誓い、彼岸の花に&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m177'&gt;70&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;20&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;20&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;40&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH179" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI179&amp;"').innerHTML = (b1*"&amp;TEXT(J179,0)&amp;"+b2*"&amp;TEXT(K179,0)&amp;"+b0*"&amp;TEXT(L179,0)&amp;") + (s1*"&amp;TEXT(W179,0)&amp;"+s2*"&amp;TEXT(X179,0)&amp;"+s3*"&amp;TEXT(Y179,0)&amp;"+s4*"&amp;TEXT(Z179,0)&amp;"+s5*"&amp;TEXT(AA179,0)&amp;"+s6*"&amp;TEXT(AB179,0)&amp;"+s7*"&amp;TEXT(AC179,0)&amp;"+s0*"&amp;TEXT(AD179,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R179)),S179,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R179)),S179,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R179)),S179,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R179)),S179,S179)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R179)),S179,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R179)),S179,0)&amp;"+e07*"&amp;IF(T179="反撃",U179,0)&amp;"+e08*"&amp;IF(T179="風属性",U179,0)&amp;"+e09*"&amp;IF(T179="闇属性",U179,0)&amp;"+e10*"&amp;IF(T179="単体",U179,0)&amp;"+e11*"&amp;IF(T179="範囲",U179,0)&amp;"+e12*"&amp;IF(T179="人",U179,0)&amp;"+e13*"&amp;IF(T179="異族",U179,0)&amp;"+e14*"&amp;IF(T179="バジュラ",U179,0)&amp;"+e15*"&amp;IF(T179="魔動人形",U179,0)&amp;");"</f>
-        <v>document.getElementById('m177').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*0+s3*0+s4*30+s5*0+s6*30+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*20+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI179&amp;"').innerHTML = (b1*"&amp;TEXT(J179,0)&amp;"+b2*"&amp;TEXT(K179,0)&amp;"+b0*"&amp;TEXT(L179,0)&amp;") + (s1*"&amp;TEXT(W179,0)&amp;"+s2*"&amp;TEXT(X179,0)&amp;"+s3*"&amp;TEXT(Y179,0)&amp;"+s4*"&amp;TEXT(Z179,0)&amp;"+s5*"&amp;TEXT(AA179,0)&amp;"+s6*"&amp;TEXT(AB179,0)&amp;"+s7*"&amp;TEXT(AC179,0)&amp;"+s0*"&amp;TEXT(AD179,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R179)),S179,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R179)),S179,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R179)),S179,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R179)),S179,S179)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R179)),S179,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R179)),S179,0)&amp;"+e07*"&amp;IF(T179="反撃",U179,0)&amp;"+e08*"&amp;IF(T179="風属性",U179,0)&amp;"+e09*"&amp;IF(T179="闇属性",U179,0)&amp;"+e10*"&amp;IF(T179="単体",U179,0)&amp;"+e11*"&amp;IF(T179="範囲",U179,0)&amp;"+e12*"&amp;IF(T179="人",U179,0)&amp;"+e13*"&amp;IF(T179="異族",U179,0)&amp;"+e14*"&amp;IF(T179="バジュラ",U179,0)&amp;"+e15*"&amp;IF(T179="魔動人形",U179,0)&amp;"+e16*"&amp;IF(T179="下位魔神",U179,0)&amp;");"</f>
+        <v>document.getElementById('m177').innerHTML = (b1*0+b2*30+b0*30) + (s1*0+s2*0+s3*0+s4*20+s5*0+s6*40+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI179" s="35" t="str">
         <f t="shared" si="17"/>
@@ -25414,26 +25468,26 @@
     </row>
     <row r="180" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D180" s="3">
         <v>5</v>
       </c>
       <c r="F180" s="15" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="G180" s="8" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="H180" s="4">
         <f t="shared" si="20"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I180" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J180" s="2">
         <v>30</v>
@@ -25448,20 +25502,19 @@
       <c r="O180" s="2"/>
       <c r="P180" s="2"/>
       <c r="Q180" s="7"/>
-      <c r="R180" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S180" s="3">
+      <c r="T180" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U180" s="4">
+        <v>20</v>
+      </c>
+      <c r="V180" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="Z180" s="3">
         <v>30</v>
       </c>
-      <c r="U180" s="4"/>
-      <c r="V180" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="W180" s="3">
-        <v>30</v>
-      </c>
-      <c r="AA180" s="3">
+      <c r="AB180" s="3">
         <v>30</v>
       </c>
       <c r="AD180" s="4">
@@ -25471,12 +25524,12 @@
       <c r="AF180" s="23"/>
       <c r="AG180" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_ANASTASIA_01.png' alt='薔薇はただ赤く'&gt;&lt;/td&gt;&lt;td headers='name'&gt;薔薇はただ赤く&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;ラーストリス騎士団&lt;/td&gt;&lt;td headers='score' id='m178'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+5&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_ZIN_01.png' alt='流星に願った頃'&gt;&lt;/td&gt;&lt;td headers='name'&gt;流星に願った頃&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m178'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;反撃&lt;/td&gt;&lt;td headers='sp.bonus'&gt;20&lt;/td&gt;&lt;td headers='others'&gt;詠唱時間-20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;30&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH180" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI180&amp;"').innerHTML = (b1*"&amp;TEXT(J180,0)&amp;"+b2*"&amp;TEXT(K180,0)&amp;"+b0*"&amp;TEXT(L180,0)&amp;") + (s1*"&amp;TEXT(W180,0)&amp;"+s2*"&amp;TEXT(X180,0)&amp;"+s3*"&amp;TEXT(Y180,0)&amp;"+s4*"&amp;TEXT(Z180,0)&amp;"+s5*"&amp;TEXT(AA180,0)&amp;"+s6*"&amp;TEXT(AB180,0)&amp;"+s7*"&amp;TEXT(AC180,0)&amp;"+s0*"&amp;TEXT(AD180,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R180)),S180,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R180)),S180,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R180)),S180,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R180)),S180,S180)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R180)),S180,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R180)),S180,0)&amp;"+e07*"&amp;IF(T180="反撃",U180,0)&amp;"+e08*"&amp;IF(T180="風属性",U180,0)&amp;"+e09*"&amp;IF(T180="闇属性",U180,0)&amp;"+e10*"&amp;IF(T180="単体",U180,0)&amp;"+e11*"&amp;IF(T180="範囲",U180,0)&amp;"+e12*"&amp;IF(T180="人",U180,0)&amp;"+e13*"&amp;IF(T180="異族",U180,0)&amp;"+e14*"&amp;IF(T180="バジュラ",U180,0)&amp;"+e15*"&amp;IF(T180="魔動人形",U180,0)&amp;");"</f>
-        <v>document.getElementById('m178').innerHTML = (b1*30+b2*0+b0*30) + (s1*30+s2*0+s3*0+s4*0+s5*30+s6*0+s7*0+s0*30) + (e01*30+e02*0+e03*0+e04*30+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI180&amp;"').innerHTML = (b1*"&amp;TEXT(J180,0)&amp;"+b2*"&amp;TEXT(K180,0)&amp;"+b0*"&amp;TEXT(L180,0)&amp;") + (s1*"&amp;TEXT(W180,0)&amp;"+s2*"&amp;TEXT(X180,0)&amp;"+s3*"&amp;TEXT(Y180,0)&amp;"+s4*"&amp;TEXT(Z180,0)&amp;"+s5*"&amp;TEXT(AA180,0)&amp;"+s6*"&amp;TEXT(AB180,0)&amp;"+s7*"&amp;TEXT(AC180,0)&amp;"+s0*"&amp;TEXT(AD180,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R180)),S180,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R180)),S180,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R180)),S180,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R180)),S180,S180)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R180)),S180,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R180)),S180,0)&amp;"+e07*"&amp;IF(T180="反撃",U180,0)&amp;"+e08*"&amp;IF(T180="風属性",U180,0)&amp;"+e09*"&amp;IF(T180="闇属性",U180,0)&amp;"+e10*"&amp;IF(T180="単体",U180,0)&amp;"+e11*"&amp;IF(T180="範囲",U180,0)&amp;"+e12*"&amp;IF(T180="人",U180,0)&amp;"+e13*"&amp;IF(T180="異族",U180,0)&amp;"+e14*"&amp;IF(T180="バジュラ",U180,0)&amp;"+e15*"&amp;IF(T180="魔動人形",U180,0)&amp;"+e16*"&amp;IF(T180="下位魔神",U180,0)&amp;");"</f>
+        <v>document.getElementById('m178').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*0+s3*0+s4*30+s5*0+s6*30+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*20+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI180" s="35" t="str">
         <f t="shared" si="17"/>
@@ -25486,51 +25539,69 @@
     </row>
     <row r="181" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D181" s="3">
         <v>5</v>
       </c>
-      <c r="E181" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="F181" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="G181" s="8"/>
+      <c r="G181" s="8" t="s">
+        <v>362</v>
+      </c>
       <c r="H181" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I181" s="2"/>
-      <c r="J181" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="I181" s="2">
+        <v>30</v>
+      </c>
+      <c r="J181" s="2">
+        <v>30</v>
+      </c>
       <c r="K181" s="2"/>
       <c r="L181" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M181" s="2"/>
       <c r="N181" s="2"/>
       <c r="O181" s="2"/>
       <c r="P181" s="2"/>
       <c r="Q181" s="7"/>
+      <c r="R181" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S181" s="3">
+        <v>30</v>
+      </c>
       <c r="U181" s="4"/>
+      <c r="V181" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="W181" s="3">
+        <v>30</v>
+      </c>
+      <c r="AA181" s="3">
+        <v>30</v>
+      </c>
       <c r="AD181" s="4">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF181" s="23"/>
       <c r="AG181" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ev groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_DOROTHEA_01.png' alt='断崖ディスティニー'&gt;&lt;/td&gt;&lt;td headers='name'&gt;断崖ディスティニー&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m179'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_ANASTASIA_01.png' alt='薔薇はただ赤く'&gt;&lt;/td&gt;&lt;td headers='name'&gt;薔薇はただ赤く&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;ラーストリス騎士団&lt;/td&gt;&lt;td headers='score' id='m179'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+5&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH181" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI181&amp;"').innerHTML = (b1*"&amp;TEXT(J181,0)&amp;"+b2*"&amp;TEXT(K181,0)&amp;"+b0*"&amp;TEXT(L181,0)&amp;") + (s1*"&amp;TEXT(W181,0)&amp;"+s2*"&amp;TEXT(X181,0)&amp;"+s3*"&amp;TEXT(Y181,0)&amp;"+s4*"&amp;TEXT(Z181,0)&amp;"+s5*"&amp;TEXT(AA181,0)&amp;"+s6*"&amp;TEXT(AB181,0)&amp;"+s7*"&amp;TEXT(AC181,0)&amp;"+s0*"&amp;TEXT(AD181,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R181)),S181,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R181)),S181,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R181)),S181,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R181)),S181,S181)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R181)),S181,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R181)),S181,0)&amp;"+e07*"&amp;IF(T181="反撃",U181,0)&amp;"+e08*"&amp;IF(T181="風属性",U181,0)&amp;"+e09*"&amp;IF(T181="闇属性",U181,0)&amp;"+e10*"&amp;IF(T181="単体",U181,0)&amp;"+e11*"&amp;IF(T181="範囲",U181,0)&amp;"+e12*"&amp;IF(T181="人",U181,0)&amp;"+e13*"&amp;IF(T181="異族",U181,0)&amp;"+e14*"&amp;IF(T181="バジュラ",U181,0)&amp;"+e15*"&amp;IF(T181="魔動人形",U181,0)&amp;");"</f>
-        <v>document.getElementById('m179').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI181&amp;"').innerHTML = (b1*"&amp;TEXT(J181,0)&amp;"+b2*"&amp;TEXT(K181,0)&amp;"+b0*"&amp;TEXT(L181,0)&amp;") + (s1*"&amp;TEXT(W181,0)&amp;"+s2*"&amp;TEXT(X181,0)&amp;"+s3*"&amp;TEXT(Y181,0)&amp;"+s4*"&amp;TEXT(Z181,0)&amp;"+s5*"&amp;TEXT(AA181,0)&amp;"+s6*"&amp;TEXT(AB181,0)&amp;"+s7*"&amp;TEXT(AC181,0)&amp;"+s0*"&amp;TEXT(AD181,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R181)),S181,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R181)),S181,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R181)),S181,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R181)),S181,S181)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R181)),S181,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R181)),S181,0)&amp;"+e07*"&amp;IF(T181="反撃",U181,0)&amp;"+e08*"&amp;IF(T181="風属性",U181,0)&amp;"+e09*"&amp;IF(T181="闇属性",U181,0)&amp;"+e10*"&amp;IF(T181="単体",U181,0)&amp;"+e11*"&amp;IF(T181="範囲",U181,0)&amp;"+e12*"&amp;IF(T181="人",U181,0)&amp;"+e13*"&amp;IF(T181="異族",U181,0)&amp;"+e14*"&amp;IF(T181="バジュラ",U181,0)&amp;"+e15*"&amp;IF(T181="魔動人形",U181,0)&amp;"+e16*"&amp;IF(T181="下位魔神",U181,0)&amp;");"</f>
+        <v>document.getElementById('m179').innerHTML = (b1*30+b2*0+b0*30) + (s1*30+s2*0+s3*0+s4*0+s5*30+s6*0+s7*0+s0*30) + (e01*30+e02*0+e03*0+e04*30+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI181" s="35" t="str">
         <f t="shared" si="17"/>
@@ -25540,13 +25611,16 @@
     </row>
     <row r="182" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D182" s="3">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="F182" s="15" t="s">
         <v>361</v>
@@ -25576,12 +25650,12 @@
       <c r="AF182" s="23"/>
       <c r="AG182" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_GLANZ_01.png' alt='シークレットヒーロー'&gt;&lt;/td&gt;&lt;td headers='name'&gt;シークレットヒーロー&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+        <v>&lt;tr class='mmt ev groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_DOROTHEA_01.png' alt='断崖ディスティニー'&gt;&lt;/td&gt;&lt;td headers='name'&gt;断崖ディスティニー&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
 Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m180'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH182" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI182&amp;"').innerHTML = (b1*"&amp;TEXT(J182,0)&amp;"+b2*"&amp;TEXT(K182,0)&amp;"+b0*"&amp;TEXT(L182,0)&amp;") + (s1*"&amp;TEXT(W182,0)&amp;"+s2*"&amp;TEXT(X182,0)&amp;"+s3*"&amp;TEXT(Y182,0)&amp;"+s4*"&amp;TEXT(Z182,0)&amp;"+s5*"&amp;TEXT(AA182,0)&amp;"+s6*"&amp;TEXT(AB182,0)&amp;"+s7*"&amp;TEXT(AC182,0)&amp;"+s0*"&amp;TEXT(AD182,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R182)),S182,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R182)),S182,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R182)),S182,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R182)),S182,S182)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R182)),S182,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R182)),S182,0)&amp;"+e07*"&amp;IF(T182="反撃",U182,0)&amp;"+e08*"&amp;IF(T182="風属性",U182,0)&amp;"+e09*"&amp;IF(T182="闇属性",U182,0)&amp;"+e10*"&amp;IF(T182="単体",U182,0)&amp;"+e11*"&amp;IF(T182="範囲",U182,0)&amp;"+e12*"&amp;IF(T182="人",U182,0)&amp;"+e13*"&amp;IF(T182="異族",U182,0)&amp;"+e14*"&amp;IF(T182="バジュラ",U182,0)&amp;"+e15*"&amp;IF(T182="魔動人形",U182,0)&amp;");"</f>
-        <v>document.getElementById('m180').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI182&amp;"').innerHTML = (b1*"&amp;TEXT(J182,0)&amp;"+b2*"&amp;TEXT(K182,0)&amp;"+b0*"&amp;TEXT(L182,0)&amp;") + (s1*"&amp;TEXT(W182,0)&amp;"+s2*"&amp;TEXT(X182,0)&amp;"+s3*"&amp;TEXT(Y182,0)&amp;"+s4*"&amp;TEXT(Z182,0)&amp;"+s5*"&amp;TEXT(AA182,0)&amp;"+s6*"&amp;TEXT(AB182,0)&amp;"+s7*"&amp;TEXT(AC182,0)&amp;"+s0*"&amp;TEXT(AD182,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R182)),S182,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R182)),S182,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R182)),S182,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R182)),S182,S182)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R182)),S182,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R182)),S182,0)&amp;"+e07*"&amp;IF(T182="反撃",U182,0)&amp;"+e08*"&amp;IF(T182="風属性",U182,0)&amp;"+e09*"&amp;IF(T182="闇属性",U182,0)&amp;"+e10*"&amp;IF(T182="単体",U182,0)&amp;"+e11*"&amp;IF(T182="範囲",U182,0)&amp;"+e12*"&amp;IF(T182="人",U182,0)&amp;"+e13*"&amp;IF(T182="異族",U182,0)&amp;"+e14*"&amp;IF(T182="バジュラ",U182,0)&amp;"+e15*"&amp;IF(T182="魔動人形",U182,0)&amp;"+e16*"&amp;IF(T182="下位魔神",U182,0)&amp;");"</f>
+        <v>document.getElementById('m180').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI182" s="35" t="str">
         <f t="shared" si="17"/>
@@ -25591,16 +25665,13 @@
     </row>
     <row r="183" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D183" s="3">
-        <v>5</v>
-      </c>
-      <c r="E183" s="3" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F183" s="15" t="s">
         <v>361</v>
@@ -25630,12 +25701,12 @@
       <c r="AF183" s="23"/>
       <c r="AG183" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ltd groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_KEVIN_01.png' alt='感謝を込めた花束を'&gt;&lt;/td&gt;&lt;td headers='name'&gt;感謝を込めた花束を&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_GLANZ_01.png' alt='シークレットヒーロー'&gt;&lt;/td&gt;&lt;td headers='name'&gt;シークレットヒーロー&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
 Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m181'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH183" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI183&amp;"').innerHTML = (b1*"&amp;TEXT(J183,0)&amp;"+b2*"&amp;TEXT(K183,0)&amp;"+b0*"&amp;TEXT(L183,0)&amp;") + (s1*"&amp;TEXT(W183,0)&amp;"+s2*"&amp;TEXT(X183,0)&amp;"+s3*"&amp;TEXT(Y183,0)&amp;"+s4*"&amp;TEXT(Z183,0)&amp;"+s5*"&amp;TEXT(AA183,0)&amp;"+s6*"&amp;TEXT(AB183,0)&amp;"+s7*"&amp;TEXT(AC183,0)&amp;"+s0*"&amp;TEXT(AD183,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R183)),S183,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R183)),S183,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R183)),S183,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R183)),S183,S183)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R183)),S183,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R183)),S183,0)&amp;"+e07*"&amp;IF(T183="反撃",U183,0)&amp;"+e08*"&amp;IF(T183="風属性",U183,0)&amp;"+e09*"&amp;IF(T183="闇属性",U183,0)&amp;"+e10*"&amp;IF(T183="単体",U183,0)&amp;"+e11*"&amp;IF(T183="範囲",U183,0)&amp;"+e12*"&amp;IF(T183="人",U183,0)&amp;"+e13*"&amp;IF(T183="異族",U183,0)&amp;"+e14*"&amp;IF(T183="バジュラ",U183,0)&amp;"+e15*"&amp;IF(T183="魔動人形",U183,0)&amp;");"</f>
-        <v>document.getElementById('m181').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI183&amp;"').innerHTML = (b1*"&amp;TEXT(J183,0)&amp;"+b2*"&amp;TEXT(K183,0)&amp;"+b0*"&amp;TEXT(L183,0)&amp;") + (s1*"&amp;TEXT(W183,0)&amp;"+s2*"&amp;TEXT(X183,0)&amp;"+s3*"&amp;TEXT(Y183,0)&amp;"+s4*"&amp;TEXT(Z183,0)&amp;"+s5*"&amp;TEXT(AA183,0)&amp;"+s6*"&amp;TEXT(AB183,0)&amp;"+s7*"&amp;TEXT(AC183,0)&amp;"+s0*"&amp;TEXT(AD183,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R183)),S183,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R183)),S183,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R183)),S183,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R183)),S183,S183)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R183)),S183,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R183)),S183,0)&amp;"+e07*"&amp;IF(T183="反撃",U183,0)&amp;"+e08*"&amp;IF(T183="風属性",U183,0)&amp;"+e09*"&amp;IF(T183="闇属性",U183,0)&amp;"+e10*"&amp;IF(T183="単体",U183,0)&amp;"+e11*"&amp;IF(T183="範囲",U183,0)&amp;"+e12*"&amp;IF(T183="人",U183,0)&amp;"+e13*"&amp;IF(T183="異族",U183,0)&amp;"+e14*"&amp;IF(T183="バジュラ",U183,0)&amp;"+e15*"&amp;IF(T183="魔動人形",U183,0)&amp;"+e16*"&amp;IF(T183="下位魔神",U183,0)&amp;");"</f>
+        <v>document.getElementById('m181').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI183" s="35" t="str">
         <f t="shared" si="17"/>
@@ -25645,10 +25716,10 @@
     </row>
     <row r="184" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D184" s="3">
         <v>5</v>
@@ -25684,12 +25755,12 @@
       <c r="AF184" s="23"/>
       <c r="AG184" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ltd groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_KLIMA_01.png' alt='雪あそびより'&gt;&lt;/td&gt;&lt;td headers='name'&gt;雪あそびより&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+        <v>&lt;tr class='mmt ltd groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_KEVIN_01.png' alt='感謝を込めた花束を'&gt;&lt;/td&gt;&lt;td headers='name'&gt;感謝を込めた花束を&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
 Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m182'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH184" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI184&amp;"').innerHTML = (b1*"&amp;TEXT(J184,0)&amp;"+b2*"&amp;TEXT(K184,0)&amp;"+b0*"&amp;TEXT(L184,0)&amp;") + (s1*"&amp;TEXT(W184,0)&amp;"+s2*"&amp;TEXT(X184,0)&amp;"+s3*"&amp;TEXT(Y184,0)&amp;"+s4*"&amp;TEXT(Z184,0)&amp;"+s5*"&amp;TEXT(AA184,0)&amp;"+s6*"&amp;TEXT(AB184,0)&amp;"+s7*"&amp;TEXT(AC184,0)&amp;"+s0*"&amp;TEXT(AD184,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R184)),S184,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R184)),S184,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R184)),S184,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R184)),S184,S184)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R184)),S184,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R184)),S184,0)&amp;"+e07*"&amp;IF(T184="反撃",U184,0)&amp;"+e08*"&amp;IF(T184="風属性",U184,0)&amp;"+e09*"&amp;IF(T184="闇属性",U184,0)&amp;"+e10*"&amp;IF(T184="単体",U184,0)&amp;"+e11*"&amp;IF(T184="範囲",U184,0)&amp;"+e12*"&amp;IF(T184="人",U184,0)&amp;"+e13*"&amp;IF(T184="異族",U184,0)&amp;"+e14*"&amp;IF(T184="バジュラ",U184,0)&amp;"+e15*"&amp;IF(T184="魔動人形",U184,0)&amp;");"</f>
-        <v>document.getElementById('m182').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI184&amp;"').innerHTML = (b1*"&amp;TEXT(J184,0)&amp;"+b2*"&amp;TEXT(K184,0)&amp;"+b0*"&amp;TEXT(L184,0)&amp;") + (s1*"&amp;TEXT(W184,0)&amp;"+s2*"&amp;TEXT(X184,0)&amp;"+s3*"&amp;TEXT(Y184,0)&amp;"+s4*"&amp;TEXT(Z184,0)&amp;"+s5*"&amp;TEXT(AA184,0)&amp;"+s6*"&amp;TEXT(AB184,0)&amp;"+s7*"&amp;TEXT(AC184,0)&amp;"+s0*"&amp;TEXT(AD184,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R184)),S184,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R184)),S184,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R184)),S184,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R184)),S184,S184)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R184)),S184,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R184)),S184,0)&amp;"+e07*"&amp;IF(T184="反撃",U184,0)&amp;"+e08*"&amp;IF(T184="風属性",U184,0)&amp;"+e09*"&amp;IF(T184="闇属性",U184,0)&amp;"+e10*"&amp;IF(T184="単体",U184,0)&amp;"+e11*"&amp;IF(T184="範囲",U184,0)&amp;"+e12*"&amp;IF(T184="人",U184,0)&amp;"+e13*"&amp;IF(T184="異族",U184,0)&amp;"+e14*"&amp;IF(T184="バジュラ",U184,0)&amp;"+e15*"&amp;IF(T184="魔動人形",U184,0)&amp;"+e16*"&amp;IF(T184="下位魔神",U184,0)&amp;");"</f>
+        <v>document.getElementById('m182').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI184" s="35" t="str">
         <f t="shared" si="17"/>
@@ -25699,32 +25770,31 @@
     </row>
     <row r="185" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D185" s="3">
         <v>5</v>
       </c>
+      <c r="E185" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="F185" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="G185" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="G185" s="8"/>
       <c r="H185" s="4">
         <f t="shared" si="20"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I185" s="2"/>
-      <c r="J185" s="2">
-        <v>60</v>
-      </c>
+      <c r="J185" s="2"/>
       <c r="K185" s="2"/>
       <c r="L185" s="2">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M185" s="2"/>
       <c r="N185" s="2"/>
@@ -25732,28 +25802,19 @@
       <c r="P185" s="2"/>
       <c r="Q185" s="7"/>
       <c r="U185" s="4"/>
-      <c r="V185" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="AA185" s="3">
-        <v>20</v>
-      </c>
-      <c r="AB185" s="3">
-        <v>40</v>
-      </c>
       <c r="AD185" s="4">
         <f t="shared" si="19"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AF185" s="23"/>
       <c r="AG185" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_KUDHANSTEIN_01.png' alt='漆黒に揺蕩いしは'&gt;&lt;/td&gt;&lt;td headers='name'&gt;漆黒に揺蕩いしは&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m183'&gt;100&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;60&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;光属性耐性+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;40&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='mmt ltd groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_KLIMA_01.png' alt='雪あそびより'&gt;&lt;/td&gt;&lt;td headers='name'&gt;雪あそびより&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m183'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH185" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI185&amp;"').innerHTML = (b1*"&amp;TEXT(J185,0)&amp;"+b2*"&amp;TEXT(K185,0)&amp;"+b0*"&amp;TEXT(L185,0)&amp;") + (s1*"&amp;TEXT(W185,0)&amp;"+s2*"&amp;TEXT(X185,0)&amp;"+s3*"&amp;TEXT(Y185,0)&amp;"+s4*"&amp;TEXT(Z185,0)&amp;"+s5*"&amp;TEXT(AA185,0)&amp;"+s6*"&amp;TEXT(AB185,0)&amp;"+s7*"&amp;TEXT(AC185,0)&amp;"+s0*"&amp;TEXT(AD185,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R185)),S185,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R185)),S185,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R185)),S185,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R185)),S185,S185)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R185)),S185,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R185)),S185,0)&amp;"+e07*"&amp;IF(T185="反撃",U185,0)&amp;"+e08*"&amp;IF(T185="風属性",U185,0)&amp;"+e09*"&amp;IF(T185="闇属性",U185,0)&amp;"+e10*"&amp;IF(T185="単体",U185,0)&amp;"+e11*"&amp;IF(T185="範囲",U185,0)&amp;"+e12*"&amp;IF(T185="人",U185,0)&amp;"+e13*"&amp;IF(T185="異族",U185,0)&amp;"+e14*"&amp;IF(T185="バジュラ",U185,0)&amp;"+e15*"&amp;IF(T185="魔動人形",U185,0)&amp;");"</f>
-        <v>document.getElementById('m183').innerHTML = (b1*60+b2*0+b0*60) + (s1*0+s2*0+s3*0+s4*0+s5*20+s6*40+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI185&amp;"').innerHTML = (b1*"&amp;TEXT(J185,0)&amp;"+b2*"&amp;TEXT(K185,0)&amp;"+b0*"&amp;TEXT(L185,0)&amp;") + (s1*"&amp;TEXT(W185,0)&amp;"+s2*"&amp;TEXT(X185,0)&amp;"+s3*"&amp;TEXT(Y185,0)&amp;"+s4*"&amp;TEXT(Z185,0)&amp;"+s5*"&amp;TEXT(AA185,0)&amp;"+s6*"&amp;TEXT(AB185,0)&amp;"+s7*"&amp;TEXT(AC185,0)&amp;"+s0*"&amp;TEXT(AD185,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R185)),S185,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R185)),S185,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R185)),S185,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R185)),S185,S185)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R185)),S185,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R185)),S185,0)&amp;"+e07*"&amp;IF(T185="反撃",U185,0)&amp;"+e08*"&amp;IF(T185="風属性",U185,0)&amp;"+e09*"&amp;IF(T185="闇属性",U185,0)&amp;"+e10*"&amp;IF(T185="単体",U185,0)&amp;"+e11*"&amp;IF(T185="範囲",U185,0)&amp;"+e12*"&amp;IF(T185="人",U185,0)&amp;"+e13*"&amp;IF(T185="異族",U185,0)&amp;"+e14*"&amp;IF(T185="バジュラ",U185,0)&amp;"+e15*"&amp;IF(T185="魔動人形",U185,0)&amp;"+e16*"&amp;IF(T185="下位魔神",U185,0)&amp;");"</f>
+        <v>document.getElementById('m183').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI185" s="35" t="str">
         <f t="shared" si="17"/>
@@ -25763,60 +25824,61 @@
     </row>
     <row r="186" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D186" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F186" s="15" t="s">
         <v>361</v>
       </c>
       <c r="G186" s="8" t="s">
-        <v>362</v>
+        <v>68</v>
       </c>
       <c r="H186" s="4">
         <f t="shared" si="20"/>
-        <v>15</v>
-      </c>
-      <c r="I186" s="2">
-        <v>30</v>
-      </c>
-      <c r="J186" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="I186" s="2"/>
+      <c r="J186" s="2">
+        <v>60</v>
+      </c>
       <c r="K186" s="2"/>
       <c r="L186" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M186" s="2">
-        <v>20</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="M186" s="2"/>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
       <c r="P186" s="2"/>
       <c r="Q186" s="7"/>
       <c r="U186" s="4"/>
-      <c r="W186" s="3">
-        <v>15</v>
+      <c r="V186" s="5" t="s">
+        <v>489</v>
       </c>
       <c r="AA186" s="3">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="AB186" s="3">
+        <v>40</v>
       </c>
       <c r="AD186" s="4">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="AF186" s="23"/>
       <c r="AG186" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_LAMIA_01.png' alt='花は優しく揺れて'&gt;&lt;/td&gt;&lt;td headers='name'&gt;花は優しく揺れて&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;ラーストリス騎士団&lt;/td&gt;&lt;td headers='score' id='m184'&gt;15&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;20&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;15&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;15&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_KUDHANSTEIN_01.png' alt='漆黒に揺蕩いしは'&gt;&lt;/td&gt;&lt;td headers='name'&gt;漆黒に揺蕩いしは&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m184'&gt;100&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;60&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;光属性耐性+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;40&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH186" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI186&amp;"').innerHTML = (b1*"&amp;TEXT(J186,0)&amp;"+b2*"&amp;TEXT(K186,0)&amp;"+b0*"&amp;TEXT(L186,0)&amp;") + (s1*"&amp;TEXT(W186,0)&amp;"+s2*"&amp;TEXT(X186,0)&amp;"+s3*"&amp;TEXT(Y186,0)&amp;"+s4*"&amp;TEXT(Z186,0)&amp;"+s5*"&amp;TEXT(AA186,0)&amp;"+s6*"&amp;TEXT(AB186,0)&amp;"+s7*"&amp;TEXT(AC186,0)&amp;"+s0*"&amp;TEXT(AD186,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R186)),S186,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R186)),S186,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R186)),S186,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R186)),S186,S186)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R186)),S186,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R186)),S186,0)&amp;"+e07*"&amp;IF(T186="反撃",U186,0)&amp;"+e08*"&amp;IF(T186="風属性",U186,0)&amp;"+e09*"&amp;IF(T186="闇属性",U186,0)&amp;"+e10*"&amp;IF(T186="単体",U186,0)&amp;"+e11*"&amp;IF(T186="範囲",U186,0)&amp;"+e12*"&amp;IF(T186="人",U186,0)&amp;"+e13*"&amp;IF(T186="異族",U186,0)&amp;"+e14*"&amp;IF(T186="バジュラ",U186,0)&amp;"+e15*"&amp;IF(T186="魔動人形",U186,0)&amp;");"</f>
-        <v>document.getElementById('m184').innerHTML = (b1*0+b2*0+b0*0) + (s1*15+s2*0+s3*0+s4*0+s5*15+s6*0+s7*0+s0*15) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI186&amp;"').innerHTML = (b1*"&amp;TEXT(J186,0)&amp;"+b2*"&amp;TEXT(K186,0)&amp;"+b0*"&amp;TEXT(L186,0)&amp;") + (s1*"&amp;TEXT(W186,0)&amp;"+s2*"&amp;TEXT(X186,0)&amp;"+s3*"&amp;TEXT(Y186,0)&amp;"+s4*"&amp;TEXT(Z186,0)&amp;"+s5*"&amp;TEXT(AA186,0)&amp;"+s6*"&amp;TEXT(AB186,0)&amp;"+s7*"&amp;TEXT(AC186,0)&amp;"+s0*"&amp;TEXT(AD186,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R186)),S186,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R186)),S186,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R186)),S186,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R186)),S186,S186)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R186)),S186,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R186)),S186,0)&amp;"+e07*"&amp;IF(T186="反撃",U186,0)&amp;"+e08*"&amp;IF(T186="風属性",U186,0)&amp;"+e09*"&amp;IF(T186="闇属性",U186,0)&amp;"+e10*"&amp;IF(T186="単体",U186,0)&amp;"+e11*"&amp;IF(T186="範囲",U186,0)&amp;"+e12*"&amp;IF(T186="人",U186,0)&amp;"+e13*"&amp;IF(T186="異族",U186,0)&amp;"+e14*"&amp;IF(T186="バジュラ",U186,0)&amp;"+e15*"&amp;IF(T186="魔動人形",U186,0)&amp;"+e16*"&amp;IF(T186="下位魔神",U186,0)&amp;");"</f>
+        <v>document.getElementById('m184').innerHTML = (b1*60+b2*0+b0*60) + (s1*0+s2*0+s3*0+s4*0+s5*20+s6*40+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI186" s="35" t="str">
         <f t="shared" si="17"/>
@@ -25826,13 +25888,13 @@
     </row>
     <row r="187" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D187" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F187" s="15" t="s">
         <v>361</v>
@@ -25842,53 +25904,44 @@
       </c>
       <c r="H187" s="4">
         <f t="shared" si="20"/>
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="I187" s="2">
-        <v>50</v>
-      </c>
-      <c r="J187" s="2">
-        <v>20</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J187" s="2"/>
       <c r="K187" s="2"/>
       <c r="L187" s="2">
         <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M187" s="2">
         <v>20</v>
       </c>
-      <c r="M187" s="2"/>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
       <c r="P187" s="2"/>
       <c r="Q187" s="7"/>
-      <c r="R187" s="5" t="s">
+      <c r="U187" s="4"/>
+      <c r="W187" s="3">
         <v>15</v>
       </c>
-      <c r="S187" s="3">
-        <v>20</v>
-      </c>
-      <c r="U187" s="4"/>
-      <c r="V187" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="Z187" s="3">
-        <v>40</v>
-      </c>
       <c r="AA187" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AD187" s="4">
         <f t="shared" si="19"/>
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="AF187" s="23"/>
       <c r="AG187" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_LAMIA_02.png' alt='千日の雛芥子'&gt;&lt;/td&gt;&lt;td headers='name'&gt;千日の雛芥子&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;ラーストリス騎士団&lt;/td&gt;&lt;td headers='score' id='m185'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;刺突&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;範囲耐性+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;40&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_LAMIA_01.png' alt='花は優しく揺れて'&gt;&lt;/td&gt;&lt;td headers='name'&gt;花は優しく揺れて&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;ラーストリス騎士団&lt;/td&gt;&lt;td headers='score' id='m185'&gt;15&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;20&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;15&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;15&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH187" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI187&amp;"').innerHTML = (b1*"&amp;TEXT(J187,0)&amp;"+b2*"&amp;TEXT(K187,0)&amp;"+b0*"&amp;TEXT(L187,0)&amp;") + (s1*"&amp;TEXT(W187,0)&amp;"+s2*"&amp;TEXT(X187,0)&amp;"+s3*"&amp;TEXT(Y187,0)&amp;"+s4*"&amp;TEXT(Z187,0)&amp;"+s5*"&amp;TEXT(AA187,0)&amp;"+s6*"&amp;TEXT(AB187,0)&amp;"+s7*"&amp;TEXT(AC187,0)&amp;"+s0*"&amp;TEXT(AD187,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R187)),S187,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R187)),S187,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R187)),S187,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R187)),S187,S187)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R187)),S187,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R187)),S187,0)&amp;"+e07*"&amp;IF(T187="反撃",U187,0)&amp;"+e08*"&amp;IF(T187="風属性",U187,0)&amp;"+e09*"&amp;IF(T187="闇属性",U187,0)&amp;"+e10*"&amp;IF(T187="単体",U187,0)&amp;"+e11*"&amp;IF(T187="範囲",U187,0)&amp;"+e12*"&amp;IF(T187="人",U187,0)&amp;"+e13*"&amp;IF(T187="異族",U187,0)&amp;"+e14*"&amp;IF(T187="バジュラ",U187,0)&amp;"+e15*"&amp;IF(T187="魔動人形",U187,0)&amp;");"</f>
-        <v>document.getElementById('m185').innerHTML = (b1*20+b2*0+b0*20) + (s1*0+s2*0+s3*0+s4*40+s5*20+s6*0+s7*0+s0*40) + (e01*0+e02*20+e03*0+e04*20+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI187&amp;"').innerHTML = (b1*"&amp;TEXT(J187,0)&amp;"+b2*"&amp;TEXT(K187,0)&amp;"+b0*"&amp;TEXT(L187,0)&amp;") + (s1*"&amp;TEXT(W187,0)&amp;"+s2*"&amp;TEXT(X187,0)&amp;"+s3*"&amp;TEXT(Y187,0)&amp;"+s4*"&amp;TEXT(Z187,0)&amp;"+s5*"&amp;TEXT(AA187,0)&amp;"+s6*"&amp;TEXT(AB187,0)&amp;"+s7*"&amp;TEXT(AC187,0)&amp;"+s0*"&amp;TEXT(AD187,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R187)),S187,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R187)),S187,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R187)),S187,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R187)),S187,S187)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R187)),S187,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R187)),S187,0)&amp;"+e07*"&amp;IF(T187="反撃",U187,0)&amp;"+e08*"&amp;IF(T187="風属性",U187,0)&amp;"+e09*"&amp;IF(T187="闇属性",U187,0)&amp;"+e10*"&amp;IF(T187="単体",U187,0)&amp;"+e11*"&amp;IF(T187="範囲",U187,0)&amp;"+e12*"&amp;IF(T187="人",U187,0)&amp;"+e13*"&amp;IF(T187="異族",U187,0)&amp;"+e14*"&amp;IF(T187="バジュラ",U187,0)&amp;"+e15*"&amp;IF(T187="魔動人形",U187,0)&amp;"+e16*"&amp;IF(T187="下位魔神",U187,0)&amp;");"</f>
+        <v>document.getElementById('m185').innerHTML = (b1*0+b2*0+b0*0) + (s1*15+s2*0+s3*0+s4*0+s5*15+s6*0+s7*0+s0*15) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI187" s="35" t="str">
         <f t="shared" si="17"/>
@@ -25898,48 +25951,69 @@
     </row>
     <row r="188" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D188" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F188" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="G188" s="8"/>
+      <c r="G188" s="8" t="s">
+        <v>362</v>
+      </c>
       <c r="H188" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I188" s="2"/>
-      <c r="J188" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="I188" s="2">
+        <v>50</v>
+      </c>
+      <c r="J188" s="2">
+        <v>20</v>
+      </c>
       <c r="K188" s="2"/>
       <c r="L188" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M188" s="2"/>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
       <c r="P188" s="2"/>
       <c r="Q188" s="7"/>
+      <c r="R188" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S188" s="3">
+        <v>20</v>
+      </c>
       <c r="U188" s="4"/>
+      <c r="V188" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z188" s="3">
+        <v>40</v>
+      </c>
+      <c r="AA188" s="3">
+        <v>20</v>
+      </c>
       <c r="AD188" s="4">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF188" s="23"/>
       <c r="AG188" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_MAGNUS_01.png' alt='アンフェア・ルール'&gt;&lt;/td&gt;&lt;td headers='name'&gt;アンフェア・ルール&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m186'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_LAMIA_02.png' alt='千日の雛芥子'&gt;&lt;/td&gt;&lt;td headers='name'&gt;千日の雛芥子&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;ラーストリス騎士団&lt;/td&gt;&lt;td headers='score' id='m186'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;刺突&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;範囲耐性+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;40&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH188" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI188&amp;"').innerHTML = (b1*"&amp;TEXT(J188,0)&amp;"+b2*"&amp;TEXT(K188,0)&amp;"+b0*"&amp;TEXT(L188,0)&amp;") + (s1*"&amp;TEXT(W188,0)&amp;"+s2*"&amp;TEXT(X188,0)&amp;"+s3*"&amp;TEXT(Y188,0)&amp;"+s4*"&amp;TEXT(Z188,0)&amp;"+s5*"&amp;TEXT(AA188,0)&amp;"+s6*"&amp;TEXT(AB188,0)&amp;"+s7*"&amp;TEXT(AC188,0)&amp;"+s0*"&amp;TEXT(AD188,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R188)),S188,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R188)),S188,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R188)),S188,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R188)),S188,S188)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R188)),S188,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R188)),S188,0)&amp;"+e07*"&amp;IF(T188="反撃",U188,0)&amp;"+e08*"&amp;IF(T188="風属性",U188,0)&amp;"+e09*"&amp;IF(T188="闇属性",U188,0)&amp;"+e10*"&amp;IF(T188="単体",U188,0)&amp;"+e11*"&amp;IF(T188="範囲",U188,0)&amp;"+e12*"&amp;IF(T188="人",U188,0)&amp;"+e13*"&amp;IF(T188="異族",U188,0)&amp;"+e14*"&amp;IF(T188="バジュラ",U188,0)&amp;"+e15*"&amp;IF(T188="魔動人形",U188,0)&amp;");"</f>
-        <v>document.getElementById('m186').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI188&amp;"').innerHTML = (b1*"&amp;TEXT(J188,0)&amp;"+b2*"&amp;TEXT(K188,0)&amp;"+b0*"&amp;TEXT(L188,0)&amp;") + (s1*"&amp;TEXT(W188,0)&amp;"+s2*"&amp;TEXT(X188,0)&amp;"+s3*"&amp;TEXT(Y188,0)&amp;"+s4*"&amp;TEXT(Z188,0)&amp;"+s5*"&amp;TEXT(AA188,0)&amp;"+s6*"&amp;TEXT(AB188,0)&amp;"+s7*"&amp;TEXT(AC188,0)&amp;"+s0*"&amp;TEXT(AD188,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R188)),S188,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R188)),S188,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R188)),S188,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R188)),S188,S188)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R188)),S188,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R188)),S188,0)&amp;"+e07*"&amp;IF(T188="反撃",U188,0)&amp;"+e08*"&amp;IF(T188="風属性",U188,0)&amp;"+e09*"&amp;IF(T188="闇属性",U188,0)&amp;"+e10*"&amp;IF(T188="単体",U188,0)&amp;"+e11*"&amp;IF(T188="範囲",U188,0)&amp;"+e12*"&amp;IF(T188="人",U188,0)&amp;"+e13*"&amp;IF(T188="異族",U188,0)&amp;"+e14*"&amp;IF(T188="バジュラ",U188,0)&amp;"+e15*"&amp;IF(T188="魔動人形",U188,0)&amp;"+e16*"&amp;IF(T188="下位魔神",U188,0)&amp;");"</f>
+        <v>document.getElementById('m186').innerHTML = (b1*20+b2*0+b0*20) + (s1*0+s2*0+s3*0+s4*40+s5*20+s6*0+s7*0+s0*40) + (e01*0+e02*20+e03*0+e04*20+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI188" s="35" t="str">
         <f t="shared" si="17"/>
@@ -25949,13 +26023,13 @@
     </row>
     <row r="189" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D189" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F189" s="15" t="s">
         <v>361</v>
@@ -25985,12 +26059,12 @@
       <c r="AF189" s="23"/>
       <c r="AG189" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_MAGNUS_02.png' alt='二人のジョーカー'&gt;&lt;/td&gt;&lt;td headers='name'&gt;二人のジョーカー&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_MAGNUS_01.png' alt='アンフェア・ルール'&gt;&lt;/td&gt;&lt;td headers='name'&gt;アンフェア・ルール&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
 Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m187'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH189" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI189&amp;"').innerHTML = (b1*"&amp;TEXT(J189,0)&amp;"+b2*"&amp;TEXT(K189,0)&amp;"+b0*"&amp;TEXT(L189,0)&amp;") + (s1*"&amp;TEXT(W189,0)&amp;"+s2*"&amp;TEXT(X189,0)&amp;"+s3*"&amp;TEXT(Y189,0)&amp;"+s4*"&amp;TEXT(Z189,0)&amp;"+s5*"&amp;TEXT(AA189,0)&amp;"+s6*"&amp;TEXT(AB189,0)&amp;"+s7*"&amp;TEXT(AC189,0)&amp;"+s0*"&amp;TEXT(AD189,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R189)),S189,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R189)),S189,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R189)),S189,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R189)),S189,S189)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R189)),S189,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R189)),S189,0)&amp;"+e07*"&amp;IF(T189="反撃",U189,0)&amp;"+e08*"&amp;IF(T189="風属性",U189,0)&amp;"+e09*"&amp;IF(T189="闇属性",U189,0)&amp;"+e10*"&amp;IF(T189="単体",U189,0)&amp;"+e11*"&amp;IF(T189="範囲",U189,0)&amp;"+e12*"&amp;IF(T189="人",U189,0)&amp;"+e13*"&amp;IF(T189="異族",U189,0)&amp;"+e14*"&amp;IF(T189="バジュラ",U189,0)&amp;"+e15*"&amp;IF(T189="魔動人形",U189,0)&amp;");"</f>
-        <v>document.getElementById('m187').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI189&amp;"').innerHTML = (b1*"&amp;TEXT(J189,0)&amp;"+b2*"&amp;TEXT(K189,0)&amp;"+b0*"&amp;TEXT(L189,0)&amp;") + (s1*"&amp;TEXT(W189,0)&amp;"+s2*"&amp;TEXT(X189,0)&amp;"+s3*"&amp;TEXT(Y189,0)&amp;"+s4*"&amp;TEXT(Z189,0)&amp;"+s5*"&amp;TEXT(AA189,0)&amp;"+s6*"&amp;TEXT(AB189,0)&amp;"+s7*"&amp;TEXT(AC189,0)&amp;"+s0*"&amp;TEXT(AD189,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R189)),S189,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R189)),S189,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R189)),S189,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R189)),S189,S189)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R189)),S189,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R189)),S189,0)&amp;"+e07*"&amp;IF(T189="反撃",U189,0)&amp;"+e08*"&amp;IF(T189="風属性",U189,0)&amp;"+e09*"&amp;IF(T189="闇属性",U189,0)&amp;"+e10*"&amp;IF(T189="単体",U189,0)&amp;"+e11*"&amp;IF(T189="範囲",U189,0)&amp;"+e12*"&amp;IF(T189="人",U189,0)&amp;"+e13*"&amp;IF(T189="異族",U189,0)&amp;"+e14*"&amp;IF(T189="バジュラ",U189,0)&amp;"+e15*"&amp;IF(T189="魔動人形",U189,0)&amp;"+e16*"&amp;IF(T189="下位魔神",U189,0)&amp;");"</f>
+        <v>document.getElementById('m187').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI189" s="35" t="str">
         <f t="shared" si="17"/>
@@ -26000,10 +26074,10 @@
     </row>
     <row r="190" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D190" s="3">
         <v>5</v>
@@ -26011,54 +26085,37 @@
       <c r="F190" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="G190" s="8" t="s">
-        <v>91</v>
-      </c>
+      <c r="G190" s="8"/>
       <c r="H190" s="4">
         <f t="shared" si="20"/>
-        <v>60</v>
-      </c>
-      <c r="I190" s="2">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" s="2"/>
       <c r="J190" s="2"/>
-      <c r="K190" s="2">
-        <v>30</v>
-      </c>
+      <c r="K190" s="2"/>
       <c r="L190" s="2">
         <f t="shared" si="18"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M190" s="2"/>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
-      <c r="P190" s="2">
-        <v>10</v>
-      </c>
+      <c r="P190" s="2"/>
       <c r="Q190" s="7"/>
       <c r="U190" s="4"/>
-      <c r="V190" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="W190" s="3">
-        <v>30</v>
-      </c>
-      <c r="AA190" s="3">
-        <v>30</v>
-      </c>
       <c r="AD190" s="4">
         <f t="shared" si="19"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AF190" s="23"/>
       <c r="AG190" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_MARE_01.png' alt='私だって守れる！'&gt;&lt;/td&gt;&lt;td headers='name'&gt;私だって守れる！&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m188'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;射撃回避+20&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_MAGNUS_02.png' alt='二人のジョーカー'&gt;&lt;/td&gt;&lt;td headers='name'&gt;二人のジョーカー&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m188'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH190" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI190&amp;"').innerHTML = (b1*"&amp;TEXT(J190,0)&amp;"+b2*"&amp;TEXT(K190,0)&amp;"+b0*"&amp;TEXT(L190,0)&amp;") + (s1*"&amp;TEXT(W190,0)&amp;"+s2*"&amp;TEXT(X190,0)&amp;"+s3*"&amp;TEXT(Y190,0)&amp;"+s4*"&amp;TEXT(Z190,0)&amp;"+s5*"&amp;TEXT(AA190,0)&amp;"+s6*"&amp;TEXT(AB190,0)&amp;"+s7*"&amp;TEXT(AC190,0)&amp;"+s0*"&amp;TEXT(AD190,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R190)),S190,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R190)),S190,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R190)),S190,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R190)),S190,S190)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R190)),S190,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R190)),S190,0)&amp;"+e07*"&amp;IF(T190="反撃",U190,0)&amp;"+e08*"&amp;IF(T190="風属性",U190,0)&amp;"+e09*"&amp;IF(T190="闇属性",U190,0)&amp;"+e10*"&amp;IF(T190="単体",U190,0)&amp;"+e11*"&amp;IF(T190="範囲",U190,0)&amp;"+e12*"&amp;IF(T190="人",U190,0)&amp;"+e13*"&amp;IF(T190="異族",U190,0)&amp;"+e14*"&amp;IF(T190="バジュラ",U190,0)&amp;"+e15*"&amp;IF(T190="魔動人形",U190,0)&amp;");"</f>
-        <v>document.getElementById('m188').innerHTML = (b1*0+b2*30+b0*30) + (s1*30+s2*0+s3*0+s4*0+s5*30+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI190&amp;"').innerHTML = (b1*"&amp;TEXT(J190,0)&amp;"+b2*"&amp;TEXT(K190,0)&amp;"+b0*"&amp;TEXT(L190,0)&amp;") + (s1*"&amp;TEXT(W190,0)&amp;"+s2*"&amp;TEXT(X190,0)&amp;"+s3*"&amp;TEXT(Y190,0)&amp;"+s4*"&amp;TEXT(Z190,0)&amp;"+s5*"&amp;TEXT(AA190,0)&amp;"+s6*"&amp;TEXT(AB190,0)&amp;"+s7*"&amp;TEXT(AC190,0)&amp;"+s0*"&amp;TEXT(AD190,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R190)),S190,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R190)),S190,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R190)),S190,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R190)),S190,S190)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R190)),S190,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R190)),S190,0)&amp;"+e07*"&amp;IF(T190="反撃",U190,0)&amp;"+e08*"&amp;IF(T190="風属性",U190,0)&amp;"+e09*"&amp;IF(T190="闇属性",U190,0)&amp;"+e10*"&amp;IF(T190="単体",U190,0)&amp;"+e11*"&amp;IF(T190="範囲",U190,0)&amp;"+e12*"&amp;IF(T190="人",U190,0)&amp;"+e13*"&amp;IF(T190="異族",U190,0)&amp;"+e14*"&amp;IF(T190="バジュラ",U190,0)&amp;"+e15*"&amp;IF(T190="魔動人形",U190,0)&amp;"+e16*"&amp;IF(T190="下位魔神",U190,0)&amp;");"</f>
+        <v>document.getElementById('m188').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI190" s="35" t="str">
         <f t="shared" si="17"/>
@@ -26068,62 +26125,65 @@
     </row>
     <row r="191" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>535</v>
+        <v>381</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>542</v>
+        <v>382</v>
       </c>
       <c r="D191" s="3">
         <v>5</v>
       </c>
-      <c r="E191" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="F191" s="15" t="s">
         <v>361</v>
       </c>
       <c r="G191" s="8" t="s">
-        <v>362</v>
+        <v>91</v>
       </c>
       <c r="H191" s="4">
         <f t="shared" si="20"/>
-        <v>15</v>
-      </c>
-      <c r="I191" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="I191" s="2">
+        <v>30</v>
+      </c>
       <c r="J191" s="2"/>
-      <c r="K191" s="2"/>
+      <c r="K191" s="2">
+        <v>30</v>
+      </c>
       <c r="L191" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M191" s="2"/>
-      <c r="N191" s="2">
-        <v>60</v>
-      </c>
+      <c r="N191" s="2"/>
       <c r="O191" s="2"/>
-      <c r="P191" s="2"/>
+      <c r="P191" s="2">
+        <v>10</v>
+      </c>
       <c r="Q191" s="7"/>
       <c r="U191" s="4"/>
-      <c r="V191" s="5"/>
+      <c r="V191" s="5" t="s">
+        <v>494</v>
+      </c>
       <c r="W191" s="3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AA191" s="3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AD191" s="4">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AF191" s="23"/>
       <c r="AG191" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ev'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_PLUMERIA_01.png' alt='皆様に花マルを'&gt;&lt;/td&gt;&lt;td headers='name'&gt;皆様に花マルを&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;ラーストリス騎士団&lt;/td&gt;&lt;td headers='score' id='m189'&gt;15&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;60&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;15&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;15&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_MARE_01.png' alt='私だって守れる！'&gt;&lt;/td&gt;&lt;td headers='name'&gt;私だって守れる！&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m189'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;射撃回避+20&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH191" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI191&amp;"').innerHTML = (b1*"&amp;TEXT(J191,0)&amp;"+b2*"&amp;TEXT(K191,0)&amp;"+b0*"&amp;TEXT(L191,0)&amp;") + (s1*"&amp;TEXT(W191,0)&amp;"+s2*"&amp;TEXT(X191,0)&amp;"+s3*"&amp;TEXT(Y191,0)&amp;"+s4*"&amp;TEXT(Z191,0)&amp;"+s5*"&amp;TEXT(AA191,0)&amp;"+s6*"&amp;TEXT(AB191,0)&amp;"+s7*"&amp;TEXT(AC191,0)&amp;"+s0*"&amp;TEXT(AD191,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R191)),S191,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R191)),S191,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R191)),S191,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R191)),S191,S191)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R191)),S191,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R191)),S191,0)&amp;"+e07*"&amp;IF(T191="反撃",U191,0)&amp;"+e08*"&amp;IF(T191="風属性",U191,0)&amp;"+e09*"&amp;IF(T191="闇属性",U191,0)&amp;"+e10*"&amp;IF(T191="単体",U191,0)&amp;"+e11*"&amp;IF(T191="範囲",U191,0)&amp;"+e12*"&amp;IF(T191="人",U191,0)&amp;"+e13*"&amp;IF(T191="異族",U191,0)&amp;"+e14*"&amp;IF(T191="バジュラ",U191,0)&amp;"+e15*"&amp;IF(T191="魔動人形",U191,0)&amp;");"</f>
-        <v>document.getElementById('m189').innerHTML = (b1*0+b2*0+b0*0) + (s1*15+s2*0+s3*0+s4*0+s5*15+s6*0+s7*0+s0*15) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI191&amp;"').innerHTML = (b1*"&amp;TEXT(J191,0)&amp;"+b2*"&amp;TEXT(K191,0)&amp;"+b0*"&amp;TEXT(L191,0)&amp;") + (s1*"&amp;TEXT(W191,0)&amp;"+s2*"&amp;TEXT(X191,0)&amp;"+s3*"&amp;TEXT(Y191,0)&amp;"+s4*"&amp;TEXT(Z191,0)&amp;"+s5*"&amp;TEXT(AA191,0)&amp;"+s6*"&amp;TEXT(AB191,0)&amp;"+s7*"&amp;TEXT(AC191,0)&amp;"+s0*"&amp;TEXT(AD191,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R191)),S191,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R191)),S191,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R191)),S191,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R191)),S191,S191)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R191)),S191,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R191)),S191,0)&amp;"+e07*"&amp;IF(T191="反撃",U191,0)&amp;"+e08*"&amp;IF(T191="風属性",U191,0)&amp;"+e09*"&amp;IF(T191="闇属性",U191,0)&amp;"+e10*"&amp;IF(T191="単体",U191,0)&amp;"+e11*"&amp;IF(T191="範囲",U191,0)&amp;"+e12*"&amp;IF(T191="人",U191,0)&amp;"+e13*"&amp;IF(T191="異族",U191,0)&amp;"+e14*"&amp;IF(T191="バジュラ",U191,0)&amp;"+e15*"&amp;IF(T191="魔動人形",U191,0)&amp;"+e16*"&amp;IF(T191="下位魔神",U191,0)&amp;");"</f>
+        <v>document.getElementById('m189').innerHTML = (b1*0+b2*30+b0*30) + (s1*30+s2*0+s3*0+s4*0+s5*30+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI191" s="35" t="str">
         <f t="shared" si="17"/>
@@ -26133,21 +26193,26 @@
     </row>
     <row r="192" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="8" t="s">
-        <v>383</v>
+        <v>535</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>384</v>
+        <v>542</v>
       </c>
       <c r="D192" s="3">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="F192" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="G192" s="8"/>
+      <c r="G192" s="8" t="s">
+        <v>362</v>
+      </c>
       <c r="H192" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
@@ -26157,24 +26222,33 @@
         <v>0</v>
       </c>
       <c r="M192" s="2"/>
-      <c r="N192" s="2"/>
+      <c r="N192" s="2">
+        <v>60</v>
+      </c>
       <c r="O192" s="2"/>
       <c r="P192" s="2"/>
       <c r="Q192" s="7"/>
       <c r="U192" s="4"/>
+      <c r="V192" s="5"/>
+      <c r="W192" s="3">
+        <v>15</v>
+      </c>
+      <c r="AA192" s="3">
+        <v>15</v>
+      </c>
       <c r="AD192" s="4">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF192" s="23"/>
       <c r="AG192" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_ROSA_01.png' alt='魂に刻まれし本能'&gt;&lt;/td&gt;&lt;td headers='name'&gt;魂に刻まれし本能&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m190'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='mmt ev'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_PLUMERIA_01.png' alt='皆様に花マルを'&gt;&lt;/td&gt;&lt;td headers='name'&gt;皆様に花マルを&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;ラーストリス騎士団&lt;/td&gt;&lt;td headers='score' id='m190'&gt;15&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;60&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;15&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;15&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH192" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI192&amp;"').innerHTML = (b1*"&amp;TEXT(J192,0)&amp;"+b2*"&amp;TEXT(K192,0)&amp;"+b0*"&amp;TEXT(L192,0)&amp;") + (s1*"&amp;TEXT(W192,0)&amp;"+s2*"&amp;TEXT(X192,0)&amp;"+s3*"&amp;TEXT(Y192,0)&amp;"+s4*"&amp;TEXT(Z192,0)&amp;"+s5*"&amp;TEXT(AA192,0)&amp;"+s6*"&amp;TEXT(AB192,0)&amp;"+s7*"&amp;TEXT(AC192,0)&amp;"+s0*"&amp;TEXT(AD192,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R192)),S192,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R192)),S192,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R192)),S192,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R192)),S192,S192)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R192)),S192,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R192)),S192,0)&amp;"+e07*"&amp;IF(T192="反撃",U192,0)&amp;"+e08*"&amp;IF(T192="風属性",U192,0)&amp;"+e09*"&amp;IF(T192="闇属性",U192,0)&amp;"+e10*"&amp;IF(T192="単体",U192,0)&amp;"+e11*"&amp;IF(T192="範囲",U192,0)&amp;"+e12*"&amp;IF(T192="人",U192,0)&amp;"+e13*"&amp;IF(T192="異族",U192,0)&amp;"+e14*"&amp;IF(T192="バジュラ",U192,0)&amp;"+e15*"&amp;IF(T192="魔動人形",U192,0)&amp;");"</f>
-        <v>document.getElementById('m190').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI192&amp;"').innerHTML = (b1*"&amp;TEXT(J192,0)&amp;"+b2*"&amp;TEXT(K192,0)&amp;"+b0*"&amp;TEXT(L192,0)&amp;") + (s1*"&amp;TEXT(W192,0)&amp;"+s2*"&amp;TEXT(X192,0)&amp;"+s3*"&amp;TEXT(Y192,0)&amp;"+s4*"&amp;TEXT(Z192,0)&amp;"+s5*"&amp;TEXT(AA192,0)&amp;"+s6*"&amp;TEXT(AB192,0)&amp;"+s7*"&amp;TEXT(AC192,0)&amp;"+s0*"&amp;TEXT(AD192,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R192)),S192,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R192)),S192,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R192)),S192,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R192)),S192,S192)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R192)),S192,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R192)),S192,0)&amp;"+e07*"&amp;IF(T192="反撃",U192,0)&amp;"+e08*"&amp;IF(T192="風属性",U192,0)&amp;"+e09*"&amp;IF(T192="闇属性",U192,0)&amp;"+e10*"&amp;IF(T192="単体",U192,0)&amp;"+e11*"&amp;IF(T192="範囲",U192,0)&amp;"+e12*"&amp;IF(T192="人",U192,0)&amp;"+e13*"&amp;IF(T192="異族",U192,0)&amp;"+e14*"&amp;IF(T192="バジュラ",U192,0)&amp;"+e15*"&amp;IF(T192="魔動人形",U192,0)&amp;"+e16*"&amp;IF(T192="下位魔神",U192,0)&amp;");"</f>
+        <v>document.getElementById('m190').innerHTML = (b1*0+b2*0+b0*0) + (s1*15+s2*0+s3*0+s4*0+s5*15+s6*0+s7*0+s0*15) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI192" s="35" t="str">
         <f t="shared" si="17"/>
@@ -26184,16 +26258,13 @@
     </row>
     <row r="193" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D193" s="3">
-        <v>5</v>
-      </c>
-      <c r="E193" s="3" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F193" s="15" t="s">
         <v>361</v>
@@ -26223,12 +26294,12 @@
       <c r="AF193" s="23"/>
       <c r="AG193" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ltd groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_ROSA_02.png' alt='あの日見た堕天使'&gt;&lt;/td&gt;&lt;td headers='name'&gt;あの日見た堕天使&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_ROSA_01.png' alt='魂に刻まれし本能'&gt;&lt;/td&gt;&lt;td headers='name'&gt;魂に刻まれし本能&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
 Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m191'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH193" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI193&amp;"').innerHTML = (b1*"&amp;TEXT(J193,0)&amp;"+b2*"&amp;TEXT(K193,0)&amp;"+b0*"&amp;TEXT(L193,0)&amp;") + (s1*"&amp;TEXT(W193,0)&amp;"+s2*"&amp;TEXT(X193,0)&amp;"+s3*"&amp;TEXT(Y193,0)&amp;"+s4*"&amp;TEXT(Z193,0)&amp;"+s5*"&amp;TEXT(AA193,0)&amp;"+s6*"&amp;TEXT(AB193,0)&amp;"+s7*"&amp;TEXT(AC193,0)&amp;"+s0*"&amp;TEXT(AD193,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R193)),S193,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R193)),S193,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R193)),S193,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R193)),S193,S193)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R193)),S193,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R193)),S193,0)&amp;"+e07*"&amp;IF(T193="反撃",U193,0)&amp;"+e08*"&amp;IF(T193="風属性",U193,0)&amp;"+e09*"&amp;IF(T193="闇属性",U193,0)&amp;"+e10*"&amp;IF(T193="単体",U193,0)&amp;"+e11*"&amp;IF(T193="範囲",U193,0)&amp;"+e12*"&amp;IF(T193="人",U193,0)&amp;"+e13*"&amp;IF(T193="異族",U193,0)&amp;"+e14*"&amp;IF(T193="バジュラ",U193,0)&amp;"+e15*"&amp;IF(T193="魔動人形",U193,0)&amp;");"</f>
-        <v>document.getElementById('m191').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI193&amp;"').innerHTML = (b1*"&amp;TEXT(J193,0)&amp;"+b2*"&amp;TEXT(K193,0)&amp;"+b0*"&amp;TEXT(L193,0)&amp;") + (s1*"&amp;TEXT(W193,0)&amp;"+s2*"&amp;TEXT(X193,0)&amp;"+s3*"&amp;TEXT(Y193,0)&amp;"+s4*"&amp;TEXT(Z193,0)&amp;"+s5*"&amp;TEXT(AA193,0)&amp;"+s6*"&amp;TEXT(AB193,0)&amp;"+s7*"&amp;TEXT(AC193,0)&amp;"+s0*"&amp;TEXT(AD193,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R193)),S193,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R193)),S193,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R193)),S193,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R193)),S193,S193)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R193)),S193,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R193)),S193,0)&amp;"+e07*"&amp;IF(T193="反撃",U193,0)&amp;"+e08*"&amp;IF(T193="風属性",U193,0)&amp;"+e09*"&amp;IF(T193="闇属性",U193,0)&amp;"+e10*"&amp;IF(T193="単体",U193,0)&amp;"+e11*"&amp;IF(T193="範囲",U193,0)&amp;"+e12*"&amp;IF(T193="人",U193,0)&amp;"+e13*"&amp;IF(T193="異族",U193,0)&amp;"+e14*"&amp;IF(T193="バジュラ",U193,0)&amp;"+e15*"&amp;IF(T193="魔動人形",U193,0)&amp;"+e16*"&amp;IF(T193="下位魔神",U193,0)&amp;");"</f>
+        <v>document.getElementById('m191').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI193" s="35" t="str">
         <f t="shared" si="17"/>
@@ -26238,13 +26309,16 @@
     </row>
     <row r="194" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D194" s="3">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="F194" s="15" t="s">
         <v>361</v>
@@ -26274,12 +26348,12 @@
       <c r="AF194" s="23"/>
       <c r="AG194" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_SABALETA_01.png' alt='いずれ燃え尽きるほど'&gt;&lt;/td&gt;&lt;td headers='name'&gt;いずれ燃え尽きるほど&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+        <v>&lt;tr class='mmt ltd groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_ROSA_02.png' alt='あの日見た堕天使'&gt;&lt;/td&gt;&lt;td headers='name'&gt;あの日見た堕天使&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
 Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m192'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH194" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI194&amp;"').innerHTML = (b1*"&amp;TEXT(J194,0)&amp;"+b2*"&amp;TEXT(K194,0)&amp;"+b0*"&amp;TEXT(L194,0)&amp;") + (s1*"&amp;TEXT(W194,0)&amp;"+s2*"&amp;TEXT(X194,0)&amp;"+s3*"&amp;TEXT(Y194,0)&amp;"+s4*"&amp;TEXT(Z194,0)&amp;"+s5*"&amp;TEXT(AA194,0)&amp;"+s6*"&amp;TEXT(AB194,0)&amp;"+s7*"&amp;TEXT(AC194,0)&amp;"+s0*"&amp;TEXT(AD194,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R194)),S194,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R194)),S194,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R194)),S194,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R194)),S194,S194)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R194)),S194,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R194)),S194,0)&amp;"+e07*"&amp;IF(T194="反撃",U194,0)&amp;"+e08*"&amp;IF(T194="風属性",U194,0)&amp;"+e09*"&amp;IF(T194="闇属性",U194,0)&amp;"+e10*"&amp;IF(T194="単体",U194,0)&amp;"+e11*"&amp;IF(T194="範囲",U194,0)&amp;"+e12*"&amp;IF(T194="人",U194,0)&amp;"+e13*"&amp;IF(T194="異族",U194,0)&amp;"+e14*"&amp;IF(T194="バジュラ",U194,0)&amp;"+e15*"&amp;IF(T194="魔動人形",U194,0)&amp;");"</f>
-        <v>document.getElementById('m192').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI194&amp;"').innerHTML = (b1*"&amp;TEXT(J194,0)&amp;"+b2*"&amp;TEXT(K194,0)&amp;"+b0*"&amp;TEXT(L194,0)&amp;") + (s1*"&amp;TEXT(W194,0)&amp;"+s2*"&amp;TEXT(X194,0)&amp;"+s3*"&amp;TEXT(Y194,0)&amp;"+s4*"&amp;TEXT(Z194,0)&amp;"+s5*"&amp;TEXT(AA194,0)&amp;"+s6*"&amp;TEXT(AB194,0)&amp;"+s7*"&amp;TEXT(AC194,0)&amp;"+s0*"&amp;TEXT(AD194,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R194)),S194,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R194)),S194,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R194)),S194,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R194)),S194,S194)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R194)),S194,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R194)),S194,0)&amp;"+e07*"&amp;IF(T194="反撃",U194,0)&amp;"+e08*"&amp;IF(T194="風属性",U194,0)&amp;"+e09*"&amp;IF(T194="闇属性",U194,0)&amp;"+e10*"&amp;IF(T194="単体",U194,0)&amp;"+e11*"&amp;IF(T194="範囲",U194,0)&amp;"+e12*"&amp;IF(T194="人",U194,0)&amp;"+e13*"&amp;IF(T194="異族",U194,0)&amp;"+e14*"&amp;IF(T194="バジュラ",U194,0)&amp;"+e15*"&amp;IF(T194="魔動人形",U194,0)&amp;"+e16*"&amp;IF(T194="下位魔神",U194,0)&amp;");"</f>
+        <v>document.getElementById('m192').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI194" s="35" t="str">
         <f t="shared" si="17"/>
@@ -26289,62 +26363,48 @@
     </row>
     <row r="195" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D195" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F195" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="G195" s="8" t="s">
-        <v>91</v>
-      </c>
+      <c r="G195" s="8"/>
       <c r="H195" s="4">
         <f t="shared" si="20"/>
-        <v>55</v>
-      </c>
-      <c r="I195" s="2">
-        <v>70</v>
-      </c>
-      <c r="J195" s="2">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" s="2"/>
+      <c r="J195" s="2"/>
       <c r="K195" s="2"/>
       <c r="L195" s="2">
         <f t="shared" si="18"/>
-        <v>15</v>
-      </c>
-      <c r="M195" s="2">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M195" s="2"/>
       <c r="N195" s="2"/>
       <c r="O195" s="2"/>
       <c r="P195" s="2"/>
       <c r="Q195" s="7"/>
       <c r="U195" s="4"/>
-      <c r="W195" s="3">
-        <v>40</v>
-      </c>
-      <c r="AB195" s="3">
-        <v>20</v>
-      </c>
       <c r="AD195" s="4">
         <f t="shared" si="19"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AF195" s="23"/>
       <c r="AG195" s="31" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_SPICA_01.png' alt='双星の想いは募り'&gt;&lt;/td&gt;&lt;td headers='name'&gt;双星の想いは募り&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m193'&gt;55&lt;/td&gt;&lt;td headers='HP'&gt;70&lt;/td&gt;&lt;td headers='patk'&gt;15&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;15&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;40&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;20&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_SABALETA_01.png' alt='いずれ燃え尽きるほど'&gt;&lt;/td&gt;&lt;td headers='name'&gt;いずれ燃え尽きるほど&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m193'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH195" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI195&amp;"').innerHTML = (b1*"&amp;TEXT(J195,0)&amp;"+b2*"&amp;TEXT(K195,0)&amp;"+b0*"&amp;TEXT(L195,0)&amp;") + (s1*"&amp;TEXT(W195,0)&amp;"+s2*"&amp;TEXT(X195,0)&amp;"+s3*"&amp;TEXT(Y195,0)&amp;"+s4*"&amp;TEXT(Z195,0)&amp;"+s5*"&amp;TEXT(AA195,0)&amp;"+s6*"&amp;TEXT(AB195,0)&amp;"+s7*"&amp;TEXT(AC195,0)&amp;"+s0*"&amp;TEXT(AD195,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R195)),S195,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R195)),S195,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R195)),S195,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R195)),S195,S195)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R195)),S195,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R195)),S195,0)&amp;"+e07*"&amp;IF(T195="反撃",U195,0)&amp;"+e08*"&amp;IF(T195="風属性",U195,0)&amp;"+e09*"&amp;IF(T195="闇属性",U195,0)&amp;"+e10*"&amp;IF(T195="単体",U195,0)&amp;"+e11*"&amp;IF(T195="範囲",U195,0)&amp;"+e12*"&amp;IF(T195="人",U195,0)&amp;"+e13*"&amp;IF(T195="異族",U195,0)&amp;"+e14*"&amp;IF(T195="バジュラ",U195,0)&amp;"+e15*"&amp;IF(T195="魔動人形",U195,0)&amp;");"</f>
-        <v>document.getElementById('m193').innerHTML = (b1*15+b2*0+b0*15) + (s1*40+s2*0+s3*0+s4*0+s5*0+s6*20+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI195&amp;"').innerHTML = (b1*"&amp;TEXT(J195,0)&amp;"+b2*"&amp;TEXT(K195,0)&amp;"+b0*"&amp;TEXT(L195,0)&amp;") + (s1*"&amp;TEXT(W195,0)&amp;"+s2*"&amp;TEXT(X195,0)&amp;"+s3*"&amp;TEXT(Y195,0)&amp;"+s4*"&amp;TEXT(Z195,0)&amp;"+s5*"&amp;TEXT(AA195,0)&amp;"+s6*"&amp;TEXT(AB195,0)&amp;"+s7*"&amp;TEXT(AC195,0)&amp;"+s0*"&amp;TEXT(AD195,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R195)),S195,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R195)),S195,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R195)),S195,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R195)),S195,S195)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R195)),S195,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R195)),S195,0)&amp;"+e07*"&amp;IF(T195="反撃",U195,0)&amp;"+e08*"&amp;IF(T195="風属性",U195,0)&amp;"+e09*"&amp;IF(T195="闇属性",U195,0)&amp;"+e10*"&amp;IF(T195="単体",U195,0)&amp;"+e11*"&amp;IF(T195="範囲",U195,0)&amp;"+e12*"&amp;IF(T195="人",U195,0)&amp;"+e13*"&amp;IF(T195="異族",U195,0)&amp;"+e14*"&amp;IF(T195="バジュラ",U195,0)&amp;"+e15*"&amp;IF(T195="魔動人形",U195,0)&amp;"+e16*"&amp;IF(T195="下位魔神",U195,0)&amp;");"</f>
+        <v>document.getElementById('m193').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI195" s="35" t="str">
         <f t="shared" si="17"/>
@@ -26354,54 +26414,48 @@
     </row>
     <row r="196" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D196" s="3">
         <v>5</v>
       </c>
-      <c r="E196" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="F196" s="15" t="s">
         <v>361</v>
       </c>
       <c r="G196" s="8" t="s">
-        <v>362</v>
+        <v>91</v>
       </c>
       <c r="H196" s="4">
         <f t="shared" si="20"/>
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="I196" s="2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J196" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K196" s="2"/>
       <c r="L196" s="2">
         <f t="shared" si="18"/>
-        <v>30</v>
-      </c>
-      <c r="M196" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="M196" s="2">
+        <v>15</v>
+      </c>
       <c r="N196" s="2"/>
       <c r="O196" s="2"/>
       <c r="P196" s="2"/>
       <c r="Q196" s="7"/>
-      <c r="T196" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="U196" s="4">
-        <v>10</v>
-      </c>
+      <c r="U196" s="4"/>
       <c r="W196" s="3">
+        <v>40</v>
+      </c>
+      <c r="AB196" s="3">
         <v>20</v>
-      </c>
-      <c r="AA196" s="3">
-        <v>40</v>
       </c>
       <c r="AD196" s="4">
         <f t="shared" si="19"/>
@@ -26409,82 +26463,84 @@
       </c>
       <c r="AF196" s="23"/>
       <c r="AG196" s="31" t="str">
-        <f t="shared" ref="AG196:AG197" si="21">"&lt;tr class='mmt"&amp;IF(E196="活動"," ev",IF(E196="限定"," ltd",""))&amp;IF(G196=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A196&amp;"' alt='"&amp;C196&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C196&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D196&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E196="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E196="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F196&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G196&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI196&amp;"'&gt;"&amp;H196&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I196&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J196&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K196&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M196&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N196&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O196&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P196&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q196&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R196&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S196&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T196&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U196&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V196&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W196&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X196&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y196&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z196&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA196&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB196&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC196&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_TERESA_01.png' alt='可能性は広き海の如く'&gt;&lt;/td&gt;&lt;td headers='name'&gt;可能性は広き海の如く&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;ラーストリス騎士団&lt;/td&gt;&lt;td headers='score' id='m194'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;60&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;範囲&lt;/td&gt;&lt;td headers='sp.bonus'&gt;10&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;40&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" ref="AG196:AG198" si="21">"&lt;tr class='mmt"&amp;IF(E196="活動"," ev",IF(E196="限定"," ltd",""))&amp;IF(G196=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A196&amp;"' alt='"&amp;C196&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C196&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D196&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E196="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E196="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F196&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G196&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI196&amp;"'&gt;"&amp;H196&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I196&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J196&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K196&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M196&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N196&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O196&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P196&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q196&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R196&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S196&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T196&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U196&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V196&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W196&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X196&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y196&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z196&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA196&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB196&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC196&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_SPICA_01.png' alt='双星の想いは募り'&gt;&lt;/td&gt;&lt;td headers='name'&gt;双星の想いは募り&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m194'&gt;55&lt;/td&gt;&lt;td headers='HP'&gt;70&lt;/td&gt;&lt;td headers='patk'&gt;15&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;15&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;40&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;20&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH196" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI196&amp;"').innerHTML = (b1*"&amp;TEXT(J196,0)&amp;"+b2*"&amp;TEXT(K196,0)&amp;"+b0*"&amp;TEXT(L196,0)&amp;") + (s1*"&amp;TEXT(W196,0)&amp;"+s2*"&amp;TEXT(X196,0)&amp;"+s3*"&amp;TEXT(Y196,0)&amp;"+s4*"&amp;TEXT(Z196,0)&amp;"+s5*"&amp;TEXT(AA196,0)&amp;"+s6*"&amp;TEXT(AB196,0)&amp;"+s7*"&amp;TEXT(AC196,0)&amp;"+s0*"&amp;TEXT(AD196,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R196)),S196,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R196)),S196,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R196)),S196,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R196)),S196,S196)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R196)),S196,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R196)),S196,0)&amp;"+e07*"&amp;IF(T196="反撃",U196,0)&amp;"+e08*"&amp;IF(T196="風属性",U196,0)&amp;"+e09*"&amp;IF(T196="闇属性",U196,0)&amp;"+e10*"&amp;IF(T196="単体",U196,0)&amp;"+e11*"&amp;IF(T196="範囲",U196,0)&amp;"+e12*"&amp;IF(T196="人",U196,0)&amp;"+e13*"&amp;IF(T196="異族",U196,0)&amp;"+e14*"&amp;IF(T196="バジュラ",U196,0)&amp;"+e15*"&amp;IF(T196="魔動人形",U196,0)&amp;");"</f>
-        <v>document.getElementById('m194').innerHTML = (b1*30+b2*0+b0*30) + (s1*20+s2*0+s3*0+s4*0+s5*40+s6*0+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*10+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI196&amp;"').innerHTML = (b1*"&amp;TEXT(J196,0)&amp;"+b2*"&amp;TEXT(K196,0)&amp;"+b0*"&amp;TEXT(L196,0)&amp;") + (s1*"&amp;TEXT(W196,0)&amp;"+s2*"&amp;TEXT(X196,0)&amp;"+s3*"&amp;TEXT(Y196,0)&amp;"+s4*"&amp;TEXT(Z196,0)&amp;"+s5*"&amp;TEXT(AA196,0)&amp;"+s6*"&amp;TEXT(AB196,0)&amp;"+s7*"&amp;TEXT(AC196,0)&amp;"+s0*"&amp;TEXT(AD196,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R196)),S196,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R196)),S196,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R196)),S196,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R196)),S196,S196)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R196)),S196,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R196)),S196,0)&amp;"+e07*"&amp;IF(T196="反撃",U196,0)&amp;"+e08*"&amp;IF(T196="風属性",U196,0)&amp;"+e09*"&amp;IF(T196="闇属性",U196,0)&amp;"+e10*"&amp;IF(T196="単体",U196,0)&amp;"+e11*"&amp;IF(T196="範囲",U196,0)&amp;"+e12*"&amp;IF(T196="人",U196,0)&amp;"+e13*"&amp;IF(T196="異族",U196,0)&amp;"+e14*"&amp;IF(T196="バジュラ",U196,0)&amp;"+e15*"&amp;IF(T196="魔動人形",U196,0)&amp;"+e16*"&amp;IF(T196="下位魔神",U196,0)&amp;");"</f>
+        <v>document.getElementById('m194').innerHTML = (b1*15+b2*0+b0*15) + (s1*40+s2*0+s3*0+s4*0+s5*0+s6*20+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI196" s="35" t="str">
-        <f t="shared" ref="AI196:AI197" si="22">"m"&amp;TEXT(ROW()-2,"000")</f>
+        <f t="shared" ref="AI196:AI198" si="22">"m"&amp;TEXT(ROW()-2,"000")</f>
         <v>m194</v>
       </c>
       <c r="AJ196" s="23"/>
     </row>
     <row r="197" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D197" s="3">
         <v>5</v>
       </c>
+      <c r="E197" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="F197" s="15" t="s">
         <v>361</v>
       </c>
       <c r="G197" s="8" t="s">
-        <v>91</v>
+        <v>362</v>
       </c>
       <c r="H197" s="4">
         <f t="shared" si="20"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I197" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J197" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K197" s="2"/>
       <c r="L197" s="2">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
       <c r="P197" s="2"/>
       <c r="Q197" s="7"/>
-      <c r="R197" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S197" s="3">
+      <c r="T197" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U197" s="4">
+        <v>10</v>
+      </c>
+      <c r="W197" s="3">
         <v>20</v>
       </c>
-      <c r="U197" s="4"/>
-      <c r="V197" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="W197" s="3">
-        <v>60</v>
+      <c r="AA197" s="3">
+        <v>40</v>
       </c>
       <c r="AD197" s="4">
         <f t="shared" si="19"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AF197" s="23"/>
       <c r="AG197" s="31" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_ZAHAR_01.png' alt='漆黒の野望、未だ叶わず'&gt;&lt;/td&gt;&lt;td headers='name'&gt;漆黒の野望、未だ叶わず&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m195'&gt;100&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;光属性耐性+20&lt;/td&gt;&lt;td headers='sinA'&gt;60&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_TERESA_01.png' alt='可能性は広き海の如く'&gt;&lt;/td&gt;&lt;td headers='name'&gt;可能性は広き海の如く&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;ラーストリス騎士団&lt;/td&gt;&lt;td headers='score' id='m195'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;60&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;範囲&lt;/td&gt;&lt;td headers='sp.bonus'&gt;10&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;40&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH197" s="31" t="str">
-        <f ca="1">"document.getElementById('"&amp;AI197&amp;"').innerHTML = (b1*"&amp;TEXT(J197,0)&amp;"+b2*"&amp;TEXT(K197,0)&amp;"+b0*"&amp;TEXT(L197,0)&amp;") + (s1*"&amp;TEXT(W197,0)&amp;"+s2*"&amp;TEXT(X197,0)&amp;"+s3*"&amp;TEXT(Y197,0)&amp;"+s4*"&amp;TEXT(Z197,0)&amp;"+s5*"&amp;TEXT(AA197,0)&amp;"+s6*"&amp;TEXT(AB197,0)&amp;"+s7*"&amp;TEXT(AC197,0)&amp;"+s0*"&amp;TEXT(AD197,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R197)),S197,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R197)),S197,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R197)),S197,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R197)),S197,S197)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R197)),S197,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R197)),S197,0)&amp;"+e07*"&amp;IF(T197="反撃",U197,0)&amp;"+e08*"&amp;IF(T197="風属性",U197,0)&amp;"+e09*"&amp;IF(T197="闇属性",U197,0)&amp;"+e10*"&amp;IF(T197="単体",U197,0)&amp;"+e11*"&amp;IF(T197="範囲",U197,0)&amp;"+e12*"&amp;IF(T197="人",U197,0)&amp;"+e13*"&amp;IF(T197="異族",U197,0)&amp;"+e14*"&amp;IF(T197="バジュラ",U197,0)&amp;"+e15*"&amp;IF(T197="魔動人形",U197,0)&amp;");"</f>
-        <v>document.getElementById('m195').innerHTML = (b1*20+b2*0+b0*20) + (s1*60+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*60) + (e01*20+e02*0+e03*0+e04*20+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0);</v>
+        <f ca="1">"document.getElementById('"&amp;AI197&amp;"').innerHTML = (b1*"&amp;TEXT(J197,0)&amp;"+b2*"&amp;TEXT(K197,0)&amp;"+b0*"&amp;TEXT(L197,0)&amp;") + (s1*"&amp;TEXT(W197,0)&amp;"+s2*"&amp;TEXT(X197,0)&amp;"+s3*"&amp;TEXT(Y197,0)&amp;"+s4*"&amp;TEXT(Z197,0)&amp;"+s5*"&amp;TEXT(AA197,0)&amp;"+s6*"&amp;TEXT(AB197,0)&amp;"+s7*"&amp;TEXT(AC197,0)&amp;"+s0*"&amp;TEXT(AD197,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R197)),S197,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R197)),S197,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R197)),S197,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R197)),S197,S197)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R197)),S197,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R197)),S197,0)&amp;"+e07*"&amp;IF(T197="反撃",U197,0)&amp;"+e08*"&amp;IF(T197="風属性",U197,0)&amp;"+e09*"&amp;IF(T197="闇属性",U197,0)&amp;"+e10*"&amp;IF(T197="単体",U197,0)&amp;"+e11*"&amp;IF(T197="範囲",U197,0)&amp;"+e12*"&amp;IF(T197="人",U197,0)&amp;"+e13*"&amp;IF(T197="異族",U197,0)&amp;"+e14*"&amp;IF(T197="バジュラ",U197,0)&amp;"+e15*"&amp;IF(T197="魔動人形",U197,0)&amp;"+e16*"&amp;IF(T197="下位魔神",U197,0)&amp;");"</f>
+        <v>document.getElementById('m195').innerHTML = (b1*30+b2*0+b0*30) + (s1*20+s2*0+s3*0+s4*0+s5*40+s6*0+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*10+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI197" s="35" t="str">
         <f t="shared" si="22"/>
@@ -26493,31 +26549,100 @@
       <c r="AJ197" s="23"/>
     </row>
     <row r="198" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C198" s="6"/>
-      <c r="F198" s="15"/>
-      <c r="G198" s="8"/>
-      <c r="H198" s="4"/>
-      <c r="I198" s="2"/>
-      <c r="J198" s="2"/>
+      <c r="A198" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D198" s="3">
+        <v>5</v>
+      </c>
+      <c r="F198" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="G198" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H198" s="4">
+        <f t="shared" si="20"/>
+        <v>100</v>
+      </c>
+      <c r="I198" s="2">
+        <v>40</v>
+      </c>
+      <c r="J198" s="2">
+        <v>20</v>
+      </c>
       <c r="K198" s="2"/>
-      <c r="L198" s="2"/>
+      <c r="L198" s="2">
+        <f t="shared" si="18"/>
+        <v>20</v>
+      </c>
       <c r="M198" s="2"/>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
       <c r="P198" s="2"/>
       <c r="Q198" s="7"/>
+      <c r="R198" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S198" s="3">
+        <v>20</v>
+      </c>
       <c r="U198" s="4"/>
-      <c r="AD198" s="4"/>
+      <c r="V198" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="W198" s="3">
+        <v>60</v>
+      </c>
+      <c r="AD198" s="4">
+        <f t="shared" si="19"/>
+        <v>60</v>
+      </c>
       <c r="AF198" s="23"/>
-      <c r="AG198" s="31"/>
-      <c r="AH198" s="31"/>
-      <c r="AI198" s="34"/>
+      <c r="AG198" s="31" t="str">
+        <f t="shared" si="21"/>
+        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_ZAHAR_01.png' alt='漆黒の野望、未だ叶わず'&gt;&lt;/td&gt;&lt;td headers='name'&gt;漆黒の野望、未だ叶わず&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m196'&gt;100&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;光属性耐性+20&lt;/td&gt;&lt;td headers='sinA'&gt;60&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH198" s="31" t="str">
+        <f ca="1">"document.getElementById('"&amp;AI198&amp;"').innerHTML = (b1*"&amp;TEXT(J198,0)&amp;"+b2*"&amp;TEXT(K198,0)&amp;"+b0*"&amp;TEXT(L198,0)&amp;") + (s1*"&amp;TEXT(W198,0)&amp;"+s2*"&amp;TEXT(X198,0)&amp;"+s3*"&amp;TEXT(Y198,0)&amp;"+s4*"&amp;TEXT(Z198,0)&amp;"+s5*"&amp;TEXT(AA198,0)&amp;"+s6*"&amp;TEXT(AB198,0)&amp;"+s7*"&amp;TEXT(AC198,0)&amp;"+s0*"&amp;TEXT(AD198,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R198)),S198,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R198)),S198,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R198)),S198,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R198)),S198,S198)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R198)),S198,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R198)),S198,0)&amp;"+e07*"&amp;IF(T198="反撃",U198,0)&amp;"+e08*"&amp;IF(T198="風属性",U198,0)&amp;"+e09*"&amp;IF(T198="闇属性",U198,0)&amp;"+e10*"&amp;IF(T198="単体",U198,0)&amp;"+e11*"&amp;IF(T198="範囲",U198,0)&amp;"+e12*"&amp;IF(T198="人",U198,0)&amp;"+e13*"&amp;IF(T198="異族",U198,0)&amp;"+e14*"&amp;IF(T198="バジュラ",U198,0)&amp;"+e15*"&amp;IF(T198="魔動人形",U198,0)&amp;"+e16*"&amp;IF(T198="下位魔神",U198,0)&amp;");"</f>
+        <v>document.getElementById('m196').innerHTML = (b1*20+b2*0+b0*20) + (s1*60+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*60) + (e01*20+e02*0+e03*0+e04*20+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+      </c>
+      <c r="AI198" s="35" t="str">
+        <f t="shared" si="22"/>
+        <v>m196</v>
+      </c>
       <c r="AJ198" s="23"/>
     </row>
+    <row r="199" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C199" s="6"/>
+      <c r="F199" s="15"/>
+      <c r="G199" s="8"/>
+      <c r="H199" s="4"/>
+      <c r="I199" s="2"/>
+      <c r="J199" s="2"/>
+      <c r="K199" s="2"/>
+      <c r="L199" s="2"/>
+      <c r="M199" s="2"/>
+      <c r="N199" s="2"/>
+      <c r="O199" s="2"/>
+      <c r="P199" s="2"/>
+      <c r="Q199" s="7"/>
+      <c r="U199" s="4"/>
+      <c r="AD199" s="4"/>
+      <c r="AF199" s="23"/>
+      <c r="AG199" s="31"/>
+      <c r="AH199" s="31"/>
+      <c r="AI199" s="34"/>
+      <c r="AJ199" s="23"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bbtRbh2KkyO0bnIYabDVv4QorukcEyPodXUDnl86nP2paA9uc9Lb6SPa+ukx6KNjCstfsBsDwWa8NIv54tohtA==" saltValue="xPOKiGi60S+Ovrer9W9Ctg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
-  <autoFilter ref="B2:AD197" xr:uid="{12F5E3EA-4FDA-471C-839A-02A68F2CB4ED}"/>
-  <conditionalFormatting sqref="D1:F1 AE97:AF118 AE157:AF197 C198:AF1048576 H1:AF1 I157:AD161 C74:G96 I74:AF96 C98:G118 I98:AD118 B129:G130 C131:G161 A202:B1048576 B131:B201 A194 I163:AD197 C163:G197 B7:B128 A1:B6 C2:AF64 AG1:XFD64 AG66:XFD118 AJ65:XFD65 AD66:AD118 L66:L118 H66:H118 C66:AF73 C65:F65 A7:A190 H120:H197 L120:L197 AD120:AD197 AG120:XFD1048576 AJ119:XFD119 C120:G128 I120:AF156 AG3:AI197">
+  <sheetProtection algorithmName="SHA-512" hashValue="70xmJJcQNeqWF16jjXPdLzw8tKAKS5KAtf9POjrNO3JkzPuefjPXnHKLARVap9venPeIEK0EGNt0aAepNwzEnA==" saltValue="bCFuW3RP5cRawSr0/8LYTA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <autoFilter ref="B2:AD198" xr:uid="{12F5E3EA-4FDA-471C-839A-02A68F2CB4ED}"/>
+  <conditionalFormatting sqref="D1:F1 AE97:AF118 AE157:AF198 C199:AF1048576 H1:AF1 I157:AD162 C74:G96 I74:AF96 C98:G118 I98:AD118 B129:G130 A203:B1048576 B131:B202 A194 I164:AD198 C164:G198 B7:B128 A1:B6 C2:AF64 AG1:XFD64 AG66:XFD118 AJ65:XFD65 AD66:AD118 L66:L118 H66:H118 C66:AF73 C65:F65 AG120:XFD1048576 AJ119:XFD119 C120:G128 I120:AF156 A7:A190 C131:G162 H120:H198 AD120:AD198 L120:L198 AG3:AI198">
     <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -26527,7 +26652,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F162">
+  <conditionalFormatting sqref="F163">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -26601,15 +26726,15 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40" t="s">
         <v>399</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>400</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="42" t="s">
         <v>42</v>
       </c>
       <c r="F2" s="11"/>
@@ -26621,11 +26746,11 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="41"/>
-      <c r="E3" s="44"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11" t="s">
         <v>402</v>
@@ -26635,11 +26760,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="41"/>
-      <c r="E4" s="44"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11" t="s">
         <v>404</v>
@@ -26649,11 +26774,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="41"/>
-      <c r="E5" s="44"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11" t="s">
         <v>405</v>
@@ -26663,11 +26788,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="44"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11" t="s">
         <v>406</v>
@@ -26677,15 +26802,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="42" t="s">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="40" t="s">
         <v>408</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>409</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="42" t="s">
         <v>361</v>
       </c>
       <c r="F7" s="11"/>
@@ -26697,11 +26822,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="42"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="41"/>
-      <c r="E8" s="44"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11" t="s">
         <v>411</v>
@@ -26763,15 +26888,15 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42" t="s">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40" t="s">
         <v>419</v>
       </c>
       <c r="D12" s="41" t="s">
         <v>420</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="42" t="s">
         <v>162</v>
       </c>
       <c r="F12" s="11"/>
@@ -26783,11 +26908,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="41"/>
-      <c r="E13" s="44"/>
+      <c r="E13" s="42"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11" t="s">
         <v>422</v>
@@ -26893,15 +27018,15 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="43" t="s">
         <v>438</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="41" t="s">
         <v>439</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="44" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="11"/>
@@ -26913,11 +27038,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="42"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="41"/>
-      <c r="E20" s="43"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11" t="s">
         <v>441</v>
@@ -26927,11 +27052,11 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="42"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="41"/>
-      <c r="E21" s="43"/>
+      <c r="E21" s="44"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11" t="s">
         <v>442</v>
@@ -26941,11 +27066,11 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="42"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="41"/>
-      <c r="E22" s="43"/>
+      <c r="E22" s="44"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11" t="s">
         <v>443</v>
@@ -26955,25 +27080,25 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="38" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="43"/>
+      <c r="E23" s="44"/>
       <c r="H23" s="38" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="38" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="43"/>
+      <c r="E24" s="44"/>
       <c r="H24" s="38" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="43" t="s">
         <v>528</v>
       </c>
       <c r="B25" s="11"/>
@@ -26991,7 +27116,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -27007,27 +27132,27 @@
   </sheetData>
   <autoFilter ref="C1:H1" xr:uid="{D34E5BD1-5186-4F28-B32E-C9CFC7F001D0}"/>
   <mergeCells count="21">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="E19:E24"/>
     <mergeCell ref="B19:B24"/>
     <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -27091,25 +27216,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6D99E4-14ED-42E4-BE92-59B1DEA5BCCF}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(A1,"アップ",""),"％","%")</f>
-        <v>HP60% 物攻20% 魔攻20% &lt;傲慢&gt;特効30% &lt;強欲&gt;特効30%</v>
+        <v>HP20% 下位魔神特効80% &lt;傲慢&gt;特効60%</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(A2,"10%","+10%"),"20%","+20%"),"30%","+30%"),"40%","+40%"),"50%","+50%"),"60%","+60%"),"70%","+70%"),"5%","+5%"),"1+5%","+15%")</f>
-        <v>HP+60% 物攻+20% 魔攻+20% &lt;傲慢&gt;特効+30% &lt;強欲&gt;特効+30%</v>
+        <v>HP+20% 下位魔神特効80% &lt;傲慢&gt;特効+60%</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">

--- a/mementos/mementos-v2.xlsx
+++ b/mementos/mementos-v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kklau\OneDrive\Tagatame\Repo\mementos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/mementos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0635D026-9413-431C-AF88-B2869BF8C0B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0635D026-9413-431C-AF88-B2869BF8C0B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A56FFAF3-E954-4880-886D-0A70F9D7171E}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{28EF47FE-C34C-4192-A973-EF1E71DA4EC0}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">List!$C$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mementos!$B$2:$AD$198</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mementos!$B$2:$AD$200</definedName>
     <definedName name="group" localSheetId="1">List!$H:$H</definedName>
     <definedName name="group">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Mementos!$B:$AD</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="562">
   <si>
     <t>Name</t>
   </si>
@@ -1538,25 +1538,10 @@
     <t>魅了+10</t>
   </si>
   <si>
-    <t>射撃回避+20</t>
-  </si>
-  <si>
-    <t>回避+10</t>
-  </si>
-  <si>
-    <t>回避+5</t>
-  </si>
-  <si>
-    <t>魔法回避+20</t>
-  </si>
-  <si>
     <t>MP上限+5, MP回復+5</t>
   </si>
   <si>
     <t>MP上限+10, 範囲耐性+10</t>
-  </si>
-  <si>
-    <t>MP上限+20, 回避+10</t>
   </si>
   <si>
     <t>MP上限+10, MP回復+10</t>
@@ -1712,9 +1697,6 @@
     <t>Javascript</t>
   </si>
   <si>
-    <t>HP20%アップ 下位魔神特効80％アップ &lt;傲慢&gt;特効60%アップ</t>
-  </si>
-  <si>
     <t>TS_TS_04.png</t>
   </si>
   <si>
@@ -1722,6 +1704,45 @@
   </si>
   <si>
     <t>下位魔神</t>
+  </si>
+  <si>
+    <t>斬撃攻撃力40%アップ 物攻30%アップ 魔攻30%アップ &lt;嫉妬&gt;特効30%アップ &lt;憤怒&gt;特効30%アップ</t>
+  </si>
+  <si>
+    <t>TS_SLOTH_NIGURU_01.png</t>
+  </si>
+  <si>
+    <t>TS_WRATH_SPICA_02.png</t>
+  </si>
+  <si>
+    <t>TS_WRATH_ZAHAR_02.png</t>
+  </si>
+  <si>
+    <t>完全なる闇の遊戯</t>
+  </si>
+  <si>
+    <t>魔法回避率+20</t>
+  </si>
+  <si>
+    <t>回避率+10</t>
+  </si>
+  <si>
+    <t>回避率+5</t>
+  </si>
+  <si>
+    <t>MP上限+20, 回避率+10</t>
+  </si>
+  <si>
+    <t>射撃回避率+20</t>
+  </si>
+  <si>
+    <t>珠星、決戦の地へ</t>
+  </si>
+  <si>
+    <t>単体耐性+10</t>
+  </si>
+  <si>
+    <t>白銀の野望、ここに降り立ち</t>
   </si>
 </sst>
 </file>
@@ -1942,26 +1963,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -7661,13 +7692,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>462734</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8761,14 +8792,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>155</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>464730</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8811,14 +8842,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>468172</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8861,14 +8892,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8911,13 +8942,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8961,13 +8992,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>459651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>459649</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9011,13 +9042,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2013831</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>464729</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9047,7 +9078,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2013831" y="73771640"/>
+          <a:off x="2013831" y="74236371"/>
           <a:ext cx="464731" cy="464729"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9061,14 +9092,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9111,14 +9142,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>459651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>459650</xdr:rowOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>459649</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9161,14 +9192,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>463187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>463185</xdr:rowOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>463186</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9211,13 +9242,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>1994</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>463185</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9261,13 +9292,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>463189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>463188</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9311,13 +9342,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>1996</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>1434</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9361,14 +9392,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>1444</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9411,13 +9442,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9461,14 +9492,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>1995</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>170</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:rowOff>464729</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9511,14 +9542,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>1995</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>1994</xdr:rowOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>1993</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9561,14 +9592,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2013831</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>464171</xdr:rowOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9597,7 +9628,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2013831" y="79348405"/>
+          <a:off x="2013831" y="79813695"/>
           <a:ext cx="464731" cy="464171"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9611,13 +9642,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>463294</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9647,7 +9678,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2013832" y="79348405"/>
+          <a:off x="2013832" y="80277866"/>
           <a:ext cx="464731" cy="463294"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9661,13 +9692,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>466726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9711,14 +9742,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>1432</xdr:rowOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>1433</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9761,14 +9792,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>1447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>177</xdr:row>
-      <xdr:rowOff>1447</xdr:rowOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>1446</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9811,13 +9842,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>1435</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9861,14 +9892,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>1447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>178</xdr:row>
-      <xdr:rowOff>464730</xdr:rowOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9911,14 +9942,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>3</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>180</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9961,14 +9992,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10011,14 +10042,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>463187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>463186</xdr:rowOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>463187</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10061,14 +10092,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>463187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>463187</xdr:rowOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>463186</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10111,14 +10142,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>463187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>463186</xdr:rowOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>463187</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10161,13 +10192,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>466725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>1995</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10211,14 +10242,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>466725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>186</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10311,13 +10342,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>459651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>459650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10361,14 +10392,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>463189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>463189</xdr:rowOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>463190</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10411,13 +10442,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>463189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>463189</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10461,14 +10492,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>466727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>1995</xdr:rowOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>1994</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10511,13 +10542,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>464168</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10561,14 +10592,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10609,16 +10640,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2013831</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10647,7 +10678,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2013831" y="89572473"/>
+          <a:off x="2013832" y="90037202"/>
           <a:ext cx="464731" cy="464731"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10659,16 +10690,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2013831</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>4</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>196</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>464727</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10697,7 +10728,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2013831" y="90037206"/>
+          <a:off x="2013832" y="90501933"/>
           <a:ext cx="464731" cy="464727"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10711,13 +10742,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10761,14 +10792,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>3536</xdr:rowOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>3537</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11599,16 +11630,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2012218</xdr:colOff>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1614</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>1613</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>1614</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11637,7 +11668,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2013832" y="78883674"/>
+          <a:off x="2012218" y="79348405"/>
           <a:ext cx="466344" cy="466344"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11651,14 +11682,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2012218</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>463117</xdr:rowOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>1614</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11687,7 +11718,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2012218" y="88176668"/>
+          <a:off x="2012218" y="88643012"/>
           <a:ext cx="466344" cy="466344"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11851,14 +11882,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1614</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>1615</xdr:rowOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>1613</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11887,8 +11918,158 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2013832" y="73306911"/>
+          <a:off x="2013832" y="73771640"/>
           <a:ext cx="466344" cy="466344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50C96B7B-C2AF-4944-8C43-8F9A869AB0D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId373" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2013832" y="70983259"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AC41CC7-7D87-484F-B47E-D9BFB6AAA84C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId374" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2013832" y="90966664"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3CDCE6-924A-4862-BBA5-878746CA7C55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId375" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2013832" y="92360854"/>
+          <a:ext cx="457200" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14502,13 +14683,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5AB6AB-86C9-4C13-95A3-58796C237C8C}">
-  <dimension ref="A1:AJ199"/>
+  <dimension ref="A1:AJ201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I188" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.3984375" defaultRowHeight="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14574,7 +14755,7 @@
       </c>
       <c r="AF1" s="23"/>
       <c r="AG1" s="31" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="AH1" s="31"/>
       <c r="AI1" s="34"/>
@@ -14670,10 +14851,10 @@
       </c>
       <c r="AF2" s="23"/>
       <c r="AG2" s="31" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="AH2" s="31" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="AI2" s="34"/>
       <c r="AJ2" s="23"/>
@@ -14858,10 +15039,10 @@
     </row>
     <row r="6" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D6" s="3">
         <v>5</v>
@@ -14924,7 +15105,7 @@
         <v>36</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="0"/>
@@ -14954,7 +15135,7 @@
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="3" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="X7" s="3">
         <v>20</v>
@@ -14984,10 +15165,10 @@
     </row>
     <row r="8" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D8" s="3">
         <v>5</v>
@@ -14999,7 +15180,7 @@
         <v>36</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="0"/>
@@ -15167,7 +15348,7 @@
         <v>36</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="0"/>
@@ -15200,7 +15381,7 @@
         <v>20</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="X11" s="3">
         <v>60</v>
@@ -15242,7 +15423,7 @@
         <v>36</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="0"/>
@@ -15416,10 +15597,10 @@
     </row>
     <row r="15" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D15" s="3">
         <v>5</v>
@@ -15591,7 +15772,7 @@
       <c r="Q17" s="7"/>
       <c r="U17" s="4"/>
       <c r="V17" s="3" t="s">
-        <v>497</v>
+        <v>554</v>
       </c>
       <c r="Z17" s="3">
         <v>30</v>
@@ -15604,7 +15785,7 @@
       <c r="AG17" s="31" t="str">
         <f t="shared" si="3"/>
         <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_DESERT_ASUWADO_01.png' alt='闇と雲に潜みし刃'&gt;&lt;/td&gt;&lt;td headers='name'&gt;闇と雲に潜みし刃&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;砂漠地帯
-Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m015'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;魔法回避+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;30&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m015'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;魔法回避率+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;30&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH17" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI17&amp;"').innerHTML = (b1*"&amp;TEXT(J17,0)&amp;"+b2*"&amp;TEXT(K17,0)&amp;"+b0*"&amp;TEXT(L17,0)&amp;") + (s1*"&amp;TEXT(W17,0)&amp;"+s2*"&amp;TEXT(X17,0)&amp;"+s3*"&amp;TEXT(Y17,0)&amp;"+s4*"&amp;TEXT(Z17,0)&amp;"+s5*"&amp;TEXT(AA17,0)&amp;"+s6*"&amp;TEXT(AB17,0)&amp;"+s7*"&amp;TEXT(AC17,0)&amp;"+s0*"&amp;TEXT(AD17,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R17)),S17,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R17)),S17,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R17)),S17,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R17)),S17,S17)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R17)),S17,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R17)),S17,0)&amp;"+e07*"&amp;IF(T17="反撃",U17,0)&amp;"+e08*"&amp;IF(T17="風属性",U17,0)&amp;"+e09*"&amp;IF(T17="闇属性",U17,0)&amp;"+e10*"&amp;IF(T17="単体",U17,0)&amp;"+e11*"&amp;IF(T17="範囲",U17,0)&amp;"+e12*"&amp;IF(T17="人",U17,0)&amp;"+e13*"&amp;IF(T17="異族",U17,0)&amp;"+e14*"&amp;IF(T17="バジュラ",U17,0)&amp;"+e15*"&amp;IF(T17="魔動人形",U17,0)&amp;"+e16*"&amp;IF(T17="下位魔神",U17,0)&amp;");"</f>
@@ -15654,7 +15835,7 @@
       <c r="Q18" s="7"/>
       <c r="U18" s="4"/>
       <c r="V18" s="3" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="Z18" s="3">
         <v>30</v>
@@ -15670,7 +15851,7 @@
       <c r="AG18" s="31" t="str">
         <f t="shared" si="3"/>
         <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_DESERT_BALT_01.png' alt='砂上での熱き誓い'&gt;&lt;/td&gt;&lt;td headers='name'&gt;砂上での熱き誓い&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;砂漠地帯
-Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m016'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;50&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;30&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m016'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;50&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避率+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;30&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH18" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI18&amp;"').innerHTML = (b1*"&amp;TEXT(J18,0)&amp;"+b2*"&amp;TEXT(K18,0)&amp;"+b0*"&amp;TEXT(L18,0)&amp;") + (s1*"&amp;TEXT(W18,0)&amp;"+s2*"&amp;TEXT(X18,0)&amp;"+s3*"&amp;TEXT(Y18,0)&amp;"+s4*"&amp;TEXT(Z18,0)&amp;"+s5*"&amp;TEXT(AA18,0)&amp;"+s6*"&amp;TEXT(AB18,0)&amp;"+s7*"&amp;TEXT(AC18,0)&amp;"+s0*"&amp;TEXT(AD18,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R18)),S18,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R18)),S18,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R18)),S18,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R18)),S18,S18)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R18)),S18,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R18)),S18,0)&amp;"+e07*"&amp;IF(T18="反撃",U18,0)&amp;"+e08*"&amp;IF(T18="風属性",U18,0)&amp;"+e09*"&amp;IF(T18="闇属性",U18,0)&amp;"+e10*"&amp;IF(T18="単体",U18,0)&amp;"+e11*"&amp;IF(T18="範囲",U18,0)&amp;"+e12*"&amp;IF(T18="人",U18,0)&amp;"+e13*"&amp;IF(T18="異族",U18,0)&amp;"+e14*"&amp;IF(T18="バジュラ",U18,0)&amp;"+e15*"&amp;IF(T18="魔動人形",U18,0)&amp;"+e16*"&amp;IF(T18="下位魔神",U18,0)&amp;");"</f>
@@ -15793,7 +15974,7 @@
         <v>20</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="Y20" s="3">
         <v>40</v>
@@ -15809,7 +15990,7 @@
       <c r="AG20" s="31" t="str">
         <f t="shared" si="3"/>
         <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_DESERT_BASINI_02.png' alt='春来たりなば'&gt;&lt;/td&gt;&lt;td headers='name'&gt;春来たりなば&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;砂漠地帯
-Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m018'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;単体&lt;/td&gt;&lt;td headers='sp.bonus'&gt;20&lt;/td&gt;&lt;td headers='others'&gt;回避+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;40&lt;/td&gt;&lt;td headers='sinD'&gt;20&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m018'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;単体&lt;/td&gt;&lt;td headers='sp.bonus'&gt;20&lt;/td&gt;&lt;td headers='others'&gt;回避率+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;40&lt;/td&gt;&lt;td headers='sinD'&gt;20&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH20" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI20&amp;"').innerHTML = (b1*"&amp;TEXT(J20,0)&amp;"+b2*"&amp;TEXT(K20,0)&amp;"+b0*"&amp;TEXT(L20,0)&amp;") + (s1*"&amp;TEXT(W20,0)&amp;"+s2*"&amp;TEXT(X20,0)&amp;"+s3*"&amp;TEXT(Y20,0)&amp;"+s4*"&amp;TEXT(Z20,0)&amp;"+s5*"&amp;TEXT(AA20,0)&amp;"+s6*"&amp;TEXT(AB20,0)&amp;"+s7*"&amp;TEXT(AC20,0)&amp;"+s0*"&amp;TEXT(AD20,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R20)),S20,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R20)),S20,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R20)),S20,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R20)),S20,S20)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R20)),S20,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R20)),S20,0)&amp;"+e07*"&amp;IF(T20="反撃",U20,0)&amp;"+e08*"&amp;IF(T20="風属性",U20,0)&amp;"+e09*"&amp;IF(T20="闇属性",U20,0)&amp;"+e10*"&amp;IF(T20="単体",U20,0)&amp;"+e11*"&amp;IF(T20="範囲",U20,0)&amp;"+e12*"&amp;IF(T20="人",U20,0)&amp;"+e13*"&amp;IF(T20="異族",U20,0)&amp;"+e14*"&amp;IF(T20="バジュラ",U20,0)&amp;"+e15*"&amp;IF(T20="魔動人形",U20,0)&amp;"+e16*"&amp;IF(T20="下位魔神",U20,0)&amp;");"</f>
@@ -16065,7 +16246,7 @@
       <c r="Q24" s="7"/>
       <c r="U24" s="4"/>
       <c r="V24" s="5" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="Z24" s="3">
         <v>30</v>
@@ -16130,7 +16311,7 @@
       <c r="Q25" s="7"/>
       <c r="U25" s="4"/>
       <c r="V25" s="3" t="s">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="W25" s="3">
         <v>20</v>
@@ -16149,7 +16330,7 @@
       <c r="AG25" s="31" t="str">
         <f t="shared" si="3"/>
         <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_DESERT_RYLE_01.png' alt='この白砂は俺の領域だ'&gt;&lt;/td&gt;&lt;td headers='name'&gt;この白砂は俺の領域だ&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;砂漠地帯
-Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m023'&gt;70&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;50&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;30&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+5&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;20&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+Desert Zone&lt;/td&gt;&lt;td headers='group'&gt;砂漠の民&lt;/td&gt;&lt;td headers='score' id='m023'&gt;70&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;50&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;30&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避率+5&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;20&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH25" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI25&amp;"').innerHTML = (b1*"&amp;TEXT(J25,0)&amp;"+b2*"&amp;TEXT(K25,0)&amp;"+b0*"&amp;TEXT(L25,0)&amp;") + (s1*"&amp;TEXT(W25,0)&amp;"+s2*"&amp;TEXT(X25,0)&amp;"+s3*"&amp;TEXT(Y25,0)&amp;"+s4*"&amp;TEXT(Z25,0)&amp;"+s5*"&amp;TEXT(AA25,0)&amp;"+s6*"&amp;TEXT(AB25,0)&amp;"+s7*"&amp;TEXT(AC25,0)&amp;"+s0*"&amp;TEXT(AD25,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R25)),S25,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R25)),S25,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R25)),S25,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R25)),S25,S25)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R25)),S25,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R25)),S25,0)&amp;"+e07*"&amp;IF(T25="反撃",U25,0)&amp;"+e08*"&amp;IF(T25="風属性",U25,0)&amp;"+e09*"&amp;IF(T25="闇属性",U25,0)&amp;"+e10*"&amp;IF(T25="単体",U25,0)&amp;"+e11*"&amp;IF(T25="範囲",U25,0)&amp;"+e12*"&amp;IF(T25="人",U25,0)&amp;"+e13*"&amp;IF(T25="異族",U25,0)&amp;"+e14*"&amp;IF(T25="バジュラ",U25,0)&amp;"+e15*"&amp;IF(T25="魔動人形",U25,0)&amp;"+e16*"&amp;IF(T25="下位魔神",U25,0)&amp;");"</f>
@@ -18104,7 +18285,7 @@
       <c r="Q59" s="7"/>
       <c r="U59" s="4"/>
       <c r="V59" s="3" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="AA59" s="3">
         <v>30</v>
@@ -18120,7 +18301,7 @@
       <c r="AG59" s="31" t="str">
         <f t="shared" si="3"/>
         <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_ENVYRIA_VICTOR_01.png' alt='スタディオーダー'&gt;&lt;/td&gt;&lt;td headers='name'&gt;スタディオーダー&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;エンヴィリア
-Envylia&lt;/td&gt;&lt;td headers='group'&gt;緋炎騎士団&lt;/td&gt;&lt;td headers='score' id='m057'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;20&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+Envylia&lt;/td&gt;&lt;td headers='group'&gt;緋炎騎士団&lt;/td&gt;&lt;td headers='score' id='m057'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;20&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避率+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH59" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI59&amp;"').innerHTML = (b1*"&amp;TEXT(J59,0)&amp;"+b2*"&amp;TEXT(K59,0)&amp;"+b0*"&amp;TEXT(L59,0)&amp;") + (s1*"&amp;TEXT(W59,0)&amp;"+s2*"&amp;TEXT(X59,0)&amp;"+s3*"&amp;TEXT(Y59,0)&amp;"+s4*"&amp;TEXT(Z59,0)&amp;"+s5*"&amp;TEXT(AA59,0)&amp;"+s6*"&amp;TEXT(AB59,0)&amp;"+s7*"&amp;TEXT(AC59,0)&amp;"+s0*"&amp;TEXT(AD59,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R59)),S59,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R59)),S59,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R59)),S59,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R59)),S59,S59)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R59)),S59,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R59)),S59,0)&amp;"+e07*"&amp;IF(T59="反撃",U59,0)&amp;"+e08*"&amp;IF(T59="風属性",U59,0)&amp;"+e09*"&amp;IF(T59="闇属性",U59,0)&amp;"+e10*"&amp;IF(T59="単体",U59,0)&amp;"+e11*"&amp;IF(T59="範囲",U59,0)&amp;"+e12*"&amp;IF(T59="人",U59,0)&amp;"+e13*"&amp;IF(T59="異族",U59,0)&amp;"+e14*"&amp;IF(T59="バジュラ",U59,0)&amp;"+e15*"&amp;IF(T59="魔動人形",U59,0)&amp;"+e16*"&amp;IF(T59="下位魔神",U59,0)&amp;");"</f>
@@ -18428,10 +18609,10 @@
     </row>
     <row r="65" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D65" s="3">
         <v>5</v>
@@ -18874,10 +19055,10 @@
     </row>
     <row r="73" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D73" s="3">
         <v>5</v>
@@ -19380,7 +19561,7 @@
       <c r="Q81" s="7"/>
       <c r="U81" s="4"/>
       <c r="V81" s="5" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AB81" s="3">
         <v>20</v>
@@ -19551,10 +19732,10 @@
     </row>
     <row r="84" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D84" s="3">
         <v>5</v>
@@ -19599,7 +19780,7 @@
         <v>20</v>
       </c>
       <c r="V84" s="3" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AB84" s="3">
         <v>20</v>
@@ -19835,10 +20016,10 @@
     </row>
     <row r="88" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D88" s="3">
         <v>5</v>
@@ -19871,7 +20052,7 @@
       </c>
       <c r="Q88" s="7"/>
       <c r="R88" s="5" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="S88" s="3">
         <v>40</v>
@@ -20017,7 +20198,7 @@
       </c>
       <c r="U90" s="4"/>
       <c r="V90" s="3" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="AA90" s="3">
         <v>30</v>
@@ -20033,7 +20214,7 @@
       <c r="AG90" s="31" t="str">
         <f t="shared" si="8"/>
         <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_LOST_ZENN_01.png' alt='鏡に映る隔絶の灯火'&gt;&lt;/td&gt;&lt;td headers='name'&gt;鏡に映る隔絶の灯火&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ロストブルー
-Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m088'&gt;70&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;30&lt;/td&gt;&lt;/tr&gt;</v>
+Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m088'&gt;70&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避率+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;30&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH90" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI90&amp;"').innerHTML = (b1*"&amp;TEXT(J90,0)&amp;"+b2*"&amp;TEXT(K90,0)&amp;"+b0*"&amp;TEXT(L90,0)&amp;") + (s1*"&amp;TEXT(W90,0)&amp;"+s2*"&amp;TEXT(X90,0)&amp;"+s3*"&amp;TEXT(Y90,0)&amp;"+s4*"&amp;TEXT(Z90,0)&amp;"+s5*"&amp;TEXT(AA90,0)&amp;"+s6*"&amp;TEXT(AB90,0)&amp;"+s7*"&amp;TEXT(AC90,0)&amp;"+s0*"&amp;TEXT(AD90,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R90)),S90,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R90)),S90,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R90)),S90,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R90)),S90,S90)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R90)),S90,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R90)),S90,0)&amp;"+e07*"&amp;IF(T90="反撃",U90,0)&amp;"+e08*"&amp;IF(T90="風属性",U90,0)&amp;"+e09*"&amp;IF(T90="闇属性",U90,0)&amp;"+e10*"&amp;IF(T90="単体",U90,0)&amp;"+e11*"&amp;IF(T90="範囲",U90,0)&amp;"+e12*"&amp;IF(T90="人",U90,0)&amp;"+e13*"&amp;IF(T90="異族",U90,0)&amp;"+e14*"&amp;IF(T90="バジュラ",U90,0)&amp;"+e15*"&amp;IF(T90="魔動人形",U90,0)&amp;"+e16*"&amp;IF(T90="下位魔神",U90,0)&amp;");"</f>
@@ -20083,7 +20264,7 @@
       <c r="Q91" s="7"/>
       <c r="U91" s="4"/>
       <c r="V91" s="5" t="s">
-        <v>500</v>
+        <v>557</v>
       </c>
       <c r="AB91" s="3">
         <v>20</v>
@@ -20099,7 +20280,7 @@
       <c r="AG91" s="31" t="str">
         <f t="shared" si="8"/>
         <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_LOST_ZWEI_01.png' alt='九杯分の命'&gt;&lt;/td&gt;&lt;td headers='name'&gt;九杯分の命&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ロストブルー
-Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m089'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;40&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;MP上限+20, 回避+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;20&lt;/td&gt;&lt;td headers='sinG'&gt;40&lt;/td&gt;&lt;/tr&gt;</v>
+Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m089'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;40&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;MP上限+20, 回避率+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;20&lt;/td&gt;&lt;td headers='sinG'&gt;40&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH91" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI91&amp;"').innerHTML = (b1*"&amp;TEXT(J91,0)&amp;"+b2*"&amp;TEXT(K91,0)&amp;"+b0*"&amp;TEXT(L91,0)&amp;") + (s1*"&amp;TEXT(W91,0)&amp;"+s2*"&amp;TEXT(X91,0)&amp;"+s3*"&amp;TEXT(Y91,0)&amp;"+s4*"&amp;TEXT(Z91,0)&amp;"+s5*"&amp;TEXT(AA91,0)&amp;"+s6*"&amp;TEXT(AB91,0)&amp;"+s7*"&amp;TEXT(AC91,0)&amp;"+s0*"&amp;TEXT(AD91,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R91)),S91,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R91)),S91,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R91)),S91,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R91)),S91,S91)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R91)),S91,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R91)),S91,0)&amp;"+e07*"&amp;IF(T91="反撃",U91,0)&amp;"+e08*"&amp;IF(T91="風属性",U91,0)&amp;"+e09*"&amp;IF(T91="闇属性",U91,0)&amp;"+e10*"&amp;IF(T91="単体",U91,0)&amp;"+e11*"&amp;IF(T91="範囲",U91,0)&amp;"+e12*"&amp;IF(T91="人",U91,0)&amp;"+e13*"&amp;IF(T91="異族",U91,0)&amp;"+e14*"&amp;IF(T91="バジュラ",U91,0)&amp;"+e15*"&amp;IF(T91="魔動人形",U91,0)&amp;"+e16*"&amp;IF(T91="下位魔神",U91,0)&amp;");"</f>
@@ -20155,7 +20336,7 @@
       </c>
       <c r="U92" s="4"/>
       <c r="V92" s="3" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="Y92" s="3">
         <v>20</v>
@@ -20174,7 +20355,7 @@
       <c r="AG92" s="31" t="str">
         <f t="shared" si="8"/>
         <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_LOST_ZYVA_01.png' alt='白き花、黒き花'&gt;&lt;/td&gt;&lt;td headers='name'&gt;白き花、黒き花&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ロストブルー
-Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m090'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;20&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;20&lt;/td&gt;&lt;/tr&gt;</v>
+Lost Blue&lt;/td&gt;&lt;td headers='group'&gt;十戒衆&lt;/td&gt;&lt;td headers='score' id='m090'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避率+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;20&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;20&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH92" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI92&amp;"').innerHTML = (b1*"&amp;TEXT(J92,0)&amp;"+b2*"&amp;TEXT(K92,0)&amp;"+b0*"&amp;TEXT(L92,0)&amp;") + (s1*"&amp;TEXT(W92,0)&amp;"+s2*"&amp;TEXT(X92,0)&amp;"+s3*"&amp;TEXT(Y92,0)&amp;"+s4*"&amp;TEXT(Z92,0)&amp;"+s5*"&amp;TEXT(AA92,0)&amp;"+s6*"&amp;TEXT(AB92,0)&amp;"+s7*"&amp;TEXT(AC92,0)&amp;"+s0*"&amp;TEXT(AD92,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R92)),S92,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R92)),S92,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R92)),S92,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R92)),S92,S92)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R92)),S92,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R92)),S92,0)&amp;"+e07*"&amp;IF(T92="反撃",U92,0)&amp;"+e08*"&amp;IF(T92="風属性",U92,0)&amp;"+e09*"&amp;IF(T92="闇属性",U92,0)&amp;"+e10*"&amp;IF(T92="単体",U92,0)&amp;"+e11*"&amp;IF(T92="範囲",U92,0)&amp;"+e12*"&amp;IF(T92="人",U92,0)&amp;"+e13*"&amp;IF(T92="異族",U92,0)&amp;"+e14*"&amp;IF(T92="バジュラ",U92,0)&amp;"+e15*"&amp;IF(T92="魔動人形",U92,0)&amp;"+e16*"&amp;IF(T92="下位魔神",U92,0)&amp;");"</f>
@@ -20707,7 +20888,7 @@
       <c r="Q102" s="7"/>
       <c r="U102" s="4"/>
       <c r="V102" s="3" t="s">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="Y102" s="3">
         <v>30</v>
@@ -20723,7 +20904,7 @@
       <c r="AG102" s="31" t="str">
         <f t="shared" si="8"/>
         <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_LUST_OTHIMA_01.png' alt='終わりない宴'&gt;&lt;/td&gt;&lt;td headers='name'&gt;終わりない宴&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
-Lustburg&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m100'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;60&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+5&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;30&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+Lustburg&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m100'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;60&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避率+5&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;30&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH102" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI102&amp;"').innerHTML = (b1*"&amp;TEXT(J102,0)&amp;"+b2*"&amp;TEXT(K102,0)&amp;"+b0*"&amp;TEXT(L102,0)&amp;") + (s1*"&amp;TEXT(W102,0)&amp;"+s2*"&amp;TEXT(X102,0)&amp;"+s3*"&amp;TEXT(Y102,0)&amp;"+s4*"&amp;TEXT(Z102,0)&amp;"+s5*"&amp;TEXT(AA102,0)&amp;"+s6*"&amp;TEXT(AB102,0)&amp;"+s7*"&amp;TEXT(AC102,0)&amp;"+s0*"&amp;TEXT(AD102,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R102)),S102,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R102)),S102,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R102)),S102,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R102)),S102,S102)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R102)),S102,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R102)),S102,0)&amp;"+e07*"&amp;IF(T102="反撃",U102,0)&amp;"+e08*"&amp;IF(T102="風属性",U102,0)&amp;"+e09*"&amp;IF(T102="闇属性",U102,0)&amp;"+e10*"&amp;IF(T102="単体",U102,0)&amp;"+e11*"&amp;IF(T102="範囲",U102,0)&amp;"+e12*"&amp;IF(T102="人",U102,0)&amp;"+e13*"&amp;IF(T102="異族",U102,0)&amp;"+e14*"&amp;IF(T102="バジュラ",U102,0)&amp;"+e15*"&amp;IF(T102="魔動人形",U102,0)&amp;"+e16*"&amp;IF(T102="下位魔神",U102,0)&amp;");"</f>
@@ -21151,7 +21332,7 @@
       </c>
       <c r="U110" s="4"/>
       <c r="V110" s="3" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="W110" s="3">
         <v>20</v>
@@ -21170,7 +21351,7 @@
       <c r="AG110" s="31" t="str">
         <f t="shared" si="8"/>
         <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_LUST_YAULAS_01.png' alt='華麗じゃない剣'&gt;&lt;/td&gt;&lt;td headers='name'&gt;華麗じゃない剣&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ルストブルグ
-Lustburg&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m108'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+10&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;20&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;20&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+Lustburg&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m108'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避率+10&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;20&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;20&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH110" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI110&amp;"').innerHTML = (b1*"&amp;TEXT(J110,0)&amp;"+b2*"&amp;TEXT(K110,0)&amp;"+b0*"&amp;TEXT(L110,0)&amp;") + (s1*"&amp;TEXT(W110,0)&amp;"+s2*"&amp;TEXT(X110,0)&amp;"+s3*"&amp;TEXT(Y110,0)&amp;"+s4*"&amp;TEXT(Z110,0)&amp;"+s5*"&amp;TEXT(AA110,0)&amp;"+s6*"&amp;TEXT(AB110,0)&amp;"+s7*"&amp;TEXT(AC110,0)&amp;"+s0*"&amp;TEXT(AD110,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R110)),S110,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R110)),S110,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R110)),S110,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R110)),S110,S110)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R110)),S110,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R110)),S110,0)&amp;"+e07*"&amp;IF(T110="反撃",U110,0)&amp;"+e08*"&amp;IF(T110="風属性",U110,0)&amp;"+e09*"&amp;IF(T110="闇属性",U110,0)&amp;"+e10*"&amp;IF(T110="単体",U110,0)&amp;"+e11*"&amp;IF(T110="範囲",U110,0)&amp;"+e12*"&amp;IF(T110="人",U110,0)&amp;"+e13*"&amp;IF(T110="異族",U110,0)&amp;"+e14*"&amp;IF(T110="バジュラ",U110,0)&amp;"+e15*"&amp;IF(T110="魔動人形",U110,0)&amp;"+e16*"&amp;IF(T110="下位魔神",U110,0)&amp;");"</f>
@@ -21395,7 +21576,7 @@
         <v>5</v>
       </c>
       <c r="F114" s="17" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G114" s="8" t="s">
         <v>68</v>
@@ -21454,10 +21635,10 @@
     </row>
     <row r="115" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D115" s="3">
         <v>5</v>
@@ -21466,7 +21647,7 @@
         <v>39</v>
       </c>
       <c r="F115" s="17" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G115" s="8" t="s">
         <v>68</v>
@@ -21494,7 +21675,7 @@
       </c>
       <c r="Q115" s="7"/>
       <c r="T115" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="U115" s="4">
         <v>20</v>
@@ -21539,7 +21720,7 @@
         <v>35</v>
       </c>
       <c r="F116" s="17" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G116" s="8"/>
       <c r="H116" s="4">
@@ -21590,7 +21771,7 @@
         <v>5</v>
       </c>
       <c r="F117" s="17" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G117" s="8" t="s">
         <v>68</v>
@@ -21652,7 +21833,7 @@
         <v>5</v>
       </c>
       <c r="F118" s="17" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G118" s="8"/>
       <c r="H118" s="4">
@@ -21694,10 +21875,10 @@
     </row>
     <row r="119" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D119" s="3">
         <v>5</v>
@@ -21953,10 +22134,10 @@
     </row>
     <row r="123" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D123" s="3">
         <v>5</v>
@@ -21990,7 +22171,7 @@
       <c r="Q123" s="7"/>
       <c r="U123" s="4"/>
       <c r="V123" s="5" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="W123" s="3">
         <v>30</v>
@@ -22165,10 +22346,10 @@
     </row>
     <row r="126" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D126" s="3">
         <v>5</v>
@@ -22204,7 +22385,7 @@
       <c r="Q126" s="7"/>
       <c r="U126" s="4"/>
       <c r="V126" s="3" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="AA126" s="3">
         <v>30</v>
@@ -22435,10 +22616,10 @@
     </row>
     <row r="130" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D130" s="3">
         <v>5</v>
@@ -22557,10 +22738,10 @@
     </row>
     <row r="132" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D132" s="3">
         <v>5</v>
@@ -22595,7 +22776,7 @@
       </c>
       <c r="AF132" s="23"/>
       <c r="AG132" s="31" t="str">
-        <f t="shared" ref="AG132:AG195" si="16">"&lt;tr class='mmt"&amp;IF(E132="活動"," ev",IF(E132="限定"," ltd",""))&amp;IF(G132=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A132&amp;"' alt='"&amp;C132&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C132&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D132&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E132="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E132="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F132&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G132&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI132&amp;"'&gt;"&amp;H132&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I132&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J132&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K132&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M132&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N132&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O132&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P132&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q132&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R132&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S132&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T132&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U132&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V132&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W132&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X132&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y132&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z132&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA132&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB132&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC132&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" ref="AG132:AG197" si="16">"&lt;tr class='mmt"&amp;IF(E132="活動"," ev",IF(E132="限定"," ltd",""))&amp;IF(G132=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A132&amp;"' alt='"&amp;C132&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C132&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D132&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E132="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E132="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F132&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G132&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI132&amp;"'&gt;"&amp;H132&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I132&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J132&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K132&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M132&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N132&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O132&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P132&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q132&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R132&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S132&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T132&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U132&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V132&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W132&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X132&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y132&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z132&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA132&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB132&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC132&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr class='mmt ltd groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_SAGA_EULALIA_01.png' alt='大森林の唱和'&gt;&lt;/td&gt;&lt;td headers='name'&gt;大森林の唱和&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;サガ地方
 Saga Region&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m130'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
@@ -22604,7 +22785,7 @@
         <v>document.getElementById('m130').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI132" s="35" t="str">
-        <f t="shared" ref="AI132:AI195" si="17">"m"&amp;TEXT(ROW()-2,"000")</f>
+        <f t="shared" ref="AI132:AI197" si="17">"m"&amp;TEXT(ROW()-2,"000")</f>
         <v>m130</v>
       </c>
       <c r="AJ132" s="23"/>
@@ -22701,7 +22882,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
       <c r="L134" s="2">
-        <f t="shared" ref="L134:L198" si="18">MAX(J134:K134)</f>
+        <f t="shared" ref="L134:L200" si="18">MAX(J134:K134)</f>
         <v>0</v>
       </c>
       <c r="M134" s="2"/>
@@ -22711,7 +22892,7 @@
       <c r="Q134" s="7"/>
       <c r="U134" s="4"/>
       <c r="AD134" s="4">
-        <f t="shared" ref="AD134:AD198" si="19">MAX(W134:AC134)</f>
+        <f t="shared" ref="AD134:AD200" si="19">MAX(W134:AC134)</f>
         <v>0</v>
       </c>
       <c r="AF134" s="23"/>
@@ -23067,7 +23248,7 @@
       </c>
       <c r="G140" s="8"/>
       <c r="H140" s="4">
-        <f t="shared" ref="H140:H198" si="20">SUMPRODUCT(I$1:AD$1,I140:AD140)</f>
+        <f t="shared" ref="H140:H200" si="20">SUMPRODUCT(I$1:AD$1,I140:AD140)</f>
         <v>0</v>
       </c>
       <c r="I140" s="2"/>
@@ -23863,24 +24044,26 @@
     </row>
     <row r="155" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>307</v>
+        <v>550</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>308</v>
+        <v>553</v>
       </c>
       <c r="D155" s="3">
         <v>5</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F155" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="G155" s="8"/>
+      <c r="G155" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="H155" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
@@ -23894,20 +24077,32 @@
       <c r="O155" s="2"/>
       <c r="P155" s="2"/>
       <c r="Q155" s="7"/>
+      <c r="R155" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S155" s="3">
+        <v>40</v>
+      </c>
       <c r="U155" s="4"/>
+      <c r="V155" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="X155" s="3">
+        <v>30</v>
+      </c>
       <c r="AD155" s="4">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF155" s="23"/>
       <c r="AG155" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ltd groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_SLOTH_TARAS_01.png' alt='スモーキングブルース'&gt;&lt;/td&gt;&lt;td headers='name'&gt;スモーキングブルース&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
-Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m153'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" ref="AG155" si="21">"&lt;tr class='mmt"&amp;IF(E155="活動"," ev",IF(E155="限定"," ltd",""))&amp;IF(G155=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A155&amp;"' alt='"&amp;C155&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C155&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D155&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E155="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E155="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F155&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G155&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI155&amp;"'&gt;"&amp;H155&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I155&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J155&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K155&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M155&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N155&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O155&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P155&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q155&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R155&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S155&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T155&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U155&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V155&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W155&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X155&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y155&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z155&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA155&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB155&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC155&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt ev'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_SLOTH_NIGURU_01.png' alt='完全なる闇の遊戯'&gt;&lt;/td&gt;&lt;td headers='name'&gt;完全なる闇の遊戯&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
+Slothstein&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m153'&gt;70&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;魔法回避率+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;30&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH155" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI155&amp;"').innerHTML = (b1*"&amp;TEXT(J155,0)&amp;"+b2*"&amp;TEXT(K155,0)&amp;"+b0*"&amp;TEXT(L155,0)&amp;") + (s1*"&amp;TEXT(W155,0)&amp;"+s2*"&amp;TEXT(X155,0)&amp;"+s3*"&amp;TEXT(Y155,0)&amp;"+s4*"&amp;TEXT(Z155,0)&amp;"+s5*"&amp;TEXT(AA155,0)&amp;"+s6*"&amp;TEXT(AB155,0)&amp;"+s7*"&amp;TEXT(AC155,0)&amp;"+s0*"&amp;TEXT(AD155,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R155)),S155,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R155)),S155,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R155)),S155,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R155)),S155,S155)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R155)),S155,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R155)),S155,0)&amp;"+e07*"&amp;IF(T155="反撃",U155,0)&amp;"+e08*"&amp;IF(T155="風属性",U155,0)&amp;"+e09*"&amp;IF(T155="闇属性",U155,0)&amp;"+e10*"&amp;IF(T155="単体",U155,0)&amp;"+e11*"&amp;IF(T155="範囲",U155,0)&amp;"+e12*"&amp;IF(T155="人",U155,0)&amp;"+e13*"&amp;IF(T155="異族",U155,0)&amp;"+e14*"&amp;IF(T155="バジュラ",U155,0)&amp;"+e15*"&amp;IF(T155="魔動人形",U155,0)&amp;"+e16*"&amp;IF(T155="下位魔神",U155,0)&amp;");"</f>
-        <v>document.getElementById('m153').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m153').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*30+s3*0+s4*0+s5*0+s6*0+s7*0+s0*30) + (e01*40+e02*0+e03*0+e04*40+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI155" s="35" t="str">
         <f t="shared" si="17"/>
@@ -23917,19 +24112,19 @@
     </row>
     <row r="156" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D156" s="3">
         <v>5</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F156" s="15" t="s">
-        <v>36</v>
+        <v>282</v>
       </c>
       <c r="G156" s="8"/>
       <c r="H156" s="4">
@@ -23955,9 +24150,9 @@
       </c>
       <c r="AF156" s="23"/>
       <c r="AG156" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ev groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_ST_KASUMI_01.png' alt='弱さもみんな抱きしめて'&gt;&lt;/td&gt;&lt;td headers='name'&gt;弱さもみんな抱きしめて&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m154'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E156="活動"," ev",IF(E156="限定"," ltd",""))&amp;IF(G156=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A155&amp;"' alt='"&amp;C156&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C156&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D156&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E156="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E156="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F156&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G156&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI156&amp;"'&gt;"&amp;H156&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I156&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J156&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K156&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M156&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N156&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O156&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P156&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q156&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R156&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S156&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T156&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U156&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V156&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W156&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X156&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y156&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z156&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA156&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB156&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC156&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt ltd groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_SLOTH_NIGURU_01.png' alt='スモーキングブルース'&gt;&lt;/td&gt;&lt;td headers='name'&gt;スモーキングブルース&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
+Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m154'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH156" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI156&amp;"').innerHTML = (b1*"&amp;TEXT(J156,0)&amp;"+b2*"&amp;TEXT(K156,0)&amp;"+b0*"&amp;TEXT(L156,0)&amp;") + (s1*"&amp;TEXT(W156,0)&amp;"+s2*"&amp;TEXT(X156,0)&amp;"+s3*"&amp;TEXT(Y156,0)&amp;"+s4*"&amp;TEXT(Z156,0)&amp;"+s5*"&amp;TEXT(AA156,0)&amp;"+s6*"&amp;TEXT(AB156,0)&amp;"+s7*"&amp;TEXT(AC156,0)&amp;"+s0*"&amp;TEXT(AD156,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R156)),S156,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R156)),S156,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R156)),S156,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R156)),S156,S156)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R156)),S156,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R156)),S156,0)&amp;"+e07*"&amp;IF(T156="反撃",U156,0)&amp;"+e08*"&amp;IF(T156="風属性",U156,0)&amp;"+e09*"&amp;IF(T156="闇属性",U156,0)&amp;"+e10*"&amp;IF(T156="単体",U156,0)&amp;"+e11*"&amp;IF(T156="範囲",U156,0)&amp;"+e12*"&amp;IF(T156="人",U156,0)&amp;"+e13*"&amp;IF(T156="異族",U156,0)&amp;"+e14*"&amp;IF(T156="バジュラ",U156,0)&amp;"+e15*"&amp;IF(T156="魔動人形",U156,0)&amp;"+e16*"&amp;IF(T156="下位魔神",U156,0)&amp;");"</f>
@@ -23971,27 +24166,26 @@
     </row>
     <row r="157" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D157" s="3">
         <v>5</v>
       </c>
+      <c r="E157" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="F157" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G157" s="8" t="s">
-        <v>313</v>
-      </c>
+      <c r="G157" s="8"/>
       <c r="H157" s="4">
         <f t="shared" si="20"/>
-        <v>30</v>
-      </c>
-      <c r="I157" s="2">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" s="2"/>
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
       <c r="L157" s="2">
@@ -24001,30 +24195,22 @@
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
-      <c r="P157" s="2">
-        <v>10</v>
-      </c>
+      <c r="P157" s="2"/>
       <c r="Q157" s="7"/>
       <c r="U157" s="4"/>
-      <c r="V157" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="Y157" s="3">
-        <v>30</v>
-      </c>
       <c r="AD157" s="4">
         <f t="shared" si="19"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AF157" s="23"/>
       <c r="AG157" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_TS_01.png' alt='伝説の騎士団'&gt;&lt;/td&gt;&lt;td headers='name'&gt;伝説の騎士団&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;〈七つの大罪〉&lt;/td&gt;&lt;td headers='score' id='m155'&gt;30&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;MP上限+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;30&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E157="活動"," ev",IF(E157="限定"," ltd",""))&amp;IF(G157=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A156&amp;"' alt='"&amp;C157&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C157&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D157&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E157="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E157="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F157&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G157&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI157&amp;"'&gt;"&amp;H157&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I157&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J157&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K157&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M157&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N157&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O157&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P157&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q157&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R157&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S157&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T157&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U157&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V157&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W157&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X157&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y157&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z157&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA157&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB157&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC157&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt ev groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_SLOTH_TARAS_01.png' alt='弱さもみんな抱きしめて'&gt;&lt;/td&gt;&lt;td headers='name'&gt;弱さもみんな抱きしめて&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m155'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH157" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI157&amp;"').innerHTML = (b1*"&amp;TEXT(J157,0)&amp;"+b2*"&amp;TEXT(K157,0)&amp;"+b0*"&amp;TEXT(L157,0)&amp;") + (s1*"&amp;TEXT(W157,0)&amp;"+s2*"&amp;TEXT(X157,0)&amp;"+s3*"&amp;TEXT(Y157,0)&amp;"+s4*"&amp;TEXT(Z157,0)&amp;"+s5*"&amp;TEXT(AA157,0)&amp;"+s6*"&amp;TEXT(AB157,0)&amp;"+s7*"&amp;TEXT(AC157,0)&amp;"+s0*"&amp;TEXT(AD157,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R157)),S157,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R157)),S157,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R157)),S157,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R157)),S157,S157)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R157)),S157,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R157)),S157,0)&amp;"+e07*"&amp;IF(T157="反撃",U157,0)&amp;"+e08*"&amp;IF(T157="風属性",U157,0)&amp;"+e09*"&amp;IF(T157="闇属性",U157,0)&amp;"+e10*"&amp;IF(T157="単体",U157,0)&amp;"+e11*"&amp;IF(T157="範囲",U157,0)&amp;"+e12*"&amp;IF(T157="人",U157,0)&amp;"+e13*"&amp;IF(T157="異族",U157,0)&amp;"+e14*"&amp;IF(T157="バジュラ",U157,0)&amp;"+e15*"&amp;IF(T157="魔動人形",U157,0)&amp;"+e16*"&amp;IF(T157="下位魔神",U157,0)&amp;");"</f>
-        <v>document.getElementById('m155').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*30+s4*0+s5*0+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m155').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI157" s="35" t="str">
         <f t="shared" si="17"/>
@@ -24034,17 +24220,14 @@
     </row>
     <row r="158" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D158" s="3">
         <v>5</v>
       </c>
-      <c r="E158" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="F158" s="15" t="s">
         <v>36</v>
       </c>
@@ -24053,34 +24236,29 @@
       </c>
       <c r="H158" s="4">
         <f t="shared" si="20"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I158" s="2">
-        <v>50</v>
-      </c>
-      <c r="J158" s="2">
-        <v>20</v>
-      </c>
-      <c r="K158" s="2">
-        <v>20</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J158" s="2"/>
+      <c r="K158" s="2"/>
       <c r="L158" s="2">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
       <c r="O158" s="2"/>
-      <c r="P158" s="2"/>
+      <c r="P158" s="2">
+        <v>10</v>
+      </c>
       <c r="Q158" s="7"/>
       <c r="U158" s="4"/>
       <c r="V158" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="W158" s="3">
-        <v>30</v>
-      </c>
-      <c r="AA158" s="3">
+        <v>480</v>
+      </c>
+      <c r="Y158" s="3">
         <v>30</v>
       </c>
       <c r="AD158" s="4">
@@ -24089,13 +24267,13 @@
       </c>
       <c r="AF158" s="23"/>
       <c r="AG158" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_TS_02.png' alt='大罪人の聖戦'&gt;&lt;/td&gt;&lt;td headers='name'&gt;大罪人の聖戦&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;〈七つの大罪〉&lt;/td&gt;&lt;td headers='score' id='m156'&gt;50&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;20&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+5&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E158="活動"," ev",IF(E158="限定"," ltd",""))&amp;IF(G158=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A157&amp;"' alt='"&amp;C158&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C158&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D158&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E158="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E158="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F158&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G158&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI158&amp;"'&gt;"&amp;H158&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I158&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J158&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K158&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M158&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N158&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O158&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P158&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q158&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R158&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S158&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T158&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U158&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V158&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W158&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X158&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y158&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z158&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA158&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB158&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC158&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_ST_KASUMI_01.png' alt='伝説の騎士団'&gt;&lt;/td&gt;&lt;td headers='name'&gt;伝説の騎士団&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;〈七つの大罪〉&lt;/td&gt;&lt;td headers='score' id='m156'&gt;30&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;MP上限+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;30&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH158" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI158&amp;"').innerHTML = (b1*"&amp;TEXT(J158,0)&amp;"+b2*"&amp;TEXT(K158,0)&amp;"+b0*"&amp;TEXT(L158,0)&amp;") + (s1*"&amp;TEXT(W158,0)&amp;"+s2*"&amp;TEXT(X158,0)&amp;"+s3*"&amp;TEXT(Y158,0)&amp;"+s4*"&amp;TEXT(Z158,0)&amp;"+s5*"&amp;TEXT(AA158,0)&amp;"+s6*"&amp;TEXT(AB158,0)&amp;"+s7*"&amp;TEXT(AC158,0)&amp;"+s0*"&amp;TEXT(AD158,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R158)),S158,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R158)),S158,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R158)),S158,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R158)),S158,S158)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R158)),S158,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R158)),S158,0)&amp;"+e07*"&amp;IF(T158="反撃",U158,0)&amp;"+e08*"&amp;IF(T158="風属性",U158,0)&amp;"+e09*"&amp;IF(T158="闇属性",U158,0)&amp;"+e10*"&amp;IF(T158="単体",U158,0)&amp;"+e11*"&amp;IF(T158="範囲",U158,0)&amp;"+e12*"&amp;IF(T158="人",U158,0)&amp;"+e13*"&amp;IF(T158="異族",U158,0)&amp;"+e14*"&amp;IF(T158="バジュラ",U158,0)&amp;"+e15*"&amp;IF(T158="魔動人形",U158,0)&amp;"+e16*"&amp;IF(T158="下位魔神",U158,0)&amp;");"</f>
-        <v>document.getElementById('m156').innerHTML = (b1*20+b2*20+b0*20) + (s1*30+s2*0+s3*0+s4*0+s5*30+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m156').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*30+s4*0+s5*0+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI158" s="35" t="str">
         <f t="shared" si="17"/>
@@ -24105,10 +24283,10 @@
     </row>
     <row r="159" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D159" s="3">
         <v>5</v>
@@ -24124,34 +24302,34 @@
       </c>
       <c r="H159" s="4">
         <f t="shared" si="20"/>
-        <v>100</v>
-      </c>
-      <c r="I159" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="I159" s="2">
+        <v>50</v>
+      </c>
       <c r="J159" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K159" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L159" s="2">
         <f t="shared" si="18"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
       <c r="P159" s="2"/>
       <c r="Q159" s="7"/>
-      <c r="T159" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="U159" s="4">
-        <v>40</v>
-      </c>
-      <c r="Z159" s="3">
+      <c r="U159" s="4"/>
+      <c r="V159" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="W159" s="3">
         <v>30</v>
       </c>
-      <c r="AC159" s="3">
+      <c r="AA159" s="3">
         <v>30</v>
       </c>
       <c r="AD159" s="4">
@@ -24160,13 +24338,13 @@
       </c>
       <c r="AF159" s="23"/>
       <c r="AG159" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_TS_03.png' alt='リオネスの英雄、久遠に'&gt;&lt;/td&gt;&lt;td headers='name'&gt;リオネスの英雄、久遠に&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;〈七つの大罪〉&lt;/td&gt;&lt;td headers='score' id='m157'&gt;100&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;魔動人形&lt;/td&gt;&lt;td headers='sp.bonus'&gt;40&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;30&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;30&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E159="活動"," ev",IF(E159="限定"," ltd",""))&amp;IF(G159=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A158&amp;"' alt='"&amp;C159&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C159&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D159&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E159="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E159="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F159&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G159&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI159&amp;"'&gt;"&amp;H159&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I159&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J159&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K159&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M159&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N159&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O159&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P159&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q159&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R159&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S159&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T159&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U159&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V159&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W159&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X159&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y159&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z159&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA159&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB159&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC159&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_TS_01.png' alt='大罪人の聖戦'&gt;&lt;/td&gt;&lt;td headers='name'&gt;大罪人の聖戦&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;〈七つの大罪〉&lt;/td&gt;&lt;td headers='score' id='m157'&gt;50&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;20&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避率+5&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH159" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI159&amp;"').innerHTML = (b1*"&amp;TEXT(J159,0)&amp;"+b2*"&amp;TEXT(K159,0)&amp;"+b0*"&amp;TEXT(L159,0)&amp;") + (s1*"&amp;TEXT(W159,0)&amp;"+s2*"&amp;TEXT(X159,0)&amp;"+s3*"&amp;TEXT(Y159,0)&amp;"+s4*"&amp;TEXT(Z159,0)&amp;"+s5*"&amp;TEXT(AA159,0)&amp;"+s6*"&amp;TEXT(AB159,0)&amp;"+s7*"&amp;TEXT(AC159,0)&amp;"+s0*"&amp;TEXT(AD159,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R159)),S159,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R159)),S159,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R159)),S159,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R159)),S159,S159)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R159)),S159,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R159)),S159,0)&amp;"+e07*"&amp;IF(T159="反撃",U159,0)&amp;"+e08*"&amp;IF(T159="風属性",U159,0)&amp;"+e09*"&amp;IF(T159="闇属性",U159,0)&amp;"+e10*"&amp;IF(T159="単体",U159,0)&amp;"+e11*"&amp;IF(T159="範囲",U159,0)&amp;"+e12*"&amp;IF(T159="人",U159,0)&amp;"+e13*"&amp;IF(T159="異族",U159,0)&amp;"+e14*"&amp;IF(T159="バジュラ",U159,0)&amp;"+e15*"&amp;IF(T159="魔動人形",U159,0)&amp;"+e16*"&amp;IF(T159="下位魔神",U159,0)&amp;");"</f>
-        <v>document.getElementById('m157').innerHTML = (b1*30+b2*30+b0*30) + (s1*0+s2*0+s3*0+s4*30+s5*0+s6*0+s7*30+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*40+e16*0);</v>
+        <v>document.getElementById('m157').innerHTML = (b1*20+b2*20+b0*20) + (s1*30+s2*0+s3*0+s4*0+s5*30+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI159" s="35" t="str">
         <f t="shared" si="17"/>
@@ -24176,10 +24354,10 @@
     </row>
     <row r="160" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>552</v>
+        <v>321</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>553</v>
+        <v>317</v>
       </c>
       <c r="D160" s="3">
         <v>5</v>
@@ -24195,16 +24373,18 @@
       </c>
       <c r="H160" s="4">
         <f t="shared" si="20"/>
-        <v>140</v>
-      </c>
-      <c r="I160" s="2">
-        <v>20</v>
-      </c>
-      <c r="J160" s="2"/>
-      <c r="K160" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2">
+        <v>30</v>
+      </c>
+      <c r="K160" s="2">
+        <v>30</v>
+      </c>
       <c r="L160" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
@@ -24212,27 +24392,30 @@
       <c r="P160" s="2"/>
       <c r="Q160" s="7"/>
       <c r="T160" s="5" t="s">
-        <v>554</v>
+        <v>498</v>
       </c>
       <c r="U160" s="4">
-        <v>80</v>
+        <v>40</v>
+      </c>
+      <c r="Z160" s="3">
+        <v>30</v>
       </c>
       <c r="AC160" s="3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AD160" s="4">
         <f t="shared" si="19"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF160" s="23"/>
       <c r="AG160" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_TS_04.png' alt='&lt;十戒&gt;に抗いし王女'&gt;&lt;/td&gt;&lt;td headers='name'&gt;&lt;十戒&gt;に抗いし王女&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;〈七つの大罪〉&lt;/td&gt;&lt;td headers='score' id='m158'&gt;140&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;下位魔神&lt;/td&gt;&lt;td headers='sp.bonus'&gt;80&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;60&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E160="活動"," ev",IF(E160="限定"," ltd",""))&amp;IF(G160=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A159&amp;"' alt='"&amp;C160&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C160&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D160&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E160="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E160="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F160&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G160&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI160&amp;"'&gt;"&amp;H160&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I160&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J160&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K160&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M160&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N160&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O160&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P160&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q160&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R160&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S160&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T160&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U160&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V160&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W160&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X160&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y160&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z160&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA160&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB160&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC160&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_TS_02.png' alt='リオネスの英雄、久遠に'&gt;&lt;/td&gt;&lt;td headers='name'&gt;リオネスの英雄、久遠に&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;〈七つの大罪〉&lt;/td&gt;&lt;td headers='score' id='m158'&gt;100&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;魔動人形&lt;/td&gt;&lt;td headers='sp.bonus'&gt;40&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;30&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;30&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH160" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI160&amp;"').innerHTML = (b1*"&amp;TEXT(J160,0)&amp;"+b2*"&amp;TEXT(K160,0)&amp;"+b0*"&amp;TEXT(L160,0)&amp;") + (s1*"&amp;TEXT(W160,0)&amp;"+s2*"&amp;TEXT(X160,0)&amp;"+s3*"&amp;TEXT(Y160,0)&amp;"+s4*"&amp;TEXT(Z160,0)&amp;"+s5*"&amp;TEXT(AA160,0)&amp;"+s6*"&amp;TEXT(AB160,0)&amp;"+s7*"&amp;TEXT(AC160,0)&amp;"+s0*"&amp;TEXT(AD160,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R160)),S160,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R160)),S160,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R160)),S160,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R160)),S160,S160)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R160)),S160,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R160)),S160,0)&amp;"+e07*"&amp;IF(T160="反撃",U160,0)&amp;"+e08*"&amp;IF(T160="風属性",U160,0)&amp;"+e09*"&amp;IF(T160="闇属性",U160,0)&amp;"+e10*"&amp;IF(T160="単体",U160,0)&amp;"+e11*"&amp;IF(T160="範囲",U160,0)&amp;"+e12*"&amp;IF(T160="人",U160,0)&amp;"+e13*"&amp;IF(T160="異族",U160,0)&amp;"+e14*"&amp;IF(T160="バジュラ",U160,0)&amp;"+e15*"&amp;IF(T160="魔動人形",U160,0)&amp;"+e16*"&amp;IF(T160="下位魔神",U160,0)&amp;");"</f>
-        <v>document.getElementById('m158').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*60+s0*60) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*80);</v>
+        <v>document.getElementById('m158').innerHTML = (b1*30+b2*30+b0*30) + (s1*0+s2*0+s3*0+s4*30+s5*0+s6*0+s7*30+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*40+e16*0);</v>
       </c>
       <c r="AI160" s="35" t="str">
         <f t="shared" si="17"/>
@@ -24242,10 +24425,10 @@
     </row>
     <row r="161" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>311</v>
+        <v>546</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>319</v>
+        <v>547</v>
       </c>
       <c r="D161" s="3">
         <v>5</v>
@@ -24257,51 +24440,48 @@
         <v>36</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="H161" s="4">
         <f t="shared" si="20"/>
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="I161" s="2">
-        <v>60</v>
-      </c>
-      <c r="J161" s="2">
         <v>20</v>
       </c>
+      <c r="J161" s="2"/>
       <c r="K161" s="2"/>
       <c r="L161" s="2">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
       <c r="P161" s="2"/>
       <c r="Q161" s="7"/>
-      <c r="U161" s="4"/>
-      <c r="V161" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="Z161" s="3">
-        <v>40</v>
-      </c>
-      <c r="AA161" s="3">
-        <v>20</v>
+      <c r="T161" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="U161" s="4">
+        <v>80</v>
+      </c>
+      <c r="AC161" s="3">
+        <v>60</v>
       </c>
       <c r="AD161" s="4">
         <f t="shared" si="19"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AF161" s="23"/>
       <c r="AG161" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_TSP_01.png' alt='異世界ピクニックの衝撃'&gt;&lt;/td&gt;&lt;td headers='name'&gt;異世界ピクニックの衝撃&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;転スラ&lt;/td&gt;&lt;td headers='score' id='m159'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;60&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;MP上限+10, MP回復+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;40&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E161="活動"," ev",IF(E161="限定"," ltd",""))&amp;IF(G161=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A160&amp;"' alt='"&amp;C161&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C161&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D161&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E161="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E161="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F161&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G161&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI161&amp;"'&gt;"&amp;H161&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I161&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J161&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K161&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M161&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N161&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O161&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P161&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q161&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R161&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S161&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T161&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U161&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V161&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W161&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X161&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y161&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z161&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA161&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB161&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC161&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_TS_03.png' alt='&lt;十戒&gt;に抗いし王女'&gt;&lt;/td&gt;&lt;td headers='name'&gt;&lt;十戒&gt;に抗いし王女&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;〈七つの大罪〉&lt;/td&gt;&lt;td headers='score' id='m159'&gt;140&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;下位魔神&lt;/td&gt;&lt;td headers='sp.bonus'&gt;80&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;60&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH161" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI161&amp;"').innerHTML = (b1*"&amp;TEXT(J161,0)&amp;"+b2*"&amp;TEXT(K161,0)&amp;"+b0*"&amp;TEXT(L161,0)&amp;") + (s1*"&amp;TEXT(W161,0)&amp;"+s2*"&amp;TEXT(X161,0)&amp;"+s3*"&amp;TEXT(Y161,0)&amp;"+s4*"&amp;TEXT(Z161,0)&amp;"+s5*"&amp;TEXT(AA161,0)&amp;"+s6*"&amp;TEXT(AB161,0)&amp;"+s7*"&amp;TEXT(AC161,0)&amp;"+s0*"&amp;TEXT(AD161,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R161)),S161,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R161)),S161,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R161)),S161,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R161)),S161,S161)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R161)),S161,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R161)),S161,0)&amp;"+e07*"&amp;IF(T161="反撃",U161,0)&amp;"+e08*"&amp;IF(T161="風属性",U161,0)&amp;"+e09*"&amp;IF(T161="闇属性",U161,0)&amp;"+e10*"&amp;IF(T161="単体",U161,0)&amp;"+e11*"&amp;IF(T161="範囲",U161,0)&amp;"+e12*"&amp;IF(T161="人",U161,0)&amp;"+e13*"&amp;IF(T161="異族",U161,0)&amp;"+e14*"&amp;IF(T161="バジュラ",U161,0)&amp;"+e15*"&amp;IF(T161="魔動人形",U161,0)&amp;"+e16*"&amp;IF(T161="下位魔神",U161,0)&amp;");"</f>
-        <v>document.getElementById('m159').innerHTML = (b1*20+b2*0+b0*20) + (s1*0+s2*0+s3*0+s4*40+s5*20+s6*0+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m159').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*60+s0*60) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*80);</v>
       </c>
       <c r="AI161" s="35" t="str">
         <f t="shared" si="17"/>
@@ -24311,10 +24491,10 @@
     </row>
     <row r="162" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D162" s="3">
         <v>5</v>
@@ -24330,32 +24510,33 @@
       </c>
       <c r="H162" s="4">
         <f t="shared" si="20"/>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I162" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J162" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="2">
         <f t="shared" si="18"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
-      <c r="O162" s="2">
-        <v>30</v>
-      </c>
+      <c r="O162" s="2"/>
       <c r="P162" s="2"/>
       <c r="Q162" s="7"/>
       <c r="U162" s="4"/>
-      <c r="X162" s="3">
+      <c r="V162" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="Z162" s="3">
+        <v>40</v>
+      </c>
+      <c r="AA162" s="3">
         <v>20</v>
-      </c>
-      <c r="AA162" s="3">
-        <v>40</v>
       </c>
       <c r="AD162" s="4">
         <f t="shared" si="19"/>
@@ -24363,13 +24544,13 @@
       </c>
       <c r="AF162" s="23"/>
       <c r="AG162" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_TSP_02.png' alt='斬り開く、仲間とともに'&gt;&lt;/td&gt;&lt;td headers='name'&gt;斬り開く、仲間とともに&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;転スラ&lt;/td&gt;&lt;td headers='score' id='m160'&gt;70&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;30&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;20&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;40&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E162="活動"," ev",IF(E162="限定"," ltd",""))&amp;IF(G162=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A161&amp;"' alt='"&amp;C162&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C162&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D162&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E162="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E162="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F162&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G162&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI162&amp;"'&gt;"&amp;H162&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I162&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J162&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K162&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M162&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N162&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O162&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P162&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q162&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R162&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S162&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T162&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U162&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V162&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W162&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X162&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y162&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z162&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA162&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB162&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC162&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_TS_04.png' alt='異世界ピクニックの衝撃'&gt;&lt;/td&gt;&lt;td headers='name'&gt;異世界ピクニックの衝撃&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;転スラ&lt;/td&gt;&lt;td headers='score' id='m160'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;60&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;MP上限+10, MP回復+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;40&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH162" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI162&amp;"').innerHTML = (b1*"&amp;TEXT(J162,0)&amp;"+b2*"&amp;TEXT(K162,0)&amp;"+b0*"&amp;TEXT(L162,0)&amp;") + (s1*"&amp;TEXT(W162,0)&amp;"+s2*"&amp;TEXT(X162,0)&amp;"+s3*"&amp;TEXT(Y162,0)&amp;"+s4*"&amp;TEXT(Z162,0)&amp;"+s5*"&amp;TEXT(AA162,0)&amp;"+s6*"&amp;TEXT(AB162,0)&amp;"+s7*"&amp;TEXT(AC162,0)&amp;"+s0*"&amp;TEXT(AD162,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R162)),S162,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R162)),S162,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R162)),S162,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R162)),S162,S162)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R162)),S162,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R162)),S162,0)&amp;"+e07*"&amp;IF(T162="反撃",U162,0)&amp;"+e08*"&amp;IF(T162="風属性",U162,0)&amp;"+e09*"&amp;IF(T162="闇属性",U162,0)&amp;"+e10*"&amp;IF(T162="単体",U162,0)&amp;"+e11*"&amp;IF(T162="範囲",U162,0)&amp;"+e12*"&amp;IF(T162="人",U162,0)&amp;"+e13*"&amp;IF(T162="異族",U162,0)&amp;"+e14*"&amp;IF(T162="バジュラ",U162,0)&amp;"+e15*"&amp;IF(T162="魔動人形",U162,0)&amp;"+e16*"&amp;IF(T162="下位魔神",U162,0)&amp;");"</f>
-        <v>document.getElementById('m160').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*20+s3*0+s4*0+s5*40+s6*0+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m160').innerHTML = (b1*20+b2*0+b0*20) + (s1*0+s2*0+s3*0+s4*40+s5*20+s6*0+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI162" s="35" t="str">
         <f t="shared" si="17"/>
@@ -24379,51 +24560,65 @@
     </row>
     <row r="163" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D163" s="3">
         <v>5</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F163" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="G163" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="G163" s="8" t="s">
+        <v>320</v>
+      </c>
       <c r="H163" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I163" s="2"/>
-      <c r="J163" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="I163" s="2">
+        <v>40</v>
+      </c>
+      <c r="J163" s="2">
+        <v>30</v>
+      </c>
       <c r="K163" s="2"/>
       <c r="L163" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" s="2"/>
-      <c r="O163" s="2"/>
+      <c r="O163" s="2">
+        <v>30</v>
+      </c>
       <c r="P163" s="2"/>
       <c r="Q163" s="7"/>
       <c r="U163" s="4"/>
+      <c r="X163" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA163" s="3">
+        <v>40</v>
+      </c>
       <c r="AD163" s="4">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF163" s="23"/>
       <c r="AG163" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ev groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_UNDOKAI_2018_01.png' alt='一番眩しい笑顔'&gt;&lt;/td&gt;&lt;td headers='name'&gt;一番眩しい笑顔&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
-Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m161'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E163="活動"," ev",IF(E163="限定"," ltd",""))&amp;IF(G163=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A162&amp;"' alt='"&amp;C163&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C163&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D163&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E163="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E163="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F163&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G163&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI163&amp;"'&gt;"&amp;H163&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I163&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J163&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K163&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M163&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N163&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O163&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P163&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q163&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R163&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S163&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T163&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U163&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V163&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W163&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X163&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y163&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z163&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA163&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB163&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC163&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_TSP_01.png' alt='斬り開く、仲間とともに'&gt;&lt;/td&gt;&lt;td headers='name'&gt;斬り開く、仲間とともに&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;転スラ&lt;/td&gt;&lt;td headers='score' id='m161'&gt;70&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;30&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;20&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;40&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH163" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI163&amp;"').innerHTML = (b1*"&amp;TEXT(J163,0)&amp;"+b2*"&amp;TEXT(K163,0)&amp;"+b0*"&amp;TEXT(L163,0)&amp;") + (s1*"&amp;TEXT(W163,0)&amp;"+s2*"&amp;TEXT(X163,0)&amp;"+s3*"&amp;TEXT(Y163,0)&amp;"+s4*"&amp;TEXT(Z163,0)&amp;"+s5*"&amp;TEXT(AA163,0)&amp;"+s6*"&amp;TEXT(AB163,0)&amp;"+s7*"&amp;TEXT(AC163,0)&amp;"+s0*"&amp;TEXT(AD163,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R163)),S163,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R163)),S163,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R163)),S163,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R163)),S163,S163)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R163)),S163,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R163)),S163,0)&amp;"+e07*"&amp;IF(T163="反撃",U163,0)&amp;"+e08*"&amp;IF(T163="風属性",U163,0)&amp;"+e09*"&amp;IF(T163="闇属性",U163,0)&amp;"+e10*"&amp;IF(T163="単体",U163,0)&amp;"+e11*"&amp;IF(T163="範囲",U163,0)&amp;"+e12*"&amp;IF(T163="人",U163,0)&amp;"+e13*"&amp;IF(T163="異族",U163,0)&amp;"+e14*"&amp;IF(T163="バジュラ",U163,0)&amp;"+e15*"&amp;IF(T163="魔動人形",U163,0)&amp;"+e16*"&amp;IF(T163="下位魔神",U163,0)&amp;");"</f>
-        <v>document.getElementById('m161').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m161').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*20+s3*0+s4*0+s5*40+s6*0+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI163" s="35" t="str">
         <f t="shared" si="17"/>
@@ -24433,16 +24628,19 @@
     </row>
     <row r="164" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D164" s="3">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="F164" s="15" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="G164" s="8"/>
       <c r="H164" s="4">
@@ -24468,9 +24666,9 @@
       </c>
       <c r="AF164" s="23"/>
       <c r="AG164" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_FUJICA_01.png' alt='神童と呼ばれた友'&gt;&lt;/td&gt;&lt;td headers='name'&gt;神童と呼ばれた友&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m162'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E164="活動"," ev",IF(E164="限定"," ltd",""))&amp;IF(G164=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A163&amp;"' alt='"&amp;C164&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C164&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D164&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E164="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E164="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F164&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G164&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI164&amp;"'&gt;"&amp;H164&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I164&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J164&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K164&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M164&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N164&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O164&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P164&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q164&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R164&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S164&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T164&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U164&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V164&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W164&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X164&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y164&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z164&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA164&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB164&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC164&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt ev groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_TSP_02.png' alt='一番眩しい笑顔'&gt;&lt;/td&gt;&lt;td headers='name'&gt;一番眩しい笑顔&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
+Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m162'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH164" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI164&amp;"').innerHTML = (b1*"&amp;TEXT(J164,0)&amp;"+b2*"&amp;TEXT(K164,0)&amp;"+b0*"&amp;TEXT(L164,0)&amp;") + (s1*"&amp;TEXT(W164,0)&amp;"+s2*"&amp;TEXT(X164,0)&amp;"+s3*"&amp;TEXT(Y164,0)&amp;"+s4*"&amp;TEXT(Z164,0)&amp;"+s5*"&amp;TEXT(AA164,0)&amp;"+s6*"&amp;TEXT(AB164,0)&amp;"+s7*"&amp;TEXT(AC164,0)&amp;"+s0*"&amp;TEXT(AD164,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R164)),S164,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R164)),S164,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R164)),S164,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R164)),S164,S164)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R164)),S164,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R164)),S164,0)&amp;"+e07*"&amp;IF(T164="反撃",U164,0)&amp;"+e08*"&amp;IF(T164="風属性",U164,0)&amp;"+e09*"&amp;IF(T164="闇属性",U164,0)&amp;"+e10*"&amp;IF(T164="単体",U164,0)&amp;"+e11*"&amp;IF(T164="範囲",U164,0)&amp;"+e12*"&amp;IF(T164="人",U164,0)&amp;"+e13*"&amp;IF(T164="異族",U164,0)&amp;"+e14*"&amp;IF(T164="バジュラ",U164,0)&amp;"+e15*"&amp;IF(T164="魔動人形",U164,0)&amp;"+e16*"&amp;IF(T164="下位魔神",U164,0)&amp;");"</f>
@@ -24484,27 +24682,23 @@
     </row>
     <row r="165" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D165" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F165" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="G165" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="G165" s="8"/>
       <c r="H165" s="4">
         <f t="shared" si="20"/>
-        <v>60</v>
-      </c>
-      <c r="I165" s="2">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" s="2"/>
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
       <c r="L165" s="2">
@@ -24516,35 +24710,20 @@
       <c r="O165" s="2"/>
       <c r="P165" s="2"/>
       <c r="Q165" s="7"/>
-      <c r="R165" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S165" s="3">
-        <v>20</v>
-      </c>
       <c r="U165" s="4"/>
-      <c r="V165" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y165" s="3">
-        <v>40</v>
-      </c>
-      <c r="AC165" s="3">
-        <v>20</v>
-      </c>
       <c r="AD165" s="4">
         <f t="shared" si="19"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AF165" s="23"/>
       <c r="AG165" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_IKASA_01.png' alt='未来は両の手の中に'&gt;&lt;/td&gt;&lt;td headers='name'&gt;未来は両の手の中に&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m163'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;70&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;治癒力+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;40&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;20&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E165="活動"," ev",IF(E165="限定"," ltd",""))&amp;IF(G165=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A164&amp;"' alt='"&amp;C165&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C165&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D165&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E165="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E165="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F165&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G165&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI165&amp;"'&gt;"&amp;H165&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I165&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J165&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K165&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M165&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N165&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O165&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P165&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q165&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R165&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S165&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T165&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U165&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V165&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W165&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X165&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y165&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z165&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA165&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB165&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC165&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_UNDOKAI_2018_01.png' alt='神童と呼ばれた友'&gt;&lt;/td&gt;&lt;td headers='name'&gt;神童と呼ばれた友&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m163'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH165" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI165&amp;"').innerHTML = (b1*"&amp;TEXT(J165,0)&amp;"+b2*"&amp;TEXT(K165,0)&amp;"+b0*"&amp;TEXT(L165,0)&amp;") + (s1*"&amp;TEXT(W165,0)&amp;"+s2*"&amp;TEXT(X165,0)&amp;"+s3*"&amp;TEXT(Y165,0)&amp;"+s4*"&amp;TEXT(Z165,0)&amp;"+s5*"&amp;TEXT(AA165,0)&amp;"+s6*"&amp;TEXT(AB165,0)&amp;"+s7*"&amp;TEXT(AC165,0)&amp;"+s0*"&amp;TEXT(AD165,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R165)),S165,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R165)),S165,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R165)),S165,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R165)),S165,S165)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R165)),S165,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R165)),S165,0)&amp;"+e07*"&amp;IF(T165="反撃",U165,0)&amp;"+e08*"&amp;IF(T165="風属性",U165,0)&amp;"+e09*"&amp;IF(T165="闇属性",U165,0)&amp;"+e10*"&amp;IF(T165="単体",U165,0)&amp;"+e11*"&amp;IF(T165="範囲",U165,0)&amp;"+e12*"&amp;IF(T165="人",U165,0)&amp;"+e13*"&amp;IF(T165="異族",U165,0)&amp;"+e14*"&amp;IF(T165="バジュラ",U165,0)&amp;"+e15*"&amp;IF(T165="魔動人形",U165,0)&amp;"+e16*"&amp;IF(T165="下位魔神",U165,0)&amp;");"</f>
-        <v>document.getElementById('m163').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*40+s4*0+s5*0+s6*0+s7*20+s0*40) + (e01*20+e02*0+e03*0+e04*20+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m163').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI165" s="35" t="str">
         <f t="shared" si="17"/>
@@ -24554,26 +24733,27 @@
     </row>
     <row r="166" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D166" s="3">
         <v>5</v>
       </c>
-      <c r="E166" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="F166" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="G166" s="8"/>
+      <c r="G166" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="H166" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I166" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="I166" s="2">
+        <v>70</v>
+      </c>
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
       <c r="L166" s="2">
@@ -24585,20 +24765,35 @@
       <c r="O166" s="2"/>
       <c r="P166" s="2"/>
       <c r="Q166" s="7"/>
+      <c r="R166" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S166" s="3">
+        <v>20</v>
+      </c>
       <c r="U166" s="4"/>
+      <c r="V166" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y166" s="3">
+        <v>40</v>
+      </c>
+      <c r="AC166" s="3">
+        <v>20</v>
+      </c>
       <c r="AD166" s="4">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF166" s="23"/>
       <c r="AG166" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ltd groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_ITSUKI_01.png' alt='甘くない、それも個性'&gt;&lt;/td&gt;&lt;td headers='name'&gt;甘くない、それも個性&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m164'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E166="活動"," ev",IF(E166="限定"," ltd",""))&amp;IF(G166=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A165&amp;"' alt='"&amp;C166&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C166&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D166&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E166="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E166="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F166&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G166&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI166&amp;"'&gt;"&amp;H166&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I166&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J166&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K166&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M166&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N166&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O166&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P166&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q166&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R166&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S166&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T166&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U166&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V166&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W166&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X166&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y166&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z166&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA166&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB166&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC166&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_FUJICA_01.png' alt='未来は両の手の中に'&gt;&lt;/td&gt;&lt;td headers='name'&gt;未来は両の手の中に&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m164'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;70&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;治癒力+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;40&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;20&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH166" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI166&amp;"').innerHTML = (b1*"&amp;TEXT(J166,0)&amp;"+b2*"&amp;TEXT(K166,0)&amp;"+b0*"&amp;TEXT(L166,0)&amp;") + (s1*"&amp;TEXT(W166,0)&amp;"+s2*"&amp;TEXT(X166,0)&amp;"+s3*"&amp;TEXT(Y166,0)&amp;"+s4*"&amp;TEXT(Z166,0)&amp;"+s5*"&amp;TEXT(AA166,0)&amp;"+s6*"&amp;TEXT(AB166,0)&amp;"+s7*"&amp;TEXT(AC166,0)&amp;"+s0*"&amp;TEXT(AD166,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R166)),S166,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R166)),S166,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R166)),S166,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R166)),S166,S166)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R166)),S166,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R166)),S166,0)&amp;"+e07*"&amp;IF(T166="反撃",U166,0)&amp;"+e08*"&amp;IF(T166="風属性",U166,0)&amp;"+e09*"&amp;IF(T166="闇属性",U166,0)&amp;"+e10*"&amp;IF(T166="単体",U166,0)&amp;"+e11*"&amp;IF(T166="範囲",U166,0)&amp;"+e12*"&amp;IF(T166="人",U166,0)&amp;"+e13*"&amp;IF(T166="異族",U166,0)&amp;"+e14*"&amp;IF(T166="バジュラ",U166,0)&amp;"+e15*"&amp;IF(T166="魔動人形",U166,0)&amp;"+e16*"&amp;IF(T166="下位魔神",U166,0)&amp;");"</f>
-        <v>document.getElementById('m164').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m164').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*40+s4*0+s5*0+s6*0+s7*20+s0*40) + (e01*20+e02*0+e03*0+e04*20+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI166" s="35" t="str">
         <f t="shared" si="17"/>
@@ -24608,13 +24803,16 @@
     </row>
     <row r="167" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D167" s="3">
         <v>5</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="F167" s="15" t="s">
         <v>327</v>
@@ -24643,8 +24841,8 @@
       </c>
       <c r="AF167" s="23"/>
       <c r="AG167" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_IZAYOI_01.png' alt='空駆ける夜狐'&gt;&lt;/td&gt;&lt;td headers='name'&gt;空駆ける夜狐&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+        <f>"&lt;tr class='mmt"&amp;IF(E167="活動"," ev",IF(E167="限定"," ltd",""))&amp;IF(G167=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A166&amp;"' alt='"&amp;C167&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C167&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D167&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E167="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E167="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F167&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G167&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI167&amp;"'&gt;"&amp;H167&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I167&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J167&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K167&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M167&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N167&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O167&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P167&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q167&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R167&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S167&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T167&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U167&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V167&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W167&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X167&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y167&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z167&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA167&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB167&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC167&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt ltd groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_IKASA_01.png' alt='甘くない、それも個性'&gt;&lt;/td&gt;&lt;td headers='name'&gt;甘くない、それも個性&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
 Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m165'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH167" s="31" t="str">
@@ -24659,30 +24857,23 @@
     </row>
     <row r="168" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D168" s="3">
         <v>5</v>
       </c>
-      <c r="E168" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="F168" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="G168" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="G168" s="8"/>
       <c r="H168" s="4">
         <f t="shared" si="20"/>
-        <v>20</v>
-      </c>
-      <c r="I168" s="2">
-        <v>50</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" s="2"/>
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
       <c r="L168" s="2">
@@ -24690,38 +24881,24 @@
         <v>0</v>
       </c>
       <c r="M168" s="2"/>
-      <c r="N168" s="2">
-        <v>20</v>
-      </c>
+      <c r="N168" s="2"/>
       <c r="O168" s="2"/>
       <c r="P168" s="2"/>
       <c r="Q168" s="7"/>
       <c r="U168" s="4"/>
-      <c r="V168" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="W168" s="3">
-        <v>20</v>
-      </c>
-      <c r="AA168" s="3">
-        <v>20</v>
-      </c>
-      <c r="AB168" s="3">
-        <v>20</v>
-      </c>
       <c r="AD168" s="4">
         <f t="shared" si="19"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AF168" s="23"/>
       <c r="AG168" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_KAGURA_01.png' alt='雪解け。故郷にて'&gt;&lt;/td&gt;&lt;td headers='name'&gt;雪解け。故郷にて&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m166'&gt;20&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;20&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;単体耐性+30&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;20&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E168="活動"," ev",IF(E168="限定"," ltd",""))&amp;IF(G168=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A167&amp;"' alt='"&amp;C168&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C168&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D168&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E168="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E168="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F168&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G168&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI168&amp;"'&gt;"&amp;H168&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I168&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J168&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K168&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M168&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N168&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O168&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P168&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q168&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R168&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S168&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T168&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U168&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V168&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W168&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X168&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y168&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z168&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA168&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB168&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC168&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_ITSUKI_01.png' alt='空駆ける夜狐'&gt;&lt;/td&gt;&lt;td headers='name'&gt;空駆ける夜狐&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m166'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH168" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI168&amp;"').innerHTML = (b1*"&amp;TEXT(J168,0)&amp;"+b2*"&amp;TEXT(K168,0)&amp;"+b0*"&amp;TEXT(L168,0)&amp;") + (s1*"&amp;TEXT(W168,0)&amp;"+s2*"&amp;TEXT(X168,0)&amp;"+s3*"&amp;TEXT(Y168,0)&amp;"+s4*"&amp;TEXT(Z168,0)&amp;"+s5*"&amp;TEXT(AA168,0)&amp;"+s6*"&amp;TEXT(AB168,0)&amp;"+s7*"&amp;TEXT(AC168,0)&amp;"+s0*"&amp;TEXT(AD168,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R168)),S168,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R168)),S168,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R168)),S168,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R168)),S168,S168)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R168)),S168,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R168)),S168,0)&amp;"+e07*"&amp;IF(T168="反撃",U168,0)&amp;"+e08*"&amp;IF(T168="風属性",U168,0)&amp;"+e09*"&amp;IF(T168="闇属性",U168,0)&amp;"+e10*"&amp;IF(T168="単体",U168,0)&amp;"+e11*"&amp;IF(T168="範囲",U168,0)&amp;"+e12*"&amp;IF(T168="人",U168,0)&amp;"+e13*"&amp;IF(T168="異族",U168,0)&amp;"+e14*"&amp;IF(T168="バジュラ",U168,0)&amp;"+e15*"&amp;IF(T168="魔動人形",U168,0)&amp;"+e16*"&amp;IF(T168="下位魔神",U168,0)&amp;");"</f>
-        <v>document.getElementById('m166').innerHTML = (b1*0+b2*0+b0*0) + (s1*20+s2*0+s3*0+s4*0+s5*20+s6*20+s7*0+s0*20) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m166').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI168" s="35" t="str">
         <f t="shared" si="17"/>
@@ -24731,53 +24908,54 @@
     </row>
     <row r="169" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D169" s="3">
         <v>5</v>
       </c>
+      <c r="E169" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="F169" s="15" t="s">
         <v>327</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>338</v>
+        <v>68</v>
       </c>
       <c r="H169" s="4">
         <f t="shared" si="20"/>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I169" s="2">
-        <v>40</v>
-      </c>
-      <c r="J169" s="2">
-        <v>40</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="J169" s="2"/>
       <c r="K169" s="2"/>
       <c r="L169" s="2">
         <f t="shared" si="18"/>
-        <v>40</v>
-      </c>
-      <c r="M169" s="2">
-        <v>10</v>
-      </c>
-      <c r="N169" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="M169" s="2"/>
+      <c r="N169" s="2">
+        <v>20</v>
+      </c>
       <c r="O169" s="2"/>
       <c r="P169" s="2"/>
       <c r="Q169" s="7"/>
       <c r="U169" s="4"/>
       <c r="V169" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y169" s="3">
+        <v>487</v>
+      </c>
+      <c r="W169" s="3">
         <v>20</v>
       </c>
-      <c r="Z169" s="3">
+      <c r="AA169" s="3">
         <v>20</v>
       </c>
-      <c r="AA169" s="3">
+      <c r="AB169" s="3">
         <v>20</v>
       </c>
       <c r="AD169" s="4">
@@ -24786,13 +24964,13 @@
       </c>
       <c r="AF169" s="23"/>
       <c r="AG169" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_KURT.png' alt='閃光、交わりし瞬間'&gt;&lt;/td&gt;&lt;td headers='name'&gt;閃光、交わりし瞬間&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m167'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;40&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;10&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+5&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;20&lt;/td&gt;&lt;td headers='sinD'&gt;20&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E169="活動"," ev",IF(E169="限定"," ltd",""))&amp;IF(G169=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A168&amp;"' alt='"&amp;C169&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C169&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D169&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E169="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E169="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F169&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G169&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI169&amp;"'&gt;"&amp;H169&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I169&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J169&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K169&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M169&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N169&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O169&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P169&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q169&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R169&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S169&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T169&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U169&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V169&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W169&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X169&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y169&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z169&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA169&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB169&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC169&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_IZAYOI_01.png' alt='雪解け。故郷にて'&gt;&lt;/td&gt;&lt;td headers='name'&gt;雪解け。故郷にて&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m167'&gt;20&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;20&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;単体耐性+30&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;20&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH169" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI169&amp;"').innerHTML = (b1*"&amp;TEXT(J169,0)&amp;"+b2*"&amp;TEXT(K169,0)&amp;"+b0*"&amp;TEXT(L169,0)&amp;") + (s1*"&amp;TEXT(W169,0)&amp;"+s2*"&amp;TEXT(X169,0)&amp;"+s3*"&amp;TEXT(Y169,0)&amp;"+s4*"&amp;TEXT(Z169,0)&amp;"+s5*"&amp;TEXT(AA169,0)&amp;"+s6*"&amp;TEXT(AB169,0)&amp;"+s7*"&amp;TEXT(AC169,0)&amp;"+s0*"&amp;TEXT(AD169,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R169)),S169,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R169)),S169,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R169)),S169,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R169)),S169,S169)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R169)),S169,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R169)),S169,0)&amp;"+e07*"&amp;IF(T169="反撃",U169,0)&amp;"+e08*"&amp;IF(T169="風属性",U169,0)&amp;"+e09*"&amp;IF(T169="闇属性",U169,0)&amp;"+e10*"&amp;IF(T169="単体",U169,0)&amp;"+e11*"&amp;IF(T169="範囲",U169,0)&amp;"+e12*"&amp;IF(T169="人",U169,0)&amp;"+e13*"&amp;IF(T169="異族",U169,0)&amp;"+e14*"&amp;IF(T169="バジュラ",U169,0)&amp;"+e15*"&amp;IF(T169="魔動人形",U169,0)&amp;"+e16*"&amp;IF(T169="下位魔神",U169,0)&amp;");"</f>
-        <v>document.getElementById('m167').innerHTML = (b1*40+b2*0+b0*40) + (s1*0+s2*0+s3*20+s4*20+s5*20+s6*0+s7*0+s0*20) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m167').innerHTML = (b1*0+b2*0+b0*0) + (s1*20+s2*0+s3*0+s4*0+s5*20+s6*20+s7*0+s0*20) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI169" s="35" t="str">
         <f t="shared" si="17"/>
@@ -24802,10 +24980,10 @@
     </row>
     <row r="170" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D170" s="3">
         <v>5</v>
@@ -24818,45 +24996,52 @@
       </c>
       <c r="H170" s="4">
         <f t="shared" si="20"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I170" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J170" s="2">
-        <v>20</v>
-      </c>
-      <c r="K170" s="2">
-        <v>20</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K170" s="2"/>
       <c r="L170" s="2">
         <f t="shared" si="18"/>
-        <v>20</v>
-      </c>
-      <c r="M170" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="M170" s="2">
+        <v>10</v>
+      </c>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
-      <c r="P170" s="2">
-        <v>10</v>
-      </c>
+      <c r="P170" s="2"/>
       <c r="Q170" s="7"/>
       <c r="U170" s="4"/>
-      <c r="AB170" s="3">
-        <v>60</v>
+      <c r="V170" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y170" s="3">
+        <v>20</v>
+      </c>
+      <c r="Z170" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA170" s="3">
+        <v>20</v>
       </c>
       <c r="AD170" s="4">
         <f t="shared" si="19"/>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AF170" s="23"/>
       <c r="AG170" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_KUZA_01.png' alt='誓いの刃'&gt;&lt;/td&gt;&lt;td headers='name'&gt;誓いの刃&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m168'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;20&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;60&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E170="活動"," ev",IF(E170="限定"," ltd",""))&amp;IF(G170=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A169&amp;"' alt='"&amp;C170&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C170&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D170&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E170="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E170="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F170&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G170&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI170&amp;"'&gt;"&amp;H170&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I170&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J170&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K170&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M170&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N170&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O170&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P170&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q170&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R170&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S170&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T170&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U170&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V170&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W170&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X170&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y170&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z170&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA170&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB170&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC170&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_KAGURA_01.png' alt='閃光、交わりし瞬間'&gt;&lt;/td&gt;&lt;td headers='name'&gt;閃光、交わりし瞬間&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m168'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;40&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;10&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避率+5&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;20&lt;/td&gt;&lt;td headers='sinD'&gt;20&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH170" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI170&amp;"').innerHTML = (b1*"&amp;TEXT(J170,0)&amp;"+b2*"&amp;TEXT(K170,0)&amp;"+b0*"&amp;TEXT(L170,0)&amp;") + (s1*"&amp;TEXT(W170,0)&amp;"+s2*"&amp;TEXT(X170,0)&amp;"+s3*"&amp;TEXT(Y170,0)&amp;"+s4*"&amp;TEXT(Z170,0)&amp;"+s5*"&amp;TEXT(AA170,0)&amp;"+s6*"&amp;TEXT(AB170,0)&amp;"+s7*"&amp;TEXT(AC170,0)&amp;"+s0*"&amp;TEXT(AD170,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R170)),S170,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R170)),S170,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R170)),S170,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R170)),S170,S170)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R170)),S170,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R170)),S170,0)&amp;"+e07*"&amp;IF(T170="反撃",U170,0)&amp;"+e08*"&amp;IF(T170="風属性",U170,0)&amp;"+e09*"&amp;IF(T170="闇属性",U170,0)&amp;"+e10*"&amp;IF(T170="単体",U170,0)&amp;"+e11*"&amp;IF(T170="範囲",U170,0)&amp;"+e12*"&amp;IF(T170="人",U170,0)&amp;"+e13*"&amp;IF(T170="異族",U170,0)&amp;"+e14*"&amp;IF(T170="バジュラ",U170,0)&amp;"+e15*"&amp;IF(T170="魔動人形",U170,0)&amp;"+e16*"&amp;IF(T170="下位魔神",U170,0)&amp;");"</f>
-        <v>document.getElementById('m168').innerHTML = (b1*20+b2*20+b0*20) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*60+s7*0+s0*60) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m168').innerHTML = (b1*40+b2*0+b0*40) + (s1*0+s2*0+s3*20+s4*20+s5*20+s6*0+s7*0+s0*20) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI170" s="35" t="str">
         <f t="shared" si="17"/>
@@ -24866,17 +25051,14 @@
     </row>
     <row r="171" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D171" s="3">
         <v>5</v>
       </c>
-      <c r="E171" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="F171" s="15" t="s">
         <v>327</v>
       </c>
@@ -24885,48 +25067,45 @@
       </c>
       <c r="H171" s="4">
         <f t="shared" si="20"/>
-        <v>100</v>
-      </c>
-      <c r="I171" s="2"/>
-      <c r="J171" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="I171" s="2">
+        <v>50</v>
+      </c>
+      <c r="J171" s="2">
+        <v>20</v>
+      </c>
       <c r="K171" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L171" s="2">
         <f t="shared" si="18"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
-      <c r="P171" s="2"/>
+      <c r="P171" s="2">
+        <v>10</v>
+      </c>
       <c r="Q171" s="7"/>
-      <c r="R171" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="S171" s="3">
-        <v>30</v>
-      </c>
       <c r="U171" s="4"/>
-      <c r="Y171" s="3">
-        <v>30</v>
-      </c>
       <c r="AB171" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AD171" s="4">
         <f t="shared" si="19"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AF171" s="23"/>
       <c r="AG171" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_LEYDOW_01.png' alt='古の装い'&gt;&lt;/td&gt;&lt;td headers='name'&gt;古の装い&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m169'&gt;100&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;40&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;射撃&amp;魔法&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;30&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E171="活動"," ev",IF(E171="限定"," ltd",""))&amp;IF(G171=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A170&amp;"' alt='"&amp;C171&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C171&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D171&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E171="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E171="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F171&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G171&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI171&amp;"'&gt;"&amp;H171&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I171&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J171&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K171&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M171&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N171&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O171&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P171&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q171&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R171&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S171&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T171&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U171&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V171&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W171&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X171&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y171&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z171&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA171&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB171&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC171&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_KURT.png' alt='誓いの刃'&gt;&lt;/td&gt;&lt;td headers='name'&gt;誓いの刃&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m169'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;20&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;60&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH171" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI171&amp;"').innerHTML = (b1*"&amp;TEXT(J171,0)&amp;"+b2*"&amp;TEXT(K171,0)&amp;"+b0*"&amp;TEXT(L171,0)&amp;") + (s1*"&amp;TEXT(W171,0)&amp;"+s2*"&amp;TEXT(X171,0)&amp;"+s3*"&amp;TEXT(Y171,0)&amp;"+s4*"&amp;TEXT(Z171,0)&amp;"+s5*"&amp;TEXT(AA171,0)&amp;"+s6*"&amp;TEXT(AB171,0)&amp;"+s7*"&amp;TEXT(AC171,0)&amp;"+s0*"&amp;TEXT(AD171,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R171)),S171,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R171)),S171,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R171)),S171,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R171)),S171,S171)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R171)),S171,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R171)),S171,0)&amp;"+e07*"&amp;IF(T171="反撃",U171,0)&amp;"+e08*"&amp;IF(T171="風属性",U171,0)&amp;"+e09*"&amp;IF(T171="闇属性",U171,0)&amp;"+e10*"&amp;IF(T171="単体",U171,0)&amp;"+e11*"&amp;IF(T171="範囲",U171,0)&amp;"+e12*"&amp;IF(T171="人",U171,0)&amp;"+e13*"&amp;IF(T171="異族",U171,0)&amp;"+e14*"&amp;IF(T171="バジュラ",U171,0)&amp;"+e15*"&amp;IF(T171="魔動人形",U171,0)&amp;"+e16*"&amp;IF(T171="下位魔神",U171,0)&amp;");"</f>
-        <v>document.getElementById('m169').innerHTML = (b1*0+b2*40+b0*40) + (s1*0+s2*0+s3*30+s4*0+s5*0+s6*30+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*30+e05*30+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m169').innerHTML = (b1*20+b2*20+b0*20) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*60+s7*0+s0*60) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI171" s="35" t="str">
         <f t="shared" si="17"/>
@@ -24936,10 +25115,10 @@
     </row>
     <row r="172" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>534</v>
+        <v>341</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>540</v>
+        <v>342</v>
       </c>
       <c r="D172" s="3">
         <v>5</v>
@@ -24955,52 +25134,48 @@
       </c>
       <c r="H172" s="4">
         <f t="shared" si="20"/>
-        <v>80</v>
-      </c>
-      <c r="I172" s="2">
+        <v>100</v>
+      </c>
+      <c r="I172" s="2"/>
+      <c r="J172" s="2"/>
+      <c r="K172" s="2">
         <v>40</v>
       </c>
-      <c r="J172" s="2"/>
-      <c r="K172" s="2"/>
       <c r="L172" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
       <c r="P172" s="2"/>
       <c r="Q172" s="7"/>
-      <c r="R172" s="3" t="s">
-        <v>14</v>
+      <c r="R172" s="5" t="s">
+        <v>499</v>
       </c>
       <c r="S172" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="U172" s="4"/>
-      <c r="V172" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="AA172" s="3">
-        <v>20</v>
+      <c r="Y172" s="3">
+        <v>30</v>
       </c>
       <c r="AB172" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AD172" s="4">
         <f t="shared" si="19"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AF172" s="23"/>
       <c r="AG172" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_REIMEI_01.png' alt='甘き血刃'&gt;&lt;/td&gt;&lt;td headers='name'&gt;甘き血刃&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m170'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;斬撃耐性+10,
-命中率+5&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;40&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E172="活動"," ev",IF(E172="限定"," ltd",""))&amp;IF(G172=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A171&amp;"' alt='"&amp;C172&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C172&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D172&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E172="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E172="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F172&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G172&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI172&amp;"'&gt;"&amp;H172&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I172&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J172&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K172&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M172&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N172&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O172&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P172&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q172&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R172&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S172&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T172&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U172&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V172&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W172&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X172&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y172&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z172&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA172&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB172&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC172&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_KUZA_01.png' alt='古の装い'&gt;&lt;/td&gt;&lt;td headers='name'&gt;古の装い&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m170'&gt;100&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;40&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;射撃&amp;魔法&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;30&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH172" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI172&amp;"').innerHTML = (b1*"&amp;TEXT(J172,0)&amp;"+b2*"&amp;TEXT(K172,0)&amp;"+b0*"&amp;TEXT(L172,0)&amp;") + (s1*"&amp;TEXT(W172,0)&amp;"+s2*"&amp;TEXT(X172,0)&amp;"+s3*"&amp;TEXT(Y172,0)&amp;"+s4*"&amp;TEXT(Z172,0)&amp;"+s5*"&amp;TEXT(AA172,0)&amp;"+s6*"&amp;TEXT(AB172,0)&amp;"+s7*"&amp;TEXT(AC172,0)&amp;"+s0*"&amp;TEXT(AD172,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R172)),S172,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R172)),S172,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R172)),S172,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R172)),S172,S172)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R172)),S172,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R172)),S172,0)&amp;"+e07*"&amp;IF(T172="反撃",U172,0)&amp;"+e08*"&amp;IF(T172="風属性",U172,0)&amp;"+e09*"&amp;IF(T172="闇属性",U172,0)&amp;"+e10*"&amp;IF(T172="単体",U172,0)&amp;"+e11*"&amp;IF(T172="範囲",U172,0)&amp;"+e12*"&amp;IF(T172="人",U172,0)&amp;"+e13*"&amp;IF(T172="異族",U172,0)&amp;"+e14*"&amp;IF(T172="バジュラ",U172,0)&amp;"+e15*"&amp;IF(T172="魔動人形",U172,0)&amp;"+e16*"&amp;IF(T172="下位魔神",U172,0)&amp;");"</f>
-        <v>document.getElementById('m170').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*20+s6*40+s7*0+s0*40) + (e01*40+e02*0+e03*0+e04*40+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m170').innerHTML = (b1*0+b2*40+b0*40) + (s1*0+s2*0+s3*30+s4*0+s5*0+s6*30+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*30+e05*30+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI172" s="35" t="str">
         <f t="shared" si="17"/>
@@ -25010,14 +25185,17 @@
     </row>
     <row r="173" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>343</v>
+        <v>529</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>344</v>
+        <v>535</v>
       </c>
       <c r="D173" s="3">
         <v>5</v>
       </c>
+      <c r="E173" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="F173" s="15" t="s">
         <v>327</v>
       </c>
@@ -25026,16 +25204,16 @@
       </c>
       <c r="H173" s="4">
         <f t="shared" si="20"/>
-        <v>130</v>
-      </c>
-      <c r="I173" s="2"/>
-      <c r="J173" s="2">
-        <v>30</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="I173" s="2">
+        <v>40</v>
+      </c>
+      <c r="J173" s="2"/>
       <c r="K173" s="2"/>
       <c r="L173" s="2">
         <f t="shared" si="18"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
@@ -25049,25 +25227,29 @@
         <v>40</v>
       </c>
       <c r="U173" s="4"/>
-      <c r="V173" s="3" t="s">
-        <v>485</v>
+      <c r="V173" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="AA173" s="3">
+        <v>20</v>
       </c>
       <c r="AB173" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AD173" s="4">
         <f t="shared" si="19"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AF173" s="23"/>
       <c r="AG173" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_SETSUNA_01.png' alt='私のすべて、灰に還る'&gt;&lt;/td&gt;&lt;td headers='name'&gt;私のすべて、灰に還る&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m171'&gt;130&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;暴擊率+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;60&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E173="活動"," ev",IF(E173="限定"," ltd",""))&amp;IF(G173=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A172&amp;"' alt='"&amp;C173&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C173&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D173&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E173="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E173="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F173&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G173&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI173&amp;"'&gt;"&amp;H173&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I173&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J173&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K173&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M173&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N173&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O173&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P173&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q173&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R173&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S173&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T173&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U173&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V173&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W173&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X173&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y173&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z173&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA173&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB173&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC173&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_LEYDOW_01.png' alt='甘き血刃'&gt;&lt;/td&gt;&lt;td headers='name'&gt;甘き血刃&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m171'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;斬撃耐性+10,
+命中率+5&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;40&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH173" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI173&amp;"').innerHTML = (b1*"&amp;TEXT(J173,0)&amp;"+b2*"&amp;TEXT(K173,0)&amp;"+b0*"&amp;TEXT(L173,0)&amp;") + (s1*"&amp;TEXT(W173,0)&amp;"+s2*"&amp;TEXT(X173,0)&amp;"+s3*"&amp;TEXT(Y173,0)&amp;"+s4*"&amp;TEXT(Z173,0)&amp;"+s5*"&amp;TEXT(AA173,0)&amp;"+s6*"&amp;TEXT(AB173,0)&amp;"+s7*"&amp;TEXT(AC173,0)&amp;"+s0*"&amp;TEXT(AD173,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R173)),S173,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R173)),S173,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R173)),S173,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R173)),S173,S173)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R173)),S173,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R173)),S173,0)&amp;"+e07*"&amp;IF(T173="反撃",U173,0)&amp;"+e08*"&amp;IF(T173="風属性",U173,0)&amp;"+e09*"&amp;IF(T173="闇属性",U173,0)&amp;"+e10*"&amp;IF(T173="単体",U173,0)&amp;"+e11*"&amp;IF(T173="範囲",U173,0)&amp;"+e12*"&amp;IF(T173="人",U173,0)&amp;"+e13*"&amp;IF(T173="異族",U173,0)&amp;"+e14*"&amp;IF(T173="バジュラ",U173,0)&amp;"+e15*"&amp;IF(T173="魔動人形",U173,0)&amp;"+e16*"&amp;IF(T173="下位魔神",U173,0)&amp;");"</f>
-        <v>document.getElementById('m171').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*60+s7*0+s0*60) + (e01*40+e02*0+e03*0+e04*40+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m171').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*20+s6*40+s7*0+s0*40) + (e01*40+e02*0+e03*0+e04*40+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI173" s="35" t="str">
         <f t="shared" si="17"/>
@@ -25077,17 +25259,14 @@
     </row>
     <row r="174" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D174" s="3">
         <v>5</v>
       </c>
-      <c r="E174" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="F174" s="15" t="s">
         <v>327</v>
       </c>
@@ -25096,18 +25275,16 @@
       </c>
       <c r="H174" s="4">
         <f t="shared" si="20"/>
-        <v>90</v>
-      </c>
-      <c r="I174" s="2">
-        <v>40</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="I174" s="2"/>
       <c r="J174" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K174" s="2"/>
       <c r="L174" s="2">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
@@ -25118,33 +25295,28 @@
         <v>14</v>
       </c>
       <c r="S174" s="3">
-        <v>30</v>
-      </c>
-      <c r="T174" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="U174" s="4">
-        <v>10</v>
-      </c>
-      <c r="W174" s="3">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="U174" s="4"/>
+      <c r="V174" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="AB174" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AD174" s="4">
         <f t="shared" si="19"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AF174" s="23"/>
       <c r="AG174" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_SETSUNA_02.png' alt='懐旧は、あたたかく'&gt;&lt;/td&gt;&lt;td headers='name'&gt;懐旧は、あたたかく&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m172'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;範囲&lt;/td&gt;&lt;td headers='sp.bonus'&gt;10&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E174="活動"," ev",IF(E174="限定"," ltd",""))&amp;IF(G174=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A173&amp;"' alt='"&amp;C174&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C174&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D174&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E174="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E174="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F174&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G174&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI174&amp;"'&gt;"&amp;H174&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I174&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J174&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K174&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M174&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N174&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O174&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P174&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q174&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R174&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S174&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T174&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U174&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V174&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W174&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X174&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y174&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z174&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA174&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB174&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC174&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_REIMEI_01.png' alt='私のすべて、灰に還る'&gt;&lt;/td&gt;&lt;td headers='name'&gt;私のすべて、灰に還る&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m172'&gt;130&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;暴擊率+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;60&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH174" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI174&amp;"').innerHTML = (b1*"&amp;TEXT(J174,0)&amp;"+b2*"&amp;TEXT(K174,0)&amp;"+b0*"&amp;TEXT(L174,0)&amp;") + (s1*"&amp;TEXT(W174,0)&amp;"+s2*"&amp;TEXT(X174,0)&amp;"+s3*"&amp;TEXT(Y174,0)&amp;"+s4*"&amp;TEXT(Z174,0)&amp;"+s5*"&amp;TEXT(AA174,0)&amp;"+s6*"&amp;TEXT(AB174,0)&amp;"+s7*"&amp;TEXT(AC174,0)&amp;"+s0*"&amp;TEXT(AD174,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R174)),S174,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R174)),S174,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R174)),S174,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R174)),S174,S174)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R174)),S174,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R174)),S174,0)&amp;"+e07*"&amp;IF(T174="反撃",U174,0)&amp;"+e08*"&amp;IF(T174="風属性",U174,0)&amp;"+e09*"&amp;IF(T174="闇属性",U174,0)&amp;"+e10*"&amp;IF(T174="単体",U174,0)&amp;"+e11*"&amp;IF(T174="範囲",U174,0)&amp;"+e12*"&amp;IF(T174="人",U174,0)&amp;"+e13*"&amp;IF(T174="異族",U174,0)&amp;"+e14*"&amp;IF(T174="バジュラ",U174,0)&amp;"+e15*"&amp;IF(T174="魔動人形",U174,0)&amp;"+e16*"&amp;IF(T174="下位魔神",U174,0)&amp;");"</f>
-        <v>document.getElementById('m172').innerHTML = (b1*20+b2*0+b0*20) + (s1*30+s2*0+s3*0+s4*0+s5*0+s6*30+s7*0+s0*30) + (e01*30+e02*0+e03*0+e04*30+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*10+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m172').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*60+s7*0+s0*60) + (e01*40+e02*0+e03*0+e04*40+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI174" s="35" t="str">
         <f t="shared" si="17"/>
@@ -25154,16 +25326,16 @@
     </row>
     <row r="175" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D175" s="3">
         <v>5</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F175" s="15" t="s">
         <v>327</v>
@@ -25173,16 +25345,18 @@
       </c>
       <c r="H175" s="4">
         <f t="shared" si="20"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="I175" s="2">
-        <v>30</v>
-      </c>
-      <c r="J175" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="J175" s="2">
+        <v>20</v>
+      </c>
       <c r="K175" s="2"/>
       <c r="L175" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
@@ -25195,7 +25369,15 @@
       <c r="S175" s="3">
         <v>30</v>
       </c>
-      <c r="U175" s="4"/>
+      <c r="T175" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U175" s="4">
+        <v>10</v>
+      </c>
+      <c r="W175" s="3">
+        <v>30</v>
+      </c>
       <c r="AB175" s="3">
         <v>30</v>
       </c>
@@ -25205,13 +25387,13 @@
       </c>
       <c r="AF175" s="23"/>
       <c r="AG175" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ev'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_SETSUNA_03.png' alt='砂塵、ひと雫の笑み'&gt;&lt;/td&gt;&lt;td headers='name'&gt;砂塵、ひと雫の笑み&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m173'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E175="活動"," ev",IF(E175="限定"," ltd",""))&amp;IF(G175=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A174&amp;"' alt='"&amp;C175&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C175&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D175&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E175="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E175="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F175&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G175&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI175&amp;"'&gt;"&amp;H175&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I175&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J175&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K175&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M175&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N175&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O175&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P175&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q175&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R175&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S175&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T175&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U175&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V175&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W175&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X175&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y175&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z175&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA175&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB175&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC175&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_SETSUNA_01.png' alt='懐旧は、あたたかく'&gt;&lt;/td&gt;&lt;td headers='name'&gt;懐旧は、あたたかく&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m173'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;範囲&lt;/td&gt;&lt;td headers='sp.bonus'&gt;10&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH175" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI175&amp;"').innerHTML = (b1*"&amp;TEXT(J175,0)&amp;"+b2*"&amp;TEXT(K175,0)&amp;"+b0*"&amp;TEXT(L175,0)&amp;") + (s1*"&amp;TEXT(W175,0)&amp;"+s2*"&amp;TEXT(X175,0)&amp;"+s3*"&amp;TEXT(Y175,0)&amp;"+s4*"&amp;TEXT(Z175,0)&amp;"+s5*"&amp;TEXT(AA175,0)&amp;"+s6*"&amp;TEXT(AB175,0)&amp;"+s7*"&amp;TEXT(AC175,0)&amp;"+s0*"&amp;TEXT(AD175,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R175)),S175,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R175)),S175,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R175)),S175,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R175)),S175,S175)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R175)),S175,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R175)),S175,0)&amp;"+e07*"&amp;IF(T175="反撃",U175,0)&amp;"+e08*"&amp;IF(T175="風属性",U175,0)&amp;"+e09*"&amp;IF(T175="闇属性",U175,0)&amp;"+e10*"&amp;IF(T175="単体",U175,0)&amp;"+e11*"&amp;IF(T175="範囲",U175,0)&amp;"+e12*"&amp;IF(T175="人",U175,0)&amp;"+e13*"&amp;IF(T175="異族",U175,0)&amp;"+e14*"&amp;IF(T175="バジュラ",U175,0)&amp;"+e15*"&amp;IF(T175="魔動人形",U175,0)&amp;"+e16*"&amp;IF(T175="下位魔神",U175,0)&amp;");"</f>
-        <v>document.getElementById('m173').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*30+s7*0+s0*30) + (e01*30+e02*0+e03*0+e04*30+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m173').innerHTML = (b1*20+b2*0+b0*20) + (s1*30+s2*0+s3*0+s4*0+s5*0+s6*30+s7*0+s0*30) + (e01*30+e02*0+e03*0+e04*30+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*10+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI175" s="35" t="str">
         <f t="shared" si="17"/>
@@ -25221,10 +25403,10 @@
     </row>
     <row r="176" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D176" s="3">
         <v>5</v>
@@ -25236,22 +25418,20 @@
         <v>327</v>
       </c>
       <c r="G176" s="8" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="H176" s="4">
         <f t="shared" si="20"/>
         <v>60</v>
       </c>
       <c r="I176" s="2">
-        <v>20</v>
-      </c>
-      <c r="J176" s="2">
         <v>30</v>
       </c>
+      <c r="J176" s="2"/>
       <c r="K176" s="2"/>
       <c r="L176" s="2">
         <f t="shared" si="18"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
@@ -25262,31 +25442,25 @@
         <v>14</v>
       </c>
       <c r="S176" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="U176" s="4"/>
-      <c r="W176" s="3">
-        <v>10</v>
-      </c>
-      <c r="X176" s="3">
-        <v>10</v>
-      </c>
       <c r="AB176" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AD176" s="4">
         <f t="shared" si="19"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AF176" s="23"/>
       <c r="AG176" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ev'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_SUZUKA_01.png' alt='調理場、その初陣は'&gt;&lt;/td&gt;&lt;td headers='name'&gt;調理場、その初陣は&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m174'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;10&lt;/td&gt;&lt;td headers='sinB'&gt;10&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;10&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E176="活動"," ev",IF(E176="限定"," ltd",""))&amp;IF(G176=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A175&amp;"' alt='"&amp;C176&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C176&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D176&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E176="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E176="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F176&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G176&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI176&amp;"'&gt;"&amp;H176&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I176&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J176&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K176&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M176&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N176&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O176&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P176&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q176&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R176&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S176&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T176&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U176&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V176&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W176&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X176&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y176&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z176&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA176&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB176&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC176&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt ev'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_SETSUNA_02.png' alt='砂塵、ひと雫の笑み'&gt;&lt;/td&gt;&lt;td headers='name'&gt;砂塵、ひと雫の笑み&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m174'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH176" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI176&amp;"').innerHTML = (b1*"&amp;TEXT(J176,0)&amp;"+b2*"&amp;TEXT(K176,0)&amp;"+b0*"&amp;TEXT(L176,0)&amp;") + (s1*"&amp;TEXT(W176,0)&amp;"+s2*"&amp;TEXT(X176,0)&amp;"+s3*"&amp;TEXT(Y176,0)&amp;"+s4*"&amp;TEXT(Z176,0)&amp;"+s5*"&amp;TEXT(AA176,0)&amp;"+s6*"&amp;TEXT(AB176,0)&amp;"+s7*"&amp;TEXT(AC176,0)&amp;"+s0*"&amp;TEXT(AD176,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R176)),S176,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R176)),S176,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R176)),S176,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R176)),S176,S176)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R176)),S176,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R176)),S176,0)&amp;"+e07*"&amp;IF(T176="反撃",U176,0)&amp;"+e08*"&amp;IF(T176="風属性",U176,0)&amp;"+e09*"&amp;IF(T176="闇属性",U176,0)&amp;"+e10*"&amp;IF(T176="単体",U176,0)&amp;"+e11*"&amp;IF(T176="範囲",U176,0)&amp;"+e12*"&amp;IF(T176="人",U176,0)&amp;"+e13*"&amp;IF(T176="異族",U176,0)&amp;"+e14*"&amp;IF(T176="バジュラ",U176,0)&amp;"+e15*"&amp;IF(T176="魔動人形",U176,0)&amp;"+e16*"&amp;IF(T176="下位魔神",U176,0)&amp;");"</f>
-        <v>document.getElementById('m174').innerHTML = (b1*30+b2*0+b0*30) + (s1*10+s2*10+s3*0+s4*0+s5*0+s6*10+s7*0+s0*10) + (e01*20+e02*0+e03*0+e04*20+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m174').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*30+s7*0+s0*30) + (e01*30+e02*0+e03*0+e04*30+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI176" s="35" t="str">
         <f t="shared" si="17"/>
@@ -25296,48 +25470,72 @@
     </row>
     <row r="177" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D177" s="3">
         <v>5</v>
       </c>
+      <c r="E177" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="F177" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="G177" s="8"/>
+      <c r="G177" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="H177" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I177" s="2"/>
-      <c r="J177" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="I177" s="2">
+        <v>20</v>
+      </c>
+      <c r="J177" s="2">
+        <v>30</v>
+      </c>
       <c r="K177" s="2"/>
       <c r="L177" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
       <c r="P177" s="2"/>
       <c r="Q177" s="7"/>
+      <c r="R177" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S177" s="3">
+        <v>20</v>
+      </c>
       <c r="U177" s="4"/>
+      <c r="W177" s="3">
+        <v>10</v>
+      </c>
+      <c r="X177" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB177" s="3">
+        <v>10</v>
+      </c>
       <c r="AD177" s="4">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF177" s="23"/>
       <c r="AG177" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_TAMAMO_01.png' alt='咲いて散るは憧憬の花'&gt;&lt;/td&gt;&lt;td headers='name'&gt;咲いて散るは憧憬の花&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m175'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E177="活動"," ev",IF(E177="限定"," ltd",""))&amp;IF(G177=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A176&amp;"' alt='"&amp;C177&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C177&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D177&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E177="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E177="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F177&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G177&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI177&amp;"'&gt;"&amp;H177&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I177&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J177&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K177&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M177&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N177&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O177&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P177&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q177&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R177&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S177&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T177&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U177&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V177&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W177&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X177&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y177&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z177&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA177&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB177&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC177&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt ev'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_SETSUNA_03.png' alt='調理場、その初陣は'&gt;&lt;/td&gt;&lt;td headers='name'&gt;調理場、その初陣は&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m175'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;20&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;10&lt;/td&gt;&lt;td headers='sinB'&gt;10&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;10&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH177" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI177&amp;"').innerHTML = (b1*"&amp;TEXT(J177,0)&amp;"+b2*"&amp;TEXT(K177,0)&amp;"+b0*"&amp;TEXT(L177,0)&amp;") + (s1*"&amp;TEXT(W177,0)&amp;"+s2*"&amp;TEXT(X177,0)&amp;"+s3*"&amp;TEXT(Y177,0)&amp;"+s4*"&amp;TEXT(Z177,0)&amp;"+s5*"&amp;TEXT(AA177,0)&amp;"+s6*"&amp;TEXT(AB177,0)&amp;"+s7*"&amp;TEXT(AC177,0)&amp;"+s0*"&amp;TEXT(AD177,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R177)),S177,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R177)),S177,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R177)),S177,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R177)),S177,S177)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R177)),S177,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R177)),S177,0)&amp;"+e07*"&amp;IF(T177="反撃",U177,0)&amp;"+e08*"&amp;IF(T177="風属性",U177,0)&amp;"+e09*"&amp;IF(T177="闇属性",U177,0)&amp;"+e10*"&amp;IF(T177="単体",U177,0)&amp;"+e11*"&amp;IF(T177="範囲",U177,0)&amp;"+e12*"&amp;IF(T177="人",U177,0)&amp;"+e13*"&amp;IF(T177="異族",U177,0)&amp;"+e14*"&amp;IF(T177="バジュラ",U177,0)&amp;"+e15*"&amp;IF(T177="魔動人形",U177,0)&amp;"+e16*"&amp;IF(T177="下位魔神",U177,0)&amp;");"</f>
-        <v>document.getElementById('m175').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m175').innerHTML = (b1*30+b2*0+b0*30) + (s1*10+s2*10+s3*0+s4*0+s5*0+s6*10+s7*0+s0*10) + (e01*20+e02*0+e03*0+e04*20+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI177" s="35" t="str">
         <f t="shared" si="17"/>
@@ -25347,16 +25545,13 @@
     </row>
     <row r="178" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D178" s="3">
         <v>5</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="F178" s="15" t="s">
         <v>327</v>
@@ -25385,8 +25580,8 @@
       </c>
       <c r="AF178" s="23"/>
       <c r="AG178" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ev groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_TAMAMO_02.png' alt='約束の時、幸福の味'&gt;&lt;/td&gt;&lt;td headers='name'&gt;約束の時、幸福の味&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+        <f>"&lt;tr class='mmt"&amp;IF(E178="活動"," ev",IF(E178="限定"," ltd",""))&amp;IF(G178=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A177&amp;"' alt='"&amp;C178&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C178&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D178&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E178="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E178="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F178&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G178&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI178&amp;"'&gt;"&amp;H178&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I178&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J178&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K178&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M178&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N178&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O178&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P178&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q178&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R178&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S178&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T178&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U178&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V178&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W178&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X178&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y178&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z178&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA178&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB178&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC178&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_SUZUKA_01.png' alt='咲いて散るは憧憬の花'&gt;&lt;/td&gt;&lt;td headers='name'&gt;咲いて散るは憧憬の花&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
 Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m176'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH178" s="31" t="str">
@@ -25401,64 +25596,51 @@
     </row>
     <row r="179" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D179" s="3">
         <v>5</v>
       </c>
+      <c r="E179" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="F179" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="G179" s="8" t="s">
-        <v>338</v>
-      </c>
+      <c r="G179" s="8"/>
       <c r="H179" s="4">
         <f t="shared" si="20"/>
-        <v>70</v>
-      </c>
-      <c r="I179" s="2">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" s="2"/>
       <c r="J179" s="2"/>
-      <c r="K179" s="2">
-        <v>30</v>
-      </c>
+      <c r="K179" s="2"/>
       <c r="L179" s="2">
         <f t="shared" si="18"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" s="2"/>
       <c r="O179" s="2"/>
-      <c r="P179" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q179" s="7">
-        <v>20</v>
-      </c>
+      <c r="P179" s="2"/>
+      <c r="Q179" s="7"/>
       <c r="U179" s="4"/>
-      <c r="Z179" s="3">
-        <v>20</v>
-      </c>
-      <c r="AB179" s="3">
-        <v>40</v>
-      </c>
       <c r="AD179" s="4">
         <f t="shared" si="19"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AF179" s="23"/>
       <c r="AG179" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_YOMI_01.png' alt='誓い、彼岸の花に'&gt;&lt;/td&gt;&lt;td headers='name'&gt;誓い、彼岸の花に&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m177'&gt;70&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;20&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;20&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;40&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E179="活動"," ev",IF(E179="限定"," ltd",""))&amp;IF(G179=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A178&amp;"' alt='"&amp;C179&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C179&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D179&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E179="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E179="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F179&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G179&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI179&amp;"'&gt;"&amp;H179&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I179&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J179&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K179&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M179&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N179&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O179&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P179&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q179&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R179&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S179&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T179&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U179&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V179&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W179&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X179&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y179&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z179&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA179&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB179&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC179&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt ev groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_TAMAMO_01.png' alt='約束の時、幸福の味'&gt;&lt;/td&gt;&lt;td headers='name'&gt;約束の時、幸福の味&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m177'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH179" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI179&amp;"').innerHTML = (b1*"&amp;TEXT(J179,0)&amp;"+b2*"&amp;TEXT(K179,0)&amp;"+b0*"&amp;TEXT(L179,0)&amp;") + (s1*"&amp;TEXT(W179,0)&amp;"+s2*"&amp;TEXT(X179,0)&amp;"+s3*"&amp;TEXT(Y179,0)&amp;"+s4*"&amp;TEXT(Z179,0)&amp;"+s5*"&amp;TEXT(AA179,0)&amp;"+s6*"&amp;TEXT(AB179,0)&amp;"+s7*"&amp;TEXT(AC179,0)&amp;"+s0*"&amp;TEXT(AD179,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R179)),S179,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R179)),S179,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R179)),S179,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R179)),S179,S179)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R179)),S179,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R179)),S179,0)&amp;"+e07*"&amp;IF(T179="反撃",U179,0)&amp;"+e08*"&amp;IF(T179="風属性",U179,0)&amp;"+e09*"&amp;IF(T179="闇属性",U179,0)&amp;"+e10*"&amp;IF(T179="単体",U179,0)&amp;"+e11*"&amp;IF(T179="範囲",U179,0)&amp;"+e12*"&amp;IF(T179="人",U179,0)&amp;"+e13*"&amp;IF(T179="異族",U179,0)&amp;"+e14*"&amp;IF(T179="バジュラ",U179,0)&amp;"+e15*"&amp;IF(T179="魔動人形",U179,0)&amp;"+e16*"&amp;IF(T179="下位魔神",U179,0)&amp;");"</f>
-        <v>document.getElementById('m177').innerHTML = (b1*0+b2*30+b0*30) + (s1*0+s2*0+s3*0+s4*20+s5*0+s6*40+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m177').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI179" s="35" t="str">
         <f t="shared" si="17"/>
@@ -25468,10 +25650,10 @@
     </row>
     <row r="180" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D180" s="3">
         <v>5</v>
@@ -25484,15 +25666,15 @@
       </c>
       <c r="H180" s="4">
         <f t="shared" si="20"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I180" s="2">
         <v>40</v>
       </c>
-      <c r="J180" s="2">
+      <c r="J180" s="2"/>
+      <c r="K180" s="2">
         <v>30</v>
       </c>
-      <c r="K180" s="2"/>
       <c r="L180" s="2">
         <f t="shared" si="18"/>
         <v>30</v>
@@ -25500,36 +25682,32 @@
       <c r="M180" s="2"/>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
-      <c r="P180" s="2"/>
-      <c r="Q180" s="7"/>
-      <c r="T180" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="U180" s="4">
+      <c r="P180" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q180" s="7">
         <v>20</v>
       </c>
-      <c r="V180" s="3" t="s">
-        <v>483</v>
-      </c>
+      <c r="U180" s="4"/>
       <c r="Z180" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AB180" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AD180" s="4">
         <f t="shared" si="19"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AF180" s="23"/>
       <c r="AG180" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_ZIN_01.png' alt='流星に願った頃'&gt;&lt;/td&gt;&lt;td headers='name'&gt;流星に願った頃&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
-Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m178'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;反撃&lt;/td&gt;&lt;td headers='sp.bonus'&gt;20&lt;/td&gt;&lt;td headers='others'&gt;詠唱時間-20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;30&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E180="活動"," ev",IF(E180="限定"," ltd",""))&amp;IF(G180=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A179&amp;"' alt='"&amp;C180&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C180&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D180&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E180="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E180="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F180&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G180&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI180&amp;"'&gt;"&amp;H180&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I180&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J180&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K180&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M180&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N180&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O180&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P180&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q180&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R180&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S180&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T180&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U180&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V180&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W180&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X180&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y180&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z180&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA180&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB180&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC180&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_TAMAMO_02.png' alt='誓い、彼岸の花に'&gt;&lt;/td&gt;&lt;td headers='name'&gt;誓い、彼岸の花に&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m178'&gt;70&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;20&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;20&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;40&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH180" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI180&amp;"').innerHTML = (b1*"&amp;TEXT(J180,0)&amp;"+b2*"&amp;TEXT(K180,0)&amp;"+b0*"&amp;TEXT(L180,0)&amp;") + (s1*"&amp;TEXT(W180,0)&amp;"+s2*"&amp;TEXT(X180,0)&amp;"+s3*"&amp;TEXT(Y180,0)&amp;"+s4*"&amp;TEXT(Z180,0)&amp;"+s5*"&amp;TEXT(AA180,0)&amp;"+s6*"&amp;TEXT(AB180,0)&amp;"+s7*"&amp;TEXT(AC180,0)&amp;"+s0*"&amp;TEXT(AD180,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R180)),S180,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R180)),S180,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R180)),S180,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R180)),S180,S180)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R180)),S180,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R180)),S180,0)&amp;"+e07*"&amp;IF(T180="反撃",U180,0)&amp;"+e08*"&amp;IF(T180="風属性",U180,0)&amp;"+e09*"&amp;IF(T180="闇属性",U180,0)&amp;"+e10*"&amp;IF(T180="単体",U180,0)&amp;"+e11*"&amp;IF(T180="範囲",U180,0)&amp;"+e12*"&amp;IF(T180="人",U180,0)&amp;"+e13*"&amp;IF(T180="異族",U180,0)&amp;"+e14*"&amp;IF(T180="バジュラ",U180,0)&amp;"+e15*"&amp;IF(T180="魔動人形",U180,0)&amp;"+e16*"&amp;IF(T180="下位魔神",U180,0)&amp;");"</f>
-        <v>document.getElementById('m178').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*0+s3*0+s4*30+s5*0+s6*30+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*20+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m178').innerHTML = (b1*0+b2*30+b0*30) + (s1*0+s2*0+s3*0+s4*20+s5*0+s6*40+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI180" s="35" t="str">
         <f t="shared" si="17"/>
@@ -25539,26 +25717,26 @@
     </row>
     <row r="181" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D181" s="3">
         <v>5</v>
       </c>
       <c r="F181" s="15" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="G181" s="8" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="H181" s="4">
         <f t="shared" si="20"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I181" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J181" s="2">
         <v>30</v>
@@ -25573,20 +25751,19 @@
       <c r="O181" s="2"/>
       <c r="P181" s="2"/>
       <c r="Q181" s="7"/>
-      <c r="R181" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S181" s="3">
+      <c r="T181" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U181" s="4">
+        <v>20</v>
+      </c>
+      <c r="V181" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="Z181" s="3">
         <v>30</v>
       </c>
-      <c r="U181" s="4"/>
-      <c r="V181" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="W181" s="3">
-        <v>30</v>
-      </c>
-      <c r="AA181" s="3">
+      <c r="AB181" s="3">
         <v>30</v>
       </c>
       <c r="AD181" s="4">
@@ -25595,13 +25772,13 @@
       </c>
       <c r="AF181" s="23"/>
       <c r="AG181" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_ANASTASIA_01.png' alt='薔薇はただ赤く'&gt;&lt;/td&gt;&lt;td headers='name'&gt;薔薇はただ赤く&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;ラーストリス騎士団&lt;/td&gt;&lt;td headers='score' id='m179'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避+5&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E181="活動"," ev",IF(E181="限定"," ltd",""))&amp;IF(G181=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A180&amp;"' alt='"&amp;C181&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C181&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D181&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E181="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E181="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F181&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G181&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI181&amp;"'&gt;"&amp;H181&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I181&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J181&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K181&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M181&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N181&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O181&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P181&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q181&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R181&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S181&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T181&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U181&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V181&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W181&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X181&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y181&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z181&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA181&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB181&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC181&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_YOMI_01.png' alt='流星に願った頃'&gt;&lt;/td&gt;&lt;td headers='name'&gt;流星に願った頃&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ワダツミ
+Wadatsumi&lt;/td&gt;&lt;td headers='group'&gt;ワダツミ武門&lt;/td&gt;&lt;td headers='score' id='m179'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;反撃&lt;/td&gt;&lt;td headers='sp.bonus'&gt;20&lt;/td&gt;&lt;td headers='others'&gt;詠唱時間-20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;30&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH181" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI181&amp;"').innerHTML = (b1*"&amp;TEXT(J181,0)&amp;"+b2*"&amp;TEXT(K181,0)&amp;"+b0*"&amp;TEXT(L181,0)&amp;") + (s1*"&amp;TEXT(W181,0)&amp;"+s2*"&amp;TEXT(X181,0)&amp;"+s3*"&amp;TEXT(Y181,0)&amp;"+s4*"&amp;TEXT(Z181,0)&amp;"+s5*"&amp;TEXT(AA181,0)&amp;"+s6*"&amp;TEXT(AB181,0)&amp;"+s7*"&amp;TEXT(AC181,0)&amp;"+s0*"&amp;TEXT(AD181,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R181)),S181,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R181)),S181,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R181)),S181,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R181)),S181,S181)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R181)),S181,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R181)),S181,0)&amp;"+e07*"&amp;IF(T181="反撃",U181,0)&amp;"+e08*"&amp;IF(T181="風属性",U181,0)&amp;"+e09*"&amp;IF(T181="闇属性",U181,0)&amp;"+e10*"&amp;IF(T181="単体",U181,0)&amp;"+e11*"&amp;IF(T181="範囲",U181,0)&amp;"+e12*"&amp;IF(T181="人",U181,0)&amp;"+e13*"&amp;IF(T181="異族",U181,0)&amp;"+e14*"&amp;IF(T181="バジュラ",U181,0)&amp;"+e15*"&amp;IF(T181="魔動人形",U181,0)&amp;"+e16*"&amp;IF(T181="下位魔神",U181,0)&amp;");"</f>
-        <v>document.getElementById('m179').innerHTML = (b1*30+b2*0+b0*30) + (s1*30+s2*0+s3*0+s4*0+s5*30+s6*0+s7*0+s0*30) + (e01*30+e02*0+e03*0+e04*30+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m179').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*0+s3*0+s4*30+s5*0+s6*30+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*20+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI181" s="35" t="str">
         <f t="shared" si="17"/>
@@ -25611,51 +25788,69 @@
     </row>
     <row r="182" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D182" s="3">
         <v>5</v>
       </c>
-      <c r="E182" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="F182" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="G182" s="8"/>
+      <c r="G182" s="8" t="s">
+        <v>362</v>
+      </c>
       <c r="H182" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I182" s="2"/>
-      <c r="J182" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="I182" s="2">
+        <v>30</v>
+      </c>
+      <c r="J182" s="2">
+        <v>30</v>
+      </c>
       <c r="K182" s="2"/>
       <c r="L182" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M182" s="2"/>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
       <c r="P182" s="2"/>
       <c r="Q182" s="7"/>
+      <c r="R182" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S182" s="3">
+        <v>30</v>
+      </c>
       <c r="U182" s="4"/>
+      <c r="V182" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="W182" s="3">
+        <v>30</v>
+      </c>
+      <c r="AA182" s="3">
+        <v>30</v>
+      </c>
       <c r="AD182" s="4">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF182" s="23"/>
       <c r="AG182" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ev groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_DOROTHEA_01.png' alt='断崖ディスティニー'&gt;&lt;/td&gt;&lt;td headers='name'&gt;断崖ディスティニー&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m180'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E182="活動"," ev",IF(E182="限定"," ltd",""))&amp;IF(G182=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A181&amp;"' alt='"&amp;C182&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C182&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D182&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E182="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E182="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F182&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G182&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI182&amp;"'&gt;"&amp;H182&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I182&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J182&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K182&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M182&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N182&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O182&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P182&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q182&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R182&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S182&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T182&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U182&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V182&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W182&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X182&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y182&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z182&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA182&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB182&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC182&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WADA_ZIN_01.png' alt='薔薇はただ赤く'&gt;&lt;/td&gt;&lt;td headers='name'&gt;薔薇はただ赤く&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;ラーストリス騎士団&lt;/td&gt;&lt;td headers='score' id='m180'&gt;90&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;30&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避率+5&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH182" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI182&amp;"').innerHTML = (b1*"&amp;TEXT(J182,0)&amp;"+b2*"&amp;TEXT(K182,0)&amp;"+b0*"&amp;TEXT(L182,0)&amp;") + (s1*"&amp;TEXT(W182,0)&amp;"+s2*"&amp;TEXT(X182,0)&amp;"+s3*"&amp;TEXT(Y182,0)&amp;"+s4*"&amp;TEXT(Z182,0)&amp;"+s5*"&amp;TEXT(AA182,0)&amp;"+s6*"&amp;TEXT(AB182,0)&amp;"+s7*"&amp;TEXT(AC182,0)&amp;"+s0*"&amp;TEXT(AD182,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R182)),S182,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R182)),S182,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R182)),S182,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R182)),S182,S182)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R182)),S182,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R182)),S182,0)&amp;"+e07*"&amp;IF(T182="反撃",U182,0)&amp;"+e08*"&amp;IF(T182="風属性",U182,0)&amp;"+e09*"&amp;IF(T182="闇属性",U182,0)&amp;"+e10*"&amp;IF(T182="単体",U182,0)&amp;"+e11*"&amp;IF(T182="範囲",U182,0)&amp;"+e12*"&amp;IF(T182="人",U182,0)&amp;"+e13*"&amp;IF(T182="異族",U182,0)&amp;"+e14*"&amp;IF(T182="バジュラ",U182,0)&amp;"+e15*"&amp;IF(T182="魔動人形",U182,0)&amp;"+e16*"&amp;IF(T182="下位魔神",U182,0)&amp;");"</f>
-        <v>document.getElementById('m180').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m180').innerHTML = (b1*30+b2*0+b0*30) + (s1*30+s2*0+s3*0+s4*0+s5*30+s6*0+s7*0+s0*30) + (e01*30+e02*0+e03*0+e04*30+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI182" s="35" t="str">
         <f t="shared" si="17"/>
@@ -25665,13 +25860,16 @@
     </row>
     <row r="183" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D183" s="3">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="F183" s="15" t="s">
         <v>361</v>
@@ -25700,8 +25898,8 @@
       </c>
       <c r="AF183" s="23"/>
       <c r="AG183" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_GLANZ_01.png' alt='シークレットヒーロー'&gt;&lt;/td&gt;&lt;td headers='name'&gt;シークレットヒーロー&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+        <f>"&lt;tr class='mmt"&amp;IF(E183="活動"," ev",IF(E183="限定"," ltd",""))&amp;IF(G183=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A182&amp;"' alt='"&amp;C183&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C183&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D183&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E183="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E183="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F183&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G183&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI183&amp;"'&gt;"&amp;H183&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I183&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J183&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K183&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M183&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N183&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O183&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P183&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q183&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R183&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S183&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T183&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U183&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V183&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W183&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X183&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y183&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z183&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA183&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB183&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC183&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt ev groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_ANASTASIA_01.png' alt='断崖ディスティニー'&gt;&lt;/td&gt;&lt;td headers='name'&gt;断崖ディスティニー&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
 Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m181'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH183" s="31" t="str">
@@ -25716,16 +25914,13 @@
     </row>
     <row r="184" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D184" s="3">
-        <v>5</v>
-      </c>
-      <c r="E184" s="3" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F184" s="15" t="s">
         <v>361</v>
@@ -25754,8 +25949,8 @@
       </c>
       <c r="AF184" s="23"/>
       <c r="AG184" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ltd groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_KEVIN_01.png' alt='感謝を込めた花束を'&gt;&lt;/td&gt;&lt;td headers='name'&gt;感謝を込めた花束を&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+        <f>"&lt;tr class='mmt"&amp;IF(E184="活動"," ev",IF(E184="限定"," ltd",""))&amp;IF(G184=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A183&amp;"' alt='"&amp;C184&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C184&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D184&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E184="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E184="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F184&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G184&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI184&amp;"'&gt;"&amp;H184&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I184&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J184&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K184&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M184&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N184&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O184&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P184&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q184&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R184&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S184&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T184&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U184&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V184&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W184&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X184&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y184&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z184&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA184&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB184&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC184&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_DOROTHEA_01.png' alt='シークレットヒーロー'&gt;&lt;/td&gt;&lt;td headers='name'&gt;シークレットヒーロー&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
 Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m182'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH184" s="31" t="str">
@@ -25770,10 +25965,10 @@
     </row>
     <row r="185" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D185" s="3">
         <v>5</v>
@@ -25808,8 +26003,8 @@
       </c>
       <c r="AF185" s="23"/>
       <c r="AG185" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ltd groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_KLIMA_01.png' alt='雪あそびより'&gt;&lt;/td&gt;&lt;td headers='name'&gt;雪あそびより&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+        <f>"&lt;tr class='mmt"&amp;IF(E185="活動"," ev",IF(E185="限定"," ltd",""))&amp;IF(G185=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A184&amp;"' alt='"&amp;C185&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C185&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D185&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E185="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E185="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F185&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G185&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI185&amp;"'&gt;"&amp;H185&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I185&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J185&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K185&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M185&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N185&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O185&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P185&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q185&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R185&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S185&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T185&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U185&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V185&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W185&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X185&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y185&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z185&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA185&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB185&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC185&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt ltd groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_GLANZ_01.png' alt='感謝を込めた花束を'&gt;&lt;/td&gt;&lt;td headers='name'&gt;感謝を込めた花束を&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
 Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m183'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH185" s="31" t="str">
@@ -25824,32 +26019,31 @@
     </row>
     <row r="186" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D186" s="3">
         <v>5</v>
       </c>
+      <c r="E186" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="F186" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="G186" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="G186" s="8"/>
       <c r="H186" s="4">
         <f t="shared" si="20"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I186" s="2"/>
-      <c r="J186" s="2">
-        <v>60</v>
-      </c>
+      <c r="J186" s="2"/>
       <c r="K186" s="2"/>
       <c r="L186" s="2">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M186" s="2"/>
       <c r="N186" s="2"/>
@@ -25857,28 +26051,19 @@
       <c r="P186" s="2"/>
       <c r="Q186" s="7"/>
       <c r="U186" s="4"/>
-      <c r="V186" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="AA186" s="3">
-        <v>20</v>
-      </c>
-      <c r="AB186" s="3">
-        <v>40</v>
-      </c>
       <c r="AD186" s="4">
         <f t="shared" si="19"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AF186" s="23"/>
       <c r="AG186" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_KUDHANSTEIN_01.png' alt='漆黒に揺蕩いしは'&gt;&lt;/td&gt;&lt;td headers='name'&gt;漆黒に揺蕩いしは&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m184'&gt;100&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;60&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;光属性耐性+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;40&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E186="活動"," ev",IF(E186="限定"," ltd",""))&amp;IF(G186=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A185&amp;"' alt='"&amp;C186&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C186&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D186&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E186="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E186="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F186&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G186&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI186&amp;"'&gt;"&amp;H186&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I186&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J186&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K186&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M186&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N186&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O186&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P186&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q186&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R186&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S186&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T186&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U186&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V186&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W186&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X186&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y186&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z186&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA186&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB186&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC186&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt ltd groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_KEVIN_01.png' alt='雪あそびより'&gt;&lt;/td&gt;&lt;td headers='name'&gt;雪あそびより&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m184'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH186" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI186&amp;"').innerHTML = (b1*"&amp;TEXT(J186,0)&amp;"+b2*"&amp;TEXT(K186,0)&amp;"+b0*"&amp;TEXT(L186,0)&amp;") + (s1*"&amp;TEXT(W186,0)&amp;"+s2*"&amp;TEXT(X186,0)&amp;"+s3*"&amp;TEXT(Y186,0)&amp;"+s4*"&amp;TEXT(Z186,0)&amp;"+s5*"&amp;TEXT(AA186,0)&amp;"+s6*"&amp;TEXT(AB186,0)&amp;"+s7*"&amp;TEXT(AC186,0)&amp;"+s0*"&amp;TEXT(AD186,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R186)),S186,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R186)),S186,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R186)),S186,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R186)),S186,S186)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R186)),S186,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R186)),S186,0)&amp;"+e07*"&amp;IF(T186="反撃",U186,0)&amp;"+e08*"&amp;IF(T186="風属性",U186,0)&amp;"+e09*"&amp;IF(T186="闇属性",U186,0)&amp;"+e10*"&amp;IF(T186="単体",U186,0)&amp;"+e11*"&amp;IF(T186="範囲",U186,0)&amp;"+e12*"&amp;IF(T186="人",U186,0)&amp;"+e13*"&amp;IF(T186="異族",U186,0)&amp;"+e14*"&amp;IF(T186="バジュラ",U186,0)&amp;"+e15*"&amp;IF(T186="魔動人形",U186,0)&amp;"+e16*"&amp;IF(T186="下位魔神",U186,0)&amp;");"</f>
-        <v>document.getElementById('m184').innerHTML = (b1*60+b2*0+b0*60) + (s1*0+s2*0+s3*0+s4*0+s5*20+s6*40+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m184').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI186" s="35" t="str">
         <f t="shared" si="17"/>
@@ -25888,60 +26073,61 @@
     </row>
     <row r="187" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D187" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F187" s="15" t="s">
         <v>361</v>
       </c>
       <c r="G187" s="8" t="s">
-        <v>362</v>
+        <v>68</v>
       </c>
       <c r="H187" s="4">
         <f t="shared" si="20"/>
-        <v>15</v>
-      </c>
-      <c r="I187" s="2">
-        <v>30</v>
-      </c>
-      <c r="J187" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="I187" s="2"/>
+      <c r="J187" s="2">
+        <v>60</v>
+      </c>
       <c r="K187" s="2"/>
       <c r="L187" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M187" s="2">
-        <v>20</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="M187" s="2"/>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
       <c r="P187" s="2"/>
       <c r="Q187" s="7"/>
       <c r="U187" s="4"/>
-      <c r="W187" s="3">
-        <v>15</v>
+      <c r="V187" s="5" t="s">
+        <v>489</v>
       </c>
       <c r="AA187" s="3">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="AB187" s="3">
+        <v>40</v>
       </c>
       <c r="AD187" s="4">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="AF187" s="23"/>
       <c r="AG187" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_LAMIA_01.png' alt='花は優しく揺れて'&gt;&lt;/td&gt;&lt;td headers='name'&gt;花は優しく揺れて&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;ラーストリス騎士団&lt;/td&gt;&lt;td headers='score' id='m185'&gt;15&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;20&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;15&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;15&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E187="活動"," ev",IF(E187="限定"," ltd",""))&amp;IF(G187=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A186&amp;"' alt='"&amp;C187&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C187&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D187&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E187="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E187="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F187&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G187&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI187&amp;"'&gt;"&amp;H187&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I187&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J187&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K187&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M187&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N187&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O187&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P187&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q187&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R187&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S187&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T187&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U187&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V187&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W187&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X187&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y187&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z187&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA187&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB187&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC187&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_KLIMA_01.png' alt='漆黒に揺蕩いしは'&gt;&lt;/td&gt;&lt;td headers='name'&gt;漆黒に揺蕩いしは&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m185'&gt;100&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;60&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;光属性耐性+20&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;40&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH187" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI187&amp;"').innerHTML = (b1*"&amp;TEXT(J187,0)&amp;"+b2*"&amp;TEXT(K187,0)&amp;"+b0*"&amp;TEXT(L187,0)&amp;") + (s1*"&amp;TEXT(W187,0)&amp;"+s2*"&amp;TEXT(X187,0)&amp;"+s3*"&amp;TEXT(Y187,0)&amp;"+s4*"&amp;TEXT(Z187,0)&amp;"+s5*"&amp;TEXT(AA187,0)&amp;"+s6*"&amp;TEXT(AB187,0)&amp;"+s7*"&amp;TEXT(AC187,0)&amp;"+s0*"&amp;TEXT(AD187,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R187)),S187,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R187)),S187,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R187)),S187,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R187)),S187,S187)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R187)),S187,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R187)),S187,0)&amp;"+e07*"&amp;IF(T187="反撃",U187,0)&amp;"+e08*"&amp;IF(T187="風属性",U187,0)&amp;"+e09*"&amp;IF(T187="闇属性",U187,0)&amp;"+e10*"&amp;IF(T187="単体",U187,0)&amp;"+e11*"&amp;IF(T187="範囲",U187,0)&amp;"+e12*"&amp;IF(T187="人",U187,0)&amp;"+e13*"&amp;IF(T187="異族",U187,0)&amp;"+e14*"&amp;IF(T187="バジュラ",U187,0)&amp;"+e15*"&amp;IF(T187="魔動人形",U187,0)&amp;"+e16*"&amp;IF(T187="下位魔神",U187,0)&amp;");"</f>
-        <v>document.getElementById('m185').innerHTML = (b1*0+b2*0+b0*0) + (s1*15+s2*0+s3*0+s4*0+s5*15+s6*0+s7*0+s0*15) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m185').innerHTML = (b1*60+b2*0+b0*60) + (s1*0+s2*0+s3*0+s4*0+s5*20+s6*40+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI187" s="35" t="str">
         <f t="shared" si="17"/>
@@ -25951,13 +26137,13 @@
     </row>
     <row r="188" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D188" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F188" s="15" t="s">
         <v>361</v>
@@ -25967,53 +26153,44 @@
       </c>
       <c r="H188" s="4">
         <f t="shared" si="20"/>
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="I188" s="2">
-        <v>50</v>
-      </c>
-      <c r="J188" s="2">
-        <v>20</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J188" s="2"/>
       <c r="K188" s="2"/>
       <c r="L188" s="2">
         <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M188" s="2">
         <v>20</v>
       </c>
-      <c r="M188" s="2"/>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
       <c r="P188" s="2"/>
       <c r="Q188" s="7"/>
-      <c r="R188" s="5" t="s">
+      <c r="U188" s="4"/>
+      <c r="W188" s="3">
         <v>15</v>
       </c>
-      <c r="S188" s="3">
-        <v>20</v>
-      </c>
-      <c r="U188" s="4"/>
-      <c r="V188" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="Z188" s="3">
-        <v>40</v>
-      </c>
       <c r="AA188" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AD188" s="4">
         <f t="shared" si="19"/>
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="AF188" s="23"/>
       <c r="AG188" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_LAMIA_02.png' alt='千日の雛芥子'&gt;&lt;/td&gt;&lt;td headers='name'&gt;千日の雛芥子&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;ラーストリス騎士団&lt;/td&gt;&lt;td headers='score' id='m186'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;刺突&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;範囲耐性+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;40&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E188="活動"," ev",IF(E188="限定"," ltd",""))&amp;IF(G188=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A187&amp;"' alt='"&amp;C188&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C188&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D188&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E188="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E188="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F188&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G188&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI188&amp;"'&gt;"&amp;H188&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I188&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J188&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K188&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M188&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N188&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O188&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P188&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q188&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R188&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S188&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T188&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U188&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V188&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W188&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X188&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y188&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z188&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA188&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB188&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC188&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_KUDHANSTEIN_01.png' alt='花は優しく揺れて'&gt;&lt;/td&gt;&lt;td headers='name'&gt;花は優しく揺れて&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;ラーストリス騎士団&lt;/td&gt;&lt;td headers='score' id='m186'&gt;15&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;20&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;15&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;15&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH188" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI188&amp;"').innerHTML = (b1*"&amp;TEXT(J188,0)&amp;"+b2*"&amp;TEXT(K188,0)&amp;"+b0*"&amp;TEXT(L188,0)&amp;") + (s1*"&amp;TEXT(W188,0)&amp;"+s2*"&amp;TEXT(X188,0)&amp;"+s3*"&amp;TEXT(Y188,0)&amp;"+s4*"&amp;TEXT(Z188,0)&amp;"+s5*"&amp;TEXT(AA188,0)&amp;"+s6*"&amp;TEXT(AB188,0)&amp;"+s7*"&amp;TEXT(AC188,0)&amp;"+s0*"&amp;TEXT(AD188,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R188)),S188,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R188)),S188,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R188)),S188,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R188)),S188,S188)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R188)),S188,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R188)),S188,0)&amp;"+e07*"&amp;IF(T188="反撃",U188,0)&amp;"+e08*"&amp;IF(T188="風属性",U188,0)&amp;"+e09*"&amp;IF(T188="闇属性",U188,0)&amp;"+e10*"&amp;IF(T188="単体",U188,0)&amp;"+e11*"&amp;IF(T188="範囲",U188,0)&amp;"+e12*"&amp;IF(T188="人",U188,0)&amp;"+e13*"&amp;IF(T188="異族",U188,0)&amp;"+e14*"&amp;IF(T188="バジュラ",U188,0)&amp;"+e15*"&amp;IF(T188="魔動人形",U188,0)&amp;"+e16*"&amp;IF(T188="下位魔神",U188,0)&amp;");"</f>
-        <v>document.getElementById('m186').innerHTML = (b1*20+b2*0+b0*20) + (s1*0+s2*0+s3*0+s4*40+s5*20+s6*0+s7*0+s0*40) + (e01*0+e02*20+e03*0+e04*20+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m186').innerHTML = (b1*0+b2*0+b0*0) + (s1*15+s2*0+s3*0+s4*0+s5*15+s6*0+s7*0+s0*15) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI188" s="35" t="str">
         <f t="shared" si="17"/>
@@ -26023,48 +26200,69 @@
     </row>
     <row r="189" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D189" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F189" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="G189" s="8"/>
+      <c r="G189" s="8" t="s">
+        <v>362</v>
+      </c>
       <c r="H189" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I189" s="2"/>
-      <c r="J189" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="I189" s="2">
+        <v>50</v>
+      </c>
+      <c r="J189" s="2">
+        <v>20</v>
+      </c>
       <c r="K189" s="2"/>
       <c r="L189" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
       <c r="P189" s="2"/>
       <c r="Q189" s="7"/>
+      <c r="R189" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S189" s="3">
+        <v>20</v>
+      </c>
       <c r="U189" s="4"/>
+      <c r="V189" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z189" s="3">
+        <v>40</v>
+      </c>
+      <c r="AA189" s="3">
+        <v>20</v>
+      </c>
       <c r="AD189" s="4">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF189" s="23"/>
       <c r="AG189" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_MAGNUS_01.png' alt='アンフェア・ルール'&gt;&lt;/td&gt;&lt;td headers='name'&gt;アンフェア・ルール&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m187'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E189="活動"," ev",IF(E189="限定"," ltd",""))&amp;IF(G189=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A188&amp;"' alt='"&amp;C189&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C189&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D189&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E189="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E189="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F189&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G189&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI189&amp;"'&gt;"&amp;H189&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I189&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J189&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K189&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M189&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N189&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O189&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P189&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q189&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R189&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S189&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T189&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U189&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V189&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W189&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X189&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y189&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z189&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA189&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB189&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC189&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_LAMIA_01.png' alt='千日の雛芥子'&gt;&lt;/td&gt;&lt;td headers='name'&gt;千日の雛芥子&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;ラーストリス騎士団&lt;/td&gt;&lt;td headers='score' id='m187'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;刺突&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;範囲耐性+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;40&lt;/td&gt;&lt;td headers='sinE'&gt;20&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH189" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI189&amp;"').innerHTML = (b1*"&amp;TEXT(J189,0)&amp;"+b2*"&amp;TEXT(K189,0)&amp;"+b0*"&amp;TEXT(L189,0)&amp;") + (s1*"&amp;TEXT(W189,0)&amp;"+s2*"&amp;TEXT(X189,0)&amp;"+s3*"&amp;TEXT(Y189,0)&amp;"+s4*"&amp;TEXT(Z189,0)&amp;"+s5*"&amp;TEXT(AA189,0)&amp;"+s6*"&amp;TEXT(AB189,0)&amp;"+s7*"&amp;TEXT(AC189,0)&amp;"+s0*"&amp;TEXT(AD189,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R189)),S189,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R189)),S189,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R189)),S189,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R189)),S189,S189)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R189)),S189,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R189)),S189,0)&amp;"+e07*"&amp;IF(T189="反撃",U189,0)&amp;"+e08*"&amp;IF(T189="風属性",U189,0)&amp;"+e09*"&amp;IF(T189="闇属性",U189,0)&amp;"+e10*"&amp;IF(T189="単体",U189,0)&amp;"+e11*"&amp;IF(T189="範囲",U189,0)&amp;"+e12*"&amp;IF(T189="人",U189,0)&amp;"+e13*"&amp;IF(T189="異族",U189,0)&amp;"+e14*"&amp;IF(T189="バジュラ",U189,0)&amp;"+e15*"&amp;IF(T189="魔動人形",U189,0)&amp;"+e16*"&amp;IF(T189="下位魔神",U189,0)&amp;");"</f>
-        <v>document.getElementById('m187').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m187').innerHTML = (b1*20+b2*0+b0*20) + (s1*0+s2*0+s3*0+s4*40+s5*20+s6*0+s7*0+s0*40) + (e01*0+e02*20+e03*0+e04*20+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI189" s="35" t="str">
         <f t="shared" si="17"/>
@@ -26074,13 +26272,13 @@
     </row>
     <row r="190" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D190" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F190" s="15" t="s">
         <v>361</v>
@@ -26109,8 +26307,8 @@
       </c>
       <c r="AF190" s="23"/>
       <c r="AG190" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_MAGNUS_02.png' alt='二人のジョーカー'&gt;&lt;/td&gt;&lt;td headers='name'&gt;二人のジョーカー&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+        <f>"&lt;tr class='mmt"&amp;IF(E190="活動"," ev",IF(E190="限定"," ltd",""))&amp;IF(G190=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A189&amp;"' alt='"&amp;C190&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C190&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D190&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E190="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E190="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F190&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G190&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI190&amp;"'&gt;"&amp;H190&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I190&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J190&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K190&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M190&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N190&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O190&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P190&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q190&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R190&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S190&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T190&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U190&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V190&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W190&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X190&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y190&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z190&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA190&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB190&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC190&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_LAMIA_02.png' alt='アンフェア・ルール'&gt;&lt;/td&gt;&lt;td headers='name'&gt;アンフェア・ルール&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
 Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m188'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH190" s="31" t="str">
@@ -26125,10 +26323,10 @@
     </row>
     <row r="191" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D191" s="3">
         <v>5</v>
@@ -26136,54 +26334,37 @@
       <c r="F191" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="G191" s="8" t="s">
-        <v>91</v>
-      </c>
+      <c r="G191" s="8"/>
       <c r="H191" s="4">
         <f t="shared" si="20"/>
-        <v>60</v>
-      </c>
-      <c r="I191" s="2">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" s="2"/>
       <c r="J191" s="2"/>
-      <c r="K191" s="2">
-        <v>30</v>
-      </c>
+      <c r="K191" s="2"/>
       <c r="L191" s="2">
         <f t="shared" si="18"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M191" s="2"/>
       <c r="N191" s="2"/>
       <c r="O191" s="2"/>
-      <c r="P191" s="2">
-        <v>10</v>
-      </c>
+      <c r="P191" s="2"/>
       <c r="Q191" s="7"/>
       <c r="U191" s="4"/>
-      <c r="V191" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="W191" s="3">
-        <v>30</v>
-      </c>
-      <c r="AA191" s="3">
-        <v>30</v>
-      </c>
       <c r="AD191" s="4">
         <f t="shared" si="19"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AF191" s="23"/>
       <c r="AG191" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_MARE_01.png' alt='私だって守れる！'&gt;&lt;/td&gt;&lt;td headers='name'&gt;私だって守れる！&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m189'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;射撃回避+20&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E191="活動"," ev",IF(E191="限定"," ltd",""))&amp;IF(G191=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A190&amp;"' alt='"&amp;C191&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C191&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D191&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E191="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E191="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F191&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G191&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI191&amp;"'&gt;"&amp;H191&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I191&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J191&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K191&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M191&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N191&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O191&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P191&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q191&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R191&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S191&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T191&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U191&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V191&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W191&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X191&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y191&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z191&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA191&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB191&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC191&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_MAGNUS_01.png' alt='二人のジョーカー'&gt;&lt;/td&gt;&lt;td headers='name'&gt;二人のジョーカー&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m189'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH191" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI191&amp;"').innerHTML = (b1*"&amp;TEXT(J191,0)&amp;"+b2*"&amp;TEXT(K191,0)&amp;"+b0*"&amp;TEXT(L191,0)&amp;") + (s1*"&amp;TEXT(W191,0)&amp;"+s2*"&amp;TEXT(X191,0)&amp;"+s3*"&amp;TEXT(Y191,0)&amp;"+s4*"&amp;TEXT(Z191,0)&amp;"+s5*"&amp;TEXT(AA191,0)&amp;"+s6*"&amp;TEXT(AB191,0)&amp;"+s7*"&amp;TEXT(AC191,0)&amp;"+s0*"&amp;TEXT(AD191,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R191)),S191,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R191)),S191,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R191)),S191,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R191)),S191,S191)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R191)),S191,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R191)),S191,0)&amp;"+e07*"&amp;IF(T191="反撃",U191,0)&amp;"+e08*"&amp;IF(T191="風属性",U191,0)&amp;"+e09*"&amp;IF(T191="闇属性",U191,0)&amp;"+e10*"&amp;IF(T191="単体",U191,0)&amp;"+e11*"&amp;IF(T191="範囲",U191,0)&amp;"+e12*"&amp;IF(T191="人",U191,0)&amp;"+e13*"&amp;IF(T191="異族",U191,0)&amp;"+e14*"&amp;IF(T191="バジュラ",U191,0)&amp;"+e15*"&amp;IF(T191="魔動人形",U191,0)&amp;"+e16*"&amp;IF(T191="下位魔神",U191,0)&amp;");"</f>
-        <v>document.getElementById('m189').innerHTML = (b1*0+b2*30+b0*30) + (s1*30+s2*0+s3*0+s4*0+s5*30+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m189').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI191" s="35" t="str">
         <f t="shared" si="17"/>
@@ -26193,62 +26374,65 @@
     </row>
     <row r="192" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="8" t="s">
-        <v>535</v>
+        <v>381</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>542</v>
+        <v>382</v>
       </c>
       <c r="D192" s="3">
         <v>5</v>
       </c>
-      <c r="E192" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="F192" s="15" t="s">
         <v>361</v>
       </c>
       <c r="G192" s="8" t="s">
-        <v>362</v>
+        <v>91</v>
       </c>
       <c r="H192" s="4">
         <f t="shared" si="20"/>
-        <v>15</v>
-      </c>
-      <c r="I192" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="I192" s="2">
+        <v>30</v>
+      </c>
       <c r="J192" s="2"/>
-      <c r="K192" s="2"/>
+      <c r="K192" s="2">
+        <v>30</v>
+      </c>
       <c r="L192" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M192" s="2"/>
-      <c r="N192" s="2">
-        <v>60</v>
-      </c>
+      <c r="N192" s="2"/>
       <c r="O192" s="2"/>
-      <c r="P192" s="2"/>
+      <c r="P192" s="2">
+        <v>10</v>
+      </c>
       <c r="Q192" s="7"/>
       <c r="U192" s="4"/>
-      <c r="V192" s="5"/>
+      <c r="V192" s="5" t="s">
+        <v>558</v>
+      </c>
       <c r="W192" s="3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AA192" s="3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AD192" s="4">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AF192" s="23"/>
       <c r="AG192" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ev'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_PLUMERIA_01.png' alt='皆様に花マルを'&gt;&lt;/td&gt;&lt;td headers='name'&gt;皆様に花マルを&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;ラーストリス騎士団&lt;/td&gt;&lt;td headers='score' id='m190'&gt;15&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;60&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;15&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;15&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E192="活動"," ev",IF(E192="限定"," ltd",""))&amp;IF(G192=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A191&amp;"' alt='"&amp;C192&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C192&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D192&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E192="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E192="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F192&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G192&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI192&amp;"'&gt;"&amp;H192&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I192&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J192&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K192&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M192&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N192&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O192&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P192&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q192&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R192&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S192&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T192&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U192&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V192&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W192&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X192&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y192&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z192&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA192&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB192&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC192&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_MAGNUS_02.png' alt='私だって守れる！'&gt;&lt;/td&gt;&lt;td headers='name'&gt;私だって守れる！&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m190'&gt;60&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;10&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;射撃回避率+20&lt;/td&gt;&lt;td headers='sinA'&gt;30&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH192" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI192&amp;"').innerHTML = (b1*"&amp;TEXT(J192,0)&amp;"+b2*"&amp;TEXT(K192,0)&amp;"+b0*"&amp;TEXT(L192,0)&amp;") + (s1*"&amp;TEXT(W192,0)&amp;"+s2*"&amp;TEXT(X192,0)&amp;"+s3*"&amp;TEXT(Y192,0)&amp;"+s4*"&amp;TEXT(Z192,0)&amp;"+s5*"&amp;TEXT(AA192,0)&amp;"+s6*"&amp;TEXT(AB192,0)&amp;"+s7*"&amp;TEXT(AC192,0)&amp;"+s0*"&amp;TEXT(AD192,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R192)),S192,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R192)),S192,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R192)),S192,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R192)),S192,S192)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R192)),S192,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R192)),S192,0)&amp;"+e07*"&amp;IF(T192="反撃",U192,0)&amp;"+e08*"&amp;IF(T192="風属性",U192,0)&amp;"+e09*"&amp;IF(T192="闇属性",U192,0)&amp;"+e10*"&amp;IF(T192="単体",U192,0)&amp;"+e11*"&amp;IF(T192="範囲",U192,0)&amp;"+e12*"&amp;IF(T192="人",U192,0)&amp;"+e13*"&amp;IF(T192="異族",U192,0)&amp;"+e14*"&amp;IF(T192="バジュラ",U192,0)&amp;"+e15*"&amp;IF(T192="魔動人形",U192,0)&amp;"+e16*"&amp;IF(T192="下位魔神",U192,0)&amp;");"</f>
-        <v>document.getElementById('m190').innerHTML = (b1*0+b2*0+b0*0) + (s1*15+s2*0+s3*0+s4*0+s5*15+s6*0+s7*0+s0*15) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m190').innerHTML = (b1*0+b2*30+b0*30) + (s1*30+s2*0+s3*0+s4*0+s5*30+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI192" s="35" t="str">
         <f t="shared" si="17"/>
@@ -26258,21 +26442,26 @@
     </row>
     <row r="193" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="8" t="s">
-        <v>383</v>
+        <v>530</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>384</v>
+        <v>537</v>
       </c>
       <c r="D193" s="3">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="F193" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="G193" s="8"/>
+      <c r="G193" s="8" t="s">
+        <v>362</v>
+      </c>
       <c r="H193" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I193" s="2"/>
       <c r="J193" s="2"/>
@@ -26282,24 +26471,33 @@
         <v>0</v>
       </c>
       <c r="M193" s="2"/>
-      <c r="N193" s="2"/>
+      <c r="N193" s="2">
+        <v>60</v>
+      </c>
       <c r="O193" s="2"/>
       <c r="P193" s="2"/>
       <c r="Q193" s="7"/>
       <c r="U193" s="4"/>
+      <c r="V193" s="5"/>
+      <c r="W193" s="3">
+        <v>15</v>
+      </c>
+      <c r="AA193" s="3">
+        <v>15</v>
+      </c>
       <c r="AD193" s="4">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF193" s="23"/>
       <c r="AG193" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_ROSA_01.png' alt='魂に刻まれし本能'&gt;&lt;/td&gt;&lt;td headers='name'&gt;魂に刻まれし本能&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m191'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E193="活動"," ev",IF(E193="限定"," ltd",""))&amp;IF(G193=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A192&amp;"' alt='"&amp;C193&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C193&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D193&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E193="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E193="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F193&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G193&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI193&amp;"'&gt;"&amp;H193&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I193&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J193&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K193&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M193&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N193&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O193&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P193&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q193&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R193&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S193&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T193&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U193&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V193&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W193&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X193&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y193&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z193&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA193&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB193&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC193&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt ev'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_MARE_01.png' alt='皆様に花マルを'&gt;&lt;/td&gt;&lt;td headers='name'&gt;皆様に花マルを&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;ラーストリス騎士団&lt;/td&gt;&lt;td headers='score' id='m191'&gt;15&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;60&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;15&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;15&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH193" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI193&amp;"').innerHTML = (b1*"&amp;TEXT(J193,0)&amp;"+b2*"&amp;TEXT(K193,0)&amp;"+b0*"&amp;TEXT(L193,0)&amp;") + (s1*"&amp;TEXT(W193,0)&amp;"+s2*"&amp;TEXT(X193,0)&amp;"+s3*"&amp;TEXT(Y193,0)&amp;"+s4*"&amp;TEXT(Z193,0)&amp;"+s5*"&amp;TEXT(AA193,0)&amp;"+s6*"&amp;TEXT(AB193,0)&amp;"+s7*"&amp;TEXT(AC193,0)&amp;"+s0*"&amp;TEXT(AD193,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R193)),S193,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R193)),S193,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R193)),S193,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R193)),S193,S193)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R193)),S193,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R193)),S193,0)&amp;"+e07*"&amp;IF(T193="反撃",U193,0)&amp;"+e08*"&amp;IF(T193="風属性",U193,0)&amp;"+e09*"&amp;IF(T193="闇属性",U193,0)&amp;"+e10*"&amp;IF(T193="単体",U193,0)&amp;"+e11*"&amp;IF(T193="範囲",U193,0)&amp;"+e12*"&amp;IF(T193="人",U193,0)&amp;"+e13*"&amp;IF(T193="異族",U193,0)&amp;"+e14*"&amp;IF(T193="バジュラ",U193,0)&amp;"+e15*"&amp;IF(T193="魔動人形",U193,0)&amp;"+e16*"&amp;IF(T193="下位魔神",U193,0)&amp;");"</f>
-        <v>document.getElementById('m191').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m191').innerHTML = (b1*0+b2*0+b0*0) + (s1*15+s2*0+s3*0+s4*0+s5*15+s6*0+s7*0+s0*15) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI193" s="35" t="str">
         <f t="shared" si="17"/>
@@ -26309,16 +26507,13 @@
     </row>
     <row r="194" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D194" s="3">
-        <v>5</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F194" s="15" t="s">
         <v>361</v>
@@ -26347,8 +26542,8 @@
       </c>
       <c r="AF194" s="23"/>
       <c r="AG194" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ltd groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_ROSA_02.png' alt='あの日見た堕天使'&gt;&lt;/td&gt;&lt;td headers='name'&gt;あの日見た堕天使&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+        <f>"&lt;tr class='mmt"&amp;IF(E194="活動"," ev",IF(E194="限定"," ltd",""))&amp;IF(G194=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A193&amp;"' alt='"&amp;C194&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C194&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D194&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E194="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E194="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F194&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G194&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI194&amp;"'&gt;"&amp;H194&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I194&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J194&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K194&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M194&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N194&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O194&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P194&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q194&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R194&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S194&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T194&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U194&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V194&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W194&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X194&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y194&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z194&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA194&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB194&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC194&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_PLUMERIA_01.png' alt='魂に刻まれし本能'&gt;&lt;/td&gt;&lt;td headers='name'&gt;魂に刻まれし本能&lt;/td&gt;&lt;td headers='rank'&gt;4&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
 Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m192'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH194" s="31" t="str">
@@ -26363,13 +26558,16 @@
     </row>
     <row r="195" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D195" s="3">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="F195" s="15" t="s">
         <v>361</v>
@@ -26398,8 +26596,8 @@
       </c>
       <c r="AF195" s="23"/>
       <c r="AG195" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_SABALETA_01.png' alt='いずれ燃え尽きるほど'&gt;&lt;/td&gt;&lt;td headers='name'&gt;いずれ燃え尽きるほど&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+        <f>"&lt;tr class='mmt"&amp;IF(E195="活動"," ev",IF(E195="限定"," ltd",""))&amp;IF(G195=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A194&amp;"' alt='"&amp;C195&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C195&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D195&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E195="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E195="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F195&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G195&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI195&amp;"'&gt;"&amp;H195&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I195&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J195&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K195&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M195&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N195&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O195&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P195&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q195&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R195&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S195&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T195&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U195&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V195&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W195&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X195&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y195&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z195&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA195&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB195&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC195&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt ltd groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_ROSA_01.png' alt='あの日見た堕天使'&gt;&lt;/td&gt;&lt;td headers='name'&gt;あの日見た堕天使&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
 Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m193'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH195" s="31" t="str">
@@ -26414,146 +26612,126 @@
     </row>
     <row r="196" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D196" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F196" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="G196" s="8" t="s">
-        <v>91</v>
-      </c>
+      <c r="G196" s="8"/>
       <c r="H196" s="4">
-        <f t="shared" si="20"/>
-        <v>55</v>
-      </c>
-      <c r="I196" s="2">
-        <v>70</v>
-      </c>
-      <c r="J196" s="2">
-        <v>15</v>
-      </c>
+        <f t="shared" ref="H196:H197" si="22">SUMPRODUCT(I$1:AD$1,I196:AD196)</f>
+        <v>0</v>
+      </c>
+      <c r="I196" s="2"/>
+      <c r="J196" s="2"/>
       <c r="K196" s="2"/>
       <c r="L196" s="2">
-        <f t="shared" si="18"/>
-        <v>15</v>
-      </c>
-      <c r="M196" s="2">
-        <v>15</v>
-      </c>
+        <f t="shared" ref="L196:L197" si="23">MAX(J196:K196)</f>
+        <v>0</v>
+      </c>
+      <c r="M196" s="2"/>
       <c r="N196" s="2"/>
       <c r="O196" s="2"/>
       <c r="P196" s="2"/>
       <c r="Q196" s="7"/>
       <c r="U196" s="4"/>
-      <c r="W196" s="3">
-        <v>40</v>
-      </c>
-      <c r="AB196" s="3">
-        <v>20</v>
-      </c>
       <c r="AD196" s="4">
-        <f t="shared" si="19"/>
-        <v>40</v>
+        <f t="shared" ref="AD196:AD197" si="24">MAX(W196:AC196)</f>
+        <v>0</v>
       </c>
       <c r="AF196" s="23"/>
       <c r="AG196" s="31" t="str">
-        <f t="shared" ref="AG196:AG198" si="21">"&lt;tr class='mmt"&amp;IF(E196="活動"," ev",IF(E196="限定"," ltd",""))&amp;IF(G196=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A196&amp;"' alt='"&amp;C196&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C196&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D196&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E196="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E196="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F196&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G196&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI196&amp;"'&gt;"&amp;H196&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I196&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J196&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K196&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M196&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N196&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O196&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P196&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q196&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R196&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S196&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T196&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U196&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V196&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W196&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X196&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y196&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z196&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA196&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB196&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC196&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_SPICA_01.png' alt='双星の想いは募り'&gt;&lt;/td&gt;&lt;td headers='name'&gt;双星の想いは募り&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m194'&gt;55&lt;/td&gt;&lt;td headers='HP'&gt;70&lt;/td&gt;&lt;td headers='patk'&gt;15&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;15&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;40&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;20&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E196="活動"," ev",IF(E196="限定"," ltd",""))&amp;IF(G196=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A194&amp;"' alt='"&amp;C196&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C196&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D196&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E196="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E196="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F196&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G196&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI196&amp;"'&gt;"&amp;H196&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I196&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J196&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K196&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M196&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N196&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O196&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P196&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q196&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R196&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S196&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T196&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U196&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V196&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W196&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X196&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y196&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z196&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA196&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB196&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC196&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_ROSA_01.png' alt='いずれ燃え尽きるほど'&gt;&lt;/td&gt;&lt;td headers='name'&gt;いずれ燃え尽きるほど&lt;/td&gt;&lt;td headers='rank'&gt;3&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m194'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH196" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI196&amp;"').innerHTML = (b1*"&amp;TEXT(J196,0)&amp;"+b2*"&amp;TEXT(K196,0)&amp;"+b0*"&amp;TEXT(L196,0)&amp;") + (s1*"&amp;TEXT(W196,0)&amp;"+s2*"&amp;TEXT(X196,0)&amp;"+s3*"&amp;TEXT(Y196,0)&amp;"+s4*"&amp;TEXT(Z196,0)&amp;"+s5*"&amp;TEXT(AA196,0)&amp;"+s6*"&amp;TEXT(AB196,0)&amp;"+s7*"&amp;TEXT(AC196,0)&amp;"+s0*"&amp;TEXT(AD196,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R196)),S196,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R196)),S196,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R196)),S196,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R196)),S196,S196)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R196)),S196,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R196)),S196,0)&amp;"+e07*"&amp;IF(T196="反撃",U196,0)&amp;"+e08*"&amp;IF(T196="風属性",U196,0)&amp;"+e09*"&amp;IF(T196="闇属性",U196,0)&amp;"+e10*"&amp;IF(T196="単体",U196,0)&amp;"+e11*"&amp;IF(T196="範囲",U196,0)&amp;"+e12*"&amp;IF(T196="人",U196,0)&amp;"+e13*"&amp;IF(T196="異族",U196,0)&amp;"+e14*"&amp;IF(T196="バジュラ",U196,0)&amp;"+e15*"&amp;IF(T196="魔動人形",U196,0)&amp;"+e16*"&amp;IF(T196="下位魔神",U196,0)&amp;");"</f>
-        <v>document.getElementById('m194').innerHTML = (b1*15+b2*0+b0*15) + (s1*40+s2*0+s3*0+s4*0+s5*0+s6*20+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m194').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI196" s="35" t="str">
-        <f t="shared" ref="AI196:AI198" si="22">"m"&amp;TEXT(ROW()-2,"000")</f>
+        <f t="shared" si="17"/>
         <v>m194</v>
       </c>
       <c r="AJ196" s="23"/>
     </row>
     <row r="197" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D197" s="3">
         <v>5</v>
       </c>
-      <c r="E197" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="F197" s="15" t="s">
         <v>361</v>
       </c>
       <c r="G197" s="8" t="s">
-        <v>362</v>
+        <v>91</v>
       </c>
       <c r="H197" s="4">
-        <f t="shared" si="20"/>
-        <v>80</v>
+        <f t="shared" si="22"/>
+        <v>55</v>
       </c>
       <c r="I197" s="2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J197" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K197" s="2"/>
       <c r="L197" s="2">
-        <f t="shared" si="18"/>
-        <v>30</v>
-      </c>
-      <c r="M197" s="2"/>
+        <f t="shared" si="23"/>
+        <v>15</v>
+      </c>
+      <c r="M197" s="2">
+        <v>15</v>
+      </c>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
       <c r="P197" s="2"/>
       <c r="Q197" s="7"/>
-      <c r="T197" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="U197" s="4">
-        <v>10</v>
-      </c>
+      <c r="U197" s="4"/>
       <c r="W197" s="3">
+        <v>40</v>
+      </c>
+      <c r="AB197" s="3">
         <v>20</v>
       </c>
-      <c r="AA197" s="3">
-        <v>40</v>
-      </c>
       <c r="AD197" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>40</v>
       </c>
       <c r="AF197" s="23"/>
       <c r="AG197" s="31" t="str">
-        <f t="shared" si="21"/>
-        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_TERESA_01.png' alt='可能性は広き海の如く'&gt;&lt;/td&gt;&lt;td headers='name'&gt;可能性は広き海の如く&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;ラーストリス騎士団&lt;/td&gt;&lt;td headers='score' id='m195'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;60&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;範囲&lt;/td&gt;&lt;td headers='sp.bonus'&gt;10&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;40&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E197="活動"," ev",IF(E197="限定"," ltd",""))&amp;IF(G197=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A195&amp;"' alt='"&amp;C197&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C197&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D197&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E197="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E197="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F197&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G197&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI197&amp;"'&gt;"&amp;H197&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I197&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J197&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K197&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M197&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N197&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O197&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P197&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q197&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R197&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S197&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T197&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U197&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V197&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W197&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X197&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y197&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z197&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA197&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB197&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC197&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_ROSA_02.png' alt='双星の想いは募り'&gt;&lt;/td&gt;&lt;td headers='name'&gt;双星の想いは募り&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m195'&gt;55&lt;/td&gt;&lt;td headers='HP'&gt;70&lt;/td&gt;&lt;td headers='patk'&gt;15&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;15&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;40&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;20&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH197" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI197&amp;"').innerHTML = (b1*"&amp;TEXT(J197,0)&amp;"+b2*"&amp;TEXT(K197,0)&amp;"+b0*"&amp;TEXT(L197,0)&amp;") + (s1*"&amp;TEXT(W197,0)&amp;"+s2*"&amp;TEXT(X197,0)&amp;"+s3*"&amp;TEXT(Y197,0)&amp;"+s4*"&amp;TEXT(Z197,0)&amp;"+s5*"&amp;TEXT(AA197,0)&amp;"+s6*"&amp;TEXT(AB197,0)&amp;"+s7*"&amp;TEXT(AC197,0)&amp;"+s0*"&amp;TEXT(AD197,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R197)),S197,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R197)),S197,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R197)),S197,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R197)),S197,S197)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R197)),S197,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R197)),S197,0)&amp;"+e07*"&amp;IF(T197="反撃",U197,0)&amp;"+e08*"&amp;IF(T197="風属性",U197,0)&amp;"+e09*"&amp;IF(T197="闇属性",U197,0)&amp;"+e10*"&amp;IF(T197="単体",U197,0)&amp;"+e11*"&amp;IF(T197="範囲",U197,0)&amp;"+e12*"&amp;IF(T197="人",U197,0)&amp;"+e13*"&amp;IF(T197="異族",U197,0)&amp;"+e14*"&amp;IF(T197="バジュラ",U197,0)&amp;"+e15*"&amp;IF(T197="魔動人形",U197,0)&amp;"+e16*"&amp;IF(T197="下位魔神",U197,0)&amp;");"</f>
-        <v>document.getElementById('m195').innerHTML = (b1*30+b2*0+b0*30) + (s1*20+s2*0+s3*0+s4*0+s5*40+s6*0+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*10+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m195').innerHTML = (b1*15+b2*0+b0*15) + (s1*40+s2*0+s3*0+s4*0+s5*0+s6*20+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI197" s="35" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="AI197:AI201" si="25">"m"&amp;TEXT(ROW()-2,"000")</f>
         <v>m195</v>
       </c>
       <c r="AJ197" s="23"/>
     </row>
     <row r="198" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>393</v>
+        <v>551</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>394</v>
+        <v>559</v>
       </c>
       <c r="D198" s="3">
         <v>5</v>
@@ -26566,108 +26744,308 @@
       </c>
       <c r="H198" s="4">
         <f t="shared" si="20"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I198" s="2">
         <v>40</v>
       </c>
       <c r="J198" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K198" s="2"/>
       <c r="L198" s="2">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M198" s="2"/>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
       <c r="P198" s="2"/>
       <c r="Q198" s="7"/>
-      <c r="R198" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S198" s="3">
+      <c r="T198" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="U198" s="4">
         <v>20</v>
       </c>
-      <c r="U198" s="4"/>
-      <c r="V198" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="W198" s="3">
-        <v>60</v>
+      <c r="V198" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="X198" s="3">
+        <v>30</v>
+      </c>
+      <c r="AB198" s="3">
+        <v>30</v>
       </c>
       <c r="AD198" s="4">
         <f t="shared" si="19"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF198" s="23"/>
       <c r="AG198" s="31" t="str">
-        <f t="shared" si="21"/>
-        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_ZAHAR_01.png' alt='漆黒の野望、未だ叶わず'&gt;&lt;/td&gt;&lt;td headers='name'&gt;漆黒の野望、未だ叶わず&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
-Wratharis&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m196'&gt;100&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;光属性耐性+20&lt;/td&gt;&lt;td headers='sinA'&gt;60&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E198="活動"," ev",IF(E198="限定"," ltd",""))&amp;IF(G198=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A196&amp;"' alt='"&amp;C198&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C198&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D198&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E198="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E198="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F198&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G198&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI198&amp;"'&gt;"&amp;H198&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I198&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J198&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K198&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M198&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N198&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O198&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P198&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q198&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R198&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S198&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T198&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U198&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V198&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W198&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X198&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y198&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z198&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA198&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB198&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC198&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_SABALETA_01.png' alt='珠星、決戦の地へ'&gt;&lt;/td&gt;&lt;td headers='name'&gt;珠星、決戦の地へ&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m196'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;闇属性&lt;/td&gt;&lt;td headers='sp.bonus'&gt;20&lt;/td&gt;&lt;td headers='others'&gt;単体耐性+10&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;30&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH198" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI198&amp;"').innerHTML = (b1*"&amp;TEXT(J198,0)&amp;"+b2*"&amp;TEXT(K198,0)&amp;"+b0*"&amp;TEXT(L198,0)&amp;") + (s1*"&amp;TEXT(W198,0)&amp;"+s2*"&amp;TEXT(X198,0)&amp;"+s3*"&amp;TEXT(Y198,0)&amp;"+s4*"&amp;TEXT(Z198,0)&amp;"+s5*"&amp;TEXT(AA198,0)&amp;"+s6*"&amp;TEXT(AB198,0)&amp;"+s7*"&amp;TEXT(AC198,0)&amp;"+s0*"&amp;TEXT(AD198,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R198)),S198,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R198)),S198,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R198)),S198,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R198)),S198,S198)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R198)),S198,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R198)),S198,0)&amp;"+e07*"&amp;IF(T198="反撃",U198,0)&amp;"+e08*"&amp;IF(T198="風属性",U198,0)&amp;"+e09*"&amp;IF(T198="闇属性",U198,0)&amp;"+e10*"&amp;IF(T198="単体",U198,0)&amp;"+e11*"&amp;IF(T198="範囲",U198,0)&amp;"+e12*"&amp;IF(T198="人",U198,0)&amp;"+e13*"&amp;IF(T198="異族",U198,0)&amp;"+e14*"&amp;IF(T198="バジュラ",U198,0)&amp;"+e15*"&amp;IF(T198="魔動人形",U198,0)&amp;"+e16*"&amp;IF(T198="下位魔神",U198,0)&amp;");"</f>
-        <v>document.getElementById('m196').innerHTML = (b1*20+b2*0+b0*20) + (s1*60+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*60) + (e01*20+e02*0+e03*0+e04*20+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m196').innerHTML = (b1*30+b2*0+b0*30) + (s1*0+s2*30+s3*0+s4*0+s5*0+s6*30+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*20+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI198" s="35" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>m196</v>
       </c>
       <c r="AJ198" s="23"/>
     </row>
     <row r="199" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C199" s="6"/>
-      <c r="F199" s="15"/>
-      <c r="G199" s="8"/>
-      <c r="H199" s="4"/>
-      <c r="I199" s="2"/>
-      <c r="J199" s="2"/>
+      <c r="A199" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="D199" s="3">
+        <v>5</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F199" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="G199" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="H199" s="4">
+        <f t="shared" si="20"/>
+        <v>80</v>
+      </c>
+      <c r="I199" s="2">
+        <v>60</v>
+      </c>
+      <c r="J199" s="2">
+        <v>30</v>
+      </c>
       <c r="K199" s="2"/>
-      <c r="L199" s="2"/>
+      <c r="L199" s="2">
+        <f t="shared" si="18"/>
+        <v>30</v>
+      </c>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
       <c r="P199" s="2"/>
       <c r="Q199" s="7"/>
-      <c r="U199" s="4"/>
-      <c r="AD199" s="4"/>
+      <c r="T199" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U199" s="4">
+        <v>10</v>
+      </c>
+      <c r="W199" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA199" s="3">
+        <v>40</v>
+      </c>
+      <c r="AD199" s="4">
+        <f t="shared" si="19"/>
+        <v>40</v>
+      </c>
       <c r="AF199" s="23"/>
-      <c r="AG199" s="31"/>
-      <c r="AH199" s="31"/>
-      <c r="AI199" s="34"/>
+      <c r="AG199" s="31" t="str">
+        <f>"&lt;tr class='mmt"&amp;IF(E199="活動"," ev",IF(E199="限定"," ltd",""))&amp;IF(G199=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A197&amp;"' alt='"&amp;C199&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C199&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D199&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E199="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E199="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F199&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G199&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI199&amp;"'&gt;"&amp;H199&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I199&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J199&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K199&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M199&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N199&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O199&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P199&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q199&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R199&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S199&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T199&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U199&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V199&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W199&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X199&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y199&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z199&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA199&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB199&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC199&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_SPICA_01.png' alt='可能性は広き海の如く'&gt;&lt;/td&gt;&lt;td headers='name'&gt;可能性は広き海の如く&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;ラーストリス騎士団&lt;/td&gt;&lt;td headers='score' id='m197'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;60&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;範囲&lt;/td&gt;&lt;td headers='sp.bonus'&gt;10&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;20&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;40&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH199" s="31" t="str">
+        <f ca="1">"document.getElementById('"&amp;AI199&amp;"').innerHTML = (b1*"&amp;TEXT(J199,0)&amp;"+b2*"&amp;TEXT(K199,0)&amp;"+b0*"&amp;TEXT(L199,0)&amp;") + (s1*"&amp;TEXT(W199,0)&amp;"+s2*"&amp;TEXT(X199,0)&amp;"+s3*"&amp;TEXT(Y199,0)&amp;"+s4*"&amp;TEXT(Z199,0)&amp;"+s5*"&amp;TEXT(AA199,0)&amp;"+s6*"&amp;TEXT(AB199,0)&amp;"+s7*"&amp;TEXT(AC199,0)&amp;"+s0*"&amp;TEXT(AD199,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R199)),S199,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R199)),S199,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R199)),S199,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R199)),S199,S199)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R199)),S199,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R199)),S199,0)&amp;"+e07*"&amp;IF(T199="反撃",U199,0)&amp;"+e08*"&amp;IF(T199="風属性",U199,0)&amp;"+e09*"&amp;IF(T199="闇属性",U199,0)&amp;"+e10*"&amp;IF(T199="単体",U199,0)&amp;"+e11*"&amp;IF(T199="範囲",U199,0)&amp;"+e12*"&amp;IF(T199="人",U199,0)&amp;"+e13*"&amp;IF(T199="異族",U199,0)&amp;"+e14*"&amp;IF(T199="バジュラ",U199,0)&amp;"+e15*"&amp;IF(T199="魔動人形",U199,0)&amp;"+e16*"&amp;IF(T199="下位魔神",U199,0)&amp;");"</f>
+        <v>document.getElementById('m197').innerHTML = (b1*30+b2*0+b0*30) + (s1*20+s2*0+s3*0+s4*0+s5*40+s6*0+s7*0+s0*40) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*10+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+      </c>
+      <c r="AI199" s="35" t="str">
+        <f t="shared" si="25"/>
+        <v>m197</v>
+      </c>
       <c r="AJ199" s="23"/>
     </row>
+    <row r="200" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D200" s="3">
+        <v>5</v>
+      </c>
+      <c r="F200" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="G200" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H200" s="4">
+        <f t="shared" si="20"/>
+        <v>100</v>
+      </c>
+      <c r="I200" s="2">
+        <v>40</v>
+      </c>
+      <c r="J200" s="2">
+        <v>20</v>
+      </c>
+      <c r="K200" s="2"/>
+      <c r="L200" s="2">
+        <f t="shared" si="18"/>
+        <v>20</v>
+      </c>
+      <c r="M200" s="2"/>
+      <c r="N200" s="2"/>
+      <c r="O200" s="2"/>
+      <c r="P200" s="2"/>
+      <c r="Q200" s="7"/>
+      <c r="R200" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S200" s="3">
+        <v>20</v>
+      </c>
+      <c r="U200" s="4"/>
+      <c r="V200" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="W200" s="3">
+        <v>60</v>
+      </c>
+      <c r="AD200" s="4">
+        <f t="shared" si="19"/>
+        <v>60</v>
+      </c>
+      <c r="AF200" s="23"/>
+      <c r="AG200" s="31" t="str">
+        <f>"&lt;tr class='mmt"&amp;IF(E200="活動"," ev",IF(E200="限定"," ltd",""))&amp;IF(G200=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A198&amp;"' alt='"&amp;C200&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C200&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D200&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E200="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E200="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F200&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G200&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI200&amp;"'&gt;"&amp;H200&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I200&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J200&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K200&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M200&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N200&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O200&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P200&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q200&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R200&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S200&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T200&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U200&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V200&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W200&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X200&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y200&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z200&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA200&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB200&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC200&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_SPICA_02.png' alt='漆黒の野望、未だ叶わず'&gt;&lt;/td&gt;&lt;td headers='name'&gt;漆黒の野望、未だ叶わず&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m198'&gt;100&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;光属性耐性+20&lt;/td&gt;&lt;td headers='sinA'&gt;60&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH200" s="31" t="str">
+        <f ca="1">"document.getElementById('"&amp;AI200&amp;"').innerHTML = (b1*"&amp;TEXT(J200,0)&amp;"+b2*"&amp;TEXT(K200,0)&amp;"+b0*"&amp;TEXT(L200,0)&amp;") + (s1*"&amp;TEXT(W200,0)&amp;"+s2*"&amp;TEXT(X200,0)&amp;"+s3*"&amp;TEXT(Y200,0)&amp;"+s4*"&amp;TEXT(Z200,0)&amp;"+s5*"&amp;TEXT(AA200,0)&amp;"+s6*"&amp;TEXT(AB200,0)&amp;"+s7*"&amp;TEXT(AC200,0)&amp;"+s0*"&amp;TEXT(AD200,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R200)),S200,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R200)),S200,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R200)),S200,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R200)),S200,S200)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R200)),S200,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R200)),S200,0)&amp;"+e07*"&amp;IF(T200="反撃",U200,0)&amp;"+e08*"&amp;IF(T200="風属性",U200,0)&amp;"+e09*"&amp;IF(T200="闇属性",U200,0)&amp;"+e10*"&amp;IF(T200="単体",U200,0)&amp;"+e11*"&amp;IF(T200="範囲",U200,0)&amp;"+e12*"&amp;IF(T200="人",U200,0)&amp;"+e13*"&amp;IF(T200="異族",U200,0)&amp;"+e14*"&amp;IF(T200="バジュラ",U200,0)&amp;"+e15*"&amp;IF(T200="魔動人形",U200,0)&amp;"+e16*"&amp;IF(T200="下位魔神",U200,0)&amp;");"</f>
+        <v>document.getElementById('m198').innerHTML = (b1*20+b2*0+b0*20) + (s1*60+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*60) + (e01*20+e02*0+e03*0+e04*20+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+      </c>
+      <c r="AI200" s="35" t="str">
+        <f t="shared" si="25"/>
+        <v>m198</v>
+      </c>
+      <c r="AJ200" s="23"/>
+    </row>
+    <row r="201" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D201" s="3">
+        <v>5</v>
+      </c>
+      <c r="F201" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="G201" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H201" s="4">
+        <f t="shared" ref="H201" si="26">SUMPRODUCT(I$1:AD$1,I201:AD201)</f>
+        <v>100</v>
+      </c>
+      <c r="I201" s="2"/>
+      <c r="J201" s="2">
+        <v>30</v>
+      </c>
+      <c r="K201" s="2">
+        <v>30</v>
+      </c>
+      <c r="L201" s="2">
+        <f t="shared" ref="L201" si="27">MAX(J201:K201)</f>
+        <v>30</v>
+      </c>
+      <c r="M201" s="2"/>
+      <c r="N201" s="2"/>
+      <c r="O201" s="2"/>
+      <c r="P201" s="2"/>
+      <c r="Q201" s="7"/>
+      <c r="R201" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S201" s="3">
+        <v>40</v>
+      </c>
+      <c r="U201" s="4"/>
+      <c r="V201" s="5"/>
+      <c r="X201" s="3">
+        <v>30</v>
+      </c>
+      <c r="AA201" s="3">
+        <v>30</v>
+      </c>
+      <c r="AD201" s="4">
+        <f t="shared" ref="AD201" si="28">MAX(W201:AC201)</f>
+        <v>30</v>
+      </c>
+      <c r="AF201" s="23"/>
+      <c r="AG201" s="31" t="str">
+        <f>"&lt;tr class='mmt"&amp;IF(E201="活動"," ev",IF(E201="限定"," ltd",""))&amp;IF(G201=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A199&amp;"' alt='"&amp;C201&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C201&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D201&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E201="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E201="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F201&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G201&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI201&amp;"'&gt;"&amp;H201&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I201&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J201&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K201&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M201&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N201&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O201&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P201&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q201&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R201&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S201&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T201&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U201&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V201&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W201&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X201&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y201&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z201&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA201&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB201&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC201&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_WRATH_TERESA_01.png' alt='白銀の野望、ここに降り立ち'&gt;&lt;/td&gt;&lt;td headers='name'&gt;白銀の野望、ここに降り立ち&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;ラーストリス
+Wratharis&lt;/td&gt;&lt;td headers='group'&gt;シャドウメサイヤ&lt;/td&gt;&lt;td headers='score' id='m199'&gt;100&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;30&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;斬撃&lt;/td&gt;&lt;td headers='a.bonus'&gt;40&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;30&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="AH201" s="31" t="str">
+        <f ca="1">"document.getElementById('"&amp;AI201&amp;"').innerHTML = (b1*"&amp;TEXT(J201,0)&amp;"+b2*"&amp;TEXT(K201,0)&amp;"+b0*"&amp;TEXT(L201,0)&amp;") + (s1*"&amp;TEXT(W201,0)&amp;"+s2*"&amp;TEXT(X201,0)&amp;"+s3*"&amp;TEXT(Y201,0)&amp;"+s4*"&amp;TEXT(Z201,0)&amp;"+s5*"&amp;TEXT(AA201,0)&amp;"+s6*"&amp;TEXT(AB201,0)&amp;"+s7*"&amp;TEXT(AC201,0)&amp;"+s0*"&amp;TEXT(AD201,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R201)),S201,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R201)),S201,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R201)),S201,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R201)),S201,S201)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R201)),S201,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R201)),S201,0)&amp;"+e07*"&amp;IF(T201="反撃",U201,0)&amp;"+e08*"&amp;IF(T201="風属性",U201,0)&amp;"+e09*"&amp;IF(T201="闇属性",U201,0)&amp;"+e10*"&amp;IF(T201="単体",U201,0)&amp;"+e11*"&amp;IF(T201="範囲",U201,0)&amp;"+e12*"&amp;IF(T201="人",U201,0)&amp;"+e13*"&amp;IF(T201="異族",U201,0)&amp;"+e14*"&amp;IF(T201="バジュラ",U201,0)&amp;"+e15*"&amp;IF(T201="魔動人形",U201,0)&amp;"+e16*"&amp;IF(T201="下位魔神",U201,0)&amp;");"</f>
+        <v>document.getElementById('m199').innerHTML = (b1*30+b2*30+b0*30) + (s1*0+s2*30+s3*0+s4*0+s5*30+s6*0+s7*0+s0*30) + (e01*40+e02*0+e03*0+e04*40+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+      </c>
+      <c r="AI201" s="35" t="str">
+        <f t="shared" si="25"/>
+        <v>m199</v>
+      </c>
+      <c r="AJ201" s="23"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="70xmJJcQNeqWF16jjXPdLzw8tKAKS5KAtf9POjrNO3JkzPuefjPXnHKLARVap9venPeIEK0EGNt0aAepNwzEnA==" saltValue="bCFuW3RP5cRawSr0/8LYTA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
-  <autoFilter ref="B2:AD198" xr:uid="{12F5E3EA-4FDA-471C-839A-02A68F2CB4ED}"/>
-  <conditionalFormatting sqref="D1:F1 AE97:AF118 AE157:AF198 C199:AF1048576 H1:AF1 I157:AD162 C74:G96 I74:AF96 C98:G118 I98:AD118 B129:G130 A203:B1048576 B131:B202 A194 I164:AD198 C164:G198 B7:B128 A1:B6 C2:AF64 AG1:XFD64 AG66:XFD118 AJ65:XFD65 AD66:AD118 L66:L118 H66:H118 C66:AF73 C65:F65 AG120:XFD1048576 AJ119:XFD119 C120:G128 I120:AF156 A7:A190 C131:G162 H120:H198 AD120:AD198 L120:L198 AG3:AI198">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+  <sheetProtection algorithmName="SHA-512" hashValue="O+9bruZoEUGFSVMk+eXSoFBaYwJA6YsH1PokjT/zZvxYkJK2hfrwbzU2dIZr4UQygKyWoEqBre+AE8oCO74OwQ==" saltValue="iPPcGmYz+1C7sBr6TDkmOQ==" spinCount="100000" sheet="1" selectLockedCells="1" sort="0"/>
+  <autoFilter ref="B2:AD200" xr:uid="{12F5E3EA-4FDA-471C-839A-02A68F2CB4ED}"/>
+  <conditionalFormatting sqref="D1:F1 AE97:AF118 AE158:AF195 H1:AF1 I158:AD163 C74:G96 I74:AF96 C98:G118 I98:AD118 B129:G130 A205:B1048576 B131:B204 A194 I165:AD195 B7:B128 A1:B6 C2:AF64 AG1:XFD64 AG66:XFD118 AJ65:XFD65 AD66:AD118 L66:L118 H66:H118 C66:AF73 C65:F65 AG120:XFD195 AJ119:XFD119 C120:G128 I120:AF157 A7:A190 C131:G163 H120:H195 L120:L195 AD120:AD195 AG3:AI195 H198:XFD200 C202:XFD1048576 C165:G195 G201:XFD201 AJ196:XFD197 C198:G201">
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F163">
+  <conditionalFormatting sqref="F164">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F97">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65:AI65">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F97">
+  <conditionalFormatting sqref="C119:AI119">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G65:AI65">
+  <conditionalFormatting sqref="C196:AI196">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C119:AI119">
+  <conditionalFormatting sqref="C197:AI197">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -26726,15 +27104,15 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42" t="s">
         <v>399</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>400</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="44" t="s">
         <v>42</v>
       </c>
       <c r="F2" s="11"/>
@@ -26746,11 +27124,11 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
+      <c r="E3" s="44"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11" t="s">
         <v>402</v>
@@ -26760,11 +27138,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11" t="s">
         <v>404</v>
@@ -26774,11 +27152,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="41"/>
-      <c r="E5" s="42"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11" t="s">
         <v>405</v>
@@ -26788,11 +27166,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11" t="s">
         <v>406</v>
@@ -26802,15 +27180,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="40" t="s">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="42" t="s">
         <v>408</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>409</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="44" t="s">
         <v>361</v>
       </c>
       <c r="F7" s="11"/>
@@ -26822,11 +27200,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="40"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
+      <c r="E8" s="44"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11" t="s">
         <v>411</v>
@@ -26888,15 +27266,15 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40" t="s">
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42" t="s">
         <v>419</v>
       </c>
       <c r="D12" s="41" t="s">
         <v>420</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="44" t="s">
         <v>162</v>
       </c>
       <c r="F12" s="11"/>
@@ -26908,11 +27286,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
+      <c r="E13" s="44"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11" t="s">
         <v>422</v>
@@ -27018,15 +27396,15 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="40" t="s">
         <v>438</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="41" t="s">
         <v>439</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="43" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="11"/>
@@ -27038,11 +27416,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="40"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="41"/>
-      <c r="E20" s="44"/>
+      <c r="E20" s="43"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11" t="s">
         <v>441</v>
@@ -27052,11 +27430,11 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="40"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="41"/>
-      <c r="E21" s="44"/>
+      <c r="E21" s="43"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11" t="s">
         <v>442</v>
@@ -27066,11 +27444,11 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="40"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="41"/>
-      <c r="E22" s="44"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11" t="s">
         <v>443</v>
@@ -27080,26 +27458,26 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="38" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="44"/>
+      <c r="E23" s="43"/>
       <c r="H23" s="38" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="38" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="44"/>
+      <c r="E24" s="43"/>
       <c r="H24" s="38" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="43" t="s">
-        <v>528</v>
+      <c r="A25" s="40" t="s">
+        <v>523</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -27112,47 +27490,47 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="38" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="38" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="38" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="C1:H1" xr:uid="{D34E5BD1-5186-4F28-B32E-C9CFC7F001D0}"/>
   <mergeCells count="21">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="E19:E24"/>
     <mergeCell ref="B19:B24"/>
     <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -27184,7 +27562,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -27224,19 +27602,19 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="2" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(A1,"アップ",""),"％","%")</f>
-        <v>HP20% 下位魔神特効80% &lt;傲慢&gt;特効60%</v>
+        <v>斬撃攻撃力40% 物攻30% 魔攻30% &lt;嫉妬&gt;特効30% &lt;憤怒&gt;特効30%</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(A2,"10%","+10%"),"20%","+20%"),"30%","+30%"),"40%","+40%"),"50%","+50%"),"60%","+60%"),"70%","+70%"),"5%","+5%"),"1+5%","+15%")</f>
-        <v>HP+20% 下位魔神特効80% &lt;傲慢&gt;特効+60%</v>
+        <v>斬撃攻撃力+40% 物攻+30% 魔攻+30% &lt;嫉妬&gt;特効+30% &lt;憤怒&gt;特効+30%</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">

--- a/mementos/mementos-v2.xlsx
+++ b/mementos/mementos-v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/mementos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0635D026-9413-431C-AF88-B2869BF8C0B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A56FFAF3-E954-4880-886D-0A70F9D7171E}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{0635D026-9413-431C-AF88-B2869BF8C0B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{40B76E6F-1EEC-41B4-A5BE-3421B7C43552}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{28EF47FE-C34C-4192-A973-EF1E71DA4EC0}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">List!$C$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mementos!$B$2:$AD$200</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mementos!$B$2:$AD$202</definedName>
     <definedName name="group" localSheetId="1">List!$H:$H</definedName>
     <definedName name="group">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Mementos!$B:$AD</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="568">
   <si>
     <t>Name</t>
   </si>
@@ -1706,9 +1706,6 @@
     <t>下位魔神</t>
   </si>
   <si>
-    <t>斬撃攻撃力40%アップ 物攻30%アップ 魔攻30%アップ &lt;嫉妬&gt;特効30%アップ &lt;憤怒&gt;特効30%アップ</t>
-  </si>
-  <si>
     <t>TS_SLOTH_NIGURU_01.png</t>
   </si>
   <si>
@@ -1743,6 +1740,27 @@
   </si>
   <si>
     <t>白銀の野望、ここに降り立ち</t>
+  </si>
+  <si>
+    <t>TS_SB_01.png</t>
+  </si>
+  <si>
+    <t>TS_SB_02.png</t>
+  </si>
+  <si>
+    <t>盾の勇者に差し込む光</t>
+  </si>
+  <si>
+    <t>盾の勇者の成り上がり</t>
+  </si>
+  <si>
+    <t>第二王女の願いごと</t>
+  </si>
+  <si>
+    <t>HP30%アップ 魔攻30%アップ 打撃攻撃力20%アップ 魔法攻撃力20%アップ &lt;憤怒&gt;特効30%アップ &lt;暴食&gt;特効30%アップ</t>
+  </si>
+  <si>
+    <t>打擊&amp;魔法</t>
   </si>
 </sst>
 </file>
@@ -1839,7 +1857,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1963,19 +1981,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7692,13 +7716,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>462734</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8092,13 +8116,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>462734</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8142,13 +8166,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8192,13 +8216,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>464729</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8242,13 +8266,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>3</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8292,14 +8316,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8342,14 +8366,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>468170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>1444</xdr:rowOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>1443</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8392,13 +8416,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8442,14 +8466,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>468170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>1444</xdr:rowOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>1445</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8492,13 +8516,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8542,14 +8566,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>468171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>1447</xdr:rowOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>1445</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8592,14 +8616,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8642,14 +8666,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>468171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>1444</xdr:rowOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>1445</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8692,14 +8716,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8742,14 +8766,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>468172</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>1446</xdr:rowOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>1447</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8792,13 +8816,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>464730</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8842,14 +8866,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>468172</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8892,14 +8916,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8942,13 +8966,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8992,13 +9016,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>459651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>459649</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9042,14 +9066,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2013831</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>464729</xdr:rowOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9078,7 +9102,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2013831" y="74236371"/>
+          <a:off x="2013831" y="75165833"/>
           <a:ext cx="464731" cy="464729"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9092,14 +9116,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9142,14 +9166,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>459651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>459649</xdr:rowOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>459650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9192,13 +9216,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>463187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>463186</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9242,13 +9266,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>1994</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>463185</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9292,14 +9316,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>463189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>463188</xdr:rowOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>463187</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9342,14 +9366,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>1996</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>1434</xdr:rowOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>1435</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9392,13 +9416,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>1444</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9440,16 +9464,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>169</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2013831</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>464729</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9478,7 +9502,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2013832" y="76560023"/>
+          <a:off x="2013831" y="78883674"/>
           <a:ext cx="464731" cy="464729"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9492,13 +9516,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>1995</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>464729</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9542,13 +9566,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>1995</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>1993</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9590,15 +9614,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2013831</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9628,7 +9652,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2013831" y="79813695"/>
+          <a:off x="2013832" y="80743155"/>
           <a:ext cx="464731" cy="464171"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9642,13 +9666,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>463294</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9692,14 +9716,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>466726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>464730</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9742,14 +9766,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>177</xdr:row>
-      <xdr:rowOff>1433</xdr:rowOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>1432</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9792,14 +9816,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>1447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>178</xdr:row>
-      <xdr:rowOff>1446</xdr:rowOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>1448</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9842,13 +9866,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>1435</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9892,14 +9916,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>1447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>180</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9942,13 +9966,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>3</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9992,13 +10016,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10042,13 +10066,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>463187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>463187</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10092,14 +10116,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>463187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>463186</xdr:rowOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>463187</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10142,13 +10166,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>463187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>463187</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10192,14 +10216,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>466725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>186</xdr:row>
-      <xdr:rowOff>1995</xdr:rowOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>1993</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10240,15 +10264,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>466725</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2013831</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>1994</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10278,8 +10302,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2016906" y="78091448"/>
-          <a:ext cx="470263" cy="473801"/>
+          <a:off x="2013831" y="86786085"/>
+          <a:ext cx="464731" cy="462736"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10292,14 +10316,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2013831</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>187</xdr:row>
-      <xdr:rowOff>1432</xdr:rowOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>1433</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10328,7 +10352,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2013831" y="85854629"/>
+          <a:off x="2013831" y="87248821"/>
           <a:ext cx="464731" cy="466163"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10342,14 +10366,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>187</xdr:row>
-      <xdr:rowOff>459651</xdr:rowOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>459650</xdr:rowOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10378,8 +10402,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2016906" y="79024900"/>
-          <a:ext cx="470263" cy="473800"/>
+          <a:off x="2013832" y="87713551"/>
+          <a:ext cx="464731" cy="464730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10392,13 +10416,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>463189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>463190</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10442,14 +10466,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>463189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>463189</xdr:rowOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>463188</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10492,14 +10516,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>466727</xdr:rowOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>1994</xdr:rowOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>464728</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10528,8 +10552,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2016906" y="80442764"/>
-          <a:ext cx="470263" cy="470261"/>
+          <a:off x="2013832" y="89107742"/>
+          <a:ext cx="464731" cy="464728"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10542,13 +10566,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>464168</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10592,14 +10616,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10642,14 +10666,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10692,13 +10716,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>464727</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10742,13 +10766,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>198</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10792,14 +10816,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>3537</xdr:rowOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>3536</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11630,16 +11654,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2012218</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>1614</xdr:rowOff>
+      <xdr:colOff>1614</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>1615</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11668,7 +11692,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2012218" y="79348405"/>
+          <a:off x="2013832" y="80277866"/>
           <a:ext cx="466344" cy="466344"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11680,16 +11704,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2012218</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>193</xdr:row>
-      <xdr:rowOff>1614</xdr:rowOff>
+      <xdr:colOff>1614</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>1615</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11718,7 +11742,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2012218" y="88643012"/>
+          <a:off x="2013832" y="89572473"/>
           <a:ext cx="466344" cy="466344"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11882,13 +11906,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1614</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>1613</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11932,13 +11956,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>457200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11982,13 +12006,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>457200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12032,13 +12056,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>457200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12070,6 +12094,106 @@
         <a:xfrm>
           <a:off x="2013832" y="92360854"/>
           <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1614</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>1613</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07AD67F9-B335-48C3-8994-EF9AF940B427}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId376" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2013832" y="64477033"/>
+          <a:ext cx="466344" cy="466344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1614</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>1614</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED1D11B-FE64-473F-B6A6-8F227322964C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId377" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2013832" y="64941764"/>
+          <a:ext cx="466344" cy="466344"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12887,13 +13011,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>468172</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12937,13 +13061,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12973,7 +13097,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="468173" y="9363456"/>
+          <a:off x="468173" y="9831629"/>
           <a:ext cx="468173" cy="468173"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14287,13 +14411,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>466344</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>466344</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14375,6 +14499,56 @@
         <a:xfrm>
           <a:off x="2918765" y="10299802"/>
           <a:ext cx="466344" cy="466344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>461486</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>466344</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B5354F5-4906-49E1-8624-3F4B2FF85B59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2918765" y="11236147"/>
+          <a:ext cx="461486" cy="466344"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14683,13 +14857,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5AB6AB-86C9-4C13-95A3-58796C237C8C}">
-  <dimension ref="A1:AJ201"/>
+  <dimension ref="A1:AJ203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="K133" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.3984375" defaultRowHeight="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14708,8 +14882,8 @@
     <col min="22" max="22" width="12.19921875" style="8" bestFit="1" customWidth="1"/>
     <col min="23" max="31" width="6.3984375" style="8"/>
     <col min="32" max="32" width="6.3984375" style="24" customWidth="1"/>
-    <col min="33" max="34" width="6.3984375" style="33" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="6.3984375" style="36" hidden="1" customWidth="1"/>
+    <col min="33" max="34" width="6.3984375" style="33" customWidth="1"/>
+    <col min="35" max="35" width="6.3984375" style="36" customWidth="1"/>
     <col min="36" max="36" width="6.3984375" style="24"/>
     <col min="37" max="16384" width="6.3984375" style="8"/>
   </cols>
@@ -15772,7 +15946,7 @@
       <c r="Q17" s="7"/>
       <c r="U17" s="4"/>
       <c r="V17" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Z17" s="3">
         <v>30</v>
@@ -15835,7 +16009,7 @@
       <c r="Q18" s="7"/>
       <c r="U18" s="4"/>
       <c r="V18" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="Z18" s="3">
         <v>30</v>
@@ -15974,7 +16148,7 @@
         <v>20</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="Y20" s="3">
         <v>40</v>
@@ -16311,7 +16485,7 @@
       <c r="Q25" s="7"/>
       <c r="U25" s="4"/>
       <c r="V25" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="W25" s="3">
         <v>20</v>
@@ -18285,7 +18459,7 @@
       <c r="Q59" s="7"/>
       <c r="U59" s="4"/>
       <c r="V59" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AA59" s="3">
         <v>30</v>
@@ -20198,7 +20372,7 @@
       </c>
       <c r="U90" s="4"/>
       <c r="V90" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AA90" s="3">
         <v>30</v>
@@ -20264,7 +20438,7 @@
       <c r="Q91" s="7"/>
       <c r="U91" s="4"/>
       <c r="V91" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AB91" s="3">
         <v>20</v>
@@ -20336,7 +20510,7 @@
       </c>
       <c r="U92" s="4"/>
       <c r="V92" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="Y92" s="3">
         <v>20</v>
@@ -20888,7 +21062,7 @@
       <c r="Q102" s="7"/>
       <c r="U102" s="4"/>
       <c r="V102" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="Y102" s="3">
         <v>30</v>
@@ -21332,7 +21506,7 @@
       </c>
       <c r="U110" s="4"/>
       <c r="V110" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="W110" s="3">
         <v>20</v>
@@ -22776,7 +22950,7 @@
       </c>
       <c r="AF132" s="23"/>
       <c r="AG132" s="31" t="str">
-        <f t="shared" ref="AG132:AG197" si="16">"&lt;tr class='mmt"&amp;IF(E132="活動"," ev",IF(E132="限定"," ltd",""))&amp;IF(G132=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A132&amp;"' alt='"&amp;C132&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C132&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D132&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E132="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E132="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F132&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G132&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI132&amp;"'&gt;"&amp;H132&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I132&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J132&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K132&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M132&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N132&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O132&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P132&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q132&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R132&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S132&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T132&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U132&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V132&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W132&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X132&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y132&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z132&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA132&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB132&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC132&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" ref="AG132:AG156" si="16">"&lt;tr class='mmt"&amp;IF(E132="活動"," ev",IF(E132="限定"," ltd",""))&amp;IF(G132=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A132&amp;"' alt='"&amp;C132&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C132&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D132&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E132="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E132="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F132&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G132&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI132&amp;"'&gt;"&amp;H132&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I132&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J132&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K132&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M132&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N132&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O132&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P132&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q132&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R132&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S132&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T132&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U132&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V132&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W132&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X132&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y132&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z132&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA132&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB132&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC132&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr class='mmt ltd groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_SAGA_EULALIA_01.png' alt='大森林の唱和'&gt;&lt;/td&gt;&lt;td headers='name'&gt;大森林の唱和&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;サガ地方
 Saga Region&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m130'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
@@ -22785,7 +22959,7 @@
         <v>document.getElementById('m130').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI132" s="35" t="str">
-        <f t="shared" ref="AI132:AI197" si="17">"m"&amp;TEXT(ROW()-2,"000")</f>
+        <f t="shared" ref="AI132:AI198" si="17">"m"&amp;TEXT(ROW()-2,"000")</f>
         <v>m130</v>
       </c>
       <c r="AJ132" s="23"/>
@@ -22882,7 +23056,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
       <c r="L134" s="2">
-        <f t="shared" ref="L134:L200" si="18">MAX(J134:K134)</f>
+        <f t="shared" ref="L134:L202" si="18">MAX(J134:K134)</f>
         <v>0</v>
       </c>
       <c r="M134" s="2"/>
@@ -22892,7 +23066,7 @@
       <c r="Q134" s="7"/>
       <c r="U134" s="4"/>
       <c r="AD134" s="4">
-        <f t="shared" ref="AD134:AD200" si="19">MAX(W134:AC134)</f>
+        <f t="shared" ref="AD134:AD202" si="19">MAX(W134:AC134)</f>
         <v>0</v>
       </c>
       <c r="AF134" s="23"/>
@@ -23248,7 +23422,7 @@
       </c>
       <c r="G140" s="8"/>
       <c r="H140" s="4">
-        <f t="shared" ref="H140:H200" si="20">SUMPRODUCT(I$1:AD$1,I140:AD140)</f>
+        <f t="shared" ref="H140:H202" si="20">SUMPRODUCT(I$1:AD$1,I140:AD140)</f>
         <v>0</v>
       </c>
       <c r="I140" s="2"/>
@@ -23286,10 +23460,10 @@
     </row>
     <row r="141" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>278</v>
+        <v>561</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>279</v>
+        <v>563</v>
       </c>
       <c r="D141" s="3">
         <v>5</v>
@@ -23300,37 +23474,51 @@
       <c r="F141" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G141" s="8"/>
+      <c r="G141" s="8" t="s">
+        <v>564</v>
+      </c>
       <c r="H141" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I141" s="2"/>
-      <c r="J141" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="I141" s="2">
+        <v>50</v>
+      </c>
+      <c r="J141" s="2">
+        <v>20</v>
+      </c>
       <c r="K141" s="2"/>
       <c r="L141" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M141" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="M141" s="2">
+        <v>20</v>
+      </c>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
       <c r="P141" s="2"/>
       <c r="Q141" s="7"/>
       <c r="U141" s="4"/>
+      <c r="V141" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="AA141" s="3">
+        <v>60</v>
+      </c>
       <c r="AD141" s="4">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF141" s="23"/>
       <c r="AG141" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ltd groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_SEKAIJU_01.png' alt='運命の交差'&gt;&lt;/td&gt;&lt;td headers='name'&gt;運命の交差&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
-Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m139'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" ref="AG141:AG142" si="21">"&lt;tr class='mmt"&amp;IF(E141="活動"," ev",IF(E141="限定"," ltd",""))&amp;IF(G141=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A141&amp;"' alt='"&amp;C141&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C141&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D141&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E141="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E141="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F141&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G141&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI141&amp;"'&gt;"&amp;H141&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I141&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J141&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K141&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M141&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N141&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O141&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P141&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q141&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R141&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S141&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T141&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U141&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V141&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W141&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X141&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y141&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z141&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA141&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB141&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC141&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_SB_01.png' alt='盾の勇者に差し込む光'&gt;&lt;/td&gt;&lt;td headers='name'&gt;盾の勇者に差し込む光&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;盾の勇者の成り上がり&lt;/td&gt;&lt;td headers='score' id='m139'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;50&lt;/td&gt;&lt;td headers='patk'&gt;20&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;20&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;回避率+5&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;60&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH141" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI141&amp;"').innerHTML = (b1*"&amp;TEXT(J141,0)&amp;"+b2*"&amp;TEXT(K141,0)&amp;"+b0*"&amp;TEXT(L141,0)&amp;") + (s1*"&amp;TEXT(W141,0)&amp;"+s2*"&amp;TEXT(X141,0)&amp;"+s3*"&amp;TEXT(Y141,0)&amp;"+s4*"&amp;TEXT(Z141,0)&amp;"+s5*"&amp;TEXT(AA141,0)&amp;"+s6*"&amp;TEXT(AB141,0)&amp;"+s7*"&amp;TEXT(AC141,0)&amp;"+s0*"&amp;TEXT(AD141,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R141)),S141,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R141)),S141,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R141)),S141,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R141)),S141,S141)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R141)),S141,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R141)),S141,0)&amp;"+e07*"&amp;IF(T141="反撃",U141,0)&amp;"+e08*"&amp;IF(T141="風属性",U141,0)&amp;"+e09*"&amp;IF(T141="闇属性",U141,0)&amp;"+e10*"&amp;IF(T141="単体",U141,0)&amp;"+e11*"&amp;IF(T141="範囲",U141,0)&amp;"+e12*"&amp;IF(T141="人",U141,0)&amp;"+e13*"&amp;IF(T141="異族",U141,0)&amp;"+e14*"&amp;IF(T141="バジュラ",U141,0)&amp;"+e15*"&amp;IF(T141="魔動人形",U141,0)&amp;"+e16*"&amp;IF(T141="下位魔神",U141,0)&amp;");"</f>
-        <v>document.getElementById('m139').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m139').innerHTML = (b1*20+b2*0+b0*20) + (s1*0+s2*0+s3*0+s4*0+s5*60+s6*0+s7*0+s0*60) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI141" s="35" t="str">
         <f t="shared" si="17"/>
@@ -23340,10 +23528,10 @@
     </row>
     <row r="142" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>280</v>
+        <v>562</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>281</v>
+        <v>565</v>
       </c>
       <c r="D142" s="3">
         <v>5</v>
@@ -23352,39 +23540,54 @@
         <v>39</v>
       </c>
       <c r="F142" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="G142" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>564</v>
+      </c>
       <c r="H142" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I142" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="I142" s="2">
+        <v>30</v>
+      </c>
       <c r="J142" s="2"/>
-      <c r="K142" s="2"/>
-      <c r="L142" s="2">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
+      <c r="K142" s="2">
+        <v>30</v>
+      </c>
+      <c r="L142" s="2"/>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
       <c r="Q142" s="7"/>
+      <c r="R142" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="S142" s="3">
+        <v>20</v>
+      </c>
       <c r="U142" s="4"/>
+      <c r="Z142" s="3">
+        <v>30</v>
+      </c>
+      <c r="AA142" s="3">
+        <v>30</v>
+      </c>
       <c r="AD142" s="4">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF142" s="23"/>
       <c r="AG142" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ltd groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_SLOTH_ADOREI_01.png' alt='伸ばした指先に'&gt;&lt;/td&gt;&lt;td headers='name'&gt;伸ばした指先に&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
-Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m140'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_SB_02.png' alt='第二王女の願いごと'&gt;&lt;/td&gt;&lt;td headers='name'&gt;第二王女の願いごと&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;盾の勇者の成り上がり&lt;/td&gt;&lt;td headers='score' id='m140'&gt;50&lt;/td&gt;&lt;td headers='HP'&gt;30&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;30&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;打擊&amp;魔法&lt;/td&gt;&lt;td headers='a.bonus'&gt;20&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;30&lt;/td&gt;&lt;td headers='sinE'&gt;30&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH142" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI142&amp;"').innerHTML = (b1*"&amp;TEXT(J142,0)&amp;"+b2*"&amp;TEXT(K142,0)&amp;"+b0*"&amp;TEXT(L142,0)&amp;") + (s1*"&amp;TEXT(W142,0)&amp;"+s2*"&amp;TEXT(X142,0)&amp;"+s3*"&amp;TEXT(Y142,0)&amp;"+s4*"&amp;TEXT(Z142,0)&amp;"+s5*"&amp;TEXT(AA142,0)&amp;"+s6*"&amp;TEXT(AB142,0)&amp;"+s7*"&amp;TEXT(AC142,0)&amp;"+s0*"&amp;TEXT(AD142,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R142)),S142,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R142)),S142,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R142)),S142,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R142)),S142,S142)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R142)),S142,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R142)),S142,0)&amp;"+e07*"&amp;IF(T142="反撃",U142,0)&amp;"+e08*"&amp;IF(T142="風属性",U142,0)&amp;"+e09*"&amp;IF(T142="闇属性",U142,0)&amp;"+e10*"&amp;IF(T142="単体",U142,0)&amp;"+e11*"&amp;IF(T142="範囲",U142,0)&amp;"+e12*"&amp;IF(T142="人",U142,0)&amp;"+e13*"&amp;IF(T142="異族",U142,0)&amp;"+e14*"&amp;IF(T142="バジュラ",U142,0)&amp;"+e15*"&amp;IF(T142="魔動人形",U142,0)&amp;"+e16*"&amp;IF(T142="下位魔神",U142,0)&amp;");"</f>
-        <v>document.getElementById('m140').innerHTML = (b1*0+b2*0+b0*0) + (s1*0+s2*0+s3*0+s4*0+s5*0+s6*0+s7*0+s0*0) + (e01*0+e02*0+e03*0+e04*+e05*0+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
+        <v>document.getElementById('m140').innerHTML = (b1*0+b2*30+b0*0) + (s1*0+s2*0+s3*0+s4*30+s5*30+s6*0+s7*0+s0*30) + (e01*0+e02*0+e03*0+e04*20+e05*20+e06*0+e07*0+e08*0+e09*0+e10*0+e11*0+e12*0+e13*0+e14*0+e15*0+e16*0);</v>
       </c>
       <c r="AI142" s="35" t="str">
         <f t="shared" si="17"/>
@@ -23394,10 +23597,10 @@
     </row>
     <row r="143" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D143" s="3">
         <v>5</v>
@@ -23406,7 +23609,7 @@
         <v>39</v>
       </c>
       <c r="F143" s="15" t="s">
-        <v>282</v>
+        <v>36</v>
       </c>
       <c r="G143" s="8"/>
       <c r="H143" s="4">
@@ -23432,9 +23635,9 @@
       </c>
       <c r="AF143" s="23"/>
       <c r="AG143" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ltd groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_SLOTH_AISHA_01.png' alt='悩殺パフォーマンス'&gt;&lt;/td&gt;&lt;td headers='name'&gt;悩殺パフォーマンス&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
-Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m141'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E143="活動"," ev",IF(E143="限定"," ltd",""))&amp;IF(G143=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A141&amp;"' alt='"&amp;C143&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C143&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D143&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E143="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E143="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F143&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G143&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI143&amp;"'&gt;"&amp;H143&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I143&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J143&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K143&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M143&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N143&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O143&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P143&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q143&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R143&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S143&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T143&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U143&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V143&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W143&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X143&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y143&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z143&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA143&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB143&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC143&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt ltd groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_SB_01.png' alt='運命の交差'&gt;&lt;/td&gt;&lt;td headers='name'&gt;運命の交差&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;その他
+Other&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m141'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH143" s="31" t="str">
         <f ca="1">"document.getElementById('"&amp;AI143&amp;"').innerHTML = (b1*"&amp;TEXT(J143,0)&amp;"+b2*"&amp;TEXT(K143,0)&amp;"+b0*"&amp;TEXT(L143,0)&amp;") + (s1*"&amp;TEXT(W143,0)&amp;"+s2*"&amp;TEXT(X143,0)&amp;"+s3*"&amp;TEXT(Y143,0)&amp;"+s4*"&amp;TEXT(Z143,0)&amp;"+s5*"&amp;TEXT(AA143,0)&amp;"+s6*"&amp;TEXT(AB143,0)&amp;"+s7*"&amp;TEXT(AC143,0)&amp;"+s0*"&amp;TEXT(AD143,0)&amp;") + (e01*"&amp;IF(ISNUMBER(SEARCH("斬撃",R143)),S143,0)&amp;"+e02*"&amp;IF(ISNUMBER(SEARCH("刺突",R143)),S143,0)&amp;"+e03*"&amp;IF(ISNUMBER(SEARCH("打撃",R143)),S143,0)&amp;"+e04*"&amp;IF(ISNUMBER(SEARCH("射撃",R143)),S143,S143)&amp;"+e05*"&amp;IF(ISNUMBER(SEARCH("魔法",R143)),S143,0)&amp;"+e06*"&amp;IF(ISNUMBER(SERCH("無区分",R143)),S143,0)&amp;"+e07*"&amp;IF(T143="反撃",U143,0)&amp;"+e08*"&amp;IF(T143="風属性",U143,0)&amp;"+e09*"&amp;IF(T143="闇属性",U143,0)&amp;"+e10*"&amp;IF(T143="単体",U143,0)&amp;"+e11*"&amp;IF(T143="範囲",U143,0)&amp;"+e12*"&amp;IF(T143="人",U143,0)&amp;"+e13*"&amp;IF(T143="異族",U143,0)&amp;"+e14*"&amp;IF(T143="バジュラ",U143,0)&amp;"+e15*"&amp;IF(T143="魔動人形",U143,0)&amp;"+e16*"&amp;IF(T143="下位魔神",U143,0)&amp;");"</f>
@@ -23448,13 +23651,16 @@
     </row>
     <row r="144" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D144" s="3">
         <v>5</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="F144" s="15" t="s">
         <v>282</v>
@@ -23483,8 +23689,8 @@
       </c>
       <c r="AF144" s="23"/>
       <c r="AG144" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_SLOTH_ALBELL_01.png' alt='追えない背中を抱いて'&gt;&lt;/td&gt;&lt;td headers='name'&gt;追えない背中を抱いて&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
+        <f>"&lt;tr class='mmt"&amp;IF(E144="活動"," ev",IF(E144="限定"," ltd",""))&amp;IF(G144=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A142&amp;"' alt='"&amp;C144&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C144&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D144&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E144="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E144="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F144&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G144&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI144&amp;"'&gt;"&amp;H144&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I144&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J144&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K144&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M144&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N144&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O144&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P144&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q144&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R144&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S144&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T144&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U144&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V144&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W144&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X144&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y144&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z144&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA144&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB144&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC144&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt ltd groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_SB_02.png' alt='伸ばした指先に'&gt;&lt;/td&gt;&lt;td headers='name'&gt;伸ばした指先に&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
 Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m142'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH144" s="31" t="str">
@@ -23499,13 +23705,16 @@
     </row>
     <row r="145" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D145" s="3">
         <v>5</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="F145" s="15" t="s">
         <v>282</v>
@@ -23534,8 +23743,8 @@
       </c>
       <c r="AF145" s="23"/>
       <c r="AG145" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_SLOTH_CHERYL_01.png' alt='悪戯の祭典、その裏に'&gt;&lt;/td&gt;&lt;td headers='name'&gt;悪戯の祭典、その裏に&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
+        <f>"&lt;tr class='mmt"&amp;IF(E145="活動"," ev",IF(E145="限定"," ltd",""))&amp;IF(G145=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A143&amp;"' alt='"&amp;C145&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C145&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D145&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E145="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E145="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F145&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G145&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI145&amp;"'&gt;"&amp;H145&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I145&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J145&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K145&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M145&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N145&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O145&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P145&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q145&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R145&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S145&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T145&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U145&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V145&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W145&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X145&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y145&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z145&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA145&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB145&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC145&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt ltd groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_SEKAIJU_01.png' alt='悩殺パフォーマンス'&gt;&lt;/td&gt;&lt;td headers='name'&gt;悩殺パフォーマンス&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
 Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m143'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH145" s="31" t="str">
@@ -23550,10 +23759,10 @@
     </row>
     <row r="146" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D146" s="3">
         <v>5</v>
@@ -23585,8 +23794,8 @@
       </c>
       <c r="AF146" s="23"/>
       <c r="AG146" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_SLOTH_DAISY_01.png' alt='期待の新星、現る！'&gt;&lt;/td&gt;&lt;td headers='name'&gt;期待の新星、現る！&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
+        <f>"&lt;tr class='mmt"&amp;IF(E146="活動"," ev",IF(E146="限定"," ltd",""))&amp;IF(G146=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A144&amp;"' alt='"&amp;C146&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C146&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D146&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E146="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E146="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F146&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G146&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI146&amp;"'&gt;"&amp;H146&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I146&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J146&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K146&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M146&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N146&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O146&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P146&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q146&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R146&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S146&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T146&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U146&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V146&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W146&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X146&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y146&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z146&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA146&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB146&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC146&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_SLOTH_ADOREI_01.png' alt='追えない背中を抱いて'&gt;&lt;/td&gt;&lt;td headers='name'&gt;追えない背中を抱いて&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
 Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m144'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH146" s="31" t="str">
@@ -23601,10 +23810,10 @@
     </row>
     <row r="147" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D147" s="3">
         <v>5</v>
@@ -23636,8 +23845,8 @@
       </c>
       <c r="AF147" s="23"/>
       <c r="AG147" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_SLOTH_EVERICA_01.png' alt='ライトトラック'&gt;&lt;/td&gt;&lt;td headers='name'&gt;ライトトラック&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
+        <f>"&lt;tr class='mmt"&amp;IF(E147="活動"," ev",IF(E147="限定"," ltd",""))&amp;IF(G147=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A145&amp;"' alt='"&amp;C147&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C147&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D147&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E147="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E147="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F147&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G147&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI147&amp;"'&gt;"&amp;H147&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I147&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J147&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K147&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M147&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N147&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O147&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P147&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q147&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R147&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S147&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T147&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U147&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V147&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W147&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X147&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y147&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z147&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA147&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB147&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC147&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_SLOTH_AISHA_01.png' alt='悪戯の祭典、その裏に'&gt;&lt;/td&gt;&lt;td headers='name'&gt;悪戯の祭典、その裏に&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
 Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m145'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH147" s="31" t="str">
@@ -23652,16 +23861,13 @@
     </row>
     <row r="148" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D148" s="3">
         <v>5</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="F148" s="15" t="s">
         <v>282</v>
@@ -23690,8 +23896,8 @@
       </c>
       <c r="AF148" s="23"/>
       <c r="AG148" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ev groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_SLOTH_FIONA_01.png' alt='二人の未来'&gt;&lt;/td&gt;&lt;td headers='name'&gt;二人の未来&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
+        <f>"&lt;tr class='mmt"&amp;IF(E148="活動"," ev",IF(E148="限定"," ltd",""))&amp;IF(G148=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A146&amp;"' alt='"&amp;C148&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C148&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D148&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E148="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E148="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F148&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G148&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI148&amp;"'&gt;"&amp;H148&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I148&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J148&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K148&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M148&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N148&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O148&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P148&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q148&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R148&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S148&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T148&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U148&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V148&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W148&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X148&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y148&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z148&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA148&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB148&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC148&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_SLOTH_ALBELL_01.png' alt='期待の新星、現る！'&gt;&lt;/td&gt;&lt;td headers='name'&gt;期待の新星、現る！&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
 Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m146'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH148" s="31" t="str">
@@ -23706,16 +23912,13 @@
     </row>
     <row r="149" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D149" s="3">
         <v>5</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="F149" s="15" t="s">
         <v>282</v>
@@ -23744,8 +23947,8 @@
       </c>
       <c r="AF149" s="23"/>
       <c r="AG149" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ev groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_SLOTH_FIONA_02.png' alt='花嫁に涙は似合わない'&gt;&lt;/td&gt;&lt;td headers='name'&gt;花嫁に涙は似合わない&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
+        <f>"&lt;tr class='mmt"&amp;IF(E149="活動"," ev",IF(E149="限定"," ltd",""))&amp;IF(G149=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A147&amp;"' alt='"&amp;C149&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C149&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D149&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E149="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E149="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F149&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G149&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI149&amp;"'&gt;"&amp;H149&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I149&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J149&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K149&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M149&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N149&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O149&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P149&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q149&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R149&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S149&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T149&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U149&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V149&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W149&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X149&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y149&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z149&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA149&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB149&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC149&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_SLOTH_CHERYL_01.png' alt='ライトトラック'&gt;&lt;/td&gt;&lt;td headers='name'&gt;ライトトラック&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
 Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m147'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH149" s="31" t="str">
@@ -23760,16 +23963,16 @@
     </row>
     <row r="150" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D150" s="3">
         <v>5</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F150" s="15" t="s">
         <v>282</v>
@@ -23798,8 +24001,8 @@
       </c>
       <c r="AF150" s="23"/>
       <c r="AG150" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ltd groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_SLOTH_HAZEL_01.png' alt='想いを映す銀の月'&gt;&lt;/td&gt;&lt;td headers='name'&gt;想いを映す銀の月&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
+        <f>"&lt;tr class='mmt"&amp;IF(E150="活動"," ev",IF(E150="限定"," ltd",""))&amp;IF(G150=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A148&amp;"' alt='"&amp;C150&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C150&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D150&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E150="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E150="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F150&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G150&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI150&amp;"'&gt;"&amp;H150&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I150&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J150&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K150&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M150&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N150&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O150&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P150&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q150&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R150&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S150&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T150&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U150&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V150&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W150&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X150&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y150&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z150&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA150&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB150&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC150&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt ev groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_SLOTH_DAISY_01.png' alt='二人の未来'&gt;&lt;/td&gt;&lt;td headers='name'&gt;二人の未来&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
 Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m148'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH150" s="31" t="str">
@@ -23814,16 +24017,16 @@
     </row>
     <row r="151" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D151" s="3">
         <v>5</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F151" s="15" t="s">
         <v>282</v>
@@ -23852,8 +24055,8 @@
       </c>
       <c r="AF151" s="23"/>
       <c r="AG151" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ltd groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_SLOTH_IKONA_01.png' alt='色違いの涙'&gt;&lt;/td&gt;&lt;td headers='name'&gt;色違いの涙&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
+        <f>"&lt;tr class='mmt"&amp;IF(E151="活動"," ev",IF(E151="限定"," ltd",""))&amp;IF(G151=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A149&amp;"' alt='"&amp;C151&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C151&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D151&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E151="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E151="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F151&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G151&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI151&amp;"'&gt;"&amp;H151&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I151&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J151&amp;"&lt;/td&gt;&lt;td headers='matk'&gt;"&amp;K151&amp;"&lt;/td&gt;&lt;td headers='pdef'&gt;"&amp;M151&amp;"&lt;/td&gt;&lt;td headers='mdef'&gt;"&amp;N151&amp;"&lt;/td&gt;&lt;td headers='dex'&gt;"&amp;O151&amp;"&lt;/td&gt;&lt;td headers='agi'&gt;"&amp;P151&amp;"&lt;/td&gt;&lt;td headers='luck'&gt;"&amp;Q151&amp;"&lt;/td&gt;&lt;td headers='a.type'&gt;"&amp;R151&amp;"&lt;/td&gt;&lt;td headers='a.bonus'&gt;"&amp;S151&amp;"&lt;/td&gt;&lt;td headers='special'&gt;"&amp;T151&amp;"&lt;/td&gt;&lt;td headers='sp.bonus'&gt;"&amp;U151&amp;"&lt;/td&gt;&lt;td headers='others'&gt;"&amp;V151&amp;"&lt;/td&gt;&lt;td headers='sinA'&gt;"&amp;W151&amp;"&lt;/td&gt;&lt;td headers='sinB'&gt;"&amp;X151&amp;"&lt;/td&gt;&lt;td headers='sinC'&gt;"&amp;Y151&amp;"&lt;/td&gt;&lt;td headers='sinD'&gt;"&amp;Z151&amp;"&lt;/td&gt;&lt;td headers='sinE'&gt;"&amp;AA151&amp;"&lt;/td&gt;&lt;td headers='sinF'&gt;"&amp;AB151&amp;"&lt;/td&gt;&lt;td headers='sinG'&gt;"&amp;AC151&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='mmt ev groupless'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_SLOTH_EVERICA_01.png' alt='花嫁に涙は似合わない'&gt;&lt;/td&gt;&lt;td headers='name'&gt;花嫁に涙は似合わない&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='event'&gt;活動&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
 Slothstein&lt;/td&gt;&lt;td headers='group'&gt;&lt;/td&gt;&lt;td headers='score' id='m149'&gt;0&lt;/td&gt;&lt;td headers='HP'&gt;&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;&lt;/td&gt;&lt;td headers='sp.bonus'&gt;&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="AH151" s="31" t="str">
@@ -23868,10 +24071,10 @@
     </row>
     <row r="152" spans="1:36" s="3" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D152" s="3">
         <v>5</v>
@@ -23882,54 +24085,37 @@
       <c r="F152" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="G152" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="G152" s="8"/>
       <c r="H152" s="4">
         <f t="shared" si="20"/>
-        <v>80</v>
-      </c>
-      <c r="I152" s="2">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" s="2"/>
       <c r="J152" s="2"/>
-      <c r="K152" s="2">
-        <v>40</v>
-      </c>
+      <c r="K152" s="2"/>
       <c r="L152" s="2">
         <f t="shared" si="18"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
       <c r="P152" s="2"/>
       <c r="Q152" s="7"/>
-      <c r="T152" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="U152" s="4">
-        <v>10</v>
-      </c>
-      <c r="X152" s="3">
-        <v>30</v>
-      </c>
-      <c r="AB152" s="3">
-        <v>30</v>
-      </c>
+      <c r="U152" s="4"/>
       <c r="AD152" s="4">
         <f t="shared" si="19"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AF152" s="23"/>
       <c r="AG152" s="31" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;tr class='mmt ltd'&gt;&lt;td headers='icon'&gt;&lt;img src='resources/TS_SLOTH_KAYA_01.png' alt='シーサイドライブラリー'&gt;&lt;/td&gt;&lt;td headers='name'&gt;シーサイドライブラリー&lt;/td&gt;&lt;td headers='rank'&gt;5&lt;/td&gt;&lt;td headers='remark'&gt;&lt;span class='limited'&gt;限定&lt;/span&gt;&lt;/td&gt;&lt;td headers='origin'&gt;スロウスシュタイン
-Slothstein&lt;/td&gt;&lt;td headers='group'&gt;聖教騎士団&lt;/td&gt;&lt;td headers='score' id='m150'&gt;80&lt;/td&gt;&lt;td headers='HP'&gt;40&lt;/td&gt;&lt;td headers='patk'&gt;&lt;/td&gt;&lt;td headers='matk'&gt;40&lt;/td&gt;&lt;td headers='pdef'&gt;&lt;/td&gt;&lt;td headers='mdef'&gt;&lt;/td&gt;&lt;td headers='dex'&gt;&lt;/td&gt;&lt;td headers='agi'&gt;&lt;/td&gt;&lt;td headers='luck'&gt;&lt;/td&gt;&lt;td headers='a.type'&gt;&lt;/td&gt;&lt;td headers='a.bonus'&gt;&lt;/td&gt;&lt;td headers='special'&gt;範囲&lt;/td&gt;&lt;td headers='sp.bonus'&gt;10&lt;/td&gt;&lt;td headers='others'&gt;&lt;/td&gt;&lt;td headers='sinA'&gt;&lt;/td&gt;&lt;td headers='sinB'&gt;30&lt;/td&gt;&lt;td headers='sinC'&gt;&lt;/td&gt;&lt;td headers='sinD'&gt;&lt;/td&gt;&lt;td headers='sinE'&gt;&lt;/td&gt;&lt;td headers='sinF'&gt;30&lt;/td&gt;&lt;td headers='sinG'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class='mmt"&amp;IF(E152="活動"," ev",IF(E152="限定"," ltd",""))&amp;IF(G152=""," groupless'","'")&amp;"&gt;&lt;td headers='icon'&gt;&lt;img src='resources/"&amp;A150&amp;"' alt='"&amp;C152&amp;"'&gt;&lt;/td&gt;&lt;td headers='name'&gt;"&amp;C152&amp;"&lt;/td&gt;&lt;td headers='rank'&gt;"&amp;D152&amp;"&lt;/td&gt;&lt;td headers='remark'&gt;"&amp;IF(E152="活動","&lt;span class='event'&gt;活動&lt;/span&gt;",IF(E152="限定","&lt;span class='limited'&gt;限定&lt;/span&gt;",""))&amp;"&lt;/td&gt;&lt;td headers='origin'&gt;"&amp;F152&amp;"&lt;/td&gt;&lt;td headers='group'&gt;"&amp;G152&amp;"&lt;/td&gt;&lt;td headers='score' id='"&amp;AI152&amp;"'&gt;"&amp;H152&amp;"&lt;/td&gt;&lt;td headers='HP'&gt;"&amp;I152&amp;"&lt;/td&gt;&lt;td headers='patk'&gt;"&amp;J152&amp;"&lt;/td&gt;&lt;td 